--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3250D0-83B2-7A4E-829D-22AC6120B4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D7ABE-0CE5-8E47-820A-30DF5798BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -384,7 +384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D7ABE-0CE5-8E47-820A-30DF5798BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A8611-F004-7944-9DEE-E8EE420BEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,107 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>FY2019</t>
+  </si>
+  <si>
+    <t>FY2020</t>
+  </si>
+  <si>
+    <t>FY2021</t>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General &amp; Administrative </t>
+  </si>
+  <si>
+    <t>Interest Income, Net</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Other Income </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Clinical &amp; Preclinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Manufacturing &amp; Formulation </t>
+  </si>
+  <si>
+    <t>Personnel Expenses</t>
+  </si>
+  <si>
+    <t>Stock-based Compensation</t>
+  </si>
+  <si>
+    <t>Regulatory &amp; Other</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Change in fair value of warrant liabilities</t>
+  </si>
+  <si>
+    <t>Weighted-average common stock outstanding</t>
+  </si>
+  <si>
+    <t>Legal &amp; Professional Fees</t>
+  </si>
+  <si>
+    <t>Commercial Expenses</t>
+  </si>
+  <si>
+    <t>Stock=based Compensation</t>
+  </si>
+  <si>
+    <t>Insurance Expenses</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>2Q2019A</t>
+  </si>
+  <si>
+    <t>1Q2019A</t>
+  </si>
+  <si>
+    <t>3Q2019A</t>
+  </si>
+  <si>
+    <t>4Q2019A</t>
+  </si>
+  <si>
+    <t>1Q2020A</t>
+  </si>
+  <si>
+    <t>2Q202A</t>
+  </si>
+  <si>
+    <t>3Q2020A</t>
+  </si>
+  <si>
+    <t>4Q2020A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,14 +483,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>32350</v>
+      </c>
+      <c r="T4">
+        <v>61788</v>
+      </c>
+      <c r="U4">
+        <v>62570</v>
+      </c>
+      <c r="V4">
+        <v>55634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>17436</v>
+      </c>
+      <c r="T5">
+        <v>28736</v>
+      </c>
+      <c r="U5">
+        <v>40323</v>
+      </c>
+      <c r="V5">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>9069</v>
+      </c>
+      <c r="T6">
+        <v>24424</v>
+      </c>
+      <c r="U6">
+        <v>11910</v>
+      </c>
+      <c r="V6">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>2728</v>
+      </c>
+      <c r="T7">
+        <v>3351</v>
+      </c>
+      <c r="U7">
+        <v>5529</v>
+      </c>
+      <c r="V7">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>2762</v>
+      </c>
+      <c r="T8">
+        <v>2580</v>
+      </c>
+      <c r="U8">
+        <v>2759</v>
+      </c>
+      <c r="V8">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>355</v>
+      </c>
+      <c r="T9">
+        <v>2697</v>
+      </c>
+      <c r="U9">
+        <v>2049</v>
+      </c>
+      <c r="V9">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <f>S9+S8+S7+S6+S5</f>
+        <v>32350</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:V10" si="0">T9+T8+T7+T6+T5</f>
+        <v>61788</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>62570</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>55634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <f>S10-S4</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:V11" si="1">T10-T4</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>13232</v>
+      </c>
+      <c r="T13">
+        <v>32678</v>
+      </c>
+      <c r="U13">
+        <v>43048</v>
+      </c>
+      <c r="V13">
+        <v>27316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14">
+        <v>4397</v>
+      </c>
+      <c r="T14">
+        <v>8451</v>
+      </c>
+      <c r="U14">
+        <v>6340</v>
+      </c>
+      <c r="V14">
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>5746</v>
+      </c>
+      <c r="U15">
+        <v>11341</v>
+      </c>
+      <c r="V15">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <v>1462</v>
+      </c>
+      <c r="T16">
+        <v>5651</v>
+      </c>
+      <c r="U16">
+        <v>6617</v>
+      </c>
+      <c r="V16">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>3409</v>
+      </c>
+      <c r="T17">
+        <v>5446</v>
+      </c>
+      <c r="U17">
+        <v>8418</v>
+      </c>
+      <c r="V17">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18">
+        <v>1993</v>
+      </c>
+      <c r="T18">
+        <v>3764</v>
+      </c>
+      <c r="U18">
+        <v>4399</v>
+      </c>
+      <c r="V18">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19">
+        <v>1971</v>
+      </c>
+      <c r="T19">
+        <v>3620</v>
+      </c>
+      <c r="U19">
+        <v>5933</v>
+      </c>
+      <c r="V19">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <f>S19+S18+S17+S16+S15+S14</f>
+        <v>13232</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:V20" si="2">T19+T18+T17+T16+T15+T14</f>
+        <v>32678</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>43048</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>27316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21">
+        <f>S20-S13</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:V21" si="3">T20-T13</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>93</v>
+      </c>
+      <c r="T23">
+        <v>559</v>
+      </c>
+      <c r="U23">
+        <v>555</v>
+      </c>
+      <c r="V23">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>-24</v>
+      </c>
+      <c r="T25">
+        <v>-54</v>
+      </c>
+      <c r="U25">
+        <v>-521</v>
+      </c>
+      <c r="V25">
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <f>S25+S24+S23</f>
+        <v>69</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:V26" si="4">T25+T24+T23</f>
+        <v>505</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>-45513</v>
+      </c>
+      <c r="T28">
+        <v>-93961</v>
+      </c>
+      <c r="U28">
+        <v>-105584</v>
+      </c>
+      <c r="V28">
+        <v>-82508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29">
+        <v>25598181</v>
+      </c>
+      <c r="V29">
+        <v>37825431</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A8611-F004-7944-9DEE-E8EE420BEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7072C1-2D03-C942-A891-2490BEFBADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>FY2019</t>
   </si>
@@ -132,16 +133,65 @@
   </si>
   <si>
     <t>4Q2020A</t>
+  </si>
+  <si>
+    <t>1Q2021A</t>
+  </si>
+  <si>
+    <t>2Q2021A</t>
+  </si>
+  <si>
+    <t>3Q2021A</t>
+  </si>
+  <si>
+    <t>4Q2021A</t>
+  </si>
+  <si>
+    <t>1Q2022A</t>
+  </si>
+  <si>
+    <t>2Q2022A</t>
+  </si>
+  <si>
+    <t>3Q2022A</t>
+  </si>
+  <si>
+    <t>4Q2022A</t>
+  </si>
+  <si>
+    <t>1Q2023A</t>
+  </si>
+  <si>
+    <t>2Q2023A</t>
+  </si>
+  <si>
+    <t>License Revenue</t>
+  </si>
+  <si>
+    <t>Applied Therapeutics</t>
+  </si>
+  <si>
+    <t>APLT</t>
+  </si>
+  <si>
+    <t>HC Net Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,8 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,19 +534,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A2:V29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.83203125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -519,414 +598,1239 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
       <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="S4">
+      <c r="J7" s="1">
+        <v>14448</v>
+      </c>
+      <c r="K7" s="1">
+        <v>14802</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17597</v>
+      </c>
+      <c r="M7">
+        <f>X7-L7-K7-J7</f>
+        <v>15723</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15030</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15396</v>
+      </c>
+      <c r="P7" s="1">
+        <v>13116</v>
+      </c>
+      <c r="Q7">
+        <f>Y7-P7-O7-N7</f>
+        <v>12092</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15935</v>
+      </c>
+      <c r="S7" s="1">
+        <v>11883</v>
+      </c>
+      <c r="V7" s="1">
         <v>32350</v>
       </c>
-      <c r="T4">
+      <c r="W7" s="1">
         <v>61788</v>
       </c>
-      <c r="U4">
+      <c r="X7" s="1">
         <v>62570</v>
       </c>
-      <c r="V4">
+      <c r="Y7" s="1">
         <v>55634</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="S5">
+      <c r="J8" s="1">
+        <v>6454</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10172</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11778</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M12" si="0">X8-L8-K8-J8</f>
+        <v>11919</v>
+      </c>
+      <c r="N8" s="1">
+        <v>11528</v>
+      </c>
+      <c r="O8" s="1">
+        <v>12402</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10035</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q12" si="1">Y8-P8-O8-N8</f>
+        <v>8963</v>
+      </c>
+      <c r="R8" s="1">
+        <v>11816</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8744</v>
+      </c>
+      <c r="V8" s="1">
         <v>17436</v>
       </c>
-      <c r="T5">
+      <c r="W8" s="1">
         <v>28736</v>
       </c>
-      <c r="U5">
+      <c r="X8" s="1">
         <v>40323</v>
       </c>
-      <c r="V5">
+      <c r="Y8" s="1">
         <v>42928</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="J9" s="1">
+        <v>5820</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2316</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3172</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="N9" s="1">
+        <v>231</v>
+      </c>
+      <c r="O9" s="1">
+        <v>136</v>
+      </c>
+      <c r="P9" s="1">
+        <v>236</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1271</v>
+      </c>
+      <c r="S9" s="1">
+        <v>540</v>
+      </c>
+      <c r="V9" s="1">
         <v>9069</v>
       </c>
-      <c r="T6">
+      <c r="W9" s="1">
         <v>24424</v>
       </c>
-      <c r="U6">
+      <c r="X9" s="1">
         <v>11910</v>
       </c>
-      <c r="V6">
+      <c r="Y9" s="1">
         <v>957</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="S7">
+      <c r="J10" s="1">
+        <v>1092</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1270</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1368</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1799</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1937</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1578</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1416</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1717</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1700</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1408</v>
+      </c>
+      <c r="V10" s="1">
         <v>2728</v>
       </c>
-      <c r="T7">
+      <c r="W10" s="1">
         <v>3351</v>
       </c>
-      <c r="U7">
+      <c r="X10" s="1">
         <v>5529</v>
       </c>
-      <c r="V7">
+      <c r="Y10" s="1">
         <v>6648</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="S8">
+      <c r="J11" s="1">
+        <v>799</v>
+      </c>
+      <c r="K11" s="1">
+        <v>533</v>
+      </c>
+      <c r="L11" s="1">
+        <v>642</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>785</v>
+      </c>
+      <c r="N11" s="1">
+        <v>856</v>
+      </c>
+      <c r="O11" s="1">
+        <v>788</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1178</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>797</v>
+      </c>
+      <c r="R11" s="1">
+        <v>862</v>
+      </c>
+      <c r="S11" s="1">
+        <v>752</v>
+      </c>
+      <c r="V11" s="1">
         <v>2762</v>
       </c>
-      <c r="T8">
+      <c r="W11" s="1">
         <v>2580</v>
       </c>
-      <c r="U8">
+      <c r="X11" s="1">
         <v>2759</v>
       </c>
-      <c r="V8">
+      <c r="Y11" s="1">
         <v>3619</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="S9">
+      <c r="J12" s="1">
+        <v>283</v>
+      </c>
+      <c r="K12" s="1">
+        <v>511</v>
+      </c>
+      <c r="L12" s="1">
+        <v>637</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="N12" s="1">
+        <v>478</v>
+      </c>
+      <c r="O12" s="1">
+        <v>492</v>
+      </c>
+      <c r="P12" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="R12" s="1">
+        <v>286</v>
+      </c>
+      <c r="S12" s="1">
+        <v>439</v>
+      </c>
+      <c r="V12" s="1">
         <v>355</v>
       </c>
-      <c r="T9">
+      <c r="W12" s="1">
         <v>2697</v>
       </c>
-      <c r="U9">
+      <c r="X12" s="1">
         <v>2049</v>
       </c>
-      <c r="V9">
+      <c r="Y12" s="1">
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="S10">
-        <f>S9+S8+S7+S6+S5</f>
+      <c r="J13">
+        <f>J12+J11+J10+J9+J8</f>
+        <v>14448</v>
+      </c>
+      <c r="K13">
+        <f>K12+K11+K10+K9+K8</f>
+        <v>14802</v>
+      </c>
+      <c r="L13">
+        <f>L12+L11+L10+L9+L8</f>
+        <v>17597</v>
+      </c>
+      <c r="M13">
+        <f>M12+M11+M10+M9+M8</f>
+        <v>15723</v>
+      </c>
+      <c r="N13">
+        <f>N12+N11+N10+N9+N8</f>
+        <v>15030</v>
+      </c>
+      <c r="O13">
+        <f>O12+O11+O10+O9+O8</f>
+        <v>15396</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:S13" si="2">P12+P11+P10+P9+P8</f>
+        <v>13116</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>12092</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>15935</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>11883</v>
+      </c>
+      <c r="V13">
+        <f>V12+V11+V10+V9+V8</f>
         <v>32350</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10:V10" si="0">T9+T8+T7+T6+T5</f>
+      <c r="W13">
+        <f t="shared" ref="W13:Y13" si="3">W12+W11+W10+W9+W8</f>
         <v>61788</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
+      <c r="X13">
+        <f t="shared" si="3"/>
         <v>62570</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
+      <c r="Y13">
+        <f t="shared" si="3"/>
         <v>55634</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="S11">
-        <f>S10-S4</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" ref="T11:V11" si="1">T10-T4</f>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="J14">
+        <f>J13-J7</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>K13-K7</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>L13-L7</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>M13-M7</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>N13-N7</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>O13-O7</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:S14" si="4">P13-P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>V13-V7</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:Y14" si="5">W13-W7</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="S13">
+      <c r="J16" s="1">
+        <v>9751</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11073</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10833</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M22" si="6">X16-L16-K16-J16</f>
+        <v>11391</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8071</v>
+      </c>
+      <c r="O16" s="1">
+        <v>6125</v>
+      </c>
+      <c r="P16" s="1">
+        <v>6240</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q22" si="7">Y16-P16-O16-N16</f>
+        <v>6880</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5583</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5293</v>
+      </c>
+      <c r="V16" s="1">
         <v>13232</v>
       </c>
-      <c r="T13">
+      <c r="W16" s="1">
         <v>32678</v>
       </c>
-      <c r="U13">
+      <c r="X16" s="1">
         <v>43048</v>
       </c>
-      <c r="V13">
+      <c r="Y16" s="1">
         <v>27316</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="S14">
+      <c r="J17" s="1">
+        <v>1771</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1826</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1511</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>1232</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1619</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1359</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1341</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>2535</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1487</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1605</v>
+      </c>
+      <c r="V17" s="1">
         <v>4397</v>
       </c>
-      <c r="T14">
+      <c r="W17" s="1">
         <v>8451</v>
       </c>
-      <c r="U14">
+      <c r="X17" s="1">
         <v>6340</v>
       </c>
-      <c r="V14">
+      <c r="Y17" s="1">
         <v>6854</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="T15">
+      <c r="J18" s="1">
+        <v>1932</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2695</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3111</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>3603</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1288</v>
+      </c>
+      <c r="O18" s="1">
+        <v>241</v>
+      </c>
+      <c r="P18" s="1">
+        <v>315</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>349</v>
+      </c>
+      <c r="R18" s="1">
+        <v>143</v>
+      </c>
+      <c r="S18" s="1">
+        <v>228</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1">
         <v>5746</v>
       </c>
-      <c r="U15">
+      <c r="X18" s="1">
         <v>11341</v>
       </c>
-      <c r="V15">
+      <c r="Y18" s="1">
         <v>2193</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="S16">
+      <c r="J19" s="1">
+        <v>1544</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1725</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1653</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>1695</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1768</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1294</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1157</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>1318</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1227</v>
+      </c>
+      <c r="S19" s="1">
+        <v>889</v>
+      </c>
+      <c r="V19" s="1">
         <v>1462</v>
       </c>
-      <c r="T16">
+      <c r="W19" s="1">
         <v>5651</v>
       </c>
-      <c r="U16">
+      <c r="X19" s="1">
         <v>6617</v>
       </c>
-      <c r="V16">
+      <c r="Y19" s="1">
         <v>5537</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="S17">
+      <c r="J20" s="1">
+        <v>2182</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2169</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2003</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1221</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1443</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1678</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>1201</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1192</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1091</v>
+      </c>
+      <c r="V20" s="1">
         <v>3409</v>
       </c>
-      <c r="T17">
+      <c r="W20" s="1">
         <v>5446</v>
       </c>
-      <c r="U17">
+      <c r="X20" s="1">
         <v>8418</v>
       </c>
-      <c r="V17">
+      <c r="Y20" s="1">
         <v>5543</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="S18">
+      <c r="J21" s="1">
+        <v>1010</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1084</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1152</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>1153</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1125</v>
+      </c>
+      <c r="O21" s="1">
+        <v>945</v>
+      </c>
+      <c r="P21" s="1">
+        <v>810</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>802</v>
+      </c>
+      <c r="R21" s="1">
+        <v>798</v>
+      </c>
+      <c r="S21" s="1">
+        <v>607</v>
+      </c>
+      <c r="V21" s="1">
         <v>1993</v>
       </c>
-      <c r="T18">
+      <c r="W21" s="1">
         <v>3764</v>
       </c>
-      <c r="U18">
+      <c r="X21" s="1">
         <v>4399</v>
       </c>
-      <c r="V18">
+      <c r="Y21" s="1">
         <v>3682</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="S19">
+      <c r="J22" s="1">
+        <v>1312</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1574</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1403</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>1644</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1050</v>
+      </c>
+      <c r="O22" s="1">
+        <v>843</v>
+      </c>
+      <c r="P22" s="1">
+        <v>939</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>675</v>
+      </c>
+      <c r="R22" s="1">
+        <v>736</v>
+      </c>
+      <c r="S22" s="1">
+        <v>873</v>
+      </c>
+      <c r="V22" s="1">
         <v>1971</v>
       </c>
-      <c r="T19">
+      <c r="W22" s="1">
         <v>3620</v>
       </c>
-      <c r="U19">
+      <c r="X22" s="1">
         <v>5933</v>
       </c>
-      <c r="V19">
+      <c r="Y22" s="1">
         <v>3507</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="S20">
-        <f>S19+S18+S17+S16+S15+S14</f>
+      <c r="J23">
+        <f>J22+J21+J20+J19+J18+J17</f>
+        <v>9751</v>
+      </c>
+      <c r="K23">
+        <f>K22+K21+K20+K19+K18+K17</f>
+        <v>11073</v>
+      </c>
+      <c r="L23">
+        <f>L22+L21+L20+L19+L18+L17</f>
+        <v>10833</v>
+      </c>
+      <c r="M23">
+        <f>M22+M21+M20+M19+M18+M17</f>
+        <v>11391</v>
+      </c>
+      <c r="N23">
+        <f>N22+N21+N20+N19+N18+N17</f>
+        <v>8071</v>
+      </c>
+      <c r="O23">
+        <f>O22+O21+O20+O19+O18+O17</f>
+        <v>6125</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:R23" si="8">P22+P21+P20+P19+P18+P17</f>
+        <v>6240</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="8"/>
+        <v>6880</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>5583</v>
+      </c>
+      <c r="S23">
+        <f>S22+S21+S20+S19+S18+S17</f>
+        <v>5293</v>
+      </c>
+      <c r="V23">
+        <f>V22+V21+V20+V19+V18+V17</f>
         <v>13232</v>
       </c>
-      <c r="T20">
-        <f t="shared" ref="T20:V20" si="2">T19+T18+T17+T16+T15+T14</f>
+      <c r="W23">
+        <f t="shared" ref="W23:Y23" si="9">W22+W21+W20+W19+W18+W17</f>
         <v>32678</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
+      <c r="X23">
+        <f t="shared" si="9"/>
         <v>43048</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
+      <c r="Y23">
+        <f t="shared" si="9"/>
         <v>27316</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="S21">
-        <f>S20-S13</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" ref="T21:V21" si="3">T20-T13</f>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="J24">
+        <f>J23-J16</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>K23-K16</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>L23-L16</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>M23-M16</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>N23-N16</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>O23-O16</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:R24" si="10">P23-P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>S23-S16</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>V23-V16</f>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:Y24" si="11">W23-W16</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="S23">
+      <c r="J26" s="1">
+        <v>76</v>
+      </c>
+      <c r="K26" s="1">
+        <v>169</v>
+      </c>
+      <c r="L26" s="1">
+        <v>76</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M28" si="12">X26-L26-K26-J26</f>
+        <v>234</v>
+      </c>
+      <c r="N26" s="1">
+        <v>76</v>
+      </c>
+      <c r="O26" s="1">
+        <v>111</v>
+      </c>
+      <c r="P26" s="1">
+        <v>227</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q28" si="13">Y26-P26-O26-N26</f>
+        <v>271</v>
+      </c>
+      <c r="R26" s="1">
+        <v>221</v>
+      </c>
+      <c r="S26" s="1">
+        <v>408</v>
+      </c>
+      <c r="V26" s="1">
         <v>93</v>
       </c>
-      <c r="T23">
+      <c r="W26" s="1">
         <v>559</v>
       </c>
-      <c r="U23">
+      <c r="X26" s="1">
         <v>555</v>
       </c>
-      <c r="V23">
+      <c r="Y26" s="1">
         <v>685</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="V24">
+      <c r="O27" s="1">
+        <v>-4357</v>
+      </c>
+      <c r="P27" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="13"/>
+        <v>4255</v>
+      </c>
+      <c r="R27" s="1">
+        <v>469</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-12804</v>
+      </c>
+      <c r="Y27" s="1">
         <v>-66</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="S25">
+      <c r="J28" s="1">
+        <v>-56</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-122</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-64</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="12"/>
+        <v>-279</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-96</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-90</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-8</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="R28" s="1">
+        <v>31</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-5</v>
+      </c>
+      <c r="V28" s="1">
         <v>-24</v>
       </c>
-      <c r="T25">
+      <c r="W28" s="1">
         <v>-54</v>
       </c>
-      <c r="U25">
+      <c r="X28" s="1">
         <v>-521</v>
       </c>
-      <c r="V25">
+      <c r="Y28" s="1">
         <v>-177</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="S26">
-        <f>S25+S24+S23</f>
+      <c r="J29">
+        <f>J26+J27+J28</f>
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:S29" si="14">K26+K27+K28</f>
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>-45</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="14"/>
+        <v>-20</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="14"/>
+        <v>-4336</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>255</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="14"/>
+        <v>4543</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="14"/>
+        <v>721</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="14"/>
+        <v>-12401</v>
+      </c>
+      <c r="V29" s="2">
+        <f>V28+V27+V26</f>
         <v>69</v>
       </c>
-      <c r="T26">
-        <f t="shared" ref="T26:V26" si="4">T25+T24+T23</f>
+      <c r="W29" s="2">
+        <f t="shared" ref="W29:Y29" si="15">W28+W27+W26</f>
         <v>505</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="4"/>
+      <c r="X29" s="2">
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
+      <c r="Y29" s="2">
+        <f t="shared" si="15"/>
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-24179</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-25828</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-28418</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="16">X31-L31-K31-J31</f>
+        <v>-27159</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-23121</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-25857</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-19101</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31" si="17">Y31-P31-O31-N31</f>
+        <v>-14429</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-10337</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-29577</v>
+      </c>
+      <c r="V31">
+        <v>-45513</v>
+      </c>
+      <c r="W31">
+        <v>-93961</v>
+      </c>
+      <c r="X31">
+        <v>-105584</v>
+      </c>
+      <c r="Y31">
+        <v>-82508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="S28">
-        <v>-45513</v>
-      </c>
-      <c r="T28">
-        <v>-93961</v>
-      </c>
-      <c r="U28">
-        <v>-105584</v>
-      </c>
-      <c r="V28">
-        <v>-82508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="U29">
+      <c r="J34" s="1">
+        <v>24135735</v>
+      </c>
+      <c r="K34" s="1">
+        <v>26082525</v>
+      </c>
+      <c r="L34" s="1">
+        <v>26177079</v>
+      </c>
+      <c r="M34" s="1">
+        <f>X34*4-L34-K34-J34</f>
+        <v>25997385</v>
+      </c>
+      <c r="N34" s="1">
+        <v>26215514</v>
+      </c>
+      <c r="O34" s="1">
+        <v>26901069</v>
+      </c>
+      <c r="P34" s="1">
+        <v>48000183</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>Y34*4-P34-O34-N34</f>
+        <v>50184958</v>
+      </c>
+      <c r="R34" s="1">
+        <v>56357983</v>
+      </c>
+      <c r="S34" s="1">
+        <v>79041695</v>
+      </c>
+      <c r="X34">
         <v>25598181</v>
       </c>
-      <c r="V29">
+      <c r="Y34">
         <v>37825431</v>
       </c>
     </row>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE20EEA-C780-614B-A7AB-E42D4C696727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0531723-854E-D447-944D-6B4708FA3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -645,10 +645,10 @@
   <dimension ref="A1:AJ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0531723-854E-D447-944D-6B4708FA3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A3440-0E55-7E48-B87C-A1FE153B9AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Commercial Expenses</t>
   </si>
   <si>
-    <t>Stock=based Compensation</t>
-  </si>
-  <si>
     <t>Insurance Expenses</t>
   </si>
   <si>
@@ -259,6 +256,39 @@
   </si>
   <si>
     <t>FY2022A</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success Probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galacctosemia </t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>NDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Entry </t>
+  </si>
+  <si>
+    <t>1Q2024E</t>
+  </si>
+  <si>
+    <t>Revenue Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Patients </t>
   </si>
 </sst>
 </file>
@@ -309,11 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,27 +659,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
-  <dimension ref="A1"/>
+  <dimension ref="B9:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1:AJ61"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="P35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -660,1661 +749,1661 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
       <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
         <v>62</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="1">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="1">
         <v>10660</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20">
-        <f>J19</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ref="K20:S20" si="0">K19</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:S21" si="0">K20</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f t="shared" si="0"/>
         <v>10660</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA20">
-        <f t="shared" ref="AA20" si="1">AA19</f>
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ref="AB20" si="2">AB19</f>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ref="AC20" si="3">AC19</f>
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" ref="AD20" si="4">AD19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="R21" s="1"/>
+      <c r="AA21">
+        <f t="shared" ref="AA21" si="1">AA20</f>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21" si="2">AB20</f>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21" si="3">AC20</f>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" ref="AD21" si="4">AD20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23">
-        <f>J20-J22</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>K20-K22</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>L20-L22</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f>M20-M22</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>N20-N22</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f>O20-O22</f>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f>P20-P22</f>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f>Q20-Q22</f>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f>R20-R22</f>
+      <c r="J24">
+        <f>J21-J23</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>K21-K23</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>L21-L23</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>M21-M23</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>N21-N23</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>O21-O23</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>P21-P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>Q21-Q23</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>R21-R23</f>
         <v>10660</v>
       </c>
-      <c r="S23">
-        <f>S20-S22</f>
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f>AA20-AA22</f>
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" ref="AB23:AD23" si="5">AB20-AB22</f>
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="S24">
+        <f>S21-S23</f>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f>AA21-AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AD24" si="5">AB21-AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD23">
+      <c r="AD24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="R24" s="1"/>
-    </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1">
-        <v>6454</v>
-      </c>
-      <c r="K26" s="1">
-        <v>10172</v>
-      </c>
-      <c r="L26" s="1">
-        <v>11778</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ref="M26:M30" si="6">AC26-L26-K26-J26</f>
-        <v>11919</v>
-      </c>
-      <c r="N26" s="1">
-        <v>11528</v>
-      </c>
-      <c r="O26" s="1">
-        <v>12402</v>
-      </c>
-      <c r="P26" s="1">
-        <v>10035</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q30" si="7">AD26-P26-O26-N26</f>
-        <v>8963</v>
-      </c>
-      <c r="R26" s="1">
-        <v>11816</v>
-      </c>
-      <c r="S26" s="1">
-        <v>8744</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="AA26" s="1">
-        <v>17436</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>28736</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>40323</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>42928</v>
+      <c r="A26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1">
-        <v>5820</v>
+        <v>6454</v>
       </c>
       <c r="K27" s="1">
-        <v>2316</v>
+        <v>10172</v>
       </c>
       <c r="L27" s="1">
-        <v>3172</v>
+        <v>11778</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
-        <v>602</v>
+        <f t="shared" ref="M27:M31" si="6">AC27-L27-K27-J27</f>
+        <v>11919</v>
       </c>
       <c r="N27" s="1">
-        <v>231</v>
+        <v>11528</v>
       </c>
       <c r="O27" s="1">
-        <v>136</v>
+        <v>12402</v>
       </c>
       <c r="P27" s="1">
-        <v>236</v>
+        <v>10035</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
-        <v>354</v>
+        <f t="shared" ref="Q27:Q31" si="7">AD27-P27-O27-N27</f>
+        <v>8963</v>
       </c>
       <c r="R27" s="1">
-        <v>1271</v>
+        <v>11816</v>
       </c>
       <c r="S27" s="1">
-        <v>540</v>
+        <v>8744</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="AA27" s="1">
-        <v>9069</v>
+        <v>17436</v>
       </c>
       <c r="AB27" s="1">
-        <v>24424</v>
+        <v>28736</v>
       </c>
       <c r="AC27" s="1">
-        <v>11910</v>
+        <v>40323</v>
       </c>
       <c r="AD27" s="1">
-        <v>957</v>
+        <v>42928</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1">
-        <v>1092</v>
+        <v>5820</v>
       </c>
       <c r="K28" s="1">
-        <v>1270</v>
+        <v>2316</v>
       </c>
       <c r="L28" s="1">
-        <v>1368</v>
+        <v>3172</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
-        <v>1799</v>
+        <v>602</v>
       </c>
       <c r="N28" s="1">
-        <v>1937</v>
+        <v>231</v>
       </c>
       <c r="O28" s="1">
-        <v>1578</v>
+        <v>136</v>
       </c>
       <c r="P28" s="1">
-        <v>1416</v>
+        <v>236</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>1717</v>
+        <v>354</v>
       </c>
       <c r="R28" s="1">
-        <v>1700</v>
+        <v>1271</v>
       </c>
       <c r="S28" s="1">
-        <v>1408</v>
+        <v>540</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="AA28" s="1">
-        <v>2728</v>
+        <v>9069</v>
       </c>
       <c r="AB28" s="1">
-        <v>3351</v>
+        <v>24424</v>
       </c>
       <c r="AC28" s="1">
-        <v>5529</v>
+        <v>11910</v>
       </c>
       <c r="AD28" s="1">
-        <v>6648</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1">
-        <v>799</v>
+        <v>1092</v>
       </c>
       <c r="K29" s="1">
-        <v>533</v>
+        <v>1270</v>
       </c>
       <c r="L29" s="1">
-        <v>642</v>
+        <v>1368</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>785</v>
+        <v>1799</v>
       </c>
       <c r="N29" s="1">
-        <v>856</v>
+        <v>1937</v>
       </c>
       <c r="O29" s="1">
-        <v>788</v>
+        <v>1578</v>
       </c>
       <c r="P29" s="1">
-        <v>1178</v>
+        <v>1416</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>797</v>
+        <v>1717</v>
       </c>
       <c r="R29" s="1">
-        <v>862</v>
+        <v>1700</v>
       </c>
       <c r="S29" s="1">
-        <v>752</v>
+        <v>1408</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AA29" s="1">
-        <v>2762</v>
+        <v>2728</v>
       </c>
       <c r="AB29" s="1">
-        <v>2580</v>
+        <v>3351</v>
       </c>
       <c r="AC29" s="1">
-        <v>2759</v>
+        <v>5529</v>
       </c>
       <c r="AD29" s="1">
-        <v>3619</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1">
-        <v>283</v>
+        <v>799</v>
       </c>
       <c r="K30" s="1">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="L30" s="1">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>618</v>
+        <v>785</v>
       </c>
       <c r="N30" s="1">
-        <v>478</v>
+        <v>856</v>
       </c>
       <c r="O30" s="1">
-        <v>492</v>
+        <v>788</v>
       </c>
       <c r="P30" s="1">
-        <v>251</v>
+        <v>1178</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>797</v>
       </c>
       <c r="R30" s="1">
-        <v>286</v>
+        <v>862</v>
       </c>
       <c r="S30" s="1">
-        <v>439</v>
+        <v>752</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AA30" s="1">
-        <v>355</v>
+        <v>2762</v>
       </c>
       <c r="AB30" s="1">
-        <v>2697</v>
+        <v>2580</v>
       </c>
       <c r="AC30" s="1">
-        <v>2049</v>
+        <v>2759</v>
       </c>
       <c r="AD30" s="1">
-        <v>1482</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>J30+J29+J28+J27+J26</f>
+        <v>11</v>
+      </c>
+      <c r="J31" s="1">
+        <v>283</v>
+      </c>
+      <c r="K31" s="1">
+        <v>511</v>
+      </c>
+      <c r="L31" s="1">
+        <v>637</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>618</v>
+      </c>
+      <c r="N31" s="1">
+        <v>478</v>
+      </c>
+      <c r="O31" s="1">
+        <v>492</v>
+      </c>
+      <c r="P31" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="R31" s="1">
+        <v>286</v>
+      </c>
+      <c r="S31" s="1">
+        <v>439</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="AA31" s="1">
+        <v>355</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>2697</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>J31+J30+J29+J28+J27</f>
         <v>14448</v>
       </c>
-      <c r="K31">
-        <f>K30+K29+K28+K27+K26</f>
+      <c r="K32">
+        <f>K31+K30+K29+K28+K27</f>
         <v>14802</v>
       </c>
-      <c r="L31">
-        <f>L30+L29+L28+L27+L26</f>
+      <c r="L32">
+        <f>L31+L30+L29+L28+L27</f>
         <v>17597</v>
       </c>
-      <c r="M31">
-        <f>M30+M29+M28+M27+M26</f>
+      <c r="M32">
+        <f>M31+M30+M29+M28+M27</f>
         <v>15723</v>
       </c>
-      <c r="N31">
-        <f>N30+N29+N28+N27+N26</f>
+      <c r="N32">
+        <f>N31+N30+N29+N28+N27</f>
         <v>15030</v>
       </c>
-      <c r="O31">
-        <f>O30+O29+O28+O27+O26</f>
+      <c r="O32">
+        <f>O31+O30+O29+O28+O27</f>
         <v>15396</v>
       </c>
-      <c r="P31">
-        <f t="shared" ref="P31:S31" si="8">P30+P29+P28+P27+P26</f>
+      <c r="P32">
+        <f t="shared" ref="P32:S32" si="8">P31+P30+P29+P28+P27</f>
         <v>13116</v>
       </c>
-      <c r="Q31">
+      <c r="Q32">
         <f t="shared" si="8"/>
         <v>12092</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <f t="shared" si="8"/>
         <v>15935</v>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f t="shared" si="8"/>
         <v>11883</v>
       </c>
-      <c r="AA31">
-        <f>AA30+AA29+AA28+AA27+AA26</f>
+      <c r="AA32">
+        <f>AA31+AA30+AA29+AA28+AA27</f>
         <v>32350</v>
       </c>
-      <c r="AB31">
-        <f t="shared" ref="AB31:AD31" si="9">AB30+AB29+AB28+AB27+AB26</f>
+      <c r="AB32">
+        <f t="shared" ref="AB32:AD32" si="9">AB31+AB30+AB29+AB28+AB27</f>
         <v>61788</v>
       </c>
-      <c r="AC31">
+      <c r="AC32">
         <f t="shared" si="9"/>
         <v>62570</v>
       </c>
-      <c r="AD31">
+      <c r="AD32">
         <f t="shared" si="9"/>
         <v>55634</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1771</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1826</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1511</v>
-      </c>
-      <c r="M33">
-        <f>AC33-L33-K33-J33</f>
-        <v>1232</v>
-      </c>
-      <c r="N33" s="1">
-        <v>1619</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1359</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1341</v>
-      </c>
-      <c r="Q33">
-        <f>AD33-P33-O33-N33</f>
-        <v>2535</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1487</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1605</v>
-      </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="AA33" s="1">
-        <v>4397</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>8451</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>6854</v>
-      </c>
-    </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1">
-        <v>1932</v>
+        <v>1771</v>
       </c>
       <c r="K34" s="1">
-        <v>2695</v>
+        <v>1826</v>
       </c>
       <c r="L34" s="1">
-        <v>3111</v>
+        <v>1511</v>
       </c>
       <c r="M34">
         <f>AC34-L34-K34-J34</f>
-        <v>3603</v>
+        <v>1232</v>
       </c>
       <c r="N34" s="1">
-        <v>1288</v>
+        <v>1619</v>
       </c>
       <c r="O34" s="1">
-        <v>241</v>
+        <v>1359</v>
       </c>
       <c r="P34" s="1">
-        <v>315</v>
+        <v>1341</v>
       </c>
       <c r="Q34">
         <f>AD34-P34-O34-N34</f>
-        <v>349</v>
+        <v>2535</v>
       </c>
       <c r="R34" s="1">
-        <v>143</v>
+        <v>1487</v>
       </c>
       <c r="S34" s="1">
-        <v>228</v>
+        <v>1605</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="AA34" s="1">
+        <v>4397</v>
+      </c>
       <c r="AB34" s="1">
-        <v>5746</v>
+        <v>8451</v>
       </c>
       <c r="AC34" s="1">
-        <v>11341</v>
+        <v>6340</v>
       </c>
       <c r="AD34" s="1">
-        <v>2193</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1">
-        <v>1544</v>
+        <v>1932</v>
       </c>
       <c r="K35" s="1">
-        <v>1725</v>
+        <v>2695</v>
       </c>
       <c r="L35" s="1">
-        <v>1653</v>
+        <v>3111</v>
       </c>
       <c r="M35">
         <f>AC35-L35-K35-J35</f>
-        <v>1695</v>
+        <v>3603</v>
       </c>
       <c r="N35" s="1">
-        <v>1768</v>
+        <v>1288</v>
       </c>
       <c r="O35" s="1">
-        <v>1294</v>
+        <v>241</v>
       </c>
       <c r="P35" s="1">
-        <v>1157</v>
+        <v>315</v>
       </c>
       <c r="Q35">
         <f>AD35-P35-O35-N35</f>
-        <v>1318</v>
+        <v>349</v>
       </c>
       <c r="R35" s="1">
-        <v>1227</v>
+        <v>143</v>
       </c>
       <c r="S35" s="1">
-        <v>889</v>
+        <v>228</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="AA35" s="1">
-        <v>1462</v>
-      </c>
+      <c r="AA35" s="1"/>
       <c r="AB35" s="1">
-        <v>5651</v>
+        <v>5746</v>
       </c>
       <c r="AC35" s="1">
-        <v>6617</v>
+        <v>11341</v>
       </c>
       <c r="AD35" s="1">
-        <v>5537</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1">
-        <v>2182</v>
+        <v>1544</v>
       </c>
       <c r="K36" s="1">
-        <v>2169</v>
+        <v>1725</v>
       </c>
       <c r="L36" s="1">
-        <v>2003</v>
+        <v>1653</v>
       </c>
       <c r="M36">
         <f>AC36-L36-K36-J36</f>
-        <v>2064</v>
+        <v>1695</v>
       </c>
       <c r="N36" s="1">
-        <v>1221</v>
+        <v>1768</v>
       </c>
       <c r="O36" s="1">
-        <v>1443</v>
+        <v>1294</v>
       </c>
       <c r="P36" s="1">
-        <v>1678</v>
+        <v>1157</v>
       </c>
       <c r="Q36">
         <f>AD36-P36-O36-N36</f>
-        <v>1201</v>
+        <v>1318</v>
       </c>
       <c r="R36" s="1">
-        <v>1192</v>
+        <v>1227</v>
       </c>
       <c r="S36" s="1">
-        <v>1091</v>
+        <v>889</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AA36" s="1">
-        <v>3409</v>
+        <v>1462</v>
       </c>
       <c r="AB36" s="1">
-        <v>5446</v>
+        <v>5651</v>
       </c>
       <c r="AC36" s="1">
-        <v>8418</v>
+        <v>6617</v>
       </c>
       <c r="AD36" s="1">
-        <v>5543</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1">
-        <v>1010</v>
+        <v>2182</v>
       </c>
       <c r="K37" s="1">
-        <v>1084</v>
+        <v>2169</v>
       </c>
       <c r="L37" s="1">
-        <v>1152</v>
+        <v>2003</v>
       </c>
       <c r="M37">
         <f>AC37-L37-K37-J37</f>
-        <v>1153</v>
+        <v>2064</v>
       </c>
       <c r="N37" s="1">
-        <v>1125</v>
+        <v>1221</v>
       </c>
       <c r="O37" s="1">
-        <v>945</v>
+        <v>1443</v>
       </c>
       <c r="P37" s="1">
-        <v>810</v>
+        <v>1678</v>
       </c>
       <c r="Q37">
         <f>AD37-P37-O37-N37</f>
-        <v>802</v>
+        <v>1201</v>
       </c>
       <c r="R37" s="1">
-        <v>798</v>
+        <v>1192</v>
       </c>
       <c r="S37" s="1">
-        <v>607</v>
+        <v>1091</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="AA37" s="1">
-        <v>1993</v>
+        <v>3409</v>
       </c>
       <c r="AB37" s="1">
-        <v>3764</v>
+        <v>5446</v>
       </c>
       <c r="AC37" s="1">
-        <v>4399</v>
+        <v>8418</v>
       </c>
       <c r="AD37" s="1">
-        <v>3682</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1">
-        <v>1312</v>
+        <v>1010</v>
       </c>
       <c r="K38" s="1">
-        <v>1574</v>
+        <v>1084</v>
       </c>
       <c r="L38" s="1">
-        <v>1403</v>
+        <v>1152</v>
       </c>
       <c r="M38">
         <f>AC38-L38-K38-J38</f>
-        <v>1644</v>
+        <v>1153</v>
       </c>
       <c r="N38" s="1">
-        <v>1050</v>
+        <v>1125</v>
       </c>
       <c r="O38" s="1">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="P38" s="1">
-        <v>939</v>
+        <v>810</v>
       </c>
       <c r="Q38">
         <f>AD38-P38-O38-N38</f>
-        <v>675</v>
+        <v>802</v>
       </c>
       <c r="R38" s="1">
-        <v>736</v>
+        <v>798</v>
       </c>
       <c r="S38" s="1">
-        <v>873</v>
+        <v>607</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AA38" s="1">
-        <v>1971</v>
+        <v>1993</v>
       </c>
       <c r="AB38" s="1">
-        <v>3620</v>
+        <v>3764</v>
       </c>
       <c r="AC38" s="1">
-        <v>5933</v>
+        <v>4399</v>
       </c>
       <c r="AD38" s="1">
-        <v>3507</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1312</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1574</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1403</v>
+      </c>
+      <c r="M39">
+        <f>AC39-L39-K39-J39</f>
+        <v>1644</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1050</v>
+      </c>
+      <c r="O39" s="1">
+        <v>843</v>
+      </c>
+      <c r="P39" s="1">
+        <v>939</v>
+      </c>
+      <c r="Q39">
+        <f>AD39-P39-O39-N39</f>
+        <v>675</v>
+      </c>
+      <c r="R39" s="1">
+        <v>736</v>
+      </c>
+      <c r="S39" s="1">
+        <v>873</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="AA39" s="1">
+        <v>1971</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>3620</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>5933</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="J39">
-        <f>J38+J37+J36+J35+J34+J33</f>
+      <c r="J40">
+        <f>J39+J38+J37+J36+J35+J34</f>
         <v>9751</v>
       </c>
-      <c r="K39">
-        <f>K38+K37+K36+K35+K34+K33</f>
+      <c r="K40">
+        <f>K39+K38+K37+K36+K35+K34</f>
         <v>11073</v>
       </c>
-      <c r="L39">
-        <f>L38+L37+L36+L35+L34+L33</f>
+      <c r="L40">
+        <f>L39+L38+L37+L36+L35+L34</f>
         <v>10833</v>
       </c>
-      <c r="M39">
-        <f>M38+M37+M36+M35+M34+M33</f>
+      <c r="M40">
+        <f>M39+M38+M37+M36+M35+M34</f>
         <v>11391</v>
       </c>
-      <c r="N39">
-        <f>N38+N37+N36+N35+N34+N33</f>
+      <c r="N40">
+        <f>N39+N38+N37+N36+N35+N34</f>
         <v>8071</v>
       </c>
-      <c r="O39">
-        <f>O38+O37+O36+O35+O34+O33</f>
+      <c r="O40">
+        <f>O39+O38+O37+O36+O35+O34</f>
         <v>6125</v>
       </c>
-      <c r="P39">
-        <f t="shared" ref="P39:R39" si="10">P38+P37+P36+P35+P34+P33</f>
+      <c r="P40">
+        <f t="shared" ref="P40:R40" si="10">P39+P38+P37+P36+P35+P34</f>
         <v>6240</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <f t="shared" si="10"/>
         <v>6880</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <f t="shared" si="10"/>
         <v>5583</v>
       </c>
-      <c r="S39">
-        <f>S38+S37+S36+S35+S34+S33</f>
+      <c r="S40">
+        <f>S39+S38+S37+S36+S35+S34</f>
         <v>5293</v>
       </c>
-      <c r="AA39">
-        <f>AA38+AA37+AA36+AA35+AA34+AA33</f>
+      <c r="AA40">
+        <f>AA39+AA38+AA37+AA36+AA35+AA34</f>
         <v>13232</v>
       </c>
-      <c r="AB39">
-        <f t="shared" ref="AB39:AD39" si="11">AB38+AB37+AB36+AB35+AB34+AB33</f>
+      <c r="AB40">
+        <f t="shared" ref="AB40:AD40" si="11">AB39+AB38+AB37+AB36+AB35+AB34</f>
         <v>32678</v>
       </c>
-      <c r="AC39">
+      <c r="AC40">
         <f t="shared" si="11"/>
         <v>43048</v>
       </c>
-      <c r="AD39">
+      <c r="AD40">
         <f t="shared" si="11"/>
         <v>27316</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="3">
-        <f>J31+J39</f>
+    <row r="41" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="3">
+        <f>J32+J40</f>
         <v>24199</v>
       </c>
-      <c r="K40" s="3">
-        <f t="shared" ref="K40:S40" si="12">K31+K39</f>
+      <c r="K41" s="3">
+        <f t="shared" ref="K41:S41" si="12">K32+K40</f>
         <v>25875</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L41" s="3">
         <f t="shared" si="12"/>
         <v>28430</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M41" s="3">
         <f t="shared" si="12"/>
         <v>27114</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <f t="shared" si="12"/>
         <v>23101</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O41" s="3">
         <f t="shared" si="12"/>
         <v>21521</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P41" s="3">
         <f t="shared" si="12"/>
         <v>19356</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q41" s="3">
         <f t="shared" si="12"/>
         <v>18972</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R41" s="3">
         <f t="shared" si="12"/>
         <v>21518</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S41" s="3">
         <f t="shared" si="12"/>
         <v>17176</v>
       </c>
-      <c r="AA40" s="3">
-        <f t="shared" ref="AA40" si="13">AA31+AA39</f>
+      <c r="AA41" s="3">
+        <f t="shared" ref="AA41" si="13">AA32+AA40</f>
         <v>45582</v>
       </c>
-      <c r="AB40" s="3">
-        <f t="shared" ref="AB40" si="14">AB31+AB39</f>
+      <c r="AB41" s="3">
+        <f t="shared" ref="AB41" si="14">AB32+AB40</f>
         <v>94466</v>
       </c>
-      <c r="AC40" s="3">
-        <f t="shared" ref="AC40" si="15">AC31+AC39</f>
+      <c r="AC41" s="3">
+        <f t="shared" ref="AC41" si="15">AC32+AC40</f>
         <v>105618</v>
       </c>
-      <c r="AD40" s="3">
-        <f t="shared" ref="AD40" si="16">AD31+AD39</f>
+      <c r="AD41" s="3">
+        <f t="shared" ref="AD41" si="16">AD32+AD40</f>
         <v>82950</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42">
-        <f>J23-J40</f>
+    <row r="42" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <f>J24-J41</f>
         <v>-24199</v>
       </c>
-      <c r="K42">
-        <f>K23-K40</f>
+      <c r="K43">
+        <f>K24-K41</f>
         <v>-25875</v>
       </c>
-      <c r="L42">
-        <f>L23-L40</f>
+      <c r="L43">
+        <f>L24-L41</f>
         <v>-28430</v>
       </c>
-      <c r="M42">
-        <f>M23-M40</f>
+      <c r="M43">
+        <f>M24-M41</f>
         <v>-27114</v>
       </c>
-      <c r="N42">
-        <f>N23-N40</f>
+      <c r="N43">
+        <f>N24-N41</f>
         <v>-23101</v>
       </c>
-      <c r="O42">
-        <f>O23-O40</f>
+      <c r="O43">
+        <f>O24-O41</f>
         <v>-21521</v>
       </c>
-      <c r="P42">
-        <f>P23-P40</f>
+      <c r="P43">
+        <f>P24-P41</f>
         <v>-19356</v>
       </c>
-      <c r="Q42">
-        <f>Q23-Q40</f>
+      <c r="Q43">
+        <f>Q24-Q41</f>
         <v>-18972</v>
       </c>
-      <c r="R42">
-        <f>R23-R40</f>
+      <c r="R43">
+        <f>R24-R41</f>
         <v>-10858</v>
       </c>
-      <c r="S42">
-        <f>S23-S40</f>
+      <c r="S43">
+        <f>S24-S41</f>
         <v>-17176</v>
       </c>
-      <c r="AA42">
-        <f t="shared" ref="AA42:AD42" si="17">AA23-AA40</f>
+      <c r="AA43">
+        <f t="shared" ref="AA43:AD43" si="17">AA24-AA41</f>
         <v>-45582</v>
       </c>
-      <c r="AB42">
+      <c r="AB43">
         <f t="shared" si="17"/>
         <v>-94466</v>
       </c>
-      <c r="AC42">
+      <c r="AC43">
         <f t="shared" si="17"/>
         <v>-105618</v>
       </c>
-      <c r="AD42">
+      <c r="AD43">
         <f t="shared" si="17"/>
         <v>-82950</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>76</v>
-      </c>
-      <c r="K44" s="1">
-        <v>169</v>
-      </c>
-      <c r="L44" s="1">
-        <v>76</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ref="M44:M46" si="18">AC44-L44-K44-J44</f>
-        <v>234</v>
-      </c>
-      <c r="N44" s="1">
-        <v>76</v>
-      </c>
-      <c r="O44" s="1">
-        <v>111</v>
-      </c>
-      <c r="P44" s="1">
-        <v>227</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" ref="Q44:Q46" si="19">AD44-P44-O44-N44</f>
-        <v>271</v>
-      </c>
-      <c r="R44" s="1">
-        <v>221</v>
-      </c>
-      <c r="S44" s="1">
-        <v>408</v>
-      </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="AA44" s="1">
-        <v>93</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>559</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>555</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>685</v>
-      </c>
-    </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>76</v>
+      </c>
+      <c r="K45" s="1">
+        <v>169</v>
+      </c>
+      <c r="L45" s="1">
+        <v>76</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:M47" si="18">AC45-L45-K45-J45</f>
+        <v>234</v>
+      </c>
+      <c r="N45" s="1">
+        <v>76</v>
       </c>
       <c r="O45" s="1">
-        <v>-4357</v>
+        <v>111</v>
       </c>
       <c r="P45" s="1">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="19"/>
-        <v>4255</v>
+        <f t="shared" ref="Q45:Q47" si="19">AD45-P45-O45-N45</f>
+        <v>271</v>
       </c>
       <c r="R45" s="1">
-        <v>469</v>
+        <v>221</v>
       </c>
       <c r="S45" s="1">
-        <v>-12804</v>
+        <v>408</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
+      <c r="AA45" s="1">
+        <v>93</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>559</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>555</v>
+      </c>
       <c r="AD45" s="1">
-        <v>-66</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="1">
-        <v>-56</v>
-      </c>
-      <c r="K46" s="1">
-        <v>-122</v>
-      </c>
-      <c r="L46" s="1">
-        <v>-64</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="18"/>
-        <v>-279</v>
-      </c>
-      <c r="N46" s="1">
-        <v>-96</v>
+        <v>13</v>
       </c>
       <c r="O46" s="1">
-        <v>-90</v>
+        <v>-4357</v>
       </c>
       <c r="P46" s="1">
-        <v>-8</v>
+        <v>36</v>
       </c>
       <c r="Q46">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>4255</v>
       </c>
       <c r="R46" s="1">
-        <v>31</v>
+        <v>469</v>
       </c>
       <c r="S46" s="1">
-        <v>-5</v>
+        <v>-12804</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="AA46" s="1">
-        <v>-24</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>-54</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>-521</v>
-      </c>
       <c r="AD46" s="1">
-        <v>-177</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-56</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-122</v>
+      </c>
+      <c r="L47" s="1">
+        <v>-64</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="18"/>
+        <v>-279</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-96</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-90</v>
+      </c>
+      <c r="P47" s="1">
+        <v>-8</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="R47" s="1">
+        <v>31</v>
+      </c>
+      <c r="S47" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="AA47" s="1">
+        <v>-24</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>-54</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>-521</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>-177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="J47">
-        <f>J44+J45+J46</f>
+      <c r="J48">
+        <f>J45+J46+J47</f>
         <v>20</v>
       </c>
-      <c r="K47">
-        <f t="shared" ref="K47:S47" si="20">K44+K45+K46</f>
+      <c r="K48">
+        <f t="shared" ref="K48:S48" si="20">K45+K46+K47</f>
         <v>47</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="M47">
+      <c r="M48">
         <f t="shared" si="20"/>
         <v>-45</v>
       </c>
-      <c r="N47">
+      <c r="N48">
         <f t="shared" si="20"/>
         <v>-20</v>
       </c>
-      <c r="O47">
+      <c r="O48">
         <f t="shared" si="20"/>
         <v>-4336</v>
       </c>
-      <c r="P47">
+      <c r="P48">
         <f t="shared" si="20"/>
         <v>255</v>
       </c>
-      <c r="Q47">
+      <c r="Q48">
         <f t="shared" si="20"/>
         <v>4543</v>
       </c>
-      <c r="R47">
+      <c r="R48">
         <f t="shared" si="20"/>
         <v>721</v>
       </c>
-      <c r="S47">
+      <c r="S48">
         <f t="shared" si="20"/>
         <v>-12401</v>
       </c>
-      <c r="AA47" s="2">
-        <f>AA46+AA45+AA44</f>
+      <c r="AA48" s="2">
+        <f>AA47+AA46+AA45</f>
         <v>69</v>
       </c>
-      <c r="AB47" s="2">
-        <f t="shared" ref="AB47:AD47" si="21">AB46+AB45+AB44</f>
+      <c r="AB48" s="2">
+        <f t="shared" ref="AB48:AD48" si="21">AB47+AB46+AB45</f>
         <v>505</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AC48" s="2">
         <f t="shared" si="21"/>
         <v>34</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD48" s="2">
         <f t="shared" si="21"/>
         <v>442</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-    </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49">
-        <f>J42+J47</f>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50">
+        <f>J43+J48</f>
         <v>-24179</v>
       </c>
-      <c r="K49">
-        <f t="shared" ref="K49:S49" si="22">K42+K47</f>
+      <c r="K50">
+        <f t="shared" ref="K50:S50" si="22">K43+K48</f>
         <v>-25828</v>
       </c>
-      <c r="L49">
+      <c r="L50">
         <f t="shared" si="22"/>
         <v>-28418</v>
       </c>
-      <c r="M49">
+      <c r="M50">
         <f t="shared" si="22"/>
         <v>-27159</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <f t="shared" si="22"/>
         <v>-23121</v>
       </c>
-      <c r="O49">
+      <c r="O50">
         <f t="shared" si="22"/>
         <v>-25857</v>
       </c>
-      <c r="P49">
+      <c r="P50">
         <f t="shared" si="22"/>
         <v>-19101</v>
       </c>
-      <c r="Q49">
+      <c r="Q50">
         <f t="shared" si="22"/>
         <v>-14429</v>
       </c>
-      <c r="R49">
+      <c r="R50">
         <f t="shared" si="22"/>
         <v>-10137</v>
       </c>
-      <c r="S49">
+      <c r="S50">
         <f t="shared" si="22"/>
         <v>-29577</v>
       </c>
-      <c r="AA49">
-        <f t="shared" ref="AA49:AD49" si="23">AA42+AA47</f>
+      <c r="AA50">
+        <f t="shared" ref="AA50:AD50" si="23">AA43+AA48</f>
         <v>-45513</v>
       </c>
-      <c r="AB49">
+      <c r="AB50">
         <f t="shared" si="23"/>
         <v>-93961</v>
       </c>
-      <c r="AC49">
+      <c r="AC50">
         <f t="shared" si="23"/>
         <v>-105584</v>
       </c>
-      <c r="AD49">
+      <c r="AD50">
         <f t="shared" si="23"/>
         <v>-82508</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-    </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>5</v>
+      <c r="A52" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="1">
-        <v>-24179</v>
-      </c>
-      <c r="K53" s="1">
-        <v>-25828</v>
-      </c>
-      <c r="L53" s="1">
-        <v>-28418</v>
-      </c>
-      <c r="M53">
-        <f t="shared" ref="M53" si="24">AC53-L53-K53-J53</f>
-        <v>-27159</v>
-      </c>
-      <c r="N53" s="1">
-        <v>-23121</v>
-      </c>
-      <c r="O53" s="1">
-        <v>-25857</v>
-      </c>
-      <c r="P53" s="1">
-        <v>-19101</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" ref="Q53" si="25">AD53-P53-O53-N53</f>
-        <v>-14429</v>
-      </c>
-      <c r="R53" s="1">
-        <v>-10137</v>
-      </c>
-      <c r="S53" s="1">
-        <v>-29577</v>
-      </c>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="AA53">
-        <v>-45513</v>
-      </c>
-      <c r="AB53">
-        <v>-93961</v>
-      </c>
-      <c r="AC53">
-        <v>-105584</v>
-      </c>
-      <c r="AD53">
-        <v>-82508</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J54" s="1">
-        <f>J49-J51</f>
         <v>-24179</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" ref="K54:S54" si="26">K49-K51</f>
         <v>-25828</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="26"/>
         <v>-28418</v>
       </c>
-      <c r="M54" s="1">
-        <f t="shared" si="26"/>
+      <c r="M54">
+        <f t="shared" ref="M54" si="24">AC54-L54-K54-J54</f>
         <v>-27159</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="26"/>
         <v>-23121</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="26"/>
         <v>-25857</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="26"/>
         <v>-19101</v>
       </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="26"/>
+      <c r="Q54">
+        <f t="shared" ref="Q54" si="25">AD54-P54-O54-N54</f>
         <v>-14429</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="26"/>
         <v>-10137</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="26"/>
         <v>-29577</v>
       </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="AA54" s="1">
-        <f t="shared" ref="AA54:AD54" si="27">AA49-AA51</f>
+      <c r="AA54">
         <v>-45513</v>
       </c>
-      <c r="AB54" s="1">
-        <f t="shared" si="27"/>
+      <c r="AB54">
         <v>-93961</v>
       </c>
-      <c r="AC54" s="1">
-        <f t="shared" si="27"/>
+      <c r="AC54">
         <v>-105584</v>
       </c>
-      <c r="AD54" s="1">
-        <f t="shared" si="27"/>
+      <c r="AD54">
         <v>-82508</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J55" s="1">
-        <f>J54-J53</f>
-        <v>0</v>
+        <f>J50-J52</f>
+        <v>-24179</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ref="K55:S55" si="28">K54-K53</f>
-        <v>0</v>
+        <f t="shared" ref="K55:S55" si="26">K50-K52</f>
+        <v>-25828</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-28418</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-27159</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-23121</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-25857</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-19101</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-14429</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-10137</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-29577</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="AA55" s="1">
-        <f t="shared" ref="AA55" si="29">AA54-AA53</f>
-        <v>0</v>
+        <f t="shared" ref="AA55:AD55" si="27">AA50-AA52</f>
+        <v>-45513</v>
       </c>
       <c r="AB55" s="1">
-        <f t="shared" ref="AB55" si="30">AB54-AB53</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-93961</v>
       </c>
       <c r="AC55" s="1">
-        <f t="shared" ref="AC55" si="31">AC54-AC53</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-105584</v>
       </c>
       <c r="AD55" s="1">
-        <f t="shared" ref="AD55" si="32">AD54-AD53</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-82508</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="1">
+        <f>J55-J54</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" ref="K56:S56" si="28">K55-K54</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
+      <c r="AA56" s="1">
+        <f t="shared" ref="AA56" si="29">AA55-AA54</f>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" ref="AB56" si="30">AB55-AB54</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" ref="AC56" si="31">AC55-AC54</f>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <f t="shared" ref="AD56" si="32">AD55-AD54</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="1">
-        <v>24135735</v>
-      </c>
-      <c r="K57" s="1">
-        <v>26082525</v>
-      </c>
-      <c r="L57" s="1">
-        <v>26177079</v>
-      </c>
-      <c r="M57" s="1">
-        <f>AC57*4-L57-K57-J57</f>
-        <v>25997385</v>
-      </c>
-      <c r="N57" s="1">
-        <v>26215514</v>
-      </c>
-      <c r="O57" s="1">
-        <v>26901069</v>
-      </c>
-      <c r="P57" s="1">
-        <v>48000183</v>
-      </c>
-      <c r="Q57" s="1">
-        <f>AD57*4-P57-O57-N57</f>
-        <v>50184958</v>
-      </c>
-      <c r="R57" s="1">
-        <v>56357983</v>
-      </c>
-      <c r="S57" s="1">
-        <v>79041695</v>
-      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="AC57">
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="1">
+        <v>24135735</v>
+      </c>
+      <c r="K58" s="1">
+        <v>26082525</v>
+      </c>
+      <c r="L58" s="1">
+        <v>26177079</v>
+      </c>
+      <c r="M58" s="1">
+        <f>AC58*4-L58-K58-J58</f>
+        <v>25997385</v>
+      </c>
+      <c r="N58" s="1">
+        <v>26215514</v>
+      </c>
+      <c r="O58" s="1">
+        <v>26901069</v>
+      </c>
+      <c r="P58" s="1">
+        <v>48000183</v>
+      </c>
+      <c r="Q58" s="1">
+        <f>AD58*4-P58-O58-N58</f>
+        <v>50184958</v>
+      </c>
+      <c r="R58" s="1">
+        <v>56357983</v>
+      </c>
+      <c r="S58" s="1">
+        <v>79041695</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="AC58">
         <v>25598181</v>
       </c>
-      <c r="AD57">
+      <c r="AD58">
         <v>37825431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A195E-EEEA-684F-A764-C8C9DB646D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D85FBC8-A163-9E4B-951F-B0EAB08D58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -418,8 +418,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +509,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1153,13 +1155,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1:AV71"/>
+  <dimension ref="A1:AV73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AE26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="AE47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG38" sqref="AG38"/>
+      <selection pane="bottomRight" activeCell="AH66" sqref="AH66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1623,37 +1625,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1709,23 +1711,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="13">
         <f>U28+U13</f>
         <v>1012.5</v>
       </c>
-      <c r="V29" s="12">
+      <c r="V29" s="13">
         <f t="shared" ref="V29:Y29" si="4">V28+V13</f>
         <v>3037.5</v>
       </c>
-      <c r="W29" s="12">
+      <c r="W29" s="13">
         <f t="shared" si="4"/>
         <v>5062.5</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="13">
         <f t="shared" si="4"/>
         <v>7087.4999999999991</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="13">
         <f t="shared" si="4"/>
         <v>8100</v>
       </c>
@@ -1745,54 +1747,166 @@
         <f t="shared" ref="AF29" si="8">AF28</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="12">
+      <c r="AG29" s="13">
         <f>SUM(R29:U29)</f>
         <v>11672.5</v>
       </c>
-      <c r="AH29" s="12">
+      <c r="AH29" s="13">
         <f>SUM(V29:Y29)</f>
         <v>23287.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="13">
+        <f>AI28+AI10</f>
+        <v>55620</v>
+      </c>
+      <c r="AJ29" s="13">
+        <f t="shared" ref="AJ29:AV29" si="9">AJ28+AJ10</f>
+        <v>85932.900000000009</v>
+      </c>
+      <c r="AK29" s="13">
+        <f t="shared" si="9"/>
+        <v>98345.430000000008</v>
+      </c>
+      <c r="AL29" s="13">
+        <f t="shared" si="9"/>
+        <v>101295.79290000001</v>
+      </c>
+      <c r="AM29" s="13">
+        <f t="shared" si="9"/>
+        <v>104334.66668700002</v>
+      </c>
+      <c r="AN29" s="13">
+        <f t="shared" si="9"/>
+        <v>107464.70668761003</v>
+      </c>
+      <c r="AO29" s="13">
+        <f t="shared" si="9"/>
+        <v>110688.64788823834</v>
+      </c>
+      <c r="AP29" s="13">
+        <f t="shared" si="9"/>
+        <v>114009.30732488549</v>
+      </c>
+      <c r="AQ29" s="13">
+        <f t="shared" si="9"/>
+        <v>117429.58654463205</v>
+      </c>
+      <c r="AR29" s="13">
+        <f t="shared" si="9"/>
+        <v>120952.47414097101</v>
+      </c>
+      <c r="AS29" s="13">
+        <f t="shared" si="9"/>
+        <v>124581.04836520014</v>
+      </c>
+      <c r="AT29" s="13">
+        <f t="shared" si="9"/>
+        <v>128318.47981615615</v>
+      </c>
+      <c r="AU29" s="13">
+        <f t="shared" si="9"/>
+        <v>132168.03421064085</v>
+      </c>
+      <c r="AV29" s="13">
+        <f t="shared" si="9"/>
+        <v>136133.07523696008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
       <c r="R31" s="1"/>
-      <c r="U31" s="12">
+      <c r="U31" s="13">
         <f>U29*(1-U32)</f>
         <v>101.24999999999997</v>
       </c>
-      <c r="V31" s="12">
-        <f t="shared" ref="V31:Y31" si="9">V29*(1-V32)</f>
+      <c r="V31" s="13">
+        <f t="shared" ref="V31:Y31" si="10">V29*(1-V32)</f>
         <v>303.74999999999994</v>
       </c>
-      <c r="W31" s="12">
-        <f t="shared" si="9"/>
+      <c r="W31" s="13">
+        <f t="shared" si="10"/>
         <v>506.24999999999989</v>
       </c>
-      <c r="X31" s="12">
-        <f t="shared" si="9"/>
+      <c r="X31" s="13">
+        <f t="shared" si="10"/>
         <v>708.74999999999977</v>
       </c>
-      <c r="Y31" s="12">
-        <f t="shared" si="9"/>
+      <c r="Y31" s="13">
+        <f t="shared" si="10"/>
         <v>809.99999999999977</v>
       </c>
-      <c r="AG31" s="12">
+      <c r="AG31" s="13">
         <f>SUM(R31:U31)</f>
         <v>101.24999999999997</v>
       </c>
-      <c r="AH31" s="12">
+      <c r="AH31" s="13">
         <f>SUM(V31:Y31)</f>
         <v>2328.7499999999991</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="13">
+        <f t="shared" ref="AI31" si="11">AI29*(1-AI32)</f>
+        <v>5561.9999999999991</v>
+      </c>
+      <c r="AJ31" s="13">
+        <f t="shared" ref="AJ31" si="12">AJ29*(1-AJ32)</f>
+        <v>8593.2899999999991</v>
+      </c>
+      <c r="AK31" s="13">
+        <f t="shared" ref="AK31" si="13">AK29*(1-AK32)</f>
+        <v>9834.5429999999978</v>
+      </c>
+      <c r="AL31" s="13">
+        <f t="shared" ref="AL31" si="14">AL29*(1-AL32)</f>
+        <v>10129.57929</v>
+      </c>
+      <c r="AM31" s="13">
+        <f t="shared" ref="AM31" si="15">AM29*(1-AM32)</f>
+        <v>10433.466668699999</v>
+      </c>
+      <c r="AN31" s="13">
+        <f t="shared" ref="AN31" si="16">AN29*(1-AN32)</f>
+        <v>10746.470668761</v>
+      </c>
+      <c r="AO31" s="13">
+        <f t="shared" ref="AO31" si="17">AO29*(1-AO32)</f>
+        <v>11068.864788823832</v>
+      </c>
+      <c r="AP31" s="13">
+        <f t="shared" ref="AP31" si="18">AP29*(1-AP32)</f>
+        <v>11400.930732488547</v>
+      </c>
+      <c r="AQ31" s="13">
+        <f t="shared" ref="AQ31" si="19">AQ29*(1-AQ32)</f>
+        <v>11742.958654463202</v>
+      </c>
+      <c r="AR31" s="13">
+        <f t="shared" ref="AR31" si="20">AR29*(1-AR32)</f>
+        <v>12095.247414097099</v>
+      </c>
+      <c r="AS31" s="13">
+        <f t="shared" ref="AS31" si="21">AS29*(1-AS32)</f>
+        <v>12458.104836520011</v>
+      </c>
+      <c r="AT31" s="13">
+        <f t="shared" ref="AT31" si="22">AT29*(1-AT32)</f>
+        <v>12831.847981615612</v>
+      </c>
+      <c r="AU31" s="13">
+        <f t="shared" ref="AU31" si="23">AU29*(1-AU32)</f>
+        <v>13216.803421064082</v>
+      </c>
+      <c r="AV31" s="13">
+        <f t="shared" ref="AV31" si="24">AV29*(1-AV32)</f>
+        <v>13613.307523696005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -1820,6 +1934,48 @@
         <f>AH33/AH29</f>
         <v>0.9</v>
       </c>
+      <c r="AI32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -1866,27 +2022,27 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="T33:Y33" si="10">T29-T31</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="T33:Y33" si="25">T29-T31</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <f t="shared" si="25"/>
         <v>911.25</v>
       </c>
-      <c r="V33" s="12">
-        <f t="shared" si="10"/>
+      <c r="V33" s="13">
+        <f t="shared" si="25"/>
         <v>2733.75</v>
       </c>
-      <c r="W33" s="12">
-        <f t="shared" si="10"/>
+      <c r="W33" s="13">
+        <f t="shared" si="25"/>
         <v>4556.25</v>
       </c>
-      <c r="X33" s="12">
-        <f t="shared" si="10"/>
+      <c r="X33" s="13">
+        <f t="shared" si="25"/>
         <v>6378.7499999999991</v>
       </c>
-      <c r="Y33" s="12">
-        <f t="shared" si="10"/>
+      <c r="Y33" s="13">
+        <f>Y29-Y31</f>
         <v>7290</v>
       </c>
       <c r="AC33">
@@ -1894,24 +2050,80 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" ref="AD33:AF33" si="11">AD29-AD31</f>
+        <f t="shared" ref="AD33:AF33" si="26">AD29-AD31</f>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="12">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13">
         <f>AG29-AG31</f>
         <v>11571.25</v>
       </c>
-      <c r="AH33" s="12">
+      <c r="AH33" s="13">
         <f>AH29-AH31</f>
         <v>20958.75</v>
+      </c>
+      <c r="AI33" s="13">
+        <f t="shared" ref="AI33:AV33" si="27">AI29-AI31</f>
+        <v>50058</v>
+      </c>
+      <c r="AJ33" s="13">
+        <f t="shared" si="27"/>
+        <v>77339.610000000015</v>
+      </c>
+      <c r="AK33" s="13">
+        <f t="shared" si="27"/>
+        <v>88510.887000000017</v>
+      </c>
+      <c r="AL33" s="13">
+        <f t="shared" si="27"/>
+        <v>91166.213610000021</v>
+      </c>
+      <c r="AM33" s="13">
+        <f t="shared" si="27"/>
+        <v>93901.20001830002</v>
+      </c>
+      <c r="AN33" s="13">
+        <f t="shared" si="27"/>
+        <v>96718.236018849027</v>
+      </c>
+      <c r="AO33" s="13">
+        <f t="shared" si="27"/>
+        <v>99619.783099414504</v>
+      </c>
+      <c r="AP33" s="13">
+        <f t="shared" si="27"/>
+        <v>102608.37659239695</v>
+      </c>
+      <c r="AQ33" s="13">
+        <f t="shared" si="27"/>
+        <v>105686.62789016885</v>
+      </c>
+      <c r="AR33" s="13">
+        <f t="shared" si="27"/>
+        <v>108857.22672687391</v>
+      </c>
+      <c r="AS33" s="13">
+        <f t="shared" si="27"/>
+        <v>112122.94352868013</v>
+      </c>
+      <c r="AT33" s="13">
+        <f t="shared" si="27"/>
+        <v>115486.63183454053</v>
+      </c>
+      <c r="AU33" s="13">
+        <f t="shared" si="27"/>
+        <v>118951.23078957677</v>
+      </c>
+      <c r="AV33" s="13">
+        <f t="shared" si="27"/>
+        <v>122519.76771326408</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
@@ -1923,95 +2135,43 @@
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1">
-        <v>6454</v>
-      </c>
-      <c r="K36" s="1">
-        <v>10172</v>
-      </c>
-      <c r="L36" s="1">
-        <v>11778</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ref="M36:M40" si="12">AE36-L36-K36-J36</f>
-        <v>11919</v>
-      </c>
-      <c r="N36" s="1">
-        <v>11528</v>
-      </c>
-      <c r="O36" s="1">
-        <v>12402</v>
-      </c>
-      <c r="P36" s="1">
-        <v>10035</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" ref="Q36:Q40" si="13">AF36-P36-O36-N36</f>
-        <v>8963</v>
-      </c>
-      <c r="R36" s="1">
-        <v>11816</v>
-      </c>
-      <c r="S36" s="1">
-        <v>8744</v>
-      </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AC36" s="1">
-        <v>17436</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>28736</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>40323</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>42928</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1">
-        <v>5820</v>
+        <v>6454</v>
       </c>
       <c r="K37" s="1">
-        <v>2316</v>
+        <v>10172</v>
       </c>
       <c r="L37" s="1">
-        <v>3172</v>
+        <v>11778</v>
       </c>
       <c r="M37">
-        <f t="shared" si="12"/>
-        <v>602</v>
+        <f t="shared" ref="M37:M41" si="28">AE37-L37-K37-J37</f>
+        <v>11919</v>
       </c>
       <c r="N37" s="1">
-        <v>231</v>
+        <v>11528</v>
       </c>
       <c r="O37" s="1">
-        <v>136</v>
+        <v>12402</v>
       </c>
       <c r="P37" s="1">
-        <v>236</v>
+        <v>10035</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="13"/>
-        <v>354</v>
+        <f t="shared" ref="Q37:Q41" si="29">AF37-P37-O37-N37</f>
+        <v>8963</v>
       </c>
       <c r="R37" s="1">
-        <v>1271</v>
+        <v>11816</v>
       </c>
       <c r="S37" s="1">
-        <v>540</v>
+        <v>8744</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -2020,53 +2180,61 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AC37" s="1">
-        <v>9069</v>
+        <v>17436</v>
       </c>
       <c r="AD37" s="1">
-        <v>24424</v>
+        <v>28736</v>
       </c>
       <c r="AE37" s="1">
-        <v>11910</v>
+        <v>40323</v>
       </c>
       <c r="AF37" s="1">
-        <v>957</v>
+        <v>42928</v>
+      </c>
+      <c r="AG37" s="13">
+        <f>SUM(R37:U37)</f>
+        <v>20560</v>
+      </c>
+      <c r="AH37" s="13">
+        <f>SUM(V37:Y37)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1">
-        <v>1092</v>
+        <v>5820</v>
       </c>
       <c r="K38" s="1">
-        <v>1270</v>
+        <v>2316</v>
       </c>
       <c r="L38" s="1">
-        <v>1368</v>
+        <v>3172</v>
       </c>
       <c r="M38">
-        <f t="shared" si="12"/>
-        <v>1799</v>
+        <f t="shared" si="28"/>
+        <v>602</v>
       </c>
       <c r="N38" s="1">
-        <v>1937</v>
+        <v>231</v>
       </c>
       <c r="O38" s="1">
-        <v>1578</v>
+        <v>136</v>
       </c>
       <c r="P38" s="1">
-        <v>1416</v>
+        <v>236</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="13"/>
-        <v>1717</v>
+        <f t="shared" si="29"/>
+        <v>354</v>
       </c>
       <c r="R38" s="1">
-        <v>1700</v>
+        <v>1271</v>
       </c>
       <c r="S38" s="1">
-        <v>1408</v>
+        <v>540</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -2075,53 +2243,61 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AC38" s="1">
-        <v>2728</v>
+        <v>9069</v>
       </c>
       <c r="AD38" s="1">
-        <v>3351</v>
+        <v>24424</v>
       </c>
       <c r="AE38" s="1">
-        <v>5529</v>
+        <v>11910</v>
       </c>
       <c r="AF38" s="1">
-        <v>6648</v>
+        <v>957</v>
+      </c>
+      <c r="AG38" s="13">
+        <f t="shared" ref="AG38:AG41" si="30">SUM(R38:U38)</f>
+        <v>1811</v>
+      </c>
+      <c r="AH38" s="13">
+        <f t="shared" ref="AH38:AH41" si="31">SUM(V38:Y38)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" s="1">
-        <v>799</v>
+        <v>1092</v>
       </c>
       <c r="K39" s="1">
-        <v>533</v>
+        <v>1270</v>
       </c>
       <c r="L39" s="1">
-        <v>642</v>
+        <v>1368</v>
       </c>
       <c r="M39">
-        <f t="shared" si="12"/>
-        <v>785</v>
+        <f t="shared" si="28"/>
+        <v>1799</v>
       </c>
       <c r="N39" s="1">
-        <v>856</v>
+        <v>1937</v>
       </c>
       <c r="O39" s="1">
-        <v>788</v>
+        <v>1578</v>
       </c>
       <c r="P39" s="1">
-        <v>1178</v>
+        <v>1416</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="13"/>
-        <v>797</v>
+        <f t="shared" si="29"/>
+        <v>1717</v>
       </c>
       <c r="R39" s="1">
-        <v>862</v>
+        <v>1700</v>
       </c>
       <c r="S39" s="1">
-        <v>752</v>
+        <v>1408</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -2130,53 +2306,61 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AC39" s="1">
-        <v>2762</v>
+        <v>2728</v>
       </c>
       <c r="AD39" s="1">
-        <v>2580</v>
+        <v>3351</v>
       </c>
       <c r="AE39" s="1">
-        <v>2759</v>
+        <v>5529</v>
       </c>
       <c r="AF39" s="1">
-        <v>3619</v>
+        <v>6648</v>
+      </c>
+      <c r="AG39" s="13">
+        <f t="shared" si="30"/>
+        <v>3108</v>
+      </c>
+      <c r="AH39" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1">
-        <v>283</v>
+        <v>799</v>
       </c>
       <c r="K40" s="1">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="L40" s="1">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M40">
-        <f t="shared" si="12"/>
-        <v>618</v>
+        <f t="shared" si="28"/>
+        <v>785</v>
       </c>
       <c r="N40" s="1">
-        <v>478</v>
+        <v>856</v>
       </c>
       <c r="O40" s="1">
-        <v>492</v>
+        <v>788</v>
       </c>
       <c r="P40" s="1">
-        <v>251</v>
+        <v>1178</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="13"/>
-        <v>261</v>
+        <f t="shared" si="29"/>
+        <v>797</v>
       </c>
       <c r="R40" s="1">
-        <v>286</v>
+        <v>862</v>
       </c>
       <c r="S40" s="1">
-        <v>439</v>
+        <v>752</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2185,233 +2369,273 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AC40" s="1">
-        <v>355</v>
+        <v>2762</v>
       </c>
       <c r="AD40" s="1">
-        <v>2697</v>
+        <v>2580</v>
       </c>
       <c r="AE40" s="1">
-        <v>2049</v>
+        <v>2759</v>
       </c>
       <c r="AF40" s="1">
-        <v>1482</v>
+        <v>3619</v>
+      </c>
+      <c r="AG40" s="13">
+        <f t="shared" si="30"/>
+        <v>1614</v>
+      </c>
+      <c r="AH40" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f>J40+J39+J38+J37+J36</f>
+        <v>11</v>
+      </c>
+      <c r="J41" s="1">
+        <v>283</v>
+      </c>
+      <c r="K41" s="1">
+        <v>511</v>
+      </c>
+      <c r="L41" s="1">
+        <v>637</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="28"/>
+        <v>618</v>
+      </c>
+      <c r="N41" s="1">
+        <v>478</v>
+      </c>
+      <c r="O41" s="1">
+        <v>492</v>
+      </c>
+      <c r="P41" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="29"/>
+        <v>261</v>
+      </c>
+      <c r="R41" s="1">
+        <v>286</v>
+      </c>
+      <c r="S41" s="1">
+        <v>439</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AC41" s="1">
+        <v>355</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>2697</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>1482</v>
+      </c>
+      <c r="AG41" s="13">
+        <f t="shared" si="30"/>
+        <v>725</v>
+      </c>
+      <c r="AH41" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>J41+J40+J39+J38+J37</f>
         <v>14448</v>
       </c>
-      <c r="K41">
-        <f>K40+K39+K38+K37+K36</f>
+      <c r="K42">
+        <f>K41+K40+K39+K38+K37</f>
         <v>14802</v>
       </c>
-      <c r="L41">
-        <f>L40+L39+L38+L37+L36</f>
+      <c r="L42">
+        <f>L41+L40+L39+L38+L37</f>
         <v>17597</v>
       </c>
-      <c r="M41">
-        <f>M40+M39+M38+M37+M36</f>
+      <c r="M42">
+        <f>M41+M40+M39+M38+M37</f>
         <v>15723</v>
       </c>
-      <c r="N41">
-        <f>N40+N39+N38+N37+N36</f>
+      <c r="N42">
+        <f>N41+N40+N39+N38+N37</f>
         <v>15030</v>
       </c>
-      <c r="O41">
-        <f>O40+O39+O38+O37+O36</f>
+      <c r="O42">
+        <f>O41+O40+O39+O38+O37</f>
         <v>15396</v>
       </c>
-      <c r="P41">
-        <f t="shared" ref="P41:S41" si="14">P40+P39+P38+P37+P36</f>
+      <c r="P42">
+        <f t="shared" ref="P42:S42" si="32">P41+P40+P39+P38+P37</f>
         <v>13116</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="14"/>
+      <c r="Q42">
+        <f t="shared" si="32"/>
         <v>12092</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="14"/>
+      <c r="R42">
+        <f t="shared" si="32"/>
         <v>15935</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="14"/>
+      <c r="S42">
+        <f t="shared" si="32"/>
         <v>11883</v>
       </c>
-      <c r="AC41">
-        <f>AC40+AC39+AC38+AC37+AC36</f>
+      <c r="T42">
+        <f t="shared" ref="T42" si="33">T41+T40+T39+T38+T37</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42" si="34">U41+U40+U39+U38+U37</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42" si="35">V41+V40+V39+V38+V37</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42" si="36">W41+W40+W39+W38+W37</f>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42" si="37">X41+X40+X39+X38+X37</f>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42" si="38">Y41+Y40+Y39+Y38+Y37</f>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f>AC41+AC40+AC39+AC38+AC37</f>
         <v>32350</v>
       </c>
-      <c r="AD41">
-        <f t="shared" ref="AD41:AF41" si="15">AD40+AD39+AD38+AD37+AD36</f>
+      <c r="AD42">
+        <f t="shared" ref="AD42:AF42" si="39">AD41+AD40+AD39+AD38+AD37</f>
         <v>61788</v>
       </c>
-      <c r="AE41">
-        <f t="shared" si="15"/>
+      <c r="AE42">
+        <f t="shared" si="39"/>
         <v>62570</v>
       </c>
-      <c r="AF41">
-        <f t="shared" si="15"/>
+      <c r="AF42">
+        <f t="shared" si="39"/>
         <v>55634</v>
       </c>
-      <c r="AG41">
-        <f t="shared" ref="AG41" si="16">AG40+AG39+AG38+AG37+AG36</f>
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" ref="AH41" si="17">AH40+AH39+AH38+AH37+AH36</f>
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" ref="AI41" si="18">AI40+AI39+AI38+AI37+AI36</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" ref="AJ41" si="19">AJ40+AJ39+AJ38+AJ37+AJ36</f>
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" ref="AK41" si="20">AK40+AK39+AK38+AK37+AK36</f>
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" ref="AL41" si="21">AL40+AL39+AL38+AL37+AL36</f>
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" ref="AM41" si="22">AM40+AM39+AM38+AM37+AM36</f>
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" ref="AN41" si="23">AN40+AN39+AN38+AN37+AN36</f>
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" ref="AO41" si="24">AO40+AO39+AO38+AO37+AO36</f>
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <f t="shared" ref="AP41" si="25">AP40+AP39+AP38+AP37+AP36</f>
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" ref="AQ41" si="26">AQ40+AQ39+AQ38+AQ37+AQ36</f>
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" ref="AR41" si="27">AR40+AR39+AR38+AR37+AR36</f>
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <f t="shared" ref="AS41" si="28">AS40+AS39+AS38+AS37+AS36</f>
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <f t="shared" ref="AT41" si="29">AT40+AT39+AT38+AT37+AT36</f>
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <f t="shared" ref="AU41" si="30">AU40+AU39+AU38+AU37+AU36</f>
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <f t="shared" ref="AV41" si="31">AV40+AV39+AV38+AV37+AV36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1771</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1826</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1511</v>
-      </c>
-      <c r="M43">
-        <f>AE43-L43-K43-J43</f>
-        <v>1232</v>
-      </c>
-      <c r="N43" s="1">
-        <v>1619</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1359</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1341</v>
-      </c>
-      <c r="Q43">
-        <f>AF43-P43-O43-N43</f>
-        <v>2535</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1487</v>
-      </c>
-      <c r="S43" s="1">
-        <v>1605</v>
-      </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AC43" s="1">
-        <v>4397</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>8451</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>6854</v>
+      <c r="AG42">
+        <f t="shared" ref="AG42" si="40">AG41+AG40+AG39+AG38+AG37</f>
+        <v>27818</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" ref="AH42" si="41">AH41+AH40+AH39+AH38+AH37</f>
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" ref="AI42" si="42">AI41+AI40+AI39+AI38+AI37</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" ref="AJ42" si="43">AJ41+AJ40+AJ39+AJ38+AJ37</f>
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" ref="AK42" si="44">AK41+AK40+AK39+AK38+AK37</f>
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" ref="AL42" si="45">AL41+AL40+AL39+AL38+AL37</f>
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" ref="AM42" si="46">AM41+AM40+AM39+AM38+AM37</f>
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" ref="AN42" si="47">AN41+AN40+AN39+AN38+AN37</f>
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" ref="AO42" si="48">AO41+AO40+AO39+AO38+AO37</f>
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" ref="AP42" si="49">AP41+AP40+AP39+AP38+AP37</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" ref="AQ42" si="50">AQ41+AQ40+AQ39+AQ38+AQ37</f>
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" ref="AR42" si="51">AR41+AR40+AR39+AR38+AR37</f>
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" ref="AS42" si="52">AS41+AS40+AS39+AS38+AS37</f>
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" ref="AT42" si="53">AT41+AT40+AT39+AT38+AT37</f>
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" ref="AU42" si="54">AU41+AU40+AU39+AU38+AU37</f>
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" ref="AV42" si="55">AV41+AV40+AV39+AV38+AV37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J44" s="1">
-        <v>1932</v>
+        <v>1771</v>
       </c>
       <c r="K44" s="1">
-        <v>2695</v>
+        <v>1826</v>
       </c>
       <c r="L44" s="1">
-        <v>3111</v>
+        <v>1511</v>
       </c>
       <c r="M44">
         <f>AE44-L44-K44-J44</f>
-        <v>3603</v>
+        <v>1232</v>
       </c>
       <c r="N44" s="1">
-        <v>1288</v>
+        <v>1619</v>
       </c>
       <c r="O44" s="1">
-        <v>241</v>
+        <v>1359</v>
       </c>
       <c r="P44" s="1">
-        <v>315</v>
+        <v>1341</v>
       </c>
       <c r="Q44">
         <f>AF44-P44-O44-N44</f>
-        <v>349</v>
+        <v>2535</v>
       </c>
       <c r="R44" s="1">
-        <v>143</v>
+        <v>1487</v>
       </c>
       <c r="S44" s="1">
-        <v>228</v>
+        <v>1605</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -2419,52 +2643,62 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AC44" s="1"/>
+      <c r="AC44" s="1">
+        <v>4397</v>
+      </c>
       <c r="AD44" s="1">
-        <v>5746</v>
+        <v>8451</v>
       </c>
       <c r="AE44" s="1">
-        <v>11341</v>
+        <v>6340</v>
       </c>
       <c r="AF44" s="1">
-        <v>2193</v>
+        <v>6854</v>
+      </c>
+      <c r="AG44" s="13">
+        <f>SUM(R44:U44)</f>
+        <v>3092</v>
+      </c>
+      <c r="AH44" s="13">
+        <f>SUM(V44:Y44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1">
-        <v>1544</v>
+        <v>1932</v>
       </c>
       <c r="K45" s="1">
-        <v>1725</v>
+        <v>2695</v>
       </c>
       <c r="L45" s="1">
-        <v>1653</v>
+        <v>3111</v>
       </c>
       <c r="M45">
         <f>AE45-L45-K45-J45</f>
-        <v>1695</v>
+        <v>3603</v>
       </c>
       <c r="N45" s="1">
-        <v>1768</v>
+        <v>1288</v>
       </c>
       <c r="O45" s="1">
-        <v>1294</v>
+        <v>241</v>
       </c>
       <c r="P45" s="1">
-        <v>1157</v>
+        <v>315</v>
       </c>
       <c r="Q45">
         <f>AF45-P45-O45-N45</f>
-        <v>1318</v>
+        <v>349</v>
       </c>
       <c r="R45" s="1">
-        <v>1227</v>
+        <v>143</v>
       </c>
       <c r="S45" s="1">
-        <v>889</v>
+        <v>228</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -2472,54 +2706,60 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AC45" s="1">
-        <v>1462</v>
-      </c>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="1">
-        <v>5651</v>
+        <v>5746</v>
       </c>
       <c r="AE45" s="1">
-        <v>6617</v>
+        <v>11341</v>
       </c>
       <c r="AF45" s="1">
-        <v>5537</v>
+        <v>2193</v>
+      </c>
+      <c r="AG45" s="13">
+        <f t="shared" ref="AG45:AG49" si="56">SUM(R45:U45)</f>
+        <v>371</v>
+      </c>
+      <c r="AH45" s="13">
+        <f t="shared" ref="AH45:AH49" si="57">SUM(V45:Y45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" s="1">
-        <v>2182</v>
+        <v>1544</v>
       </c>
       <c r="K46" s="1">
-        <v>2169</v>
+        <v>1725</v>
       </c>
       <c r="L46" s="1">
-        <v>2003</v>
+        <v>1653</v>
       </c>
       <c r="M46">
         <f>AE46-L46-K46-J46</f>
-        <v>2064</v>
+        <v>1695</v>
       </c>
       <c r="N46" s="1">
-        <v>1221</v>
+        <v>1768</v>
       </c>
       <c r="O46" s="1">
-        <v>1443</v>
+        <v>1294</v>
       </c>
       <c r="P46" s="1">
-        <v>1678</v>
+        <v>1157</v>
       </c>
       <c r="Q46">
         <f>AF46-P46-O46-N46</f>
-        <v>1201</v>
+        <v>1318</v>
       </c>
       <c r="R46" s="1">
-        <v>1192</v>
+        <v>1227</v>
       </c>
       <c r="S46" s="1">
-        <v>1091</v>
+        <v>889</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2528,53 +2768,61 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AC46" s="1">
-        <v>3409</v>
+        <v>1462</v>
       </c>
       <c r="AD46" s="1">
-        <v>5446</v>
+        <v>5651</v>
       </c>
       <c r="AE46" s="1">
-        <v>8418</v>
+        <v>6617</v>
       </c>
       <c r="AF46" s="1">
-        <v>5543</v>
+        <v>5537</v>
+      </c>
+      <c r="AG46" s="13">
+        <f t="shared" si="56"/>
+        <v>2116</v>
+      </c>
+      <c r="AH46" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J47" s="1">
-        <v>1010</v>
+        <v>2182</v>
       </c>
       <c r="K47" s="1">
-        <v>1084</v>
+        <v>2169</v>
       </c>
       <c r="L47" s="1">
-        <v>1152</v>
+        <v>2003</v>
       </c>
       <c r="M47">
         <f>AE47-L47-K47-J47</f>
-        <v>1153</v>
+        <v>2064</v>
       </c>
       <c r="N47" s="1">
-        <v>1125</v>
+        <v>1221</v>
       </c>
       <c r="O47" s="1">
-        <v>945</v>
+        <v>1443</v>
       </c>
       <c r="P47" s="1">
-        <v>810</v>
+        <v>1678</v>
       </c>
       <c r="Q47">
         <f>AF47-P47-O47-N47</f>
-        <v>802</v>
+        <v>1201</v>
       </c>
       <c r="R47" s="1">
-        <v>798</v>
+        <v>1192</v>
       </c>
       <c r="S47" s="1">
-        <v>607</v>
+        <v>1091</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -2583,53 +2831,61 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AC47" s="1">
-        <v>1993</v>
+        <v>3409</v>
       </c>
       <c r="AD47" s="1">
-        <v>3764</v>
+        <v>5446</v>
       </c>
       <c r="AE47" s="1">
-        <v>4399</v>
+        <v>8418</v>
       </c>
       <c r="AF47" s="1">
-        <v>3682</v>
+        <v>5543</v>
+      </c>
+      <c r="AG47" s="13">
+        <f t="shared" si="56"/>
+        <v>2283</v>
+      </c>
+      <c r="AH47" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1">
-        <v>1312</v>
+        <v>1010</v>
       </c>
       <c r="K48" s="1">
-        <v>1574</v>
+        <v>1084</v>
       </c>
       <c r="L48" s="1">
-        <v>1403</v>
+        <v>1152</v>
       </c>
       <c r="M48">
         <f>AE48-L48-K48-J48</f>
-        <v>1644</v>
+        <v>1153</v>
       </c>
       <c r="N48" s="1">
-        <v>1050</v>
+        <v>1125</v>
       </c>
       <c r="O48" s="1">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="P48" s="1">
-        <v>939</v>
+        <v>810</v>
       </c>
       <c r="Q48">
         <f>AF48-P48-O48-N48</f>
-        <v>675</v>
+        <v>802</v>
       </c>
       <c r="R48" s="1">
-        <v>736</v>
+        <v>798</v>
       </c>
       <c r="S48" s="1">
-        <v>873</v>
+        <v>607</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -2638,386 +2894,500 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AC48" s="1">
-        <v>1971</v>
+        <v>1993</v>
       </c>
       <c r="AD48" s="1">
-        <v>3620</v>
+        <v>3764</v>
       </c>
       <c r="AE48" s="1">
-        <v>5933</v>
+        <v>4399</v>
       </c>
       <c r="AF48" s="1">
-        <v>3507</v>
+        <v>3682</v>
+      </c>
+      <c r="AG48" s="13">
+        <f t="shared" si="56"/>
+        <v>1405</v>
+      </c>
+      <c r="AH48" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1312</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1574</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1403</v>
+      </c>
+      <c r="M49">
+        <f>AE49-L49-K49-J49</f>
+        <v>1644</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1050</v>
+      </c>
+      <c r="O49" s="1">
+        <v>843</v>
+      </c>
+      <c r="P49" s="1">
+        <v>939</v>
+      </c>
+      <c r="Q49">
+        <f>AF49-P49-O49-N49</f>
+        <v>675</v>
+      </c>
+      <c r="R49" s="1">
+        <v>736</v>
+      </c>
+      <c r="S49" s="1">
+        <v>873</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AC49" s="1">
+        <v>1971</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>3620</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>5933</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>3507</v>
+      </c>
+      <c r="AG49" s="13">
+        <f t="shared" si="56"/>
+        <v>1609</v>
+      </c>
+      <c r="AH49" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J49">
-        <f>J48+J47+J46+J45+J44+J43</f>
+      <c r="J50" s="2">
+        <f>J49+J48+J47+J46+J45+J44</f>
         <v>9751</v>
       </c>
-      <c r="K49">
-        <f>K48+K47+K46+K45+K44+K43</f>
+      <c r="K50" s="2">
+        <f>K49+K48+K47+K46+K45+K44</f>
         <v>11073</v>
       </c>
-      <c r="L49">
-        <f>L48+L47+L46+L45+L44+L43</f>
+      <c r="L50" s="2">
+        <f>L49+L48+L47+L46+L45+L44</f>
         <v>10833</v>
       </c>
-      <c r="M49">
-        <f>M48+M47+M46+M45+M44+M43</f>
+      <c r="M50" s="2">
+        <f>M49+M48+M47+M46+M45+M44</f>
         <v>11391</v>
       </c>
-      <c r="N49">
-        <f>N48+N47+N46+N45+N44+N43</f>
+      <c r="N50" s="2">
+        <f>N49+N48+N47+N46+N45+N44</f>
         <v>8071</v>
       </c>
-      <c r="O49">
-        <f>O48+O47+O46+O45+O44+O43</f>
+      <c r="O50" s="2">
+        <f>O49+O48+O47+O46+O45+O44</f>
         <v>6125</v>
       </c>
-      <c r="P49">
-        <f t="shared" ref="P49:R49" si="32">P48+P47+P46+P45+P44+P43</f>
+      <c r="P50" s="2">
+        <f>P49+P48+P47+P46+P45+P44</f>
         <v>6240</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="32"/>
+      <c r="Q50" s="2">
+        <f>Q49+Q48+Q47+Q46+Q45+Q44</f>
         <v>6880</v>
       </c>
-      <c r="R49">
-        <f t="shared" si="32"/>
+      <c r="R50" s="2">
+        <f>R49+R48+R47+R46+R45+R44</f>
         <v>5583</v>
       </c>
-      <c r="S49">
-        <f>S48+S47+S46+S45+S44+S43</f>
+      <c r="S50" s="2">
+        <f>S49+S48+S47+S46+S45+S44</f>
         <v>5293</v>
       </c>
-      <c r="AC49">
-        <f>AC48+AC47+AC46+AC45+AC44+AC43</f>
+      <c r="AC50" s="2">
+        <f>AC49+AC48+AC47+AC46+AC45+AC44</f>
         <v>13232</v>
       </c>
-      <c r="AD49">
-        <f t="shared" ref="AD49:AF49" si="33">AD48+AD47+AD46+AD45+AD44+AD43</f>
+      <c r="AD50" s="2">
+        <f>AD49+AD48+AD47+AD46+AD45+AD44</f>
         <v>32678</v>
       </c>
-      <c r="AE49">
-        <f t="shared" si="33"/>
+      <c r="AE50" s="2">
+        <f>AE49+AE48+AE47+AE46+AE45+AE44</f>
         <v>43048</v>
       </c>
-      <c r="AF49">
-        <f t="shared" si="33"/>
+      <c r="AF50" s="2">
+        <f>AF49+AF48+AF47+AF46+AF45+AF44</f>
         <v>27316</v>
       </c>
-    </row>
-    <row r="50" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="AG50" s="2">
+        <f>AG49+AG48+AG47+AG46+AG45+AG44</f>
+        <v>10876</v>
+      </c>
+      <c r="AH50" s="2">
+        <f>AH49+AH48+AH47+AH46+AH45+AH44</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2">
+        <f>AI49+AI48+AI47+AI46+AI45+AI44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="2">
+        <f>AJ49+AJ48+AJ47+AJ46+AJ45+AJ44</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2">
+        <f>AK49+AK48+AK47+AK46+AK45+AK44</f>
+        <v>0</v>
+      </c>
+      <c r="AL50" s="2">
+        <f>AL49+AL48+AL47+AL46+AL45+AL44</f>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="2">
+        <f>AM49+AM48+AM47+AM46+AM45+AM44</f>
+        <v>0</v>
+      </c>
+      <c r="AN50" s="2">
+        <f>AN49+AN48+AN47+AN46+AN45+AN44</f>
+        <v>0</v>
+      </c>
+      <c r="AO50" s="2">
+        <f>AO49+AO48+AO47+AO46+AO45+AO44</f>
+        <v>0</v>
+      </c>
+      <c r="AP50" s="2">
+        <f>AP49+AP48+AP47+AP46+AP45+AP44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="2">
+        <f>AQ49+AQ48+AQ47+AQ46+AQ45+AQ44</f>
+        <v>0</v>
+      </c>
+      <c r="AR50" s="2">
+        <f>AR49+AR48+AR47+AR46+AR45+AR44</f>
+        <v>0</v>
+      </c>
+      <c r="AS50" s="2">
+        <f>AS49+AS48+AS47+AS46+AS45+AS44</f>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="2">
+        <f>AT49+AT48+AT47+AT46+AT45+AT44</f>
+        <v>0</v>
+      </c>
+      <c r="AU50" s="2">
+        <f>AU49+AU48+AU47+AU46+AU45+AU44</f>
+        <v>0</v>
+      </c>
+      <c r="AV50" s="2">
+        <f>AV49+AV48+AV47+AV46+AV45+AV44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="3">
-        <f>J41+J49</f>
+      <c r="J52" s="3">
+        <f>J42+J50</f>
         <v>24199</v>
       </c>
-      <c r="K50" s="3">
-        <f t="shared" ref="K50:S50" si="34">K41+K49</f>
+      <c r="K52" s="3">
+        <f>K42+K50</f>
         <v>25875</v>
       </c>
-      <c r="L50" s="3">
-        <f t="shared" si="34"/>
+      <c r="L52" s="3">
+        <f>L42+L50</f>
         <v>28430</v>
       </c>
-      <c r="M50" s="3">
-        <f t="shared" si="34"/>
+      <c r="M52" s="3">
+        <f>M42+M50</f>
         <v>27114</v>
       </c>
-      <c r="N50" s="3">
-        <f t="shared" si="34"/>
+      <c r="N52" s="3">
+        <f>N42+N50</f>
         <v>23101</v>
       </c>
-      <c r="O50" s="3">
-        <f t="shared" si="34"/>
+      <c r="O52" s="3">
+        <f>O42+O50</f>
         <v>21521</v>
       </c>
-      <c r="P50" s="3">
-        <f t="shared" si="34"/>
+      <c r="P52" s="3">
+        <f>P42+P50</f>
         <v>19356</v>
       </c>
-      <c r="Q50" s="3">
-        <f t="shared" si="34"/>
+      <c r="Q52" s="3">
+        <f>Q42+Q50</f>
         <v>18972</v>
       </c>
-      <c r="R50" s="3">
-        <f t="shared" si="34"/>
+      <c r="R52" s="3">
+        <f>R42+R50</f>
         <v>21518</v>
       </c>
-      <c r="S50" s="3">
-        <f t="shared" si="34"/>
+      <c r="S52" s="3">
+        <f>S42+S50</f>
         <v>17176</v>
       </c>
-      <c r="AC50" s="3">
-        <f t="shared" ref="AC50" si="35">AC41+AC49</f>
+      <c r="AC52" s="3">
+        <f>AC42+AC50</f>
         <v>45582</v>
       </c>
-      <c r="AD50" s="3">
-        <f t="shared" ref="AD50" si="36">AD41+AD49</f>
+      <c r="AD52" s="3">
+        <f>AD42+AD50</f>
         <v>94466</v>
       </c>
-      <c r="AE50" s="3">
-        <f t="shared" ref="AE50" si="37">AE41+AE49</f>
+      <c r="AE52" s="3">
+        <f>AE42+AE50</f>
         <v>105618</v>
       </c>
-      <c r="AF50" s="3">
-        <f t="shared" ref="AF50" si="38">AF41+AF49</f>
+      <c r="AF52" s="3">
+        <f>AF42+AF50</f>
         <v>82950</v>
       </c>
-      <c r="AG50" s="3">
-        <f t="shared" ref="AG50" si="39">AG41+AG49</f>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="3">
-        <f t="shared" ref="AH50" si="40">AH41+AH49</f>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="3">
-        <f t="shared" ref="AI50" si="41">AI41+AI49</f>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="3">
-        <f t="shared" ref="AJ50" si="42">AJ41+AJ49</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="3">
-        <f t="shared" ref="AK50" si="43">AK41+AK49</f>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="3">
-        <f t="shared" ref="AL50" si="44">AL41+AL49</f>
-        <v>0</v>
-      </c>
-      <c r="AM50" s="3">
-        <f t="shared" ref="AM50" si="45">AM41+AM49</f>
-        <v>0</v>
-      </c>
-      <c r="AN50" s="3">
-        <f t="shared" ref="AN50" si="46">AN41+AN49</f>
-        <v>0</v>
-      </c>
-      <c r="AO50" s="3">
-        <f t="shared" ref="AO50" si="47">AO41+AO49</f>
-        <v>0</v>
-      </c>
-      <c r="AP50" s="3">
-        <f t="shared" ref="AP50" si="48">AP41+AP49</f>
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="3">
-        <f t="shared" ref="AQ50" si="49">AQ41+AQ49</f>
-        <v>0</v>
-      </c>
-      <c r="AR50" s="3">
-        <f t="shared" ref="AR50" si="50">AR41+AR49</f>
-        <v>0</v>
-      </c>
-      <c r="AS50" s="3">
-        <f t="shared" ref="AS50" si="51">AS41+AS49</f>
-        <v>0</v>
-      </c>
-      <c r="AT50" s="3">
-        <f t="shared" ref="AT50" si="52">AT41+AT49</f>
-        <v>0</v>
-      </c>
-      <c r="AU50" s="3">
-        <f t="shared" ref="AU50" si="53">AU41+AU49</f>
-        <v>0</v>
-      </c>
-      <c r="AV50" s="3">
-        <f t="shared" ref="AV50" si="54">AV41+AV49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="AG52" s="3">
+        <f>AG42+AG50</f>
+        <v>38694</v>
+      </c>
+      <c r="AH52" s="3">
+        <f>AH42+AH50</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="3">
+        <f>AI42+AI50</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="3">
+        <f>AJ42+AJ50</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3">
+        <f>AK42+AK50</f>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="3">
+        <f>AL42+AL50</f>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="3">
+        <f>AM42+AM50</f>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="3">
+        <f>AN42+AN50</f>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="3">
+        <f>AO42+AO50</f>
+        <v>0</v>
+      </c>
+      <c r="AP52" s="3">
+        <f>AP42+AP50</f>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="3">
+        <f>AQ42+AQ50</f>
+        <v>0</v>
+      </c>
+      <c r="AR52" s="3">
+        <f>AR42+AR50</f>
+        <v>0</v>
+      </c>
+      <c r="AS52" s="3">
+        <f>AS42+AS50</f>
+        <v>0</v>
+      </c>
+      <c r="AT52" s="3">
+        <f>AT42+AT50</f>
+        <v>0</v>
+      </c>
+      <c r="AU52" s="3">
+        <f>AU42+AU50</f>
+        <v>0</v>
+      </c>
+      <c r="AV52" s="3">
+        <f>AV42+AV50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J52">
-        <f>J33-J50</f>
+      <c r="J54">
+        <f>J33-J52</f>
         <v>-24199</v>
       </c>
-      <c r="K52">
-        <f>K33-K50</f>
+      <c r="K54">
+        <f>K33-K52</f>
         <v>-25875</v>
       </c>
-      <c r="L52">
-        <f>L33-L50</f>
+      <c r="L54">
+        <f>L33-L52</f>
         <v>-28430</v>
       </c>
-      <c r="M52">
-        <f>M33-M50</f>
+      <c r="M54">
+        <f>M33-M52</f>
         <v>-27114</v>
       </c>
-      <c r="N52">
-        <f>N33-N50</f>
+      <c r="N54">
+        <f>N33-N52</f>
         <v>-23101</v>
       </c>
-      <c r="O52">
-        <f>O33-O50</f>
+      <c r="O54">
+        <f>O33-O52</f>
         <v>-21521</v>
       </c>
-      <c r="P52">
-        <f>P33-P50</f>
+      <c r="P54">
+        <f>P33-P52</f>
         <v>-19356</v>
       </c>
-      <c r="Q52">
-        <f>Q33-Q50</f>
+      <c r="Q54">
+        <f>Q33-Q52</f>
         <v>-18972</v>
       </c>
-      <c r="R52">
-        <f>R33-R50</f>
+      <c r="R54">
+        <f>R33-R52</f>
         <v>-10858</v>
       </c>
-      <c r="S52">
-        <f>S33-S50</f>
+      <c r="S54">
+        <f>S33-S52</f>
         <v>-17176</v>
       </c>
-      <c r="AC52">
-        <f t="shared" ref="AC52:AF52" si="55">AC33-AC50</f>
+      <c r="AC54">
+        <f>AC33-AC52</f>
         <v>-45582</v>
       </c>
-      <c r="AD52">
-        <f t="shared" si="55"/>
+      <c r="AD54">
+        <f>AD33-AD52</f>
         <v>-94466</v>
       </c>
-      <c r="AE52">
-        <f t="shared" si="55"/>
+      <c r="AE54">
+        <f>AE33-AE52</f>
         <v>-105618</v>
       </c>
-      <c r="AF52">
-        <f t="shared" si="55"/>
+      <c r="AF54">
+        <f>AF33-AF52</f>
         <v>-82950</v>
       </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="1">
-        <v>76</v>
-      </c>
-      <c r="K54" s="1">
-        <v>169</v>
-      </c>
-      <c r="L54" s="1">
-        <v>76</v>
-      </c>
-      <c r="M54">
-        <f t="shared" ref="M54:M56" si="56">AE54-L54-K54-J54</f>
-        <v>234</v>
-      </c>
-      <c r="N54" s="1">
-        <v>76</v>
-      </c>
-      <c r="O54" s="1">
-        <v>111</v>
-      </c>
-      <c r="P54" s="1">
-        <v>227</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" ref="Q54:Q56" si="57">AF54-P54-O54-N54</f>
-        <v>271</v>
-      </c>
-      <c r="R54" s="1">
-        <v>221</v>
-      </c>
-      <c r="S54" s="1">
-        <v>408</v>
-      </c>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AC54" s="1">
-        <v>93</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>559</v>
-      </c>
-      <c r="AE54" s="1">
-        <v>555</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="O55" s="1">
-        <v>-4357</v>
-      </c>
-      <c r="P55" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="57"/>
-        <v>4255</v>
-      </c>
-      <c r="R55" s="1">
-        <v>469</v>
-      </c>
-      <c r="S55" s="1">
-        <v>-12804</v>
-      </c>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AF55" s="1">
-        <v>-66</v>
+      <c r="AG54" s="13">
+        <f>AG33-AG52</f>
+        <v>-27122.75</v>
+      </c>
+      <c r="AH54" s="13">
+        <f>AH33-AH52</f>
+        <v>20958.75</v>
+      </c>
+      <c r="AI54">
+        <f>AI33-AI52</f>
+        <v>50058</v>
+      </c>
+      <c r="AJ54">
+        <f>AJ33-AJ52</f>
+        <v>77339.610000000015</v>
+      </c>
+      <c r="AK54">
+        <f>AK33-AK52</f>
+        <v>88510.887000000017</v>
+      </c>
+      <c r="AL54">
+        <f>AL33-AL52</f>
+        <v>91166.213610000021</v>
+      </c>
+      <c r="AM54">
+        <f>AM33-AM52</f>
+        <v>93901.20001830002</v>
+      </c>
+      <c r="AN54">
+        <f>AN33-AN52</f>
+        <v>96718.236018849027</v>
+      </c>
+      <c r="AO54">
+        <f>AO33-AO52</f>
+        <v>99619.783099414504</v>
+      </c>
+      <c r="AP54">
+        <f>AP33-AP52</f>
+        <v>102608.37659239695</v>
+      </c>
+      <c r="AQ54">
+        <f>AQ33-AQ52</f>
+        <v>105686.62789016885</v>
+      </c>
+      <c r="AR54">
+        <f>AR33-AR52</f>
+        <v>108857.22672687391</v>
+      </c>
+      <c r="AS54">
+        <f>AS33-AS52</f>
+        <v>112122.94352868013</v>
+      </c>
+      <c r="AT54">
+        <f>AT33-AT52</f>
+        <v>115486.63183454053</v>
+      </c>
+      <c r="AU54">
+        <f>AU33-AU52</f>
+        <v>118951.23078957677</v>
+      </c>
+      <c r="AV54">
+        <f>AV33-AV52</f>
+        <v>122519.76771326408</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" s="1">
-        <v>-56</v>
+        <v>76</v>
       </c>
       <c r="K56" s="1">
-        <v>-122</v>
+        <v>169</v>
       </c>
       <c r="L56" s="1">
-        <v>-64</v>
+        <v>76</v>
       </c>
       <c r="M56">
-        <f t="shared" si="56"/>
-        <v>-279</v>
+        <f t="shared" ref="M56:M58" si="58">AE56-L56-K56-J56</f>
+        <v>234</v>
       </c>
       <c r="N56" s="1">
-        <v>-96</v>
+        <v>76</v>
       </c>
       <c r="O56" s="1">
-        <v>-90</v>
+        <v>111</v>
       </c>
       <c r="P56" s="1">
-        <v>-8</v>
+        <v>227</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="57"/>
-        <v>17</v>
+        <f t="shared" ref="Q56:Q58" si="59">AF56-P56-O56-N56</f>
+        <v>271</v>
       </c>
       <c r="R56" s="1">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="S56" s="1">
-        <v>-5</v>
+        <v>408</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -3026,324 +3396,431 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AC56" s="1">
-        <v>-24</v>
+        <v>93</v>
       </c>
       <c r="AD56" s="1">
-        <v>-54</v>
+        <v>559</v>
       </c>
       <c r="AE56" s="1">
-        <v>-521</v>
+        <v>555</v>
       </c>
       <c r="AF56" s="1">
-        <v>-177</v>
+        <v>685</v>
+      </c>
+      <c r="AG56" s="13">
+        <f t="shared" ref="AG56" si="60">SUM(R56:U56)</f>
+        <v>629</v>
+      </c>
+      <c r="AH56" s="13">
+        <f t="shared" ref="AH56" si="61">SUM(V56:Y56)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-4357</v>
+      </c>
+      <c r="P57" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="59"/>
+        <v>4255</v>
+      </c>
+      <c r="R57" s="1">
+        <v>469</v>
+      </c>
+      <c r="S57" s="1">
+        <v>-12804</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AF57" s="1">
+        <v>-66</v>
+      </c>
+      <c r="AG57" s="13">
+        <f t="shared" ref="AG57:AG58" si="62">SUM(R57:U57)</f>
+        <v>-12335</v>
+      </c>
+      <c r="AH57" s="13">
+        <f t="shared" ref="AH57:AH58" si="63">SUM(V57:Y57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-56</v>
+      </c>
+      <c r="K58" s="1">
+        <v>-122</v>
+      </c>
+      <c r="L58" s="1">
+        <v>-64</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="58"/>
+        <v>-279</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-96</v>
+      </c>
+      <c r="O58" s="1">
+        <v>-90</v>
+      </c>
+      <c r="P58" s="1">
+        <v>-8</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="59"/>
+        <v>17</v>
+      </c>
+      <c r="R58" s="1">
+        <v>31</v>
+      </c>
+      <c r="S58" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AC58" s="1">
+        <v>-24</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>-54</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>-521</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>-177</v>
+      </c>
+      <c r="AG58" s="13">
+        <f t="shared" si="62"/>
+        <v>26</v>
+      </c>
+      <c r="AH58" s="13">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="J57">
-        <f>J54+J55+J56</f>
+      <c r="J59">
+        <f>J56+J57+J58</f>
         <v>20</v>
       </c>
-      <c r="K57">
-        <f t="shared" ref="K57:S57" si="58">K54+K55+K56</f>
+      <c r="K59">
+        <f t="shared" ref="K59:S59" si="64">K56+K57+K58</f>
         <v>47</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="58"/>
+      <c r="L59">
+        <f t="shared" si="64"/>
         <v>12</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="58"/>
+      <c r="M59">
+        <f t="shared" si="64"/>
         <v>-45</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="58"/>
+      <c r="N59">
+        <f t="shared" si="64"/>
         <v>-20</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="58"/>
+      <c r="O59">
+        <f t="shared" si="64"/>
         <v>-4336</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="58"/>
+      <c r="P59">
+        <f t="shared" si="64"/>
         <v>255</v>
       </c>
-      <c r="Q57">
-        <f t="shared" si="58"/>
+      <c r="Q59">
+        <f t="shared" si="64"/>
         <v>4543</v>
       </c>
-      <c r="R57">
-        <f t="shared" si="58"/>
+      <c r="R59">
+        <f t="shared" si="64"/>
         <v>721</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="58"/>
+      <c r="S59">
+        <f t="shared" si="64"/>
         <v>-12401</v>
       </c>
-      <c r="AC57" s="2">
-        <f>AC56+AC55+AC54</f>
+      <c r="AC59" s="2">
+        <f>AC58+AC57+AC56</f>
         <v>69</v>
       </c>
-      <c r="AD57" s="2">
-        <f t="shared" ref="AD57:AF57" si="59">AD56+AD55+AD54</f>
+      <c r="AD59" s="2">
+        <f t="shared" ref="AD59:AH59" si="65">AD58+AD57+AD56</f>
         <v>505</v>
       </c>
-      <c r="AE57" s="2">
-        <f t="shared" si="59"/>
+      <c r="AE59" s="2">
+        <f t="shared" si="65"/>
         <v>34</v>
       </c>
-      <c r="AF57" s="2">
-        <f t="shared" si="59"/>
+      <c r="AF59" s="2">
+        <f t="shared" si="65"/>
         <v>442</v>
       </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59">
-        <f>J52+J57</f>
-        <v>-24179</v>
-      </c>
-      <c r="K59">
-        <f t="shared" ref="K59:S59" si="60">K52+K57</f>
-        <v>-25828</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="60"/>
-        <v>-28418</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="60"/>
-        <v>-27159</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="60"/>
-        <v>-23121</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="60"/>
-        <v>-25857</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="60"/>
-        <v>-19101</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="60"/>
-        <v>-14429</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="60"/>
-        <v>-10137</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="60"/>
-        <v>-29577</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" ref="AC59:AF59" si="61">AC52+AC57</f>
-        <v>-45513</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="61"/>
-        <v>-93961</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="61"/>
-        <v>-105584</v>
-      </c>
-      <c r="AF59">
-        <f t="shared" si="61"/>
-        <v>-82508</v>
+      <c r="AG59" s="2">
+        <f t="shared" si="65"/>
+        <v>-11680</v>
+      </c>
+      <c r="AH59" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="2">
+        <f t="shared" ref="AI59" si="66">AI58+AI57+AI56</f>
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="2">
+        <f t="shared" ref="AJ59" si="67">AJ58+AJ57+AJ56</f>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="2">
+        <f t="shared" ref="AK59" si="68">AK58+AK57+AK56</f>
+        <v>0</v>
+      </c>
+      <c r="AL59" s="2">
+        <f t="shared" ref="AL59" si="69">AL58+AL57+AL56</f>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="2">
+        <f t="shared" ref="AM59" si="70">AM58+AM57+AM56</f>
+        <v>0</v>
+      </c>
+      <c r="AN59" s="2">
+        <f t="shared" ref="AN59" si="71">AN58+AN57+AN56</f>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="2">
+        <f t="shared" ref="AO59" si="72">AO58+AO57+AO56</f>
+        <v>0</v>
+      </c>
+      <c r="AP59" s="2">
+        <f t="shared" ref="AP59" si="73">AP58+AP57+AP56</f>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="2">
+        <f t="shared" ref="AQ59" si="74">AQ58+AQ57+AQ56</f>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="2">
+        <f t="shared" ref="AR59" si="75">AR58+AR57+AR56</f>
+        <v>0</v>
+      </c>
+      <c r="AS59" s="2">
+        <f t="shared" ref="AS59" si="76">AS58+AS57+AS56</f>
+        <v>0</v>
+      </c>
+      <c r="AT59" s="2">
+        <f t="shared" ref="AT59" si="77">AT58+AT57+AT56</f>
+        <v>0</v>
+      </c>
+      <c r="AU59" s="2">
+        <f t="shared" ref="AU59" si="78">AU58+AU57+AU56</f>
+        <v>0</v>
+      </c>
+      <c r="AV59" s="2">
+        <f t="shared" ref="AV59" si="79">AV58+AV57+AV56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61">
+        <f>J54+J59</f>
+        <v>-24179</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61:S61" si="80">K54+K59</f>
+        <v>-25828</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="80"/>
+        <v>-28418</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="80"/>
+        <v>-27159</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="80"/>
+        <v>-23121</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="80"/>
+        <v>-25857</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="80"/>
+        <v>-19101</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="80"/>
+        <v>-14429</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="80"/>
+        <v>-10137</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="80"/>
+        <v>-29577</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" ref="AC61:AV61" si="81">AC54+AC59</f>
+        <v>-45513</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="81"/>
+        <v>-93961</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="81"/>
+        <v>-105584</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="81"/>
+        <v>-82508</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="81"/>
+        <v>-38802.75</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="81"/>
+        <v>20958.75</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="81"/>
+        <v>50058</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" si="81"/>
+        <v>77339.610000000015</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="81"/>
+        <v>88510.887000000017</v>
+      </c>
+      <c r="AL61">
+        <f t="shared" si="81"/>
+        <v>91166.213610000021</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" si="81"/>
+        <v>93901.20001830002</v>
+      </c>
+      <c r="AN61">
+        <f t="shared" si="81"/>
+        <v>96718.236018849027</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" si="81"/>
+        <v>99619.783099414504</v>
+      </c>
+      <c r="AP61">
+        <f t="shared" si="81"/>
+        <v>102608.37659239695</v>
+      </c>
+      <c r="AQ61">
+        <f t="shared" si="81"/>
+        <v>105686.62789016885</v>
+      </c>
+      <c r="AR61">
+        <f t="shared" si="81"/>
+        <v>108857.22672687391</v>
+      </c>
+      <c r="AS61">
+        <f t="shared" si="81"/>
+        <v>112122.94352868013</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="81"/>
+        <v>115486.63183454053</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" si="81"/>
+        <v>118951.23078957677</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="81"/>
+        <v>122519.76771326408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="1">
-        <v>-24179</v>
-      </c>
-      <c r="K63" s="1">
-        <v>-25828</v>
-      </c>
-      <c r="L63" s="1">
-        <v>-28418</v>
-      </c>
-      <c r="M63">
-        <f t="shared" ref="M63" si="62">AE63-L63-K63-J63</f>
-        <v>-27159</v>
-      </c>
-      <c r="N63" s="1">
-        <v>-23121</v>
-      </c>
-      <c r="O63" s="1">
-        <v>-25857</v>
-      </c>
-      <c r="P63" s="1">
-        <v>-19101</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" ref="Q63" si="63">AF63-P63-O63-N63</f>
-        <v>-14429</v>
-      </c>
-      <c r="R63" s="1">
-        <v>-10137</v>
-      </c>
-      <c r="S63" s="1">
-        <v>-29577</v>
-      </c>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AC63">
-        <v>-45513</v>
-      </c>
-      <c r="AD63">
-        <v>-93961</v>
-      </c>
-      <c r="AE63">
-        <v>-105584</v>
-      </c>
-      <c r="AF63">
-        <v>-82508</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="1">
-        <f>J59-J61</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="1">
         <v>-24179</v>
       </c>
-      <c r="K64" s="1">
-        <f t="shared" ref="K64:S64" si="64">K59-K61</f>
+      <c r="K65" s="1">
         <v>-25828</v>
       </c>
-      <c r="L64" s="1">
-        <f t="shared" si="64"/>
+      <c r="L65" s="1">
         <v>-28418</v>
       </c>
-      <c r="M64" s="1">
-        <f t="shared" si="64"/>
+      <c r="M65">
+        <f t="shared" ref="M65" si="82">AE65-L65-K65-J65</f>
         <v>-27159</v>
       </c>
-      <c r="N64" s="1">
-        <f t="shared" si="64"/>
+      <c r="N65" s="1">
         <v>-23121</v>
       </c>
-      <c r="O64" s="1">
-        <f t="shared" si="64"/>
+      <c r="O65" s="1">
         <v>-25857</v>
       </c>
-      <c r="P64" s="1">
-        <f t="shared" si="64"/>
+      <c r="P65" s="1">
         <v>-19101</v>
       </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="64"/>
+      <c r="Q65">
+        <f t="shared" ref="Q65" si="83">AF65-P65-O65-N65</f>
         <v>-14429</v>
       </c>
-      <c r="R64" s="1">
-        <f t="shared" si="64"/>
+      <c r="R65" s="1">
         <v>-10137</v>
       </c>
-      <c r="S64" s="1">
-        <f t="shared" si="64"/>
+      <c r="S65" s="1">
         <v>-29577</v>
-      </c>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AC64" s="1">
-        <f t="shared" ref="AC64:AF64" si="65">AC59-AC61</f>
-        <v>-45513</v>
-      </c>
-      <c r="AD64" s="1">
-        <f t="shared" si="65"/>
-        <v>-93961</v>
-      </c>
-      <c r="AE64" s="1">
-        <f t="shared" si="65"/>
-        <v>-105584</v>
-      </c>
-      <c r="AF64" s="1">
-        <f t="shared" si="65"/>
-        <v>-82508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="1">
-        <f>J64-J63</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" ref="K65:S65" si="66">K64-K63</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <f t="shared" si="66"/>
-        <v>0</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -3351,80 +3828,133 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AC65" s="1">
-        <f t="shared" ref="AC65" si="67">AC64-AC63</f>
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <f t="shared" ref="AD65" si="68">AD64-AD63</f>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <f t="shared" ref="AE65" si="69">AE64-AE63</f>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="1">
-        <f t="shared" ref="AF65" si="70">AF64-AF63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+      <c r="AC65">
+        <v>-45513</v>
+      </c>
+      <c r="AD65">
+        <v>-93961</v>
+      </c>
+      <c r="AE65">
+        <v>-105584</v>
+      </c>
+      <c r="AF65">
+        <v>-82508</v>
+      </c>
+      <c r="AH65" s="12">
+        <f>NPV(0.1,AH61:AV61)</f>
+        <v>636949.67092062777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="1">
+        <f>J61-J63</f>
+        <v>-24179</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" ref="K66:S66" si="84">K61-K63</f>
+        <v>-25828</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="84"/>
+        <v>-28418</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="84"/>
+        <v>-27159</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="84"/>
+        <v>-23121</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="84"/>
+        <v>-25857</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="84"/>
+        <v>-19101</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="84"/>
+        <v>-14429</v>
+      </c>
+      <c r="R66" s="1">
+        <f t="shared" si="84"/>
+        <v>-10137</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="84"/>
+        <v>-29577</v>
+      </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AC66" s="1">
+        <f t="shared" ref="AC66:AF66" si="85">AC61-AC63</f>
+        <v>-45513</v>
+      </c>
+      <c r="AD66" s="1">
+        <f t="shared" si="85"/>
+        <v>-93961</v>
+      </c>
+      <c r="AE66" s="1">
+        <f t="shared" si="85"/>
+        <v>-105584</v>
+      </c>
+      <c r="AF66" s="1">
+        <f t="shared" si="85"/>
+        <v>-82508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1">
-        <v>24135735</v>
+        <f>J66-J65</f>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>26082525</v>
+        <f t="shared" ref="K67:S67" si="86">K66-K65</f>
+        <v>0</v>
       </c>
       <c r="L67" s="1">
-        <v>26177079</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f>AE67*4-L67-K67-J67</f>
-        <v>25997385</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="N67" s="1">
-        <v>26215514</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>26901069</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="P67" s="1">
-        <v>48000183</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <f>AF67*4-P67-O67-N67</f>
-        <v>50184958</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>56357983</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>79041695</v>
+        <f t="shared" si="86"/>
+        <v>0</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -3432,20 +3962,101 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AE67">
+      <c r="AC67" s="1">
+        <f t="shared" ref="AC67" si="87">AC66-AC65</f>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <f t="shared" ref="AD67" si="88">AD66-AD65</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <f t="shared" ref="AE67" si="89">AE66-AE65</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <f t="shared" ref="AF67" si="90">AF66-AF65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="1">
+        <v>24135735</v>
+      </c>
+      <c r="K69" s="1">
+        <v>26082525</v>
+      </c>
+      <c r="L69" s="1">
+        <v>26177079</v>
+      </c>
+      <c r="M69" s="1">
+        <f>AE69*4-L69-K69-J69</f>
+        <v>25997385</v>
+      </c>
+      <c r="N69" s="1">
+        <v>26215514</v>
+      </c>
+      <c r="O69" s="1">
+        <v>26901069</v>
+      </c>
+      <c r="P69" s="1">
+        <v>48000183</v>
+      </c>
+      <c r="Q69" s="1">
+        <f>AF69*4-P69-O69-N69</f>
+        <v>50184958</v>
+      </c>
+      <c r="R69" s="1">
+        <v>56357983</v>
+      </c>
+      <c r="S69" s="1">
+        <v>79041695</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AE69">
         <v>25598181</v>
       </c>
-      <c r="AF67">
+      <c r="AF69">
         <v>37825431</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>59</v>
       </c>
     </row>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D85FBC8-A163-9E4B-951F-B0EAB08D58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C686AE0-8C26-4E4C-A6E3-27EDE642121F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t xml:space="preserve">Gross Margin </t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses &amp; Other Current Assets</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99A2B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,21 +514,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,320 +854,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
-  <dimension ref="B5:D46"/>
+  <dimension ref="B5:D45"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="23.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="14">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <f>2037-2023</f>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>3000</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="16">
         <v>2000</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="16">
         <v>5000</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="D23" s="16"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="16">
+        <f>D33*D32</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="16">
+        <f>D35*D34</f>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="D37" s="14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D33">
+      <c r="D40" s="12">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D41" s="16">
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C42" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="5">
-        <f>D34*D33</f>
+      <c r="D42" s="16">
+        <f>D41*D40</f>
         <v>15000000</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="5">
-        <f>D36*D35</f>
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="D44" s="16">
+        <f>D43*D42</f>
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="5">
-        <f>D42*D41</f>
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="5">
-        <f>D44*D43</f>
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="D45" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1155,13 +1170,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1:AV73"/>
+  <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AE47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="AD32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH66" sqref="AH66"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1352,7 @@
         <v>119</v>
       </c>
       <c r="U8" s="5">
-        <f>Main!D37*3/1000</f>
+        <f>Main!D36*3/1000</f>
         <v>22500</v>
       </c>
       <c r="V8" s="5">
@@ -1357,63 +1372,63 @@
         <v>22500</v>
       </c>
       <c r="AH8" s="5">
-        <f>Main!D37*12/1000</f>
+        <f>Main!D36*12/1000</f>
         <v>90000</v>
       </c>
       <c r="AI8" s="5">
-        <f>AH8*(1+Main!$D$38)</f>
+        <f>AH8*(1+Main!$D$37)</f>
         <v>92700</v>
       </c>
       <c r="AJ8" s="5">
-        <f>AI8*(1+Main!$D$38)</f>
+        <f>AI8*(1+Main!$D$37)</f>
         <v>95481</v>
       </c>
       <c r="AK8" s="5">
-        <f>AJ8*(1+Main!$D$38)</f>
+        <f>AJ8*(1+Main!$D$37)</f>
         <v>98345.430000000008</v>
       </c>
       <c r="AL8" s="5">
-        <f>AK8*(1+Main!$D$38)</f>
+        <f>AK8*(1+Main!$D$37)</f>
         <v>101295.79290000001</v>
       </c>
       <c r="AM8" s="5">
-        <f>AL8*(1+Main!$D$38)</f>
+        <f>AL8*(1+Main!$D$37)</f>
         <v>104334.66668700002</v>
       </c>
       <c r="AN8" s="5">
-        <f>AM8*(1+Main!$D$38)</f>
+        <f>AM8*(1+Main!$D$37)</f>
         <v>107464.70668761003</v>
       </c>
       <c r="AO8" s="5">
-        <f>AN8*(1+Main!$D$38)</f>
+        <f>AN8*(1+Main!$D$37)</f>
         <v>110688.64788823834</v>
       </c>
       <c r="AP8" s="5">
-        <f>AO8*(1+Main!$D$38)</f>
+        <f>AO8*(1+Main!$D$37)</f>
         <v>114009.30732488549</v>
       </c>
       <c r="AQ8" s="5">
-        <f>AP8*(1+Main!$D$38)</f>
+        <f>AP8*(1+Main!$D$37)</f>
         <v>117429.58654463205</v>
       </c>
       <c r="AR8" s="5">
-        <f>AQ8*(1+Main!$D$38)</f>
+        <f>AQ8*(1+Main!$D$37)</f>
         <v>120952.47414097101</v>
       </c>
       <c r="AS8" s="5">
-        <f>AR8*(1+Main!$D$38)</f>
+        <f>AR8*(1+Main!$D$37)</f>
         <v>124581.04836520014</v>
       </c>
       <c r="AT8" s="5">
-        <f>AS8*(1+Main!$D$38)</f>
+        <f>AS8*(1+Main!$D$37)</f>
         <v>128318.47981615615</v>
       </c>
       <c r="AU8" s="5">
-        <f>AT8*(1+Main!$D$38)</f>
+        <f>AT8*(1+Main!$D$37)</f>
         <v>132168.03421064085</v>
       </c>
       <c r="AV8" s="5">
-        <f>AU8*(1+Main!$D$38)</f>
+        <f>AU8*(1+Main!$D$37)</f>
         <v>136133.07523696008</v>
       </c>
     </row>
@@ -1421,7 +1436,7 @@
       <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="8">
         <v>0.05</v>
       </c>
       <c r="V9" s="4">
@@ -1437,15 +1452,15 @@
         <v>0.4</v>
       </c>
       <c r="AI9" s="4">
+        <f>Main!D27</f>
+        <v>0.6</v>
+      </c>
+      <c r="AJ9" s="4">
         <f>Main!D28</f>
-        <v>0.6</v>
-      </c>
-      <c r="AJ9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AK9" s="4">
         <f>Main!D29</f>
-        <v>0.9</v>
-      </c>
-      <c r="AK9" s="4">
-        <f>Main!D30</f>
         <v>1</v>
       </c>
       <c r="AL9" s="4">
@@ -1711,23 +1726,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="10">
         <f>U28+U13</f>
         <v>1012.5</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="10">
         <f t="shared" ref="V29:Y29" si="4">V28+V13</f>
         <v>3037.5</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="10">
         <f t="shared" si="4"/>
         <v>5062.5</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="10">
         <f t="shared" si="4"/>
         <v>7087.4999999999991</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="10">
         <f t="shared" si="4"/>
         <v>8100</v>
       </c>
@@ -1747,67 +1762,67 @@
         <f t="shared" ref="AF29" si="8">AF28</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="13">
+      <c r="AG29" s="10">
         <f>SUM(R29:U29)</f>
         <v>11672.5</v>
       </c>
-      <c r="AH29" s="13">
+      <c r="AH29" s="10">
         <f>SUM(V29:Y29)</f>
         <v>23287.5</v>
       </c>
-      <c r="AI29" s="13">
+      <c r="AI29" s="10">
         <f>AI28+AI10</f>
         <v>55620</v>
       </c>
-      <c r="AJ29" s="13">
+      <c r="AJ29" s="10">
         <f t="shared" ref="AJ29:AV29" si="9">AJ28+AJ10</f>
         <v>85932.900000000009</v>
       </c>
-      <c r="AK29" s="13">
+      <c r="AK29" s="10">
         <f t="shared" si="9"/>
         <v>98345.430000000008</v>
       </c>
-      <c r="AL29" s="13">
+      <c r="AL29" s="10">
         <f t="shared" si="9"/>
         <v>101295.79290000001</v>
       </c>
-      <c r="AM29" s="13">
+      <c r="AM29" s="10">
         <f t="shared" si="9"/>
         <v>104334.66668700002</v>
       </c>
-      <c r="AN29" s="13">
+      <c r="AN29" s="10">
         <f t="shared" si="9"/>
         <v>107464.70668761003</v>
       </c>
-      <c r="AO29" s="13">
+      <c r="AO29" s="10">
         <f t="shared" si="9"/>
         <v>110688.64788823834</v>
       </c>
-      <c r="AP29" s="13">
+      <c r="AP29" s="10">
         <f t="shared" si="9"/>
         <v>114009.30732488549</v>
       </c>
-      <c r="AQ29" s="13">
+      <c r="AQ29" s="10">
         <f t="shared" si="9"/>
         <v>117429.58654463205</v>
       </c>
-      <c r="AR29" s="13">
+      <c r="AR29" s="10">
         <f t="shared" si="9"/>
         <v>120952.47414097101</v>
       </c>
-      <c r="AS29" s="13">
+      <c r="AS29" s="10">
         <f t="shared" si="9"/>
         <v>124581.04836520014</v>
       </c>
-      <c r="AT29" s="13">
+      <c r="AT29" s="10">
         <f t="shared" si="9"/>
         <v>128318.47981615615</v>
       </c>
-      <c r="AU29" s="13">
+      <c r="AU29" s="10">
         <f t="shared" si="9"/>
         <v>132168.03421064085</v>
       </c>
-      <c r="AV29" s="13">
+      <c r="AV29" s="10">
         <f t="shared" si="9"/>
         <v>136133.07523696008</v>
       </c>
@@ -1821,87 +1836,87 @@
         <v>123</v>
       </c>
       <c r="R31" s="1"/>
-      <c r="U31" s="13">
+      <c r="U31" s="10">
         <f>U29*(1-U32)</f>
         <v>101.24999999999997</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="10">
         <f t="shared" ref="V31:Y31" si="10">V29*(1-V32)</f>
         <v>303.74999999999994</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="10">
         <f t="shared" si="10"/>
         <v>506.24999999999989</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="10">
         <f t="shared" si="10"/>
         <v>708.74999999999977</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="10">
         <f t="shared" si="10"/>
         <v>809.99999999999977</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AG31" s="10">
         <f>SUM(R31:U31)</f>
         <v>101.24999999999997</v>
       </c>
-      <c r="AH31" s="13">
+      <c r="AH31" s="10">
         <f>SUM(V31:Y31)</f>
         <v>2328.7499999999991</v>
       </c>
-      <c r="AI31" s="13">
+      <c r="AI31" s="10">
         <f t="shared" ref="AI31" si="11">AI29*(1-AI32)</f>
         <v>5561.9999999999991</v>
       </c>
-      <c r="AJ31" s="13">
+      <c r="AJ31" s="10">
         <f t="shared" ref="AJ31" si="12">AJ29*(1-AJ32)</f>
         <v>8593.2899999999991</v>
       </c>
-      <c r="AK31" s="13">
+      <c r="AK31" s="10">
         <f t="shared" ref="AK31" si="13">AK29*(1-AK32)</f>
         <v>9834.5429999999978</v>
       </c>
-      <c r="AL31" s="13">
+      <c r="AL31" s="10">
         <f t="shared" ref="AL31" si="14">AL29*(1-AL32)</f>
         <v>10129.57929</v>
       </c>
-      <c r="AM31" s="13">
+      <c r="AM31" s="10">
         <f t="shared" ref="AM31" si="15">AM29*(1-AM32)</f>
         <v>10433.466668699999</v>
       </c>
-      <c r="AN31" s="13">
+      <c r="AN31" s="10">
         <f t="shared" ref="AN31" si="16">AN29*(1-AN32)</f>
         <v>10746.470668761</v>
       </c>
-      <c r="AO31" s="13">
+      <c r="AO31" s="10">
         <f t="shared" ref="AO31" si="17">AO29*(1-AO32)</f>
         <v>11068.864788823832</v>
       </c>
-      <c r="AP31" s="13">
+      <c r="AP31" s="10">
         <f t="shared" ref="AP31" si="18">AP29*(1-AP32)</f>
         <v>11400.930732488547</v>
       </c>
-      <c r="AQ31" s="13">
+      <c r="AQ31" s="10">
         <f t="shared" ref="AQ31" si="19">AQ29*(1-AQ32)</f>
         <v>11742.958654463202</v>
       </c>
-      <c r="AR31" s="13">
+      <c r="AR31" s="10">
         <f t="shared" ref="AR31" si="20">AR29*(1-AR32)</f>
         <v>12095.247414097099</v>
       </c>
-      <c r="AS31" s="13">
+      <c r="AS31" s="10">
         <f t="shared" ref="AS31" si="21">AS29*(1-AS32)</f>
         <v>12458.104836520011</v>
       </c>
-      <c r="AT31" s="13">
+      <c r="AT31" s="10">
         <f t="shared" ref="AT31" si="22">AT29*(1-AT32)</f>
         <v>12831.847981615612</v>
       </c>
-      <c r="AU31" s="13">
+      <c r="AU31" s="10">
         <f t="shared" ref="AU31" si="23">AU29*(1-AU32)</f>
         <v>13216.803421064082</v>
       </c>
-      <c r="AV31" s="13">
+      <c r="AV31" s="10">
         <f t="shared" ref="AV31" si="24">AV29*(1-AV32)</f>
         <v>13613.307523696005</v>
       </c>
@@ -1926,54 +1941,54 @@
       <c r="Y32" s="4">
         <v>0.9</v>
       </c>
-      <c r="AG32" s="11">
+      <c r="AG32" s="8">
         <f>AG33/AG29</f>
         <v>0.99132576568858433</v>
       </c>
-      <c r="AH32" s="11">
+      <c r="AH32" s="8">
         <f>AH33/AH29</f>
         <v>0.9</v>
       </c>
-      <c r="AI32" s="11">
+      <c r="AI32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AJ32" s="11">
+      <c r="AJ32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AK32" s="11">
+      <c r="AK32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AL32" s="11">
+      <c r="AL32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AM32" s="11">
+      <c r="AM32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AN32" s="11">
+      <c r="AN32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AO32" s="11">
+      <c r="AO32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AP32" s="11">
+      <c r="AP32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AQ32" s="11">
+      <c r="AQ32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AR32" s="11">
+      <c r="AR32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AS32" s="11">
+      <c r="AS32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AT32" s="11">
+      <c r="AT32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AU32" s="11">
+      <c r="AU32" s="8">
         <v>0.9</v>
       </c>
-      <c r="AV32" s="11">
+      <c r="AV32" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -2022,26 +2037,26 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="T33:Y33" si="25">T29-T31</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
+        <f t="shared" ref="T33:X33" si="25">T29-T31</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
         <f t="shared" si="25"/>
         <v>911.25</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="10">
         <f t="shared" si="25"/>
         <v>2733.75</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="10">
         <f t="shared" si="25"/>
         <v>4556.25</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="10">
         <f t="shared" si="25"/>
         <v>6378.7499999999991</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="10">
         <f>Y29-Y31</f>
         <v>7290</v>
       </c>
@@ -2061,67 +2076,67 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="13">
+      <c r="AG33" s="10">
         <f>AG29-AG31</f>
         <v>11571.25</v>
       </c>
-      <c r="AH33" s="13">
+      <c r="AH33" s="10">
         <f>AH29-AH31</f>
         <v>20958.75</v>
       </c>
-      <c r="AI33" s="13">
+      <c r="AI33" s="10">
         <f t="shared" ref="AI33:AV33" si="27">AI29-AI31</f>
         <v>50058</v>
       </c>
-      <c r="AJ33" s="13">
+      <c r="AJ33" s="10">
         <f t="shared" si="27"/>
         <v>77339.610000000015</v>
       </c>
-      <c r="AK33" s="13">
+      <c r="AK33" s="10">
         <f t="shared" si="27"/>
         <v>88510.887000000017</v>
       </c>
-      <c r="AL33" s="13">
+      <c r="AL33" s="10">
         <f t="shared" si="27"/>
         <v>91166.213610000021</v>
       </c>
-      <c r="AM33" s="13">
+      <c r="AM33" s="10">
         <f t="shared" si="27"/>
         <v>93901.20001830002</v>
       </c>
-      <c r="AN33" s="13">
+      <c r="AN33" s="10">
         <f t="shared" si="27"/>
         <v>96718.236018849027</v>
       </c>
-      <c r="AO33" s="13">
+      <c r="AO33" s="10">
         <f t="shared" si="27"/>
         <v>99619.783099414504</v>
       </c>
-      <c r="AP33" s="13">
+      <c r="AP33" s="10">
         <f t="shared" si="27"/>
         <v>102608.37659239695</v>
       </c>
-      <c r="AQ33" s="13">
+      <c r="AQ33" s="10">
         <f t="shared" si="27"/>
         <v>105686.62789016885</v>
       </c>
-      <c r="AR33" s="13">
+      <c r="AR33" s="10">
         <f t="shared" si="27"/>
         <v>108857.22672687391</v>
       </c>
-      <c r="AS33" s="13">
+      <c r="AS33" s="10">
         <f t="shared" si="27"/>
         <v>112122.94352868013</v>
       </c>
-      <c r="AT33" s="13">
+      <c r="AT33" s="10">
         <f t="shared" si="27"/>
         <v>115486.63183454053</v>
       </c>
-      <c r="AU33" s="13">
+      <c r="AU33" s="10">
         <f t="shared" si="27"/>
         <v>118951.23078957677</v>
       </c>
-      <c r="AV33" s="13">
+      <c r="AV33" s="10">
         <f t="shared" si="27"/>
         <v>122519.76771326408</v>
       </c>
@@ -2191,11 +2206,11 @@
       <c r="AF37" s="1">
         <v>42928</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="10">
         <f>SUM(R37:U37)</f>
         <v>20560</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH37" s="10">
         <f>SUM(V37:Y37)</f>
         <v>0</v>
       </c>
@@ -2254,11 +2269,11 @@
       <c r="AF38" s="1">
         <v>957</v>
       </c>
-      <c r="AG38" s="13">
+      <c r="AG38" s="10">
         <f t="shared" ref="AG38:AG41" si="30">SUM(R38:U38)</f>
         <v>1811</v>
       </c>
-      <c r="AH38" s="13">
+      <c r="AH38" s="10">
         <f t="shared" ref="AH38:AH41" si="31">SUM(V38:Y38)</f>
         <v>0</v>
       </c>
@@ -2317,11 +2332,11 @@
       <c r="AF39" s="1">
         <v>6648</v>
       </c>
-      <c r="AG39" s="13">
+      <c r="AG39" s="10">
         <f t="shared" si="30"/>
         <v>3108</v>
       </c>
-      <c r="AH39" s="13">
+      <c r="AH39" s="10">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -2380,11 +2395,11 @@
       <c r="AF40" s="1">
         <v>3619</v>
       </c>
-      <c r="AG40" s="13">
+      <c r="AG40" s="10">
         <f t="shared" si="30"/>
         <v>1614</v>
       </c>
-      <c r="AH40" s="13">
+      <c r="AH40" s="10">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -2443,11 +2458,11 @@
       <c r="AF41" s="1">
         <v>1482</v>
       </c>
-      <c r="AG41" s="13">
+      <c r="AG41" s="10">
         <f t="shared" si="30"/>
         <v>725</v>
       </c>
-      <c r="AH41" s="13">
+      <c r="AH41" s="10">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -2655,11 +2670,11 @@
       <c r="AF44" s="1">
         <v>6854</v>
       </c>
-      <c r="AG44" s="13">
+      <c r="AG44" s="10">
         <f>SUM(R44:U44)</f>
         <v>3092</v>
       </c>
-      <c r="AH44" s="13">
+      <c r="AH44" s="10">
         <f>SUM(V44:Y44)</f>
         <v>0</v>
       </c>
@@ -2716,11 +2731,11 @@
       <c r="AF45" s="1">
         <v>2193</v>
       </c>
-      <c r="AG45" s="13">
+      <c r="AG45" s="10">
         <f t="shared" ref="AG45:AG49" si="56">SUM(R45:U45)</f>
         <v>371</v>
       </c>
-      <c r="AH45" s="13">
+      <c r="AH45" s="10">
         <f t="shared" ref="AH45:AH49" si="57">SUM(V45:Y45)</f>
         <v>0</v>
       </c>
@@ -2779,11 +2794,11 @@
       <c r="AF46" s="1">
         <v>5537</v>
       </c>
-      <c r="AG46" s="13">
+      <c r="AG46" s="10">
         <f t="shared" si="56"/>
         <v>2116</v>
       </c>
-      <c r="AH46" s="13">
+      <c r="AH46" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -2842,11 +2857,11 @@
       <c r="AF47" s="1">
         <v>5543</v>
       </c>
-      <c r="AG47" s="13">
+      <c r="AG47" s="10">
         <f t="shared" si="56"/>
         <v>2283</v>
       </c>
-      <c r="AH47" s="13">
+      <c r="AH47" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -2905,11 +2920,11 @@
       <c r="AF48" s="1">
         <v>3682</v>
       </c>
-      <c r="AG48" s="13">
+      <c r="AG48" s="10">
         <f t="shared" si="56"/>
         <v>1405</v>
       </c>
-      <c r="AH48" s="13">
+      <c r="AH48" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -2968,11 +2983,11 @@
       <c r="AF49" s="1">
         <v>3507</v>
       </c>
-      <c r="AG49" s="13">
+      <c r="AG49" s="10">
         <f t="shared" si="56"/>
         <v>1609</v>
       </c>
-      <c r="AH49" s="13">
+      <c r="AH49" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -3146,6 +3161,30 @@
         <f>S42+S50</f>
         <v>17176</v>
       </c>
+      <c r="T52" s="3">
+        <f>S52</f>
+        <v>17176</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" ref="U52:Y52" si="58">T52</f>
+        <v>17176</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="58"/>
+        <v>17176</v>
+      </c>
+      <c r="W52" s="3">
+        <f t="shared" si="58"/>
+        <v>17176</v>
+      </c>
+      <c r="X52" s="3">
+        <f t="shared" si="58"/>
+        <v>17176</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" si="58"/>
+        <v>17176</v>
+      </c>
       <c r="AC52" s="3">
         <f>AC42+AC50</f>
         <v>45582</v>
@@ -3167,64 +3206,64 @@
         <v>38694</v>
       </c>
       <c r="AH52" s="3">
-        <f>AH42+AH50</f>
-        <v>0</v>
+        <f>AG52*1.03</f>
+        <v>39854.82</v>
       </c>
       <c r="AI52" s="3">
-        <f>AI42+AI50</f>
-        <v>0</v>
+        <f t="shared" ref="AI52:AV52" si="59">AH52*1.03</f>
+        <v>41050.464599999999</v>
       </c>
       <c r="AJ52" s="3">
-        <f>AJ42+AJ50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>42281.978538000003</v>
       </c>
       <c r="AK52" s="3">
-        <f>AK42+AK50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>43550.437894140006</v>
       </c>
       <c r="AL52" s="3">
-        <f>AL42+AL50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>44856.951030964206</v>
       </c>
       <c r="AM52" s="3">
-        <f>AM42+AM50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>46202.659561893131</v>
       </c>
       <c r="AN52" s="3">
-        <f>AN42+AN50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>47588.739348749928</v>
       </c>
       <c r="AO52" s="3">
-        <f>AO42+AO50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>49016.401529212424</v>
       </c>
       <c r="AP52" s="3">
-        <f>AP42+AP50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>50486.893575088798</v>
       </c>
       <c r="AQ52" s="3">
-        <f>AQ42+AQ50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>52001.500382341466</v>
       </c>
       <c r="AR52" s="3">
-        <f>AR42+AR50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>53561.545393811713</v>
       </c>
       <c r="AS52" s="3">
-        <f>AS42+AS50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>55168.391755626064</v>
       </c>
       <c r="AT52" s="3">
-        <f>AT42+AT50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>56823.443508294848</v>
       </c>
       <c r="AU52" s="3">
-        <f>AU42+AU50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>58528.146813543695</v>
       </c>
       <c r="AV52" s="3">
-        <f>AV42+AV50</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>60283.99121795001</v>
       </c>
     </row>
     <row r="53" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3272,6 +3311,30 @@
         <f>S33-S52</f>
         <v>-17176</v>
       </c>
+      <c r="T54">
+        <f t="shared" ref="T54:Y54" si="60">T33-T52</f>
+        <v>-17176</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="60"/>
+        <v>-16264.75</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="60"/>
+        <v>-14442.25</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="60"/>
+        <v>-12619.75</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="60"/>
+        <v>-10797.25</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="60"/>
+        <v>-9886</v>
+      </c>
       <c r="AC54">
         <f>AC33-AC52</f>
         <v>-45582</v>
@@ -3288,69 +3351,69 @@
         <f>AF33-AF52</f>
         <v>-82950</v>
       </c>
-      <c r="AG54" s="13">
+      <c r="AG54" s="10">
         <f>AG33-AG52</f>
         <v>-27122.75</v>
       </c>
-      <c r="AH54" s="13">
+      <c r="AH54" s="10">
         <f>AH33-AH52</f>
-        <v>20958.75</v>
+        <v>-18896.07</v>
       </c>
       <c r="AI54">
         <f>AI33-AI52</f>
-        <v>50058</v>
+        <v>9007.5354000000007</v>
       </c>
       <c r="AJ54">
         <f>AJ33-AJ52</f>
-        <v>77339.610000000015</v>
+        <v>35057.631462000012</v>
       </c>
       <c r="AK54">
         <f>AK33-AK52</f>
-        <v>88510.887000000017</v>
+        <v>44960.449105860011</v>
       </c>
       <c r="AL54">
         <f>AL33-AL52</f>
-        <v>91166.213610000021</v>
+        <v>46309.262579035814</v>
       </c>
       <c r="AM54">
         <f>AM33-AM52</f>
-        <v>93901.20001830002</v>
+        <v>47698.540456406889</v>
       </c>
       <c r="AN54">
         <f>AN33-AN52</f>
-        <v>96718.236018849027</v>
+        <v>49129.496670099099</v>
       </c>
       <c r="AO54">
         <f>AO33-AO52</f>
-        <v>99619.783099414504</v>
+        <v>50603.38157020208</v>
       </c>
       <c r="AP54">
         <f>AP33-AP52</f>
-        <v>102608.37659239695</v>
+        <v>52121.48301730815</v>
       </c>
       <c r="AQ54">
         <f>AQ33-AQ52</f>
-        <v>105686.62789016885</v>
+        <v>53685.127507827383</v>
       </c>
       <c r="AR54">
         <f>AR33-AR52</f>
-        <v>108857.22672687391</v>
+        <v>55295.681333062195</v>
       </c>
       <c r="AS54">
         <f>AS33-AS52</f>
-        <v>112122.94352868013</v>
+        <v>56954.551773054067</v>
       </c>
       <c r="AT54">
         <f>AT33-AT52</f>
-        <v>115486.63183454053</v>
+        <v>58663.188326245683</v>
       </c>
       <c r="AU54">
         <f>AU33-AU52</f>
-        <v>118951.23078957677</v>
+        <v>60423.083976033078</v>
       </c>
       <c r="AV54">
         <f>AV33-AV52</f>
-        <v>122519.76771326408</v>
+        <v>62235.776495314072</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.2">
@@ -3367,7 +3430,7 @@
         <v>76</v>
       </c>
       <c r="M56">
-        <f t="shared" ref="M56:M58" si="58">AE56-L56-K56-J56</f>
+        <f t="shared" ref="M56:M58" si="61">AE56-L56-K56-J56</f>
         <v>234</v>
       </c>
       <c r="N56" s="1">
@@ -3380,7 +3443,7 @@
         <v>227</v>
       </c>
       <c r="Q56">
-        <f t="shared" ref="Q56:Q58" si="59">AF56-P56-O56-N56</f>
+        <f t="shared" ref="Q56:Q58" si="62">AF56-P56-O56-N56</f>
         <v>271</v>
       </c>
       <c r="R56" s="1">
@@ -3407,12 +3470,12 @@
       <c r="AF56" s="1">
         <v>685</v>
       </c>
-      <c r="AG56" s="13">
-        <f t="shared" ref="AG56" si="60">SUM(R56:U56)</f>
+      <c r="AG56" s="10">
+        <f t="shared" ref="AG56" si="63">SUM(R56:U56)</f>
         <v>629</v>
       </c>
-      <c r="AH56" s="13">
-        <f t="shared" ref="AH56" si="61">SUM(V56:Y56)</f>
+      <c r="AH56" s="10">
+        <f t="shared" ref="AH56" si="64">SUM(V56:Y56)</f>
         <v>0</v>
       </c>
     </row>
@@ -3427,7 +3490,7 @@
         <v>36</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>4255</v>
       </c>
       <c r="R57" s="1">
@@ -3445,12 +3508,12 @@
       <c r="AF57" s="1">
         <v>-66</v>
       </c>
-      <c r="AG57" s="13">
-        <f t="shared" ref="AG57:AG58" si="62">SUM(R57:U57)</f>
+      <c r="AG57" s="10">
+        <f t="shared" ref="AG57:AG58" si="65">SUM(R57:U57)</f>
         <v>-12335</v>
       </c>
-      <c r="AH57" s="13">
-        <f t="shared" ref="AH57:AH58" si="63">SUM(V57:Y57)</f>
+      <c r="AH57" s="10">
+        <f t="shared" ref="AH57:AH58" si="66">SUM(V57:Y57)</f>
         <v>0</v>
       </c>
     </row>
@@ -3468,7 +3531,7 @@
         <v>-64</v>
       </c>
       <c r="M58">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>-279</v>
       </c>
       <c r="N58" s="1">
@@ -3481,7 +3544,7 @@
         <v>-8</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>17</v>
       </c>
       <c r="R58" s="1">
@@ -3508,12 +3571,12 @@
       <c r="AF58" s="1">
         <v>-177</v>
       </c>
-      <c r="AG58" s="13">
-        <f t="shared" si="62"/>
+      <c r="AG58" s="10">
+        <f t="shared" si="65"/>
         <v>26</v>
       </c>
-      <c r="AH58" s="13">
-        <f t="shared" si="63"/>
+      <c r="AH58" s="10">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -3526,39 +3589,39 @@
         <v>20</v>
       </c>
       <c r="K59">
-        <f t="shared" ref="K59:S59" si="64">K56+K57+K58</f>
+        <f t="shared" ref="K59:S59" si="67">K56+K57+K58</f>
         <v>47</v>
       </c>
       <c r="L59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>12</v>
       </c>
       <c r="M59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>-45</v>
       </c>
       <c r="N59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>-20</v>
       </c>
       <c r="O59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>-4336</v>
       </c>
       <c r="P59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>255</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>4543</v>
       </c>
       <c r="R59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>721</v>
       </c>
       <c r="S59">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>-12401</v>
       </c>
       <c r="AC59" s="2">
@@ -3566,79 +3629,79 @@
         <v>69</v>
       </c>
       <c r="AD59" s="2">
-        <f t="shared" ref="AD59:AH59" si="65">AD58+AD57+AD56</f>
+        <f t="shared" ref="AD59:AH59" si="68">AD58+AD57+AD56</f>
         <v>505</v>
       </c>
       <c r="AE59" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>34</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>442</v>
       </c>
       <c r="AG59" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>-11680</v>
       </c>
       <c r="AH59" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AI59" s="2">
-        <f t="shared" ref="AI59" si="66">AI58+AI57+AI56</f>
+        <f>AI58+AI57+AI56</f>
         <v>0</v>
       </c>
       <c r="AJ59" s="2">
-        <f t="shared" ref="AJ59" si="67">AJ58+AJ57+AJ56</f>
+        <f t="shared" ref="AJ59" si="69">AJ58+AJ57+AJ56</f>
         <v>0</v>
       </c>
       <c r="AK59" s="2">
-        <f t="shared" ref="AK59" si="68">AK58+AK57+AK56</f>
+        <f t="shared" ref="AK59" si="70">AK58+AK57+AK56</f>
         <v>0</v>
       </c>
       <c r="AL59" s="2">
-        <f t="shared" ref="AL59" si="69">AL58+AL57+AL56</f>
+        <f t="shared" ref="AL59" si="71">AL58+AL57+AL56</f>
         <v>0</v>
       </c>
       <c r="AM59" s="2">
-        <f t="shared" ref="AM59" si="70">AM58+AM57+AM56</f>
+        <f t="shared" ref="AM59" si="72">AM58+AM57+AM56</f>
         <v>0</v>
       </c>
       <c r="AN59" s="2">
-        <f t="shared" ref="AN59" si="71">AN58+AN57+AN56</f>
+        <f t="shared" ref="AN59" si="73">AN58+AN57+AN56</f>
         <v>0</v>
       </c>
       <c r="AO59" s="2">
-        <f t="shared" ref="AO59" si="72">AO58+AO57+AO56</f>
+        <f t="shared" ref="AO59" si="74">AO58+AO57+AO56</f>
         <v>0</v>
       </c>
       <c r="AP59" s="2">
-        <f t="shared" ref="AP59" si="73">AP58+AP57+AP56</f>
+        <f t="shared" ref="AP59" si="75">AP58+AP57+AP56</f>
         <v>0</v>
       </c>
       <c r="AQ59" s="2">
-        <f t="shared" ref="AQ59" si="74">AQ58+AQ57+AQ56</f>
+        <f t="shared" ref="AQ59" si="76">AQ58+AQ57+AQ56</f>
         <v>0</v>
       </c>
       <c r="AR59" s="2">
-        <f t="shared" ref="AR59" si="75">AR58+AR57+AR56</f>
+        <f t="shared" ref="AR59" si="77">AR58+AR57+AR56</f>
         <v>0</v>
       </c>
       <c r="AS59" s="2">
-        <f t="shared" ref="AS59" si="76">AS58+AS57+AS56</f>
+        <f t="shared" ref="AS59" si="78">AS58+AS57+AS56</f>
         <v>0</v>
       </c>
       <c r="AT59" s="2">
-        <f t="shared" ref="AT59" si="77">AT58+AT57+AT56</f>
+        <f t="shared" ref="AT59" si="79">AT58+AT57+AT56</f>
         <v>0</v>
       </c>
       <c r="AU59" s="2">
-        <f t="shared" ref="AU59" si="78">AU58+AU57+AU56</f>
+        <f t="shared" ref="AU59" si="80">AU58+AU57+AU56</f>
         <v>0</v>
       </c>
       <c r="AV59" s="2">
-        <f t="shared" ref="AV59" si="79">AV58+AV57+AV56</f>
+        <f t="shared" ref="AV59" si="81">AV58+AV57+AV56</f>
         <v>0</v>
       </c>
     </row>
@@ -3657,120 +3720,144 @@
         <v>-24179</v>
       </c>
       <c r="K61">
-        <f t="shared" ref="K61:S61" si="80">K54+K59</f>
+        <f t="shared" ref="K61:Y61" si="82">K54+K59</f>
         <v>-25828</v>
       </c>
       <c r="L61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-28418</v>
       </c>
       <c r="M61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-27159</v>
       </c>
       <c r="N61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-23121</v>
       </c>
       <c r="O61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-25857</v>
       </c>
       <c r="P61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-19101</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-14429</v>
       </c>
       <c r="R61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-10137</v>
       </c>
       <c r="S61">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-29577</v>
       </c>
+      <c r="T61">
+        <f t="shared" si="82"/>
+        <v>-17176</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="82"/>
+        <v>-16264.75</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="82"/>
+        <v>-14442.25</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="82"/>
+        <v>-12619.75</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="82"/>
+        <v>-10797.25</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="82"/>
+        <v>-9886</v>
+      </c>
       <c r="AC61">
-        <f t="shared" ref="AC61:AV61" si="81">AC54+AC59</f>
+        <f t="shared" ref="AC61:AV61" si="83">AC54+AC59</f>
         <v>-45513</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>-93961</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>-105584</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>-82508</v>
       </c>
-      <c r="AG61">
-        <f t="shared" si="81"/>
+      <c r="AG61" s="10">
+        <f t="shared" si="83"/>
         <v>-38802.75</v>
       </c>
-      <c r="AH61">
-        <f t="shared" si="81"/>
-        <v>20958.75</v>
-      </c>
-      <c r="AI61">
-        <f t="shared" si="81"/>
-        <v>50058</v>
-      </c>
-      <c r="AJ61">
-        <f t="shared" si="81"/>
-        <v>77339.610000000015</v>
-      </c>
-      <c r="AK61">
-        <f t="shared" si="81"/>
-        <v>88510.887000000017</v>
-      </c>
-      <c r="AL61">
-        <f t="shared" si="81"/>
-        <v>91166.213610000021</v>
-      </c>
-      <c r="AM61">
-        <f t="shared" si="81"/>
-        <v>93901.20001830002</v>
-      </c>
-      <c r="AN61">
-        <f t="shared" si="81"/>
-        <v>96718.236018849027</v>
-      </c>
-      <c r="AO61">
-        <f t="shared" si="81"/>
-        <v>99619.783099414504</v>
-      </c>
-      <c r="AP61">
-        <f t="shared" si="81"/>
-        <v>102608.37659239695</v>
-      </c>
-      <c r="AQ61">
-        <f t="shared" si="81"/>
-        <v>105686.62789016885</v>
-      </c>
-      <c r="AR61">
-        <f t="shared" si="81"/>
-        <v>108857.22672687391</v>
-      </c>
-      <c r="AS61">
-        <f t="shared" si="81"/>
-        <v>112122.94352868013</v>
-      </c>
-      <c r="AT61">
-        <f t="shared" si="81"/>
-        <v>115486.63183454053</v>
-      </c>
-      <c r="AU61">
-        <f t="shared" si="81"/>
-        <v>118951.23078957677</v>
-      </c>
-      <c r="AV61">
-        <f t="shared" si="81"/>
-        <v>122519.76771326408</v>
+      <c r="AH61" s="10">
+        <f t="shared" si="83"/>
+        <v>-18896.07</v>
+      </c>
+      <c r="AI61" s="10">
+        <f t="shared" si="83"/>
+        <v>9007.5354000000007</v>
+      </c>
+      <c r="AJ61" s="10">
+        <f t="shared" si="83"/>
+        <v>35057.631462000012</v>
+      </c>
+      <c r="AK61" s="10">
+        <f t="shared" si="83"/>
+        <v>44960.449105860011</v>
+      </c>
+      <c r="AL61" s="10">
+        <f t="shared" si="83"/>
+        <v>46309.262579035814</v>
+      </c>
+      <c r="AM61" s="10">
+        <f t="shared" si="83"/>
+        <v>47698.540456406889</v>
+      </c>
+      <c r="AN61" s="10">
+        <f t="shared" si="83"/>
+        <v>49129.496670099099</v>
+      </c>
+      <c r="AO61" s="10">
+        <f t="shared" si="83"/>
+        <v>50603.38157020208</v>
+      </c>
+      <c r="AP61" s="10">
+        <f t="shared" si="83"/>
+        <v>52121.48301730815</v>
+      </c>
+      <c r="AQ61" s="10">
+        <f t="shared" si="83"/>
+        <v>53685.127507827383</v>
+      </c>
+      <c r="AR61" s="10">
+        <f t="shared" si="83"/>
+        <v>55295.681333062195</v>
+      </c>
+      <c r="AS61" s="10">
+        <f t="shared" si="83"/>
+        <v>56954.551773054067</v>
+      </c>
+      <c r="AT61" s="10">
+        <f t="shared" si="83"/>
+        <v>58663.188326245683</v>
+      </c>
+      <c r="AU61" s="10">
+        <f t="shared" si="83"/>
+        <v>60423.083976033078</v>
+      </c>
+      <c r="AV61" s="10">
+        <f t="shared" si="83"/>
+        <v>62235.776495314072</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.2">
@@ -3800,7 +3887,7 @@
         <v>-28418</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65" si="82">AE65-L65-K65-J65</f>
+        <f t="shared" ref="M65" si="84">AE65-L65-K65-J65</f>
         <v>-27159</v>
       </c>
       <c r="N65" s="1">
@@ -3813,7 +3900,7 @@
         <v>-19101</v>
       </c>
       <c r="Q65">
-        <f t="shared" ref="Q65" si="83">AF65-P65-O65-N65</f>
+        <f t="shared" ref="Q65" si="85">AF65-P65-O65-N65</f>
         <v>-14429</v>
       </c>
       <c r="R65" s="1">
@@ -3840,75 +3927,93 @@
       <c r="AF65">
         <v>-82508</v>
       </c>
-      <c r="AH65" s="12">
-        <f>NPV(0.1,AH61:AV61)</f>
-        <v>636949.67092062777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="AH65" s="9">
+        <f>NPV(0.12,AH61:AV61)</f>
+        <v>240713.79742578266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="18">
         <f>J61-J63</f>
         <v>-24179</v>
       </c>
-      <c r="K66" s="1">
-        <f t="shared" ref="K66:S66" si="84">K61-K63</f>
+      <c r="K66" s="18">
+        <f t="shared" ref="K66:Y66" si="86">K61-K63</f>
         <v>-25828</v>
       </c>
-      <c r="L66" s="1">
-        <f t="shared" si="84"/>
+      <c r="L66" s="18">
+        <f t="shared" si="86"/>
         <v>-28418</v>
       </c>
-      <c r="M66" s="1">
-        <f t="shared" si="84"/>
+      <c r="M66" s="18">
+        <f t="shared" si="86"/>
         <v>-27159</v>
       </c>
-      <c r="N66" s="1">
-        <f t="shared" si="84"/>
+      <c r="N66" s="18">
+        <f t="shared" si="86"/>
         <v>-23121</v>
       </c>
-      <c r="O66" s="1">
-        <f t="shared" si="84"/>
+      <c r="O66" s="18">
+        <f t="shared" si="86"/>
         <v>-25857</v>
       </c>
-      <c r="P66" s="1">
-        <f t="shared" si="84"/>
+      <c r="P66" s="18">
+        <f t="shared" si="86"/>
         <v>-19101</v>
       </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="84"/>
+      <c r="Q66" s="18">
+        <f t="shared" si="86"/>
         <v>-14429</v>
       </c>
-      <c r="R66" s="1">
-        <f t="shared" si="84"/>
+      <c r="R66" s="18">
+        <f t="shared" si="86"/>
         <v>-10137</v>
       </c>
-      <c r="S66" s="1">
-        <f t="shared" si="84"/>
+      <c r="S66" s="18">
+        <f t="shared" si="86"/>
         <v>-29577</v>
       </c>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AC66" s="1">
-        <f t="shared" ref="AC66:AF66" si="85">AC61-AC63</f>
+      <c r="T66" s="18">
+        <f t="shared" si="86"/>
+        <v>-17176</v>
+      </c>
+      <c r="U66" s="18">
+        <f t="shared" si="86"/>
+        <v>-16264.75</v>
+      </c>
+      <c r="V66" s="18">
+        <f t="shared" si="86"/>
+        <v>-14442.25</v>
+      </c>
+      <c r="W66" s="18">
+        <f t="shared" si="86"/>
+        <v>-12619.75</v>
+      </c>
+      <c r="X66" s="18">
+        <f t="shared" si="86"/>
+        <v>-10797.25</v>
+      </c>
+      <c r="Y66" s="18">
+        <f t="shared" si="86"/>
+        <v>-9886</v>
+      </c>
+      <c r="AC66" s="18">
+        <f t="shared" ref="AC66:AF66" si="87">AC61-AC63</f>
         <v>-45513</v>
       </c>
-      <c r="AD66" s="1">
-        <f t="shared" si="85"/>
+      <c r="AD66" s="18">
+        <f t="shared" si="87"/>
         <v>-93961</v>
       </c>
-      <c r="AE66" s="1">
-        <f t="shared" si="85"/>
+      <c r="AE66" s="18">
+        <f t="shared" si="87"/>
         <v>-105584</v>
       </c>
-      <c r="AF66" s="1">
-        <f t="shared" si="85"/>
+      <c r="AF66" s="18">
+        <f t="shared" si="87"/>
         <v>-82508</v>
       </c>
     </row>
@@ -3921,39 +4026,39 @@
         <v>0</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:S67" si="86">K66-K65</f>
+        <f t="shared" ref="K67:S67" si="88">K66-K65</f>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="U67" s="1"/>
@@ -3963,19 +4068,19 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AC67" s="1">
-        <f t="shared" ref="AC67" si="87">AC66-AC65</f>
+        <f t="shared" ref="AC67" si="89">AC66-AC65</f>
         <v>0</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" ref="AD67" si="88">AD66-AD65</f>
+        <f t="shared" ref="AD67" si="90">AD66-AD65</f>
         <v>0</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" ref="AE67" si="89">AE66-AE65</f>
+        <f t="shared" ref="AE67" si="91">AE66-AE65</f>
         <v>0</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" ref="AF67" si="90">AF66-AF65</f>
+        <f t="shared" ref="AF67" si="92">AF66-AF65</f>
         <v>0</v>
       </c>
     </row>
@@ -4060,6 +4165,26 @@
         <v>59</v>
       </c>
     </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BA227E-4F9C-7245-9DF7-3FCE86551693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B896FF-9AD6-5B40-9C70-84A4849ED79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -550,9 +550,6 @@
     <t>Terminal Growth Rate</t>
   </si>
   <si>
-    <t>NPV Target</t>
-  </si>
-  <si>
     <t>Enterprise Value ($m)</t>
   </si>
   <si>
@@ -563,17 +560,33 @@
   </si>
   <si>
     <t>Weighted-average common stock outstanding (m)</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>rNPV Target</t>
+  </si>
+  <si>
+    <t>Market Share Target</t>
+  </si>
+  <si>
+    <t>Average Sale Price</t>
+  </si>
+  <si>
+    <t>Patent Growth Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -677,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -690,6 +703,21 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -722,6 +750,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -729,7 +781,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,7 +797,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -772,13 +823,35 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1101,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
-  <dimension ref="B5:D54"/>
+  <dimension ref="B5:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,26 +1224,26 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1179,26 +1252,26 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>133</v>
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1206,18 +1279,23 @@
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>80</v>
       </c>
@@ -1225,7 +1303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>76</v>
       </c>
@@ -1233,7 +1311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>81</v>
       </c>
@@ -1241,44 +1319,182 @@
         <f>2037-2023</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+    </row>
+    <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H25" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="52">
+        <f>Valuation!$C$29</f>
+        <v>2.7961218495009801</v>
+      </c>
+      <c r="J25" s="48">
+        <f>K25-0.1</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="K25" s="48">
+        <f>L25-0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L25" s="48">
+        <f>M25-0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="13">
+        <f>M25+0.1</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H26" s="51"/>
+      <c r="I26" s="14">
+        <f>I27-1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J26" s="49">
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
+        <v>-3.7193262170646775</v>
+      </c>
+      <c r="K26" s="49">
+        <v>-3.1903114223994895</v>
+      </c>
+      <c r="L26" s="49">
+        <v>-2.661296627734302</v>
+      </c>
+      <c r="M26" s="56">
+        <v>-2.1322818330691136</v>
+      </c>
+      <c r="N26" s="49">
+        <v>-1.6032670384039271</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H27" s="51"/>
+      <c r="I27" s="14">
+        <f t="shared" ref="I27:I28" si="0">I28-1000</f>
+        <v>3000</v>
+      </c>
+      <c r="J27" s="49">
+        <v>-2.870047181539094</v>
+      </c>
+      <c r="K27" s="49">
+        <v>-2.0765249895413116</v>
+      </c>
+      <c r="L27" s="49">
+        <v>-1.2830027975435323</v>
+      </c>
+      <c r="M27" s="56">
+        <v>-0.48948060554575001</v>
+      </c>
+      <c r="N27" s="49">
+        <v>0.30404158645203189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H28" s="51"/>
+      <c r="I28" s="14">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="J28" s="49">
+        <v>-2.0207681460135114</v>
+      </c>
+      <c r="K28" s="49">
+        <v>-0.96273855668313635</v>
+      </c>
+      <c r="L28" s="49">
+        <v>9.529103264723944E-2</v>
+      </c>
+      <c r="M28" s="56">
+        <v>1.1533206219776158</v>
+      </c>
+      <c r="N28" s="49">
+        <v>2.2113502113079919</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H29" s="51"/>
+      <c r="I29" s="53">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="54">
+        <v>-1.1714891104879284</v>
+      </c>
+      <c r="K29" s="54">
+        <v>0.15104787617504073</v>
+      </c>
+      <c r="L29" s="54">
+        <v>1.4735848628380104</v>
+      </c>
+      <c r="M29" s="57">
+        <v>2.7961218495009801</v>
+      </c>
+      <c r="N29" s="49">
+        <v>4.1186588361639478</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="14">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H30" s="51"/>
+      <c r="I30" s="14">
+        <f>I29+1000</f>
+        <v>6000</v>
+      </c>
+      <c r="J30" s="49">
+        <v>-0.32221007496234522</v>
+      </c>
+      <c r="K30" s="49">
+        <v>1.264834309033219</v>
+      </c>
+      <c r="L30" s="49">
+        <v>2.8518786930287807</v>
+      </c>
+      <c r="M30" s="49">
+        <v>4.4389230770243424</v>
+      </c>
+      <c r="N30" s="49">
+        <v>6.025967461019909</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>86</v>
       </c>
@@ -1286,10 +1502,48 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H33" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="52">
+        <f>Valuation!$C$29</f>
+        <v>2.7961218495009801</v>
+      </c>
+      <c r="J33" s="48">
+        <f>K33-0.1</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="K33" s="48">
+        <f>L33-0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L33" s="48">
+        <f>M33-0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="M33" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="13">
+        <f>M33+0.1</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
@@ -1297,47 +1551,147 @@
       <c r="D34" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H34" s="51"/>
+      <c r="I34" s="59">
+        <f>I35-0.05</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46"/>
+        <v>-3.5206263439977579</v>
+      </c>
+      <c r="K34" s="49">
+        <v>-2.7636384444600037</v>
+      </c>
+      <c r="L34" s="49">
+        <v>-2.0066505449222518</v>
+      </c>
+      <c r="M34" s="56">
+        <v>-1.2496626453844972</v>
+      </c>
+      <c r="N34" s="49">
+        <v>-0.49267474584674381</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H35" s="51"/>
+      <c r="I35" s="58">
+        <f>I36-0.05</f>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="J35" s="49">
+        <v>-2.638265370161982</v>
+      </c>
+      <c r="K35" s="49">
+        <v>-1.6473819390114879</v>
+      </c>
+      <c r="L35" s="49">
+        <v>-0.65649850786099551</v>
+      </c>
+      <c r="M35" s="56">
+        <v>0.33438492328949698</v>
+      </c>
+      <c r="N35" s="49">
+        <v>1.3252683544399908</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H36" s="51"/>
+      <c r="I36" s="62">
+        <v>0.03</v>
+      </c>
+      <c r="J36" s="54">
+        <v>-1.1714891104879284</v>
+      </c>
+      <c r="K36" s="54">
+        <v>0.15104787617504073</v>
+      </c>
+      <c r="L36" s="54">
+        <v>1.4735848628380104</v>
+      </c>
+      <c r="M36" s="57">
+        <v>2.7961218495009801</v>
+      </c>
+      <c r="N36" s="49">
+        <v>4.1186588361639478</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="13">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H37" s="51"/>
+      <c r="I37" s="60">
+        <f>I36+0.05</f>
+        <v>0.08</v>
+      </c>
+      <c r="J37" s="49">
+        <v>1.2858400514121764</v>
+      </c>
+      <c r="K37" s="49">
+        <v>3.0829546401310748</v>
+      </c>
+      <c r="L37" s="49">
+        <v>4.8800692288499681</v>
+      </c>
+      <c r="M37" s="61">
+        <v>6.6771838175688689</v>
+      </c>
+      <c r="N37" s="49">
+        <v>8.4742984062877671</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H38" s="51"/>
+      <c r="I38" s="60">
+        <f>I37+0.05</f>
+        <v>0.13</v>
+      </c>
+      <c r="J38" s="49">
+        <v>5.4020589567209027</v>
+      </c>
+      <c r="K38" s="49">
+        <v>7.8823145868071371</v>
+      </c>
+      <c r="L38" s="49">
+        <v>10.362570216893365</v>
+      </c>
+      <c r="M38" s="49">
+        <v>12.842825846979592</v>
+      </c>
+      <c r="N38" s="49">
+        <v>15.323081477065827</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>95</v>
       </c>
@@ -1348,7 +1702,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>96</v>
       </c>
@@ -1359,7 +1713,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>87</v>
       </c>
@@ -1371,7 +1725,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>98</v>
       </c>
@@ -1380,7 +1734,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>97</v>
       </c>
@@ -1392,7 +1746,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>88</v>
       </c>
@@ -1400,7 +1754,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>99</v>
       </c>
@@ -1466,11 +1820,17 @@
       <c r="B54" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="15">
-        <v>5.0000000000000001E-3</v>
+      <c r="D54" s="13">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="H33:H38"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{671B7884-8D00-B741-BEA0-5327B1DB523D}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{FF23C9AE-2BA0-7A49-A86F-168947182E69}"/>
@@ -1486,11 +1846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1:AV111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AF61" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="AG27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH73" sqref="AH73"/>
+      <selection pane="bottomRight" activeCell="AJ44" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1512,137 +1872,137 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1999,7 +2359,7 @@
       <c r="A29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R29" s="25"/>
+      <c r="R29" s="24"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="R30" s="1"/>
@@ -2052,23 +2412,23 @@
         <f>T27</f>
         <v>0</v>
       </c>
-      <c r="U31" s="27">
+      <c r="U31" s="26">
         <f>U27+U12</f>
         <v>1012.5</v>
       </c>
-      <c r="V31" s="27">
+      <c r="V31" s="26">
         <f>V27+V12</f>
         <v>3037.5</v>
       </c>
-      <c r="W31" s="27">
+      <c r="W31" s="26">
         <f>W27+W12</f>
         <v>5062.5</v>
       </c>
-      <c r="X31" s="27">
+      <c r="X31" s="26">
         <f>X27+X12</f>
         <v>7087.4999999999991</v>
       </c>
-      <c r="Y31" s="27">
+      <c r="Y31" s="26">
         <f>Y27+Y12</f>
         <v>8100</v>
       </c>
@@ -2088,67 +2448,67 @@
         <f>AF27</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="27">
+      <c r="AG31" s="26">
         <f>SUM(R31:U31)</f>
         <v>11672.5</v>
       </c>
-      <c r="AH31" s="27">
+      <c r="AH31" s="26">
         <f>SUM(V31:Y31)</f>
         <v>23287.5</v>
       </c>
-      <c r="AI31" s="27">
+      <c r="AI31" s="26">
         <f>AI27+AI9</f>
         <v>55620</v>
       </c>
-      <c r="AJ31" s="27">
+      <c r="AJ31" s="26">
         <f>AJ27+AJ9</f>
         <v>85932.900000000009</v>
       </c>
-      <c r="AK31" s="27">
+      <c r="AK31" s="26">
         <f>AK27+AK9</f>
         <v>98345.430000000008</v>
       </c>
-      <c r="AL31" s="27">
+      <c r="AL31" s="26">
         <f>AL27+AL9</f>
         <v>101295.79290000001</v>
       </c>
-      <c r="AM31" s="27">
+      <c r="AM31" s="26">
         <f>AM27+AM9</f>
         <v>104334.66668700002</v>
       </c>
-      <c r="AN31" s="27">
+      <c r="AN31" s="26">
         <f>AN27+AN9</f>
         <v>107464.70668761003</v>
       </c>
-      <c r="AO31" s="27">
+      <c r="AO31" s="26">
         <f>AO27+AO9</f>
         <v>110688.64788823834</v>
       </c>
-      <c r="AP31" s="27">
+      <c r="AP31" s="26">
         <f>AP27+AP9</f>
         <v>114009.30732488549</v>
       </c>
-      <c r="AQ31" s="27">
+      <c r="AQ31" s="26">
         <f>AQ27+AQ9</f>
         <v>117429.58654463205</v>
       </c>
-      <c r="AR31" s="27">
+      <c r="AR31" s="26">
         <f>AR27+AR9</f>
         <v>120952.47414097101</v>
       </c>
-      <c r="AS31" s="27">
+      <c r="AS31" s="26">
         <f>AS27+AS9</f>
         <v>124581.04836520014</v>
       </c>
-      <c r="AT31" s="27">
+      <c r="AT31" s="26">
         <f>AT27+AT9</f>
         <v>128318.47981615615</v>
       </c>
-      <c r="AU31" s="27">
+      <c r="AU31" s="26">
         <f>AU27+AU9</f>
         <v>132168.03421064085</v>
       </c>
-      <c r="AV31" s="27">
+      <c r="AV31" s="26">
         <f>AV27+AV9</f>
         <v>68066.537618480041</v>
       </c>
@@ -3530,63 +3890,63 @@
         <f>AG44+AG52</f>
         <v>38694</v>
       </c>
-      <c r="AH54" s="27">
+      <c r="AH54" s="26">
         <f>AG54*1.03</f>
         <v>39854.82</v>
       </c>
-      <c r="AI54" s="27">
+      <c r="AI54" s="26">
         <f t="shared" ref="AI54:AV54" si="59">AH54*1.03</f>
         <v>41050.464599999999</v>
       </c>
-      <c r="AJ54" s="27">
+      <c r="AJ54" s="26">
         <f t="shared" si="59"/>
         <v>42281.978538000003</v>
       </c>
-      <c r="AK54" s="27">
+      <c r="AK54" s="26">
         <f t="shared" si="59"/>
         <v>43550.437894140006</v>
       </c>
-      <c r="AL54" s="27">
+      <c r="AL54" s="26">
         <f t="shared" si="59"/>
         <v>44856.951030964206</v>
       </c>
-      <c r="AM54" s="27">
+      <c r="AM54" s="26">
         <f t="shared" si="59"/>
         <v>46202.659561893131</v>
       </c>
-      <c r="AN54" s="27">
+      <c r="AN54" s="26">
         <f t="shared" si="59"/>
         <v>47588.739348749928</v>
       </c>
-      <c r="AO54" s="27">
+      <c r="AO54" s="26">
         <f t="shared" si="59"/>
         <v>49016.401529212424</v>
       </c>
-      <c r="AP54" s="27">
+      <c r="AP54" s="26">
         <f t="shared" si="59"/>
         <v>50486.893575088798</v>
       </c>
-      <c r="AQ54" s="27">
+      <c r="AQ54" s="26">
         <f t="shared" si="59"/>
         <v>52001.500382341466</v>
       </c>
-      <c r="AR54" s="27">
+      <c r="AR54" s="26">
         <f t="shared" si="59"/>
         <v>53561.545393811713</v>
       </c>
-      <c r="AS54" s="27">
+      <c r="AS54" s="26">
         <f t="shared" si="59"/>
         <v>55168.391755626064</v>
       </c>
-      <c r="AT54" s="27">
+      <c r="AT54" s="26">
         <f t="shared" si="59"/>
         <v>56823.443508294848</v>
       </c>
-      <c r="AU54" s="27">
+      <c r="AU54" s="26">
         <f t="shared" si="59"/>
         <v>58528.146813543695</v>
       </c>
-      <c r="AV54" s="27">
+      <c r="AV54" s="26">
         <f>AU54*0.8</f>
         <v>46822.517450834959</v>
       </c>
@@ -4182,8 +4542,8 @@
     <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
+    <row r="65" spans="1:48" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4332,67 +4692,67 @@
         <f t="shared" si="89"/>
         <v>-82508</v>
       </c>
-      <c r="AG68" s="27">
+      <c r="AG68" s="26">
         <f t="shared" si="89"/>
         <v>-38802.75</v>
       </c>
-      <c r="AH68" s="27">
+      <c r="AH68" s="26">
         <f t="shared" si="89"/>
         <v>-18896.07</v>
       </c>
-      <c r="AI68" s="27">
+      <c r="AI68" s="26">
         <f t="shared" si="89"/>
         <v>9007.5354000000007</v>
       </c>
-      <c r="AJ68" s="27">
+      <c r="AJ68" s="26">
         <f t="shared" si="89"/>
         <v>35057.631462000012</v>
       </c>
-      <c r="AK68" s="27">
+      <c r="AK68" s="26">
         <f t="shared" si="89"/>
         <v>44960.449105860011</v>
       </c>
-      <c r="AL68" s="27">
+      <c r="AL68" s="26">
         <f t="shared" si="89"/>
         <v>46309.262579035814</v>
       </c>
-      <c r="AM68" s="27">
+      <c r="AM68" s="26">
         <f t="shared" si="89"/>
         <v>47698.540456406889</v>
       </c>
-      <c r="AN68" s="27">
+      <c r="AN68" s="26">
         <f t="shared" si="89"/>
         <v>49129.496670099099</v>
       </c>
-      <c r="AO68" s="27">
+      <c r="AO68" s="26">
         <f t="shared" si="89"/>
         <v>50603.38157020208</v>
       </c>
-      <c r="AP68" s="27">
+      <c r="AP68" s="26">
         <f t="shared" si="89"/>
         <v>52121.48301730815</v>
       </c>
-      <c r="AQ68" s="27">
+      <c r="AQ68" s="26">
         <f t="shared" si="89"/>
         <v>53685.127507827383</v>
       </c>
-      <c r="AR68" s="27">
+      <c r="AR68" s="26">
         <f t="shared" si="89"/>
         <v>55295.681333062195</v>
       </c>
-      <c r="AS68" s="27">
+      <c r="AS68" s="26">
         <f t="shared" si="89"/>
         <v>56954.551773054067</v>
       </c>
-      <c r="AT68" s="27">
+      <c r="AT68" s="26">
         <f t="shared" si="89"/>
         <v>58663.188326245683</v>
       </c>
-      <c r="AU68" s="27">
+      <c r="AU68" s="26">
         <f t="shared" si="89"/>
         <v>60423.083976033078</v>
       </c>
-      <c r="AV68" s="27">
+      <c r="AV68" s="26">
         <f t="shared" si="89"/>
         <v>14437.366405797082</v>
       </c>
@@ -4401,43 +4761,43 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="26" t="b">
+      <c r="J69" s="25" t="b">
         <f>J68=J67</f>
         <v>1</v>
       </c>
-      <c r="K69" s="26" t="b">
+      <c r="K69" s="25" t="b">
         <f t="shared" ref="K69:S69" si="90">K68=K67</f>
         <v>1</v>
       </c>
-      <c r="L69" s="26" t="b">
+      <c r="L69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="M69" s="26" t="b">
+      <c r="M69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="N69" s="26" t="b">
+      <c r="N69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="O69" s="26" t="b">
+      <c r="O69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="P69" s="26" t="b">
+      <c r="P69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="Q69" s="26" t="b">
+      <c r="Q69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="R69" s="26" t="b">
+      <c r="R69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
-      <c r="S69" s="26" t="b">
+      <c r="S69" s="25" t="b">
         <f t="shared" si="90"/>
         <v>1</v>
       </c>
@@ -4447,19 +4807,19 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AC69" s="26" t="b">
+      <c r="AC69" s="25" t="b">
         <f t="shared" ref="AC69" si="91">AC68=AC67</f>
         <v>1</v>
       </c>
-      <c r="AD69" s="26" t="b">
+      <c r="AD69" s="25" t="b">
         <f t="shared" ref="AD69" si="92">AD68=AD67</f>
         <v>1</v>
       </c>
-      <c r="AE69" s="26" t="b">
+      <c r="AE69" s="25" t="b">
         <f t="shared" ref="AE69" si="93">AE68=AE67</f>
         <v>1</v>
       </c>
-      <c r="AF69" s="26" t="b">
+      <c r="AF69" s="25" t="b">
         <f t="shared" ref="AF69" si="94">AF68=AF67</f>
         <v>1</v>
       </c>
@@ -4488,7 +4848,7 @@
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J71" s="1">
         <v>24135735</v>
@@ -4528,10 +4888,10 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AE71" s="28">
+      <c r="AE71" s="27">
         <v>25.598181</v>
       </c>
-      <c r="AF71" s="28">
+      <c r="AF71" s="27">
         <v>37.825431000000002</v>
       </c>
     </row>
@@ -4840,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4175F-29B7-9342-B5A3-7256B9575DF3}">
   <dimension ref="B10:X34"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A14" zoomScale="226" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4857,824 +5217,824 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="39"/>
+      <c r="E11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1012.5</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>3037.5</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5062.5</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7087.4999999999991</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>8100</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55620</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>85932.900000000009</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>98345.430000000008</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>101295.79290000001</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>104334.66668700002</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>107464.70668761003</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>110688.64788823834</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>114009.30732488549</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>117429.58654463205</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>120952.47414097101</v>
       </c>
-      <c r="U11" s="42">
+      <c r="U11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>124581.04836520014</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>128318.47981615615</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>132168.03421064085</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="42">
         <f>VLOOKUP($E11,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>68066.537618480041</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>2.8</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>911.25</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2733.75</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>4556.25</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>6378.7499999999991</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7290</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>50058</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>77339.610000000015</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>88510.887000000017</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>91166.213610000021</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>93901.20001830002</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>96718.236018849027</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>99619.783099414504</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>102608.37659239695</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>105686.62789016885</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>108857.22672687391</v>
       </c>
-      <c r="U12" s="44">
+      <c r="U12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>112122.94352868013</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>115486.63183454053</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>118951.23078957677</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="43">
         <f>VLOOKUP($E12,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>61259.883856632041</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>63.12</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="45">
+      <c r="E13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="45">
+      <c r="V13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="45">
+      <c r="W13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="45">
+      <c r="X13" s="44">
         <f>VLOOKUP($E13,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <f>C12*C13</f>
         <v>176.73599999999999</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="45">
+      <c r="X14" s="44">
         <f>VLOOKUP($E14,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="35"/>
+      <c r="E15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-16264.75</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-14442.25</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-12619.75</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-10797.25</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-9886</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>9007.5354000000007</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35057.631462000012</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>44960.449105860011</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46309.262579035814</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>47698.540456406889</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>49129.496670099099</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>50603.38157020208</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>52121.48301730815</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>53685.127507827383</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55295.681333062195</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>56954.551773054067</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>58663.188326245683</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15" s="45">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>60423.083976033078</v>
       </c>
-      <c r="X15" s="47">
+      <c r="X15" s="46">
         <f>VLOOKUP($E15,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>14437.366405797082</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <f>Model!S95/1000</f>
         <v>25.992000000000001</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="45">
+      <c r="X16" s="44">
         <f>VLOOKUP($E16,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <f>Model!S82/1000</f>
         <v>35.616</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-16264.75</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-14442.25</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-12619.75</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-10797.25</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-9886</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>9007.5354000000007</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35057.631462000012</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>44960.449105860011</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46309.262579035814</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>47698.540456406889</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>49129.496670099099</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>50603.38157020208</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>52121.48301730815</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>53685.127507827383</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55295.681333062195</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>56954.551773054067</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>58663.188326245683</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="45">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>60423.083976033078</v>
       </c>
-      <c r="X17" s="47">
+      <c r="X17" s="46">
         <f>VLOOKUP($E17,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>14437.366405797082</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <f>C14-C17+C16</f>
         <v>167.11199999999999</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-16264.75</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-14442.25</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-12619.75</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-10797.25</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-9886</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>9007.5354000000007</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35057.631462000012</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>44960.449105860011</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46309.262579035814</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>47698.540456406889</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>49129.496670099099</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>50603.38157020208</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>52121.48301730815</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>53685.127507827383</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55295.681333062195</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>56954.551773054067</v>
       </c>
-      <c r="V18" s="44">
+      <c r="V18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>58663.188326245683</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>60423.083976033078</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="43">
         <f>VLOOKUP($E18,Model!$A$1:$BR$150,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>14437.366405797082</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <f>C21+C22</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>-0.02</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="37">
+      <c r="B26" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="36">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
         <v>166.86721114050184</v>
       </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="37">
+      <c r="B27" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="36">
         <f>C17</f>
         <v>35.616</v>
       </c>
-      <c r="F27" s="48"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -5682,10 +6042,10 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="37">
+      <c r="B28" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="36">
         <f>C26+C27-C16</f>
         <v>176.49121114050186</v>
       </c>
@@ -5693,10 +6053,10 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="41">
+      <c r="B29" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="40">
         <f>C28/C13</f>
         <v>2.7961218495009801</v>
       </c>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B896FF-9AD6-5B40-9C70-84A4849ED79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CFC80-F905-7244-ADD3-0838F0407ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CFC80-F905-7244-ADD3-0838F0407ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F241CDF-B23E-D543-98F8-0DA6D406A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1:AV111"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="AG27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F241CDF-B23E-D543-98F8-0DA6D406A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A9CBB-0B41-9E40-82EC-B2683FA49680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A19" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,10 +1847,10 @@
   <dimension ref="A1:AV111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AG27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="Y66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ44" sqref="AJ44"/>
+      <selection pane="bottomRight" activeCell="AG72" sqref="AG72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4175F-29B7-9342-B5A3-7256B9575DF3}">
   <dimension ref="B10:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="226" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="I5" zoomScale="226" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A9CBB-0B41-9E40-82EC-B2683FA49680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE2F2C-606C-1E41-9B2D-D0659C294BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -1371,7 +1371,7 @@
         <v>2000</v>
       </c>
       <c r="J26" s="49">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
         <v>-3.7193262170646775</v>
       </c>
       <c r="K26" s="49">
@@ -1557,7 +1557,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="J34" s="49">
-        <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46"/>
+        <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46" ca="1"/>
         <v>-3.5206263439977579</v>
       </c>
       <c r="K34" s="49">

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E51F87C-C85A-924D-9682-2CE89371C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5823CD40-2FF6-C146-9F26-67D052A206B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>1Q2027E</t>
+  </si>
+  <si>
+    <t>Total Risk-Adjusted Revenues</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,6 +889,8 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1208,11 +1216,11 @@
   <dimension ref="B5:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1276,7 @@
         <v>72</v>
       </c>
       <c r="S9" s="13">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
@@ -1282,7 +1290,7 @@
         <v>74</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
@@ -1455,8 +1463,7 @@
         <v>81</v>
       </c>
       <c r="S24" s="11">
-        <f>2037-2023</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,7 +1478,7 @@
       </c>
       <c r="I25" s="46">
         <f>Valuation!$C$29</f>
-        <v>2.7961218495009801</v>
+        <v>6.9217705807654974</v>
       </c>
       <c r="J25" s="44">
         <f>K25-0.1</f>
@@ -1507,19 +1514,19 @@
       </c>
       <c r="J26" s="45">
         <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
-        <v>-3.7193262170646775</v>
+        <v>1.0373807785794447</v>
       </c>
       <c r="K26" s="45">
-        <v>-3.1903114223994895</v>
+        <v>1.5154451930425867</v>
       </c>
       <c r="L26" s="45">
-        <v>-2.661296627734302</v>
+        <v>1.9935096075057281</v>
       </c>
       <c r="M26" s="50">
-        <v>-2.1322818330691136</v>
+        <v>2.4715740219688698</v>
       </c>
       <c r="N26" s="45">
-        <v>-1.6032670384039271</v>
+        <v>2.9496384364320116</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
@@ -1534,19 +1541,19 @@
         <v>3000</v>
       </c>
       <c r="J27" s="45">
-        <v>-2.870047181539094</v>
+        <v>1.8036830098169427</v>
       </c>
       <c r="K27" s="45">
-        <v>-2.0765249895413116</v>
+        <v>2.5207796315116555</v>
       </c>
       <c r="L27" s="45">
-        <v>-1.2830027975435323</v>
+        <v>3.2378762532063674</v>
       </c>
       <c r="M27" s="50">
-        <v>-0.48948060554575001</v>
+        <v>3.9549728749010802</v>
       </c>
       <c r="N27" s="45">
-        <v>0.30404158645203189</v>
+        <v>4.6720694965957916</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>78</v>
@@ -1567,19 +1574,19 @@
         <v>4000</v>
       </c>
       <c r="J28" s="45">
-        <v>-2.0207681460135114</v>
+        <v>2.569985241054439</v>
       </c>
       <c r="K28" s="45">
-        <v>-0.96273855668313635</v>
+        <v>3.5261140699807227</v>
       </c>
       <c r="L28" s="45">
-        <v>9.529103264723944E-2</v>
+        <v>4.4822428989070051</v>
       </c>
       <c r="M28" s="50">
-        <v>1.1533206219776158</v>
+        <v>5.4383717278332906</v>
       </c>
       <c r="N28" s="45">
-        <v>2.2113502113079919</v>
+        <v>6.3945005567595716</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>79</v>
@@ -1597,19 +1604,19 @@
         <v>5000</v>
       </c>
       <c r="J29" s="48">
-        <v>-1.1714891104879284</v>
+        <v>3.3362874722919367</v>
       </c>
       <c r="K29" s="48">
-        <v>0.15104787617504073</v>
+        <v>4.53144850844979</v>
       </c>
       <c r="L29" s="48">
-        <v>1.4735848628380104</v>
+        <v>5.7266095446076442</v>
       </c>
       <c r="M29" s="51">
-        <v>2.7961218495009801</v>
+        <v>6.9217705807654974</v>
       </c>
       <c r="N29" s="45">
-        <v>4.1186588361639478</v>
+        <v>8.1169316169233525</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>84</v>
@@ -1628,19 +1635,19 @@
         <v>6000</v>
       </c>
       <c r="J30" s="45">
-        <v>-0.32221007496234522</v>
+        <v>4.1025897035294339</v>
       </c>
       <c r="K30" s="45">
-        <v>1.264834309033219</v>
+        <v>5.5367829469188585</v>
       </c>
       <c r="L30" s="45">
-        <v>2.8518786930287807</v>
+        <v>6.9709761903082823</v>
       </c>
       <c r="M30" s="45">
-        <v>4.4389230770243424</v>
+        <v>8.4051694336977096</v>
       </c>
       <c r="N30" s="45">
-        <v>6.025967461019909</v>
+        <v>9.8393626770871325</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>85</v>
@@ -1683,7 +1690,7 @@
       </c>
       <c r="I33" s="46">
         <f>Valuation!$C$29</f>
-        <v>2.7961218495009801</v>
+        <v>6.9217705807654974</v>
       </c>
       <c r="J33" s="44">
         <f>K33-0.1</f>
@@ -1720,19 +1727,19 @@
       </c>
       <c r="J34" s="45">
         <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46"/>
-        <v>-3.5206263439977579</v>
+        <v>1.2220639621330907</v>
       </c>
       <c r="K34" s="45">
-        <v>-2.7636384444600037</v>
+        <v>1.9082308198782498</v>
       </c>
       <c r="L34" s="45">
-        <v>-2.0066505449222518</v>
+        <v>2.5943976776234097</v>
       </c>
       <c r="M34" s="50">
-        <v>-1.2496626453844972</v>
+        <v>3.2805645353685695</v>
       </c>
       <c r="N34" s="45">
-        <v>-0.49267474584674381</v>
+        <v>3.9667313931137294</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>89</v>
@@ -1755,19 +1762,19 @@
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="J35" s="45">
-        <v>-2.638265370161982</v>
+        <v>2.0161888385852893</v>
       </c>
       <c r="K35" s="45">
-        <v>-1.6473819390114879</v>
+        <v>2.9128616747819147</v>
       </c>
       <c r="L35" s="45">
-        <v>-0.65649850786099551</v>
+        <v>3.8095345109785401</v>
       </c>
       <c r="M35" s="50">
-        <v>0.33438492328949698</v>
+        <v>4.7062073471751642</v>
       </c>
       <c r="N35" s="45">
-        <v>1.3252683544399908</v>
+        <v>5.6028801833717896</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>90</v>
@@ -1788,19 +1795,19 @@
         <v>0.03</v>
       </c>
       <c r="J36" s="48">
-        <v>-1.1714891104879284</v>
+        <v>3.3362874722919367</v>
       </c>
       <c r="K36" s="48">
-        <v>0.15104787617504073</v>
+        <v>4.53144850844979</v>
       </c>
       <c r="L36" s="48">
-        <v>1.4735848628380104</v>
+        <v>5.7266095446076442</v>
       </c>
       <c r="M36" s="51">
-        <v>2.7961218495009801</v>
+        <v>6.9217705807654974</v>
       </c>
       <c r="N36" s="45">
-        <v>4.1186588361639478</v>
+        <v>8.1169316169233525</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>91</v>
@@ -1822,19 +1829,19 @@
         <v>0.08</v>
       </c>
       <c r="J37" s="45">
-        <v>1.2858400514121764</v>
+        <v>5.54788371800203</v>
       </c>
       <c r="K37" s="45">
-        <v>3.0829546401310748</v>
+        <v>7.1701645960102196</v>
       </c>
       <c r="L37" s="45">
-        <v>4.8800692288499681</v>
+        <v>8.7924454740184093</v>
       </c>
       <c r="M37" s="45">
-        <v>6.6771838175688689</v>
+        <v>10.414726352026598</v>
       </c>
       <c r="N37" s="45">
-        <v>8.4742984062877671</v>
+        <v>12.037007230034789</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>92</v>
@@ -1856,19 +1863,19 @@
         <v>0.13</v>
       </c>
       <c r="J38" s="45">
-        <v>5.4020589567209027</v>
+        <v>9.2524807327798868</v>
       </c>
       <c r="K38" s="45">
-        <v>7.8823145868071371</v>
+        <v>11.489588548018675</v>
       </c>
       <c r="L38" s="45">
-        <v>10.362570216893365</v>
+        <v>13.726696363257464</v>
       </c>
       <c r="M38" s="45">
-        <v>12.842825846979592</v>
+        <v>15.963804178496254</v>
       </c>
       <c r="N38" s="45">
-        <v>15.323081477065827</v>
+        <v>18.200911993735044</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>93</v>
@@ -2032,7 +2039,7 @@
         <v>102</v>
       </c>
       <c r="S49" s="11">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
@@ -2075,7 +2082,7 @@
       </c>
       <c r="S51" s="14">
         <f>S50*S49</f>
-        <v>1500000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
@@ -2113,7 +2120,7 @@
       </c>
       <c r="S53" s="14">
         <f>S52*S51</f>
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
@@ -2154,10 +2161,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AA19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="AM49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AS64" sqref="AS64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2355,6 +2362,10 @@
         <f>AH7/4</f>
         <v>22500</v>
       </c>
+      <c r="AG7" s="4">
+        <f>U7*4</f>
+        <v>90000</v>
+      </c>
       <c r="AH7" s="9">
         <f>Main!D45*12/1000</f>
         <v>90000</v>
@@ -2435,6 +2446,14 @@
       <c r="Y8" s="3">
         <v>0.4</v>
       </c>
+      <c r="AG8" s="3">
+        <f>AG9/AG7</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>AH9/AH7</f>
+        <v>0.28749999999999998</v>
+      </c>
       <c r="AI8" s="3">
         <f>Main!D36</f>
         <v>0.6</v>
@@ -2505,6 +2524,14 @@
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
+      <c r="AG9" s="4">
+        <f>U9</f>
+        <v>1125</v>
+      </c>
+      <c r="AH9" s="9">
+        <f>SUM(V9:Y9)</f>
+        <v>25875</v>
+      </c>
       <c r="AI9" s="9">
         <f>AI8*AI7</f>
         <v>55620</v>
@@ -2586,6 +2613,70 @@
         <f>Main!$D$9</f>
         <v>0.9</v>
       </c>
+      <c r="AG11" s="7">
+        <f>AG12/AG9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AH11" s="7">
+        <f>AH12/AH9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AK11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AL11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AN11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AO11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AP11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AQ11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AR11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AS11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AT11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AU11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+      <c r="AV11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2610,6 +2701,70 @@
       <c r="Y12" s="4">
         <f t="shared" si="2"/>
         <v>8100</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>U12</f>
+        <v>1012.5</v>
+      </c>
+      <c r="AH12" s="9">
+        <f>SUM(V12:Y12)</f>
+        <v>23287.5</v>
+      </c>
+      <c r="AI12" s="9">
+        <f t="shared" ref="AI12:AV12" si="3">AI11*AI9</f>
+        <v>50058</v>
+      </c>
+      <c r="AJ12" s="9">
+        <f t="shared" si="3"/>
+        <v>77339.610000000015</v>
+      </c>
+      <c r="AK12" s="9">
+        <f t="shared" si="3"/>
+        <v>88510.887000000002</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="3"/>
+        <v>91166.213610000021</v>
+      </c>
+      <c r="AM12" s="9">
+        <f t="shared" si="3"/>
+        <v>93901.20001830002</v>
+      </c>
+      <c r="AN12" s="9">
+        <f t="shared" si="3"/>
+        <v>96718.236018849027</v>
+      </c>
+      <c r="AO12" s="9">
+        <f t="shared" si="3"/>
+        <v>99619.783099414504</v>
+      </c>
+      <c r="AP12" s="9">
+        <f t="shared" si="3"/>
+        <v>102608.37659239695</v>
+      </c>
+      <c r="AQ12" s="9">
+        <f t="shared" si="3"/>
+        <v>105686.62789016885</v>
+      </c>
+      <c r="AR12" s="9">
+        <f t="shared" si="3"/>
+        <v>108857.22672687391</v>
+      </c>
+      <c r="AS12" s="9">
+        <f t="shared" si="3"/>
+        <v>112122.94352868013</v>
+      </c>
+      <c r="AT12" s="9">
+        <f t="shared" si="3"/>
+        <v>115486.63183454053</v>
+      </c>
+      <c r="AU12" s="9">
+        <f t="shared" si="3"/>
+        <v>118951.23078957677</v>
+      </c>
+      <c r="AV12" s="9">
+        <f t="shared" si="3"/>
+        <v>61259.883856632041</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
@@ -2712,32 +2867,24 @@
       <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="AG22" s="3">
-        <f>Main!S35</f>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3">
+        <f>Main!$S$35</f>
         <v>0.3</v>
       </c>
-      <c r="AH22" s="3">
-        <f>Main!S36</f>
+      <c r="AL22" s="3">
+        <f>Main!$S$36</f>
         <v>0.6</v>
       </c>
-      <c r="AI22" s="3">
-        <f>Main!S37</f>
+      <c r="AM22" s="3">
+        <f>Main!$S$37</f>
         <v>0.9</v>
       </c>
-      <c r="AJ22" s="3">
-        <f>Main!S38</f>
-        <v>1</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>1</v>
-      </c>
       <c r="AN22" s="3">
+        <f>Main!$S$38</f>
         <v>1</v>
       </c>
       <c r="AO22" s="3">
@@ -2769,72 +2916,165 @@
       <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="AG23" s="9">
-        <f>AG22*AG21</f>
-        <v>150000</v>
-      </c>
-      <c r="AH23" s="9">
-        <f t="shared" ref="AH23:AT23" si="3">AH22*AH21</f>
-        <v>309000</v>
-      </c>
-      <c r="AI23" s="9">
-        <f t="shared" si="3"/>
-        <v>477405</v>
-      </c>
-      <c r="AJ23" s="9">
-        <f t="shared" si="3"/>
-        <v>546363.5</v>
-      </c>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
       <c r="AK23" s="9">
-        <f t="shared" si="3"/>
-        <v>562754.40500000003</v>
+        <f t="shared" ref="AK23:AV23" si="4">AK22*AK21</f>
+        <v>168826.32149999999</v>
       </c>
       <c r="AL23" s="9">
-        <f t="shared" si="3"/>
-        <v>579637.03714999999</v>
+        <f t="shared" si="4"/>
+        <v>347782.22229000001</v>
       </c>
       <c r="AM23" s="9">
-        <f t="shared" si="3"/>
-        <v>597026.14826449996</v>
+        <f t="shared" si="4"/>
+        <v>537323.53343804996</v>
       </c>
       <c r="AN23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>614936.93271243502</v>
       </c>
       <c r="AO23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>633385.04069380811</v>
       </c>
       <c r="AP23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>570046.5366244273</v>
       </c>
       <c r="AQ23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>513041.88296198461</v>
       </c>
       <c r="AR23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>461737.69466578617</v>
       </c>
       <c r="AS23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>415563.92519920756</v>
       </c>
       <c r="AT23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>374007.53267928679</v>
+      </c>
+      <c r="AU23" s="9">
+        <f t="shared" si="4"/>
+        <v>336606.77941135812</v>
+      </c>
+      <c r="AV23" s="9">
+        <f t="shared" si="4"/>
+        <v>302946.10147022229</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
+      <c r="AG25" s="3"/>
+      <c r="AK25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AN25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AO25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AP25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AR25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AS25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AT25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AU25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="AV25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>105</v>
       </c>
+      <c r="AK26" s="9">
+        <f>AK25*AK23</f>
+        <v>67530.528600000005</v>
+      </c>
+      <c r="AL26" s="9">
+        <f t="shared" ref="AL26:AV26" si="5">AL25*AL23</f>
+        <v>139112.888916</v>
+      </c>
+      <c r="AM26" s="9">
+        <f t="shared" si="5"/>
+        <v>214929.41337522</v>
+      </c>
+      <c r="AN26" s="9">
+        <f t="shared" si="5"/>
+        <v>245974.77308497403</v>
+      </c>
+      <c r="AO26" s="9">
+        <f t="shared" si="5"/>
+        <v>253354.01627752325</v>
+      </c>
+      <c r="AP26" s="9">
+        <f t="shared" si="5"/>
+        <v>228018.61464977093</v>
+      </c>
+      <c r="AQ26" s="9">
+        <f t="shared" si="5"/>
+        <v>205216.75318479387</v>
+      </c>
+      <c r="AR26" s="9">
+        <f t="shared" si="5"/>
+        <v>184695.07786631447</v>
+      </c>
+      <c r="AS26" s="9">
+        <f t="shared" si="5"/>
+        <v>166225.57007968304</v>
+      </c>
+      <c r="AT26" s="9">
+        <f t="shared" si="5"/>
+        <v>149603.01307171473</v>
+      </c>
+      <c r="AU26" s="9">
+        <f t="shared" si="5"/>
+        <v>134642.71176454326</v>
+      </c>
+      <c r="AV26" s="9">
+        <f t="shared" si="5"/>
+        <v>121178.44058808892</v>
+      </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2858,6 +3098,10 @@
       <c r="R34" s="1">
         <v>10660</v>
       </c>
+      <c r="AG34">
+        <f>R34</f>
+        <v>10660</v>
+      </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="R35" s="1"/>
@@ -2873,50 +3117,50 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" ref="J38:T38" si="4">J34</f>
+        <f t="shared" ref="J38:T38" si="6">J34</f>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10660</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="24">
@@ -2939,85 +3183,69 @@
         <f>Y34+Y12</f>
         <v>8100</v>
       </c>
-      <c r="AC38" s="2">
-        <f>AC34</f>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
-        <f>AD34</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="2">
-        <f>AE34</f>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="2">
-        <f>AF34</f>
-        <v>0</v>
-      </c>
       <c r="AG38" s="24">
-        <f>SUM(R38:U38)</f>
+        <f>AG34+AG12+AG26</f>
         <v>11672.5</v>
       </c>
       <c r="AH38" s="24">
-        <f>SUM(V38:Y38)</f>
+        <f t="shared" ref="AH38:AV38" si="7">AH34+AH12+AH26</f>
         <v>23287.5</v>
       </c>
       <c r="AI38" s="24">
-        <f>AI34+AI9</f>
-        <v>55620</v>
+        <f t="shared" si="7"/>
+        <v>50058</v>
       </c>
       <c r="AJ38" s="24">
-        <f>AJ34+AJ9</f>
-        <v>85932.900000000009</v>
+        <f t="shared" si="7"/>
+        <v>77339.610000000015</v>
       </c>
       <c r="AK38" s="24">
-        <f>AK34+AK9</f>
-        <v>98345.430000000008</v>
+        <f t="shared" si="7"/>
+        <v>156041.41560000001</v>
       </c>
       <c r="AL38" s="24">
-        <f>AL34+AL9</f>
-        <v>101295.79290000001</v>
+        <f t="shared" si="7"/>
+        <v>230279.102526</v>
       </c>
       <c r="AM38" s="24">
-        <f>AM34+AM9</f>
-        <v>104334.66668700002</v>
+        <f t="shared" si="7"/>
+        <v>308830.61339352001</v>
       </c>
       <c r="AN38" s="24">
-        <f>AN34+AN9</f>
-        <v>107464.70668761003</v>
+        <f t="shared" si="7"/>
+        <v>342693.00910382305</v>
       </c>
       <c r="AO38" s="24">
-        <f>AO34+AO9</f>
-        <v>110688.64788823834</v>
+        <f t="shared" si="7"/>
+        <v>352973.79937693774</v>
       </c>
       <c r="AP38" s="24">
-        <f>AP34+AP9</f>
-        <v>114009.30732488549</v>
+        <f t="shared" si="7"/>
+        <v>330626.99124216789</v>
       </c>
       <c r="AQ38" s="24">
-        <f>AQ34+AQ9</f>
-        <v>117429.58654463205</v>
+        <f t="shared" si="7"/>
+        <v>310903.38107496273</v>
       </c>
       <c r="AR38" s="24">
-        <f>AR34+AR9</f>
-        <v>120952.47414097101</v>
+        <f t="shared" si="7"/>
+        <v>293552.3045931884</v>
       </c>
       <c r="AS38" s="24">
-        <f>AS34+AS9</f>
-        <v>124581.04836520014</v>
+        <f t="shared" si="7"/>
+        <v>278348.51360836317</v>
       </c>
       <c r="AT38" s="24">
-        <f>AT34+AT9</f>
-        <v>128318.47981615615</v>
+        <f t="shared" si="7"/>
+        <v>265089.64490625524</v>
       </c>
       <c r="AU38" s="24">
-        <f>AU34+AU9</f>
-        <v>132168.03421064085</v>
+        <f t="shared" si="7"/>
+        <v>253593.94255412003</v>
       </c>
       <c r="AV38" s="24">
-        <f>AV34+AV9</f>
-        <v>68066.537618480041</v>
+        <f t="shared" si="7"/>
+        <v>182438.32444472096</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.2">
@@ -3033,19 +3261,19 @@
         <v>101.24999999999997</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" ref="V40:Y40" si="5">V38*(1-V41)</f>
+        <f t="shared" ref="V40:Y40" si="8">V38*(1-V41)</f>
         <v>303.74999999999994</v>
       </c>
       <c r="W40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>506.24999999999989</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>708.74999999999977</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>809.99999999999977</v>
       </c>
       <c r="AG40" s="9">
@@ -3057,60 +3285,60 @@
         <v>2328.7499999999991</v>
       </c>
       <c r="AI40" s="9">
-        <f t="shared" ref="AI40" si="6">AI38*(1-AI41)</f>
-        <v>5561.9999999999991</v>
+        <f t="shared" ref="AI40" si="9">AI38*(1-AI41)</f>
+        <v>5005.7999999999993</v>
       </c>
       <c r="AJ40" s="9">
-        <f t="shared" ref="AJ40" si="7">AJ38*(1-AJ41)</f>
-        <v>8593.2899999999991</v>
+        <f t="shared" ref="AJ40" si="10">AJ38*(1-AJ41)</f>
+        <v>7733.9610000000002</v>
       </c>
       <c r="AK40" s="9">
-        <f t="shared" ref="AK40" si="8">AK38*(1-AK41)</f>
-        <v>9834.5429999999978</v>
+        <f t="shared" ref="AK40" si="11">AK38*(1-AK41)</f>
+        <v>15604.141559999996</v>
       </c>
       <c r="AL40" s="9">
-        <f t="shared" ref="AL40" si="9">AL38*(1-AL41)</f>
-        <v>10129.57929</v>
+        <f t="shared" ref="AL40" si="12">AL38*(1-AL41)</f>
+        <v>23027.910252599995</v>
       </c>
       <c r="AM40" s="9">
-        <f t="shared" ref="AM40" si="10">AM38*(1-AM41)</f>
-        <v>10433.466668699999</v>
+        <f t="shared" ref="AM40" si="13">AM38*(1-AM41)</f>
+        <v>30883.061339351993</v>
       </c>
       <c r="AN40" s="9">
-        <f t="shared" ref="AN40" si="11">AN38*(1-AN41)</f>
-        <v>10746.470668761</v>
+        <f t="shared" ref="AN40" si="14">AN38*(1-AN41)</f>
+        <v>34269.300910382299</v>
       </c>
       <c r="AO40" s="9">
-        <f t="shared" ref="AO40" si="12">AO38*(1-AO41)</f>
-        <v>11068.864788823832</v>
+        <f t="shared" ref="AO40" si="15">AO38*(1-AO41)</f>
+        <v>35297.379937693768</v>
       </c>
       <c r="AP40" s="9">
-        <f t="shared" ref="AP40" si="13">AP38*(1-AP41)</f>
-        <v>11400.930732488547</v>
+        <f t="shared" ref="AP40" si="16">AP38*(1-AP41)</f>
+        <v>33062.699124216779</v>
       </c>
       <c r="AQ40" s="9">
-        <f t="shared" ref="AQ40" si="14">AQ38*(1-AQ41)</f>
-        <v>11742.958654463202</v>
+        <f t="shared" ref="AQ40" si="17">AQ38*(1-AQ41)</f>
+        <v>31090.338107496267</v>
       </c>
       <c r="AR40" s="9">
-        <f t="shared" ref="AR40" si="15">AR38*(1-AR41)</f>
-        <v>12095.247414097099</v>
+        <f t="shared" ref="AR40" si="18">AR38*(1-AR41)</f>
+        <v>29355.230459318835</v>
       </c>
       <c r="AS40" s="9">
-        <f t="shared" ref="AS40" si="16">AS38*(1-AS41)</f>
-        <v>12458.104836520011</v>
+        <f t="shared" ref="AS40" si="19">AS38*(1-AS41)</f>
+        <v>27834.85136083631</v>
       </c>
       <c r="AT40" s="9">
-        <f t="shared" ref="AT40" si="17">AT38*(1-AT41)</f>
-        <v>12831.847981615612</v>
+        <f t="shared" ref="AT40" si="20">AT38*(1-AT41)</f>
+        <v>26508.96449062552</v>
       </c>
       <c r="AU40" s="9">
-        <f t="shared" ref="AU40" si="18">AU38*(1-AU41)</f>
-        <v>13216.803421064082</v>
+        <f t="shared" ref="AU40" si="21">AU38*(1-AU41)</f>
+        <v>25359.394255411997</v>
       </c>
       <c r="AV40" s="9">
-        <f t="shared" ref="AV40" si="19">AV38*(1-AV41)</f>
-        <v>6806.6537618480024</v>
+        <f t="shared" ref="AV40" si="22">AV38*(1-AV41)</f>
+        <v>18243.832444472093</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
@@ -3189,85 +3417,69 @@
         <v>157</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:S42" si="20">J38-J40</f>
+        <f t="shared" ref="J42:S42" si="23">J38-J40</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10660</v>
       </c>
       <c r="S42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:X42" si="21">T38-T40</f>
+        <f t="shared" ref="T42:X42" si="24">T38-T40</f>
         <v>0</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>911.25</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2733.75</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4556.25</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6378.7499999999991</v>
       </c>
       <c r="Y42" s="9">
         <f>Y38-Y40</f>
         <v>7290</v>
       </c>
-      <c r="AC42">
-        <f>AC38-AC40</f>
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" ref="AD42:AF42" si="22">AD38-AD40</f>
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
       <c r="AG42" s="9">
         <f>AG38-AG40</f>
         <v>11571.25</v>
@@ -3277,60 +3489,60 @@
         <v>20958.75</v>
       </c>
       <c r="AI42" s="9">
-        <f t="shared" ref="AI42:AV42" si="23">AI38-AI40</f>
-        <v>50058</v>
+        <f t="shared" ref="AI42:AV42" si="25">AI38-AI40</f>
+        <v>45052.2</v>
       </c>
       <c r="AJ42" s="9">
-        <f t="shared" si="23"/>
-        <v>77339.610000000015</v>
+        <f t="shared" si="25"/>
+        <v>69605.649000000019</v>
       </c>
       <c r="AK42" s="9">
-        <f t="shared" si="23"/>
-        <v>88510.887000000017</v>
+        <f t="shared" si="25"/>
+        <v>140437.27404000002</v>
       </c>
       <c r="AL42" s="9">
-        <f t="shared" si="23"/>
-        <v>91166.213610000021</v>
+        <f t="shared" si="25"/>
+        <v>207251.1922734</v>
       </c>
       <c r="AM42" s="9">
-        <f t="shared" si="23"/>
-        <v>93901.20001830002</v>
+        <f t="shared" si="25"/>
+        <v>277947.55205416802</v>
       </c>
       <c r="AN42" s="9">
-        <f t="shared" si="23"/>
-        <v>96718.236018849027</v>
+        <f t="shared" si="25"/>
+        <v>308423.70819344075</v>
       </c>
       <c r="AO42" s="9">
-        <f t="shared" si="23"/>
-        <v>99619.783099414504</v>
+        <f t="shared" si="25"/>
+        <v>317676.41943924397</v>
       </c>
       <c r="AP42" s="9">
-        <f t="shared" si="23"/>
-        <v>102608.37659239695</v>
+        <f t="shared" si="25"/>
+        <v>297564.29211795109</v>
       </c>
       <c r="AQ42" s="9">
-        <f t="shared" si="23"/>
-        <v>105686.62789016885</v>
+        <f t="shared" si="25"/>
+        <v>279813.04296746646</v>
       </c>
       <c r="AR42" s="9">
-        <f t="shared" si="23"/>
-        <v>108857.22672687391</v>
+        <f t="shared" si="25"/>
+        <v>264197.07413386955</v>
       </c>
       <c r="AS42" s="9">
-        <f t="shared" si="23"/>
-        <v>112122.94352868013</v>
+        <f t="shared" si="25"/>
+        <v>250513.66224752687</v>
       </c>
       <c r="AT42" s="9">
-        <f t="shared" si="23"/>
-        <v>115486.63183454053</v>
+        <f t="shared" si="25"/>
+        <v>238580.68041562973</v>
       </c>
       <c r="AU42" s="9">
-        <f t="shared" si="23"/>
-        <v>118951.23078957677</v>
+        <f t="shared" si="25"/>
+        <v>228234.54829870805</v>
       </c>
       <c r="AV42" s="9">
-        <f t="shared" si="23"/>
-        <v>61259.883856632041</v>
+        <f t="shared" si="25"/>
+        <v>164194.49200024887</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.2">
@@ -3358,7 +3570,7 @@
         <v>11778</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M50" si="24">AE46-L46-K46-J46</f>
+        <f t="shared" ref="M46:M50" si="26">AE46-L46-K46-J46</f>
         <v>11919</v>
       </c>
       <c r="N46" s="1">
@@ -3371,7 +3583,7 @@
         <v>10035</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46:Q50" si="25">AF46-P46-O46-N46</f>
+        <f t="shared" ref="Q46:Q50" si="27">AF46-P46-O46-N46</f>
         <v>8963</v>
       </c>
       <c r="R46" s="1">
@@ -3380,11 +3592,30 @@
       <c r="S46" s="1">
         <v>8744</v>
       </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="T46" s="9">
+        <f>P46*1.5</f>
+        <v>15052.5</v>
+      </c>
+      <c r="U46" s="9">
+        <f t="shared" ref="U46:Y46" si="28">Q46*1.5</f>
+        <v>13444.5</v>
+      </c>
+      <c r="V46" s="9">
+        <f t="shared" si="28"/>
+        <v>17724</v>
+      </c>
+      <c r="W46" s="9">
+        <f t="shared" si="28"/>
+        <v>13116</v>
+      </c>
+      <c r="X46" s="9">
+        <f>T46*1.25</f>
+        <v>18815.625</v>
+      </c>
+      <c r="Y46" s="9">
+        <f>U46*1.25</f>
+        <v>16805.625</v>
+      </c>
       <c r="Z46" s="1"/>
       <c r="AC46" s="1">
         <v>17436</v>
@@ -3400,11 +3631,67 @@
       </c>
       <c r="AG46" s="9">
         <f>SUM(R46:U46)</f>
-        <v>20560</v>
+        <v>49057</v>
       </c>
       <c r="AH46" s="9">
         <f>SUM(V46:Y46)</f>
-        <v>0</v>
+        <v>66461.25</v>
+      </c>
+      <c r="AI46" s="9">
+        <f>AH46*0.95</f>
+        <v>63138.1875</v>
+      </c>
+      <c r="AJ46" s="9">
+        <f t="shared" ref="AJ46:AO46" si="29">AI46*0.95</f>
+        <v>59981.278124999997</v>
+      </c>
+      <c r="AK46" s="9">
+        <f t="shared" si="29"/>
+        <v>56982.214218749992</v>
+      </c>
+      <c r="AL46" s="9">
+        <f t="shared" si="29"/>
+        <v>54133.103507812491</v>
+      </c>
+      <c r="AM46" s="9">
+        <f t="shared" si="29"/>
+        <v>51426.448332421867</v>
+      </c>
+      <c r="AN46" s="9">
+        <f t="shared" si="29"/>
+        <v>48855.125915800774</v>
+      </c>
+      <c r="AO46" s="9">
+        <f t="shared" si="29"/>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AP46" s="9">
+        <f>AO46</f>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AQ46" s="9">
+        <f t="shared" ref="AQ46:AV46" si="30">AP46</f>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AR46" s="9">
+        <f t="shared" si="30"/>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AS46" s="9">
+        <f t="shared" si="30"/>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AT46" s="9">
+        <f t="shared" si="30"/>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AU46" s="9">
+        <f t="shared" si="30"/>
+        <v>46412.369620010737</v>
+      </c>
+      <c r="AV46" s="9">
+        <f t="shared" si="30"/>
+        <v>46412.369620010737</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.2">
@@ -3421,7 +3708,7 @@
         <v>3172</v>
       </c>
       <c r="M47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>602</v>
       </c>
       <c r="N47" s="1">
@@ -3434,7 +3721,7 @@
         <v>236</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>354</v>
       </c>
       <c r="R47" s="1">
@@ -3443,11 +3730,30 @@
       <c r="S47" s="1">
         <v>540</v>
       </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
+      <c r="T47">
+        <f>P47*1.5</f>
+        <v>354</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ref="U47:Y47" si="31">Q47*1.5</f>
+        <v>531</v>
+      </c>
+      <c r="V47" s="9">
+        <f t="shared" si="31"/>
+        <v>1906.5</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="31"/>
+        <v>810</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="31"/>
+        <v>531</v>
+      </c>
+      <c r="Y47" s="9">
+        <f t="shared" si="31"/>
+        <v>796.5</v>
+      </c>
       <c r="Z47" s="1"/>
       <c r="AC47" s="1">
         <v>9069</v>
@@ -3462,12 +3768,68 @@
         <v>957</v>
       </c>
       <c r="AG47" s="9">
-        <f t="shared" ref="AG47:AG50" si="26">SUM(R47:U47)</f>
-        <v>1811</v>
+        <f t="shared" ref="AG47:AG50" si="32">SUM(R47:U47)</f>
+        <v>2696</v>
       </c>
       <c r="AH47" s="9">
-        <f t="shared" ref="AH47:AH50" si="27">SUM(V47:Y47)</f>
-        <v>0</v>
+        <f t="shared" ref="AH47:AH50" si="33">SUM(V47:Y47)</f>
+        <v>4044</v>
+      </c>
+      <c r="AI47" s="9">
+        <f t="shared" ref="AI47:AU50" si="34">AH47*1.03</f>
+        <v>4165.32</v>
+      </c>
+      <c r="AJ47" s="9">
+        <f t="shared" si="34"/>
+        <v>4290.2795999999998</v>
+      </c>
+      <c r="AK47" s="9">
+        <f t="shared" si="34"/>
+        <v>4418.9879879999999</v>
+      </c>
+      <c r="AL47" s="9">
+        <f t="shared" si="34"/>
+        <v>4551.5576276399997</v>
+      </c>
+      <c r="AM47" s="9">
+        <f t="shared" si="34"/>
+        <v>4688.1043564692</v>
+      </c>
+      <c r="AN47" s="9">
+        <f t="shared" si="34"/>
+        <v>4828.7474871632758</v>
+      </c>
+      <c r="AO47" s="9">
+        <f t="shared" si="34"/>
+        <v>4973.6099117781741</v>
+      </c>
+      <c r="AP47" s="9">
+        <f t="shared" si="34"/>
+        <v>5122.8182091315193</v>
+      </c>
+      <c r="AQ47" s="9">
+        <f t="shared" si="34"/>
+        <v>5276.502755405465</v>
+      </c>
+      <c r="AR47" s="9">
+        <f t="shared" si="34"/>
+        <v>5434.7978380676295</v>
+      </c>
+      <c r="AS47" s="9">
+        <f t="shared" si="34"/>
+        <v>5597.8417732096586</v>
+      </c>
+      <c r="AT47" s="9">
+        <f t="shared" si="34"/>
+        <v>5765.7770264059482</v>
+      </c>
+      <c r="AU47" s="9">
+        <f t="shared" si="34"/>
+        <v>5938.7503371981265</v>
+      </c>
+      <c r="AV47" s="9">
+        <f t="shared" ref="AV47" si="35">AU47*1.03</f>
+        <v>6116.9128473140709</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.2">
@@ -3484,7 +3846,7 @@
         <v>1368</v>
       </c>
       <c r="M48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1799</v>
       </c>
       <c r="N48" s="1">
@@ -3497,7 +3859,7 @@
         <v>1416</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1717</v>
       </c>
       <c r="R48" s="1">
@@ -3506,11 +3868,30 @@
       <c r="S48" s="1">
         <v>1408</v>
       </c>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
+      <c r="T48" s="58">
+        <f>P48*1.05</f>
+        <v>1486.8</v>
+      </c>
+      <c r="U48" s="58">
+        <f t="shared" ref="U48" si="36">Q48*1.05</f>
+        <v>1802.8500000000001</v>
+      </c>
+      <c r="V48" s="58">
+        <f t="shared" ref="V48" si="37">R48*1.05</f>
+        <v>1785</v>
+      </c>
+      <c r="W48" s="58">
+        <f t="shared" ref="W48" si="38">S48*1.05</f>
+        <v>1478.4</v>
+      </c>
+      <c r="X48" s="58">
+        <f t="shared" ref="X48" si="39">T48*1.05</f>
+        <v>1561.14</v>
+      </c>
+      <c r="Y48" s="58">
+        <f t="shared" ref="Y48" si="40">U48*1.05</f>
+        <v>1892.9925000000003</v>
+      </c>
       <c r="Z48" s="1"/>
       <c r="AC48" s="1">
         <v>2728</v>
@@ -3525,12 +3906,68 @@
         <v>6648</v>
       </c>
       <c r="AG48" s="9">
-        <f t="shared" si="26"/>
-        <v>3108</v>
+        <f t="shared" si="32"/>
+        <v>6397.6500000000005</v>
       </c>
       <c r="AH48" s="9">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>6717.5325000000003</v>
+      </c>
+      <c r="AI48" s="9">
+        <f t="shared" si="34"/>
+        <v>6919.0584750000007</v>
+      </c>
+      <c r="AJ48" s="9">
+        <f t="shared" si="34"/>
+        <v>7126.6302292500013</v>
+      </c>
+      <c r="AK48" s="9">
+        <f t="shared" si="34"/>
+        <v>7340.4291361275018</v>
+      </c>
+      <c r="AL48" s="9">
+        <f t="shared" si="34"/>
+        <v>7560.642010211327</v>
+      </c>
+      <c r="AM48" s="9">
+        <f t="shared" si="34"/>
+        <v>7787.4612705176669</v>
+      </c>
+      <c r="AN48" s="9">
+        <f t="shared" si="34"/>
+        <v>8021.0851086331968</v>
+      </c>
+      <c r="AO48" s="9">
+        <f t="shared" si="34"/>
+        <v>8261.7176618921931</v>
+      </c>
+      <c r="AP48" s="9">
+        <f t="shared" si="34"/>
+        <v>8509.5691917489585</v>
+      </c>
+      <c r="AQ48" s="9">
+        <f t="shared" si="34"/>
+        <v>8764.8562675014273</v>
+      </c>
+      <c r="AR48" s="9">
+        <f t="shared" si="34"/>
+        <v>9027.8019555264709</v>
+      </c>
+      <c r="AS48" s="9">
+        <f t="shared" si="34"/>
+        <v>9298.6360141922651</v>
+      </c>
+      <c r="AT48" s="9">
+        <f t="shared" si="34"/>
+        <v>9577.5950946180328</v>
+      </c>
+      <c r="AU48" s="9">
+        <f t="shared" si="34"/>
+        <v>9864.9229474565745</v>
+      </c>
+      <c r="AV48" s="9">
+        <f t="shared" ref="AV48" si="41">AU48*1.03</f>
+        <v>10160.870635880272</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.2">
@@ -3547,7 +3984,7 @@
         <v>642</v>
       </c>
       <c r="M49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>785</v>
       </c>
       <c r="N49" s="1">
@@ -3560,7 +3997,7 @@
         <v>1178</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>797</v>
       </c>
       <c r="R49" s="1">
@@ -3569,11 +4006,30 @@
       <c r="S49" s="1">
         <v>752</v>
       </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="T49" s="58">
+        <f t="shared" ref="T49:T50" si="42">P49*1.05</f>
+        <v>1236.9000000000001</v>
+      </c>
+      <c r="U49" s="58">
+        <f t="shared" ref="U49:U50" si="43">Q49*1.05</f>
+        <v>836.85</v>
+      </c>
+      <c r="V49" s="58">
+        <f t="shared" ref="V49:V50" si="44">R49*1.05</f>
+        <v>905.1</v>
+      </c>
+      <c r="W49" s="58">
+        <f t="shared" ref="W49:W50" si="45">S49*1.05</f>
+        <v>789.6</v>
+      </c>
+      <c r="X49" s="58">
+        <f t="shared" ref="X49:X50" si="46">T49*1.05</f>
+        <v>1298.7450000000001</v>
+      </c>
+      <c r="Y49" s="58">
+        <f t="shared" ref="Y49:Y50" si="47">U49*1.05</f>
+        <v>878.69250000000011</v>
+      </c>
       <c r="Z49" s="1"/>
       <c r="AC49" s="1">
         <v>2762</v>
@@ -3588,12 +4044,68 @@
         <v>3619</v>
       </c>
       <c r="AG49" s="9">
-        <f t="shared" si="26"/>
-        <v>1614</v>
+        <f t="shared" si="32"/>
+        <v>3687.75</v>
       </c>
       <c r="AH49" s="9">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>3872.1375000000003</v>
+      </c>
+      <c r="AI49" s="9">
+        <f t="shared" si="34"/>
+        <v>3988.3016250000005</v>
+      </c>
+      <c r="AJ49" s="9">
+        <f t="shared" si="34"/>
+        <v>4107.9506737500005</v>
+      </c>
+      <c r="AK49" s="9">
+        <f t="shared" si="34"/>
+        <v>4231.1891939625002</v>
+      </c>
+      <c r="AL49" s="9">
+        <f t="shared" si="34"/>
+        <v>4358.1248697813753</v>
+      </c>
+      <c r="AM49" s="9">
+        <f t="shared" si="34"/>
+        <v>4488.8686158748169</v>
+      </c>
+      <c r="AN49" s="9">
+        <f t="shared" si="34"/>
+        <v>4623.5346743510618</v>
+      </c>
+      <c r="AO49" s="9">
+        <f t="shared" si="34"/>
+        <v>4762.2407145815941</v>
+      </c>
+      <c r="AP49" s="9">
+        <f t="shared" si="34"/>
+        <v>4905.1079360190424</v>
+      </c>
+      <c r="AQ49" s="9">
+        <f t="shared" si="34"/>
+        <v>5052.2611740996135</v>
+      </c>
+      <c r="AR49" s="9">
+        <f t="shared" si="34"/>
+        <v>5203.8290093226024</v>
+      </c>
+      <c r="AS49" s="9">
+        <f t="shared" si="34"/>
+        <v>5359.9438796022805</v>
+      </c>
+      <c r="AT49" s="9">
+        <f t="shared" si="34"/>
+        <v>5520.7421959903495</v>
+      </c>
+      <c r="AU49" s="9">
+        <f t="shared" si="34"/>
+        <v>5686.36446187006</v>
+      </c>
+      <c r="AV49" s="9">
+        <f t="shared" ref="AV49" si="48">AU49*1.03</f>
+        <v>5856.9553957261624</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.2">
@@ -3610,7 +4122,7 @@
         <v>637</v>
       </c>
       <c r="M50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>618</v>
       </c>
       <c r="N50" s="1">
@@ -3623,7 +4135,7 @@
         <v>251</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>261</v>
       </c>
       <c r="R50" s="1">
@@ -3632,11 +4144,30 @@
       <c r="S50" s="1">
         <v>439</v>
       </c>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="T50" s="58">
+        <f>P50*1.05</f>
+        <v>263.55</v>
+      </c>
+      <c r="U50" s="58">
+        <f t="shared" si="43"/>
+        <v>274.05</v>
+      </c>
+      <c r="V50" s="58">
+        <f t="shared" si="44"/>
+        <v>300.3</v>
+      </c>
+      <c r="W50" s="58">
+        <f t="shared" si="45"/>
+        <v>460.95000000000005</v>
+      </c>
+      <c r="X50" s="58">
+        <f t="shared" si="46"/>
+        <v>276.72750000000002</v>
+      </c>
+      <c r="Y50" s="58">
+        <f t="shared" si="47"/>
+        <v>287.7525</v>
+      </c>
       <c r="Z50" s="1"/>
       <c r="AC50" s="1">
         <v>355</v>
@@ -3651,12 +4182,68 @@
         <v>1482</v>
       </c>
       <c r="AG50" s="9">
-        <f t="shared" si="26"/>
-        <v>725</v>
+        <f t="shared" si="32"/>
+        <v>1262.5999999999999</v>
       </c>
       <c r="AH50" s="9">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1325.73</v>
+      </c>
+      <c r="AI50" s="9">
+        <f t="shared" si="34"/>
+        <v>1365.5019</v>
+      </c>
+      <c r="AJ50" s="9">
+        <f t="shared" si="34"/>
+        <v>1406.4669570000001</v>
+      </c>
+      <c r="AK50" s="9">
+        <f t="shared" si="34"/>
+        <v>1448.66096571</v>
+      </c>
+      <c r="AL50" s="9">
+        <f t="shared" si="34"/>
+        <v>1492.1207946813001</v>
+      </c>
+      <c r="AM50" s="9">
+        <f t="shared" si="34"/>
+        <v>1536.8844185217392</v>
+      </c>
+      <c r="AN50" s="9">
+        <f t="shared" si="34"/>
+        <v>1582.9909510773914</v>
+      </c>
+      <c r="AO50" s="9">
+        <f t="shared" si="34"/>
+        <v>1630.4806796097132</v>
+      </c>
+      <c r="AP50" s="9">
+        <f t="shared" si="34"/>
+        <v>1679.3950999980048</v>
+      </c>
+      <c r="AQ50" s="9">
+        <f t="shared" si="34"/>
+        <v>1729.776952997945</v>
+      </c>
+      <c r="AR50" s="9">
+        <f t="shared" si="34"/>
+        <v>1781.6702615878835</v>
+      </c>
+      <c r="AS50" s="9">
+        <f t="shared" si="34"/>
+        <v>1835.1203694355199</v>
+      </c>
+      <c r="AT50" s="9">
+        <f t="shared" si="34"/>
+        <v>1890.1739805185855</v>
+      </c>
+      <c r="AU50" s="9">
+        <f t="shared" si="34"/>
+        <v>1946.8791999341431</v>
+      </c>
+      <c r="AV50" s="9">
+        <f t="shared" ref="AV50" si="49">AU50*1.03</f>
+        <v>2005.2855759321674</v>
       </c>
     </row>
     <row r="51" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3664,148 +4251,148 @@
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" ref="J51:O51" si="28">J50+J49+J48+J47+J46</f>
+        <f t="shared" ref="J51:O51" si="50">J50+J49+J48+J47+J46</f>
         <v>14448</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>14802</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>17597</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>15723</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>15030</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>15396</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:S51" si="29">P50+P49+P48+P47+P46</f>
+        <f t="shared" ref="P51:S51" si="51">P50+P49+P48+P47+P46</f>
         <v>13116</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>12092</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>15935</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="51"/>
         <v>11883</v>
       </c>
-      <c r="T51" s="2">
-        <f t="shared" ref="T51" si="30">T50+T49+T48+T47+T46</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <f t="shared" ref="U51" si="31">U50+U49+U48+U47+U46</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <f t="shared" ref="V51" si="32">V50+V49+V48+V47+V46</f>
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <f t="shared" ref="W51" si="33">W50+W49+W48+W47+W46</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <f t="shared" ref="X51" si="34">X50+X49+X48+X47+X46</f>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2">
-        <f t="shared" ref="Y51" si="35">Y50+Y49+Y48+Y47+Y46</f>
-        <v>0</v>
+      <c r="T51" s="24">
+        <f t="shared" ref="T51" si="52">T50+T49+T48+T47+T46</f>
+        <v>18393.75</v>
+      </c>
+      <c r="U51" s="24">
+        <f t="shared" ref="U51" si="53">U50+U49+U48+U47+U46</f>
+        <v>16889.25</v>
+      </c>
+      <c r="V51" s="24">
+        <f t="shared" ref="V51" si="54">V50+V49+V48+V47+V46</f>
+        <v>22620.9</v>
+      </c>
+      <c r="W51" s="24">
+        <f t="shared" ref="W51" si="55">W50+W49+W48+W47+W46</f>
+        <v>16654.95</v>
+      </c>
+      <c r="X51" s="24">
+        <f t="shared" ref="X51" si="56">X50+X49+X48+X47+X46</f>
+        <v>22483.237499999999</v>
+      </c>
+      <c r="Y51" s="24">
+        <f t="shared" ref="Y51" si="57">Y50+Y49+Y48+Y47+Y46</f>
+        <v>20661.5625</v>
       </c>
       <c r="AC51" s="2">
         <f>AC50+AC49+AC48+AC47+AC46</f>
         <v>32350</v>
       </c>
       <c r="AD51" s="2">
-        <f t="shared" ref="AD51:AF51" si="36">AD50+AD49+AD48+AD47+AD46</f>
+        <f t="shared" ref="AD51:AF51" si="58">AD50+AD49+AD48+AD47+AD46</f>
         <v>61788</v>
       </c>
       <c r="AE51" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>62570</v>
       </c>
       <c r="AF51" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="58"/>
         <v>55634</v>
       </c>
       <c r="AG51" s="2">
-        <f t="shared" ref="AG51" si="37">AG50+AG49+AG48+AG47+AG46</f>
-        <v>27818</v>
-      </c>
-      <c r="AH51" s="2">
-        <f t="shared" ref="AH51" si="38">AH50+AH49+AH48+AH47+AH46</f>
-        <v>0</v>
-      </c>
-      <c r="AI51" s="2">
-        <f t="shared" ref="AI51" si="39">AI50+AI49+AI48+AI47+AI46</f>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="2">
-        <f t="shared" ref="AJ51" si="40">AJ50+AJ49+AJ48+AJ47+AJ46</f>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="2">
-        <f t="shared" ref="AK51" si="41">AK50+AK49+AK48+AK47+AK46</f>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="2">
-        <f t="shared" ref="AL51" si="42">AL50+AL49+AL48+AL47+AL46</f>
-        <v>0</v>
-      </c>
-      <c r="AM51" s="2">
-        <f t="shared" ref="AM51" si="43">AM50+AM49+AM48+AM47+AM46</f>
-        <v>0</v>
-      </c>
-      <c r="AN51" s="2">
-        <f t="shared" ref="AN51" si="44">AN50+AN49+AN48+AN47+AN46</f>
-        <v>0</v>
-      </c>
-      <c r="AO51" s="2">
-        <f t="shared" ref="AO51" si="45">AO50+AO49+AO48+AO47+AO46</f>
-        <v>0</v>
-      </c>
-      <c r="AP51" s="2">
-        <f t="shared" ref="AP51" si="46">AP50+AP49+AP48+AP47+AP46</f>
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="2">
-        <f t="shared" ref="AQ51" si="47">AQ50+AQ49+AQ48+AQ47+AQ46</f>
-        <v>0</v>
-      </c>
-      <c r="AR51" s="2">
-        <f t="shared" ref="AR51" si="48">AR50+AR49+AR48+AR47+AR46</f>
-        <v>0</v>
-      </c>
-      <c r="AS51" s="2">
-        <f t="shared" ref="AS51" si="49">AS50+AS49+AS48+AS47+AS46</f>
-        <v>0</v>
-      </c>
-      <c r="AT51" s="2">
-        <f t="shared" ref="AT51" si="50">AT50+AT49+AT48+AT47+AT46</f>
-        <v>0</v>
-      </c>
-      <c r="AU51" s="2">
-        <f t="shared" ref="AU51" si="51">AU50+AU49+AU48+AU47+AU46</f>
-        <v>0</v>
-      </c>
-      <c r="AV51" s="2">
-        <f t="shared" ref="AV51" si="52">AV50+AV49+AV48+AV47+AV46</f>
-        <v>0</v>
+        <f t="shared" ref="AG51" si="59">AG50+AG49+AG48+AG47+AG46</f>
+        <v>63101</v>
+      </c>
+      <c r="AH51" s="24">
+        <f t="shared" ref="AH51" si="60">AH50+AH49+AH48+AH47+AH46</f>
+        <v>82420.649999999994</v>
+      </c>
+      <c r="AI51" s="24">
+        <f t="shared" ref="AI51" si="61">AI50+AI49+AI48+AI47+AI46</f>
+        <v>79576.369500000001</v>
+      </c>
+      <c r="AJ51" s="24">
+        <f t="shared" ref="AJ51" si="62">AJ50+AJ49+AJ48+AJ47+AJ46</f>
+        <v>76912.605584999998</v>
+      </c>
+      <c r="AK51" s="24">
+        <f t="shared" ref="AK51" si="63">AK50+AK49+AK48+AK47+AK46</f>
+        <v>74421.481502549999</v>
+      </c>
+      <c r="AL51" s="24">
+        <f t="shared" ref="AL51" si="64">AL50+AL49+AL48+AL47+AL46</f>
+        <v>72095.548810126493</v>
+      </c>
+      <c r="AM51" s="24">
+        <f t="shared" ref="AM51" si="65">AM50+AM49+AM48+AM47+AM46</f>
+        <v>69927.766993805286</v>
+      </c>
+      <c r="AN51" s="24">
+        <f t="shared" ref="AN51" si="66">AN50+AN49+AN48+AN47+AN46</f>
+        <v>67911.484137025705</v>
+      </c>
+      <c r="AO51" s="24">
+        <f t="shared" ref="AO51" si="67">AO50+AO49+AO48+AO47+AO46</f>
+        <v>66040.418587872409</v>
+      </c>
+      <c r="AP51" s="24">
+        <f t="shared" ref="AP51" si="68">AP50+AP49+AP48+AP47+AP46</f>
+        <v>66629.260056908272</v>
+      </c>
+      <c r="AQ51" s="24">
+        <f t="shared" ref="AQ51" si="69">AQ50+AQ49+AQ48+AQ47+AQ46</f>
+        <v>67235.76677001518</v>
+      </c>
+      <c r="AR51" s="24">
+        <f t="shared" ref="AR51" si="70">AR50+AR49+AR48+AR47+AR46</f>
+        <v>67860.468684515319</v>
+      </c>
+      <c r="AS51" s="24">
+        <f t="shared" ref="AS51" si="71">AS50+AS49+AS48+AS47+AS46</f>
+        <v>68503.911656450451</v>
+      </c>
+      <c r="AT51" s="24">
+        <f t="shared" ref="AT51" si="72">AT50+AT49+AT48+AT47+AT46</f>
+        <v>69166.657917543649</v>
+      </c>
+      <c r="AU51" s="24">
+        <f t="shared" ref="AU51" si="73">AU50+AU49+AU48+AU47+AU46</f>
+        <v>69849.286566469644</v>
+      </c>
+      <c r="AV51" s="24">
+        <f t="shared" ref="AV51" si="74">AV50+AV49+AV48+AV47+AV46</f>
+        <v>70552.394074863405</v>
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.2">
@@ -3822,7 +4409,7 @@
         <v>1511</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M58" si="53">AE53-L53-K53-J53</f>
+        <f t="shared" ref="M53:M58" si="75">AE53-L53-K53-J53</f>
         <v>1232</v>
       </c>
       <c r="N53" s="1">
@@ -3835,7 +4422,7 @@
         <v>1341</v>
       </c>
       <c r="Q53">
-        <f t="shared" ref="Q53:Q58" si="54">AF53-P53-O53-N53</f>
+        <f t="shared" ref="Q53:Q58" si="76">AF53-P53-O53-N53</f>
         <v>2535</v>
       </c>
       <c r="R53" s="1">
@@ -3844,11 +4431,30 @@
       <c r="S53" s="1">
         <v>1605</v>
       </c>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
+      <c r="T53" s="58">
+        <f>P53*1.05</f>
+        <v>1408.05</v>
+      </c>
+      <c r="U53" s="58">
+        <f t="shared" ref="U53:Y53" si="77">Q53*1.05</f>
+        <v>2661.75</v>
+      </c>
+      <c r="V53" s="58">
+        <f t="shared" si="77"/>
+        <v>1561.3500000000001</v>
+      </c>
+      <c r="W53" s="58">
+        <f t="shared" si="77"/>
+        <v>1685.25</v>
+      </c>
+      <c r="X53" s="58">
+        <f t="shared" si="77"/>
+        <v>1478.4525000000001</v>
+      </c>
+      <c r="Y53" s="58">
+        <f t="shared" si="77"/>
+        <v>2794.8375000000001</v>
+      </c>
       <c r="Z53" s="1"/>
       <c r="AC53" s="1">
         <v>4397</v>
@@ -3864,11 +4470,67 @@
       </c>
       <c r="AG53" s="9">
         <f>SUM(R53:U53)</f>
-        <v>3092</v>
+        <v>7161.8</v>
       </c>
       <c r="AH53" s="9">
         <f>SUM(V53:Y53)</f>
-        <v>0</v>
+        <v>7519.8900000000012</v>
+      </c>
+      <c r="AI53" s="9">
+        <f>AH53*1.03</f>
+        <v>7745.4867000000013</v>
+      </c>
+      <c r="AJ53" s="9">
+        <f t="shared" ref="AJ53:AV53" si="78">AI53*1.03</f>
+        <v>7977.8513010000015</v>
+      </c>
+      <c r="AK53" s="9">
+        <f t="shared" si="78"/>
+        <v>8217.1868400300009</v>
+      </c>
+      <c r="AL53" s="9">
+        <f t="shared" si="78"/>
+        <v>8463.7024452309015</v>
+      </c>
+      <c r="AM53" s="9">
+        <f t="shared" si="78"/>
+        <v>8717.6135185878284</v>
+      </c>
+      <c r="AN53" s="9">
+        <f t="shared" si="78"/>
+        <v>8979.1419241454641</v>
+      </c>
+      <c r="AO53" s="9">
+        <f t="shared" si="78"/>
+        <v>9248.5161818698289</v>
+      </c>
+      <c r="AP53" s="9">
+        <f t="shared" si="78"/>
+        <v>9525.9716673259245</v>
+      </c>
+      <c r="AQ53" s="9">
+        <f t="shared" si="78"/>
+        <v>9811.7508173457027</v>
+      </c>
+      <c r="AR53" s="9">
+        <f t="shared" si="78"/>
+        <v>10106.103341866074</v>
+      </c>
+      <c r="AS53" s="9">
+        <f t="shared" si="78"/>
+        <v>10409.286442122057</v>
+      </c>
+      <c r="AT53" s="9">
+        <f t="shared" si="78"/>
+        <v>10721.565035385718</v>
+      </c>
+      <c r="AU53" s="9">
+        <f t="shared" si="78"/>
+        <v>11043.21198644729</v>
+      </c>
+      <c r="AV53" s="9">
+        <f t="shared" si="78"/>
+        <v>11374.50834604071</v>
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.2">
@@ -3885,7 +4547,7 @@
         <v>3111</v>
       </c>
       <c r="M54">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>3603</v>
       </c>
       <c r="N54" s="1">
@@ -3898,7 +4560,7 @@
         <v>315</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>349</v>
       </c>
       <c r="R54" s="1">
@@ -3907,11 +4569,30 @@
       <c r="S54" s="1">
         <v>228</v>
       </c>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
+      <c r="T54" s="59">
+        <f>P54*2</f>
+        <v>630</v>
+      </c>
+      <c r="U54" s="59">
+        <f>Q54*2</f>
+        <v>698</v>
+      </c>
+      <c r="V54" s="59">
+        <f t="shared" ref="V54:Y54" si="79">R54*2</f>
+        <v>286</v>
+      </c>
+      <c r="W54" s="59">
+        <f t="shared" si="79"/>
+        <v>456</v>
+      </c>
+      <c r="X54" s="59">
+        <f t="shared" si="79"/>
+        <v>1260</v>
+      </c>
+      <c r="Y54" s="59">
+        <f t="shared" si="79"/>
+        <v>1396</v>
+      </c>
       <c r="Z54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1">
@@ -3924,12 +4605,68 @@
         <v>2193</v>
       </c>
       <c r="AG54" s="9">
-        <f t="shared" ref="AG54:AG58" si="55">SUM(R54:U54)</f>
-        <v>371</v>
+        <f t="shared" ref="AG54:AG58" si="80">SUM(R54:U54)</f>
+        <v>1699</v>
       </c>
       <c r="AH54" s="9">
-        <f t="shared" ref="AH54:AH58" si="56">SUM(V54:Y54)</f>
-        <v>0</v>
+        <f t="shared" ref="AH54:AH58" si="81">SUM(V54:Y54)</f>
+        <v>3398</v>
+      </c>
+      <c r="AI54" s="9">
+        <f t="shared" ref="AI54:AV54" si="82">AH54*1.03</f>
+        <v>3499.94</v>
+      </c>
+      <c r="AJ54" s="9">
+        <f t="shared" si="82"/>
+        <v>3604.9382000000001</v>
+      </c>
+      <c r="AK54" s="9">
+        <f t="shared" si="82"/>
+        <v>3713.086346</v>
+      </c>
+      <c r="AL54" s="9">
+        <f t="shared" si="82"/>
+        <v>3824.4789363800001</v>
+      </c>
+      <c r="AM54" s="9">
+        <f t="shared" si="82"/>
+        <v>3939.2133044714001</v>
+      </c>
+      <c r="AN54" s="9">
+        <f t="shared" si="82"/>
+        <v>4057.3897036055423</v>
+      </c>
+      <c r="AO54" s="9">
+        <f t="shared" si="82"/>
+        <v>4179.1113947137083</v>
+      </c>
+      <c r="AP54" s="9">
+        <f t="shared" si="82"/>
+        <v>4304.4847365551195</v>
+      </c>
+      <c r="AQ54" s="9">
+        <f t="shared" si="82"/>
+        <v>4433.6192786517731</v>
+      </c>
+      <c r="AR54" s="9">
+        <f t="shared" si="82"/>
+        <v>4566.6278570113263</v>
+      </c>
+      <c r="AS54" s="9">
+        <f t="shared" si="82"/>
+        <v>4703.6266927216666</v>
+      </c>
+      <c r="AT54" s="9">
+        <f t="shared" si="82"/>
+        <v>4844.7354935033163</v>
+      </c>
+      <c r="AU54" s="9">
+        <f t="shared" si="82"/>
+        <v>4990.077558308416</v>
+      </c>
+      <c r="AV54" s="9">
+        <f t="shared" si="82"/>
+        <v>5139.7798850576683</v>
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.2">
@@ -3946,7 +4683,7 @@
         <v>1653</v>
       </c>
       <c r="M55">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>1695</v>
       </c>
       <c r="N55" s="1">
@@ -3959,7 +4696,7 @@
         <v>1157</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>1318</v>
       </c>
       <c r="R55" s="1">
@@ -3968,11 +4705,30 @@
       <c r="S55" s="1">
         <v>889</v>
       </c>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
+      <c r="T55" s="58">
+        <f>P55*1.05</f>
+        <v>1214.8500000000001</v>
+      </c>
+      <c r="U55" s="58">
+        <f t="shared" ref="U55:Y58" si="83">Q55*1.05</f>
+        <v>1383.9</v>
+      </c>
+      <c r="V55" s="58">
+        <f t="shared" si="83"/>
+        <v>1288.3500000000001</v>
+      </c>
+      <c r="W55" s="58">
+        <f t="shared" si="83"/>
+        <v>933.45</v>
+      </c>
+      <c r="X55" s="58">
+        <f t="shared" si="83"/>
+        <v>1275.5925000000002</v>
+      </c>
+      <c r="Y55" s="58">
+        <f t="shared" si="83"/>
+        <v>1453.0950000000003</v>
+      </c>
       <c r="Z55" s="1"/>
       <c r="AC55" s="1">
         <v>1462</v>
@@ -3987,12 +4743,68 @@
         <v>5537</v>
       </c>
       <c r="AG55" s="9">
-        <f t="shared" si="55"/>
-        <v>2116</v>
+        <f t="shared" si="80"/>
+        <v>4714.75</v>
       </c>
       <c r="AH55" s="9">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>4950.4875000000011</v>
+      </c>
+      <c r="AI55" s="9">
+        <f t="shared" ref="AI55:AV55" si="84">AH55*1.03</f>
+        <v>5099.0021250000009</v>
+      </c>
+      <c r="AJ55" s="9">
+        <f t="shared" si="84"/>
+        <v>5251.9721887500009</v>
+      </c>
+      <c r="AK55" s="9">
+        <f t="shared" si="84"/>
+        <v>5409.5313544125011</v>
+      </c>
+      <c r="AL55" s="9">
+        <f t="shared" si="84"/>
+        <v>5571.8172950448761</v>
+      </c>
+      <c r="AM55" s="9">
+        <f t="shared" si="84"/>
+        <v>5738.9718138962226</v>
+      </c>
+      <c r="AN55" s="9">
+        <f t="shared" si="84"/>
+        <v>5911.1409683131096</v>
+      </c>
+      <c r="AO55" s="9">
+        <f t="shared" si="84"/>
+        <v>6088.4751973625034</v>
+      </c>
+      <c r="AP55" s="9">
+        <f t="shared" si="84"/>
+        <v>6271.129453283379</v>
+      </c>
+      <c r="AQ55" s="9">
+        <f t="shared" si="84"/>
+        <v>6459.2633368818806</v>
+      </c>
+      <c r="AR55" s="9">
+        <f t="shared" si="84"/>
+        <v>6653.041236988337</v>
+      </c>
+      <c r="AS55" s="9">
+        <f t="shared" si="84"/>
+        <v>6852.6324740979871</v>
+      </c>
+      <c r="AT55" s="9">
+        <f t="shared" si="84"/>
+        <v>7058.211448320927</v>
+      </c>
+      <c r="AU55" s="9">
+        <f t="shared" si="84"/>
+        <v>7269.9577917705546</v>
+      </c>
+      <c r="AV55" s="9">
+        <f t="shared" si="84"/>
+        <v>7488.0565255236716</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.2">
@@ -4009,7 +4821,7 @@
         <v>2003</v>
       </c>
       <c r="M56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>2064</v>
       </c>
       <c r="N56" s="1">
@@ -4022,7 +4834,7 @@
         <v>1678</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>1201</v>
       </c>
       <c r="R56" s="1">
@@ -4031,11 +4843,30 @@
       <c r="S56" s="1">
         <v>1091</v>
       </c>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="T56" s="58">
+        <f t="shared" ref="T56:T58" si="85">P56*1.05</f>
+        <v>1761.9</v>
+      </c>
+      <c r="U56" s="58">
+        <f t="shared" si="83"/>
+        <v>1261.05</v>
+      </c>
+      <c r="V56" s="58">
+        <f t="shared" si="83"/>
+        <v>1251.6000000000001</v>
+      </c>
+      <c r="W56" s="58">
+        <f t="shared" si="83"/>
+        <v>1145.55</v>
+      </c>
+      <c r="X56" s="58">
+        <f t="shared" si="83"/>
+        <v>1849.9950000000001</v>
+      </c>
+      <c r="Y56" s="58">
+        <f t="shared" si="83"/>
+        <v>1324.1025</v>
+      </c>
       <c r="Z56" s="1"/>
       <c r="AC56" s="1">
         <v>3409</v>
@@ -4050,12 +4881,68 @@
         <v>5543</v>
       </c>
       <c r="AG56" s="9">
-        <f t="shared" si="55"/>
-        <v>2283</v>
+        <f t="shared" si="80"/>
+        <v>5305.95</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>5571.2475000000004</v>
+      </c>
+      <c r="AI56" s="9">
+        <f t="shared" ref="AI56:AV56" si="86">AH56*1.03</f>
+        <v>5738.3849250000003</v>
+      </c>
+      <c r="AJ56" s="9">
+        <f t="shared" si="86"/>
+        <v>5910.53647275</v>
+      </c>
+      <c r="AK56" s="9">
+        <f t="shared" si="86"/>
+        <v>6087.8525669324999</v>
+      </c>
+      <c r="AL56" s="9">
+        <f t="shared" si="86"/>
+        <v>6270.4881439404753</v>
+      </c>
+      <c r="AM56" s="9">
+        <f t="shared" si="86"/>
+        <v>6458.6027882586895</v>
+      </c>
+      <c r="AN56" s="9">
+        <f t="shared" si="86"/>
+        <v>6652.3608719064505</v>
+      </c>
+      <c r="AO56" s="9">
+        <f t="shared" si="86"/>
+        <v>6851.931698063644</v>
+      </c>
+      <c r="AP56" s="9">
+        <f t="shared" si="86"/>
+        <v>7057.4896490055535</v>
+      </c>
+      <c r="AQ56" s="9">
+        <f t="shared" si="86"/>
+        <v>7269.2143384757201</v>
+      </c>
+      <c r="AR56" s="9">
+        <f t="shared" si="86"/>
+        <v>7487.2907686299923</v>
+      </c>
+      <c r="AS56" s="9">
+        <f t="shared" si="86"/>
+        <v>7711.9094916888926</v>
+      </c>
+      <c r="AT56" s="9">
+        <f t="shared" si="86"/>
+        <v>7943.2667764395592</v>
+      </c>
+      <c r="AU56" s="9">
+        <f t="shared" si="86"/>
+        <v>8181.5647797327465</v>
+      </c>
+      <c r="AV56" s="9">
+        <f t="shared" si="86"/>
+        <v>8427.0117231247295</v>
       </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.2">
@@ -4072,7 +4959,7 @@
         <v>1152</v>
       </c>
       <c r="M57">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>1153</v>
       </c>
       <c r="N57" s="1">
@@ -4085,7 +4972,7 @@
         <v>810</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>802</v>
       </c>
       <c r="R57" s="1">
@@ -4094,11 +4981,30 @@
       <c r="S57" s="1">
         <v>607</v>
       </c>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
+      <c r="T57" s="58">
+        <f t="shared" si="85"/>
+        <v>850.5</v>
+      </c>
+      <c r="U57" s="58">
+        <f t="shared" si="83"/>
+        <v>842.1</v>
+      </c>
+      <c r="V57" s="58">
+        <f t="shared" si="83"/>
+        <v>837.90000000000009</v>
+      </c>
+      <c r="W57" s="58">
+        <f t="shared" si="83"/>
+        <v>637.35</v>
+      </c>
+      <c r="X57" s="58">
+        <f t="shared" si="83"/>
+        <v>893.02500000000009</v>
+      </c>
+      <c r="Y57" s="58">
+        <f t="shared" si="83"/>
+        <v>884.20500000000004</v>
+      </c>
       <c r="Z57" s="1"/>
       <c r="AC57" s="1">
         <v>1993</v>
@@ -4113,12 +5019,68 @@
         <v>3682</v>
       </c>
       <c r="AG57" s="9">
-        <f t="shared" si="55"/>
-        <v>1405</v>
+        <f t="shared" si="80"/>
+        <v>3097.6</v>
       </c>
       <c r="AH57" s="9">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>3252.48</v>
+      </c>
+      <c r="AI57" s="9">
+        <f t="shared" ref="AI57:AV57" si="87">AH57*1.03</f>
+        <v>3350.0544</v>
+      </c>
+      <c r="AJ57" s="9">
+        <f t="shared" si="87"/>
+        <v>3450.556032</v>
+      </c>
+      <c r="AK57" s="9">
+        <f t="shared" si="87"/>
+        <v>3554.07271296</v>
+      </c>
+      <c r="AL57" s="9">
+        <f t="shared" si="87"/>
+        <v>3660.6948943488001</v>
+      </c>
+      <c r="AM57" s="9">
+        <f t="shared" si="87"/>
+        <v>3770.5157411792643</v>
+      </c>
+      <c r="AN57" s="9">
+        <f t="shared" si="87"/>
+        <v>3883.6312134146424</v>
+      </c>
+      <c r="AO57" s="9">
+        <f t="shared" si="87"/>
+        <v>4000.1401498170817</v>
+      </c>
+      <c r="AP57" s="9">
+        <f t="shared" si="87"/>
+        <v>4120.1443543115938</v>
+      </c>
+      <c r="AQ57" s="9">
+        <f t="shared" si="87"/>
+        <v>4243.7486849409415</v>
+      </c>
+      <c r="AR57" s="9">
+        <f t="shared" si="87"/>
+        <v>4371.0611454891696</v>
+      </c>
+      <c r="AS57" s="9">
+        <f t="shared" si="87"/>
+        <v>4502.1929798538449</v>
+      </c>
+      <c r="AT57" s="9">
+        <f t="shared" si="87"/>
+        <v>4637.2587692494608</v>
+      </c>
+      <c r="AU57" s="9">
+        <f t="shared" si="87"/>
+        <v>4776.3765323269445</v>
+      </c>
+      <c r="AV57" s="9">
+        <f t="shared" si="87"/>
+        <v>4919.6678282967532</v>
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.2">
@@ -4135,7 +5097,7 @@
         <v>1403</v>
       </c>
       <c r="M58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="75"/>
         <v>1644</v>
       </c>
       <c r="N58" s="1">
@@ -4148,7 +5110,7 @@
         <v>939</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>675</v>
       </c>
       <c r="R58" s="1">
@@ -4157,11 +5119,30 @@
       <c r="S58" s="1">
         <v>873</v>
       </c>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="T58" s="58">
+        <f t="shared" si="85"/>
+        <v>985.95</v>
+      </c>
+      <c r="U58" s="58">
+        <f t="shared" si="83"/>
+        <v>708.75</v>
+      </c>
+      <c r="V58" s="58">
+        <f t="shared" si="83"/>
+        <v>772.80000000000007</v>
+      </c>
+      <c r="W58" s="58">
+        <f t="shared" si="83"/>
+        <v>916.65000000000009</v>
+      </c>
+      <c r="X58" s="58">
+        <f t="shared" si="83"/>
+        <v>1035.2475000000002</v>
+      </c>
+      <c r="Y58" s="58">
+        <f t="shared" si="83"/>
+        <v>744.1875</v>
+      </c>
       <c r="Z58" s="1"/>
       <c r="AC58" s="1">
         <v>1971</v>
@@ -4176,12 +5157,68 @@
         <v>3507</v>
       </c>
       <c r="AG58" s="9">
-        <f t="shared" si="55"/>
-        <v>1609</v>
+        <f t="shared" si="80"/>
+        <v>3303.7</v>
       </c>
       <c r="AH58" s="9">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="81"/>
+        <v>3468.8850000000002</v>
+      </c>
+      <c r="AI58" s="9">
+        <f t="shared" ref="AI58:AV58" si="88">AH58*1.03</f>
+        <v>3572.9515500000002</v>
+      </c>
+      <c r="AJ58" s="9">
+        <f t="shared" si="88"/>
+        <v>3680.1400965000003</v>
+      </c>
+      <c r="AK58" s="9">
+        <f t="shared" si="88"/>
+        <v>3790.5442993950005</v>
+      </c>
+      <c r="AL58" s="9">
+        <f t="shared" si="88"/>
+        <v>3904.2606283768505</v>
+      </c>
+      <c r="AM58" s="9">
+        <f t="shared" si="88"/>
+        <v>4021.3884472281561</v>
+      </c>
+      <c r="AN58" s="9">
+        <f t="shared" si="88"/>
+        <v>4142.0301006450009</v>
+      </c>
+      <c r="AO58" s="9">
+        <f t="shared" si="88"/>
+        <v>4266.2910036643507</v>
+      </c>
+      <c r="AP58" s="9">
+        <f t="shared" si="88"/>
+        <v>4394.2797337742813</v>
+      </c>
+      <c r="AQ58" s="9">
+        <f t="shared" si="88"/>
+        <v>4526.1081257875103</v>
+      </c>
+      <c r="AR58" s="9">
+        <f t="shared" si="88"/>
+        <v>4661.8913695611354</v>
+      </c>
+      <c r="AS58" s="9">
+        <f t="shared" si="88"/>
+        <v>4801.74811064797</v>
+      </c>
+      <c r="AT58" s="9">
+        <f t="shared" si="88"/>
+        <v>4945.8005539674095</v>
+      </c>
+      <c r="AU58" s="9">
+        <f t="shared" si="88"/>
+        <v>5094.1745705864323</v>
+      </c>
+      <c r="AV58" s="9">
+        <f t="shared" si="88"/>
+        <v>5246.9998077040254</v>
       </c>
     </row>
     <row r="59" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4189,124 +5226,148 @@
         <v>1</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" ref="J59:S59" si="57">J58+J57+J56+J55+J54+J53</f>
+        <f t="shared" ref="J59:Y59" si="89">J58+J57+J56+J55+J54+J53</f>
         <v>9751</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>11073</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>10833</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>11391</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>8071</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>6125</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>6240</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>6880</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="89"/>
         <v>5583</v>
       </c>
-      <c r="S59" s="2">
-        <f t="shared" si="57"/>
+      <c r="S59" s="24">
+        <f t="shared" si="89"/>
         <v>5293</v>
       </c>
+      <c r="T59" s="24">
+        <f t="shared" si="89"/>
+        <v>6851.2500000000009</v>
+      </c>
+      <c r="U59" s="24">
+        <f t="shared" si="89"/>
+        <v>7555.5499999999993</v>
+      </c>
+      <c r="V59" s="24">
+        <f t="shared" si="89"/>
+        <v>5998.0000000000009</v>
+      </c>
+      <c r="W59" s="24">
+        <f t="shared" si="89"/>
+        <v>5774.25</v>
+      </c>
+      <c r="X59" s="24">
+        <f t="shared" si="89"/>
+        <v>7792.3125000000009</v>
+      </c>
+      <c r="Y59" s="24">
+        <f t="shared" si="89"/>
+        <v>8596.4274999999998</v>
+      </c>
       <c r="AC59" s="2">
-        <f t="shared" ref="AC59:AV59" si="58">AC58+AC57+AC56+AC55+AC54+AC53</f>
+        <f t="shared" ref="AC59:AV59" si="90">AC58+AC57+AC56+AC55+AC54+AC53</f>
         <v>13232</v>
       </c>
       <c r="AD59" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>32678</v>
       </c>
       <c r="AE59" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>43048</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>27316</v>
       </c>
-      <c r="AG59" s="2">
-        <f t="shared" si="58"/>
-        <v>10876</v>
-      </c>
-      <c r="AH59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AI59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AL59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AM59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AO59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AP59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AR59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AS59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AT59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AU59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AV59" s="2">
-        <f t="shared" si="58"/>
-        <v>0</v>
+      <c r="AG59" s="24">
+        <f t="shared" si="90"/>
+        <v>25282.799999999999</v>
+      </c>
+      <c r="AH59" s="24">
+        <f t="shared" si="90"/>
+        <v>28160.989999999998</v>
+      </c>
+      <c r="AI59" s="24">
+        <f t="shared" si="90"/>
+        <v>29005.819700000004</v>
+      </c>
+      <c r="AJ59" s="24">
+        <f t="shared" si="90"/>
+        <v>29875.994291000003</v>
+      </c>
+      <c r="AK59" s="24">
+        <f t="shared" si="90"/>
+        <v>30772.274119730002</v>
+      </c>
+      <c r="AL59" s="24">
+        <f t="shared" si="90"/>
+        <v>31695.442343321905</v>
+      </c>
+      <c r="AM59" s="24">
+        <f t="shared" si="90"/>
+        <v>32646.30561362156</v>
+      </c>
+      <c r="AN59" s="24">
+        <f t="shared" si="90"/>
+        <v>33625.694782030208</v>
+      </c>
+      <c r="AO59" s="24">
+        <f t="shared" si="90"/>
+        <v>34634.465625491117</v>
+      </c>
+      <c r="AP59" s="24">
+        <f t="shared" si="90"/>
+        <v>35673.499594255853</v>
+      </c>
+      <c r="AQ59" s="24">
+        <f t="shared" si="90"/>
+        <v>36743.704582083526</v>
+      </c>
+      <c r="AR59" s="24">
+        <f t="shared" si="90"/>
+        <v>37846.015719546034</v>
+      </c>
+      <c r="AS59" s="24">
+        <f t="shared" si="90"/>
+        <v>38981.396191132422</v>
+      </c>
+      <c r="AT59" s="24">
+        <f t="shared" si="90"/>
+        <v>40150.838076866392</v>
+      </c>
+      <c r="AU59" s="24">
+        <f t="shared" si="90"/>
+        <v>41355.363219172388</v>
+      </c>
+      <c r="AV59" s="24">
+        <f t="shared" si="90"/>
+        <v>42596.024115747561</v>
       </c>
     </row>
     <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4314,68 +5375,68 @@
         <v>41</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" ref="J61:S61" si="59">J51+J59</f>
+        <f t="shared" ref="J61:Y61" si="91">J51+J59</f>
         <v>24199</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>25875</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>28430</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>27114</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>23101</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>21521</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>19356</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>18972</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>21518</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>17176</v>
       </c>
-      <c r="T61" s="2">
-        <f>S61</f>
-        <v>17176</v>
-      </c>
-      <c r="U61" s="2">
-        <f t="shared" ref="U61:Y61" si="60">T61</f>
-        <v>17176</v>
-      </c>
-      <c r="V61" s="2">
-        <f t="shared" si="60"/>
-        <v>17176</v>
-      </c>
-      <c r="W61" s="2">
-        <f t="shared" si="60"/>
-        <v>17176</v>
-      </c>
-      <c r="X61" s="2">
-        <f t="shared" si="60"/>
-        <v>17176</v>
-      </c>
-      <c r="Y61" s="2">
-        <f t="shared" si="60"/>
-        <v>17176</v>
+      <c r="T61" s="24">
+        <f t="shared" si="91"/>
+        <v>25245</v>
+      </c>
+      <c r="U61" s="24">
+        <f t="shared" si="91"/>
+        <v>24444.799999999999</v>
+      </c>
+      <c r="V61" s="24">
+        <f t="shared" si="91"/>
+        <v>28618.9</v>
+      </c>
+      <c r="W61" s="24">
+        <f t="shared" si="91"/>
+        <v>22429.200000000001</v>
+      </c>
+      <c r="X61" s="24">
+        <f t="shared" si="91"/>
+        <v>30275.55</v>
+      </c>
+      <c r="Y61" s="24">
+        <f t="shared" si="91"/>
+        <v>29257.989999999998</v>
       </c>
       <c r="AC61" s="2">
         <f>AC51+AC59</f>
@@ -4393,69 +5454,69 @@
         <f>AF51+AF59</f>
         <v>82950</v>
       </c>
-      <c r="AG61" s="2">
+      <c r="AG61" s="24">
         <f>AG51+AG59</f>
-        <v>38694</v>
+        <v>88383.8</v>
       </c>
       <c r="AH61" s="24">
         <f>AG61*1.03</f>
-        <v>39854.82</v>
+        <v>91035.313999999998</v>
       </c>
       <c r="AI61" s="24">
-        <f t="shared" ref="AI61:AU61" si="61">AH61*1.03</f>
-        <v>41050.464599999999</v>
+        <f t="shared" ref="AI61:AU61" si="92">AH61*1.03</f>
+        <v>93766.373420000004</v>
       </c>
       <c r="AJ61" s="24">
-        <f t="shared" si="61"/>
-        <v>42281.978538000003</v>
+        <f t="shared" si="92"/>
+        <v>96579.364622600013</v>
       </c>
       <c r="AK61" s="24">
-        <f t="shared" si="61"/>
-        <v>43550.437894140006</v>
+        <f t="shared" si="92"/>
+        <v>99476.745561278018</v>
       </c>
       <c r="AL61" s="24">
-        <f t="shared" si="61"/>
-        <v>44856.951030964206</v>
+        <f t="shared" si="92"/>
+        <v>102461.04792811636</v>
       </c>
       <c r="AM61" s="24">
-        <f t="shared" si="61"/>
-        <v>46202.659561893131</v>
+        <f t="shared" si="92"/>
+        <v>105534.87936595985</v>
       </c>
       <c r="AN61" s="24">
-        <f t="shared" si="61"/>
-        <v>47588.739348749928</v>
+        <f t="shared" si="92"/>
+        <v>108700.92574693865</v>
       </c>
       <c r="AO61" s="24">
-        <f t="shared" si="61"/>
-        <v>49016.401529212424</v>
+        <f t="shared" si="92"/>
+        <v>111961.95351934682</v>
       </c>
       <c r="AP61" s="24">
-        <f t="shared" si="61"/>
-        <v>50486.893575088798</v>
+        <f t="shared" si="92"/>
+        <v>115320.81212492722</v>
       </c>
       <c r="AQ61" s="24">
-        <f t="shared" si="61"/>
-        <v>52001.500382341466</v>
+        <f t="shared" si="92"/>
+        <v>118780.43648867504</v>
       </c>
       <c r="AR61" s="24">
-        <f t="shared" si="61"/>
-        <v>53561.545393811713</v>
+        <f t="shared" si="92"/>
+        <v>122343.84958333529</v>
       </c>
       <c r="AS61" s="24">
-        <f t="shared" si="61"/>
-        <v>55168.391755626064</v>
+        <f t="shared" si="92"/>
+        <v>126014.16507083536</v>
       </c>
       <c r="AT61" s="24">
-        <f t="shared" si="61"/>
-        <v>56823.443508294848</v>
+        <f t="shared" si="92"/>
+        <v>129794.59002296042</v>
       </c>
       <c r="AU61" s="24">
-        <f t="shared" si="61"/>
-        <v>58528.146813543695</v>
+        <f t="shared" si="92"/>
+        <v>133688.42772364922</v>
       </c>
       <c r="AV61" s="24">
         <f>AU61*0.8</f>
-        <v>46822.517450834959</v>
+        <v>106950.74217891938</v>
       </c>
     </row>
     <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4464,148 +5525,148 @@
         <v>44</v>
       </c>
       <c r="J63">
-        <f t="shared" ref="J63:S63" si="62">J42-J61</f>
+        <f t="shared" ref="J63:S63" si="93">J42-J61</f>
         <v>-24199</v>
       </c>
       <c r="K63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-25875</v>
       </c>
       <c r="L63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-28430</v>
       </c>
       <c r="M63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-27114</v>
       </c>
       <c r="N63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-23101</v>
       </c>
       <c r="O63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-21521</v>
       </c>
       <c r="P63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-19356</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-18972</v>
       </c>
       <c r="R63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-10858</v>
       </c>
       <c r="S63">
-        <f t="shared" si="62"/>
+        <f t="shared" si="93"/>
         <v>-17176</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:Y63" si="63">T42-T61</f>
-        <v>-17176</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="63"/>
-        <v>-16264.75</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="63"/>
-        <v>-14442.25</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="63"/>
-        <v>-12619.75</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="63"/>
-        <v>-10797.25</v>
+        <f t="shared" ref="T63:Y63" si="94">T42-T61</f>
+        <v>-25245</v>
+      </c>
+      <c r="U63" s="9">
+        <f t="shared" si="94"/>
+        <v>-23533.55</v>
+      </c>
+      <c r="V63" s="9">
+        <f t="shared" si="94"/>
+        <v>-25885.15</v>
+      </c>
+      <c r="W63" s="9">
+        <f t="shared" si="94"/>
+        <v>-17872.95</v>
+      </c>
+      <c r="X63" s="9">
+        <f t="shared" si="94"/>
+        <v>-23896.799999999999</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="63"/>
-        <v>-9886</v>
+        <f t="shared" si="94"/>
+        <v>-21967.989999999998</v>
       </c>
       <c r="AC63">
-        <f t="shared" ref="AC63:AV63" si="64">AC42-AC61</f>
+        <f t="shared" ref="AC63:AV63" si="95">AC42-AC61</f>
         <v>-45582</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="64"/>
+        <f t="shared" si="95"/>
         <v>-94466</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="64"/>
+        <f t="shared" si="95"/>
         <v>-105618</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="64"/>
+        <f t="shared" si="95"/>
         <v>-82950</v>
       </c>
       <c r="AG63" s="9">
-        <f t="shared" si="64"/>
-        <v>-27122.75</v>
+        <f t="shared" si="95"/>
+        <v>-76812.55</v>
       </c>
       <c r="AH63" s="9">
-        <f t="shared" si="64"/>
-        <v>-18896.07</v>
+        <f t="shared" si="95"/>
+        <v>-70076.563999999998</v>
       </c>
       <c r="AI63" s="9">
-        <f t="shared" si="64"/>
-        <v>9007.5354000000007</v>
+        <f t="shared" si="95"/>
+        <v>-48714.173420000006</v>
       </c>
       <c r="AJ63" s="9">
-        <f t="shared" si="64"/>
-        <v>35057.631462000012</v>
+        <f t="shared" si="95"/>
+        <v>-26973.715622599993</v>
       </c>
       <c r="AK63" s="9">
-        <f t="shared" si="64"/>
-        <v>44960.449105860011</v>
+        <f t="shared" si="95"/>
+        <v>40960.528478722001</v>
       </c>
       <c r="AL63" s="9">
-        <f t="shared" si="64"/>
-        <v>46309.262579035814</v>
+        <f t="shared" si="95"/>
+        <v>104790.14434528364</v>
       </c>
       <c r="AM63" s="9">
-        <f t="shared" si="64"/>
-        <v>47698.540456406889</v>
+        <f t="shared" si="95"/>
+        <v>172412.67268820817</v>
       </c>
       <c r="AN63" s="9">
-        <f t="shared" si="64"/>
-        <v>49129.496670099099</v>
+        <f t="shared" si="95"/>
+        <v>199722.7824465021</v>
       </c>
       <c r="AO63" s="9">
-        <f t="shared" si="64"/>
-        <v>50603.38157020208</v>
+        <f t="shared" si="95"/>
+        <v>205714.46591989713</v>
       </c>
       <c r="AP63" s="9">
-        <f t="shared" si="64"/>
-        <v>52121.48301730815</v>
+        <f t="shared" si="95"/>
+        <v>182243.47999302385</v>
       </c>
       <c r="AQ63" s="9">
-        <f t="shared" si="64"/>
-        <v>53685.127507827383</v>
+        <f t="shared" si="95"/>
+        <v>161032.60647879142</v>
       </c>
       <c r="AR63" s="9">
-        <f t="shared" si="64"/>
-        <v>55295.681333062195</v>
+        <f t="shared" si="95"/>
+        <v>141853.22455053427</v>
       </c>
       <c r="AS63" s="9">
-        <f t="shared" si="64"/>
-        <v>56954.551773054067</v>
+        <f t="shared" si="95"/>
+        <v>124499.49717669151</v>
       </c>
       <c r="AT63" s="9">
-        <f t="shared" si="64"/>
-        <v>58663.188326245683</v>
+        <f t="shared" si="95"/>
+        <v>108786.09039266931</v>
       </c>
       <c r="AU63" s="9">
-        <f t="shared" si="64"/>
-        <v>60423.083976033078</v>
+        <f t="shared" si="95"/>
+        <v>94546.120575058827</v>
       </c>
       <c r="AV63" s="9">
-        <f t="shared" si="64"/>
-        <v>14437.366405797082</v>
+        <f t="shared" si="95"/>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.2">
@@ -4622,7 +5683,7 @@
         <v>76</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M67" si="65">AE65-L65-K65-J65</f>
+        <f t="shared" ref="M65:M67" si="96">AE65-L65-K65-J65</f>
         <v>234</v>
       </c>
       <c r="N65" s="1">
@@ -4635,7 +5696,7 @@
         <v>227</v>
       </c>
       <c r="Q65">
-        <f t="shared" ref="Q65:Q67" si="66">AF65-P65-O65-N65</f>
+        <f t="shared" ref="Q65:Q67" si="97">AF65-P65-O65-N65</f>
         <v>271</v>
       </c>
       <c r="R65" s="1">
@@ -4663,11 +5724,11 @@
         <v>685</v>
       </c>
       <c r="AG65" s="9">
-        <f t="shared" ref="AG65" si="67">SUM(R65:U65)</f>
+        <f t="shared" ref="AG65" si="98">SUM(R65:U65)</f>
         <v>629</v>
       </c>
       <c r="AH65" s="9">
-        <f t="shared" ref="AH65" si="68">SUM(V65:Y65)</f>
+        <f t="shared" ref="AH65" si="99">SUM(V65:Y65)</f>
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +5743,7 @@
         <v>36</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="66"/>
+        <f t="shared" si="97"/>
         <v>4255</v>
       </c>
       <c r="R66" s="1">
@@ -4701,11 +5762,11 @@
         <v>-66</v>
       </c>
       <c r="AG66" s="9">
-        <f t="shared" ref="AG66:AG67" si="69">SUM(R66:U66)</f>
+        <f t="shared" ref="AG66:AG67" si="100">SUM(R66:U66)</f>
         <v>-12335</v>
       </c>
       <c r="AH66" s="9">
-        <f t="shared" ref="AH66:AH67" si="70">SUM(V66:Y66)</f>
+        <f t="shared" ref="AH66:AH67" si="101">SUM(V66:Y66)</f>
         <v>0</v>
       </c>
     </row>
@@ -4723,7 +5784,7 @@
         <v>-64</v>
       </c>
       <c r="M67">
-        <f t="shared" si="65"/>
+        <f t="shared" si="96"/>
         <v>-279</v>
       </c>
       <c r="N67" s="1">
@@ -4736,7 +5797,7 @@
         <v>-8</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="66"/>
+        <f t="shared" si="97"/>
         <v>17</v>
       </c>
       <c r="R67" s="1">
@@ -4764,11 +5825,11 @@
         <v>-177</v>
       </c>
       <c r="AG67" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="100"/>
         <v>26</v>
       </c>
       <c r="AH67" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,63 +5842,87 @@
         <v>20</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" ref="K68:S68" si="71">K65+K66+K67</f>
+        <f t="shared" ref="K68:Y68" si="102">K65+K66+K67</f>
         <v>47</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>12</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>-45</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>-20</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>-4336</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>255</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>4543</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>721</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="102"/>
         <v>-12401</v>
+      </c>
+      <c r="T68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
       </c>
       <c r="AC68" s="2">
         <f>AC67+AC66+AC65</f>
         <v>69</v>
       </c>
       <c r="AD68" s="2">
-        <f t="shared" ref="AD68:AH68" si="72">AD67+AD66+AD65</f>
+        <f t="shared" ref="AD68:AH68" si="103">AD67+AD66+AD65</f>
         <v>505</v>
       </c>
       <c r="AE68" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="103"/>
         <v>34</v>
       </c>
       <c r="AF68" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="103"/>
         <v>442</v>
       </c>
       <c r="AG68" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="103"/>
         <v>-11680</v>
       </c>
       <c r="AH68" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AI68" s="2">
@@ -4845,55 +5930,55 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="2">
-        <f t="shared" ref="AJ68" si="73">AJ67+AJ66+AJ65</f>
+        <f t="shared" ref="AJ68" si="104">AJ67+AJ66+AJ65</f>
         <v>0</v>
       </c>
       <c r="AK68" s="2">
-        <f t="shared" ref="AK68" si="74">AK67+AK66+AK65</f>
+        <f t="shared" ref="AK68" si="105">AK67+AK66+AK65</f>
         <v>0</v>
       </c>
       <c r="AL68" s="2">
-        <f t="shared" ref="AL68" si="75">AL67+AL66+AL65</f>
+        <f t="shared" ref="AL68" si="106">AL67+AL66+AL65</f>
         <v>0</v>
       </c>
       <c r="AM68" s="2">
-        <f t="shared" ref="AM68" si="76">AM67+AM66+AM65</f>
+        <f t="shared" ref="AM68" si="107">AM67+AM66+AM65</f>
         <v>0</v>
       </c>
       <c r="AN68" s="2">
-        <f t="shared" ref="AN68" si="77">AN67+AN66+AN65</f>
+        <f t="shared" ref="AN68" si="108">AN67+AN66+AN65</f>
         <v>0</v>
       </c>
       <c r="AO68" s="2">
-        <f t="shared" ref="AO68" si="78">AO67+AO66+AO65</f>
+        <f t="shared" ref="AO68" si="109">AO67+AO66+AO65</f>
         <v>0</v>
       </c>
       <c r="AP68" s="2">
-        <f t="shared" ref="AP68" si="79">AP67+AP66+AP65</f>
+        <f t="shared" ref="AP68" si="110">AP67+AP66+AP65</f>
         <v>0</v>
       </c>
       <c r="AQ68" s="2">
-        <f t="shared" ref="AQ68" si="80">AQ67+AQ66+AQ65</f>
+        <f t="shared" ref="AQ68" si="111">AQ67+AQ66+AQ65</f>
         <v>0</v>
       </c>
       <c r="AR68" s="2">
-        <f t="shared" ref="AR68" si="81">AR67+AR66+AR65</f>
+        <f t="shared" ref="AR68" si="112">AR67+AR66+AR65</f>
         <v>0</v>
       </c>
       <c r="AS68" s="2">
-        <f t="shared" ref="AS68" si="82">AS67+AS66+AS65</f>
+        <f t="shared" ref="AS68" si="113">AS67+AS66+AS65</f>
         <v>0</v>
       </c>
       <c r="AT68" s="2">
-        <f t="shared" ref="AT68" si="83">AT67+AT66+AT65</f>
+        <f t="shared" ref="AT68" si="114">AT67+AT66+AT65</f>
         <v>0</v>
       </c>
       <c r="AU68" s="2">
-        <f t="shared" ref="AU68" si="84">AU67+AU66+AU65</f>
+        <f t="shared" ref="AU68" si="115">AU67+AU66+AU65</f>
         <v>0</v>
       </c>
       <c r="AV68" s="2">
-        <f t="shared" ref="AV68" si="85">AV67+AV66+AV65</f>
+        <f t="shared" ref="AV68" si="116">AV67+AV66+AV65</f>
         <v>0</v>
       </c>
     </row>
@@ -4906,144 +5991,144 @@
         <v>-24179</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:Y70" si="86">K63+K68</f>
+        <f t="shared" ref="K70:Y70" si="117">K63+K68</f>
         <v>-25828</v>
       </c>
       <c r="L70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-28418</v>
       </c>
       <c r="M70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-27159</v>
       </c>
       <c r="N70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-23121</v>
       </c>
       <c r="O70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-25857</v>
       </c>
       <c r="P70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-19101</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-14429</v>
       </c>
       <c r="R70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-10137</v>
       </c>
       <c r="S70">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-29577</v>
       </c>
       <c r="T70">
-        <f t="shared" si="86"/>
-        <v>-17176</v>
+        <f t="shared" si="117"/>
+        <v>-25245</v>
       </c>
       <c r="U70">
-        <f t="shared" si="86"/>
-        <v>-16264.75</v>
+        <f t="shared" si="117"/>
+        <v>-23533.55</v>
       </c>
       <c r="V70">
-        <f t="shared" si="86"/>
-        <v>-14442.25</v>
+        <f t="shared" si="117"/>
+        <v>-25885.15</v>
       </c>
       <c r="W70">
-        <f t="shared" si="86"/>
-        <v>-12619.75</v>
+        <f t="shared" si="117"/>
+        <v>-17872.95</v>
       </c>
       <c r="X70">
-        <f t="shared" si="86"/>
-        <v>-10797.25</v>
+        <f t="shared" si="117"/>
+        <v>-23896.799999999999</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="86"/>
-        <v>-9886</v>
+        <f t="shared" si="117"/>
+        <v>-21967.989999999998</v>
       </c>
       <c r="AC70">
-        <f t="shared" ref="AC70:AV70" si="87">AC63+AC68</f>
+        <f t="shared" ref="AC70:AV70" si="118">AC63+AC68</f>
         <v>-45513</v>
       </c>
       <c r="AD70">
-        <f t="shared" si="87"/>
+        <f t="shared" si="118"/>
         <v>-93961</v>
       </c>
       <c r="AE70">
-        <f t="shared" si="87"/>
+        <f t="shared" si="118"/>
         <v>-105584</v>
       </c>
       <c r="AF70">
-        <f t="shared" si="87"/>
+        <f t="shared" si="118"/>
         <v>-82508</v>
       </c>
       <c r="AG70" s="9">
-        <f t="shared" si="87"/>
-        <v>-38802.75</v>
+        <f t="shared" si="118"/>
+        <v>-88492.55</v>
       </c>
       <c r="AH70" s="9">
-        <f t="shared" si="87"/>
-        <v>-18896.07</v>
+        <f t="shared" si="118"/>
+        <v>-70076.563999999998</v>
       </c>
       <c r="AI70" s="9">
-        <f t="shared" si="87"/>
-        <v>9007.5354000000007</v>
+        <f t="shared" si="118"/>
+        <v>-48714.173420000006</v>
       </c>
       <c r="AJ70" s="9">
-        <f t="shared" si="87"/>
-        <v>35057.631462000012</v>
+        <f t="shared" si="118"/>
+        <v>-26973.715622599993</v>
       </c>
       <c r="AK70" s="9">
-        <f t="shared" si="87"/>
-        <v>44960.449105860011</v>
+        <f t="shared" si="118"/>
+        <v>40960.528478722001</v>
       </c>
       <c r="AL70" s="9">
-        <f t="shared" si="87"/>
-        <v>46309.262579035814</v>
+        <f t="shared" si="118"/>
+        <v>104790.14434528364</v>
       </c>
       <c r="AM70" s="9">
-        <f t="shared" si="87"/>
-        <v>47698.540456406889</v>
+        <f t="shared" si="118"/>
+        <v>172412.67268820817</v>
       </c>
       <c r="AN70" s="9">
-        <f t="shared" si="87"/>
-        <v>49129.496670099099</v>
+        <f t="shared" si="118"/>
+        <v>199722.7824465021</v>
       </c>
       <c r="AO70" s="9">
-        <f t="shared" si="87"/>
-        <v>50603.38157020208</v>
+        <f t="shared" si="118"/>
+        <v>205714.46591989713</v>
       </c>
       <c r="AP70" s="9">
-        <f t="shared" si="87"/>
-        <v>52121.48301730815</v>
+        <f t="shared" si="118"/>
+        <v>182243.47999302385</v>
       </c>
       <c r="AQ70" s="9">
-        <f t="shared" si="87"/>
-        <v>53685.127507827383</v>
+        <f t="shared" si="118"/>
+        <v>161032.60647879142</v>
       </c>
       <c r="AR70" s="9">
-        <f t="shared" si="87"/>
-        <v>55295.681333062195</v>
+        <f t="shared" si="118"/>
+        <v>141853.22455053427</v>
       </c>
       <c r="AS70" s="9">
-        <f t="shared" si="87"/>
-        <v>56954.551773054067</v>
+        <f t="shared" si="118"/>
+        <v>124499.49717669151</v>
       </c>
       <c r="AT70" s="9">
-        <f t="shared" si="87"/>
-        <v>58663.188326245683</v>
+        <f t="shared" si="118"/>
+        <v>108786.09039266931</v>
       </c>
       <c r="AU70" s="9">
-        <f t="shared" si="87"/>
-        <v>60423.083976033078</v>
+        <f t="shared" si="118"/>
+        <v>94546.120575058827</v>
       </c>
       <c r="AV70" s="9">
-        <f t="shared" si="87"/>
-        <v>14437.366405797082</v>
+        <f t="shared" si="118"/>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.2">
@@ -5073,7 +6158,7 @@
         <v>-28418</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74" si="88">AE74-L74-K74-J74</f>
+        <f t="shared" ref="M74" si="119">AE74-L74-K74-J74</f>
         <v>-27159</v>
       </c>
       <c r="N74" s="1">
@@ -5086,7 +6171,7 @@
         <v>-19101</v>
       </c>
       <c r="Q74">
-        <f t="shared" ref="Q74" si="89">AF74-P74-O74-N74</f>
+        <f t="shared" ref="Q74" si="120">AF74-P74-O74-N74</f>
         <v>-14429</v>
       </c>
       <c r="R74" s="1">
@@ -5124,144 +6209,144 @@
         <v>-24179</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" ref="K75:Y75" si="90">K70-K72</f>
+        <f t="shared" ref="K75:Y75" si="121">K70-K72</f>
         <v>-25828</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-28418</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-27159</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-23121</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-25857</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-19101</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-14429</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-10137</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="121"/>
         <v>-29577</v>
       </c>
-      <c r="T75" s="2">
-        <f t="shared" si="90"/>
-        <v>-17176</v>
-      </c>
-      <c r="U75" s="2">
-        <f t="shared" si="90"/>
-        <v>-16264.75</v>
-      </c>
-      <c r="V75" s="2">
-        <f t="shared" si="90"/>
-        <v>-14442.25</v>
-      </c>
-      <c r="W75" s="2">
-        <f t="shared" si="90"/>
-        <v>-12619.75</v>
-      </c>
-      <c r="X75" s="2">
-        <f t="shared" si="90"/>
-        <v>-10797.25</v>
-      </c>
-      <c r="Y75" s="2">
-        <f t="shared" si="90"/>
-        <v>-9886</v>
+      <c r="T75" s="24">
+        <f t="shared" si="121"/>
+        <v>-25245</v>
+      </c>
+      <c r="U75" s="24">
+        <f t="shared" si="121"/>
+        <v>-23533.55</v>
+      </c>
+      <c r="V75" s="24">
+        <f t="shared" si="121"/>
+        <v>-25885.15</v>
+      </c>
+      <c r="W75" s="24">
+        <f t="shared" si="121"/>
+        <v>-17872.95</v>
+      </c>
+      <c r="X75" s="24">
+        <f t="shared" si="121"/>
+        <v>-23896.799999999999</v>
+      </c>
+      <c r="Y75" s="24">
+        <f t="shared" si="121"/>
+        <v>-21967.989999999998</v>
       </c>
       <c r="AC75" s="2">
-        <f t="shared" ref="AC75:AV75" si="91">AC70-AC72</f>
+        <f t="shared" ref="AC75:AV75" si="122">AC70-AC72</f>
         <v>-45513</v>
       </c>
       <c r="AD75" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="122"/>
         <v>-93961</v>
       </c>
       <c r="AE75" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="122"/>
         <v>-105584</v>
       </c>
       <c r="AF75" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="122"/>
         <v>-82508</v>
       </c>
       <c r="AG75" s="24">
-        <f t="shared" si="91"/>
-        <v>-38802.75</v>
+        <f t="shared" si="122"/>
+        <v>-88492.55</v>
       </c>
       <c r="AH75" s="24">
-        <f t="shared" si="91"/>
-        <v>-18896.07</v>
+        <f t="shared" si="122"/>
+        <v>-70076.563999999998</v>
       </c>
       <c r="AI75" s="24">
-        <f t="shared" si="91"/>
-        <v>9007.5354000000007</v>
+        <f t="shared" si="122"/>
+        <v>-48714.173420000006</v>
       </c>
       <c r="AJ75" s="24">
-        <f t="shared" si="91"/>
-        <v>35057.631462000012</v>
+        <f t="shared" si="122"/>
+        <v>-26973.715622599993</v>
       </c>
       <c r="AK75" s="24">
-        <f t="shared" si="91"/>
-        <v>44960.449105860011</v>
+        <f t="shared" si="122"/>
+        <v>40960.528478722001</v>
       </c>
       <c r="AL75" s="24">
-        <f t="shared" si="91"/>
-        <v>46309.262579035814</v>
+        <f t="shared" si="122"/>
+        <v>104790.14434528364</v>
       </c>
       <c r="AM75" s="24">
-        <f t="shared" si="91"/>
-        <v>47698.540456406889</v>
+        <f t="shared" si="122"/>
+        <v>172412.67268820817</v>
       </c>
       <c r="AN75" s="24">
-        <f t="shared" si="91"/>
-        <v>49129.496670099099</v>
+        <f t="shared" si="122"/>
+        <v>199722.7824465021</v>
       </c>
       <c r="AO75" s="24">
-        <f t="shared" si="91"/>
-        <v>50603.38157020208</v>
+        <f t="shared" si="122"/>
+        <v>205714.46591989713</v>
       </c>
       <c r="AP75" s="24">
-        <f t="shared" si="91"/>
-        <v>52121.48301730815</v>
+        <f t="shared" si="122"/>
+        <v>182243.47999302385</v>
       </c>
       <c r="AQ75" s="24">
-        <f t="shared" si="91"/>
-        <v>53685.127507827383</v>
+        <f t="shared" si="122"/>
+        <v>161032.60647879142</v>
       </c>
       <c r="AR75" s="24">
-        <f t="shared" si="91"/>
-        <v>55295.681333062195</v>
+        <f t="shared" si="122"/>
+        <v>141853.22455053427</v>
       </c>
       <c r="AS75" s="24">
-        <f t="shared" si="91"/>
-        <v>56954.551773054067</v>
+        <f t="shared" si="122"/>
+        <v>124499.49717669151</v>
       </c>
       <c r="AT75" s="24">
-        <f t="shared" si="91"/>
-        <v>58663.188326245683</v>
+        <f t="shared" si="122"/>
+        <v>108786.09039266931</v>
       </c>
       <c r="AU75" s="24">
-        <f t="shared" si="91"/>
-        <v>60423.083976033078</v>
+        <f t="shared" si="122"/>
+        <v>94546.120575058827</v>
       </c>
       <c r="AV75" s="24">
-        <f t="shared" si="91"/>
-        <v>14437.366405797082</v>
+        <f t="shared" si="122"/>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.2">
@@ -5273,39 +6358,39 @@
         <v>1</v>
       </c>
       <c r="K76" t="b">
-        <f t="shared" ref="K76:S76" si="92">K75=K74</f>
+        <f t="shared" ref="K76:S76" si="123">K75=K74</f>
         <v>1</v>
       </c>
       <c r="L76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="M76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="N76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="P76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="Q76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="R76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="S76" t="b">
-        <f t="shared" si="92"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="U76" s="1"/>
@@ -5315,19 +6400,19 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AC76" t="b">
-        <f t="shared" ref="AC76" si="93">AC75=AC74</f>
+        <f t="shared" ref="AC76" si="124">AC75=AC74</f>
         <v>1</v>
       </c>
       <c r="AD76" t="b">
-        <f t="shared" ref="AD76" si="94">AD75=AD74</f>
+        <f t="shared" ref="AD76" si="125">AD75=AD74</f>
         <v>1</v>
       </c>
       <c r="AE76" t="b">
-        <f t="shared" ref="AE76" si="95">AE75=AE74</f>
+        <f t="shared" ref="AE76" si="126">AE75=AE74</f>
         <v>1</v>
       </c>
       <c r="AF76" t="b">
-        <f t="shared" ref="AF76" si="96">AF75=AF74</f>
+        <f t="shared" ref="AF76" si="127">AF75=AF74</f>
         <v>1</v>
       </c>
     </row>
@@ -5707,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4175F-29B7-9342-B5A3-7256B9575DF3}">
   <dimension ref="B10:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" zoomScale="226" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A11" zoomScale="226" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5790,81 +6875,81 @@
       <c r="E11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>1012.5</v>
-      </c>
-      <c r="G11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>3037.5</v>
-      </c>
-      <c r="H11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>5062.5</v>
-      </c>
-      <c r="I11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>7087.4999999999991</v>
-      </c>
-      <c r="J11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>8100</v>
-      </c>
-      <c r="K11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55620</v>
-      </c>
-      <c r="L11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>85932.900000000009</v>
-      </c>
-      <c r="M11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>98345.430000000008</v>
-      </c>
-      <c r="N11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>101295.79290000001</v>
-      </c>
-      <c r="O11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>104334.66668700002</v>
-      </c>
-      <c r="P11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>107464.70668761003</v>
-      </c>
-      <c r="Q11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>110688.64788823834</v>
-      </c>
-      <c r="R11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>114009.30732488549</v>
-      </c>
-      <c r="S11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="S11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>117429.58654463205</v>
-      </c>
-      <c r="T11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>120952.47414097101</v>
-      </c>
-      <c r="U11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="U11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>124581.04836520014</v>
-      </c>
-      <c r="V11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>128318.47981615615</v>
-      </c>
-      <c r="W11" s="37">
+        <v>#N/A</v>
+      </c>
+      <c r="W11" s="37" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>132168.03421064085</v>
-      </c>
-      <c r="X11" s="38">
+        <v>#N/A</v>
+      </c>
+      <c r="X11" s="38" t="e">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>68066.537618480041</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
@@ -5899,59 +6984,59 @@
       </c>
       <c r="K12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>50058</v>
+        <v>45052.2</v>
       </c>
       <c r="L12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>77339.610000000015</v>
+        <v>69605.649000000019</v>
       </c>
       <c r="M12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>88510.887000000017</v>
+        <v>140437.27404000002</v>
       </c>
       <c r="N12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>91166.213610000021</v>
+        <v>207251.1922734</v>
       </c>
       <c r="O12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>93901.20001830002</v>
+        <v>277947.55205416802</v>
       </c>
       <c r="P12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>96718.236018849027</v>
+        <v>308423.70819344075</v>
       </c>
       <c r="Q12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>99619.783099414504</v>
+        <v>317676.41943924397</v>
       </c>
       <c r="R12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>102608.37659239695</v>
+        <v>297564.29211795109</v>
       </c>
       <c r="S12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>105686.62789016885</v>
+        <v>279813.04296746646</v>
       </c>
       <c r="T12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>108857.22672687391</v>
+        <v>264197.07413386955</v>
       </c>
       <c r="U12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>112122.94352868013</v>
+        <v>250513.66224752687</v>
       </c>
       <c r="V12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>115486.63183454053</v>
+        <v>238580.68041562973</v>
       </c>
       <c r="W12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>118951.23078957677</v>
+        <v>228234.54829870805</v>
       </c>
       <c r="X12" s="39">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>61259.883856632041</v>
+        <v>164194.49200024887</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
@@ -5966,79 +7051,79 @@
       </c>
       <c r="F13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>16889.25</v>
       </c>
       <c r="G13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>22620.9</v>
       </c>
       <c r="H13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>16654.95</v>
       </c>
       <c r="I13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>22483.237499999999</v>
       </c>
       <c r="J13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>20661.5625</v>
       </c>
       <c r="K13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>79576.369500000001</v>
       </c>
       <c r="L13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>76912.605584999998</v>
       </c>
       <c r="M13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>74421.481502549999</v>
       </c>
       <c r="N13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>72095.548810126493</v>
       </c>
       <c r="O13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>69927.766993805286</v>
       </c>
       <c r="P13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>67911.484137025705</v>
       </c>
       <c r="Q13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>66040.418587872409</v>
       </c>
       <c r="R13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>66629.260056908272</v>
       </c>
       <c r="S13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>67235.76677001518</v>
       </c>
       <c r="T13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>67860.468684515319</v>
       </c>
       <c r="U13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>68503.911656450451</v>
       </c>
       <c r="V13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>69166.657917543649</v>
       </c>
       <c r="W13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>69849.286566469644</v>
       </c>
       <c r="X13" s="40">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>70552.394074863405</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
@@ -6054,79 +7139,79 @@
       </c>
       <c r="F14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>7555.5499999999993</v>
       </c>
       <c r="G14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>5998.0000000000009</v>
       </c>
       <c r="H14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>5774.25</v>
       </c>
       <c r="I14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>7792.3125000000009</v>
       </c>
       <c r="J14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>8596.4274999999998</v>
       </c>
       <c r="K14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>29005.819700000004</v>
       </c>
       <c r="L14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>29875.994291000003</v>
       </c>
       <c r="M14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>30772.274119730002</v>
       </c>
       <c r="N14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>31695.442343321905</v>
       </c>
       <c r="O14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>32646.30561362156</v>
       </c>
       <c r="P14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>33625.694782030208</v>
       </c>
       <c r="Q14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>34634.465625491117</v>
       </c>
       <c r="R14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>35673.499594255853</v>
       </c>
       <c r="S14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>36743.704582083526</v>
       </c>
       <c r="T14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>37846.015719546034</v>
       </c>
       <c r="U14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>38981.396191132422</v>
       </c>
       <c r="V14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>40150.838076866392</v>
       </c>
       <c r="W14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>41355.363219172388</v>
       </c>
       <c r="X14" s="40">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>0</v>
+        <v>42596.024115747561</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
@@ -6139,79 +7224,79 @@
       </c>
       <c r="F15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-16264.75</v>
+        <v>-23533.55</v>
       </c>
       <c r="G15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-14442.25</v>
+        <v>-25885.15</v>
       </c>
       <c r="H15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-12619.75</v>
+        <v>-17872.95</v>
       </c>
       <c r="I15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-10797.25</v>
+        <v>-23896.799999999999</v>
       </c>
       <c r="J15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-9886</v>
+        <v>-21967.989999999998</v>
       </c>
       <c r="K15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>9007.5354000000007</v>
+        <v>-48714.173420000006</v>
       </c>
       <c r="L15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>35057.631462000012</v>
+        <v>-26973.715622599993</v>
       </c>
       <c r="M15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>44960.449105860011</v>
+        <v>40960.528478722001</v>
       </c>
       <c r="N15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46309.262579035814</v>
+        <v>104790.14434528364</v>
       </c>
       <c r="O15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>47698.540456406889</v>
+        <v>172412.67268820817</v>
       </c>
       <c r="P15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>49129.496670099099</v>
+        <v>199722.7824465021</v>
       </c>
       <c r="Q15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>50603.38157020208</v>
+        <v>205714.46591989713</v>
       </c>
       <c r="R15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>52121.48301730815</v>
+        <v>182243.47999302385</v>
       </c>
       <c r="S15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>53685.127507827383</v>
+        <v>161032.60647879142</v>
       </c>
       <c r="T15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55295.681333062195</v>
+        <v>141853.22455053427</v>
       </c>
       <c r="U15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>56954.551773054067</v>
+        <v>124499.49717669151</v>
       </c>
       <c r="V15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>58663.188326245683</v>
+        <v>108786.09039266931</v>
       </c>
       <c r="W15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>60423.083976033078</v>
+        <v>94546.120575058827</v>
       </c>
       <c r="X15" s="42">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>14437.366405797082</v>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
@@ -6315,79 +7400,79 @@
       </c>
       <c r="F17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-16264.75</v>
+        <v>-23533.55</v>
       </c>
       <c r="G17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-14442.25</v>
+        <v>-25885.15</v>
       </c>
       <c r="H17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-12619.75</v>
+        <v>-17872.95</v>
       </c>
       <c r="I17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-10797.25</v>
+        <v>-23896.799999999999</v>
       </c>
       <c r="J17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-9886</v>
+        <v>-21967.989999999998</v>
       </c>
       <c r="K17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>9007.5354000000007</v>
+        <v>-48714.173420000006</v>
       </c>
       <c r="L17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>35057.631462000012</v>
+        <v>-26973.715622599993</v>
       </c>
       <c r="M17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>44960.449105860011</v>
+        <v>40960.528478722001</v>
       </c>
       <c r="N17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46309.262579035814</v>
+        <v>104790.14434528364</v>
       </c>
       <c r="O17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>47698.540456406889</v>
+        <v>172412.67268820817</v>
       </c>
       <c r="P17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>49129.496670099099</v>
+        <v>199722.7824465021</v>
       </c>
       <c r="Q17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>50603.38157020208</v>
+        <v>205714.46591989713</v>
       </c>
       <c r="R17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>52121.48301730815</v>
+        <v>182243.47999302385</v>
       </c>
       <c r="S17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>53685.127507827383</v>
+        <v>161032.60647879142</v>
       </c>
       <c r="T17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55295.681333062195</v>
+        <v>141853.22455053427</v>
       </c>
       <c r="U17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>56954.551773054067</v>
+        <v>124499.49717669151</v>
       </c>
       <c r="V17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>58663.188326245683</v>
+        <v>108786.09039266931</v>
       </c>
       <c r="W17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>60423.083976033078</v>
+        <v>94546.120575058827</v>
       </c>
       <c r="X17" s="42">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>14437.366405797082</v>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
@@ -6403,79 +7488,79 @@
       </c>
       <c r="F18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-16264.75</v>
+        <v>-23533.55</v>
       </c>
       <c r="G18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-14442.25</v>
+        <v>-25885.15</v>
       </c>
       <c r="H18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-12619.75</v>
+        <v>-17872.95</v>
       </c>
       <c r="I18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-10797.25</v>
+        <v>-23896.799999999999</v>
       </c>
       <c r="J18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-9886</v>
+        <v>-21967.989999999998</v>
       </c>
       <c r="K18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>9007.5354000000007</v>
+        <v>-48714.173420000006</v>
       </c>
       <c r="L18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>35057.631462000012</v>
+        <v>-26973.715622599993</v>
       </c>
       <c r="M18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>44960.449105860011</v>
+        <v>40960.528478722001</v>
       </c>
       <c r="N18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46309.262579035814</v>
+        <v>104790.14434528364</v>
       </c>
       <c r="O18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>47698.540456406889</v>
+        <v>172412.67268820817</v>
       </c>
       <c r="P18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>49129.496670099099</v>
+        <v>199722.7824465021</v>
       </c>
       <c r="Q18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>50603.38157020208</v>
+        <v>205714.46591989713</v>
       </c>
       <c r="R18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>52121.48301730815</v>
+        <v>182243.47999302385</v>
       </c>
       <c r="S18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>53685.127507827383</v>
+        <v>161032.60647879142</v>
       </c>
       <c r="T18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55295.681333062195</v>
+        <v>141853.22455053427</v>
       </c>
       <c r="U18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>56954.551773054067</v>
+        <v>124499.49717669151</v>
       </c>
       <c r="V18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>58663.188326245683</v>
+        <v>108786.09039266931</v>
       </c>
       <c r="W18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>60423.083976033078</v>
+        <v>94546.120575058827</v>
       </c>
       <c r="X18" s="39">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>14437.366405797082</v>
+        <v>57243.749821329489</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
@@ -6529,7 +7614,7 @@
       </c>
       <c r="C26" s="32">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
-        <v>166.86721114050184</v>
+        <v>427.27815905791823</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -6554,7 +7639,7 @@
       </c>
       <c r="C28" s="32">
         <f>C26+C27-C16</f>
-        <v>176.49121114050186</v>
+        <v>436.9021590579182</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -6565,7 +7650,7 @@
       </c>
       <c r="C29" s="36">
         <f>C28/C13</f>
-        <v>2.7961218495009801</v>
+        <v>6.9217705807654974</v>
       </c>
       <c r="F29" s="13"/>
     </row>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,15 +8,140 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5823CD40-2FF6-C146-9F26-67D052A206B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7809F3-2B7D-AF48-B7B4-3775DF3EBFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Valuation" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Main!$AG$16</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">Main!$AG$16</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">Main!$AG$17:$AG$27</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">Main!$AH$16</definedName>
+    <definedName name="_xlchart.v2.36" hidden="1">Main!$AH$17:$AH$27</definedName>
+    <definedName name="_xlchart.v2.37" hidden="1">Main!$AI$16</definedName>
+    <definedName name="_xlchart.v2.38" hidden="1">Main!$AI$17:$AI$27</definedName>
+    <definedName name="_xlchart.v2.39" hidden="1">Main!$AJ$16</definedName>
+    <definedName name="_xlchart.v2.40" hidden="1">Main!$AJ$17:$AJ$27</definedName>
+    <definedName name="_xlchart.v2.41" hidden="1">Main!$AK$16</definedName>
+    <definedName name="_xlchart.v2.42" hidden="1">Main!$AK$17:$AK$27</definedName>
+    <definedName name="_xlchart.v2.43" hidden="1">Main!$AL$16</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">Main!$AL$17:$AL$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -169,9 +294,6 @@
     <t>Operating Expenses</t>
   </si>
   <si>
-    <t>Total Revenues</t>
-  </si>
-  <si>
     <t>EBIT</t>
   </si>
   <si>
@@ -568,9 +690,6 @@
     <t>rNPV Target</t>
   </si>
   <si>
-    <t>Market Share Target</t>
-  </si>
-  <si>
     <t>Average Sale Price</t>
   </si>
   <si>
@@ -611,18 +730,28 @@
   </si>
   <si>
     <t>Phase 3</t>
+  </si>
+  <si>
+    <t>AT-001 Market Share Target</t>
+  </si>
+  <si>
+    <t>AT-007 Market Share Target</t>
+  </si>
+  <si>
+    <t>Success Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -826,7 +955,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,7 +985,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -872,13 +1000,9 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,6 +1015,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -914,6 +1058,1137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AH$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AH$17:$AH$27</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.8573614281767785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2909146556694946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.7244678831622151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.1580211106549312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.591574338147649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0251275656403669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4586807931330856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.8922340206258035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.3257872481185204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.7593404756112365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.1928937031039561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFCA-494B-9080-D357E7300675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AI$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AI$17:$AI$27</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.8573614281767785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.1580211106549312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.4586807931330847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7593404756112347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0600001580893883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.36065984056754191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3386804769543057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0380207944761528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7373611119979993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4367014295198457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.136041747041693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFCA-494B-9080-D357E7300675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AJ$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AJ$17:$AJ$27</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.8573614281767785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0251275656403669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1928937031039535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.36065984056754147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4715740219688698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3038078845052805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.136041747041693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.968275609578104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.800509472114513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.632743334650929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.464977197187334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFCA-494B-9080-D357E7300675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AK$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AK$17:$AK$27</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.8573614281767785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8922340206258008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92710661307482378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0380207944761555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0031482020271314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.968275609578107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.933403017129086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.898530424680057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.863657832231041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.828785239782015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.793912647332988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFCA-494B-9080-D357E7300675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Main!$AL$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Main!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Main!$AL$17:$AL$27</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.8573614281767785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7593404756112356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3386804769543053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4367014295198492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.534722382085388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.632743334650929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.73076428721647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.828785239782015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.926806192347552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.02482714491309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.122848097478602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CFCA-494B-9080-D357E7300675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="82000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="13000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="78000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="43000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="8000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="865898447"/>
+        <c:axId val="865741535"/>
+        <c:axId val="447990031"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="865898447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865741535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="865741535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865898447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="447990031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865741535"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>396429</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>652803</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F24DFB-D1C1-76EC-E049-3FAF97DE16A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,14 +2488,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
-  <dimension ref="B5:S54"/>
+  <dimension ref="B5:AL54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,269 +2505,657 @@
     <col min="3" max="3" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="10.83203125" style="11"/>
-    <col min="15" max="15" width="10.83203125" style="57"/>
+    <col min="15" max="15" width="10.83203125" style="52"/>
     <col min="16" max="18" width="10.83203125" style="11"/>
     <col min="19" max="19" width="14.5" style="11" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:19" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:38" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="D9" s="13">
         <v>0.9</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="Q10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D11" s="13"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="D12" s="13"/>
       <c r="Q12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="R12" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="19"/>
       <c r="Q13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="D14" s="13"/>
       <c r="Q14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D15" s="13"/>
       <c r="S15" s="13"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z15" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="72"/>
+      <c r="AH15" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="13"/>
       <c r="Q16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y16" s="60">
+        <f>Valuation!$C$29</f>
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="Z16" s="58">
+        <f>AA16-0.1</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AA16" s="58">
+        <f>AB16-0.1</f>
+        <v>0.15</v>
+      </c>
+      <c r="AB16" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="AC16" s="59">
+        <f>AB16+0.1</f>
+        <v>0.35</v>
+      </c>
+      <c r="AD16" s="59">
+        <f>AC16+0.1</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AE16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="58">
+        <f>AI16-0.1</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AI16" s="58">
+        <f>AJ16-0.1</f>
+        <v>0.15</v>
+      </c>
+      <c r="AJ16" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="AK16" s="59">
+        <f>AJ16+0.1</f>
+        <v>0.35</v>
+      </c>
+      <c r="AL16" s="59">
+        <f>AK16+0.1</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="13"/>
       <c r="Q17" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S17" s="13"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y17" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="65">
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AA17" s="65">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AB17" s="62">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AC17" s="65">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AD17" s="61">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AE17" s="61"/>
+      <c r="AG17" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="65">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AI17" s="65">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AJ17" s="62">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AK17" s="65">
+        <v>-8.8573614281767785</v>
+      </c>
+      <c r="AL17" s="61">
+        <v>-8.8573614281767785</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="13"/>
       <c r="Q18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y18" s="59">
+        <f>Y17+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="65">
+        <v>-8.2909146556694946</v>
+      </c>
+      <c r="AA18" s="65">
+        <v>-7.1580211106549312</v>
+      </c>
+      <c r="AB18" s="62">
+        <v>-6.0251275656403669</v>
+      </c>
+      <c r="AC18" s="65">
+        <v>-4.8922340206258008</v>
+      </c>
+      <c r="AD18" s="61">
+        <v>-3.7593404756112356</v>
+      </c>
+      <c r="AE18" s="61"/>
+      <c r="AG18" s="59">
+        <f>AG17+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AH18" s="65">
+        <v>-8.2909146556694946</v>
+      </c>
+      <c r="AI18" s="65">
+        <v>-7.1580211106549312</v>
+      </c>
+      <c r="AJ18" s="62">
+        <v>-6.0251275656403669</v>
+      </c>
+      <c r="AK18" s="65">
+        <v>-4.8922340206258008</v>
+      </c>
+      <c r="AL18" s="61">
+        <v>-3.7593404756112356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="D19" s="13"/>
       <c r="Q19" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S19" s="13"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y19" s="59">
+        <f t="shared" ref="Y19:Y27" si="0">Y18+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z19" s="65">
+        <v>-7.7244678831622151</v>
+      </c>
+      <c r="AA19" s="65">
+        <v>-5.4586807931330847</v>
+      </c>
+      <c r="AB19" s="62">
+        <v>-3.1928937031039535</v>
+      </c>
+      <c r="AC19" s="65">
+        <v>-0.92710661307482378</v>
+      </c>
+      <c r="AD19" s="61">
+        <v>1.3386804769543053</v>
+      </c>
+      <c r="AE19" s="61"/>
+      <c r="AG19" s="59">
+        <f t="shared" ref="AG19:AG27" si="1">AG18+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AH19" s="65">
+        <v>-7.7244678831622151</v>
+      </c>
+      <c r="AI19" s="65">
+        <v>-5.4586807931330847</v>
+      </c>
+      <c r="AJ19" s="62">
+        <v>-3.1928937031039535</v>
+      </c>
+      <c r="AK19" s="65">
+        <v>-0.92710661307482378</v>
+      </c>
+      <c r="AL19" s="61">
+        <v>1.3386804769543053</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X20" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" s="59">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Z20" s="65">
+        <v>-7.1580211106549312</v>
+      </c>
+      <c r="AA20" s="65">
+        <v>-3.7593404756112347</v>
+      </c>
+      <c r="AB20" s="62">
+        <v>-0.36065984056754147</v>
+      </c>
+      <c r="AC20" s="65">
+        <v>3.0380207944761555</v>
+      </c>
+      <c r="AD20" s="61">
+        <v>6.4367014295198492</v>
+      </c>
+      <c r="AE20" s="61"/>
+      <c r="AG20" s="59">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AH20" s="65">
+        <v>-7.1580211106549312</v>
+      </c>
+      <c r="AI20" s="65">
+        <v>-3.7593404756112347</v>
+      </c>
+      <c r="AJ20" s="62">
+        <v>-0.36065984056754147</v>
+      </c>
+      <c r="AK20" s="65">
+        <v>3.0380207944761555</v>
+      </c>
+      <c r="AL20" s="61">
+        <v>6.4367014295198492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="Q21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X21" s="51"/>
+      <c r="Y21" s="49">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z21" s="63">
+        <v>-6.591574338147649</v>
+      </c>
+      <c r="AA21" s="63">
+        <v>-2.0600001580893883</v>
+      </c>
+      <c r="AB21" s="64">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="AC21" s="61">
+        <v>7.0031482020271314</v>
+      </c>
+      <c r="AD21" s="61">
+        <v>11.534722382085388</v>
+      </c>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG21" s="49">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH21" s="63">
+        <v>-6.591574338147649</v>
+      </c>
+      <c r="AI21" s="63">
+        <v>-2.0600001580893883</v>
+      </c>
+      <c r="AJ21" s="64">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="AK21" s="61">
+        <v>7.0031482020271314</v>
+      </c>
+      <c r="AL21" s="61">
+        <v>11.534722382085388</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="59">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z22" s="61">
+        <v>-6.0251275656403669</v>
+      </c>
+      <c r="AA22" s="61">
+        <v>-0.36065984056754191</v>
+      </c>
+      <c r="AB22" s="61">
+        <v>5.3038078845052805</v>
+      </c>
+      <c r="AC22" s="61">
+        <v>10.968275609578107</v>
+      </c>
+      <c r="AD22" s="61">
+        <v>16.632743334650929</v>
+      </c>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="59">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH22" s="61">
+        <v>-6.0251275656403669</v>
+      </c>
+      <c r="AI22" s="61">
+        <v>-0.36065984056754191</v>
+      </c>
+      <c r="AJ22" s="61">
+        <v>5.3038078845052805</v>
+      </c>
+      <c r="AK22" s="61">
+        <v>10.968275609578107</v>
+      </c>
+      <c r="AL22" s="61">
+        <v>16.632743334650929</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="59">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z23" s="61">
+        <v>-5.4586807931330856</v>
+      </c>
+      <c r="AA23" s="61">
+        <v>1.3386804769543057</v>
+      </c>
+      <c r="AB23" s="61">
+        <v>8.136041747041693</v>
+      </c>
+      <c r="AC23" s="61">
+        <v>14.933403017129086</v>
+      </c>
+      <c r="AD23" s="61">
+        <v>21.73076428721647</v>
+      </c>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="59">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH23" s="61">
+        <v>-5.4586807931330856</v>
+      </c>
+      <c r="AI23" s="61">
+        <v>1.3386804769543057</v>
+      </c>
+      <c r="AJ23" s="61">
+        <v>8.136041747041693</v>
+      </c>
+      <c r="AK23" s="61">
+        <v>14.933403017129086</v>
+      </c>
+      <c r="AL23" s="61">
+        <v>21.73076428721647</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="11">
         <f>2037-2023</f>
         <v>14</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+        <v>174</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
       <c r="Q24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S24" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="51"/>
+      <c r="Y24" s="59">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z24" s="61">
+        <v>-4.8922340206258035</v>
+      </c>
+      <c r="AA24" s="61">
+        <v>3.0380207944761528</v>
+      </c>
+      <c r="AB24" s="61">
+        <v>10.968275609578104</v>
+      </c>
+      <c r="AC24" s="61">
+        <v>18.898530424680057</v>
+      </c>
+      <c r="AD24" s="61">
+        <v>26.828785239782015</v>
+      </c>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="59">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH24" s="61">
+        <v>-4.8922340206258035</v>
+      </c>
+      <c r="AI24" s="61">
+        <v>3.0380207944761528</v>
+      </c>
+      <c r="AJ24" s="61">
+        <v>10.968275609578104</v>
+      </c>
+      <c r="AK24" s="61">
+        <v>18.898530424680057</v>
+      </c>
+      <c r="AL24" s="61">
+        <v>26.828785239782015</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="46">
+      <c r="H25" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="44">
         <f>Valuation!$C$29</f>
-        <v>6.9217705807654974</v>
-      </c>
-      <c r="J25" s="44">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="J25" s="43">
         <f>K25-0.1</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f>L25-0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="43">
         <f>M25-0.1</f>
         <v>0.4</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="46">
         <v>0.5</v>
       </c>
       <c r="N25" s="13">
@@ -1500,211 +3163,331 @@
         <v>0.6</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="H26" s="56"/>
-      <c r="I26" s="14">
-        <f>I27-1000</f>
-        <v>2000</v>
-      </c>
-      <c r="J26" s="45">
+        <v>182</v>
+      </c>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="59">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Z25" s="61">
+        <v>-4.3257872481185204</v>
+      </c>
+      <c r="AA25" s="61">
+        <v>4.7373611119979993</v>
+      </c>
+      <c r="AB25" s="61">
+        <v>13.800509472114513</v>
+      </c>
+      <c r="AC25" s="61">
+        <v>22.863657832231041</v>
+      </c>
+      <c r="AD25" s="61">
+        <v>31.926806192347552</v>
+      </c>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="59">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AH25" s="61">
+        <v>-4.3257872481185204</v>
+      </c>
+      <c r="AI25" s="61">
+        <v>4.7373611119979993</v>
+      </c>
+      <c r="AJ25" s="61">
+        <v>13.800509472114513</v>
+      </c>
+      <c r="AK25" s="61">
+        <v>22.863657832231041</v>
+      </c>
+      <c r="AL25" s="61">
+        <v>31.926806192347552</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="H26" s="51"/>
+      <c r="I26" s="55">
+        <f>I27-500</f>
+        <v>1000</v>
+      </c>
+      <c r="J26" s="66">
         <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
-        <v>1.0373807785794447</v>
-      </c>
-      <c r="K26" s="45">
-        <v>1.5154451930425867</v>
-      </c>
-      <c r="L26" s="45">
-        <v>1.9935096075057281</v>
-      </c>
-      <c r="M26" s="50">
-        <v>2.4715740219688698</v>
-      </c>
-      <c r="N26" s="45">
-        <v>2.9496384364320116</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0.27107854734194714</v>
+      </c>
+      <c r="K26" s="66">
+        <v>0.51011075457351773</v>
+      </c>
+      <c r="L26" s="66">
+        <v>0.74914296180508888</v>
+      </c>
+      <c r="M26" s="67">
+        <v>0.98817516903666036</v>
+      </c>
+      <c r="N26" s="68">
+        <v>1.227207376268231</v>
+      </c>
+      <c r="Y26" s="59">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="Z26" s="61">
+        <v>-3.7593404756112365</v>
+      </c>
+      <c r="AA26" s="61">
+        <v>6.4367014295198457</v>
+      </c>
+      <c r="AB26" s="61">
+        <v>16.632743334650929</v>
+      </c>
+      <c r="AC26" s="61">
+        <v>26.828785239782015</v>
+      </c>
+      <c r="AD26" s="61">
+        <v>37.02482714491309</v>
+      </c>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="59">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AH26" s="61">
+        <v>-3.7593404756112365</v>
+      </c>
+      <c r="AI26" s="61">
+        <v>6.4367014295198457</v>
+      </c>
+      <c r="AJ26" s="61">
+        <v>16.632743334650929</v>
+      </c>
+      <c r="AK26" s="61">
+        <v>26.828785239782015</v>
+      </c>
+      <c r="AL26" s="61">
+        <v>37.02482714491309</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="14">
-        <f t="shared" ref="I27:I28" si="0">I28-1000</f>
-        <v>3000</v>
-      </c>
-      <c r="J27" s="45">
-        <v>1.8036830098169427</v>
-      </c>
-      <c r="K27" s="45">
-        <v>2.5207796315116555</v>
-      </c>
-      <c r="L27" s="45">
-        <v>3.2378762532063674</v>
-      </c>
-      <c r="M27" s="50">
-        <v>3.9549728749010802</v>
-      </c>
-      <c r="N27" s="45">
-        <v>4.6720694965957916</v>
+      <c r="H27" s="51"/>
+      <c r="I27" s="55">
+        <f>I28-500</f>
+        <v>1500</v>
+      </c>
+      <c r="J27" s="66">
+        <v>0.65422966296069585</v>
+      </c>
+      <c r="K27" s="66">
+        <v>1.0127779738080531</v>
+      </c>
+      <c r="L27" s="66">
+        <v>1.371326284655408</v>
+      </c>
+      <c r="M27" s="67">
+        <v>1.7298745955027646</v>
+      </c>
+      <c r="N27" s="68">
+        <v>2.0884229063501207</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Y27" s="59">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Z27" s="61">
+        <v>-3.1928937031039561</v>
+      </c>
+      <c r="AA27" s="61">
+        <v>8.136041747041693</v>
+      </c>
+      <c r="AB27" s="61">
+        <v>19.464977197187334</v>
+      </c>
+      <c r="AC27" s="61">
+        <v>30.793912647332988</v>
+      </c>
+      <c r="AD27" s="61">
+        <v>42.122848097478631</v>
+      </c>
+      <c r="AE27" s="61"/>
+      <c r="AG27" s="59">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AH27" s="61">
+        <v>-3.1928937031039561</v>
+      </c>
+      <c r="AI27" s="61">
+        <v>8.136041747041693</v>
+      </c>
+      <c r="AJ27" s="61">
+        <v>19.464977197187334</v>
+      </c>
+      <c r="AK27" s="61">
+        <v>30.793912647332988</v>
+      </c>
+      <c r="AL27" s="61">
+        <v>42.122848097478602</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="11">
         <v>3000</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="14">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="J28" s="45">
-        <v>2.569985241054439</v>
-      </c>
-      <c r="K28" s="45">
-        <v>3.5261140699807227</v>
-      </c>
-      <c r="L28" s="45">
-        <v>4.4822428989070051</v>
-      </c>
-      <c r="M28" s="50">
-        <v>5.4383717278332906</v>
-      </c>
-      <c r="N28" s="45">
-        <v>6.3945005567595716</v>
+      <c r="H28" s="51"/>
+      <c r="I28" s="45">
+        <v>2000</v>
+      </c>
+      <c r="J28" s="69">
+        <v>1.0373807785794447</v>
+      </c>
+      <c r="K28" s="69">
+        <v>1.5154451930425867</v>
+      </c>
+      <c r="L28" s="69">
+        <v>1.9935096075057281</v>
+      </c>
+      <c r="M28" s="70">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="N28" s="68">
+        <v>2.9496384364320116</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S28" s="11">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="56">
+        <f>I28+500</f>
+        <v>2500</v>
+      </c>
+      <c r="J29" s="66">
+        <v>1.4205318941981933</v>
+      </c>
+      <c r="K29" s="66">
+        <v>2.0181124122771203</v>
+      </c>
+      <c r="L29" s="66">
+        <v>2.6156929303560479</v>
+      </c>
+      <c r="M29" s="66">
+        <v>3.2132734484349754</v>
+      </c>
+      <c r="N29" s="68">
+        <v>3.8108539665139021</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="47">
-        <v>5000</v>
-      </c>
-      <c r="J29" s="48">
-        <v>3.3362874722919367</v>
-      </c>
-      <c r="K29" s="48">
-        <v>4.53144850844979</v>
-      </c>
-      <c r="L29" s="48">
-        <v>5.7266095446076442</v>
-      </c>
-      <c r="M29" s="51">
-        <v>6.9217705807654974</v>
-      </c>
-      <c r="N29" s="45">
-        <v>8.1169316169233525</v>
-      </c>
-      <c r="Q29" s="11" t="s">
+      <c r="D30" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" s="56">
+        <f>I29+500</f>
+        <v>3000</v>
+      </c>
+      <c r="J30" s="68">
+        <v>1.8036830098169427</v>
+      </c>
+      <c r="K30" s="68">
+        <v>2.5207796315116555</v>
+      </c>
+      <c r="L30" s="68">
+        <v>3.2378762532063674</v>
+      </c>
+      <c r="M30" s="68">
+        <v>3.9549728749010802</v>
+      </c>
+      <c r="N30" s="68">
+        <v>4.6720694965957916</v>
+      </c>
+      <c r="Q30" s="11" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="14">
-        <f>I29+1000</f>
-        <v>6000</v>
-      </c>
-      <c r="J30" s="45">
-        <v>4.1025897035294339</v>
-      </c>
-      <c r="K30" s="45">
-        <v>5.5367829469188585</v>
-      </c>
-      <c r="L30" s="45">
-        <v>6.9709761903082823</v>
-      </c>
-      <c r="M30" s="45">
-        <v>8.4051694336977096</v>
-      </c>
-      <c r="N30" s="45">
-        <v>9.8393626770871325</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="S30" s="14">
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S31" s="14">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
       <c r="I32" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H33" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="S32" s="14"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="H33" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="46">
+      <c r="I33" s="44">
         <f>Valuation!$C$29</f>
-        <v>6.9217705807654974</v>
-      </c>
-      <c r="J33" s="44">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="J33" s="43">
         <f>K33-0.1</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="43">
         <f>L33-0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="43">
         <f>M33-0.1</f>
         <v>0.4</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="46">
         <v>0.5</v>
       </c>
       <c r="N33" s="13">
@@ -1714,70 +3497,70 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="53">
+        <v>102</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="48">
         <f>I35-0.05</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J34" s="45">
-        <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46"/>
-        <v>1.2220639621330907</v>
-      </c>
-      <c r="K34" s="45">
-        <v>1.9082308198782498</v>
-      </c>
-      <c r="L34" s="45">
-        <v>2.5943976776234097</v>
-      </c>
-      <c r="M34" s="50">
-        <v>3.2805645353685695</v>
-      </c>
-      <c r="N34" s="45">
-        <v>3.9667313931137294</v>
+      <c r="J34" s="68">
+        <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46" ca="1"/>
+        <v>0.19169137451590657</v>
+      </c>
+      <c r="K34" s="68">
+        <v>0.46615811761397041</v>
+      </c>
+      <c r="L34" s="68">
+        <v>0.74062486071203515</v>
+      </c>
+      <c r="M34" s="67">
+        <v>1.0150916038100974</v>
+      </c>
+      <c r="N34" s="68">
+        <v>1.289558346908162</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="13">
         <v>0.3</v>
       </c>
-      <c r="H35" s="56"/>
-      <c r="I35" s="52">
+      <c r="H35" s="51"/>
+      <c r="I35" s="47">
         <f>I36-0.05</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="J35" s="45">
-        <v>2.0161888385852893</v>
-      </c>
-      <c r="K35" s="45">
-        <v>2.9128616747819147</v>
-      </c>
-      <c r="L35" s="45">
-        <v>3.8095345109785401</v>
-      </c>
-      <c r="M35" s="50">
-        <v>4.7062073471751642</v>
-      </c>
-      <c r="N35" s="45">
-        <v>5.6028801833717896</v>
+      <c r="J35" s="68">
+        <v>0.50934132509678565</v>
+      </c>
+      <c r="K35" s="68">
+        <v>0.8680104595754351</v>
+      </c>
+      <c r="L35" s="68">
+        <v>1.2266795940540851</v>
+      </c>
+      <c r="M35" s="67">
+        <v>1.5853487285327361</v>
+      </c>
+      <c r="N35" s="68">
+        <v>1.9440178630113865</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S35" s="13">
         <v>0.3</v>
@@ -1785,32 +3568,32 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="13">
         <v>0.6</v>
       </c>
-      <c r="H36" s="56"/>
-      <c r="I36" s="54">
+      <c r="H36" s="51"/>
+      <c r="I36" s="49">
         <v>0.03</v>
       </c>
-      <c r="J36" s="48">
-        <v>3.3362874722919367</v>
-      </c>
-      <c r="K36" s="48">
-        <v>4.53144850844979</v>
-      </c>
-      <c r="L36" s="48">
-        <v>5.7266095446076442</v>
-      </c>
-      <c r="M36" s="51">
-        <v>6.9217705807654974</v>
-      </c>
-      <c r="N36" s="45">
-        <v>8.1169316169233525</v>
+      <c r="J36" s="69">
+        <v>1.0373807785794447</v>
+      </c>
+      <c r="K36" s="69">
+        <v>1.5154451930425867</v>
+      </c>
+      <c r="L36" s="69">
+        <v>1.9935096075057281</v>
+      </c>
+      <c r="M36" s="70">
+        <v>2.4715740219688698</v>
+      </c>
+      <c r="N36" s="68">
+        <v>2.9496384364320116</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S36" s="13">
         <v>0.6</v>
@@ -1818,33 +3601,33 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="13">
         <v>0.9</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="13">
         <f>I36+0.05</f>
         <v>0.08</v>
       </c>
-      <c r="J37" s="45">
-        <v>5.54788371800203</v>
-      </c>
-      <c r="K37" s="45">
-        <v>7.1701645960102196</v>
-      </c>
-      <c r="L37" s="45">
-        <v>8.7924454740184093</v>
-      </c>
-      <c r="M37" s="45">
-        <v>10.414726352026598</v>
-      </c>
-      <c r="N37" s="45">
-        <v>12.037007230034789</v>
+      <c r="J37" s="68">
+        <v>1.9220192768634841</v>
+      </c>
+      <c r="K37" s="68">
+        <v>2.5709316280667589</v>
+      </c>
+      <c r="L37" s="68">
+        <v>3.2198439792700344</v>
+      </c>
+      <c r="M37" s="68">
+        <v>3.868756330473309</v>
+      </c>
+      <c r="N37" s="68">
+        <v>4.5176686816765859</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S37" s="13">
         <v>0.9</v>
@@ -1852,33 +3635,33 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
-      <c r="H38" s="56"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="13">
         <f>I37+0.05</f>
         <v>0.13</v>
       </c>
-      <c r="J38" s="45">
-        <v>9.2524807327798868</v>
-      </c>
-      <c r="K38" s="45">
-        <v>11.489588548018675</v>
-      </c>
-      <c r="L38" s="45">
-        <v>13.726696363257464</v>
-      </c>
-      <c r="M38" s="45">
-        <v>15.963804178496254</v>
-      </c>
-      <c r="N38" s="45">
-        <v>18.200911993735044</v>
+      <c r="J38" s="68">
+        <v>3.4038580827746241</v>
+      </c>
+      <c r="K38" s="68">
+        <v>4.2987012088701393</v>
+      </c>
+      <c r="L38" s="68">
+        <v>5.1935443349656536</v>
+      </c>
+      <c r="M38" s="68">
+        <v>6.0883874610611706</v>
+      </c>
+      <c r="N38" s="68">
+        <v>6.983230587156684</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S38" s="13">
         <v>1</v>
@@ -1886,31 +3669,31 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="Q40" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="11">
         <v>3000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S41" s="11">
         <v>4000000</v>
@@ -1918,19 +3701,20 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="14">
-        <v>5000</v>
+        <f>(D31+D30)/2</f>
+        <v>2000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S42" s="14">
         <v>500</v>
@@ -1938,20 +3722,20 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="14">
         <f>D42*D41</f>
-        <v>15000000</v>
+        <v>6000000</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S43" s="14">
         <f>S42*S41</f>
@@ -1960,14 +3744,14 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
         <v>0.5</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13">
@@ -1976,20 +3760,20 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="14">
         <f>D44*D43</f>
-        <v>7500000</v>
+        <v>3000000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S45" s="14">
         <f>S44*S43</f>
@@ -1998,13 +3782,13 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="13">
         <v>0.03</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S46" s="13">
         <v>0.03</v>
@@ -2012,51 +3796,51 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="Q48" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="11">
         <v>3000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S49" s="11">
         <v>4000000</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="14">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S50" s="14">
         <f>S42/2</f>
@@ -2065,20 +3849,20 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="14">
         <f>D50*D49</f>
-        <v>15000000</v>
+        <v>4500000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S51" s="14">
         <f>S50*S49</f>
@@ -2087,14 +3871,14 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
         <v>0.25</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13">
@@ -2103,20 +3887,20 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="14">
         <f>D52*D51</f>
-        <v>3750000</v>
+        <v>1125000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S53" s="14">
         <f>S52*S51</f>
@@ -2125,20 +3909,24 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="13">
         <v>-0.1</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S54" s="13">
         <v>-0.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="X20:X25"/>
+    <mergeCell ref="AH15:AL15"/>
+    <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="H25:H30"/>
     <mergeCell ref="J32:N32"/>
@@ -2153,6 +3941,7 @@
   <ignoredErrors>
     <ignoredError sqref="C16" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2160,11 +3949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AM49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS64" sqref="AS64"/>
+      <selection pane="bottomRight" activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2245,191 +4034,191 @@
         <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AM3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U7" s="4">
         <f>Main!D45*3/1000</f>
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="V7" s="4">
         <f>AH7/4</f>
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="W7" s="4">
         <f>AH7/4</f>
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="X7" s="4">
         <f>AH7/4</f>
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="Y7" s="4">
         <f>AH7/4</f>
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="AG7" s="4">
         <f>U7*4</f>
-        <v>90000</v>
+        <v>36000</v>
       </c>
       <c r="AH7" s="9">
         <f>Main!D45*12/1000</f>
-        <v>90000</v>
+        <v>36000</v>
       </c>
       <c r="AI7" s="9">
         <f>AH7*(1+Main!$D$46)</f>
-        <v>92700</v>
+        <v>37080</v>
       </c>
       <c r="AJ7" s="9">
         <f>AI7*(1+Main!$D$46)</f>
-        <v>95481</v>
+        <v>38192.400000000001</v>
       </c>
       <c r="AK7" s="9">
         <f>AJ7*(1+Main!$D$46)</f>
-        <v>98345.430000000008</v>
+        <v>39338.172000000006</v>
       </c>
       <c r="AL7" s="9">
         <f>AK7*(1+Main!$D$46)</f>
-        <v>101295.79290000001</v>
+        <v>40518.317160000006</v>
       </c>
       <c r="AM7" s="9">
         <f>AL7*(1+Main!$D$46)</f>
-        <v>104334.66668700002</v>
+        <v>41733.866674800011</v>
       </c>
       <c r="AN7" s="9">
         <f>AM7*(1+Main!$D$46)</f>
-        <v>107464.70668761003</v>
+        <v>42985.882675044013</v>
       </c>
       <c r="AO7" s="9">
         <f>AN7*(1+Main!$D$46)*AO8</f>
-        <v>110688.64788823834</v>
+        <v>44275.459155295335</v>
       </c>
       <c r="AP7" s="9">
         <f>AO7*(1+Main!$D$46)*AP8</f>
-        <v>114009.30732488549</v>
+        <v>45603.722929954194</v>
       </c>
       <c r="AQ7" s="9">
         <f>AP7*(1+Main!$D$46)*AQ8</f>
-        <v>117429.58654463205</v>
+        <v>46971.834617852823</v>
       </c>
       <c r="AR7" s="9">
         <f>AQ7*(1+Main!$D$46)*AR8</f>
-        <v>120952.47414097101</v>
+        <v>48380.98965638841</v>
       </c>
       <c r="AS7" s="9">
         <f>AR7*(1+Main!$D$46)*AS8</f>
-        <v>124581.04836520014</v>
+        <v>49832.419346080067</v>
       </c>
       <c r="AT7" s="9">
         <f>AS7*(1+Main!$D$46)*AT8</f>
-        <v>128318.47981615615</v>
+        <v>51327.391926462471</v>
       </c>
       <c r="AU7" s="9">
         <f>AT7*(1+Main!$D$46)*AU8</f>
-        <v>132168.03421064085</v>
+        <v>52867.213684256349</v>
       </c>
       <c r="AV7" s="9">
         <f>AU7*(1+Main!$D$46)*AV8*Main!D52/Main!D44</f>
-        <v>68066.537618480041</v>
+        <v>27226.615047392021</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U8" s="7">
         <v>0.05</v>
@@ -2502,96 +4291,96 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U9" s="4">
         <f>U8*U7</f>
-        <v>1125</v>
+        <v>450</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" ref="V9:Y9" si="0">V8*V7</f>
-        <v>3375</v>
+        <v>1350</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="0"/>
-        <v>5625</v>
+        <v>2250</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="0"/>
-        <v>7874.9999999999991</v>
+        <v>3150</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="AG9" s="4">
         <f>U9</f>
-        <v>1125</v>
+        <v>450</v>
       </c>
       <c r="AH9" s="9">
         <f>SUM(V9:Y9)</f>
-        <v>25875</v>
+        <v>10350</v>
       </c>
       <c r="AI9" s="9">
         <f>AI8*AI7</f>
-        <v>55620</v>
+        <v>22248</v>
       </c>
       <c r="AJ9" s="9">
         <f t="shared" ref="AJ9:AV9" si="1">AJ8*AJ7</f>
-        <v>85932.900000000009</v>
+        <v>34373.160000000003</v>
       </c>
       <c r="AK9" s="9">
         <f t="shared" si="1"/>
-        <v>98345.430000000008</v>
+        <v>39338.172000000006</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" si="1"/>
-        <v>101295.79290000001</v>
+        <v>40518.317160000006</v>
       </c>
       <c r="AM9" s="9">
         <f t="shared" si="1"/>
-        <v>104334.66668700002</v>
+        <v>41733.866674800011</v>
       </c>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>107464.70668761003</v>
+        <v>42985.882675044013</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="1"/>
-        <v>110688.64788823834</v>
+        <v>44275.459155295335</v>
       </c>
       <c r="AP9" s="9">
         <f t="shared" si="1"/>
-        <v>114009.30732488549</v>
+        <v>45603.722929954194</v>
       </c>
       <c r="AQ9" s="9">
         <f t="shared" si="1"/>
-        <v>117429.58654463205</v>
+        <v>46971.834617852823</v>
       </c>
       <c r="AR9" s="9">
         <f t="shared" si="1"/>
-        <v>120952.47414097101</v>
+        <v>48380.98965638841</v>
       </c>
       <c r="AS9" s="9">
         <f t="shared" si="1"/>
-        <v>124581.04836520014</v>
+        <v>49832.419346080067</v>
       </c>
       <c r="AT9" s="9">
         <f t="shared" si="1"/>
-        <v>128318.47981615615</v>
+        <v>51327.391926462471</v>
       </c>
       <c r="AU9" s="9">
         <f t="shared" si="1"/>
-        <v>132168.03421064085</v>
+        <v>52867.213684256349</v>
       </c>
       <c r="AV9" s="9">
         <f t="shared" si="1"/>
-        <v>68066.537618480041</v>
+        <v>27226.615047392021</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U11" s="3">
         <f>Main!$D$9</f>
@@ -2680,91 +4469,91 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U12" s="4">
         <f>U11*U9</f>
-        <v>1012.5</v>
+        <v>405</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" ref="V12:Y12" si="2">V11*V9</f>
-        <v>3037.5</v>
+        <v>1215</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="2"/>
-        <v>5062.5</v>
+        <v>2025</v>
       </c>
       <c r="X12" s="4">
         <f t="shared" si="2"/>
-        <v>7087.4999999999991</v>
+        <v>2835</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="2"/>
-        <v>8100</v>
+        <v>3240</v>
       </c>
       <c r="AG12" s="4">
         <f>U12</f>
-        <v>1012.5</v>
+        <v>405</v>
       </c>
       <c r="AH12" s="9">
         <f>SUM(V12:Y12)</f>
-        <v>23287.5</v>
+        <v>9315</v>
       </c>
       <c r="AI12" s="9">
         <f t="shared" ref="AI12:AV12" si="3">AI11*AI9</f>
-        <v>50058</v>
+        <v>20023.2</v>
       </c>
       <c r="AJ12" s="9">
         <f t="shared" si="3"/>
-        <v>77339.610000000015</v>
+        <v>30935.844000000005</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" si="3"/>
-        <v>88510.887000000002</v>
+        <v>35404.354800000008</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" si="3"/>
-        <v>91166.213610000021</v>
+        <v>36466.485444000005</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>93901.20001830002</v>
+        <v>37560.480007320009</v>
       </c>
       <c r="AN12" s="9">
         <f t="shared" si="3"/>
-        <v>96718.236018849027</v>
+        <v>38687.294407539615</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="3"/>
-        <v>99619.783099414504</v>
+        <v>39847.913239765803</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="3"/>
-        <v>102608.37659239695</v>
+        <v>41043.350636958778</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="3"/>
-        <v>105686.62789016885</v>
+        <v>42274.651156067543</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="3"/>
-        <v>108857.22672687391</v>
+        <v>43542.890690749569</v>
       </c>
       <c r="AS12" s="9">
         <f t="shared" si="3"/>
-        <v>112122.94352868013</v>
+        <v>44849.177411472061</v>
       </c>
       <c r="AT12" s="9">
         <f t="shared" si="3"/>
-        <v>115486.63183454053</v>
+        <v>46194.652733816227</v>
       </c>
       <c r="AU12" s="9">
         <f t="shared" si="3"/>
-        <v>118951.23078957677</v>
+        <v>47580.492315830714</v>
       </c>
       <c r="AV12" s="9">
         <f t="shared" si="3"/>
-        <v>61259.883856632041</v>
+        <v>24503.95354265282</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
@@ -2776,27 +4565,27 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG21" s="9">
         <f>Main!$S$45/1000</f>
@@ -2865,7 +4654,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -2914,7 +4703,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -2971,7 +4760,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AK25" s="3">
@@ -3025,7 +4814,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK26" s="9">
         <f>AK25*AK23</f>
@@ -3078,17 +4867,17 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
@@ -3108,7 +4897,7 @@
     </row>
     <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R36" s="23"/>
     </row>
@@ -3117,7 +4906,7 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ref="J38:T38" si="6">J34</f>
@@ -3165,87 +4954,87 @@
       </c>
       <c r="U38" s="24">
         <f>U34+U12</f>
-        <v>1012.5</v>
+        <v>405</v>
       </c>
       <c r="V38" s="24">
         <f>V34+V12</f>
-        <v>3037.5</v>
+        <v>1215</v>
       </c>
       <c r="W38" s="24">
         <f>W34+W12</f>
-        <v>5062.5</v>
+        <v>2025</v>
       </c>
       <c r="X38" s="24">
         <f>X34+X12</f>
-        <v>7087.4999999999991</v>
+        <v>2835</v>
       </c>
       <c r="Y38" s="24">
         <f>Y34+Y12</f>
-        <v>8100</v>
+        <v>3240</v>
       </c>
       <c r="AG38" s="24">
         <f>AG34+AG12+AG26</f>
-        <v>11672.5</v>
+        <v>11065</v>
       </c>
       <c r="AH38" s="24">
         <f t="shared" ref="AH38:AV38" si="7">AH34+AH12+AH26</f>
-        <v>23287.5</v>
+        <v>9315</v>
       </c>
       <c r="AI38" s="24">
         <f t="shared" si="7"/>
-        <v>50058</v>
+        <v>20023.2</v>
       </c>
       <c r="AJ38" s="24">
         <f t="shared" si="7"/>
-        <v>77339.610000000015</v>
+        <v>30935.844000000005</v>
       </c>
       <c r="AK38" s="24">
         <f t="shared" si="7"/>
-        <v>156041.41560000001</v>
+        <v>102934.88340000002</v>
       </c>
       <c r="AL38" s="24">
         <f t="shared" si="7"/>
-        <v>230279.102526</v>
+        <v>175579.37436000002</v>
       </c>
       <c r="AM38" s="24">
         <f t="shared" si="7"/>
-        <v>308830.61339352001</v>
+        <v>252489.89338254</v>
       </c>
       <c r="AN38" s="24">
         <f t="shared" si="7"/>
-        <v>342693.00910382305</v>
+        <v>284662.06749251363</v>
       </c>
       <c r="AO38" s="24">
         <f t="shared" si="7"/>
-        <v>352973.79937693774</v>
+        <v>293201.92951728904</v>
       </c>
       <c r="AP38" s="24">
         <f t="shared" si="7"/>
-        <v>330626.99124216789</v>
+        <v>269061.96528672968</v>
       </c>
       <c r="AQ38" s="24">
         <f t="shared" si="7"/>
-        <v>310903.38107496273</v>
+        <v>247491.40434086142</v>
       </c>
       <c r="AR38" s="24">
         <f t="shared" si="7"/>
-        <v>293552.3045931884</v>
+        <v>228237.96855706404</v>
       </c>
       <c r="AS38" s="24">
         <f t="shared" si="7"/>
-        <v>278348.51360836317</v>
+        <v>211074.74749115511</v>
       </c>
       <c r="AT38" s="24">
         <f t="shared" si="7"/>
-        <v>265089.64490625524</v>
+        <v>195797.66580553097</v>
       </c>
       <c r="AU38" s="24">
         <f t="shared" si="7"/>
-        <v>253593.94255412003</v>
+        <v>182223.20408037398</v>
       </c>
       <c r="AV38" s="24">
         <f t="shared" si="7"/>
-        <v>182438.32444472096</v>
+        <v>145682.39413074174</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.2">
@@ -3253,97 +5042,97 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R40" s="1"/>
       <c r="U40" s="9">
         <f>U38*(1-U41)</f>
-        <v>101.24999999999997</v>
+        <v>40.499999999999993</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" ref="V40:Y40" si="8">V38*(1-V41)</f>
-        <v>303.74999999999994</v>
+        <v>121.49999999999997</v>
       </c>
       <c r="W40" s="9">
         <f t="shared" si="8"/>
-        <v>506.24999999999989</v>
+        <v>202.49999999999994</v>
       </c>
       <c r="X40" s="9">
         <f t="shared" si="8"/>
-        <v>708.74999999999977</v>
+        <v>283.49999999999994</v>
       </c>
       <c r="Y40" s="9">
         <f t="shared" si="8"/>
-        <v>809.99999999999977</v>
+        <v>323.99999999999994</v>
       </c>
       <c r="AG40" s="9">
         <f>SUM(R40:U40)</f>
-        <v>101.24999999999997</v>
+        <v>40.499999999999993</v>
       </c>
       <c r="AH40" s="9">
         <f>SUM(V40:Y40)</f>
-        <v>2328.7499999999991</v>
+        <v>931.49999999999977</v>
       </c>
       <c r="AI40" s="9">
         <f t="shared" ref="AI40" si="9">AI38*(1-AI41)</f>
-        <v>5005.7999999999993</v>
+        <v>2002.3199999999997</v>
       </c>
       <c r="AJ40" s="9">
         <f t="shared" ref="AJ40" si="10">AJ38*(1-AJ41)</f>
-        <v>7733.9610000000002</v>
+        <v>3093.5843999999997</v>
       </c>
       <c r="AK40" s="9">
         <f t="shared" ref="AK40" si="11">AK38*(1-AK41)</f>
-        <v>15604.141559999996</v>
+        <v>10293.48834</v>
       </c>
       <c r="AL40" s="9">
         <f t="shared" ref="AL40" si="12">AL38*(1-AL41)</f>
-        <v>23027.910252599995</v>
+        <v>17557.937435999997</v>
       </c>
       <c r="AM40" s="9">
         <f t="shared" ref="AM40" si="13">AM38*(1-AM41)</f>
-        <v>30883.061339351993</v>
+        <v>25248.989338253996</v>
       </c>
       <c r="AN40" s="9">
         <f t="shared" ref="AN40" si="14">AN38*(1-AN41)</f>
-        <v>34269.300910382299</v>
+        <v>28466.206749251356</v>
       </c>
       <c r="AO40" s="9">
         <f t="shared" ref="AO40" si="15">AO38*(1-AO41)</f>
-        <v>35297.379937693768</v>
+        <v>29320.192951728899</v>
       </c>
       <c r="AP40" s="9">
         <f t="shared" ref="AP40" si="16">AP38*(1-AP41)</f>
-        <v>33062.699124216779</v>
+        <v>26906.196528672961</v>
       </c>
       <c r="AQ40" s="9">
         <f t="shared" ref="AQ40" si="17">AQ38*(1-AQ41)</f>
-        <v>31090.338107496267</v>
+        <v>24749.140434086137</v>
       </c>
       <c r="AR40" s="9">
         <f t="shared" ref="AR40" si="18">AR38*(1-AR41)</f>
-        <v>29355.230459318835</v>
+        <v>22823.796855706398</v>
       </c>
       <c r="AS40" s="9">
         <f t="shared" ref="AS40" si="19">AS38*(1-AS41)</f>
-        <v>27834.85136083631</v>
+        <v>21107.474749115507</v>
       </c>
       <c r="AT40" s="9">
         <f t="shared" ref="AT40" si="20">AT38*(1-AT41)</f>
-        <v>26508.96449062552</v>
+        <v>19579.766580553092</v>
       </c>
       <c r="AU40" s="9">
         <f t="shared" ref="AU40" si="21">AU38*(1-AU41)</f>
-        <v>25359.394255411997</v>
+        <v>18222.320408037394</v>
       </c>
       <c r="AV40" s="9">
         <f t="shared" ref="AV40" si="22">AV38*(1-AV41)</f>
-        <v>18243.832444472093</v>
+        <v>14568.23941307417</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R41" s="1"/>
       <c r="U41" s="3">
@@ -3363,7 +5152,7 @@
       </c>
       <c r="AG41" s="7">
         <f>AG42/AG38</f>
-        <v>0.99132576568858433</v>
+        <v>0.99633981021238138</v>
       </c>
       <c r="AH41" s="7">
         <f>AH42/AH38</f>
@@ -3414,7 +5203,7 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J42">
         <f t="shared" ref="J42:S42" si="23">J38-J40</f>
@@ -3462,87 +5251,87 @@
       </c>
       <c r="U42" s="9">
         <f t="shared" si="24"/>
-        <v>911.25</v>
+        <v>364.5</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="24"/>
-        <v>2733.75</v>
+        <v>1093.5</v>
       </c>
       <c r="W42" s="9">
         <f t="shared" si="24"/>
-        <v>4556.25</v>
+        <v>1822.5</v>
       </c>
       <c r="X42" s="9">
         <f t="shared" si="24"/>
-        <v>6378.7499999999991</v>
+        <v>2551.5</v>
       </c>
       <c r="Y42" s="9">
         <f>Y38-Y40</f>
-        <v>7290</v>
+        <v>2916</v>
       </c>
       <c r="AG42" s="9">
         <f>AG38-AG40</f>
-        <v>11571.25</v>
+        <v>11024.5</v>
       </c>
       <c r="AH42" s="9">
         <f>AH38-AH40</f>
-        <v>20958.75</v>
+        <v>8383.5</v>
       </c>
       <c r="AI42" s="9">
         <f t="shared" ref="AI42:AV42" si="25">AI38-AI40</f>
-        <v>45052.2</v>
+        <v>18020.88</v>
       </c>
       <c r="AJ42" s="9">
         <f t="shared" si="25"/>
-        <v>69605.649000000019</v>
+        <v>27842.259600000005</v>
       </c>
       <c r="AK42" s="9">
         <f t="shared" si="25"/>
-        <v>140437.27404000002</v>
+        <v>92641.395060000024</v>
       </c>
       <c r="AL42" s="9">
         <f t="shared" si="25"/>
-        <v>207251.1922734</v>
+        <v>158021.43692400001</v>
       </c>
       <c r="AM42" s="9">
         <f t="shared" si="25"/>
-        <v>277947.55205416802</v>
+        <v>227240.904044286</v>
       </c>
       <c r="AN42" s="9">
         <f t="shared" si="25"/>
-        <v>308423.70819344075</v>
+        <v>256195.86074326228</v>
       </c>
       <c r="AO42" s="9">
         <f t="shared" si="25"/>
-        <v>317676.41943924397</v>
+        <v>263881.73656556016</v>
       </c>
       <c r="AP42" s="9">
         <f t="shared" si="25"/>
-        <v>297564.29211795109</v>
+        <v>242155.76875805671</v>
       </c>
       <c r="AQ42" s="9">
         <f t="shared" si="25"/>
-        <v>279813.04296746646</v>
+        <v>222742.26390677528</v>
       </c>
       <c r="AR42" s="9">
         <f t="shared" si="25"/>
-        <v>264197.07413386955</v>
+        <v>205414.17170135764</v>
       </c>
       <c r="AS42" s="9">
         <f t="shared" si="25"/>
-        <v>250513.66224752687</v>
+        <v>189967.27274203961</v>
       </c>
       <c r="AT42" s="9">
         <f t="shared" si="25"/>
-        <v>238580.68041562973</v>
+        <v>176217.89922497788</v>
       </c>
       <c r="AU42" s="9">
         <f t="shared" si="25"/>
-        <v>228234.54829870805</v>
+        <v>164000.88367233658</v>
       </c>
       <c r="AV42" s="9">
         <f t="shared" si="25"/>
-        <v>164194.49200024887</v>
+        <v>131114.15471766758</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.2">
@@ -3868,27 +5657,27 @@
       <c r="S48" s="1">
         <v>1408</v>
       </c>
-      <c r="T48" s="58">
+      <c r="T48" s="53">
         <f>P48*1.05</f>
         <v>1486.8</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="53">
         <f t="shared" ref="U48" si="36">Q48*1.05</f>
         <v>1802.8500000000001</v>
       </c>
-      <c r="V48" s="58">
+      <c r="V48" s="53">
         <f t="shared" ref="V48" si="37">R48*1.05</f>
         <v>1785</v>
       </c>
-      <c r="W48" s="58">
+      <c r="W48" s="53">
         <f t="shared" ref="W48" si="38">S48*1.05</f>
         <v>1478.4</v>
       </c>
-      <c r="X48" s="58">
+      <c r="X48" s="53">
         <f t="shared" ref="X48" si="39">T48*1.05</f>
         <v>1561.14</v>
       </c>
-      <c r="Y48" s="58">
+      <c r="Y48" s="53">
         <f t="shared" ref="Y48" si="40">U48*1.05</f>
         <v>1892.9925000000003</v>
       </c>
@@ -4006,27 +5795,27 @@
       <c r="S49" s="1">
         <v>752</v>
       </c>
-      <c r="T49" s="58">
+      <c r="T49" s="53">
         <f t="shared" ref="T49:T50" si="42">P49*1.05</f>
         <v>1236.9000000000001</v>
       </c>
-      <c r="U49" s="58">
+      <c r="U49" s="53">
         <f t="shared" ref="U49:U50" si="43">Q49*1.05</f>
         <v>836.85</v>
       </c>
-      <c r="V49" s="58">
+      <c r="V49" s="53">
         <f t="shared" ref="V49:V50" si="44">R49*1.05</f>
         <v>905.1</v>
       </c>
-      <c r="W49" s="58">
+      <c r="W49" s="53">
         <f t="shared" ref="W49:W50" si="45">S49*1.05</f>
         <v>789.6</v>
       </c>
-      <c r="X49" s="58">
+      <c r="X49" s="53">
         <f t="shared" ref="X49:X50" si="46">T49*1.05</f>
         <v>1298.7450000000001</v>
       </c>
-      <c r="Y49" s="58">
+      <c r="Y49" s="53">
         <f t="shared" ref="Y49:Y50" si="47">U49*1.05</f>
         <v>878.69250000000011</v>
       </c>
@@ -4144,27 +5933,27 @@
       <c r="S50" s="1">
         <v>439</v>
       </c>
-      <c r="T50" s="58">
+      <c r="T50" s="53">
         <f>P50*1.05</f>
         <v>263.55</v>
       </c>
-      <c r="U50" s="58">
+      <c r="U50" s="53">
         <f t="shared" si="43"/>
         <v>274.05</v>
       </c>
-      <c r="V50" s="58">
+      <c r="V50" s="53">
         <f t="shared" si="44"/>
         <v>300.3</v>
       </c>
-      <c r="W50" s="58">
+      <c r="W50" s="53">
         <f t="shared" si="45"/>
         <v>460.95000000000005</v>
       </c>
-      <c r="X50" s="58">
+      <c r="X50" s="53">
         <f t="shared" si="46"/>
         <v>276.72750000000002</v>
       </c>
-      <c r="Y50" s="58">
+      <c r="Y50" s="53">
         <f t="shared" si="47"/>
         <v>287.7525</v>
       </c>
@@ -4431,27 +6220,27 @@
       <c r="S53" s="1">
         <v>1605</v>
       </c>
-      <c r="T53" s="58">
+      <c r="T53" s="53">
         <f>P53*1.05</f>
         <v>1408.05</v>
       </c>
-      <c r="U53" s="58">
+      <c r="U53" s="53">
         <f t="shared" ref="U53:Y53" si="77">Q53*1.05</f>
         <v>2661.75</v>
       </c>
-      <c r="V53" s="58">
+      <c r="V53" s="53">
         <f t="shared" si="77"/>
         <v>1561.3500000000001</v>
       </c>
-      <c r="W53" s="58">
+      <c r="W53" s="53">
         <f t="shared" si="77"/>
         <v>1685.25</v>
       </c>
-      <c r="X53" s="58">
+      <c r="X53" s="53">
         <f t="shared" si="77"/>
         <v>1478.4525000000001</v>
       </c>
-      <c r="Y53" s="58">
+      <c r="Y53" s="53">
         <f t="shared" si="77"/>
         <v>2794.8375000000001</v>
       </c>
@@ -4569,27 +6358,27 @@
       <c r="S54" s="1">
         <v>228</v>
       </c>
-      <c r="T54" s="59">
+      <c r="T54" s="54">
         <f>P54*2</f>
         <v>630</v>
       </c>
-      <c r="U54" s="59">
+      <c r="U54" s="54">
         <f>Q54*2</f>
         <v>698</v>
       </c>
-      <c r="V54" s="59">
+      <c r="V54" s="54">
         <f t="shared" ref="V54:Y54" si="79">R54*2</f>
         <v>286</v>
       </c>
-      <c r="W54" s="59">
+      <c r="W54" s="54">
         <f t="shared" si="79"/>
         <v>456</v>
       </c>
-      <c r="X54" s="59">
+      <c r="X54" s="54">
         <f t="shared" si="79"/>
         <v>1260</v>
       </c>
-      <c r="Y54" s="59">
+      <c r="Y54" s="54">
         <f t="shared" si="79"/>
         <v>1396</v>
       </c>
@@ -4705,27 +6494,27 @@
       <c r="S55" s="1">
         <v>889</v>
       </c>
-      <c r="T55" s="58">
+      <c r="T55" s="53">
         <f>P55*1.05</f>
         <v>1214.8500000000001</v>
       </c>
-      <c r="U55" s="58">
+      <c r="U55" s="53">
         <f t="shared" ref="U55:Y58" si="83">Q55*1.05</f>
         <v>1383.9</v>
       </c>
-      <c r="V55" s="58">
+      <c r="V55" s="53">
         <f t="shared" si="83"/>
         <v>1288.3500000000001</v>
       </c>
-      <c r="W55" s="58">
+      <c r="W55" s="53">
         <f t="shared" si="83"/>
         <v>933.45</v>
       </c>
-      <c r="X55" s="58">
+      <c r="X55" s="53">
         <f t="shared" si="83"/>
         <v>1275.5925000000002</v>
       </c>
-      <c r="Y55" s="58">
+      <c r="Y55" s="53">
         <f t="shared" si="83"/>
         <v>1453.0950000000003</v>
       </c>
@@ -4843,27 +6632,27 @@
       <c r="S56" s="1">
         <v>1091</v>
       </c>
-      <c r="T56" s="58">
+      <c r="T56" s="53">
         <f t="shared" ref="T56:T58" si="85">P56*1.05</f>
         <v>1761.9</v>
       </c>
-      <c r="U56" s="58">
+      <c r="U56" s="53">
         <f t="shared" si="83"/>
         <v>1261.05</v>
       </c>
-      <c r="V56" s="58">
+      <c r="V56" s="53">
         <f t="shared" si="83"/>
         <v>1251.6000000000001</v>
       </c>
-      <c r="W56" s="58">
+      <c r="W56" s="53">
         <f t="shared" si="83"/>
         <v>1145.55</v>
       </c>
-      <c r="X56" s="58">
+      <c r="X56" s="53">
         <f t="shared" si="83"/>
         <v>1849.9950000000001</v>
       </c>
-      <c r="Y56" s="58">
+      <c r="Y56" s="53">
         <f t="shared" si="83"/>
         <v>1324.1025</v>
       </c>
@@ -4981,27 +6770,27 @@
       <c r="S57" s="1">
         <v>607</v>
       </c>
-      <c r="T57" s="58">
+      <c r="T57" s="53">
         <f t="shared" si="85"/>
         <v>850.5</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="53">
         <f t="shared" si="83"/>
         <v>842.1</v>
       </c>
-      <c r="V57" s="58">
+      <c r="V57" s="53">
         <f t="shared" si="83"/>
         <v>837.90000000000009</v>
       </c>
-      <c r="W57" s="58">
+      <c r="W57" s="53">
         <f t="shared" si="83"/>
         <v>637.35</v>
       </c>
-      <c r="X57" s="58">
+      <c r="X57" s="53">
         <f t="shared" si="83"/>
         <v>893.02500000000009</v>
       </c>
-      <c r="Y57" s="58">
+      <c r="Y57" s="53">
         <f t="shared" si="83"/>
         <v>884.20500000000004</v>
       </c>
@@ -5119,27 +6908,27 @@
       <c r="S58" s="1">
         <v>873</v>
       </c>
-      <c r="T58" s="58">
+      <c r="T58" s="53">
         <f t="shared" si="85"/>
         <v>985.95</v>
       </c>
-      <c r="U58" s="58">
+      <c r="U58" s="53">
         <f t="shared" si="83"/>
         <v>708.75</v>
       </c>
-      <c r="V58" s="58">
+      <c r="V58" s="53">
         <f t="shared" si="83"/>
         <v>772.80000000000007</v>
       </c>
-      <c r="W58" s="58">
+      <c r="W58" s="53">
         <f t="shared" si="83"/>
         <v>916.65000000000009</v>
       </c>
-      <c r="X58" s="58">
+      <c r="X58" s="53">
         <f t="shared" si="83"/>
         <v>1035.2475000000002</v>
       </c>
-      <c r="Y58" s="58">
+      <c r="Y58" s="53">
         <f t="shared" si="83"/>
         <v>744.1875</v>
       </c>
@@ -5522,7 +7311,7 @@
     <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <f t="shared" ref="J63:S63" si="93">J42-J61</f>
@@ -5570,23 +7359,23 @@
       </c>
       <c r="U63" s="9">
         <f t="shared" si="94"/>
-        <v>-23533.55</v>
+        <v>-24080.3</v>
       </c>
       <c r="V63" s="9">
         <f t="shared" si="94"/>
-        <v>-25885.15</v>
+        <v>-27525.4</v>
       </c>
       <c r="W63" s="9">
         <f t="shared" si="94"/>
-        <v>-17872.95</v>
+        <v>-20606.7</v>
       </c>
       <c r="X63" s="9">
         <f t="shared" si="94"/>
-        <v>-23896.799999999999</v>
+        <v>-27724.05</v>
       </c>
       <c r="Y63">
         <f t="shared" si="94"/>
-        <v>-21967.989999999998</v>
+        <v>-26341.989999999998</v>
       </c>
       <c r="AC63">
         <f t="shared" ref="AC63:AV63" si="95">AC42-AC61</f>
@@ -5606,67 +7395,67 @@
       </c>
       <c r="AG63" s="9">
         <f t="shared" si="95"/>
-        <v>-76812.55</v>
+        <v>-77359.3</v>
       </c>
       <c r="AH63" s="9">
         <f t="shared" si="95"/>
-        <v>-70076.563999999998</v>
+        <v>-82651.813999999998</v>
       </c>
       <c r="AI63" s="9">
         <f t="shared" si="95"/>
-        <v>-48714.173420000006</v>
+        <v>-75745.493419999999</v>
       </c>
       <c r="AJ63" s="9">
         <f t="shared" si="95"/>
-        <v>-26973.715622599993</v>
+        <v>-68737.105022600008</v>
       </c>
       <c r="AK63" s="9">
         <f t="shared" si="95"/>
-        <v>40960.528478722001</v>
+        <v>-6835.3505012779933</v>
       </c>
       <c r="AL63" s="9">
         <f t="shared" si="95"/>
-        <v>104790.14434528364</v>
+        <v>55560.388995883652</v>
       </c>
       <c r="AM63" s="9">
         <f t="shared" si="95"/>
-        <v>172412.67268820817</v>
+        <v>121706.02467832615</v>
       </c>
       <c r="AN63" s="9">
         <f t="shared" si="95"/>
-        <v>199722.7824465021</v>
+        <v>147494.93499632363</v>
       </c>
       <c r="AO63" s="9">
         <f t="shared" si="95"/>
-        <v>205714.46591989713</v>
+        <v>151919.78304621333</v>
       </c>
       <c r="AP63" s="9">
         <f t="shared" si="95"/>
-        <v>182243.47999302385</v>
+        <v>126834.95663312949</v>
       </c>
       <c r="AQ63" s="9">
         <f t="shared" si="95"/>
-        <v>161032.60647879142</v>
+        <v>103961.82741810023</v>
       </c>
       <c r="AR63" s="9">
         <f t="shared" si="95"/>
-        <v>141853.22455053427</v>
+        <v>83070.322118022348</v>
       </c>
       <c r="AS63" s="9">
         <f t="shared" si="95"/>
-        <v>124499.49717669151</v>
+        <v>63953.107671204256</v>
       </c>
       <c r="AT63" s="9">
         <f t="shared" si="95"/>
-        <v>108786.09039266931</v>
+        <v>46423.309202017466</v>
       </c>
       <c r="AU63" s="9">
         <f t="shared" si="95"/>
-        <v>94546.120575058827</v>
+        <v>30312.455948687362</v>
       </c>
       <c r="AV63" s="9">
         <f t="shared" si="95"/>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.2">
@@ -6032,23 +7821,23 @@
       </c>
       <c r="U70">
         <f t="shared" si="117"/>
-        <v>-23533.55</v>
+        <v>-24080.3</v>
       </c>
       <c r="V70">
         <f t="shared" si="117"/>
-        <v>-25885.15</v>
+        <v>-27525.4</v>
       </c>
       <c r="W70">
         <f t="shared" si="117"/>
-        <v>-17872.95</v>
+        <v>-20606.7</v>
       </c>
       <c r="X70">
         <f t="shared" si="117"/>
-        <v>-23896.799999999999</v>
+        <v>-27724.05</v>
       </c>
       <c r="Y70">
         <f t="shared" si="117"/>
-        <v>-21967.989999999998</v>
+        <v>-26341.989999999998</v>
       </c>
       <c r="AC70">
         <f t="shared" ref="AC70:AV70" si="118">AC63+AC68</f>
@@ -6068,67 +7857,67 @@
       </c>
       <c r="AG70" s="9">
         <f t="shared" si="118"/>
-        <v>-88492.55</v>
+        <v>-89039.3</v>
       </c>
       <c r="AH70" s="9">
         <f t="shared" si="118"/>
-        <v>-70076.563999999998</v>
+        <v>-82651.813999999998</v>
       </c>
       <c r="AI70" s="9">
         <f t="shared" si="118"/>
-        <v>-48714.173420000006</v>
+        <v>-75745.493419999999</v>
       </c>
       <c r="AJ70" s="9">
         <f t="shared" si="118"/>
-        <v>-26973.715622599993</v>
+        <v>-68737.105022600008</v>
       </c>
       <c r="AK70" s="9">
         <f t="shared" si="118"/>
-        <v>40960.528478722001</v>
+        <v>-6835.3505012779933</v>
       </c>
       <c r="AL70" s="9">
         <f t="shared" si="118"/>
-        <v>104790.14434528364</v>
+        <v>55560.388995883652</v>
       </c>
       <c r="AM70" s="9">
         <f t="shared" si="118"/>
-        <v>172412.67268820817</v>
+        <v>121706.02467832615</v>
       </c>
       <c r="AN70" s="9">
         <f t="shared" si="118"/>
-        <v>199722.7824465021</v>
+        <v>147494.93499632363</v>
       </c>
       <c r="AO70" s="9">
         <f t="shared" si="118"/>
-        <v>205714.46591989713</v>
+        <v>151919.78304621333</v>
       </c>
       <c r="AP70" s="9">
         <f t="shared" si="118"/>
-        <v>182243.47999302385</v>
+        <v>126834.95663312949</v>
       </c>
       <c r="AQ70" s="9">
         <f t="shared" si="118"/>
-        <v>161032.60647879142</v>
+        <v>103961.82741810023</v>
       </c>
       <c r="AR70" s="9">
         <f t="shared" si="118"/>
-        <v>141853.22455053427</v>
+        <v>83070.322118022348</v>
       </c>
       <c r="AS70" s="9">
         <f t="shared" si="118"/>
-        <v>124499.49717669151</v>
+        <v>63953.107671204256</v>
       </c>
       <c r="AT70" s="9">
         <f t="shared" si="118"/>
-        <v>108786.09039266931</v>
+        <v>46423.309202017466</v>
       </c>
       <c r="AU70" s="9">
         <f t="shared" si="118"/>
-        <v>94546.120575058827</v>
+        <v>30312.455948687362</v>
       </c>
       <c r="AV70" s="9">
         <f t="shared" si="118"/>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.2">
@@ -6136,7 +7925,7 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.2">
@@ -6250,23 +8039,23 @@
       </c>
       <c r="U75" s="24">
         <f t="shared" si="121"/>
-        <v>-23533.55</v>
+        <v>-24080.3</v>
       </c>
       <c r="V75" s="24">
         <f t="shared" si="121"/>
-        <v>-25885.15</v>
+        <v>-27525.4</v>
       </c>
       <c r="W75" s="24">
         <f t="shared" si="121"/>
-        <v>-17872.95</v>
+        <v>-20606.7</v>
       </c>
       <c r="X75" s="24">
         <f t="shared" si="121"/>
-        <v>-23896.799999999999</v>
+        <v>-27724.05</v>
       </c>
       <c r="Y75" s="24">
         <f t="shared" si="121"/>
-        <v>-21967.989999999998</v>
+        <v>-26341.989999999998</v>
       </c>
       <c r="AC75" s="2">
         <f t="shared" ref="AC75:AV75" si="122">AC70-AC72</f>
@@ -6286,67 +8075,67 @@
       </c>
       <c r="AG75" s="24">
         <f t="shared" si="122"/>
-        <v>-88492.55</v>
+        <v>-89039.3</v>
       </c>
       <c r="AH75" s="24">
         <f t="shared" si="122"/>
-        <v>-70076.563999999998</v>
+        <v>-82651.813999999998</v>
       </c>
       <c r="AI75" s="24">
         <f t="shared" si="122"/>
-        <v>-48714.173420000006</v>
+        <v>-75745.493419999999</v>
       </c>
       <c r="AJ75" s="24">
         <f t="shared" si="122"/>
-        <v>-26973.715622599993</v>
+        <v>-68737.105022600008</v>
       </c>
       <c r="AK75" s="24">
         <f t="shared" si="122"/>
-        <v>40960.528478722001</v>
+        <v>-6835.3505012779933</v>
       </c>
       <c r="AL75" s="24">
         <f t="shared" si="122"/>
-        <v>104790.14434528364</v>
+        <v>55560.388995883652</v>
       </c>
       <c r="AM75" s="24">
         <f t="shared" si="122"/>
-        <v>172412.67268820817</v>
+        <v>121706.02467832615</v>
       </c>
       <c r="AN75" s="24">
         <f t="shared" si="122"/>
-        <v>199722.7824465021</v>
+        <v>147494.93499632363</v>
       </c>
       <c r="AO75" s="24">
         <f t="shared" si="122"/>
-        <v>205714.46591989713</v>
+        <v>151919.78304621333</v>
       </c>
       <c r="AP75" s="24">
         <f t="shared" si="122"/>
-        <v>182243.47999302385</v>
+        <v>126834.95663312949</v>
       </c>
       <c r="AQ75" s="24">
         <f t="shared" si="122"/>
-        <v>161032.60647879142</v>
+        <v>103961.82741810023</v>
       </c>
       <c r="AR75" s="24">
         <f t="shared" si="122"/>
-        <v>141853.22455053427</v>
+        <v>83070.322118022348</v>
       </c>
       <c r="AS75" s="24">
         <f t="shared" si="122"/>
-        <v>124499.49717669151</v>
+        <v>63953.107671204256</v>
       </c>
       <c r="AT75" s="24">
         <f t="shared" si="122"/>
-        <v>108786.09039266931</v>
+        <v>46423.309202017466</v>
       </c>
       <c r="AU75" s="24">
         <f t="shared" si="122"/>
-        <v>94546.120575058827</v>
+        <v>30312.455948687362</v>
       </c>
       <c r="AV75" s="24">
         <f t="shared" si="122"/>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.2">
@@ -6440,7 +8229,7 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J78" s="1">
         <v>24135735</v>
@@ -6489,22 +8278,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q89">
         <v>16657</v>
@@ -6515,7 +8304,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q90">
         <v>13923</v>
@@ -6523,7 +8312,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q91">
         <v>6728</v>
@@ -6534,7 +8323,7 @@
     </row>
     <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q92" s="2">
         <f>Q91+Q89+Q90</f>
@@ -6547,7 +8336,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q94">
         <v>857</v>
@@ -6558,7 +8347,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q95">
         <v>198</v>
@@ -6569,7 +8358,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q96">
         <f>Q95+Q94</f>
@@ -6582,7 +8371,7 @@
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q97" s="2">
         <f>Q95+Q94+Q92</f>
@@ -6595,7 +8384,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q99">
         <v>477</v>
@@ -6606,7 +8395,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q100">
         <v>4534</v>
@@ -6617,7 +8406,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q101">
         <v>14756</v>
@@ -6628,7 +8417,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q102">
         <v>13657</v>
@@ -6639,7 +8428,7 @@
     </row>
     <row r="103" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q103" s="2">
         <f>Q99+Q100+Q101+Q102</f>
@@ -6652,7 +8441,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q105">
         <v>414</v>
@@ -6663,7 +8452,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q106">
         <v>464</v>
@@ -6674,7 +8463,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q107">
         <f>Q106+Q105</f>
@@ -6687,7 +8476,7 @@
     </row>
     <row r="108" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q108" s="2">
         <f>Q107+Q103</f>
@@ -6700,7 +8489,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -6711,12 +8500,12 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q112">
         <v>352828</v>
@@ -6727,7 +8516,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q113">
         <v>51</v>
@@ -6735,7 +8524,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q114">
         <v>-348823</v>
@@ -6746,7 +8535,7 @@
     </row>
     <row r="115" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q115" s="2">
         <f>Q114+Q113+Q112+Q111+Q110</f>
@@ -6759,7 +8548,7 @@
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q117" s="2">
         <f>Q115+Q108</f>
@@ -6792,8 +8581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4175F-29B7-9342-B5A3-7256B9575DF3}">
   <dimension ref="B10:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="226" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6810,757 +8599,757 @@
   <sheetData>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>120</v>
-      </c>
       <c r="K10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="O10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="X10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="X10" s="16" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="E11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="37" t="e">
+      <c r="B11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="E11" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="37" t="e">
+        <v>405</v>
+      </c>
+      <c r="G11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="37" t="e">
+        <v>1215</v>
+      </c>
+      <c r="H11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="37" t="e">
+        <v>2025</v>
+      </c>
+      <c r="I11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="37" t="e">
+        <v>2835</v>
+      </c>
+      <c r="J11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="37" t="e">
+        <v>3240</v>
+      </c>
+      <c r="K11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="37" t="e">
+        <v>20023.2</v>
+      </c>
+      <c r="L11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="37" t="e">
+        <v>30935.844000000005</v>
+      </c>
+      <c r="M11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="37" t="e">
+        <v>102934.88340000002</v>
+      </c>
+      <c r="N11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="37" t="e">
+        <v>175579.37436000002</v>
+      </c>
+      <c r="O11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="37" t="e">
+        <v>252489.89338254</v>
+      </c>
+      <c r="P11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="37" t="e">
+        <v>284662.06749251363</v>
+      </c>
+      <c r="Q11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R11" s="37" t="e">
+        <v>293201.92951728904</v>
+      </c>
+      <c r="R11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S11" s="37" t="e">
+        <v>269061.96528672968</v>
+      </c>
+      <c r="S11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" s="37" t="e">
+        <v>247491.40434086142</v>
+      </c>
+      <c r="T11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U11" s="37" t="e">
+        <v>228237.96855706404</v>
+      </c>
+      <c r="U11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V11" s="37" t="e">
+        <v>211074.74749115511</v>
+      </c>
+      <c r="V11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" s="37" t="e">
+        <v>195797.66580553097</v>
+      </c>
+      <c r="W11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" s="38" t="e">
+        <v>182223.20408037398</v>
+      </c>
+      <c r="X11" s="37">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>#N/A</v>
+        <v>145682.39413074174</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="30">
+        <v>158</v>
+      </c>
+      <c r="C12" s="29">
         <v>2.8</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="39">
+        <v>156</v>
+      </c>
+      <c r="F12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>911.25</v>
-      </c>
-      <c r="G12" s="39">
+        <v>364.5</v>
+      </c>
+      <c r="G12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>2733.75</v>
-      </c>
-      <c r="H12" s="39">
+        <v>1093.5</v>
+      </c>
+      <c r="H12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>4556.25</v>
-      </c>
-      <c r="I12" s="39">
+        <v>1822.5</v>
+      </c>
+      <c r="I12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>6378.7499999999991</v>
-      </c>
-      <c r="J12" s="39">
+        <v>2551.5</v>
+      </c>
+      <c r="J12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>7290</v>
-      </c>
-      <c r="K12" s="39">
+        <v>2916</v>
+      </c>
+      <c r="K12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>45052.2</v>
-      </c>
-      <c r="L12" s="39">
+        <v>18020.88</v>
+      </c>
+      <c r="L12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69605.649000000019</v>
-      </c>
-      <c r="M12" s="39">
+        <v>27842.259600000005</v>
+      </c>
+      <c r="M12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>140437.27404000002</v>
-      </c>
-      <c r="N12" s="39">
+        <v>92641.395060000024</v>
+      </c>
+      <c r="N12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>207251.1922734</v>
-      </c>
-      <c r="O12" s="39">
+        <v>158021.43692400001</v>
+      </c>
+      <c r="O12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>277947.55205416802</v>
-      </c>
-      <c r="P12" s="39">
+        <v>227240.904044286</v>
+      </c>
+      <c r="P12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>308423.70819344075</v>
-      </c>
-      <c r="Q12" s="39">
+        <v>256195.86074326228</v>
+      </c>
+      <c r="Q12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>317676.41943924397</v>
-      </c>
-      <c r="R12" s="39">
+        <v>263881.73656556016</v>
+      </c>
+      <c r="R12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>297564.29211795109</v>
-      </c>
-      <c r="S12" s="39">
+        <v>242155.76875805671</v>
+      </c>
+      <c r="S12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>279813.04296746646</v>
-      </c>
-      <c r="T12" s="39">
+        <v>222742.26390677528</v>
+      </c>
+      <c r="T12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>264197.07413386955</v>
-      </c>
-      <c r="U12" s="39">
+        <v>205414.17170135764</v>
+      </c>
+      <c r="U12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>250513.66224752687</v>
-      </c>
-      <c r="V12" s="39">
+        <v>189967.27274203961</v>
+      </c>
+      <c r="V12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>238580.68041562973</v>
-      </c>
-      <c r="W12" s="39">
+        <v>176217.89922497788</v>
+      </c>
+      <c r="W12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>228234.54829870805</v>
-      </c>
-      <c r="X12" s="39">
+        <v>164000.88367233658</v>
+      </c>
+      <c r="X12" s="38">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>164194.49200024887</v>
+        <v>131114.15471766758</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="32">
+        <v>159</v>
+      </c>
+      <c r="C13" s="31">
         <v>63.12</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16889.25</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22620.9</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16654.95</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22483.237499999999</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>20661.5625</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>79576.369500000001</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>76912.605584999998</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>74421.481502549999</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>72095.548810126493</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69927.766993805286</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67911.484137025705</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66040.418587872409</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66629.260056908272</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67235.76677001518</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67860.468684515319</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>68503.911656450451</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69166.657917543649</v>
       </c>
-      <c r="W13" s="40">
+      <c r="W13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69849.286566469644</v>
       </c>
-      <c r="X13" s="40">
+      <c r="X13" s="39">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>70552.394074863405</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="32">
+        <v>160</v>
+      </c>
+      <c r="C14" s="31">
         <f>C12*C13</f>
         <v>176.73599999999999</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7555.5499999999993</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5998.0000000000009</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5774.25</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7792.3125000000009</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>8596.4274999999998</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29005.819700000004</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29875.994291000003</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30772.274119730002</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>31695.442343321905</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>32646.30561362156</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>33625.694782030208</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>34634.465625491117</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35673.499594255853</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>36743.704582083526</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>37846.015719546034</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>38981.396191132422</v>
       </c>
-      <c r="V14" s="40">
+      <c r="V14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>40150.838076866392</v>
       </c>
-      <c r="W14" s="40">
+      <c r="W14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>41355.363219172388</v>
       </c>
-      <c r="X14" s="40">
+      <c r="X14" s="39">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>42596.024115747561</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="31"/>
+        <v>161</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="E15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="41">
+        <v>43</v>
+      </c>
+      <c r="F15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23533.55</v>
-      </c>
-      <c r="G15" s="41">
+        <v>-24080.3</v>
+      </c>
+      <c r="G15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-25885.15</v>
-      </c>
-      <c r="H15" s="41">
+        <v>-27525.4</v>
+      </c>
+      <c r="H15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-17872.95</v>
-      </c>
-      <c r="I15" s="41">
+        <v>-20606.7</v>
+      </c>
+      <c r="I15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23896.799999999999</v>
-      </c>
-      <c r="J15" s="41">
+        <v>-27724.05</v>
+      </c>
+      <c r="J15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-21967.989999999998</v>
-      </c>
-      <c r="K15" s="41">
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="K15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-48714.173420000006</v>
-      </c>
-      <c r="L15" s="41">
+        <v>-75745.493419999999</v>
+      </c>
+      <c r="L15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-26973.715622599993</v>
-      </c>
-      <c r="M15" s="41">
+        <v>-68737.105022600008</v>
+      </c>
+      <c r="M15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>40960.528478722001</v>
-      </c>
-      <c r="N15" s="41">
+        <v>-6835.3505012779933</v>
+      </c>
+      <c r="N15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>104790.14434528364</v>
-      </c>
-      <c r="O15" s="41">
+        <v>55560.388995883652</v>
+      </c>
+      <c r="O15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>172412.67268820817</v>
-      </c>
-      <c r="P15" s="41">
+        <v>121706.02467832615</v>
+      </c>
+      <c r="P15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>199722.7824465021</v>
-      </c>
-      <c r="Q15" s="41">
+        <v>147494.93499632363</v>
+      </c>
+      <c r="Q15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>205714.46591989713</v>
-      </c>
-      <c r="R15" s="41">
+        <v>151919.78304621333</v>
+      </c>
+      <c r="R15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>182243.47999302385</v>
-      </c>
-      <c r="S15" s="41">
+        <v>126834.95663312949</v>
+      </c>
+      <c r="S15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>161032.60647879142</v>
-      </c>
-      <c r="T15" s="41">
+        <v>103961.82741810023</v>
+      </c>
+      <c r="T15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>141853.22455053427</v>
-      </c>
-      <c r="U15" s="41">
+        <v>83070.322118022348</v>
+      </c>
+      <c r="U15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>124499.49717669151</v>
-      </c>
-      <c r="V15" s="41">
+        <v>63953.107671204256</v>
+      </c>
+      <c r="V15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>108786.09039266931</v>
-      </c>
-      <c r="W15" s="41">
+        <v>46423.309202017466</v>
+      </c>
+      <c r="W15" s="40">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>94546.120575058827</v>
-      </c>
-      <c r="X15" s="42">
+        <v>30312.455948687362</v>
+      </c>
+      <c r="X15" s="41">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="32">
+        <v>162</v>
+      </c>
+      <c r="C16" s="31">
         <f>Model!S102/1000</f>
         <v>25.992000000000001</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="40">
+      <c r="T16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="40">
+      <c r="V16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="40">
+      <c r="X16" s="39">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="32">
+        <v>163</v>
+      </c>
+      <c r="C17" s="31">
         <f>Model!S89/1000</f>
         <v>35.616</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23533.55</v>
-      </c>
-      <c r="G17" s="41">
+        <v>-24080.3</v>
+      </c>
+      <c r="G17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-25885.15</v>
-      </c>
-      <c r="H17" s="41">
+        <v>-27525.4</v>
+      </c>
+      <c r="H17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-17872.95</v>
-      </c>
-      <c r="I17" s="41">
+        <v>-20606.7</v>
+      </c>
+      <c r="I17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23896.799999999999</v>
-      </c>
-      <c r="J17" s="41">
+        <v>-27724.05</v>
+      </c>
+      <c r="J17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-21967.989999999998</v>
-      </c>
-      <c r="K17" s="41">
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="K17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-48714.173420000006</v>
-      </c>
-      <c r="L17" s="41">
+        <v>-75745.493419999999</v>
+      </c>
+      <c r="L17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-26973.715622599993</v>
-      </c>
-      <c r="M17" s="41">
+        <v>-68737.105022600008</v>
+      </c>
+      <c r="M17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>40960.528478722001</v>
-      </c>
-      <c r="N17" s="41">
+        <v>-6835.3505012779933</v>
+      </c>
+      <c r="N17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>104790.14434528364</v>
-      </c>
-      <c r="O17" s="41">
+        <v>55560.388995883652</v>
+      </c>
+      <c r="O17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>172412.67268820817</v>
-      </c>
-      <c r="P17" s="41">
+        <v>121706.02467832615</v>
+      </c>
+      <c r="P17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>199722.7824465021</v>
-      </c>
-      <c r="Q17" s="41">
+        <v>147494.93499632363</v>
+      </c>
+      <c r="Q17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>205714.46591989713</v>
-      </c>
-      <c r="R17" s="41">
+        <v>151919.78304621333</v>
+      </c>
+      <c r="R17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>182243.47999302385</v>
-      </c>
-      <c r="S17" s="41">
+        <v>126834.95663312949</v>
+      </c>
+      <c r="S17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>161032.60647879142</v>
-      </c>
-      <c r="T17" s="41">
+        <v>103961.82741810023</v>
+      </c>
+      <c r="T17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>141853.22455053427</v>
-      </c>
-      <c r="U17" s="41">
+        <v>83070.322118022348</v>
+      </c>
+      <c r="U17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>124499.49717669151</v>
-      </c>
-      <c r="V17" s="41">
+        <v>63953.107671204256</v>
+      </c>
+      <c r="V17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>108786.09039266931</v>
-      </c>
-      <c r="W17" s="41">
+        <v>46423.309202017466</v>
+      </c>
+      <c r="W17" s="40">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>94546.120575058827</v>
-      </c>
-      <c r="X17" s="42">
+        <v>30312.455948687362</v>
+      </c>
+      <c r="X17" s="41">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="32">
+        <v>164</v>
+      </c>
+      <c r="C18" s="31">
         <f>C14-C17+C16</f>
         <v>167.11199999999999</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23533.55</v>
-      </c>
-      <c r="G18" s="39">
+        <v>-24080.3</v>
+      </c>
+      <c r="G18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-25885.15</v>
-      </c>
-      <c r="H18" s="39">
+        <v>-27525.4</v>
+      </c>
+      <c r="H18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-17872.95</v>
-      </c>
-      <c r="I18" s="39">
+        <v>-20606.7</v>
+      </c>
+      <c r="I18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-23896.799999999999</v>
-      </c>
-      <c r="J18" s="39">
+        <v>-27724.05</v>
+      </c>
+      <c r="J18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-21967.989999999998</v>
-      </c>
-      <c r="K18" s="39">
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="K18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-48714.173420000006</v>
-      </c>
-      <c r="L18" s="39">
+        <v>-75745.493419999999</v>
+      </c>
+      <c r="L18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-26973.715622599993</v>
-      </c>
-      <c r="M18" s="39">
+        <v>-68737.105022600008</v>
+      </c>
+      <c r="M18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>40960.528478722001</v>
-      </c>
-      <c r="N18" s="39">
+        <v>-6835.3505012779933</v>
+      </c>
+      <c r="N18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>104790.14434528364</v>
-      </c>
-      <c r="O18" s="39">
+        <v>55560.388995883652</v>
+      </c>
+      <c r="O18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>172412.67268820817</v>
-      </c>
-      <c r="P18" s="39">
+        <v>121706.02467832615</v>
+      </c>
+      <c r="P18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>199722.7824465021</v>
-      </c>
-      <c r="Q18" s="39">
+        <v>147494.93499632363</v>
+      </c>
+      <c r="Q18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>205714.46591989713</v>
-      </c>
-      <c r="R18" s="39">
+        <v>151919.78304621333</v>
+      </c>
+      <c r="R18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>182243.47999302385</v>
-      </c>
-      <c r="S18" s="39">
+        <v>126834.95663312949</v>
+      </c>
+      <c r="S18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>161032.60647879142</v>
-      </c>
-      <c r="T18" s="39">
+        <v>103961.82741810023</v>
+      </c>
+      <c r="T18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>141853.22455053427</v>
-      </c>
-      <c r="U18" s="39">
+        <v>83070.322118022348</v>
+      </c>
+      <c r="U18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>124499.49717669151</v>
-      </c>
-      <c r="V18" s="39">
+        <v>63953.107671204256</v>
+      </c>
+      <c r="V18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>108786.09039266931</v>
-      </c>
-      <c r="W18" s="39">
+        <v>46423.309202017466</v>
+      </c>
+      <c r="W18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>94546.120575058827</v>
-      </c>
-      <c r="X18" s="39">
+        <v>30312.455948687362</v>
+      </c>
+      <c r="X18" s="38">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>57243.749821329489</v>
+        <v>24163.412538748205</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
@@ -7569,40 +9358,40 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="33">
+        <v>165</v>
+      </c>
+      <c r="C20" s="32">
         <f>C21+C22</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="B21" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="32">
         <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="33">
+        <v>167</v>
+      </c>
+      <c r="C22" s="32">
         <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="33">
+        <v>168</v>
+      </c>
+      <c r="C23" s="32">
         <v>-0.02</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="28"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="28"/>
@@ -7610,23 +9399,23 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="32">
+        <v>169</v>
+      </c>
+      <c r="C26" s="31">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
-        <v>427.27815905791823</v>
+        <v>146.38175226667505</v>
       </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="32">
+        <v>170</v>
+      </c>
+      <c r="C27" s="31">
         <f>C17</f>
         <v>35.616</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -7635,22 +9424,22 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="32">
+        <v>171</v>
+      </c>
+      <c r="C28" s="31">
         <f>C26+C27-C16</f>
-        <v>436.9021590579182</v>
+        <v>156.00575226667505</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="36">
+        <v>174</v>
+      </c>
+      <c r="C29" s="35">
         <f>C28/C13</f>
-        <v>6.9217705807654974</v>
+        <v>2.4715740219688698</v>
       </c>
       <c r="F29" s="13"/>
     </row>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7809F3-2B7D-AF48-B7B4-3775DF3EBFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43980B-B33A-ED45-83A2-920EA52564EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -18,129 +18,129 @@
     <sheet name="Valuation" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Main!$AG$16</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Main!$AL$17:$AL$27</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">Main!$AG$16</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">Main!$AG$17:$AG$27</definedName>
-    <definedName name="_xlchart.v2.35" hidden="1">Main!$AH$16</definedName>
-    <definedName name="_xlchart.v2.36" hidden="1">Main!$AH$17:$AH$27</definedName>
-    <definedName name="_xlchart.v2.37" hidden="1">Main!$AI$16</definedName>
-    <definedName name="_xlchart.v2.38" hidden="1">Main!$AI$17:$AI$27</definedName>
-    <definedName name="_xlchart.v2.39" hidden="1">Main!$AJ$16</definedName>
-    <definedName name="_xlchart.v2.40" hidden="1">Main!$AJ$17:$AJ$27</definedName>
-    <definedName name="_xlchart.v2.41" hidden="1">Main!$AK$16</definedName>
-    <definedName name="_xlchart.v2.42" hidden="1">Main!$AK$17:$AK$27</definedName>
-    <definedName name="_xlchart.v2.43" hidden="1">Main!$AL$16</definedName>
-    <definedName name="_xlchart.v2.44" hidden="1">Main!$AL$17:$AL$27</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.36" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.37" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.38" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.39" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.40" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.41" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.42" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.43" hidden="1">Main!#REF!</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">Main!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="192">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -705,9 +705,6 @@
     <t>Safety and Efficacy of AT-001 in Patients With Diabetic Cardiomyopathy</t>
   </si>
   <si>
-    <t>Recruiting</t>
-  </si>
-  <si>
     <t>4Q2026E</t>
   </si>
   <si>
@@ -739,6 +736,9 @@
   </si>
   <si>
     <t>Success Probability</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -1060,1137 +1060,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AH$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5.0%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="53000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$AG$17:$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AH$17:$AH$27</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.8573614281767785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.2909146556694946</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.7244678831622151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7.1580211106549312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.591574338147649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.0251275656403669</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.4586807931330856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.8922340206258035</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.3257872481185204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.7593404756112365</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.1928937031039561</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFCA-494B-9080-D357E7300675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AI$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15.0%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$AG$17:$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AI$17:$AI$27</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.8573614281767785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.1580211106549312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.4586807931330847</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.7593404756112347</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0600001580893883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.36065984056754191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3386804769543057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0380207944761528</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7373611119979993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4367014295198457</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.136041747041693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CFCA-494B-9080-D357E7300675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AJ$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25.0%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$AG$17:$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AJ$17:$AJ$27</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.8573614281767785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.0251275656403669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.1928937031039535</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.36065984056754147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4715740219688698</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3038078845052805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.136041747041693</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.968275609578104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.800509472114513</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.632743334650929</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.464977197187334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CFCA-494B-9080-D357E7300675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AK$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$AG$17:$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AK$17:$AK$27</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.8573614281767785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.8922340206258008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.92710661307482378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0380207944761555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0031482020271314</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.968275609578107</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.933403017129086</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.898530424680057</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.863657832231041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.828785239782015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.793912647332988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CFCA-494B-9080-D357E7300675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Main!$AL$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Main!$AG$17:$AG$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Main!$AL$17:$AL$27</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-8.8573614281767785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.7593404756112356</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3386804769543053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4367014295198492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.534722382085388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.632743334650929</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.73076428721647</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.828785239782015</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.926806192347552</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.02482714491309</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.122848097478602</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CFCA-494B-9080-D357E7300675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="47000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="82000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="83000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="48000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="13000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="78000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="43000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="8000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="865898447"/>
-        <c:axId val="865741535"/>
-        <c:axId val="447990031"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="865898447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="865741535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="865741535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="865898447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="447990031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="865741535"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>396429</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>652803</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F24DFB-D1C1-76EC-E049-3FAF97DE16A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2488,14 +1357,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
-  <dimension ref="B5:AL54"/>
+  <dimension ref="B5:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AE36" sqref="AE36"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,12 +1380,12 @@
     <col min="20" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:38" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:31" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>177</v>
       </c>
@@ -2526,7 +1395,7 @@
       </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>70</v>
       </c>
@@ -2537,10 +1406,10 @@
         <v>70</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +1423,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>73</v>
       </c>
@@ -2565,14 +1434,14 @@
         <v>73</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D11" s="13"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>128</v>
       </c>
@@ -2588,7 +1457,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>127</v>
       </c>
@@ -2598,7 +1467,7 @@
       </c>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>130</v>
       </c>
@@ -2614,29 +1483,22 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D15" s="13"/>
       <c r="S15" s="13"/>
       <c r="Y15" s="6" t="s">
         <v>174</v>
       </c>
       <c r="Z15" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA15" s="50"/>
       <c r="AB15" s="50"/>
       <c r="AC15" s="50"/>
       <c r="AD15" s="50"/>
       <c r="AE15" s="72"/>
-      <c r="AH15" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-    </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>128</v>
       </c>
@@ -2675,28 +1537,8 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AE16" s="59"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="58">
-        <f>AI16-0.1</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AI16" s="58">
-        <f>AJ16-0.1</f>
-        <v>0.15</v>
-      </c>
-      <c r="AJ16" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="AK16" s="59">
-        <f>AJ16+0.1</f>
-        <v>0.35</v>
-      </c>
-      <c r="AL16" s="59">
-        <f>AK16+0.1</f>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
         <v>126</v>
       </c>
@@ -2709,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="65">
-        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
         <v>-8.8573614281767785</v>
       </c>
       <c r="AA17" s="65">
@@ -2725,26 +1567,8 @@
         <v>-8.8573614281767785</v>
       </c>
       <c r="AE17" s="61"/>
-      <c r="AG17" s="59">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="65">
-        <v>-8.8573614281767785</v>
-      </c>
-      <c r="AI17" s="65">
-        <v>-8.8573614281767785</v>
-      </c>
-      <c r="AJ17" s="62">
-        <v>-8.8573614281767785</v>
-      </c>
-      <c r="AK17" s="65">
-        <v>-8.8573614281767785</v>
-      </c>
-      <c r="AL17" s="61">
-        <v>-8.8573614281767785</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>130</v>
       </c>
@@ -2756,7 +1580,7 @@
         <v>130</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="S18" s="13"/>
       <c r="Y18" s="59">
@@ -2779,34 +1603,15 @@
         <v>-3.7593404756112356</v>
       </c>
       <c r="AE18" s="61"/>
-      <c r="AG18" s="59">
-        <f>AG17+0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="AH18" s="65">
-        <v>-8.2909146556694946</v>
-      </c>
-      <c r="AI18" s="65">
-        <v>-7.1580211106549312</v>
-      </c>
-      <c r="AJ18" s="62">
-        <v>-6.0251275656403669</v>
-      </c>
-      <c r="AK18" s="65">
-        <v>-4.8922340206258008</v>
-      </c>
-      <c r="AL18" s="61">
-        <v>-3.7593404756112356</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="D19" s="13"/>
       <c r="Q19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="S19" s="13"/>
       <c r="Y19" s="59">
@@ -2829,29 +1634,10 @@
         <v>1.3386804769543053</v>
       </c>
       <c r="AE19" s="61"/>
-      <c r="AG19" s="59">
-        <f t="shared" ref="AG19:AG27" si="1">AG18+0.1</f>
-        <v>0.2</v>
-      </c>
-      <c r="AH19" s="65">
-        <v>-7.7244678831622151</v>
-      </c>
-      <c r="AI19" s="65">
-        <v>-5.4586807931330847</v>
-      </c>
-      <c r="AJ19" s="62">
-        <v>-3.1928937031039535</v>
-      </c>
-      <c r="AK19" s="65">
-        <v>-0.92710661307482378</v>
-      </c>
-      <c r="AL19" s="61">
-        <v>1.3386804769543053</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X20" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y20" s="59">
         <f t="shared" si="0"/>
@@ -2873,27 +1659,8 @@
         <v>6.4367014295198492</v>
       </c>
       <c r="AE20" s="61"/>
-      <c r="AG20" s="59">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AH20" s="65">
-        <v>-7.1580211106549312</v>
-      </c>
-      <c r="AI20" s="65">
-        <v>-3.7593404756112347</v>
-      </c>
-      <c r="AJ20" s="62">
-        <v>-0.36065984056754147</v>
-      </c>
-      <c r="AK20" s="65">
-        <v>3.0380207944761555</v>
-      </c>
-      <c r="AL20" s="61">
-        <v>6.4367014295198492</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>72</v>
       </c>
@@ -2930,30 +1697,8 @@
         <v>11.534722382085388</v>
       </c>
       <c r="AE21" s="61"/>
-      <c r="AF21" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG21" s="49">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AH21" s="63">
-        <v>-6.591574338147649</v>
-      </c>
-      <c r="AI21" s="63">
-        <v>-2.0600001580893883</v>
-      </c>
-      <c r="AJ21" s="64">
-        <v>2.4715740219688698</v>
-      </c>
-      <c r="AK21" s="61">
-        <v>7.0031482020271314</v>
-      </c>
-      <c r="AL21" s="61">
-        <v>11.534722382085388</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>79</v>
       </c>
@@ -2964,7 +1709,7 @@
         <v>79</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X22" s="51"/>
       <c r="Y22" s="59">
@@ -2987,28 +1732,8 @@
         <v>16.632743334650929</v>
       </c>
       <c r="AE22" s="61"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="59">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AH22" s="61">
-        <v>-6.0251275656403669</v>
-      </c>
-      <c r="AI22" s="61">
-        <v>-0.36065984056754191</v>
-      </c>
-      <c r="AJ22" s="61">
-        <v>5.3038078845052805</v>
-      </c>
-      <c r="AK22" s="61">
-        <v>10.968275609578107</v>
-      </c>
-      <c r="AL22" s="61">
-        <v>16.632743334650929</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>75</v>
       </c>
@@ -3019,7 +1744,7 @@
         <v>75</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X23" s="51"/>
       <c r="Y23" s="59">
@@ -3042,28 +1767,8 @@
         <v>21.73076428721647</v>
       </c>
       <c r="AE23" s="61"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="59">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AH23" s="61">
-        <v>-5.4586807931330856</v>
-      </c>
-      <c r="AI23" s="61">
-        <v>1.3386804769543057</v>
-      </c>
-      <c r="AJ23" s="61">
-        <v>8.136041747041693</v>
-      </c>
-      <c r="AK23" s="61">
-        <v>14.933403017129086</v>
-      </c>
-      <c r="AL23" s="61">
-        <v>21.73076428721647</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>80</v>
       </c>
@@ -3075,7 +1780,7 @@
         <v>174</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K24" s="50"/>
       <c r="L24" s="50"/>
@@ -3108,28 +1813,8 @@
         <v>26.828785239782015</v>
       </c>
       <c r="AE24" s="61"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="59">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AH24" s="61">
-        <v>-4.8922340206258035</v>
-      </c>
-      <c r="AI24" s="61">
-        <v>3.0380207944761528</v>
-      </c>
-      <c r="AJ24" s="61">
-        <v>10.968275609578104</v>
-      </c>
-      <c r="AK24" s="61">
-        <v>18.898530424680057</v>
-      </c>
-      <c r="AL24" s="61">
-        <v>26.828785239782015</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>81</v>
       </c>
@@ -3166,7 +1851,7 @@
         <v>81</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X25" s="51"/>
       <c r="Y25" s="59">
@@ -3189,35 +1874,15 @@
         <v>31.926806192347552</v>
       </c>
       <c r="AE25" s="61"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="59">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AH25" s="61">
-        <v>-4.3257872481185204</v>
-      </c>
-      <c r="AI25" s="61">
-        <v>4.7373611119979993</v>
-      </c>
-      <c r="AJ25" s="61">
-        <v>13.800509472114513</v>
-      </c>
-      <c r="AK25" s="61">
-        <v>22.863657832231041</v>
-      </c>
-      <c r="AL25" s="61">
-        <v>31.926806192347552</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="H26" s="51"/>
       <c r="I26" s="55">
         <f>I27-500</f>
         <v>1000</v>
       </c>
       <c r="J26" s="66">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
         <v>0.27107854734194714</v>
       </c>
       <c r="K26" s="66">
@@ -3252,28 +1917,8 @@
         <v>37.02482714491309</v>
       </c>
       <c r="AE26" s="61"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="59">
-        <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="AH26" s="61">
-        <v>-3.7593404756112365</v>
-      </c>
-      <c r="AI26" s="61">
-        <v>6.4367014295198457</v>
-      </c>
-      <c r="AJ26" s="61">
-        <v>16.632743334650929</v>
-      </c>
-      <c r="AK26" s="61">
-        <v>26.828785239782015</v>
-      </c>
-      <c r="AL26" s="61">
-        <v>37.02482714491309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
@@ -3324,27 +1969,8 @@
         <v>42.122848097478631</v>
       </c>
       <c r="AE27" s="61"/>
-      <c r="AG27" s="59">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AH27" s="61">
-        <v>-3.1928937031039561</v>
-      </c>
-      <c r="AI27" s="61">
-        <v>8.136041747041693</v>
-      </c>
-      <c r="AJ27" s="61">
-        <v>19.464977197187334</v>
-      </c>
-      <c r="AK27" s="61">
-        <v>30.793912647332988</v>
-      </c>
-      <c r="AL27" s="61">
-        <v>42.122848097478602</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>78</v>
       </c>
@@ -3377,7 +2003,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>83</v>
       </c>
@@ -3405,7 +2031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>84</v>
       </c>
@@ -3439,7 +2065,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>85</v>
       </c>
@@ -3453,13 +2079,13 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
       <c r="I32" s="6" t="s">
         <v>174</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="50"/>
@@ -3922,11 +2548,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="X20:X25"/>
-    <mergeCell ref="AH15:AL15"/>
-    <mergeCell ref="AF21:AF26"/>
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="H25:H30"/>
     <mergeCell ref="J32:N32"/>
@@ -3941,7 +2565,6 @@
   <ignoredErrors>
     <ignoredError sqref="C16" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4906,7 +3529,7 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ref="J38:T38" si="6">J34</f>
@@ -8662,7 +7285,7 @@
       </c>
       <c r="C11" s="34"/>
       <c r="E11" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43980B-B33A-ED45-83A2-920EA52564EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA830B6-A381-7148-9D89-B7C94F59A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -1,147 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA830B6-A381-7148-9D89-B7C94F59A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB5961-C3A9-9449-AD0E-9EC5EED3D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="32160" yWindow="1200" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
     <sheet name="Valuation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.35" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.36" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.37" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.38" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.39" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.40" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.41" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.42" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.43" hidden="1">Main!#REF!</definedName>
-    <definedName name="_xlchart.v2.44" hidden="1">Main!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -163,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -279,9 +154,6 @@
     <t>Applied Therapeutics</t>
   </si>
   <si>
-    <t>APLT</t>
-  </si>
-  <si>
     <t>HC Net Income</t>
   </si>
   <si>
@@ -739,6 +611,9 @@
   </si>
   <si>
     <t>Ongoing</t>
+  </si>
+  <si>
+    <t>NASDAQGM: APLT</t>
   </si>
 </sst>
 </file>
@@ -751,9 +626,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -833,6 +708,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -955,7 +838,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -982,7 +865,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -994,10 +876,7 @@
     <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1006,35 +885,34 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1359,12 +1237,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="AD78" sqref="AD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1252,7 @@
     <col min="3" max="3" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="10.83203125" style="11"/>
-    <col min="15" max="15" width="10.83203125" style="52"/>
+    <col min="15" max="15" width="10.83203125" style="46"/>
     <col min="16" max="18" width="10.83203125" style="11"/>
     <col min="19" max="19" width="14.5" style="11" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="11"/>
@@ -1382,42 +1260,42 @@
   <sheetData>
     <row r="5" spans="2:31" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="13">
         <v>0.9</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S9" s="13">
         <v>0.4</v>
@@ -1425,61 +1303,64 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="Q10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="13"/>
       <c r="Q12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="19"/>
       <c r="Q13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" s="19"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D14" s="13"/>
       <c r="Q14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="S14" s="13"/>
     </row>
@@ -1487,360 +1368,360 @@
       <c r="D15" s="13"/>
       <c r="S15" s="13"/>
       <c r="Y15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z15" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="72"/>
+        <v>173</v>
+      </c>
+      <c r="Z15" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="59"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="13"/>
       <c r="Q16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S16" s="13"/>
-      <c r="Y16" s="60">
+      <c r="Y16" s="40">
         <f>Valuation!$C$29</f>
         <v>2.4715740219688698</v>
       </c>
-      <c r="Z16" s="58">
+      <c r="Z16" s="39">
         <f>AA16-0.1</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="AA16" s="58">
+      <c r="AA16" s="39">
         <f>AB16-0.1</f>
         <v>0.15</v>
       </c>
-      <c r="AB16" s="71">
+      <c r="AB16" s="58">
         <v>0.25</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AC16" s="13">
         <f>AB16+0.1</f>
         <v>0.35</v>
       </c>
-      <c r="AD16" s="59">
+      <c r="AD16" s="13">
         <f>AC16+0.1</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="AE16" s="59"/>
+      <c r="AE16" s="13"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="13"/>
       <c r="Q17" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S17" s="13"/>
-      <c r="Y17" s="59">
+      <c r="Y17" s="13">
         <v>0</v>
       </c>
-      <c r="Z17" s="65">
-        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
+      <c r="Z17" s="52">
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
         <v>-8.8573614281767785</v>
       </c>
-      <c r="AA17" s="65">
+      <c r="AA17" s="52">
         <v>-8.8573614281767785</v>
       </c>
-      <c r="AB17" s="62">
+      <c r="AB17" s="49">
         <v>-8.8573614281767785</v>
       </c>
-      <c r="AC17" s="65">
+      <c r="AC17" s="52">
         <v>-8.8573614281767785</v>
       </c>
-      <c r="AD17" s="61">
+      <c r="AD17" s="48">
         <v>-8.8573614281767785</v>
       </c>
-      <c r="AE17" s="61"/>
+      <c r="AE17" s="48"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="13"/>
       <c r="Q18" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S18" s="13"/>
-      <c r="Y18" s="59">
+      <c r="Y18" s="13">
         <f>Y17+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="Z18" s="65">
+      <c r="Z18" s="52">
         <v>-8.2909146556694946</v>
       </c>
-      <c r="AA18" s="65">
+      <c r="AA18" s="52">
         <v>-7.1580211106549312</v>
       </c>
-      <c r="AB18" s="62">
+      <c r="AB18" s="49">
         <v>-6.0251275656403669</v>
       </c>
-      <c r="AC18" s="65">
+      <c r="AC18" s="52">
         <v>-4.8922340206258008</v>
       </c>
-      <c r="AD18" s="61">
+      <c r="AD18" s="48">
         <v>-3.7593404756112356</v>
       </c>
-      <c r="AE18" s="61"/>
+      <c r="AE18" s="48"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="D19" s="13"/>
       <c r="Q19" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="S19" s="13"/>
-      <c r="Y19" s="59">
+      <c r="Y19" s="13">
         <f t="shared" ref="Y19:Y27" si="0">Y18+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="Z19" s="65">
+      <c r="Z19" s="52">
         <v>-7.7244678831622151</v>
       </c>
-      <c r="AA19" s="65">
+      <c r="AA19" s="52">
         <v>-5.4586807931330847</v>
       </c>
-      <c r="AB19" s="62">
+      <c r="AB19" s="49">
         <v>-3.1928937031039535</v>
       </c>
-      <c r="AC19" s="65">
+      <c r="AC19" s="52">
         <v>-0.92710661307482378</v>
       </c>
-      <c r="AD19" s="61">
+      <c r="AD19" s="48">
         <v>1.3386804769543053</v>
       </c>
-      <c r="AE19" s="61"/>
+      <c r="AE19" s="48"/>
     </row>
     <row r="20" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X20" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y20" s="59">
+      <c r="X20" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" s="13">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Z20" s="65">
+      <c r="Z20" s="52">
         <v>-7.1580211106549312</v>
       </c>
-      <c r="AA20" s="65">
+      <c r="AA20" s="52">
         <v>-3.7593404756112347</v>
       </c>
-      <c r="AB20" s="62">
+      <c r="AB20" s="49">
         <v>-0.36065984056754147</v>
       </c>
-      <c r="AC20" s="65">
+      <c r="AC20" s="52">
         <v>3.0380207944761555</v>
       </c>
-      <c r="AD20" s="61">
+      <c r="AD20" s="48">
         <v>6.4367014295198492</v>
       </c>
-      <c r="AE20" s="61"/>
+      <c r="AE20" s="48"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="Q21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="49">
+      <c r="X21" s="60"/>
+      <c r="Y21" s="45">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="Z21" s="63">
+      <c r="Z21" s="50">
         <v>-6.591574338147649</v>
       </c>
-      <c r="AA21" s="63">
+      <c r="AA21" s="50">
         <v>-2.0600001580893883</v>
       </c>
-      <c r="AB21" s="64">
+      <c r="AB21" s="51">
         <v>2.4715740219688698</v>
       </c>
-      <c r="AC21" s="61">
+      <c r="AC21" s="48">
         <v>7.0031482020271314</v>
       </c>
-      <c r="AD21" s="61">
+      <c r="AD21" s="48">
         <v>11.534722382085388</v>
       </c>
-      <c r="AE21" s="61"/>
+      <c r="AE21" s="48"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="59">
+        <v>179</v>
+      </c>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Z22" s="61">
+      <c r="Z22" s="48">
         <v>-6.0251275656403669</v>
       </c>
-      <c r="AA22" s="61">
+      <c r="AA22" s="48">
         <v>-0.36065984056754191</v>
       </c>
-      <c r="AB22" s="61">
+      <c r="AB22" s="48">
         <v>5.3038078845052805</v>
       </c>
-      <c r="AC22" s="61">
+      <c r="AC22" s="48">
         <v>10.968275609578107</v>
       </c>
-      <c r="AD22" s="61">
+      <c r="AD22" s="48">
         <v>16.632743334650929</v>
       </c>
-      <c r="AE22" s="61"/>
+      <c r="AE22" s="48"/>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="Q23" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="59">
+        <v>184</v>
+      </c>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Z23" s="61">
+      <c r="Z23" s="48">
         <v>-5.4586807931330856</v>
       </c>
-      <c r="AA23" s="61">
+      <c r="AA23" s="48">
         <v>1.3386804769543057</v>
       </c>
-      <c r="AB23" s="61">
+      <c r="AB23" s="48">
         <v>8.136041747041693</v>
       </c>
-      <c r="AC23" s="61">
+      <c r="AC23" s="48">
         <v>14.933403017129086</v>
       </c>
-      <c r="AD23" s="61">
+      <c r="AD23" s="48">
         <v>21.73076428721647</v>
       </c>
-      <c r="AE23" s="61"/>
+      <c r="AE23" s="48"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="11">
         <f>2037-2023</f>
         <v>14</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
       <c r="Q24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S24" s="11">
         <v>4</v>
       </c>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="59">
+      <c r="X24" s="60"/>
+      <c r="Y24" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="Z24" s="61">
+      <c r="Z24" s="48">
         <v>-4.8922340206258035</v>
       </c>
-      <c r="AA24" s="61">
+      <c r="AA24" s="48">
         <v>3.0380207944761528</v>
       </c>
-      <c r="AB24" s="61">
+      <c r="AB24" s="48">
         <v>10.968275609578104</v>
       </c>
-      <c r="AC24" s="61">
+      <c r="AC24" s="48">
         <v>18.898530424680057</v>
       </c>
-      <c r="AD24" s="61">
+      <c r="AD24" s="48">
         <v>26.828785239782015</v>
       </c>
-      <c r="AE24" s="61"/>
+      <c r="AE24" s="48"/>
     </row>
     <row r="25" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="I25" s="44">
+      <c r="H25" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="40">
         <f>Valuation!$C$29</f>
         <v>2.4715740219688698</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="39">
         <f>K25-0.1</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="39">
         <f>L25-0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="39">
         <f>M25-0.1</f>
         <v>0.4</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="42">
         <v>0.5</v>
       </c>
       <c r="N25" s="13">
@@ -1848,156 +1729,156 @@
         <v>0.6</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="59">
+        <v>180</v>
+      </c>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="13">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="Z25" s="61">
+      <c r="Z25" s="48">
         <v>-4.3257872481185204</v>
       </c>
-      <c r="AA25" s="61">
+      <c r="AA25" s="48">
         <v>4.7373611119979993</v>
       </c>
-      <c r="AB25" s="61">
+      <c r="AB25" s="48">
         <v>13.800509472114513</v>
       </c>
-      <c r="AC25" s="61">
+      <c r="AC25" s="48">
         <v>22.863657832231041</v>
       </c>
-      <c r="AD25" s="61">
+      <c r="AD25" s="48">
         <v>31.926806192347552</v>
       </c>
-      <c r="AE25" s="61"/>
+      <c r="AE25" s="48"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="H26" s="51"/>
-      <c r="I26" s="55">
+      <c r="H26" s="60"/>
+      <c r="I26" s="14">
         <f>I27-500</f>
         <v>1000</v>
       </c>
-      <c r="J26" s="66">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
+      <c r="J26" s="53">
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
         <v>0.27107854734194714</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="53">
         <v>0.51011075457351773</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="53">
         <v>0.74914296180508888</v>
       </c>
-      <c r="M26" s="67">
+      <c r="M26" s="54">
         <v>0.98817516903666036</v>
       </c>
-      <c r="N26" s="68">
+      <c r="N26" s="55">
         <v>1.227207376268231</v>
       </c>
-      <c r="Y26" s="59">
+      <c r="Y26" s="13">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Z26" s="61">
+      <c r="Z26" s="48">
         <v>-3.7593404756112365</v>
       </c>
-      <c r="AA26" s="61">
+      <c r="AA26" s="48">
         <v>6.4367014295198457</v>
       </c>
-      <c r="AB26" s="61">
+      <c r="AB26" s="48">
         <v>16.632743334650929</v>
       </c>
-      <c r="AC26" s="61">
+      <c r="AC26" s="48">
         <v>26.828785239782015</v>
       </c>
-      <c r="AD26" s="61">
+      <c r="AD26" s="48">
         <v>37.02482714491309</v>
       </c>
-      <c r="AE26" s="61"/>
+      <c r="AE26" s="48"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="55">
+      <c r="H27" s="60"/>
+      <c r="I27" s="14">
         <f>I28-500</f>
         <v>1500</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="53">
         <v>0.65422966296069585</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="53">
         <v>1.0127779738080531</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="53">
         <v>1.371326284655408</v>
       </c>
-      <c r="M27" s="67">
+      <c r="M27" s="54">
         <v>1.7298745955027646</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="55">
         <v>2.0884229063501207</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="Y27" s="59">
+      <c r="Y27" s="13">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Z27" s="61">
+      <c r="Z27" s="48">
         <v>-3.1928937031039561</v>
       </c>
-      <c r="AA27" s="61">
+      <c r="AA27" s="48">
         <v>8.136041747041693</v>
       </c>
-      <c r="AB27" s="61">
+      <c r="AB27" s="48">
         <v>19.464977197187334</v>
       </c>
-      <c r="AC27" s="61">
+      <c r="AC27" s="48">
         <v>30.793912647332988</v>
       </c>
-      <c r="AD27" s="61">
+      <c r="AD27" s="48">
         <v>42.122848097478631</v>
       </c>
-      <c r="AE27" s="61"/>
+      <c r="AE27" s="48"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="11">
         <v>3000</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="45">
+      <c r="H28" s="60"/>
+      <c r="I28" s="41">
         <v>2000</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="56">
         <v>1.0373807785794447</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="56">
         <v>1.5154451930425867</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="56">
         <v>1.9935096075057281</v>
       </c>
-      <c r="M28" s="70">
+      <c r="M28" s="57">
         <v>2.4715740219688698</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="55">
         <v>2.9496384364320116</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S28" s="11">
         <v>3000</v>
@@ -2005,61 +1886,61 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="56">
+        <v>82</v>
+      </c>
+      <c r="H29" s="60"/>
+      <c r="I29" s="14">
         <f>I28+500</f>
         <v>2500</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="53">
         <v>1.4205318941981933</v>
       </c>
-      <c r="K29" s="66">
+      <c r="K29" s="53">
         <v>2.0181124122771203</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="53">
         <v>2.6156929303560479</v>
       </c>
-      <c r="M29" s="66">
+      <c r="M29" s="53">
         <v>3.2132734484349754</v>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="55">
         <v>3.8108539665139021</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="14">
         <v>1000</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="56">
+      <c r="H30" s="60"/>
+      <c r="I30" s="14">
         <f>I29+500</f>
         <v>3000</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="55">
         <v>1.8036830098169427</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="55">
         <v>2.5207796315116555</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="55">
         <v>3.2378762532063674</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="55">
         <v>3.9549728749010802</v>
       </c>
-      <c r="N30" s="68">
+      <c r="N30" s="55">
         <v>4.6720694965957916</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S30" s="14">
         <v>2000</v>
@@ -2067,13 +1948,13 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="14">
         <v>3000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S31" s="14">
         <v>5000</v>
@@ -2082,38 +1963,38 @@
     <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
       <c r="I32" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="J32" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="H33" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="44">
+      <c r="H33" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="40">
         <f>Valuation!$C$29</f>
         <v>2.4715740219688698</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="39">
         <f>K33-0.1</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="39">
         <f>L33-0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="39">
         <f>M33-0.1</f>
         <v>0.4</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="42">
         <v>0.5</v>
       </c>
       <c r="N33" s="13">
@@ -2123,70 +2004,70 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="48">
+        <v>101</v>
+      </c>
+      <c r="H34" s="60"/>
+      <c r="I34" s="44">
         <f>I35-0.05</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="55">
         <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46" ca="1"/>
         <v>0.19169137451590657</v>
       </c>
-      <c r="K34" s="68">
+      <c r="K34" s="55">
         <v>0.46615811761397041</v>
       </c>
-      <c r="L34" s="68">
+      <c r="L34" s="55">
         <v>0.74062486071203515</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="54">
         <v>1.0150916038100974</v>
       </c>
-      <c r="N34" s="68">
+      <c r="N34" s="55">
         <v>1.289558346908162</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="13">
         <v>0.3</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="47">
+      <c r="H35" s="60"/>
+      <c r="I35" s="43">
         <f>I36-0.05</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="55">
         <v>0.50934132509678565</v>
       </c>
-      <c r="K35" s="68">
+      <c r="K35" s="55">
         <v>0.8680104595754351</v>
       </c>
-      <c r="L35" s="68">
+      <c r="L35" s="55">
         <v>1.2266795940540851</v>
       </c>
-      <c r="M35" s="67">
+      <c r="M35" s="54">
         <v>1.5853487285327361</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="55">
         <v>1.9440178630113865</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S35" s="13">
         <v>0.3</v>
@@ -2194,32 +2075,32 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="13">
         <v>0.6</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="49">
+      <c r="H36" s="60"/>
+      <c r="I36" s="45">
         <v>0.03</v>
       </c>
-      <c r="J36" s="69">
+      <c r="J36" s="56">
         <v>1.0373807785794447</v>
       </c>
-      <c r="K36" s="69">
+      <c r="K36" s="56">
         <v>1.5154451930425867</v>
       </c>
-      <c r="L36" s="69">
+      <c r="L36" s="56">
         <v>1.9935096075057281</v>
       </c>
-      <c r="M36" s="70">
+      <c r="M36" s="57">
         <v>2.4715740219688698</v>
       </c>
-      <c r="N36" s="68">
+      <c r="N36" s="55">
         <v>2.9496384364320116</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S36" s="13">
         <v>0.6</v>
@@ -2227,33 +2108,33 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="13">
         <v>0.9</v>
       </c>
-      <c r="H37" s="51"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="13">
         <f>I36+0.05</f>
         <v>0.08</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="55">
         <v>1.9220192768634841</v>
       </c>
-      <c r="K37" s="68">
+      <c r="K37" s="55">
         <v>2.5709316280667589</v>
       </c>
-      <c r="L37" s="68">
+      <c r="L37" s="55">
         <v>3.2198439792700344</v>
       </c>
-      <c r="M37" s="68">
+      <c r="M37" s="55">
         <v>3.868756330473309</v>
       </c>
-      <c r="N37" s="68">
+      <c r="N37" s="55">
         <v>4.5176686816765859</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="13">
         <v>0.9</v>
@@ -2261,33 +2142,33 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
-      <c r="H38" s="51"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="13">
         <f>I37+0.05</f>
         <v>0.13</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="55">
         <v>3.4038580827746241</v>
       </c>
-      <c r="K38" s="68">
+      <c r="K38" s="55">
         <v>4.2987012088701393</v>
       </c>
-      <c r="L38" s="68">
+      <c r="L38" s="55">
         <v>5.1935443349656536</v>
       </c>
-      <c r="M38" s="68">
+      <c r="M38" s="55">
         <v>6.0883874610611706</v>
       </c>
-      <c r="N38" s="68">
+      <c r="N38" s="55">
         <v>6.983230587156684</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S38" s="13">
         <v>1</v>
@@ -2295,31 +2176,31 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="Q40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="11">
         <v>3000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S41" s="11">
         <v>4000000</v>
@@ -2327,20 +2208,20 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="14">
         <f>(D31+D30)/2</f>
         <v>2000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S42" s="14">
         <v>500</v>
@@ -2348,20 +2229,20 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="14">
         <f>D42*D41</f>
         <v>6000000</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S43" s="14">
         <f>S42*S41</f>
@@ -2370,14 +2251,14 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
         <v>0.5</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13">
@@ -2386,20 +2267,20 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="14">
         <f>D44*D43</f>
         <v>3000000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S45" s="14">
         <f>S44*S43</f>
@@ -2408,13 +2289,13 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" s="13">
         <v>0.03</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S46" s="13">
         <v>0.03</v>
@@ -2422,31 +2303,31 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="Q48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="11">
         <v>3000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S49" s="11">
         <v>4000000</v>
@@ -2454,19 +2335,19 @@
     </row>
     <row r="50" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="14">
         <v>1500</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S50" s="14">
         <f>S42/2</f>
@@ -2475,20 +2356,20 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="14">
         <f>D50*D49</f>
         <v>4500000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S51" s="14">
         <f>S50*S49</f>
@@ -2497,14 +2378,14 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
         <v>0.25</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13">
@@ -2513,20 +2394,20 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="14">
         <f>D52*D51</f>
         <v>1125000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S53" s="14">
         <f>S52*S51</f>
@@ -2535,13 +2416,13 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="13">
         <v>-0.1</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S54" s="13">
         <v>-0.1</v>
@@ -2549,12 +2430,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H33:H38"/>
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="X20:X25"/>
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="H25:H30"/>
     <mergeCell ref="J32:N32"/>
-    <mergeCell ref="H33:H38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{671B7884-8D00-B741-BEA0-5327B1DB523D}"/>
@@ -2572,11 +2453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="AC32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y65" sqref="Y65"/>
+      <selection pane="bottomRight" activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2591,14 +2472,14 @@
     <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2657,102 +2538,102 @@
         <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AM3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U7" s="4">
         <f>Main!D45*3/1000</f>
@@ -2841,7 +2722,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U8" s="7">
         <v>0.05</v>
@@ -2914,7 +2795,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U9" s="4">
         <f>U8*U7</f>
@@ -3003,7 +2884,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U11" s="3">
         <f>Main!$D$9</f>
@@ -3092,7 +2973,7 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U12" s="4">
         <f>U11*U9</f>
@@ -3188,27 +3069,27 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG21" s="9">
         <f>Main!$S$45/1000</f>
@@ -3277,7 +3158,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -3326,7 +3207,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3383,7 +3264,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AK25" s="3">
@@ -3437,7 +3318,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK26" s="9">
         <f>AK25*AK23</f>
@@ -3490,17 +3371,17 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
@@ -3520,7 +3401,7 @@
     </row>
     <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R36" s="23"/>
     </row>
@@ -3529,7 +3410,7 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ref="J38:T38" si="6">J34</f>
@@ -3665,7 +3546,7 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R40" s="1"/>
       <c r="U40" s="9">
@@ -3755,7 +3636,7 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R41" s="1"/>
       <c r="U41" s="3">
@@ -3826,7 +3707,7 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J42">
         <f t="shared" ref="J42:S42" si="23">J38-J40</f>
@@ -3962,7 +3843,7 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.2">
@@ -4009,7 +3890,7 @@
         <v>15052.5</v>
       </c>
       <c r="U46" s="9">
-        <f t="shared" ref="U46:Y46" si="28">Q46*1.5</f>
+        <f t="shared" ref="U46:W46" si="28">Q46*1.5</f>
         <v>13444.5</v>
       </c>
       <c r="V46" s="9">
@@ -4280,27 +4161,27 @@
       <c r="S48" s="1">
         <v>1408</v>
       </c>
-      <c r="T48" s="53">
+      <c r="T48" s="9">
         <f>P48*1.05</f>
         <v>1486.8</v>
       </c>
-      <c r="U48" s="53">
+      <c r="U48" s="9">
         <f t="shared" ref="U48" si="36">Q48*1.05</f>
         <v>1802.8500000000001</v>
       </c>
-      <c r="V48" s="53">
+      <c r="V48" s="9">
         <f t="shared" ref="V48" si="37">R48*1.05</f>
         <v>1785</v>
       </c>
-      <c r="W48" s="53">
+      <c r="W48" s="9">
         <f t="shared" ref="W48" si="38">S48*1.05</f>
         <v>1478.4</v>
       </c>
-      <c r="X48" s="53">
+      <c r="X48" s="9">
         <f t="shared" ref="X48" si="39">T48*1.05</f>
         <v>1561.14</v>
       </c>
-      <c r="Y48" s="53">
+      <c r="Y48" s="9">
         <f t="shared" ref="Y48" si="40">U48*1.05</f>
         <v>1892.9925000000003</v>
       </c>
@@ -4418,27 +4299,27 @@
       <c r="S49" s="1">
         <v>752</v>
       </c>
-      <c r="T49" s="53">
-        <f t="shared" ref="T49:T50" si="42">P49*1.05</f>
+      <c r="T49" s="9">
+        <f t="shared" ref="T49" si="42">P49*1.05</f>
         <v>1236.9000000000001</v>
       </c>
-      <c r="U49" s="53">
+      <c r="U49" s="9">
         <f t="shared" ref="U49:U50" si="43">Q49*1.05</f>
         <v>836.85</v>
       </c>
-      <c r="V49" s="53">
+      <c r="V49" s="9">
         <f t="shared" ref="V49:V50" si="44">R49*1.05</f>
         <v>905.1</v>
       </c>
-      <c r="W49" s="53">
+      <c r="W49" s="9">
         <f t="shared" ref="W49:W50" si="45">S49*1.05</f>
         <v>789.6</v>
       </c>
-      <c r="X49" s="53">
+      <c r="X49" s="9">
         <f t="shared" ref="X49:X50" si="46">T49*1.05</f>
         <v>1298.7450000000001</v>
       </c>
-      <c r="Y49" s="53">
+      <c r="Y49" s="9">
         <f t="shared" ref="Y49:Y50" si="47">U49*1.05</f>
         <v>878.69250000000011</v>
       </c>
@@ -4556,27 +4437,27 @@
       <c r="S50" s="1">
         <v>439</v>
       </c>
-      <c r="T50" s="53">
+      <c r="T50" s="9">
         <f>P50*1.05</f>
         <v>263.55</v>
       </c>
-      <c r="U50" s="53">
+      <c r="U50" s="9">
         <f t="shared" si="43"/>
         <v>274.05</v>
       </c>
-      <c r="V50" s="53">
+      <c r="V50" s="9">
         <f t="shared" si="44"/>
         <v>300.3</v>
       </c>
-      <c r="W50" s="53">
+      <c r="W50" s="9">
         <f t="shared" si="45"/>
         <v>460.95000000000005</v>
       </c>
-      <c r="X50" s="53">
+      <c r="X50" s="9">
         <f t="shared" si="46"/>
         <v>276.72750000000002</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y50" s="9">
         <f t="shared" si="47"/>
         <v>287.7525</v>
       </c>
@@ -4843,27 +4724,27 @@
       <c r="S53" s="1">
         <v>1605</v>
       </c>
-      <c r="T53" s="53">
+      <c r="T53" s="9">
         <f>P53*1.05</f>
         <v>1408.05</v>
       </c>
-      <c r="U53" s="53">
+      <c r="U53" s="9">
         <f t="shared" ref="U53:Y53" si="77">Q53*1.05</f>
         <v>2661.75</v>
       </c>
-      <c r="V53" s="53">
+      <c r="V53" s="9">
         <f t="shared" si="77"/>
         <v>1561.3500000000001</v>
       </c>
-      <c r="W53" s="53">
+      <c r="W53" s="9">
         <f t="shared" si="77"/>
         <v>1685.25</v>
       </c>
-      <c r="X53" s="53">
+      <c r="X53" s="9">
         <f t="shared" si="77"/>
         <v>1478.4525000000001</v>
       </c>
-      <c r="Y53" s="53">
+      <c r="Y53" s="9">
         <f t="shared" si="77"/>
         <v>2794.8375000000001</v>
       </c>
@@ -4981,27 +4862,27 @@
       <c r="S54" s="1">
         <v>228</v>
       </c>
-      <c r="T54" s="54">
+      <c r="T54">
         <f>P54*2</f>
         <v>630</v>
       </c>
-      <c r="U54" s="54">
+      <c r="U54">
         <f>Q54*2</f>
         <v>698</v>
       </c>
-      <c r="V54" s="54">
+      <c r="V54">
         <f t="shared" ref="V54:Y54" si="79">R54*2</f>
         <v>286</v>
       </c>
-      <c r="W54" s="54">
+      <c r="W54">
         <f t="shared" si="79"/>
         <v>456</v>
       </c>
-      <c r="X54" s="54">
+      <c r="X54">
         <f t="shared" si="79"/>
         <v>1260</v>
       </c>
-      <c r="Y54" s="54">
+      <c r="Y54">
         <f t="shared" si="79"/>
         <v>1396</v>
       </c>
@@ -5117,27 +4998,27 @@
       <c r="S55" s="1">
         <v>889</v>
       </c>
-      <c r="T55" s="53">
+      <c r="T55" s="9">
         <f>P55*1.05</f>
         <v>1214.8500000000001</v>
       </c>
-      <c r="U55" s="53">
+      <c r="U55" s="9">
         <f t="shared" ref="U55:Y58" si="83">Q55*1.05</f>
         <v>1383.9</v>
       </c>
-      <c r="V55" s="53">
+      <c r="V55" s="9">
         <f t="shared" si="83"/>
         <v>1288.3500000000001</v>
       </c>
-      <c r="W55" s="53">
+      <c r="W55" s="9">
         <f t="shared" si="83"/>
         <v>933.45</v>
       </c>
-      <c r="X55" s="53">
+      <c r="X55" s="9">
         <f t="shared" si="83"/>
         <v>1275.5925000000002</v>
       </c>
-      <c r="Y55" s="53">
+      <c r="Y55" s="9">
         <f t="shared" si="83"/>
         <v>1453.0950000000003</v>
       </c>
@@ -5255,27 +5136,27 @@
       <c r="S56" s="1">
         <v>1091</v>
       </c>
-      <c r="T56" s="53">
+      <c r="T56" s="9">
         <f t="shared" ref="T56:T58" si="85">P56*1.05</f>
         <v>1761.9</v>
       </c>
-      <c r="U56" s="53">
+      <c r="U56" s="9">
         <f t="shared" si="83"/>
         <v>1261.05</v>
       </c>
-      <c r="V56" s="53">
+      <c r="V56" s="9">
         <f t="shared" si="83"/>
         <v>1251.6000000000001</v>
       </c>
-      <c r="W56" s="53">
+      <c r="W56" s="9">
         <f t="shared" si="83"/>
         <v>1145.55</v>
       </c>
-      <c r="X56" s="53">
+      <c r="X56" s="9">
         <f t="shared" si="83"/>
         <v>1849.9950000000001</v>
       </c>
-      <c r="Y56" s="53">
+      <c r="Y56" s="9">
         <f t="shared" si="83"/>
         <v>1324.1025</v>
       </c>
@@ -5393,27 +5274,27 @@
       <c r="S57" s="1">
         <v>607</v>
       </c>
-      <c r="T57" s="53">
+      <c r="T57" s="9">
         <f t="shared" si="85"/>
         <v>850.5</v>
       </c>
-      <c r="U57" s="53">
+      <c r="U57" s="9">
         <f t="shared" si="83"/>
         <v>842.1</v>
       </c>
-      <c r="V57" s="53">
+      <c r="V57" s="9">
         <f t="shared" si="83"/>
         <v>837.90000000000009</v>
       </c>
-      <c r="W57" s="53">
+      <c r="W57" s="9">
         <f t="shared" si="83"/>
         <v>637.35</v>
       </c>
-      <c r="X57" s="53">
+      <c r="X57" s="9">
         <f t="shared" si="83"/>
         <v>893.02500000000009</v>
       </c>
-      <c r="Y57" s="53">
+      <c r="Y57" s="9">
         <f t="shared" si="83"/>
         <v>884.20500000000004</v>
       </c>
@@ -5531,27 +5412,27 @@
       <c r="S58" s="1">
         <v>873</v>
       </c>
-      <c r="T58" s="53">
+      <c r="T58" s="9">
         <f t="shared" si="85"/>
         <v>985.95</v>
       </c>
-      <c r="U58" s="53">
+      <c r="U58" s="9">
         <f t="shared" si="83"/>
         <v>708.75</v>
       </c>
-      <c r="V58" s="53">
+      <c r="V58" s="9">
         <f t="shared" si="83"/>
         <v>772.80000000000007</v>
       </c>
-      <c r="W58" s="53">
+      <c r="W58" s="9">
         <f t="shared" si="83"/>
         <v>916.65000000000009</v>
       </c>
-      <c r="X58" s="53">
+      <c r="X58" s="9">
         <f t="shared" si="83"/>
         <v>1035.2475000000002</v>
       </c>
-      <c r="Y58" s="53">
+      <c r="Y58" s="9">
         <f t="shared" si="83"/>
         <v>744.1875</v>
       </c>
@@ -5784,7 +5665,7 @@
     </row>
     <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" ref="J61:Y61" si="91">J51+J59</f>
@@ -5934,7 +5815,7 @@
     <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <f t="shared" ref="J63:S63" si="93">J42-J61</f>
@@ -6396,7 +6277,7 @@
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J70">
         <f>J63+J68</f>
@@ -6548,7 +6429,7 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.2">
@@ -6558,7 +6439,7 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74" s="1">
         <v>-24179</v>
@@ -6852,7 +6733,7 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J78" s="1">
         <v>24135735</v>
@@ -6901,22 +6782,22 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q89">
         <v>16657</v>
@@ -6927,7 +6808,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q90">
         <v>13923</v>
@@ -6935,7 +6816,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q91">
         <v>6728</v>
@@ -6946,7 +6827,7 @@
     </row>
     <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q92" s="2">
         <f>Q91+Q89+Q90</f>
@@ -6959,7 +6840,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q94">
         <v>857</v>
@@ -6970,7 +6851,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q95">
         <v>198</v>
@@ -6981,7 +6862,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q96">
         <f>Q95+Q94</f>
@@ -6994,7 +6875,7 @@
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q97" s="2">
         <f>Q95+Q94+Q92</f>
@@ -7007,7 +6888,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q99">
         <v>477</v>
@@ -7018,7 +6899,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q100">
         <v>4534</v>
@@ -7029,7 +6910,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q101">
         <v>14756</v>
@@ -7040,7 +6921,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q102">
         <v>13657</v>
@@ -7051,7 +6932,7 @@
     </row>
     <row r="103" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q103" s="2">
         <f>Q99+Q100+Q101+Q102</f>
@@ -7064,7 +6945,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q105">
         <v>414</v>
@@ -7075,7 +6956,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q106">
         <v>464</v>
@@ -7086,7 +6967,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q107">
         <f>Q106+Q105</f>
@@ -7099,7 +6980,7 @@
     </row>
     <row r="108" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q108" s="2">
         <f>Q107+Q103</f>
@@ -7112,7 +6993,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -7123,12 +7004,12 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q112">
         <v>352828</v>
@@ -7139,7 +7020,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q113">
         <v>51</v>
@@ -7147,7 +7028,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q114">
         <v>-348823</v>
@@ -7158,7 +7039,7 @@
     </row>
     <row r="115" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q115" s="2">
         <f>Q114+Q113+Q112+Q111+Q110</f>
@@ -7171,7 +7052,7 @@
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q117" s="2">
         <f>Q115+Q108</f>
@@ -7205,7 +7086,7 @@
   <dimension ref="B10:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7222,823 +7103,823 @@
   <sheetData>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="K10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="O10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="X10" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="X10" s="16" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="E11" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="36">
+      <c r="B11" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="E11" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>405</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1215</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2025</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2835</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>3240</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>20023.2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30935.844000000005</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>102934.88340000002</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>175579.37436000002</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>252489.89338254</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>284662.06749251363</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>293201.92951728904</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>269061.96528672968</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>247491.40434086142</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>228237.96855706404</v>
       </c>
-      <c r="U11" s="36">
+      <c r="U11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>211074.74749115511</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>195797.66580553097</v>
       </c>
-      <c r="W11" s="36">
+      <c r="W11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>182223.20408037398</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="36">
         <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>145682.39413074174</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="B12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="28">
         <v>2.8</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="38">
+        <v>155</v>
+      </c>
+      <c r="F12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>364.5</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1093.5</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1822.5</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2551.5</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2916</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>18020.88</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>27842.259600000005</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>92641.395060000024</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>158021.43692400001</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>227240.904044286</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>256195.86074326228</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>263881.73656556016</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>242155.76875805671</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>222742.26390677528</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>205414.17170135764</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>189967.27274203961</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>176217.89922497788</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>164000.88367233658</v>
       </c>
-      <c r="X12" s="38">
+      <c r="X12" s="62">
         <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>131114.15471766758</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="B13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="30">
         <v>63.12</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16889.25</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22620.9</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16654.95</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22483.237499999999</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>20661.5625</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>79576.369500000001</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>76912.605584999998</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>74421.481502549999</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>72095.548810126493</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69927.766993805286</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67911.484137025705</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66040.418587872409</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66629.260056908272</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67235.76677001518</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67860.468684515319</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>68503.911656450451</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69166.657917543649</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69849.286566469644</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>70552.394074863405</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="B14" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="30">
         <f>C12*C13</f>
         <v>176.73599999999999</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7555.5499999999993</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5998.0000000000009</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5774.25</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7792.3125000000009</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>8596.4274999999998</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29005.819700000004</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29875.994291000003</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30772.274119730002</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>31695.442343321905</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>32646.30561362156</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>33625.694782030208</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>34634.465625491117</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35673.499594255853</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>36743.704582083526</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>37846.015719546034</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>38981.396191132422</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>40150.838076866392</v>
       </c>
-      <c r="W14" s="39">
+      <c r="W14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>41355.363219172388</v>
       </c>
-      <c r="X14" s="39">
+      <c r="X14" s="37">
         <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>42596.024115747561</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="E15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="B15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="E15" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N15" s="40">
+      <c r="N15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V15" s="40">
+      <c r="V15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="64">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="65">
         <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="B16" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="30">
         <f>Model!S102/1000</f>
         <v>25.992000000000001</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="39">
+      <c r="V16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="39">
+      <c r="W16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="39">
+      <c r="X16" s="62">
         <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="B17" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="30">
         <f>Model!S89/1000</f>
         <v>35.616</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="40">
+      <c r="E17" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V17" s="40">
+      <c r="V17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="64">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="65">
         <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="30">
         <f>C14-C17+C16</f>
         <v>167.11199999999999</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S18" s="38">
+      <c r="S18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W18" s="38">
+      <c r="W18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X18" s="38">
+      <c r="X18" s="62">
         <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="B20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="31">
         <f>C21+C22</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="32">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="32">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="31">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="32">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="28"/>
-      <c r="C24" s="32"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
         <v>146.38175226667505</v>
       </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="B27" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="30">
         <f>C17</f>
         <v>35.616</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -8046,10 +7927,10 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="30">
         <f>C26+C27-C16</f>
         <v>156.00575226667505</v>
       </c>
@@ -8057,10 +7938,10 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="35">
+      <c r="B29" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="34">
         <f>C28/C13</f>
         <v>2.4715740219688698</v>
       </c>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB5961-C3A9-9449-AD0E-9EC5EED3D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1A156-EB90-E047-A830-7748B9E1EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="1200" windowWidth="28040" windowHeight="18820" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="192">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Net Income</t>
   </si>
   <si>
-    <t>Clinical &amp; Preclinical</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drug Manufacturing &amp; Formulation </t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>NASDAQGM: APLT</t>
+  </si>
+  <si>
+    <t>Product Pipeline Research &amp; Development</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -901,18 +901,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1237,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -1260,42 +1256,42 @@
   <sheetData>
     <row r="5" spans="2:31" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="13">
         <v>0.9</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="13">
         <v>0.4</v>
@@ -1303,16 +1299,16 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="Q10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
@@ -1324,43 +1320,43 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="13"/>
       <c r="Q12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="19"/>
       <c r="Q13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" s="19"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="D14" s="13"/>
       <c r="Q14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="S14" s="13"/>
     </row>
@@ -1368,30 +1364,30 @@
       <c r="D15" s="13"/>
       <c r="S15" s="13"/>
       <c r="Y15" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z15" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
+        <v>172</v>
+      </c>
+      <c r="Z15" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
       <c r="AE15" s="59"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="13"/>
       <c r="Q16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S16" s="13"/>
       <c r="Y16" s="40">
@@ -1421,18 +1417,18 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="13"/>
       <c r="Q17" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S17" s="13"/>
       <c r="Y17" s="13">
         <v>0</v>
       </c>
       <c r="Z17" s="52">
-        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
         <v>-8.8573614281767785</v>
       </c>
       <c r="AA17" s="52">
@@ -1451,17 +1447,17 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="13"/>
       <c r="Q18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S18" s="13"/>
       <c r="Y18" s="13">
@@ -1489,10 +1485,10 @@
       <c r="B19" s="15"/>
       <c r="D19" s="13"/>
       <c r="Q19" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="S19" s="13"/>
       <c r="Y19" s="13">
@@ -1517,8 +1513,8 @@
       <c r="AE19" s="48"/>
     </row>
     <row r="20" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X20" s="60" t="s">
-        <v>189</v>
+      <c r="X20" s="62" t="s">
+        <v>188</v>
       </c>
       <c r="Y20" s="13">
         <f t="shared" si="0"/>
@@ -1543,21 +1539,21 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="Q21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="X21" s="60"/>
+      <c r="X21" s="62"/>
       <c r="Y21" s="45">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -1581,18 +1577,18 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="X22" s="60"/>
+        <v>178</v>
+      </c>
+      <c r="X22" s="62"/>
       <c r="Y22" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1616,18 +1612,18 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="Q23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="X23" s="60"/>
+        <v>183</v>
+      </c>
+      <c r="X23" s="62"/>
       <c r="Y23" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -1651,29 +1647,29 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="11">
         <f>2037-2023</f>
         <v>14</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+        <v>172</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
       <c r="Q24" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S24" s="11">
         <v>4</v>
       </c>
-      <c r="X24" s="60"/>
+      <c r="X24" s="62"/>
       <c r="Y24" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -1697,13 +1693,13 @@
     </row>
     <row r="25" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>174</v>
+      <c r="H25" s="62" t="s">
+        <v>173</v>
       </c>
       <c r="I25" s="40">
         <f>Valuation!$C$29</f>
@@ -1729,12 +1725,12 @@
         <v>0.6</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="X25" s="60"/>
+        <v>179</v>
+      </c>
+      <c r="X25" s="62"/>
       <c r="Y25" s="13">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -1757,13 +1753,13 @@
       <c r="AE25" s="48"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="H26" s="60"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="14">
         <f>I27-500</f>
         <v>1000</v>
       </c>
       <c r="J26" s="53">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
         <v>0.27107854734194714</v>
       </c>
       <c r="K26" s="53">
@@ -1801,11 +1797,11 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="H27" s="60"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="14">
         <f>I28-500</f>
         <v>1500</v>
@@ -1826,7 +1822,7 @@
         <v>2.0884229063501207</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -1853,12 +1849,12 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="11">
         <v>3000</v>
       </c>
-      <c r="H28" s="60"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="41">
         <v>2000</v>
       </c>
@@ -1878,7 +1874,7 @@
         <v>2.9496384364320116</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S28" s="11">
         <v>3000</v>
@@ -1886,9 +1882,9 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="60"/>
+        <v>81</v>
+      </c>
+      <c r="H29" s="62"/>
       <c r="I29" s="14">
         <f>I28+500</f>
         <v>2500</v>
@@ -1909,17 +1905,17 @@
         <v>3.8108539665139021</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="14">
         <v>1000</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="14">
         <f>I29+500</f>
         <v>3000</v>
@@ -1940,7 +1936,7 @@
         <v>4.6720694965957916</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S30" s="14">
         <v>2000</v>
@@ -1948,13 +1944,13 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="14">
         <v>3000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S31" s="14">
         <v>5000</v>
@@ -1963,20 +1959,20 @@
     <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
       <c r="I32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
+        <v>172</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="H33" s="60" t="s">
-        <v>175</v>
+      <c r="H33" s="62" t="s">
+        <v>174</v>
       </c>
       <c r="I33" s="40">
         <f>Valuation!$C$29</f>
@@ -2004,13 +2000,13 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="60"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="62"/>
       <c r="I34" s="44">
         <f>I35-0.05</f>
         <v>-7.0000000000000007E-2</v>
@@ -2032,21 +2028,21 @@
         <v>1.289558346908162</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="13">
         <v>0.3</v>
       </c>
-      <c r="H35" s="60"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="43">
         <f>I36-0.05</f>
         <v>-2.0000000000000004E-2</v>
@@ -2067,7 +2063,7 @@
         <v>1.9440178630113865</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S35" s="13">
         <v>0.3</v>
@@ -2075,12 +2071,12 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="13">
         <v>0.6</v>
       </c>
-      <c r="H36" s="60"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="45">
         <v>0.03</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>2.9496384364320116</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S36" s="13">
         <v>0.6</v>
@@ -2108,12 +2104,12 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="13">
         <v>0.9</v>
       </c>
-      <c r="H37" s="60"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="13">
         <f>I36+0.05</f>
         <v>0.08</v>
@@ -2134,7 +2130,7 @@
         <v>4.5176686816765859</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S37" s="13">
         <v>0.9</v>
@@ -2142,12 +2138,12 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="13">
         <f>I37+0.05</f>
         <v>0.13</v>
@@ -2168,7 +2164,7 @@
         <v>6.983230587156684</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S38" s="13">
         <v>1</v>
@@ -2176,31 +2172,31 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="Q40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="11">
         <v>3000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S41" s="11">
         <v>4000000</v>
@@ -2208,20 +2204,20 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="14">
         <f>(D31+D30)/2</f>
         <v>2000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S42" s="14">
         <v>500</v>
@@ -2229,20 +2225,20 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="14">
         <f>D42*D41</f>
         <v>6000000</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S43" s="14">
         <f>S42*S41</f>
@@ -2251,14 +2247,14 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
         <v>0.5</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13">
@@ -2267,20 +2263,20 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="14">
         <f>D44*D43</f>
         <v>3000000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S45" s="14">
         <f>S44*S43</f>
@@ -2289,13 +2285,13 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="13">
         <v>0.03</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S46" s="13">
         <v>0.03</v>
@@ -2303,31 +2299,31 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="Q48" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" s="11">
         <v>3000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S49" s="11">
         <v>4000000</v>
@@ -2335,19 +2331,19 @@
     </row>
     <row r="50" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="14">
         <v>1500</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S50" s="14">
         <f>S42/2</f>
@@ -2356,20 +2352,20 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="14">
         <f>D50*D49</f>
         <v>4500000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S51" s="14">
         <f>S50*S49</f>
@@ -2378,14 +2374,14 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
         <v>0.25</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13">
@@ -2394,20 +2390,20 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="14">
         <f>D52*D51</f>
         <v>1125000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S53" s="14">
         <f>S52*S51</f>
@@ -2416,13 +2412,13 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="13">
         <v>-0.1</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S54" s="13">
         <v>-0.1</v>
@@ -2451,13 +2447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AC32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI41" sqref="AI41"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2473,167 +2469,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>37</v>
+      <c r="A1" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="AM3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U7" s="4">
         <f>Main!D45*3/1000</f>
@@ -2722,7 +2718,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U8" s="7">
         <v>0.05</v>
@@ -2795,7 +2791,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U9" s="4">
         <f>U8*U7</f>
@@ -2884,7 +2880,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U11" s="3">
         <f>Main!$D$9</f>
@@ -2973,7 +2969,7 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U12" s="4">
         <f>U11*U9</f>
@@ -3069,27 +3065,27 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG21" s="9">
         <f>Main!$S$45/1000</f>
@@ -3158,7 +3154,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -3207,7 +3203,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3264,7 +3260,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AK25" s="3">
@@ -3318,7 +3314,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK26" s="9">
         <f>AK25*AK23</f>
@@ -3371,22 +3367,22 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R34" s="1">
         <v>10660</v>
@@ -3401,7 +3397,7 @@
     </row>
     <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R36" s="23"/>
     </row>
@@ -3410,7 +3406,7 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ref="J38:T38" si="6">J34</f>
@@ -3546,7 +3542,7 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R40" s="1"/>
       <c r="U40" s="9">
@@ -3636,7 +3632,7 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R41" s="1"/>
       <c r="U41" s="3">
@@ -3707,7 +3703,7 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42">
         <f t="shared" ref="J42:S42" si="23">J38-J40</f>
@@ -3843,7 +3839,7 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.2">
@@ -3851,7 +3847,7 @@
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="J46" s="1">
         <v>6454</v>
@@ -3863,7 +3859,7 @@
         <v>11778</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M50" si="26">AE46-L46-K46-J46</f>
+        <f t="shared" ref="M46:M52" si="26">AE46-L46-K46-J46</f>
         <v>11919</v>
       </c>
       <c r="N46" s="1">
@@ -3876,7 +3872,7 @@
         <v>10035</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46:Q50" si="27">AF46-P46-O46-N46</f>
+        <f t="shared" ref="Q46:Q52" si="27">AF46-P46-O46-N46</f>
         <v>8963</v>
       </c>
       <c r="R46" s="1">
@@ -3988,2116 +3984,2095 @@
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+      <c r="AV47" s="9"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1">
         <v>5820</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K49" s="1">
         <v>2316</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L49" s="1">
         <v>3172</v>
       </c>
-      <c r="M47">
+      <c r="M49">
         <f t="shared" si="26"/>
         <v>602</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N49" s="1">
         <v>231</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O49" s="1">
         <v>136</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P49" s="1">
         <v>236</v>
       </c>
-      <c r="Q47">
+      <c r="Q49">
         <f t="shared" si="27"/>
         <v>354</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R49" s="1">
         <v>1271</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S49" s="1">
         <v>540</v>
       </c>
-      <c r="T47">
-        <f>P47*1.5</f>
+      <c r="T49">
+        <f>P49*1.5</f>
         <v>354</v>
       </c>
-      <c r="U47">
-        <f t="shared" ref="U47:Y47" si="31">Q47*1.5</f>
+      <c r="U49">
+        <f t="shared" ref="U49:Y49" si="31">Q49*1.5</f>
         <v>531</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V49" s="9">
         <f t="shared" si="31"/>
         <v>1906.5</v>
       </c>
-      <c r="W47">
+      <c r="W49">
         <f t="shared" si="31"/>
         <v>810</v>
       </c>
-      <c r="X47">
+      <c r="X49">
         <f t="shared" si="31"/>
         <v>531</v>
       </c>
-      <c r="Y47" s="9">
+      <c r="Y49" s="9">
         <f t="shared" si="31"/>
         <v>796.5</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AC47" s="1">
+      <c r="Z49" s="1"/>
+      <c r="AC49" s="1">
         <v>9069</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AD49" s="1">
         <v>24424</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AE49" s="1">
         <v>11910</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AF49" s="1">
         <v>957</v>
       </c>
-      <c r="AG47" s="9">
-        <f t="shared" ref="AG47:AG50" si="32">SUM(R47:U47)</f>
+      <c r="AG49" s="9">
+        <f t="shared" ref="AG49:AG52" si="32">SUM(R49:U49)</f>
         <v>2696</v>
       </c>
-      <c r="AH47" s="9">
-        <f t="shared" ref="AH47:AH50" si="33">SUM(V47:Y47)</f>
+      <c r="AH49" s="9">
+        <f t="shared" ref="AH49:AH52" si="33">SUM(V49:Y49)</f>
         <v>4044</v>
       </c>
-      <c r="AI47" s="9">
-        <f t="shared" ref="AI47:AU50" si="34">AH47*1.03</f>
+      <c r="AI49" s="9">
+        <f t="shared" ref="AI49:AU52" si="34">AH49*1.03</f>
         <v>4165.32</v>
       </c>
-      <c r="AJ47" s="9">
+      <c r="AJ49" s="9">
         <f t="shared" si="34"/>
         <v>4290.2795999999998</v>
       </c>
-      <c r="AK47" s="9">
+      <c r="AK49" s="9">
         <f t="shared" si="34"/>
         <v>4418.9879879999999</v>
       </c>
-      <c r="AL47" s="9">
+      <c r="AL49" s="9">
         <f t="shared" si="34"/>
         <v>4551.5576276399997</v>
       </c>
-      <c r="AM47" s="9">
+      <c r="AM49" s="9">
         <f t="shared" si="34"/>
         <v>4688.1043564692</v>
       </c>
-      <c r="AN47" s="9">
+      <c r="AN49" s="9">
         <f t="shared" si="34"/>
         <v>4828.7474871632758</v>
       </c>
-      <c r="AO47" s="9">
+      <c r="AO49" s="9">
         <f t="shared" si="34"/>
         <v>4973.6099117781741</v>
       </c>
-      <c r="AP47" s="9">
+      <c r="AP49" s="9">
         <f t="shared" si="34"/>
         <v>5122.8182091315193</v>
       </c>
-      <c r="AQ47" s="9">
+      <c r="AQ49" s="9">
         <f t="shared" si="34"/>
         <v>5276.502755405465</v>
       </c>
-      <c r="AR47" s="9">
+      <c r="AR49" s="9">
         <f t="shared" si="34"/>
         <v>5434.7978380676295</v>
       </c>
-      <c r="AS47" s="9">
+      <c r="AS49" s="9">
         <f t="shared" si="34"/>
         <v>5597.8417732096586</v>
       </c>
-      <c r="AT47" s="9">
+      <c r="AT49" s="9">
         <f t="shared" si="34"/>
         <v>5765.7770264059482</v>
       </c>
-      <c r="AU47" s="9">
+      <c r="AU49" s="9">
         <f t="shared" si="34"/>
         <v>5938.7503371981265</v>
       </c>
-      <c r="AV47" s="9">
-        <f t="shared" ref="AV47" si="35">AU47*1.03</f>
+      <c r="AV49" s="9">
+        <f t="shared" ref="AV49" si="35">AU49*1.03</f>
         <v>6116.9128473140709</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="1">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1">
         <v>1092</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K50" s="1">
         <v>1270</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L50" s="1">
         <v>1368</v>
       </c>
-      <c r="M48">
+      <c r="M50">
         <f t="shared" si="26"/>
         <v>1799</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N50" s="1">
         <v>1937</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O50" s="1">
         <v>1578</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P50" s="1">
         <v>1416</v>
       </c>
-      <c r="Q48">
+      <c r="Q50">
         <f t="shared" si="27"/>
         <v>1717</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R50" s="1">
         <v>1700</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S50" s="1">
         <v>1408</v>
       </c>
-      <c r="T48" s="9">
-        <f>P48*1.05</f>
+      <c r="T50" s="9">
+        <f>P50*1.05</f>
         <v>1486.8</v>
       </c>
-      <c r="U48" s="9">
-        <f t="shared" ref="U48" si="36">Q48*1.05</f>
+      <c r="U50" s="9">
+        <f t="shared" ref="U50" si="36">Q50*1.05</f>
         <v>1802.8500000000001</v>
       </c>
-      <c r="V48" s="9">
-        <f t="shared" ref="V48" si="37">R48*1.05</f>
+      <c r="V50" s="9">
+        <f t="shared" ref="V50" si="37">R50*1.05</f>
         <v>1785</v>
       </c>
-      <c r="W48" s="9">
-        <f t="shared" ref="W48" si="38">S48*1.05</f>
+      <c r="W50" s="9">
+        <f t="shared" ref="W50" si="38">S50*1.05</f>
         <v>1478.4</v>
       </c>
-      <c r="X48" s="9">
-        <f t="shared" ref="X48" si="39">T48*1.05</f>
+      <c r="X50" s="9">
+        <f t="shared" ref="X50" si="39">T50*1.05</f>
         <v>1561.14</v>
       </c>
-      <c r="Y48" s="9">
-        <f t="shared" ref="Y48" si="40">U48*1.05</f>
+      <c r="Y50" s="9">
+        <f t="shared" ref="Y50" si="40">U50*1.05</f>
         <v>1892.9925000000003</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AC48" s="1">
+      <c r="Z50" s="1"/>
+      <c r="AC50" s="1">
         <v>2728</v>
       </c>
-      <c r="AD48" s="1">
+      <c r="AD50" s="1">
         <v>3351</v>
       </c>
-      <c r="AE48" s="1">
+      <c r="AE50" s="1">
         <v>5529</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AF50" s="1">
         <v>6648</v>
       </c>
-      <c r="AG48" s="9">
+      <c r="AG50" s="9">
         <f t="shared" si="32"/>
         <v>6397.6500000000005</v>
       </c>
-      <c r="AH48" s="9">
+      <c r="AH50" s="9">
         <f t="shared" si="33"/>
         <v>6717.5325000000003</v>
       </c>
-      <c r="AI48" s="9">
+      <c r="AI50" s="9">
         <f t="shared" si="34"/>
         <v>6919.0584750000007</v>
       </c>
-      <c r="AJ48" s="9">
+      <c r="AJ50" s="9">
         <f t="shared" si="34"/>
         <v>7126.6302292500013</v>
       </c>
-      <c r="AK48" s="9">
+      <c r="AK50" s="9">
         <f t="shared" si="34"/>
         <v>7340.4291361275018</v>
       </c>
-      <c r="AL48" s="9">
+      <c r="AL50" s="9">
         <f t="shared" si="34"/>
         <v>7560.642010211327</v>
       </c>
-      <c r="AM48" s="9">
+      <c r="AM50" s="9">
         <f t="shared" si="34"/>
         <v>7787.4612705176669</v>
       </c>
-      <c r="AN48" s="9">
+      <c r="AN50" s="9">
         <f t="shared" si="34"/>
         <v>8021.0851086331968</v>
       </c>
-      <c r="AO48" s="9">
+      <c r="AO50" s="9">
         <f t="shared" si="34"/>
         <v>8261.7176618921931</v>
       </c>
-      <c r="AP48" s="9">
+      <c r="AP50" s="9">
         <f t="shared" si="34"/>
         <v>8509.5691917489585</v>
       </c>
-      <c r="AQ48" s="9">
+      <c r="AQ50" s="9">
         <f t="shared" si="34"/>
         <v>8764.8562675014273</v>
       </c>
-      <c r="AR48" s="9">
+      <c r="AR50" s="9">
         <f t="shared" si="34"/>
         <v>9027.8019555264709</v>
       </c>
-      <c r="AS48" s="9">
+      <c r="AS50" s="9">
         <f t="shared" si="34"/>
         <v>9298.6360141922651</v>
       </c>
-      <c r="AT48" s="9">
+      <c r="AT50" s="9">
         <f t="shared" si="34"/>
         <v>9577.5950946180328</v>
       </c>
-      <c r="AU48" s="9">
+      <c r="AU50" s="9">
         <f t="shared" si="34"/>
         <v>9864.9229474565745</v>
       </c>
-      <c r="AV48" s="9">
-        <f t="shared" ref="AV48" si="41">AU48*1.03</f>
+      <c r="AV50" s="9">
+        <f t="shared" ref="AV50" si="41">AU50*1.03</f>
         <v>10160.870635880272</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="1">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="1">
         <v>799</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K51" s="1">
         <v>533</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L51" s="1">
         <v>642</v>
       </c>
-      <c r="M49">
+      <c r="M51">
         <f t="shared" si="26"/>
         <v>785</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N51" s="1">
         <v>856</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O51" s="1">
         <v>788</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P51" s="1">
         <v>1178</v>
       </c>
-      <c r="Q49">
+      <c r="Q51">
         <f t="shared" si="27"/>
         <v>797</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R51" s="1">
         <v>862</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S51" s="1">
         <v>752</v>
       </c>
-      <c r="T49" s="9">
-        <f t="shared" ref="T49" si="42">P49*1.05</f>
+      <c r="T51" s="9">
+        <f t="shared" ref="T51" si="42">P51*1.05</f>
         <v>1236.9000000000001</v>
       </c>
-      <c r="U49" s="9">
-        <f t="shared" ref="U49:U50" si="43">Q49*1.05</f>
+      <c r="U51" s="9">
+        <f t="shared" ref="U51:U52" si="43">Q51*1.05</f>
         <v>836.85</v>
       </c>
-      <c r="V49" s="9">
-        <f t="shared" ref="V49:V50" si="44">R49*1.05</f>
+      <c r="V51" s="9">
+        <f t="shared" ref="V51:V52" si="44">R51*1.05</f>
         <v>905.1</v>
       </c>
-      <c r="W49" s="9">
-        <f t="shared" ref="W49:W50" si="45">S49*1.05</f>
+      <c r="W51" s="9">
+        <f t="shared" ref="W51:W52" si="45">S51*1.05</f>
         <v>789.6</v>
       </c>
-      <c r="X49" s="9">
-        <f t="shared" ref="X49:X50" si="46">T49*1.05</f>
+      <c r="X51" s="9">
+        <f t="shared" ref="X51:X52" si="46">T51*1.05</f>
         <v>1298.7450000000001</v>
       </c>
-      <c r="Y49" s="9">
-        <f t="shared" ref="Y49:Y50" si="47">U49*1.05</f>
+      <c r="Y51" s="9">
+        <f t="shared" ref="Y51:Y52" si="47">U51*1.05</f>
         <v>878.69250000000011</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AC49" s="1">
+      <c r="Z51" s="1"/>
+      <c r="AC51" s="1">
         <v>2762</v>
       </c>
-      <c r="AD49" s="1">
+      <c r="AD51" s="1">
         <v>2580</v>
       </c>
-      <c r="AE49" s="1">
+      <c r="AE51" s="1">
         <v>2759</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AF51" s="1">
         <v>3619</v>
       </c>
-      <c r="AG49" s="9">
+      <c r="AG51" s="9">
         <f t="shared" si="32"/>
         <v>3687.75</v>
       </c>
-      <c r="AH49" s="9">
+      <c r="AH51" s="9">
         <f t="shared" si="33"/>
         <v>3872.1375000000003</v>
       </c>
-      <c r="AI49" s="9">
+      <c r="AI51" s="9">
         <f t="shared" si="34"/>
         <v>3988.3016250000005</v>
       </c>
-      <c r="AJ49" s="9">
+      <c r="AJ51" s="9">
         <f t="shared" si="34"/>
         <v>4107.9506737500005</v>
       </c>
-      <c r="AK49" s="9">
+      <c r="AK51" s="9">
         <f t="shared" si="34"/>
         <v>4231.1891939625002</v>
       </c>
-      <c r="AL49" s="9">
+      <c r="AL51" s="9">
         <f t="shared" si="34"/>
         <v>4358.1248697813753</v>
       </c>
-      <c r="AM49" s="9">
+      <c r="AM51" s="9">
         <f t="shared" si="34"/>
         <v>4488.8686158748169</v>
       </c>
-      <c r="AN49" s="9">
+      <c r="AN51" s="9">
         <f t="shared" si="34"/>
         <v>4623.5346743510618</v>
       </c>
-      <c r="AO49" s="9">
+      <c r="AO51" s="9">
         <f t="shared" si="34"/>
         <v>4762.2407145815941</v>
       </c>
-      <c r="AP49" s="9">
+      <c r="AP51" s="9">
         <f t="shared" si="34"/>
         <v>4905.1079360190424</v>
       </c>
-      <c r="AQ49" s="9">
+      <c r="AQ51" s="9">
         <f t="shared" si="34"/>
         <v>5052.2611740996135</v>
       </c>
-      <c r="AR49" s="9">
+      <c r="AR51" s="9">
         <f t="shared" si="34"/>
         <v>5203.8290093226024</v>
       </c>
-      <c r="AS49" s="9">
+      <c r="AS51" s="9">
         <f t="shared" si="34"/>
         <v>5359.9438796022805</v>
       </c>
-      <c r="AT49" s="9">
+      <c r="AT51" s="9">
         <f t="shared" si="34"/>
         <v>5520.7421959903495</v>
       </c>
-      <c r="AU49" s="9">
+      <c r="AU51" s="9">
         <f t="shared" si="34"/>
         <v>5686.36446187006</v>
       </c>
-      <c r="AV49" s="9">
-        <f t="shared" ref="AV49" si="48">AU49*1.03</f>
+      <c r="AV51" s="9">
+        <f t="shared" ref="AV51" si="48">AU51*1.03</f>
         <v>5856.9553957261624</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="1">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
         <v>283</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K52" s="1">
         <v>511</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L52" s="1">
         <v>637</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <f t="shared" si="26"/>
         <v>618</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N52" s="1">
         <v>478</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O52" s="1">
         <v>492</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P52" s="1">
         <v>251</v>
       </c>
-      <c r="Q50">
+      <c r="Q52">
         <f t="shared" si="27"/>
         <v>261</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R52" s="1">
         <v>286</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S52" s="1">
         <v>439</v>
       </c>
-      <c r="T50" s="9">
-        <f>P50*1.05</f>
+      <c r="T52" s="9">
+        <f>P52*1.05</f>
         <v>263.55</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U52" s="9">
         <f t="shared" si="43"/>
         <v>274.05</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V52" s="9">
         <f t="shared" si="44"/>
         <v>300.3</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W52" s="9">
         <f t="shared" si="45"/>
         <v>460.95000000000005</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X52" s="9">
         <f t="shared" si="46"/>
         <v>276.72750000000002</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Y52" s="9">
         <f t="shared" si="47"/>
         <v>287.7525</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AC50" s="1">
+      <c r="Z52" s="1"/>
+      <c r="AC52" s="1">
         <v>355</v>
       </c>
-      <c r="AD50" s="1">
+      <c r="AD52" s="1">
         <v>2697</v>
       </c>
-      <c r="AE50" s="1">
+      <c r="AE52" s="1">
         <v>2049</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AF52" s="1">
         <v>1482</v>
       </c>
-      <c r="AG50" s="9">
+      <c r="AG52" s="9">
         <f t="shared" si="32"/>
         <v>1262.5999999999999</v>
       </c>
-      <c r="AH50" s="9">
+      <c r="AH52" s="9">
         <f t="shared" si="33"/>
         <v>1325.73</v>
       </c>
-      <c r="AI50" s="9">
+      <c r="AI52" s="9">
         <f t="shared" si="34"/>
         <v>1365.5019</v>
       </c>
-      <c r="AJ50" s="9">
+      <c r="AJ52" s="9">
         <f t="shared" si="34"/>
         <v>1406.4669570000001</v>
       </c>
-      <c r="AK50" s="9">
+      <c r="AK52" s="9">
         <f t="shared" si="34"/>
         <v>1448.66096571</v>
       </c>
-      <c r="AL50" s="9">
+      <c r="AL52" s="9">
         <f t="shared" si="34"/>
         <v>1492.1207946813001</v>
       </c>
-      <c r="AM50" s="9">
+      <c r="AM52" s="9">
         <f t="shared" si="34"/>
         <v>1536.8844185217392</v>
       </c>
-      <c r="AN50" s="9">
+      <c r="AN52" s="9">
         <f t="shared" si="34"/>
         <v>1582.9909510773914</v>
       </c>
-      <c r="AO50" s="9">
+      <c r="AO52" s="9">
         <f t="shared" si="34"/>
         <v>1630.4806796097132</v>
       </c>
-      <c r="AP50" s="9">
+      <c r="AP52" s="9">
         <f t="shared" si="34"/>
         <v>1679.3950999980048</v>
       </c>
-      <c r="AQ50" s="9">
+      <c r="AQ52" s="9">
         <f t="shared" si="34"/>
         <v>1729.776952997945</v>
       </c>
-      <c r="AR50" s="9">
+      <c r="AR52" s="9">
         <f t="shared" si="34"/>
         <v>1781.6702615878835</v>
       </c>
-      <c r="AS50" s="9">
+      <c r="AS52" s="9">
         <f t="shared" si="34"/>
         <v>1835.1203694355199</v>
       </c>
-      <c r="AT50" s="9">
+      <c r="AT52" s="9">
         <f t="shared" si="34"/>
         <v>1890.1739805185855</v>
       </c>
-      <c r="AU50" s="9">
+      <c r="AU52" s="9">
         <f t="shared" si="34"/>
         <v>1946.8791999341431</v>
       </c>
-      <c r="AV50" s="9">
-        <f t="shared" ref="AV50" si="49">AU50*1.03</f>
+      <c r="AV52" s="9">
+        <f t="shared" ref="AV52" si="49">AU52*1.03</f>
         <v>2005.2855759321674</v>
       </c>
     </row>
-    <row r="51" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="2">
-        <f t="shared" ref="J51:O51" si="50">J50+J49+J48+J47+J46</f>
+      <c r="J53" s="2">
+        <f t="shared" ref="J53:O53" si="50">J52+J51+J50+J49+J46</f>
         <v>14448</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K53" s="2">
         <f t="shared" si="50"/>
         <v>14802</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L53" s="2">
         <f t="shared" si="50"/>
         <v>17597</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M53" s="2">
         <f t="shared" si="50"/>
         <v>15723</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N53" s="2">
         <f t="shared" si="50"/>
         <v>15030</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O53" s="2">
         <f t="shared" si="50"/>
         <v>15396</v>
       </c>
-      <c r="P51" s="2">
-        <f t="shared" ref="P51:S51" si="51">P50+P49+P48+P47+P46</f>
+      <c r="P53" s="2">
+        <f t="shared" ref="P53:S53" si="51">P52+P51+P50+P49+P46</f>
         <v>13116</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q53" s="2">
         <f t="shared" si="51"/>
         <v>12092</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R53" s="2">
         <f t="shared" si="51"/>
         <v>15935</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S53" s="2">
         <f t="shared" si="51"/>
         <v>11883</v>
       </c>
-      <c r="T51" s="24">
-        <f t="shared" ref="T51" si="52">T50+T49+T48+T47+T46</f>
+      <c r="T53" s="24">
+        <f t="shared" ref="T53" si="52">T52+T51+T50+T49+T46</f>
         <v>18393.75</v>
       </c>
-      <c r="U51" s="24">
-        <f t="shared" ref="U51" si="53">U50+U49+U48+U47+U46</f>
+      <c r="U53" s="24">
+        <f t="shared" ref="U53" si="53">U52+U51+U50+U49+U46</f>
         <v>16889.25</v>
       </c>
-      <c r="V51" s="24">
-        <f t="shared" ref="V51" si="54">V50+V49+V48+V47+V46</f>
+      <c r="V53" s="24">
+        <f t="shared" ref="V53" si="54">V52+V51+V50+V49+V46</f>
         <v>22620.9</v>
       </c>
-      <c r="W51" s="24">
-        <f t="shared" ref="W51" si="55">W50+W49+W48+W47+W46</f>
+      <c r="W53" s="24">
+        <f t="shared" ref="W53" si="55">W52+W51+W50+W49+W46</f>
         <v>16654.95</v>
       </c>
-      <c r="X51" s="24">
-        <f t="shared" ref="X51" si="56">X50+X49+X48+X47+X46</f>
+      <c r="X53" s="24">
+        <f t="shared" ref="X53" si="56">X52+X51+X50+X49+X46</f>
         <v>22483.237499999999</v>
       </c>
-      <c r="Y51" s="24">
-        <f t="shared" ref="Y51" si="57">Y50+Y49+Y48+Y47+Y46</f>
+      <c r="Y53" s="24">
+        <f t="shared" ref="Y53" si="57">Y52+Y51+Y50+Y49+Y46</f>
         <v>20661.5625</v>
       </c>
-      <c r="AC51" s="2">
-        <f>AC50+AC49+AC48+AC47+AC46</f>
+      <c r="AC53" s="2">
+        <f>AC52+AC51+AC50+AC49+AC46</f>
         <v>32350</v>
       </c>
-      <c r="AD51" s="2">
-        <f t="shared" ref="AD51:AF51" si="58">AD50+AD49+AD48+AD47+AD46</f>
+      <c r="AD53" s="2">
+        <f t="shared" ref="AD53:AF53" si="58">AD52+AD51+AD50+AD49+AD46</f>
         <v>61788</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE53" s="2">
         <f t="shared" si="58"/>
         <v>62570</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF53" s="2">
         <f t="shared" si="58"/>
         <v>55634</v>
       </c>
-      <c r="AG51" s="2">
-        <f t="shared" ref="AG51" si="59">AG50+AG49+AG48+AG47+AG46</f>
+      <c r="AG53" s="2">
+        <f t="shared" ref="AG53" si="59">AG52+AG51+AG50+AG49+AG46</f>
         <v>63101</v>
       </c>
-      <c r="AH51" s="24">
-        <f t="shared" ref="AH51" si="60">AH50+AH49+AH48+AH47+AH46</f>
+      <c r="AH53" s="24">
+        <f t="shared" ref="AH53" si="60">AH52+AH51+AH50+AH49+AH46</f>
         <v>82420.649999999994</v>
       </c>
-      <c r="AI51" s="24">
-        <f t="shared" ref="AI51" si="61">AI50+AI49+AI48+AI47+AI46</f>
+      <c r="AI53" s="24">
+        <f t="shared" ref="AI53" si="61">AI52+AI51+AI50+AI49+AI46</f>
         <v>79576.369500000001</v>
       </c>
-      <c r="AJ51" s="24">
-        <f t="shared" ref="AJ51" si="62">AJ50+AJ49+AJ48+AJ47+AJ46</f>
+      <c r="AJ53" s="24">
+        <f t="shared" ref="AJ53" si="62">AJ52+AJ51+AJ50+AJ49+AJ46</f>
         <v>76912.605584999998</v>
       </c>
-      <c r="AK51" s="24">
-        <f t="shared" ref="AK51" si="63">AK50+AK49+AK48+AK47+AK46</f>
+      <c r="AK53" s="24">
+        <f t="shared" ref="AK53" si="63">AK52+AK51+AK50+AK49+AK46</f>
         <v>74421.481502549999</v>
       </c>
-      <c r="AL51" s="24">
-        <f t="shared" ref="AL51" si="64">AL50+AL49+AL48+AL47+AL46</f>
+      <c r="AL53" s="24">
+        <f t="shared" ref="AL53" si="64">AL52+AL51+AL50+AL49+AL46</f>
         <v>72095.548810126493</v>
       </c>
-      <c r="AM51" s="24">
-        <f t="shared" ref="AM51" si="65">AM50+AM49+AM48+AM47+AM46</f>
+      <c r="AM53" s="24">
+        <f t="shared" ref="AM53" si="65">AM52+AM51+AM50+AM49+AM46</f>
         <v>69927.766993805286</v>
       </c>
-      <c r="AN51" s="24">
-        <f t="shared" ref="AN51" si="66">AN50+AN49+AN48+AN47+AN46</f>
+      <c r="AN53" s="24">
+        <f t="shared" ref="AN53" si="66">AN52+AN51+AN50+AN49+AN46</f>
         <v>67911.484137025705</v>
       </c>
-      <c r="AO51" s="24">
-        <f t="shared" ref="AO51" si="67">AO50+AO49+AO48+AO47+AO46</f>
+      <c r="AO53" s="24">
+        <f t="shared" ref="AO53" si="67">AO52+AO51+AO50+AO49+AO46</f>
         <v>66040.418587872409</v>
       </c>
-      <c r="AP51" s="24">
-        <f t="shared" ref="AP51" si="68">AP50+AP49+AP48+AP47+AP46</f>
+      <c r="AP53" s="24">
+        <f t="shared" ref="AP53" si="68">AP52+AP51+AP50+AP49+AP46</f>
         <v>66629.260056908272</v>
       </c>
-      <c r="AQ51" s="24">
-        <f t="shared" ref="AQ51" si="69">AQ50+AQ49+AQ48+AQ47+AQ46</f>
+      <c r="AQ53" s="24">
+        <f t="shared" ref="AQ53" si="69">AQ52+AQ51+AQ50+AQ49+AQ46</f>
         <v>67235.76677001518</v>
       </c>
-      <c r="AR51" s="24">
-        <f t="shared" ref="AR51" si="70">AR50+AR49+AR48+AR47+AR46</f>
+      <c r="AR53" s="24">
+        <f t="shared" ref="AR53" si="70">AR52+AR51+AR50+AR49+AR46</f>
         <v>67860.468684515319</v>
       </c>
-      <c r="AS51" s="24">
-        <f t="shared" ref="AS51" si="71">AS50+AS49+AS48+AS47+AS46</f>
+      <c r="AS53" s="24">
+        <f t="shared" ref="AS53" si="71">AS52+AS51+AS50+AS49+AS46</f>
         <v>68503.911656450451</v>
       </c>
-      <c r="AT51" s="24">
-        <f t="shared" ref="AT51" si="72">AT50+AT49+AT48+AT47+AT46</f>
+      <c r="AT53" s="24">
+        <f t="shared" ref="AT53" si="72">AT52+AT51+AT50+AT49+AT46</f>
         <v>69166.657917543649</v>
       </c>
-      <c r="AU51" s="24">
-        <f t="shared" ref="AU51" si="73">AU50+AU49+AU48+AU47+AU46</f>
+      <c r="AU53" s="24">
+        <f t="shared" ref="AU53" si="73">AU52+AU51+AU50+AU49+AU46</f>
         <v>69849.286566469644</v>
       </c>
-      <c r="AV51" s="24">
-        <f t="shared" ref="AV51" si="74">AV50+AV49+AV48+AV47+AV46</f>
+      <c r="AV53" s="24">
+        <f t="shared" ref="AV53" si="74">AV52+AV51+AV50+AV49+AV46</f>
         <v>70552.394074863405</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="1">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="1">
         <v>1771</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K55" s="1">
         <v>1826</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L55" s="1">
         <v>1511</v>
       </c>
-      <c r="M53">
-        <f t="shared" ref="M53:M58" si="75">AE53-L53-K53-J53</f>
+      <c r="M55">
+        <f t="shared" ref="M55:M60" si="75">AE55-L55-K55-J55</f>
         <v>1232</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N55" s="1">
         <v>1619</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O55" s="1">
         <v>1359</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P55" s="1">
         <v>1341</v>
       </c>
-      <c r="Q53">
-        <f t="shared" ref="Q53:Q58" si="76">AF53-P53-O53-N53</f>
+      <c r="Q55">
+        <f t="shared" ref="Q55:Q60" si="76">AF55-P55-O55-N55</f>
         <v>2535</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R55" s="1">
         <v>1487</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S55" s="1">
         <v>1605</v>
       </c>
-      <c r="T53" s="9">
-        <f>P53*1.05</f>
+      <c r="T55" s="9">
+        <f>P55*1.05</f>
         <v>1408.05</v>
       </c>
-      <c r="U53" s="9">
-        <f t="shared" ref="U53:Y53" si="77">Q53*1.05</f>
+      <c r="U55" s="9">
+        <f t="shared" ref="U55:Y55" si="77">Q55*1.05</f>
         <v>2661.75</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V55" s="9">
         <f t="shared" si="77"/>
         <v>1561.3500000000001</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W55" s="9">
         <f t="shared" si="77"/>
         <v>1685.25</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X55" s="9">
         <f t="shared" si="77"/>
         <v>1478.4525000000001</v>
       </c>
-      <c r="Y53" s="9">
+      <c r="Y55" s="9">
         <f t="shared" si="77"/>
         <v>2794.8375000000001</v>
       </c>
-      <c r="Z53" s="1"/>
-      <c r="AC53" s="1">
+      <c r="Z55" s="1"/>
+      <c r="AC55" s="1">
         <v>4397</v>
       </c>
-      <c r="AD53" s="1">
+      <c r="AD55" s="1">
         <v>8451</v>
       </c>
-      <c r="AE53" s="1">
+      <c r="AE55" s="1">
         <v>6340</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AF55" s="1">
         <v>6854</v>
       </c>
-      <c r="AG53" s="9">
-        <f>SUM(R53:U53)</f>
+      <c r="AG55" s="9">
+        <f>SUM(R55:U55)</f>
         <v>7161.8</v>
       </c>
-      <c r="AH53" s="9">
-        <f>SUM(V53:Y53)</f>
+      <c r="AH55" s="9">
+        <f>SUM(V55:Y55)</f>
         <v>7519.8900000000012</v>
       </c>
-      <c r="AI53" s="9">
-        <f>AH53*1.03</f>
+      <c r="AI55" s="9">
+        <f>AH55*1.03</f>
         <v>7745.4867000000013</v>
       </c>
-      <c r="AJ53" s="9">
-        <f t="shared" ref="AJ53:AV53" si="78">AI53*1.03</f>
+      <c r="AJ55" s="9">
+        <f t="shared" ref="AJ55:AV55" si="78">AI55*1.03</f>
         <v>7977.8513010000015</v>
       </c>
-      <c r="AK53" s="9">
+      <c r="AK55" s="9">
         <f t="shared" si="78"/>
         <v>8217.1868400300009</v>
       </c>
-      <c r="AL53" s="9">
+      <c r="AL55" s="9">
         <f t="shared" si="78"/>
         <v>8463.7024452309015</v>
       </c>
-      <c r="AM53" s="9">
+      <c r="AM55" s="9">
         <f t="shared" si="78"/>
         <v>8717.6135185878284</v>
       </c>
-      <c r="AN53" s="9">
+      <c r="AN55" s="9">
         <f t="shared" si="78"/>
         <v>8979.1419241454641</v>
       </c>
-      <c r="AO53" s="9">
+      <c r="AO55" s="9">
         <f t="shared" si="78"/>
         <v>9248.5161818698289</v>
       </c>
-      <c r="AP53" s="9">
+      <c r="AP55" s="9">
         <f t="shared" si="78"/>
         <v>9525.9716673259245</v>
       </c>
-      <c r="AQ53" s="9">
+      <c r="AQ55" s="9">
         <f t="shared" si="78"/>
         <v>9811.7508173457027</v>
       </c>
-      <c r="AR53" s="9">
+      <c r="AR55" s="9">
         <f t="shared" si="78"/>
         <v>10106.103341866074</v>
       </c>
-      <c r="AS53" s="9">
+      <c r="AS55" s="9">
         <f t="shared" si="78"/>
         <v>10409.286442122057</v>
       </c>
-      <c r="AT53" s="9">
+      <c r="AT55" s="9">
         <f t="shared" si="78"/>
         <v>10721.565035385718</v>
       </c>
-      <c r="AU53" s="9">
+      <c r="AU55" s="9">
         <f t="shared" si="78"/>
         <v>11043.21198644729</v>
       </c>
-      <c r="AV53" s="9">
+      <c r="AV55" s="9">
         <f t="shared" si="78"/>
         <v>11374.50834604071</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="1">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="1">
         <v>1932</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K56" s="1">
         <v>2695</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L56" s="1">
         <v>3111</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <f t="shared" si="75"/>
         <v>3603</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N56" s="1">
         <v>1288</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O56" s="1">
         <v>241</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P56" s="1">
         <v>315</v>
       </c>
-      <c r="Q54">
+      <c r="Q56">
         <f t="shared" si="76"/>
         <v>349</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R56" s="1">
         <v>143</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S56" s="1">
         <v>228</v>
       </c>
-      <c r="T54">
-        <f>P54*2</f>
+      <c r="T56">
+        <f>P56*2</f>
         <v>630</v>
       </c>
-      <c r="U54">
-        <f>Q54*2</f>
+      <c r="U56">
+        <f>Q56*2</f>
         <v>698</v>
       </c>
-      <c r="V54">
-        <f t="shared" ref="V54:Y54" si="79">R54*2</f>
+      <c r="V56">
+        <f t="shared" ref="V56:Y56" si="79">R56*2</f>
         <v>286</v>
       </c>
-      <c r="W54">
+      <c r="W56">
         <f t="shared" si="79"/>
         <v>456</v>
       </c>
-      <c r="X54">
+      <c r="X56">
         <f t="shared" si="79"/>
         <v>1260</v>
       </c>
-      <c r="Y54">
+      <c r="Y56">
         <f t="shared" si="79"/>
         <v>1396</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1">
+      <c r="Z56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1">
         <v>5746</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AE56" s="1">
         <v>11341</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AF56" s="1">
         <v>2193</v>
       </c>
-      <c r="AG54" s="9">
-        <f t="shared" ref="AG54:AG58" si="80">SUM(R54:U54)</f>
+      <c r="AG56" s="9">
+        <f t="shared" ref="AG56:AG60" si="80">SUM(R56:U56)</f>
         <v>1699</v>
       </c>
-      <c r="AH54" s="9">
-        <f t="shared" ref="AH54:AH58" si="81">SUM(V54:Y54)</f>
+      <c r="AH56" s="9">
+        <f t="shared" ref="AH56:AH60" si="81">SUM(V56:Y56)</f>
         <v>3398</v>
       </c>
-      <c r="AI54" s="9">
-        <f t="shared" ref="AI54:AV54" si="82">AH54*1.03</f>
+      <c r="AI56" s="9">
+        <f t="shared" ref="AI56:AV56" si="82">AH56*1.03</f>
         <v>3499.94</v>
       </c>
-      <c r="AJ54" s="9">
+      <c r="AJ56" s="9">
         <f t="shared" si="82"/>
         <v>3604.9382000000001</v>
       </c>
-      <c r="AK54" s="9">
+      <c r="AK56" s="9">
         <f t="shared" si="82"/>
         <v>3713.086346</v>
       </c>
-      <c r="AL54" s="9">
+      <c r="AL56" s="9">
         <f t="shared" si="82"/>
         <v>3824.4789363800001</v>
       </c>
-      <c r="AM54" s="9">
+      <c r="AM56" s="9">
         <f t="shared" si="82"/>
         <v>3939.2133044714001</v>
       </c>
-      <c r="AN54" s="9">
+      <c r="AN56" s="9">
         <f t="shared" si="82"/>
         <v>4057.3897036055423</v>
       </c>
-      <c r="AO54" s="9">
+      <c r="AO56" s="9">
         <f t="shared" si="82"/>
         <v>4179.1113947137083</v>
       </c>
-      <c r="AP54" s="9">
+      <c r="AP56" s="9">
         <f t="shared" si="82"/>
         <v>4304.4847365551195</v>
       </c>
-      <c r="AQ54" s="9">
+      <c r="AQ56" s="9">
         <f t="shared" si="82"/>
         <v>4433.6192786517731</v>
       </c>
-      <c r="AR54" s="9">
+      <c r="AR56" s="9">
         <f t="shared" si="82"/>
         <v>4566.6278570113263</v>
       </c>
-      <c r="AS54" s="9">
+      <c r="AS56" s="9">
         <f t="shared" si="82"/>
         <v>4703.6266927216666</v>
       </c>
-      <c r="AT54" s="9">
+      <c r="AT56" s="9">
         <f t="shared" si="82"/>
         <v>4844.7354935033163</v>
       </c>
-      <c r="AU54" s="9">
+      <c r="AU56" s="9">
         <f t="shared" si="82"/>
         <v>4990.077558308416</v>
       </c>
-      <c r="AV54" s="9">
+      <c r="AV56" s="9">
         <f t="shared" si="82"/>
         <v>5139.7798850576683</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="1">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1">
         <v>1544</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K57" s="1">
         <v>1725</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L57" s="1">
         <v>1653</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <f t="shared" si="75"/>
         <v>1695</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N57" s="1">
         <v>1768</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O57" s="1">
         <v>1294</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P57" s="1">
         <v>1157</v>
       </c>
-      <c r="Q55">
+      <c r="Q57">
         <f t="shared" si="76"/>
         <v>1318</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R57" s="1">
         <v>1227</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S57" s="1">
         <v>889</v>
       </c>
-      <c r="T55" s="9">
-        <f>P55*1.05</f>
+      <c r="T57" s="9">
+        <f>P57*1.05</f>
         <v>1214.8500000000001</v>
       </c>
-      <c r="U55" s="9">
-        <f t="shared" ref="U55:Y58" si="83">Q55*1.05</f>
+      <c r="U57" s="9">
+        <f t="shared" ref="U57:Y60" si="83">Q57*1.05</f>
         <v>1383.9</v>
       </c>
-      <c r="V55" s="9">
+      <c r="V57" s="9">
         <f t="shared" si="83"/>
         <v>1288.3500000000001</v>
       </c>
-      <c r="W55" s="9">
+      <c r="W57" s="9">
         <f t="shared" si="83"/>
         <v>933.45</v>
       </c>
-      <c r="X55" s="9">
+      <c r="X57" s="9">
         <f t="shared" si="83"/>
         <v>1275.5925000000002</v>
       </c>
-      <c r="Y55" s="9">
+      <c r="Y57" s="9">
         <f t="shared" si="83"/>
         <v>1453.0950000000003</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AC55" s="1">
+      <c r="Z57" s="1"/>
+      <c r="AC57" s="1">
         <v>1462</v>
       </c>
-      <c r="AD55" s="1">
+      <c r="AD57" s="1">
         <v>5651</v>
       </c>
-      <c r="AE55" s="1">
+      <c r="AE57" s="1">
         <v>6617</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AF57" s="1">
         <v>5537</v>
       </c>
-      <c r="AG55" s="9">
+      <c r="AG57" s="9">
         <f t="shared" si="80"/>
         <v>4714.75</v>
       </c>
-      <c r="AH55" s="9">
+      <c r="AH57" s="9">
         <f t="shared" si="81"/>
         <v>4950.4875000000011</v>
       </c>
-      <c r="AI55" s="9">
-        <f t="shared" ref="AI55:AV55" si="84">AH55*1.03</f>
+      <c r="AI57" s="9">
+        <f t="shared" ref="AI57:AV57" si="84">AH57*1.03</f>
         <v>5099.0021250000009</v>
       </c>
-      <c r="AJ55" s="9">
+      <c r="AJ57" s="9">
         <f t="shared" si="84"/>
         <v>5251.9721887500009</v>
       </c>
-      <c r="AK55" s="9">
+      <c r="AK57" s="9">
         <f t="shared" si="84"/>
         <v>5409.5313544125011</v>
       </c>
-      <c r="AL55" s="9">
+      <c r="AL57" s="9">
         <f t="shared" si="84"/>
         <v>5571.8172950448761</v>
       </c>
-      <c r="AM55" s="9">
+      <c r="AM57" s="9">
         <f t="shared" si="84"/>
         <v>5738.9718138962226</v>
       </c>
-      <c r="AN55" s="9">
+      <c r="AN57" s="9">
         <f t="shared" si="84"/>
         <v>5911.1409683131096</v>
       </c>
-      <c r="AO55" s="9">
+      <c r="AO57" s="9">
         <f t="shared" si="84"/>
         <v>6088.4751973625034</v>
       </c>
-      <c r="AP55" s="9">
+      <c r="AP57" s="9">
         <f t="shared" si="84"/>
         <v>6271.129453283379</v>
       </c>
-      <c r="AQ55" s="9">
+      <c r="AQ57" s="9">
         <f t="shared" si="84"/>
         <v>6459.2633368818806</v>
       </c>
-      <c r="AR55" s="9">
+      <c r="AR57" s="9">
         <f t="shared" si="84"/>
         <v>6653.041236988337</v>
       </c>
-      <c r="AS55" s="9">
+      <c r="AS57" s="9">
         <f t="shared" si="84"/>
         <v>6852.6324740979871</v>
       </c>
-      <c r="AT55" s="9">
+      <c r="AT57" s="9">
         <f t="shared" si="84"/>
         <v>7058.211448320927</v>
       </c>
-      <c r="AU55" s="9">
+      <c r="AU57" s="9">
         <f t="shared" si="84"/>
         <v>7269.9577917705546</v>
       </c>
-      <c r="AV55" s="9">
+      <c r="AV57" s="9">
         <f t="shared" si="84"/>
         <v>7488.0565255236716</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="1">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="1">
         <v>2182</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K58" s="1">
         <v>2169</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L58" s="1">
         <v>2003</v>
       </c>
-      <c r="M56">
+      <c r="M58">
         <f t="shared" si="75"/>
         <v>2064</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N58" s="1">
         <v>1221</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O58" s="1">
         <v>1443</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P58" s="1">
         <v>1678</v>
       </c>
-      <c r="Q56">
+      <c r="Q58">
         <f t="shared" si="76"/>
         <v>1201</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R58" s="1">
         <v>1192</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S58" s="1">
         <v>1091</v>
       </c>
-      <c r="T56" s="9">
-        <f t="shared" ref="T56:T58" si="85">P56*1.05</f>
+      <c r="T58" s="9">
+        <f t="shared" ref="T58:T60" si="85">P58*1.05</f>
         <v>1761.9</v>
       </c>
-      <c r="U56" s="9">
+      <c r="U58" s="9">
         <f t="shared" si="83"/>
         <v>1261.05</v>
       </c>
-      <c r="V56" s="9">
+      <c r="V58" s="9">
         <f t="shared" si="83"/>
         <v>1251.6000000000001</v>
       </c>
-      <c r="W56" s="9">
+      <c r="W58" s="9">
         <f t="shared" si="83"/>
         <v>1145.55</v>
       </c>
-      <c r="X56" s="9">
+      <c r="X58" s="9">
         <f t="shared" si="83"/>
         <v>1849.9950000000001</v>
       </c>
-      <c r="Y56" s="9">
+      <c r="Y58" s="9">
         <f t="shared" si="83"/>
         <v>1324.1025</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AC56" s="1">
+      <c r="Z58" s="1"/>
+      <c r="AC58" s="1">
         <v>3409</v>
       </c>
-      <c r="AD56" s="1">
+      <c r="AD58" s="1">
         <v>5446</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AE58" s="1">
         <v>8418</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AF58" s="1">
         <v>5543</v>
       </c>
-      <c r="AG56" s="9">
+      <c r="AG58" s="9">
         <f t="shared" si="80"/>
         <v>5305.95</v>
       </c>
-      <c r="AH56" s="9">
+      <c r="AH58" s="9">
         <f t="shared" si="81"/>
         <v>5571.2475000000004</v>
       </c>
-      <c r="AI56" s="9">
-        <f t="shared" ref="AI56:AV56" si="86">AH56*1.03</f>
+      <c r="AI58" s="9">
+        <f t="shared" ref="AI58:AV58" si="86">AH58*1.03</f>
         <v>5738.3849250000003</v>
       </c>
-      <c r="AJ56" s="9">
+      <c r="AJ58" s="9">
         <f t="shared" si="86"/>
         <v>5910.53647275</v>
       </c>
-      <c r="AK56" s="9">
+      <c r="AK58" s="9">
         <f t="shared" si="86"/>
         <v>6087.8525669324999</v>
       </c>
-      <c r="AL56" s="9">
+      <c r="AL58" s="9">
         <f t="shared" si="86"/>
         <v>6270.4881439404753</v>
       </c>
-      <c r="AM56" s="9">
+      <c r="AM58" s="9">
         <f t="shared" si="86"/>
         <v>6458.6027882586895</v>
       </c>
-      <c r="AN56" s="9">
+      <c r="AN58" s="9">
         <f t="shared" si="86"/>
         <v>6652.3608719064505</v>
       </c>
-      <c r="AO56" s="9">
+      <c r="AO58" s="9">
         <f t="shared" si="86"/>
         <v>6851.931698063644</v>
       </c>
-      <c r="AP56" s="9">
+      <c r="AP58" s="9">
         <f t="shared" si="86"/>
         <v>7057.4896490055535</v>
       </c>
-      <c r="AQ56" s="9">
+      <c r="AQ58" s="9">
         <f t="shared" si="86"/>
         <v>7269.2143384757201</v>
       </c>
-      <c r="AR56" s="9">
+      <c r="AR58" s="9">
         <f t="shared" si="86"/>
         <v>7487.2907686299923</v>
       </c>
-      <c r="AS56" s="9">
+      <c r="AS58" s="9">
         <f t="shared" si="86"/>
         <v>7711.9094916888926</v>
       </c>
-      <c r="AT56" s="9">
+      <c r="AT58" s="9">
         <f t="shared" si="86"/>
         <v>7943.2667764395592</v>
       </c>
-      <c r="AU56" s="9">
+      <c r="AU58" s="9">
         <f t="shared" si="86"/>
         <v>8181.5647797327465</v>
       </c>
-      <c r="AV56" s="9">
+      <c r="AV58" s="9">
         <f t="shared" si="86"/>
         <v>8427.0117231247295</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="1">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1">
         <v>1010</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K59" s="1">
         <v>1084</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L59" s="1">
         <v>1152</v>
       </c>
-      <c r="M57">
+      <c r="M59">
         <f t="shared" si="75"/>
         <v>1153</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N59" s="1">
         <v>1125</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O59" s="1">
         <v>945</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P59" s="1">
         <v>810</v>
       </c>
-      <c r="Q57">
+      <c r="Q59">
         <f t="shared" si="76"/>
         <v>802</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R59" s="1">
         <v>798</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S59" s="1">
         <v>607</v>
       </c>
-      <c r="T57" s="9">
+      <c r="T59" s="9">
         <f t="shared" si="85"/>
         <v>850.5</v>
       </c>
-      <c r="U57" s="9">
+      <c r="U59" s="9">
         <f t="shared" si="83"/>
         <v>842.1</v>
       </c>
-      <c r="V57" s="9">
+      <c r="V59" s="9">
         <f t="shared" si="83"/>
         <v>837.90000000000009</v>
       </c>
-      <c r="W57" s="9">
+      <c r="W59" s="9">
         <f t="shared" si="83"/>
         <v>637.35</v>
       </c>
-      <c r="X57" s="9">
+      <c r="X59" s="9">
         <f t="shared" si="83"/>
         <v>893.02500000000009</v>
       </c>
-      <c r="Y57" s="9">
+      <c r="Y59" s="9">
         <f t="shared" si="83"/>
         <v>884.20500000000004</v>
       </c>
-      <c r="Z57" s="1"/>
-      <c r="AC57" s="1">
+      <c r="Z59" s="1"/>
+      <c r="AC59" s="1">
         <v>1993</v>
       </c>
-      <c r="AD57" s="1">
+      <c r="AD59" s="1">
         <v>3764</v>
       </c>
-      <c r="AE57" s="1">
+      <c r="AE59" s="1">
         <v>4399</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AF59" s="1">
         <v>3682</v>
       </c>
-      <c r="AG57" s="9">
+      <c r="AG59" s="9">
         <f t="shared" si="80"/>
         <v>3097.6</v>
       </c>
-      <c r="AH57" s="9">
+      <c r="AH59" s="9">
         <f t="shared" si="81"/>
         <v>3252.48</v>
       </c>
-      <c r="AI57" s="9">
-        <f t="shared" ref="AI57:AV57" si="87">AH57*1.03</f>
+      <c r="AI59" s="9">
+        <f t="shared" ref="AI59:AV59" si="87">AH59*1.03</f>
         <v>3350.0544</v>
       </c>
-      <c r="AJ57" s="9">
+      <c r="AJ59" s="9">
         <f t="shared" si="87"/>
         <v>3450.556032</v>
       </c>
-      <c r="AK57" s="9">
+      <c r="AK59" s="9">
         <f t="shared" si="87"/>
         <v>3554.07271296</v>
       </c>
-      <c r="AL57" s="9">
+      <c r="AL59" s="9">
         <f t="shared" si="87"/>
         <v>3660.6948943488001</v>
       </c>
-      <c r="AM57" s="9">
+      <c r="AM59" s="9">
         <f t="shared" si="87"/>
         <v>3770.5157411792643</v>
       </c>
-      <c r="AN57" s="9">
+      <c r="AN59" s="9">
         <f t="shared" si="87"/>
         <v>3883.6312134146424</v>
       </c>
-      <c r="AO57" s="9">
+      <c r="AO59" s="9">
         <f t="shared" si="87"/>
         <v>4000.1401498170817</v>
       </c>
-      <c r="AP57" s="9">
+      <c r="AP59" s="9">
         <f t="shared" si="87"/>
         <v>4120.1443543115938</v>
       </c>
-      <c r="AQ57" s="9">
+      <c r="AQ59" s="9">
         <f t="shared" si="87"/>
         <v>4243.7486849409415</v>
       </c>
-      <c r="AR57" s="9">
+      <c r="AR59" s="9">
         <f t="shared" si="87"/>
         <v>4371.0611454891696</v>
       </c>
-      <c r="AS57" s="9">
+      <c r="AS59" s="9">
         <f t="shared" si="87"/>
         <v>4502.1929798538449</v>
       </c>
-      <c r="AT57" s="9">
+      <c r="AT59" s="9">
         <f t="shared" si="87"/>
         <v>4637.2587692494608</v>
       </c>
-      <c r="AU57" s="9">
+      <c r="AU59" s="9">
         <f t="shared" si="87"/>
         <v>4776.3765323269445</v>
       </c>
-      <c r="AV57" s="9">
+      <c r="AV59" s="9">
         <f t="shared" si="87"/>
         <v>4919.6678282967532</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="1">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="1">
         <v>1312</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K60" s="1">
         <v>1574</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L60" s="1">
         <v>1403</v>
       </c>
-      <c r="M58">
+      <c r="M60">
         <f t="shared" si="75"/>
         <v>1644</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N60" s="1">
         <v>1050</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O60" s="1">
         <v>843</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P60" s="1">
         <v>939</v>
       </c>
-      <c r="Q58">
+      <c r="Q60">
         <f t="shared" si="76"/>
         <v>675</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R60" s="1">
         <v>736</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S60" s="1">
         <v>873</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T60" s="9">
         <f t="shared" si="85"/>
         <v>985.95</v>
       </c>
-      <c r="U58" s="9">
+      <c r="U60" s="9">
         <f t="shared" si="83"/>
         <v>708.75</v>
       </c>
-      <c r="V58" s="9">
+      <c r="V60" s="9">
         <f t="shared" si="83"/>
         <v>772.80000000000007</v>
       </c>
-      <c r="W58" s="9">
+      <c r="W60" s="9">
         <f t="shared" si="83"/>
         <v>916.65000000000009</v>
       </c>
-      <c r="X58" s="9">
+      <c r="X60" s="9">
         <f t="shared" si="83"/>
         <v>1035.2475000000002</v>
       </c>
-      <c r="Y58" s="9">
+      <c r="Y60" s="9">
         <f t="shared" si="83"/>
         <v>744.1875</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AC58" s="1">
+      <c r="Z60" s="1"/>
+      <c r="AC60" s="1">
         <v>1971</v>
       </c>
-      <c r="AD58" s="1">
+      <c r="AD60" s="1">
         <v>3620</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AE60" s="1">
         <v>5933</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AF60" s="1">
         <v>3507</v>
       </c>
-      <c r="AG58" s="9">
+      <c r="AG60" s="9">
         <f t="shared" si="80"/>
         <v>3303.7</v>
       </c>
-      <c r="AH58" s="9">
+      <c r="AH60" s="9">
         <f t="shared" si="81"/>
         <v>3468.8850000000002</v>
       </c>
-      <c r="AI58" s="9">
-        <f t="shared" ref="AI58:AV58" si="88">AH58*1.03</f>
+      <c r="AI60" s="9">
+        <f t="shared" ref="AI60:AV60" si="88">AH60*1.03</f>
         <v>3572.9515500000002</v>
       </c>
-      <c r="AJ58" s="9">
+      <c r="AJ60" s="9">
         <f t="shared" si="88"/>
         <v>3680.1400965000003</v>
       </c>
-      <c r="AK58" s="9">
+      <c r="AK60" s="9">
         <f t="shared" si="88"/>
         <v>3790.5442993950005</v>
       </c>
-      <c r="AL58" s="9">
+      <c r="AL60" s="9">
         <f t="shared" si="88"/>
         <v>3904.2606283768505</v>
       </c>
-      <c r="AM58" s="9">
+      <c r="AM60" s="9">
         <f t="shared" si="88"/>
         <v>4021.3884472281561</v>
       </c>
-      <c r="AN58" s="9">
+      <c r="AN60" s="9">
         <f t="shared" si="88"/>
         <v>4142.0301006450009</v>
       </c>
-      <c r="AO58" s="9">
+      <c r="AO60" s="9">
         <f t="shared" si="88"/>
         <v>4266.2910036643507</v>
       </c>
-      <c r="AP58" s="9">
+      <c r="AP60" s="9">
         <f t="shared" si="88"/>
         <v>4394.2797337742813</v>
       </c>
-      <c r="AQ58" s="9">
+      <c r="AQ60" s="9">
         <f t="shared" si="88"/>
         <v>4526.1081257875103</v>
       </c>
-      <c r="AR58" s="9">
+      <c r="AR60" s="9">
         <f t="shared" si="88"/>
         <v>4661.8913695611354</v>
       </c>
-      <c r="AS58" s="9">
+      <c r="AS60" s="9">
         <f t="shared" si="88"/>
         <v>4801.74811064797</v>
       </c>
-      <c r="AT58" s="9">
+      <c r="AT60" s="9">
         <f t="shared" si="88"/>
         <v>4945.8005539674095</v>
       </c>
-      <c r="AU58" s="9">
+      <c r="AU60" s="9">
         <f t="shared" si="88"/>
         <v>5094.1745705864323</v>
       </c>
-      <c r="AV58" s="9">
+      <c r="AV60" s="9">
         <f t="shared" si="88"/>
         <v>5246.9998077040254</v>
       </c>
     </row>
-    <row r="59" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J59" s="2">
-        <f t="shared" ref="J59:Y59" si="89">J58+J57+J56+J55+J54+J53</f>
+      <c r="J61" s="2">
+        <f t="shared" ref="J61:Y61" si="89">J60+J59+J58+J57+J56+J55</f>
         <v>9751</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K61" s="2">
         <f t="shared" si="89"/>
         <v>11073</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L61" s="2">
         <f t="shared" si="89"/>
         <v>10833</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M61" s="2">
         <f t="shared" si="89"/>
         <v>11391</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N61" s="2">
         <f t="shared" si="89"/>
         <v>8071</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O61" s="2">
         <f t="shared" si="89"/>
         <v>6125</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P61" s="2">
         <f t="shared" si="89"/>
         <v>6240</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q61" s="2">
         <f t="shared" si="89"/>
         <v>6880</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R61" s="2">
         <f t="shared" si="89"/>
         <v>5583</v>
       </c>
-      <c r="S59" s="24">
+      <c r="S61" s="24">
         <f t="shared" si="89"/>
         <v>5293</v>
       </c>
-      <c r="T59" s="24">
+      <c r="T61" s="24">
         <f t="shared" si="89"/>
         <v>6851.2500000000009</v>
       </c>
-      <c r="U59" s="24">
+      <c r="U61" s="24">
         <f t="shared" si="89"/>
         <v>7555.5499999999993</v>
       </c>
-      <c r="V59" s="24">
+      <c r="V61" s="24">
         <f t="shared" si="89"/>
         <v>5998.0000000000009</v>
       </c>
-      <c r="W59" s="24">
+      <c r="W61" s="24">
         <f t="shared" si="89"/>
         <v>5774.25</v>
       </c>
-      <c r="X59" s="24">
+      <c r="X61" s="24">
         <f t="shared" si="89"/>
         <v>7792.3125000000009</v>
       </c>
-      <c r="Y59" s="24">
+      <c r="Y61" s="24">
         <f t="shared" si="89"/>
         <v>8596.4274999999998</v>
       </c>
-      <c r="AC59" s="2">
-        <f t="shared" ref="AC59:AV59" si="90">AC58+AC57+AC56+AC55+AC54+AC53</f>
+      <c r="AC61" s="2">
+        <f t="shared" ref="AC61:AV61" si="90">AC60+AC59+AC58+AC57+AC56+AC55</f>
         <v>13232</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD61" s="2">
         <f t="shared" si="90"/>
         <v>32678</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AE61" s="2">
         <f t="shared" si="90"/>
         <v>43048</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AF61" s="2">
         <f t="shared" si="90"/>
         <v>27316</v>
       </c>
-      <c r="AG59" s="24">
+      <c r="AG61" s="24">
         <f t="shared" si="90"/>
         <v>25282.799999999999</v>
       </c>
-      <c r="AH59" s="24">
+      <c r="AH61" s="24">
         <f t="shared" si="90"/>
         <v>28160.989999999998</v>
       </c>
-      <c r="AI59" s="24">
+      <c r="AI61" s="24">
         <f t="shared" si="90"/>
         <v>29005.819700000004</v>
       </c>
-      <c r="AJ59" s="24">
+      <c r="AJ61" s="24">
         <f t="shared" si="90"/>
         <v>29875.994291000003</v>
       </c>
-      <c r="AK59" s="24">
+      <c r="AK61" s="24">
         <f t="shared" si="90"/>
         <v>30772.274119730002</v>
       </c>
-      <c r="AL59" s="24">
+      <c r="AL61" s="24">
         <f t="shared" si="90"/>
         <v>31695.442343321905</v>
       </c>
-      <c r="AM59" s="24">
+      <c r="AM61" s="24">
         <f t="shared" si="90"/>
         <v>32646.30561362156</v>
       </c>
-      <c r="AN59" s="24">
+      <c r="AN61" s="24">
         <f t="shared" si="90"/>
         <v>33625.694782030208</v>
       </c>
-      <c r="AO59" s="24">
+      <c r="AO61" s="24">
         <f t="shared" si="90"/>
         <v>34634.465625491117</v>
       </c>
-      <c r="AP59" s="24">
+      <c r="AP61" s="24">
         <f t="shared" si="90"/>
         <v>35673.499594255853</v>
       </c>
-      <c r="AQ59" s="24">
+      <c r="AQ61" s="24">
         <f t="shared" si="90"/>
         <v>36743.704582083526</v>
       </c>
-      <c r="AR59" s="24">
+      <c r="AR61" s="24">
         <f t="shared" si="90"/>
         <v>37846.015719546034</v>
       </c>
-      <c r="AS59" s="24">
+      <c r="AS61" s="24">
         <f t="shared" si="90"/>
         <v>38981.396191132422</v>
       </c>
-      <c r="AT59" s="24">
+      <c r="AT61" s="24">
         <f t="shared" si="90"/>
         <v>40150.838076866392</v>
       </c>
-      <c r="AU59" s="24">
+      <c r="AU61" s="24">
         <f t="shared" si="90"/>
         <v>41355.363219172388</v>
       </c>
-      <c r="AV59" s="24">
+      <c r="AV61" s="24">
         <f t="shared" si="90"/>
         <v>42596.024115747561</v>
       </c>
     </row>
-    <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" ref="J61:Y61" si="91">J51+J59</f>
+    <row r="63" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" ref="J63:Y63" si="91">J53+J61</f>
         <v>24199</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K63" s="2">
         <f t="shared" si="91"/>
         <v>25875</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L63" s="2">
         <f t="shared" si="91"/>
         <v>28430</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M63" s="2">
         <f t="shared" si="91"/>
         <v>27114</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N63" s="2">
         <f t="shared" si="91"/>
         <v>23101</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O63" s="2">
         <f t="shared" si="91"/>
         <v>21521</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P63" s="2">
         <f t="shared" si="91"/>
         <v>19356</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q63" s="2">
         <f t="shared" si="91"/>
         <v>18972</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R63" s="2">
         <f t="shared" si="91"/>
         <v>21518</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S63" s="2">
         <f t="shared" si="91"/>
         <v>17176</v>
       </c>
-      <c r="T61" s="24">
+      <c r="T63" s="24">
         <f t="shared" si="91"/>
         <v>25245</v>
       </c>
-      <c r="U61" s="24">
+      <c r="U63" s="24">
         <f t="shared" si="91"/>
         <v>24444.799999999999</v>
       </c>
-      <c r="V61" s="24">
+      <c r="V63" s="24">
         <f t="shared" si="91"/>
         <v>28618.9</v>
       </c>
-      <c r="W61" s="24">
+      <c r="W63" s="24">
         <f t="shared" si="91"/>
         <v>22429.200000000001</v>
       </c>
-      <c r="X61" s="24">
+      <c r="X63" s="24">
         <f t="shared" si="91"/>
         <v>30275.55</v>
       </c>
-      <c r="Y61" s="24">
+      <c r="Y63" s="24">
         <f t="shared" si="91"/>
         <v>29257.989999999998</v>
       </c>
-      <c r="AC61" s="2">
-        <f>AC51+AC59</f>
+      <c r="AC63" s="2">
+        <f>AC53+AC61</f>
         <v>45582</v>
       </c>
-      <c r="AD61" s="2">
-        <f>AD51+AD59</f>
+      <c r="AD63" s="2">
+        <f>AD53+AD61</f>
         <v>94466</v>
       </c>
-      <c r="AE61" s="2">
-        <f>AE51+AE59</f>
+      <c r="AE63" s="2">
+        <f>AE53+AE61</f>
         <v>105618</v>
       </c>
-      <c r="AF61" s="2">
-        <f>AF51+AF59</f>
+      <c r="AF63" s="2">
+        <f>AF53+AF61</f>
         <v>82950</v>
       </c>
-      <c r="AG61" s="24">
-        <f>AG51+AG59</f>
+      <c r="AG63" s="24">
+        <f>AG53+AG61</f>
         <v>88383.8</v>
       </c>
-      <c r="AH61" s="24">
-        <f>AG61*1.03</f>
+      <c r="AH63" s="24">
+        <f>AG63*1.03</f>
         <v>91035.313999999998</v>
       </c>
-      <c r="AI61" s="24">
-        <f t="shared" ref="AI61:AU61" si="92">AH61*1.03</f>
+      <c r="AI63" s="24">
+        <f t="shared" ref="AI63:AU63" si="92">AH63*1.03</f>
         <v>93766.373420000004</v>
       </c>
-      <c r="AJ61" s="24">
+      <c r="AJ63" s="24">
         <f t="shared" si="92"/>
         <v>96579.364622600013</v>
       </c>
-      <c r="AK61" s="24">
+      <c r="AK63" s="24">
         <f t="shared" si="92"/>
         <v>99476.745561278018</v>
       </c>
-      <c r="AL61" s="24">
+      <c r="AL63" s="24">
         <f t="shared" si="92"/>
         <v>102461.04792811636</v>
       </c>
-      <c r="AM61" s="24">
+      <c r="AM63" s="24">
         <f t="shared" si="92"/>
         <v>105534.87936595985</v>
       </c>
-      <c r="AN61" s="24">
+      <c r="AN63" s="24">
         <f t="shared" si="92"/>
         <v>108700.92574693865</v>
       </c>
-      <c r="AO61" s="24">
+      <c r="AO63" s="24">
         <f t="shared" si="92"/>
         <v>111961.95351934682</v>
       </c>
-      <c r="AP61" s="24">
+      <c r="AP63" s="24">
         <f t="shared" si="92"/>
         <v>115320.81212492722</v>
       </c>
-      <c r="AQ61" s="24">
+      <c r="AQ63" s="24">
         <f t="shared" si="92"/>
         <v>118780.43648867504</v>
       </c>
-      <c r="AR61" s="24">
+      <c r="AR63" s="24">
         <f t="shared" si="92"/>
         <v>122343.84958333529</v>
       </c>
-      <c r="AS61" s="24">
+      <c r="AS63" s="24">
         <f t="shared" si="92"/>
         <v>126014.16507083536</v>
       </c>
-      <c r="AT61" s="24">
+      <c r="AT63" s="24">
         <f t="shared" si="92"/>
         <v>129794.59002296042</v>
       </c>
-      <c r="AU61" s="24">
+      <c r="AU63" s="24">
         <f t="shared" si="92"/>
         <v>133688.42772364922</v>
       </c>
-      <c r="AV61" s="24">
-        <f>AU61*0.8</f>
+      <c r="AV63" s="24">
+        <f>AU63*0.8</f>
         <v>106950.74217891938</v>
       </c>
     </row>
-    <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J63">
-        <f t="shared" ref="J63:S63" si="93">J42-J61</f>
+    <row r="64" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65:S65" si="93">J42-J63</f>
         <v>-24199</v>
       </c>
-      <c r="K63">
+      <c r="K65">
         <f t="shared" si="93"/>
         <v>-25875</v>
       </c>
-      <c r="L63">
+      <c r="L65">
         <f t="shared" si="93"/>
         <v>-28430</v>
       </c>
-      <c r="M63">
+      <c r="M65">
         <f t="shared" si="93"/>
         <v>-27114</v>
       </c>
-      <c r="N63">
+      <c r="N65">
         <f t="shared" si="93"/>
         <v>-23101</v>
       </c>
-      <c r="O63">
+      <c r="O65">
         <f t="shared" si="93"/>
         <v>-21521</v>
       </c>
-      <c r="P63">
+      <c r="P65">
         <f t="shared" si="93"/>
         <v>-19356</v>
       </c>
-      <c r="Q63">
+      <c r="Q65">
         <f t="shared" si="93"/>
         <v>-18972</v>
       </c>
-      <c r="R63">
+      <c r="R65">
         <f t="shared" si="93"/>
         <v>-10858</v>
       </c>
-      <c r="S63">
+      <c r="S65">
         <f t="shared" si="93"/>
         <v>-17176</v>
       </c>
-      <c r="T63">
-        <f t="shared" ref="T63:Y63" si="94">T42-T61</f>
+      <c r="T65">
+        <f t="shared" ref="T65:Y65" si="94">T42-T63</f>
         <v>-25245</v>
       </c>
-      <c r="U63" s="9">
+      <c r="U65" s="9">
         <f t="shared" si="94"/>
         <v>-24080.3</v>
       </c>
-      <c r="V63" s="9">
+      <c r="V65" s="9">
         <f t="shared" si="94"/>
         <v>-27525.4</v>
       </c>
-      <c r="W63" s="9">
+      <c r="W65" s="9">
         <f t="shared" si="94"/>
         <v>-20606.7</v>
       </c>
-      <c r="X63" s="9">
+      <c r="X65" s="9">
         <f t="shared" si="94"/>
         <v>-27724.05</v>
       </c>
-      <c r="Y63">
+      <c r="Y65">
         <f t="shared" si="94"/>
         <v>-26341.989999999998</v>
       </c>
-      <c r="AC63">
-        <f t="shared" ref="AC63:AV63" si="95">AC42-AC61</f>
+      <c r="AC65">
+        <f t="shared" ref="AC65:AV65" si="95">AC42-AC63</f>
         <v>-45582</v>
       </c>
-      <c r="AD63">
+      <c r="AD65">
         <f t="shared" si="95"/>
         <v>-94466</v>
       </c>
-      <c r="AE63">
+      <c r="AE65">
         <f t="shared" si="95"/>
         <v>-105618</v>
       </c>
-      <c r="AF63">
+      <c r="AF65">
         <f t="shared" si="95"/>
         <v>-82950</v>
       </c>
-      <c r="AG63" s="9">
+      <c r="AG65" s="9">
         <f t="shared" si="95"/>
         <v>-77359.3</v>
       </c>
-      <c r="AH63" s="9">
+      <c r="AH65" s="9">
         <f t="shared" si="95"/>
         <v>-82651.813999999998</v>
       </c>
-      <c r="AI63" s="9">
+      <c r="AI65" s="9">
         <f t="shared" si="95"/>
         <v>-75745.493419999999</v>
       </c>
-      <c r="AJ63" s="9">
+      <c r="AJ65" s="9">
         <f t="shared" si="95"/>
         <v>-68737.105022600008</v>
       </c>
-      <c r="AK63" s="9">
+      <c r="AK65" s="9">
         <f t="shared" si="95"/>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="AL63" s="9">
+      <c r="AL65" s="9">
         <f t="shared" si="95"/>
         <v>55560.388995883652</v>
       </c>
-      <c r="AM63" s="9">
+      <c r="AM65" s="9">
         <f t="shared" si="95"/>
         <v>121706.02467832615</v>
       </c>
-      <c r="AN63" s="9">
+      <c r="AN65" s="9">
         <f t="shared" si="95"/>
         <v>147494.93499632363</v>
       </c>
-      <c r="AO63" s="9">
+      <c r="AO65" s="9">
         <f t="shared" si="95"/>
         <v>151919.78304621333</v>
       </c>
-      <c r="AP63" s="9">
+      <c r="AP65" s="9">
         <f t="shared" si="95"/>
         <v>126834.95663312949</v>
       </c>
-      <c r="AQ63" s="9">
+      <c r="AQ65" s="9">
         <f t="shared" si="95"/>
         <v>103961.82741810023</v>
       </c>
-      <c r="AR63" s="9">
+      <c r="AR65" s="9">
         <f t="shared" si="95"/>
         <v>83070.322118022348</v>
       </c>
-      <c r="AS63" s="9">
+      <c r="AS65" s="9">
         <f t="shared" si="95"/>
         <v>63953.107671204256</v>
       </c>
-      <c r="AT63" s="9">
+      <c r="AT65" s="9">
         <f t="shared" si="95"/>
         <v>46423.309202017466</v>
       </c>
-      <c r="AU63" s="9">
+      <c r="AU65" s="9">
         <f t="shared" si="95"/>
         <v>30312.455948687362</v>
       </c>
-      <c r="AV63" s="9">
+      <c r="AV65" s="9">
         <f t="shared" si="95"/>
         <v>24163.412538748205</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="1">
-        <v>76</v>
-      </c>
-      <c r="K65" s="1">
-        <v>169</v>
-      </c>
-      <c r="L65" s="1">
-        <v>76</v>
-      </c>
-      <c r="M65">
-        <f t="shared" ref="M65:M67" si="96">AE65-L65-K65-J65</f>
-        <v>234</v>
-      </c>
-      <c r="N65" s="1">
-        <v>76</v>
-      </c>
-      <c r="O65" s="1">
-        <v>111</v>
-      </c>
-      <c r="P65" s="1">
-        <v>227</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" ref="Q65:Q67" si="97">AF65-P65-O65-N65</f>
-        <v>271</v>
-      </c>
-      <c r="R65" s="1">
-        <v>221</v>
-      </c>
-      <c r="S65" s="1">
-        <v>408</v>
-      </c>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AC65" s="1">
-        <v>93</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>559</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>555</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>685</v>
-      </c>
-      <c r="AG65" s="9">
-        <f t="shared" ref="AG65" si="98">SUM(R65:U65)</f>
-        <v>629</v>
-      </c>
-      <c r="AH65" s="9">
-        <f t="shared" ref="AH65" si="99">SUM(V65:Y65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="O66" s="1">
-        <v>-4357</v>
-      </c>
-      <c r="P66" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="97"/>
-        <v>4255</v>
-      </c>
-      <c r="R66" s="1">
-        <v>469</v>
-      </c>
-      <c r="S66" s="1">
-        <v>-12804</v>
-      </c>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AF66" s="1">
-        <v>-66</v>
-      </c>
-      <c r="AG66" s="9">
-        <f t="shared" ref="AG66:AG67" si="100">SUM(R66:U66)</f>
-        <v>-12335</v>
-      </c>
-      <c r="AH66" s="9">
-        <f t="shared" ref="AH66:AH67" si="101">SUM(V66:Y66)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" s="1">
-        <v>-56</v>
+        <v>76</v>
       </c>
       <c r="K67" s="1">
-        <v>-122</v>
+        <v>169</v>
       </c>
       <c r="L67" s="1">
-        <v>-64</v>
+        <v>76</v>
       </c>
       <c r="M67">
-        <f t="shared" si="96"/>
-        <v>-279</v>
+        <f t="shared" ref="M67:M69" si="96">AE67-L67-K67-J67</f>
+        <v>234</v>
       </c>
       <c r="N67" s="1">
-        <v>-96</v>
+        <v>76</v>
       </c>
       <c r="O67" s="1">
-        <v>-90</v>
+        <v>111</v>
       </c>
       <c r="P67" s="1">
-        <v>-8</v>
+        <v>227</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="97"/>
-        <v>17</v>
+        <f t="shared" ref="Q67:Q69" si="97">AF67-P67-O67-N67</f>
+        <v>271</v>
       </c>
       <c r="R67" s="1">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="S67" s="1">
-        <v>-5</v>
+        <v>408</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -6106,585 +6081,473 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AC67" s="1">
+        <v>93</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>559</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>555</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>685</v>
+      </c>
+      <c r="AG67" s="9">
+        <f t="shared" ref="AG67" si="98">SUM(R67:U67)</f>
+        <v>629</v>
+      </c>
+      <c r="AH67" s="9">
+        <f t="shared" ref="AH67" si="99">SUM(V67:Y67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" s="1">
+        <v>-4357</v>
+      </c>
+      <c r="P68" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="97"/>
+        <v>4255</v>
+      </c>
+      <c r="R68" s="1">
+        <v>469</v>
+      </c>
+      <c r="S68" s="1">
+        <v>-12804</v>
+      </c>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AF68" s="1">
+        <v>-66</v>
+      </c>
+      <c r="AG68" s="9">
+        <f t="shared" ref="AG68:AG69" si="100">SUM(R68:U68)</f>
+        <v>-12335</v>
+      </c>
+      <c r="AH68" s="9">
+        <f t="shared" ref="AH68:AH69" si="101">SUM(V68:Y68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-56</v>
+      </c>
+      <c r="K69" s="1">
+        <v>-122</v>
+      </c>
+      <c r="L69" s="1">
+        <v>-64</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="96"/>
+        <v>-279</v>
+      </c>
+      <c r="N69" s="1">
+        <v>-96</v>
+      </c>
+      <c r="O69" s="1">
+        <v>-90</v>
+      </c>
+      <c r="P69" s="1">
+        <v>-8</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="97"/>
+        <v>17</v>
+      </c>
+      <c r="R69" s="1">
+        <v>31</v>
+      </c>
+      <c r="S69" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AC69" s="1">
         <v>-24</v>
       </c>
-      <c r="AD67" s="1">
+      <c r="AD69" s="1">
         <v>-54</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AE69" s="1">
         <v>-521</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AF69" s="1">
         <v>-177</v>
       </c>
-      <c r="AG67" s="9">
+      <c r="AG69" s="9">
         <f t="shared" si="100"/>
         <v>26</v>
       </c>
-      <c r="AH67" s="9">
+      <c r="AH69" s="9">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="2">
-        <f>J65+J66+J67</f>
+      <c r="J70" s="2">
+        <f>J67+J68+J69</f>
         <v>20</v>
       </c>
-      <c r="K68" s="2">
-        <f t="shared" ref="K68:Y68" si="102">K65+K66+K67</f>
+      <c r="K70" s="2">
+        <f t="shared" ref="K70:Y70" si="102">K67+K68+K69</f>
         <v>47</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L70" s="2">
         <f t="shared" si="102"/>
         <v>12</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M70" s="2">
         <f t="shared" si="102"/>
         <v>-45</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N70" s="2">
         <f t="shared" si="102"/>
         <v>-20</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O70" s="2">
         <f t="shared" si="102"/>
         <v>-4336</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P70" s="2">
         <f t="shared" si="102"/>
         <v>255</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q70" s="2">
         <f t="shared" si="102"/>
         <v>4543</v>
       </c>
-      <c r="R68" s="2">
+      <c r="R70" s="2">
         <f t="shared" si="102"/>
         <v>721</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S70" s="2">
         <f t="shared" si="102"/>
         <v>-12401</v>
       </c>
-      <c r="T68" s="2">
+      <c r="T70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="U68" s="2">
+      <c r="U70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V68" s="2">
+      <c r="V70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="W68" s="2">
+      <c r="W70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="X68" s="2">
+      <c r="X70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="Y70" s="2">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="AC68" s="2">
-        <f>AC67+AC66+AC65</f>
+      <c r="AC70" s="2">
+        <f>AC69+AC68+AC67</f>
         <v>69</v>
       </c>
-      <c r="AD68" s="2">
-        <f t="shared" ref="AD68:AH68" si="103">AD67+AD66+AD65</f>
+      <c r="AD70" s="2">
+        <f t="shared" ref="AD70:AH70" si="103">AD69+AD68+AD67</f>
         <v>505</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE70" s="2">
         <f t="shared" si="103"/>
         <v>34</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AF70" s="2">
         <f t="shared" si="103"/>
         <v>442</v>
       </c>
-      <c r="AG68" s="2">
+      <c r="AG70" s="2">
         <f t="shared" si="103"/>
         <v>-11680</v>
       </c>
-      <c r="AH68" s="2">
+      <c r="AH70" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="AI68" s="2">
-        <f>AI67+AI66+AI65</f>
+      <c r="AI70" s="2">
+        <f>AI69+AI68+AI67</f>
         <v>0</v>
       </c>
-      <c r="AJ68" s="2">
-        <f t="shared" ref="AJ68" si="104">AJ67+AJ66+AJ65</f>
+      <c r="AJ70" s="2">
+        <f t="shared" ref="AJ70" si="104">AJ69+AJ68+AJ67</f>
         <v>0</v>
       </c>
-      <c r="AK68" s="2">
-        <f t="shared" ref="AK68" si="105">AK67+AK66+AK65</f>
+      <c r="AK70" s="2">
+        <f t="shared" ref="AK70" si="105">AK69+AK68+AK67</f>
         <v>0</v>
       </c>
-      <c r="AL68" s="2">
-        <f t="shared" ref="AL68" si="106">AL67+AL66+AL65</f>
+      <c r="AL70" s="2">
+        <f t="shared" ref="AL70" si="106">AL69+AL68+AL67</f>
         <v>0</v>
       </c>
-      <c r="AM68" s="2">
-        <f t="shared" ref="AM68" si="107">AM67+AM66+AM65</f>
+      <c r="AM70" s="2">
+        <f t="shared" ref="AM70" si="107">AM69+AM68+AM67</f>
         <v>0</v>
       </c>
-      <c r="AN68" s="2">
-        <f t="shared" ref="AN68" si="108">AN67+AN66+AN65</f>
+      <c r="AN70" s="2">
+        <f t="shared" ref="AN70" si="108">AN69+AN68+AN67</f>
         <v>0</v>
       </c>
-      <c r="AO68" s="2">
-        <f t="shared" ref="AO68" si="109">AO67+AO66+AO65</f>
+      <c r="AO70" s="2">
+        <f t="shared" ref="AO70" si="109">AO69+AO68+AO67</f>
         <v>0</v>
       </c>
-      <c r="AP68" s="2">
-        <f t="shared" ref="AP68" si="110">AP67+AP66+AP65</f>
+      <c r="AP70" s="2">
+        <f t="shared" ref="AP70" si="110">AP69+AP68+AP67</f>
         <v>0</v>
       </c>
-      <c r="AQ68" s="2">
-        <f t="shared" ref="AQ68" si="111">AQ67+AQ66+AQ65</f>
+      <c r="AQ70" s="2">
+        <f t="shared" ref="AQ70" si="111">AQ69+AQ68+AQ67</f>
         <v>0</v>
       </c>
-      <c r="AR68" s="2">
-        <f t="shared" ref="AR68" si="112">AR67+AR66+AR65</f>
+      <c r="AR70" s="2">
+        <f t="shared" ref="AR70" si="112">AR69+AR68+AR67</f>
         <v>0</v>
       </c>
-      <c r="AS68" s="2">
-        <f t="shared" ref="AS68" si="113">AS67+AS66+AS65</f>
+      <c r="AS70" s="2">
+        <f t="shared" ref="AS70" si="113">AS69+AS68+AS67</f>
         <v>0</v>
       </c>
-      <c r="AT68" s="2">
-        <f t="shared" ref="AT68" si="114">AT67+AT66+AT65</f>
+      <c r="AT70" s="2">
+        <f t="shared" ref="AT70" si="114">AT69+AT68+AT67</f>
         <v>0</v>
       </c>
-      <c r="AU68" s="2">
-        <f t="shared" ref="AU68" si="115">AU67+AU66+AU65</f>
+      <c r="AU70" s="2">
+        <f t="shared" ref="AU70" si="115">AU69+AU68+AU67</f>
         <v>0</v>
       </c>
-      <c r="AV68" s="2">
-        <f t="shared" ref="AV68" si="116">AV67+AV66+AV65</f>
+      <c r="AV70" s="2">
+        <f t="shared" ref="AV70" si="116">AV69+AV68+AV67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J70">
-        <f>J63+J68</f>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72">
+        <f>J65+J70</f>
         <v>-24179</v>
       </c>
-      <c r="K70">
-        <f t="shared" ref="K70:Y70" si="117">K63+K68</f>
+      <c r="K72">
+        <f t="shared" ref="K72:Y72" si="117">K65+K70</f>
         <v>-25828</v>
       </c>
-      <c r="L70">
+      <c r="L72">
         <f t="shared" si="117"/>
         <v>-28418</v>
       </c>
-      <c r="M70">
+      <c r="M72">
         <f t="shared" si="117"/>
         <v>-27159</v>
       </c>
-      <c r="N70">
+      <c r="N72">
         <f t="shared" si="117"/>
         <v>-23121</v>
       </c>
-      <c r="O70">
+      <c r="O72">
         <f t="shared" si="117"/>
         <v>-25857</v>
       </c>
-      <c r="P70">
+      <c r="P72">
         <f t="shared" si="117"/>
         <v>-19101</v>
       </c>
-      <c r="Q70">
+      <c r="Q72">
         <f t="shared" si="117"/>
         <v>-14429</v>
       </c>
-      <c r="R70">
+      <c r="R72">
         <f t="shared" si="117"/>
         <v>-10137</v>
       </c>
-      <c r="S70">
+      <c r="S72">
         <f t="shared" si="117"/>
         <v>-29577</v>
       </c>
-      <c r="T70">
+      <c r="T72">
         <f t="shared" si="117"/>
         <v>-25245</v>
       </c>
-      <c r="U70">
+      <c r="U72">
         <f t="shared" si="117"/>
         <v>-24080.3</v>
       </c>
-      <c r="V70">
+      <c r="V72">
         <f t="shared" si="117"/>
         <v>-27525.4</v>
       </c>
-      <c r="W70">
+      <c r="W72">
         <f t="shared" si="117"/>
         <v>-20606.7</v>
       </c>
-      <c r="X70">
+      <c r="X72">
         <f t="shared" si="117"/>
         <v>-27724.05</v>
       </c>
-      <c r="Y70">
+      <c r="Y72">
         <f t="shared" si="117"/>
         <v>-26341.989999999998</v>
       </c>
-      <c r="AC70">
-        <f t="shared" ref="AC70:AV70" si="118">AC63+AC68</f>
+      <c r="AC72">
+        <f t="shared" ref="AC72:AV72" si="118">AC65+AC70</f>
         <v>-45513</v>
       </c>
-      <c r="AD70">
+      <c r="AD72">
         <f t="shared" si="118"/>
         <v>-93961</v>
       </c>
-      <c r="AE70">
+      <c r="AE72">
         <f t="shared" si="118"/>
         <v>-105584</v>
       </c>
-      <c r="AF70">
+      <c r="AF72">
         <f t="shared" si="118"/>
         <v>-82508</v>
       </c>
-      <c r="AG70" s="9">
+      <c r="AG72" s="9">
         <f t="shared" si="118"/>
         <v>-89039.3</v>
       </c>
-      <c r="AH70" s="9">
+      <c r="AH72" s="9">
         <f t="shared" si="118"/>
         <v>-82651.813999999998</v>
       </c>
-      <c r="AI70" s="9">
+      <c r="AI72" s="9">
         <f t="shared" si="118"/>
         <v>-75745.493419999999</v>
       </c>
-      <c r="AJ70" s="9">
+      <c r="AJ72" s="9">
         <f t="shared" si="118"/>
         <v>-68737.105022600008</v>
       </c>
-      <c r="AK70" s="9">
+      <c r="AK72" s="9">
         <f t="shared" si="118"/>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="AL70" s="9">
+      <c r="AL72" s="9">
         <f t="shared" si="118"/>
         <v>55560.388995883652</v>
       </c>
-      <c r="AM70" s="9">
+      <c r="AM72" s="9">
         <f t="shared" si="118"/>
         <v>121706.02467832615</v>
       </c>
-      <c r="AN70" s="9">
+      <c r="AN72" s="9">
         <f t="shared" si="118"/>
         <v>147494.93499632363</v>
       </c>
-      <c r="AO70" s="9">
+      <c r="AO72" s="9">
         <f t="shared" si="118"/>
         <v>151919.78304621333</v>
       </c>
-      <c r="AP70" s="9">
+      <c r="AP72" s="9">
         <f t="shared" si="118"/>
         <v>126834.95663312949</v>
       </c>
-      <c r="AQ70" s="9">
+      <c r="AQ72" s="9">
         <f t="shared" si="118"/>
         <v>103961.82741810023</v>
       </c>
-      <c r="AR70" s="9">
+      <c r="AR72" s="9">
         <f t="shared" si="118"/>
         <v>83070.322118022348</v>
       </c>
-      <c r="AS70" s="9">
+      <c r="AS72" s="9">
         <f t="shared" si="118"/>
         <v>63953.107671204256</v>
       </c>
-      <c r="AT70" s="9">
+      <c r="AT72" s="9">
         <f t="shared" si="118"/>
         <v>46423.309202017466</v>
       </c>
-      <c r="AU70" s="9">
+      <c r="AU72" s="9">
         <f t="shared" si="118"/>
         <v>30312.455948687362</v>
       </c>
-      <c r="AV70" s="9">
+      <c r="AV72" s="9">
         <f t="shared" si="118"/>
         <v>24163.412538748205</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="1">
-        <v>-24179</v>
-      </c>
-      <c r="K74" s="1">
-        <v>-25828</v>
-      </c>
-      <c r="L74" s="1">
-        <v>-28418</v>
-      </c>
-      <c r="M74">
-        <f t="shared" ref="M74" si="119">AE74-L74-K74-J74</f>
-        <v>-27159</v>
-      </c>
-      <c r="N74" s="1">
-        <v>-23121</v>
-      </c>
-      <c r="O74" s="1">
-        <v>-25857</v>
-      </c>
-      <c r="P74" s="1">
-        <v>-19101</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" ref="Q74" si="120">AF74-P74-O74-N74</f>
-        <v>-14429</v>
-      </c>
-      <c r="R74" s="1">
-        <v>-10137</v>
-      </c>
-      <c r="S74" s="1">
-        <v>-29577</v>
-      </c>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AC74">
-        <v>-45513</v>
-      </c>
-      <c r="AD74">
-        <v>-93961</v>
-      </c>
-      <c r="AE74">
-        <v>-105584</v>
-      </c>
-      <c r="AF74">
-        <v>-82508</v>
-      </c>
-      <c r="AH74" s="8"/>
-    </row>
-    <row r="75" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="2">
-        <f>J70-J72</f>
-        <v>-24179</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" ref="K75:Y75" si="121">K70-K72</f>
-        <v>-25828</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="121"/>
-        <v>-28418</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="121"/>
-        <v>-27159</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="121"/>
-        <v>-23121</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="121"/>
-        <v>-25857</v>
-      </c>
-      <c r="P75" s="2">
-        <f t="shared" si="121"/>
-        <v>-19101</v>
-      </c>
-      <c r="Q75" s="2">
-        <f t="shared" si="121"/>
-        <v>-14429</v>
-      </c>
-      <c r="R75" s="2">
-        <f t="shared" si="121"/>
-        <v>-10137</v>
-      </c>
-      <c r="S75" s="2">
-        <f t="shared" si="121"/>
-        <v>-29577</v>
-      </c>
-      <c r="T75" s="24">
-        <f t="shared" si="121"/>
-        <v>-25245</v>
-      </c>
-      <c r="U75" s="24">
-        <f t="shared" si="121"/>
-        <v>-24080.3</v>
-      </c>
-      <c r="V75" s="24">
-        <f t="shared" si="121"/>
-        <v>-27525.4</v>
-      </c>
-      <c r="W75" s="24">
-        <f t="shared" si="121"/>
-        <v>-20606.7</v>
-      </c>
-      <c r="X75" s="24">
-        <f t="shared" si="121"/>
-        <v>-27724.05</v>
-      </c>
-      <c r="Y75" s="24">
-        <f t="shared" si="121"/>
-        <v>-26341.989999999998</v>
-      </c>
-      <c r="AC75" s="2">
-        <f t="shared" ref="AC75:AV75" si="122">AC70-AC72</f>
-        <v>-45513</v>
-      </c>
-      <c r="AD75" s="2">
-        <f t="shared" si="122"/>
-        <v>-93961</v>
-      </c>
-      <c r="AE75" s="2">
-        <f t="shared" si="122"/>
-        <v>-105584</v>
-      </c>
-      <c r="AF75" s="2">
-        <f t="shared" si="122"/>
-        <v>-82508</v>
-      </c>
-      <c r="AG75" s="24">
-        <f t="shared" si="122"/>
-        <v>-89039.3</v>
-      </c>
-      <c r="AH75" s="24">
-        <f t="shared" si="122"/>
-        <v>-82651.813999999998</v>
-      </c>
-      <c r="AI75" s="24">
-        <f t="shared" si="122"/>
-        <v>-75745.493419999999</v>
-      </c>
-      <c r="AJ75" s="24">
-        <f t="shared" si="122"/>
-        <v>-68737.105022600008</v>
-      </c>
-      <c r="AK75" s="24">
-        <f t="shared" si="122"/>
-        <v>-6835.3505012779933</v>
-      </c>
-      <c r="AL75" s="24">
-        <f t="shared" si="122"/>
-        <v>55560.388995883652</v>
-      </c>
-      <c r="AM75" s="24">
-        <f t="shared" si="122"/>
-        <v>121706.02467832615</v>
-      </c>
-      <c r="AN75" s="24">
-        <f t="shared" si="122"/>
-        <v>147494.93499632363</v>
-      </c>
-      <c r="AO75" s="24">
-        <f t="shared" si="122"/>
-        <v>151919.78304621333</v>
-      </c>
-      <c r="AP75" s="24">
-        <f t="shared" si="122"/>
-        <v>126834.95663312949</v>
-      </c>
-      <c r="AQ75" s="24">
-        <f t="shared" si="122"/>
-        <v>103961.82741810023</v>
-      </c>
-      <c r="AR75" s="24">
-        <f t="shared" si="122"/>
-        <v>83070.322118022348</v>
-      </c>
-      <c r="AS75" s="24">
-        <f t="shared" si="122"/>
-        <v>63953.107671204256</v>
-      </c>
-      <c r="AT75" s="24">
-        <f t="shared" si="122"/>
-        <v>46423.309202017466</v>
-      </c>
-      <c r="AU75" s="24">
-        <f t="shared" si="122"/>
-        <v>30312.455948687362</v>
-      </c>
-      <c r="AV75" s="24">
-        <f t="shared" si="122"/>
-        <v>24163.412538748205</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" t="b">
-        <f>J75=J74</f>
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
-        <f t="shared" ref="K76:S76" si="123">K75=K74</f>
-        <v>1</v>
-      </c>
-      <c r="L76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="M76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="N76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="O76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="P76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="Q76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="R76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="S76" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-24179</v>
+      </c>
+      <c r="K76" s="1">
+        <v>-25828</v>
+      </c>
+      <c r="L76" s="1">
+        <v>-28418</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76" si="119">AE76-L76-K76-J76</f>
+        <v>-27159</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-23121</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-25857</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-19101</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ref="Q76" si="120">AF76-P76-O76-N76</f>
+        <v>-14429</v>
+      </c>
+      <c r="R76" s="1">
+        <v>-10137</v>
+      </c>
+      <c r="S76" s="1">
+        <v>-29577</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
@@ -6692,80 +6555,212 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" t="b">
-        <f t="shared" ref="AC76" si="124">AC75=AC74</f>
-        <v>1</v>
-      </c>
-      <c r="AD76" t="b">
-        <f t="shared" ref="AD76" si="125">AD75=AD74</f>
-        <v>1</v>
-      </c>
-      <c r="AE76" t="b">
-        <f t="shared" ref="AE76" si="126">AE75=AE74</f>
-        <v>1</v>
-      </c>
-      <c r="AF76" t="b">
-        <f t="shared" ref="AF76" si="127">AF75=AF74</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
+      <c r="AC76">
+        <v>-45513</v>
+      </c>
+      <c r="AD76">
+        <v>-93961</v>
+      </c>
+      <c r="AE76">
+        <v>-105584</v>
+      </c>
+      <c r="AF76">
+        <v>-82508</v>
+      </c>
+      <c r="AH76" s="8"/>
+    </row>
+    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="2">
+        <f>J72-J74</f>
+        <v>-24179</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" ref="K77:Y77" si="121">K72-K74</f>
+        <v>-25828</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="121"/>
+        <v>-28418</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="121"/>
+        <v>-27159</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="121"/>
+        <v>-23121</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="121"/>
+        <v>-25857</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" si="121"/>
+        <v>-19101</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="121"/>
+        <v>-14429</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="121"/>
+        <v>-10137</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="121"/>
+        <v>-29577</v>
+      </c>
+      <c r="T77" s="24">
+        <f t="shared" si="121"/>
+        <v>-25245</v>
+      </c>
+      <c r="U77" s="24">
+        <f t="shared" si="121"/>
+        <v>-24080.3</v>
+      </c>
+      <c r="V77" s="24">
+        <f t="shared" si="121"/>
+        <v>-27525.4</v>
+      </c>
+      <c r="W77" s="24">
+        <f t="shared" si="121"/>
+        <v>-20606.7</v>
+      </c>
+      <c r="X77" s="24">
+        <f t="shared" si="121"/>
+        <v>-27724.05</v>
+      </c>
+      <c r="Y77" s="24">
+        <f t="shared" si="121"/>
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="AC77" s="2">
+        <f t="shared" ref="AC77:AV77" si="122">AC72-AC74</f>
+        <v>-45513</v>
+      </c>
+      <c r="AD77" s="2">
+        <f t="shared" si="122"/>
+        <v>-93961</v>
+      </c>
+      <c r="AE77" s="2">
+        <f t="shared" si="122"/>
+        <v>-105584</v>
+      </c>
+      <c r="AF77" s="2">
+        <f t="shared" si="122"/>
+        <v>-82508</v>
+      </c>
+      <c r="AG77" s="24">
+        <f t="shared" si="122"/>
+        <v>-89039.3</v>
+      </c>
+      <c r="AH77" s="24">
+        <f t="shared" si="122"/>
+        <v>-82651.813999999998</v>
+      </c>
+      <c r="AI77" s="24">
+        <f t="shared" si="122"/>
+        <v>-75745.493419999999</v>
+      </c>
+      <c r="AJ77" s="24">
+        <f t="shared" si="122"/>
+        <v>-68737.105022600008</v>
+      </c>
+      <c r="AK77" s="24">
+        <f t="shared" si="122"/>
+        <v>-6835.3505012779933</v>
+      </c>
+      <c r="AL77" s="24">
+        <f t="shared" si="122"/>
+        <v>55560.388995883652</v>
+      </c>
+      <c r="AM77" s="24">
+        <f t="shared" si="122"/>
+        <v>121706.02467832615</v>
+      </c>
+      <c r="AN77" s="24">
+        <f t="shared" si="122"/>
+        <v>147494.93499632363</v>
+      </c>
+      <c r="AO77" s="24">
+        <f t="shared" si="122"/>
+        <v>151919.78304621333</v>
+      </c>
+      <c r="AP77" s="24">
+        <f t="shared" si="122"/>
+        <v>126834.95663312949</v>
+      </c>
+      <c r="AQ77" s="24">
+        <f t="shared" si="122"/>
+        <v>103961.82741810023</v>
+      </c>
+      <c r="AR77" s="24">
+        <f t="shared" si="122"/>
+        <v>83070.322118022348</v>
+      </c>
+      <c r="AS77" s="24">
+        <f t="shared" si="122"/>
+        <v>63953.107671204256</v>
+      </c>
+      <c r="AT77" s="24">
+        <f t="shared" si="122"/>
+        <v>46423.309202017466</v>
+      </c>
+      <c r="AU77" s="24">
+        <f t="shared" si="122"/>
+        <v>30312.455948687362</v>
+      </c>
+      <c r="AV77" s="24">
+        <f t="shared" si="122"/>
+        <v>24163.412538748205</v>
+      </c>
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>171</v>
-      </c>
-      <c r="J78" s="1">
-        <v>24135735</v>
-      </c>
-      <c r="K78" s="1">
-        <v>26082525</v>
-      </c>
-      <c r="L78" s="1">
-        <v>26177079</v>
-      </c>
-      <c r="M78" s="1">
-        <f>AE78*4-L78-K78-J78</f>
-        <v>-76395236.607275993</v>
-      </c>
-      <c r="N78" s="1">
-        <v>26215514</v>
-      </c>
-      <c r="O78" s="1">
-        <v>26901069</v>
-      </c>
-      <c r="P78" s="1">
-        <v>48000183</v>
-      </c>
-      <c r="Q78" s="1">
-        <f>AF78*4-P78-O78-N78</f>
-        <v>-101116614.698276</v>
-      </c>
-      <c r="R78" s="1">
-        <v>56357983</v>
-      </c>
-      <c r="S78" s="1">
-        <v>79041695</v>
+        <v>11</v>
+      </c>
+      <c r="J78" t="b">
+        <f>J77=J76</f>
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <f t="shared" ref="K78:S78" si="123">K77=K76</f>
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="O78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="R78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="S78" t="b">
+        <f t="shared" si="123"/>
+        <v>1</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -6773,306 +6768,387 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AE78" s="25">
+      <c r="AC78" t="b">
+        <f t="shared" ref="AC78" si="124">AC77=AC76</f>
+        <v>1</v>
+      </c>
+      <c r="AD78" t="b">
+        <f t="shared" ref="AD78" si="125">AD77=AD76</f>
+        <v>1</v>
+      </c>
+      <c r="AE78" t="b">
+        <f t="shared" ref="AE78" si="126">AE77=AE76</f>
+        <v>1</v>
+      </c>
+      <c r="AF78" t="b">
+        <f t="shared" ref="AF78" si="127">AF77=AF76</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J80" s="1">
+        <v>24135735</v>
+      </c>
+      <c r="K80" s="1">
+        <v>26082525</v>
+      </c>
+      <c r="L80" s="1">
+        <v>26177079</v>
+      </c>
+      <c r="M80" s="1">
+        <f>AE80*4-L80-K80-J80</f>
+        <v>-76395236.607275993</v>
+      </c>
+      <c r="N80" s="1">
+        <v>26215514</v>
+      </c>
+      <c r="O80" s="1">
+        <v>26901069</v>
+      </c>
+      <c r="P80" s="1">
+        <v>48000183</v>
+      </c>
+      <c r="Q80" s="1">
+        <f>AF80*4-P80-O80-N80</f>
+        <v>-101116614.698276</v>
+      </c>
+      <c r="R80" s="1">
+        <v>56357983</v>
+      </c>
+      <c r="S80" s="1">
+        <v>79041695</v>
+      </c>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AE80" s="25">
         <v>25.598181</v>
       </c>
-      <c r="AF78" s="25">
+      <c r="AF80" s="25">
         <v>37.825431000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q89">
-        <v>16657</v>
-      </c>
-      <c r="S89">
-        <v>35616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q90">
-        <v>13923</v>
+    <row r="89" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q91">
+        <v>16657</v>
+      </c>
+      <c r="S91">
+        <v>35616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q92">
+        <v>13923</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q93">
         <v>6728</v>
       </c>
-      <c r="S91">
+      <c r="S93">
         <v>7205</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q92" s="2">
-        <f>Q91+Q89+Q90</f>
+    <row r="94" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q94" s="2">
+        <f>Q93+Q91+Q92</f>
         <v>37308</v>
       </c>
-      <c r="S92" s="2">
-        <f>S91+S89+S90</f>
+      <c r="S94" s="2">
+        <f>S93+S91+S92</f>
         <v>42821</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q94">
-        <v>857</v>
-      </c>
-      <c r="S94">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q95">
-        <v>198</v>
-      </c>
-      <c r="S95">
-        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q96">
-        <f>Q95+Q94</f>
+        <v>857</v>
+      </c>
+      <c r="S96">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q97">
+        <v>198</v>
+      </c>
+      <c r="S97">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q98">
+        <f>Q97+Q96</f>
         <v>1055</v>
       </c>
-      <c r="S96">
-        <f>S95+S94</f>
+      <c r="S98">
+        <f>S97+S96</f>
         <v>825</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q97" s="2">
-        <f>Q95+Q94+Q92</f>
+    <row r="99" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q99" s="2">
+        <f>Q97+Q96+Q94</f>
         <v>38363</v>
       </c>
-      <c r="S97" s="2">
-        <f>S95+S94+S92</f>
+      <c r="S99" s="2">
+        <f>S97+S96+S94</f>
         <v>43646</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q99">
-        <v>477</v>
-      </c>
-      <c r="S99">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q100">
-        <v>4534</v>
-      </c>
-      <c r="S100">
-        <v>4687</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q101">
-        <v>14756</v>
+        <v>477</v>
       </c>
       <c r="S101">
-        <v>16023</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q102">
+        <v>4534</v>
+      </c>
+      <c r="S102">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q103">
+        <v>14756</v>
+      </c>
+      <c r="S103">
+        <v>16023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q104">
+        <v>13657</v>
+      </c>
+      <c r="S104">
+        <v>25992</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q102">
-        <v>13657</v>
-      </c>
-      <c r="S102">
-        <v>25992</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q103" s="2">
-        <f>Q99+Q100+Q101+Q102</f>
+      <c r="Q105" s="2">
+        <f>Q101+Q102+Q103+Q104</f>
         <v>33424</v>
       </c>
-      <c r="S103" s="2">
-        <f>S99+S100+S101+S102</f>
+      <c r="S105" s="2">
+        <f>S101+S102+S103+S104</f>
         <v>47188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q105">
-        <v>414</v>
-      </c>
-      <c r="S105">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q106">
-        <v>464</v>
-      </c>
-      <c r="S106">
-        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q107">
+        <v>414</v>
+      </c>
+      <c r="S107">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q108">
+        <v>464</v>
+      </c>
+      <c r="S108">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q109">
+        <f>Q108+Q107</f>
+        <v>878</v>
+      </c>
+      <c r="S109">
+        <f>S108+S107</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q107">
-        <f>Q106+Q105</f>
-        <v>878</v>
-      </c>
-      <c r="S107">
-        <f>S106+S105</f>
-        <v>792</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q108" s="2">
-        <f>Q107+Q103</f>
+      <c r="Q110" s="2">
+        <f>Q109+Q105</f>
         <v>34302</v>
       </c>
-      <c r="S108" s="2">
-        <f>S107+S103</f>
+      <c r="S110" s="2">
+        <f>S109+S105</f>
         <v>47980</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q110">
-        <v>5</v>
-      </c>
-      <c r="S110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q112">
-        <v>352828</v>
+        <v>5</v>
       </c>
       <c r="S112">
-        <v>384197</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q113">
-        <v>51</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q114">
+        <v>352828</v>
+      </c>
+      <c r="S114">
+        <v>384197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q115">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q116">
         <v>-348823</v>
       </c>
-      <c r="S114">
+      <c r="S116">
         <v>-388537</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q115" s="2">
-        <f>Q114+Q113+Q112+Q111+Q110</f>
-        <v>4061</v>
-      </c>
-      <c r="S115" s="2">
-        <f>S114+S113+S112+S111+S110</f>
-        <v>-4334</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q117" s="2">
-        <f>Q115+Q108</f>
+        <f>Q116+Q115+Q114+Q113+Q112</f>
+        <v>4061</v>
+      </c>
+      <c r="S117" s="2">
+        <f>S116+S115+S114+S113+S112</f>
+        <v>-4334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q119" s="2">
+        <f>Q117+Q110</f>
         <v>38363</v>
       </c>
-      <c r="S117" s="2">
-        <f>S115+S108</f>
+      <c r="S119" s="2">
+        <f>S117+S110</f>
         <v>43646</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q118" t="b">
-        <f>Q117=Q97</f>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q120" t="b">
+        <f>Q119=Q99</f>
         <v>1</v>
       </c>
-      <c r="S118" t="b">
-        <f>S117=S97</f>
+      <c r="S120" t="b">
+        <f>S119=S99</f>
         <v>1</v>
       </c>
     </row>
@@ -7103,238 +7179,238 @@
   <sheetData>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F10" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="K10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="O10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="X10" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="33"/>
       <c r="E11" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>405</v>
       </c>
       <c r="G11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1215</v>
       </c>
       <c r="H11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2025</v>
       </c>
       <c r="I11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2835</v>
       </c>
       <c r="J11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>3240</v>
       </c>
       <c r="K11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>20023.2</v>
       </c>
       <c r="L11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30935.844000000005</v>
       </c>
       <c r="M11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>102934.88340000002</v>
       </c>
       <c r="N11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>175579.37436000002</v>
       </c>
       <c r="O11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>252489.89338254</v>
       </c>
       <c r="P11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>284662.06749251363</v>
       </c>
       <c r="Q11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>293201.92951728904</v>
       </c>
       <c r="R11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>269061.96528672968</v>
       </c>
       <c r="S11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>247491.40434086142</v>
       </c>
       <c r="T11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>228237.96855706404</v>
       </c>
       <c r="U11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>211074.74749115511</v>
       </c>
       <c r="V11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>195797.66580553097</v>
       </c>
       <c r="W11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>182223.20408037398</v>
       </c>
       <c r="X11" s="36">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>145682.39413074174</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="28">
         <v>2.8</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <v>154</v>
+      </c>
+      <c r="F12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>364.5</v>
       </c>
-      <c r="G12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="G12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1093.5</v>
       </c>
-      <c r="H12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="H12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>1822.5</v>
       </c>
-      <c r="I12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="I12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2551.5</v>
       </c>
-      <c r="J12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="J12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>2916</v>
       </c>
-      <c r="K12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="K12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>18020.88</v>
       </c>
-      <c r="L12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="L12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>27842.259600000005</v>
       </c>
-      <c r="M12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="M12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>92641.395060000024</v>
       </c>
-      <c r="N12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="N12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>158021.43692400001</v>
       </c>
-      <c r="O12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="O12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>227240.904044286</v>
       </c>
-      <c r="P12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="P12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>256195.86074326228</v>
       </c>
-      <c r="Q12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="Q12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>263881.73656556016</v>
       </c>
-      <c r="R12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="R12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>242155.76875805671</v>
       </c>
-      <c r="S12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="S12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>222742.26390677528</v>
       </c>
-      <c r="T12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="T12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>205414.17170135764</v>
       </c>
-      <c r="U12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="U12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>189967.27274203961</v>
       </c>
-      <c r="V12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="V12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>176217.89922497788</v>
       </c>
-      <c r="W12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="W12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>164000.88367233658</v>
       </c>
-      <c r="X12" s="62">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="X12" s="37">
+        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>131114.15471766758</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="30">
         <v>63.12</v>
@@ -7343,85 +7419,85 @@
         <v>0</v>
       </c>
       <c r="F13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16889.25</v>
       </c>
       <c r="G13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22620.9</v>
       </c>
       <c r="H13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>16654.95</v>
       </c>
       <c r="I13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>22483.237499999999</v>
       </c>
       <c r="J13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>20661.5625</v>
       </c>
       <c r="K13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>79576.369500000001</v>
       </c>
       <c r="L13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>76912.605584999998</v>
       </c>
       <c r="M13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>74421.481502549999</v>
       </c>
       <c r="N13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>72095.548810126493</v>
       </c>
       <c r="O13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69927.766993805286</v>
       </c>
       <c r="P13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67911.484137025705</v>
       </c>
       <c r="Q13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66040.418587872409</v>
       </c>
       <c r="R13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>66629.260056908272</v>
       </c>
       <c r="S13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67235.76677001518</v>
       </c>
       <c r="T13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>67860.468684515319</v>
       </c>
       <c r="U13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>68503.911656450451</v>
       </c>
       <c r="V13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69166.657917543649</v>
       </c>
       <c r="W13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>69849.286566469644</v>
       </c>
       <c r="X13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>70552.394074863405</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="30">
         <f>C12*C13</f>
@@ -7431,346 +7507,346 @@
         <v>1</v>
       </c>
       <c r="F14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7555.5499999999993</v>
       </c>
       <c r="G14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5998.0000000000009</v>
       </c>
       <c r="H14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>5774.25</v>
       </c>
       <c r="I14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>7792.3125000000009</v>
       </c>
       <c r="J14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>8596.4274999999998</v>
       </c>
       <c r="K14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29005.819700000004</v>
       </c>
       <c r="L14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>29875.994291000003</v>
       </c>
       <c r="M14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30772.274119730002</v>
       </c>
       <c r="N14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>31695.442343321905</v>
       </c>
       <c r="O14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>32646.30561362156</v>
       </c>
       <c r="P14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>33625.694782030208</v>
       </c>
       <c r="Q14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>34634.465625491117</v>
       </c>
       <c r="R14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>35673.499594255853</v>
       </c>
       <c r="S14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>36743.704582083526</v>
       </c>
       <c r="T14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>37846.015719546034</v>
       </c>
       <c r="U14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>38981.396191132422</v>
       </c>
       <c r="V14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>40150.838076866392</v>
       </c>
       <c r="W14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>41355.363219172388</v>
       </c>
       <c r="X14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>42596.024115747561</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="E15" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="E15" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="G15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="H15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="I15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="J15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="K15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="L15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="M15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="N15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="O15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="P15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="Q15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="R15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="S15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="T15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="U15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="V15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W15" s="64">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="W15" s="35">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X15" s="65">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="X15" s="36">
+        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="30">
-        <f>Model!S102/1000</f>
+        <f>Model!S104/1000</f>
         <v>25.992000000000001</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="F16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="G16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="H16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="I16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="J16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="K16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="L16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="M16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="N16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="O16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="P16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="Q16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="R16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="S16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="T16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="U16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="V16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="W16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="62">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="X16" s="37">
+        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="30">
-        <f>Model!S89/1000</f>
+        <f>Model!S91/1000</f>
         <v>35.616</v>
       </c>
-      <c r="E17" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="E17" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="G17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="H17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="I17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="J17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="K17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="L17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="M17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="N17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="O17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="P17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="Q17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="R17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="S17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="T17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="U17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="V17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W17" s="64">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="W17" s="35">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X17" s="65">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="X17" s="36">
+        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="30">
         <f>C14-C17+C16</f>
@@ -7779,80 +7855,80 @@
       <c r="E18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="F18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
-      <c r="G18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="G18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
-      <c r="H18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="H18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-20606.7</v>
       </c>
-      <c r="I18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="I18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-27724.05</v>
       </c>
-      <c r="J18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="J18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
-      <c r="K18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="K18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-75745.493419999999</v>
       </c>
-      <c r="L18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="L18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-68737.105022600008</v>
       </c>
-      <c r="M18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="M18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>-6835.3505012779933</v>
       </c>
-      <c r="N18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="N18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>55560.388995883652</v>
       </c>
-      <c r="O18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="O18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>121706.02467832615</v>
       </c>
-      <c r="P18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="P18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>147494.93499632363</v>
       </c>
-      <c r="Q18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="Q18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>151919.78304621333</v>
       </c>
-      <c r="R18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="R18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>126834.95663312949</v>
       </c>
-      <c r="S18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="S18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>103961.82741810023</v>
       </c>
-      <c r="T18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="T18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>83070.322118022348</v>
       </c>
-      <c r="U18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="U18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>63953.107671204256</v>
       </c>
-      <c r="V18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="V18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>46423.309202017466</v>
       </c>
-      <c r="W18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="W18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>30312.455948687362</v>
       </c>
-      <c r="X18" s="62">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$157,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+      <c r="X18" s="37">
+        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
         <v>24163.412538748205</v>
       </c>
     </row>
@@ -7862,7 +7938,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="31">
         <f>C21+C22</f>
@@ -7871,7 +7947,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="31">
         <v>0.04</v>
@@ -7879,7 +7955,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="31">
         <v>0.06</v>
@@ -7887,7 +7963,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="31">
         <v>-0.02</v>
@@ -7903,7 +7979,7 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="30">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
@@ -7913,7 +7989,7 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="30">
         <f>C17</f>
@@ -7928,7 +8004,7 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="30">
         <f>C26+C27-C16</f>
@@ -7939,7 +8015,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="34">
         <f>C28/C13</f>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1A156-EB90-E047-A830-7748B9E1EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB5043-A961-274F-9FC5-CD8D0DBA9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="191">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drug Manufacturing &amp; Formulation </t>
   </si>
   <si>
     <t>Personnel Expenses</t>
@@ -838,7 +835,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -909,6 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1256,42 +1254,42 @@
   <sheetData>
     <row r="5" spans="2:31" ht="31" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="12"/>
       <c r="Q7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13">
         <v>0.9</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S9" s="13">
         <v>0.4</v>
@@ -1299,16 +1297,16 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
@@ -1320,43 +1318,43 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="13"/>
       <c r="Q12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="19"/>
       <c r="Q13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S13" s="19"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="D14" s="13"/>
       <c r="Q14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="S14" s="13"/>
     </row>
@@ -1364,10 +1362,10 @@
       <c r="D15" s="13"/>
       <c r="S15" s="13"/>
       <c r="Y15" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA15" s="63"/>
       <c r="AB15" s="63"/>
@@ -1377,22 +1375,22 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="13"/>
       <c r="Q16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S16" s="13"/>
       <c r="Y16" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="Z16" s="39">
         <f>AA16-0.1</f>
@@ -1417,11 +1415,11 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13"/>
       <c r="Q17" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" s="13"/>
       <c r="Y17" s="13">
@@ -1429,35 +1427,35 @@
       </c>
       <c r="Z17" s="52">
         <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
-        <v>-8.8573614281767785</v>
+        <v>-8.8575006928024216</v>
       </c>
       <c r="AA17" s="52">
-        <v>-8.8573614281767785</v>
+        <v>-8.8575006928024216</v>
       </c>
       <c r="AB17" s="49">
-        <v>-8.8573614281767785</v>
+        <v>-8.8575006928024216</v>
       </c>
       <c r="AC17" s="52">
-        <v>-8.8573614281767785</v>
+        <v>-8.8575006928024216</v>
       </c>
       <c r="AD17" s="48">
-        <v>-8.8573614281767785</v>
+        <v>-8.8575006928024216</v>
       </c>
       <c r="AE17" s="48"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="13"/>
       <c r="Q18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S18" s="13"/>
       <c r="Y18" s="13">
@@ -1465,19 +1463,19 @@
         <v>0.1</v>
       </c>
       <c r="Z18" s="52">
-        <v>-8.2909146556694946</v>
+        <v>-8.2910539202951377</v>
       </c>
       <c r="AA18" s="52">
-        <v>-7.1580211106549312</v>
+        <v>-7.1581603752805743</v>
       </c>
       <c r="AB18" s="49">
-        <v>-6.0251275656403669</v>
+        <v>-6.0252668302660091</v>
       </c>
       <c r="AC18" s="52">
-        <v>-4.8922340206258008</v>
+        <v>-4.892373285251443</v>
       </c>
       <c r="AD18" s="48">
-        <v>-3.7593404756112356</v>
+        <v>-3.7594797402368791</v>
       </c>
       <c r="AE18" s="48"/>
     </row>
@@ -1485,10 +1483,10 @@
       <c r="B19" s="15"/>
       <c r="D19" s="13"/>
       <c r="Q19" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="S19" s="13"/>
       <c r="Y19" s="13">
@@ -1496,60 +1494,60 @@
         <v>0.2</v>
       </c>
       <c r="Z19" s="52">
-        <v>-7.7244678831622151</v>
+        <v>-7.7246071477878573</v>
       </c>
       <c r="AA19" s="52">
-        <v>-5.4586807931330847</v>
+        <v>-5.4588200577587269</v>
       </c>
       <c r="AB19" s="49">
-        <v>-3.1928937031039535</v>
+        <v>-3.1930329677295965</v>
       </c>
       <c r="AC19" s="52">
-        <v>-0.92710661307482378</v>
+        <v>-0.92724587770046618</v>
       </c>
       <c r="AD19" s="48">
-        <v>1.3386804769543053</v>
+        <v>1.3385412123286629</v>
       </c>
       <c r="AE19" s="48"/>
     </row>
     <row r="20" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X20" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y20" s="13">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Z20" s="52">
-        <v>-7.1580211106549312</v>
+        <v>-7.1581603752805743</v>
       </c>
       <c r="AA20" s="52">
-        <v>-3.7593404756112347</v>
+        <v>-3.7594797402368783</v>
       </c>
       <c r="AB20" s="49">
-        <v>-0.36065984056754147</v>
+        <v>-0.36079910519318387</v>
       </c>
       <c r="AC20" s="52">
-        <v>3.0380207944761555</v>
+        <v>3.0378815298505133</v>
       </c>
       <c r="AD20" s="48">
-        <v>6.4367014295198492</v>
+        <v>6.4365621648942062</v>
       </c>
       <c r="AE20" s="48"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="Q21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -1559,34 +1557,34 @@
         <v>0.4</v>
       </c>
       <c r="Z21" s="50">
-        <v>-6.591574338147649</v>
+        <v>-6.5917136027732912</v>
       </c>
       <c r="AA21" s="50">
-        <v>-2.0600001580893883</v>
+        <v>-2.0601394227150305</v>
       </c>
       <c r="AB21" s="51">
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="AC21" s="48">
-        <v>7.0031482020271314</v>
+        <v>7.0030089374014883</v>
       </c>
       <c r="AD21" s="48">
-        <v>11.534722382085388</v>
+        <v>11.534583117459746</v>
       </c>
       <c r="AE21" s="48"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X22" s="62"/>
       <c r="Y22" s="13">
@@ -1594,34 +1592,34 @@
         <v>0.5</v>
       </c>
       <c r="Z22" s="48">
-        <v>-6.0251275656403669</v>
+        <v>-6.0252668302660091</v>
       </c>
       <c r="AA22" s="48">
-        <v>-0.36065984056754191</v>
+        <v>-0.36079910519318442</v>
       </c>
       <c r="AB22" s="48">
-        <v>5.3038078845052805</v>
+        <v>5.3036686198796383</v>
       </c>
       <c r="AC22" s="48">
-        <v>10.968275609578107</v>
+        <v>10.968136344952464</v>
       </c>
       <c r="AD22" s="48">
-        <v>16.632743334650929</v>
+        <v>16.632604070025288</v>
       </c>
       <c r="AE22" s="48"/>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="Q23" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X23" s="62"/>
       <c r="Y23" s="13">
@@ -1629,42 +1627,42 @@
         <v>0.6</v>
       </c>
       <c r="Z23" s="48">
-        <v>-5.4586807931330856</v>
+        <v>-5.4588200577587278</v>
       </c>
       <c r="AA23" s="48">
-        <v>1.3386804769543057</v>
+        <v>1.3385412123286631</v>
       </c>
       <c r="AB23" s="48">
-        <v>8.136041747041693</v>
+        <v>8.1359024824160517</v>
       </c>
       <c r="AC23" s="48">
-        <v>14.933403017129086</v>
+        <v>14.933263752503441</v>
       </c>
       <c r="AD23" s="48">
-        <v>21.73076428721647</v>
+        <v>21.730625022590829</v>
       </c>
       <c r="AE23" s="48"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11">
         <f>2037-2023</f>
         <v>14</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="M24" s="63"/>
       <c r="N24" s="63"/>
       <c r="Q24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S24" s="11">
         <v>4</v>
@@ -1675,35 +1673,35 @@
         <v>0.7</v>
       </c>
       <c r="Z24" s="48">
-        <v>-4.8922340206258035</v>
+        <v>-4.8923732852514457</v>
       </c>
       <c r="AA24" s="48">
-        <v>3.0380207944761528</v>
+        <v>3.0378815298505106</v>
       </c>
       <c r="AB24" s="48">
-        <v>10.968275609578104</v>
+        <v>10.968136344952462</v>
       </c>
       <c r="AC24" s="48">
-        <v>18.898530424680057</v>
+        <v>18.898391160054413</v>
       </c>
       <c r="AD24" s="48">
-        <v>26.828785239782015</v>
+        <v>26.82864597515637</v>
       </c>
       <c r="AE24" s="48"/>
     </row>
     <row r="25" spans="2:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="H25" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="J25" s="39">
         <f>K25-0.1</f>
@@ -1725,10 +1723,10 @@
         <v>0.6</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X25" s="62"/>
       <c r="Y25" s="13">
@@ -1736,19 +1734,19 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="Z25" s="48">
-        <v>-4.3257872481185204</v>
+        <v>-4.3259265127441635</v>
       </c>
       <c r="AA25" s="48">
-        <v>4.7373611119979993</v>
+        <v>4.7372218473723562</v>
       </c>
       <c r="AB25" s="48">
-        <v>13.800509472114513</v>
+        <v>13.800370207488873</v>
       </c>
       <c r="AC25" s="48">
-        <v>22.863657832231041</v>
+        <v>22.863518567605404</v>
       </c>
       <c r="AD25" s="48">
-        <v>31.926806192347552</v>
+        <v>31.926666927721907</v>
       </c>
       <c r="AE25" s="48"/>
     </row>
@@ -1760,44 +1758,44 @@
       </c>
       <c r="J26" s="53">
         <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
-        <v>0.27107854734194714</v>
+        <v>0.27093928271630474</v>
       </c>
       <c r="K26" s="53">
-        <v>0.51011075457351773</v>
+        <v>0.50997148994787533</v>
       </c>
       <c r="L26" s="53">
-        <v>0.74914296180508888</v>
+        <v>0.74900369717944637</v>
       </c>
       <c r="M26" s="54">
-        <v>0.98817516903666036</v>
+        <v>0.98803590441101796</v>
       </c>
       <c r="N26" s="55">
-        <v>1.227207376268231</v>
+        <v>1.2270681116425886</v>
       </c>
       <c r="Y26" s="13">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="Z26" s="48">
-        <v>-3.7593404756112365</v>
+        <v>-3.75947974023688</v>
       </c>
       <c r="AA26" s="48">
-        <v>6.4367014295198457</v>
+        <v>6.4365621648942035</v>
       </c>
       <c r="AB26" s="48">
-        <v>16.632743334650929</v>
+        <v>16.63260407002528</v>
       </c>
       <c r="AC26" s="48">
-        <v>26.828785239782015</v>
+        <v>26.82864597515637</v>
       </c>
       <c r="AD26" s="48">
-        <v>37.02482714491309</v>
+        <v>37.024687880287445</v>
       </c>
       <c r="AE26" s="48"/>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1807,22 +1805,22 @@
         <v>1500</v>
       </c>
       <c r="J27" s="53">
-        <v>0.65422966296069585</v>
+        <v>0.65409039833505345</v>
       </c>
       <c r="K27" s="53">
-        <v>1.0127779738080531</v>
+        <v>1.0126387091824107</v>
       </c>
       <c r="L27" s="53">
-        <v>1.371326284655408</v>
+        <v>1.3711870200297656</v>
       </c>
       <c r="M27" s="54">
-        <v>1.7298745955027646</v>
+        <v>1.7297353308771222</v>
       </c>
       <c r="N27" s="55">
-        <v>2.0884229063501207</v>
+        <v>2.0882836417244786</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -1831,25 +1829,25 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="Z27" s="48">
-        <v>-3.1928937031039561</v>
+        <v>-3.1930329677295983</v>
       </c>
       <c r="AA27" s="48">
-        <v>8.136041747041693</v>
+        <v>8.1359024824160517</v>
       </c>
       <c r="AB27" s="48">
-        <v>19.464977197187334</v>
+        <v>19.464837932561689</v>
       </c>
       <c r="AC27" s="48">
-        <v>30.793912647332988</v>
+        <v>30.79377338270735</v>
       </c>
       <c r="AD27" s="48">
-        <v>42.122848097478631</v>
+        <v>42.122708832852986</v>
       </c>
       <c r="AE27" s="48"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="11">
         <v>3000</v>
@@ -1859,22 +1857,22 @@
         <v>2000</v>
       </c>
       <c r="J28" s="56">
-        <v>1.0373807785794447</v>
+        <v>1.0372415139538023</v>
       </c>
       <c r="K28" s="56">
-        <v>1.5154451930425867</v>
+        <v>1.5153059284169443</v>
       </c>
       <c r="L28" s="56">
-        <v>1.9935096075057281</v>
+        <v>1.9933703428800862</v>
       </c>
       <c r="M28" s="57">
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="N28" s="55">
-        <v>2.9496384364320116</v>
+        <v>2.9494991718063686</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S28" s="11">
         <v>3000</v>
@@ -1882,7 +1880,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="14">
@@ -1890,27 +1888,27 @@
         <v>2500</v>
       </c>
       <c r="J29" s="53">
-        <v>1.4205318941981933</v>
+        <v>1.4203926295725509</v>
       </c>
       <c r="K29" s="53">
-        <v>2.0181124122771203</v>
+        <v>2.0179731476514782</v>
       </c>
       <c r="L29" s="53">
-        <v>2.6156929303560479</v>
+        <v>2.6155536657304044</v>
       </c>
       <c r="M29" s="53">
-        <v>3.2132734484349754</v>
+        <v>3.2131341838093319</v>
       </c>
       <c r="N29" s="55">
-        <v>3.8108539665139021</v>
+        <v>3.8107147018882594</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="14">
         <v>1000</v>
@@ -1921,22 +1919,22 @@
         <v>3000</v>
       </c>
       <c r="J30" s="55">
-        <v>1.8036830098169427</v>
+        <v>1.8035437451913003</v>
       </c>
       <c r="K30" s="55">
-        <v>2.5207796315116555</v>
+        <v>2.5206403668860129</v>
       </c>
       <c r="L30" s="55">
-        <v>3.2378762532063674</v>
+        <v>3.2377369885807239</v>
       </c>
       <c r="M30" s="55">
-        <v>3.9549728749010802</v>
+        <v>3.9548336102754376</v>
       </c>
       <c r="N30" s="55">
-        <v>4.6720694965957916</v>
+        <v>4.6719302319701494</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S30" s="14">
         <v>2000</v>
@@ -1944,13 +1942,13 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="14">
         <v>3000</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S31" s="14">
         <v>5000</v>
@@ -1959,10 +1957,10 @@
     <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D32" s="14"/>
       <c r="I32" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
@@ -1972,11 +1970,11 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H33" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I33" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="J33" s="39">
         <f>K33-0.1</f>
@@ -2000,11 +1998,11 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="62"/>
       <c r="I34" s="44">
@@ -2013,31 +2011,31 @@
       </c>
       <c r="J34" s="55">
         <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46" ca="1"/>
-        <v>0.19169137451590657</v>
+        <v>0.19155210989026403</v>
       </c>
       <c r="K34" s="55">
-        <v>0.46615811761397041</v>
+        <v>0.46601885298832801</v>
       </c>
       <c r="L34" s="55">
-        <v>0.74062486071203515</v>
+        <v>0.74048559608639242</v>
       </c>
       <c r="M34" s="54">
-        <v>1.0150916038100974</v>
+        <v>1.014952339184455</v>
       </c>
       <c r="N34" s="55">
-        <v>1.289558346908162</v>
+        <v>1.2894190822825196</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="13">
         <v>0.3</v>
@@ -2048,22 +2046,22 @@
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="J35" s="55">
-        <v>0.50934132509678565</v>
+        <v>0.50920206047114325</v>
       </c>
       <c r="K35" s="55">
-        <v>0.8680104595754351</v>
+        <v>0.8678711949497927</v>
       </c>
       <c r="L35" s="55">
-        <v>1.2266795940540851</v>
+        <v>1.2265403294284425</v>
       </c>
       <c r="M35" s="54">
-        <v>1.5853487285327361</v>
+        <v>1.5852094639070937</v>
       </c>
       <c r="N35" s="55">
-        <v>1.9440178630113865</v>
+        <v>1.9438785983857441</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S35" s="13">
         <v>0.3</v>
@@ -2071,7 +2069,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="13">
         <v>0.6</v>
@@ -2081,22 +2079,22 @@
         <v>0.03</v>
       </c>
       <c r="J36" s="56">
-        <v>1.0373807785794447</v>
+        <v>1.0372415139538023</v>
       </c>
       <c r="K36" s="56">
-        <v>1.5154451930425867</v>
+        <v>1.5153059284169443</v>
       </c>
       <c r="L36" s="56">
-        <v>1.9935096075057281</v>
+        <v>1.9933703428800862</v>
       </c>
       <c r="M36" s="57">
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="N36" s="55">
-        <v>2.9496384364320116</v>
+        <v>2.9494991718063686</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S36" s="13">
         <v>0.6</v>
@@ -2104,7 +2102,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="13">
         <v>0.9</v>
@@ -2115,22 +2113,22 @@
         <v>0.08</v>
       </c>
       <c r="J37" s="55">
-        <v>1.9220192768634841</v>
+        <v>1.9218800122378412</v>
       </c>
       <c r="K37" s="55">
-        <v>2.5709316280667589</v>
+        <v>2.5707923634411163</v>
       </c>
       <c r="L37" s="55">
-        <v>3.2198439792700344</v>
+        <v>3.2197047146443918</v>
       </c>
       <c r="M37" s="55">
-        <v>3.868756330473309</v>
+        <v>3.8686170658476664</v>
       </c>
       <c r="N37" s="55">
-        <v>4.5176686816765859</v>
+        <v>4.5175294170509437</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S37" s="13">
         <v>0.9</v>
@@ -2138,7 +2136,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -2149,22 +2147,22 @@
         <v>0.13</v>
       </c>
       <c r="J38" s="55">
-        <v>3.4038580827746241</v>
+        <v>3.4037188181489815</v>
       </c>
       <c r="K38" s="55">
-        <v>4.2987012088701393</v>
+        <v>4.2985619442444953</v>
       </c>
       <c r="L38" s="55">
-        <v>5.1935443349656536</v>
+        <v>5.1934050703400114</v>
       </c>
       <c r="M38" s="55">
-        <v>6.0883874610611706</v>
+        <v>6.0882481964355266</v>
       </c>
       <c r="N38" s="55">
-        <v>6.983230587156684</v>
+        <v>6.9830913225310418</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S38" s="13">
         <v>1</v>
@@ -2172,31 +2170,31 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="Q40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="11">
         <v>3000</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S41" s="11">
         <v>4000000</v>
@@ -2204,20 +2202,20 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="14">
         <f>(D31+D30)/2</f>
         <v>2000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S42" s="14">
         <v>500</v>
@@ -2225,20 +2223,20 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="14">
         <f>D42*D41</f>
         <v>6000000</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S43" s="14">
         <f>S42*S41</f>
@@ -2247,14 +2245,14 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13">
         <v>0.5</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13">
@@ -2263,20 +2261,20 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D45" s="14">
         <f>D44*D43</f>
         <v>3000000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S45" s="14">
         <f>S44*S43</f>
@@ -2285,13 +2283,13 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="13">
         <v>0.03</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S46" s="13">
         <v>0.03</v>
@@ -2299,31 +2297,31 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="Q48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="11">
         <v>3000</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S49" s="11">
         <v>4000000</v>
@@ -2331,19 +2329,19 @@
     </row>
     <row r="50" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="14">
         <v>1500</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S50" s="14">
         <f>S42/2</f>
@@ -2352,20 +2350,20 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="14">
         <f>D50*D49</f>
         <v>4500000</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S51" s="14">
         <f>S50*S49</f>
@@ -2374,14 +2372,14 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13">
         <v>0.25</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13">
@@ -2390,20 +2388,20 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="14">
         <f>D52*D51</f>
         <v>1125000</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S53" s="14">
         <f>S52*S51</f>
@@ -2412,13 +2410,13 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="13">
         <v>-0.1</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S54" s="13">
         <v>-0.1</v>
@@ -2450,10 +2448,10 @@
   <dimension ref="A1:AV120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2470,166 +2468,166 @@
   <sheetData>
     <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="AM3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U7" s="4">
         <f>Main!D45*3/1000</f>
@@ -2718,7 +2716,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U8" s="7">
         <v>0.05</v>
@@ -2791,7 +2789,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U9" s="4">
         <f>U8*U7</f>
@@ -2880,7 +2878,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U11" s="3">
         <f>Main!$D$9</f>
@@ -2969,7 +2967,7 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U12" s="4">
         <f>U11*U9</f>
@@ -3065,27 +3063,27 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG21" s="9">
         <f>Main!$S$45/1000</f>
@@ -3154,7 +3152,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -3203,7 +3201,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3260,7 +3258,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AK25" s="3">
@@ -3314,7 +3312,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK26" s="9">
         <f>AK25*AK23</f>
@@ -3367,22 +3365,22 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R34" s="1">
         <v>10660</v>
@@ -3397,7 +3395,7 @@
     </row>
     <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R36" s="23"/>
     </row>
@@ -3406,7 +3404,7 @@
     </row>
     <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ref="J38:T38" si="6">J34</f>
@@ -3542,7 +3540,7 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R40" s="1"/>
       <c r="U40" s="9">
@@ -3632,7 +3630,7 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R41" s="1"/>
       <c r="U41" s="3">
@@ -3703,7 +3701,7 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J42">
         <f t="shared" ref="J42:S42" si="23">J38-J40</f>
@@ -3839,7 +3837,7 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.2">
@@ -3847,7 +3845,7 @@
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J46" s="1">
         <v>6454</v>
@@ -3878,8 +3876,9 @@
       <c r="R46" s="1">
         <v>11816</v>
       </c>
-      <c r="S46" s="1">
-        <v>8744</v>
+      <c r="S46" s="64">
+        <f>S47+S48</f>
+        <v>9310</v>
       </c>
       <c r="T46" s="9">
         <f>P46*1.5</f>
@@ -3895,7 +3894,7 @@
       </c>
       <c r="W46" s="9">
         <f t="shared" si="28"/>
-        <v>13116</v>
+        <v>13965</v>
       </c>
       <c r="X46" s="9">
         <f>T46*1.25</f>
@@ -3920,72 +3919,72 @@
       </c>
       <c r="AG46" s="9">
         <f>SUM(R46:U46)</f>
-        <v>49057</v>
+        <v>49623</v>
       </c>
       <c r="AH46" s="9">
         <f>SUM(V46:Y46)</f>
-        <v>66461.25</v>
+        <v>67310.25</v>
       </c>
       <c r="AI46" s="9">
         <f>AH46*0.95</f>
-        <v>63138.1875</v>
+        <v>63944.737499999996</v>
       </c>
       <c r="AJ46" s="9">
         <f t="shared" ref="AJ46:AO46" si="29">AI46*0.95</f>
-        <v>59981.278124999997</v>
+        <v>60747.500624999993</v>
       </c>
       <c r="AK46" s="9">
         <f t="shared" si="29"/>
-        <v>56982.214218749992</v>
+        <v>57710.125593749988</v>
       </c>
       <c r="AL46" s="9">
         <f t="shared" si="29"/>
-        <v>54133.103507812491</v>
+        <v>54824.619314062489</v>
       </c>
       <c r="AM46" s="9">
         <f t="shared" si="29"/>
-        <v>51426.448332421867</v>
+        <v>52083.38834835936</v>
       </c>
       <c r="AN46" s="9">
         <f t="shared" si="29"/>
-        <v>48855.125915800774</v>
+        <v>49479.218930941388</v>
       </c>
       <c r="AO46" s="9">
         <f t="shared" si="29"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AP46" s="9">
         <f>AO46</f>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AQ46" s="9">
         <f t="shared" ref="AQ46:AV46" si="30">AP46</f>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AR46" s="9">
         <f t="shared" si="30"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AS46" s="9">
         <f t="shared" si="30"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AT46" s="9">
         <f t="shared" si="30"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AU46" s="9">
         <f t="shared" si="30"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
       <c r="AV46" s="9">
         <f t="shared" si="30"/>
-        <v>46412.369620010737</v>
+        <v>47005.257984394317</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3994,7 +3993,9 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="S47" s="1">
+        <v>3509</v>
+      </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4034,7 +4035,9 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="1">
+        <v>5801</v>
+      </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
         <v>5820</v>
@@ -4096,9 +4099,7 @@
       <c r="R49" s="1">
         <v>1271</v>
       </c>
-      <c r="S49" s="1">
-        <v>540</v>
-      </c>
+      <c r="S49" s="1"/>
       <c r="T49">
         <f>P49*1.5</f>
         <v>354</v>
@@ -4113,7 +4114,7 @@
       </c>
       <c r="W49">
         <f t="shared" si="31"/>
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <f t="shared" si="31"/>
@@ -4138,72 +4139,72 @@
       </c>
       <c r="AG49" s="9">
         <f t="shared" ref="AG49:AG52" si="32">SUM(R49:U49)</f>
-        <v>2696</v>
+        <v>2156</v>
       </c>
       <c r="AH49" s="9">
         <f t="shared" ref="AH49:AH52" si="33">SUM(V49:Y49)</f>
-        <v>4044</v>
+        <v>3234</v>
       </c>
       <c r="AI49" s="9">
         <f t="shared" ref="AI49:AU52" si="34">AH49*1.03</f>
-        <v>4165.32</v>
+        <v>3331.02</v>
       </c>
       <c r="AJ49" s="9">
         <f t="shared" si="34"/>
-        <v>4290.2795999999998</v>
+        <v>3430.9506000000001</v>
       </c>
       <c r="AK49" s="9">
         <f t="shared" si="34"/>
-        <v>4418.9879879999999</v>
+        <v>3533.8791180000003</v>
       </c>
       <c r="AL49" s="9">
         <f t="shared" si="34"/>
-        <v>4551.5576276399997</v>
+        <v>3639.8954915400004</v>
       </c>
       <c r="AM49" s="9">
         <f t="shared" si="34"/>
-        <v>4688.1043564692</v>
+        <v>3749.0923562862004</v>
       </c>
       <c r="AN49" s="9">
         <f t="shared" si="34"/>
-        <v>4828.7474871632758</v>
+        <v>3861.5651269747864</v>
       </c>
       <c r="AO49" s="9">
         <f t="shared" si="34"/>
-        <v>4973.6099117781741</v>
+        <v>3977.41208078403</v>
       </c>
       <c r="AP49" s="9">
         <f t="shared" si="34"/>
-        <v>5122.8182091315193</v>
+        <v>4096.7344432075506</v>
       </c>
       <c r="AQ49" s="9">
         <f t="shared" si="34"/>
-        <v>5276.502755405465</v>
+        <v>4219.636476503777</v>
       </c>
       <c r="AR49" s="9">
         <f t="shared" si="34"/>
-        <v>5434.7978380676295</v>
+        <v>4346.2255707988907</v>
       </c>
       <c r="AS49" s="9">
         <f t="shared" si="34"/>
-        <v>5597.8417732096586</v>
+        <v>4476.6123379228575</v>
       </c>
       <c r="AT49" s="9">
         <f t="shared" si="34"/>
-        <v>5765.7770264059482</v>
+        <v>4610.9107080605436</v>
       </c>
       <c r="AU49" s="9">
         <f t="shared" si="34"/>
-        <v>5938.7503371981265</v>
+        <v>4749.2380293023598</v>
       </c>
       <c r="AV49" s="9">
         <f t="shared" ref="AV49" si="35">AU49*1.03</f>
-        <v>6116.9128473140709</v>
+        <v>4891.7151701814309</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J50" s="1">
         <v>1092</v>
@@ -4341,7 +4342,7 @@
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" s="1">
         <v>799</v>
@@ -4479,7 +4480,7 @@
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" s="1">
         <v>283</v>
@@ -4511,7 +4512,7 @@
         <v>286</v>
       </c>
       <c r="S52" s="1">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="T52" s="9">
         <f>P52*1.05</f>
@@ -4527,7 +4528,7 @@
       </c>
       <c r="W52" s="9">
         <f t="shared" si="45"/>
-        <v>460.95000000000005</v>
+        <v>433.65000000000003</v>
       </c>
       <c r="X52" s="9">
         <f t="shared" si="46"/>
@@ -4552,67 +4553,67 @@
       </c>
       <c r="AG52" s="9">
         <f t="shared" si="32"/>
-        <v>1262.5999999999999</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="AH52" s="9">
         <f t="shared" si="33"/>
-        <v>1325.73</v>
+        <v>1298.43</v>
       </c>
       <c r="AI52" s="9">
         <f t="shared" si="34"/>
-        <v>1365.5019</v>
+        <v>1337.3829000000001</v>
       </c>
       <c r="AJ52" s="9">
         <f t="shared" si="34"/>
-        <v>1406.4669570000001</v>
+        <v>1377.5043870000002</v>
       </c>
       <c r="AK52" s="9">
         <f t="shared" si="34"/>
-        <v>1448.66096571</v>
+        <v>1418.8295186100002</v>
       </c>
       <c r="AL52" s="9">
         <f t="shared" si="34"/>
-        <v>1492.1207946813001</v>
+        <v>1461.3944041683003</v>
       </c>
       <c r="AM52" s="9">
         <f t="shared" si="34"/>
-        <v>1536.8844185217392</v>
+        <v>1505.2362362933493</v>
       </c>
       <c r="AN52" s="9">
         <f t="shared" si="34"/>
-        <v>1582.9909510773914</v>
+        <v>1550.3933233821499</v>
       </c>
       <c r="AO52" s="9">
         <f t="shared" si="34"/>
-        <v>1630.4806796097132</v>
+        <v>1596.9051230836144</v>
       </c>
       <c r="AP52" s="9">
         <f t="shared" si="34"/>
-        <v>1679.3950999980048</v>
+        <v>1644.8122767761229</v>
       </c>
       <c r="AQ52" s="9">
         <f t="shared" si="34"/>
-        <v>1729.776952997945</v>
+        <v>1694.1566450794066</v>
       </c>
       <c r="AR52" s="9">
         <f t="shared" si="34"/>
-        <v>1781.6702615878835</v>
+        <v>1744.9813444317888</v>
       </c>
       <c r="AS52" s="9">
         <f t="shared" si="34"/>
-        <v>1835.1203694355199</v>
+        <v>1797.3307847647425</v>
       </c>
       <c r="AT52" s="9">
         <f t="shared" si="34"/>
-        <v>1890.1739805185855</v>
+        <v>1851.2507083076848</v>
       </c>
       <c r="AU52" s="9">
         <f t="shared" si="34"/>
-        <v>1946.8791999341431</v>
+        <v>1906.7882295569154</v>
       </c>
       <c r="AV52" s="9">
         <f t="shared" ref="AV52" si="49">AU52*1.03</f>
-        <v>2005.2855759321674</v>
+        <v>1963.9918764436229</v>
       </c>
     </row>
     <row r="53" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4656,7 +4657,7 @@
         <v>15935</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="51"/>
+        <f>S52+S51+S50+S47+S48</f>
         <v>11883</v>
       </c>
       <c r="T53" s="24">
@@ -4673,7 +4674,7 @@
       </c>
       <c r="W53" s="24">
         <f t="shared" ref="W53" si="55">W52+W51+W50+W49+W46</f>
-        <v>16654.95</v>
+        <v>16666.650000000001</v>
       </c>
       <c r="X53" s="24">
         <f t="shared" ref="X53" si="56">X52+X51+X50+X49+X46</f>
@@ -4705,68 +4706,68 @@
       </c>
       <c r="AH53" s="24">
         <f t="shared" ref="AH53" si="60">AH52+AH51+AH50+AH49+AH46</f>
-        <v>82420.649999999994</v>
+        <v>82432.350000000006</v>
       </c>
       <c r="AI53" s="24">
         <f t="shared" ref="AI53" si="61">AI52+AI51+AI50+AI49+AI46</f>
-        <v>79576.369500000001</v>
+        <v>79520.500499999995</v>
       </c>
       <c r="AJ53" s="24">
         <f t="shared" ref="AJ53" si="62">AJ52+AJ51+AJ50+AJ49+AJ46</f>
-        <v>76912.605584999998</v>
+        <v>76790.536515</v>
       </c>
       <c r="AK53" s="24">
         <f t="shared" ref="AK53" si="63">AK52+AK51+AK50+AK49+AK46</f>
-        <v>74421.481502549999</v>
+        <v>74234.452560449994</v>
       </c>
       <c r="AL53" s="24">
         <f t="shared" ref="AL53" si="64">AL52+AL51+AL50+AL49+AL46</f>
-        <v>72095.548810126493</v>
+        <v>71844.676089763496</v>
       </c>
       <c r="AM53" s="24">
         <f t="shared" ref="AM53" si="65">AM52+AM51+AM50+AM49+AM46</f>
-        <v>69927.766993805286</v>
+        <v>69614.046827331389</v>
       </c>
       <c r="AN53" s="24">
         <f t="shared" ref="AN53" si="66">AN52+AN51+AN50+AN49+AN46</f>
-        <v>67911.484137025705</v>
+        <v>67535.797164282587</v>
       </c>
       <c r="AO53" s="24">
         <f t="shared" ref="AO53" si="67">AO52+AO51+AO50+AO49+AO46</f>
-        <v>66040.418587872409</v>
+        <v>65603.533564735757</v>
       </c>
       <c r="AP53" s="24">
         <f t="shared" ref="AP53" si="68">AP52+AP51+AP50+AP49+AP46</f>
-        <v>66629.260056908272</v>
+        <v>66161.48183214599</v>
       </c>
       <c r="AQ53" s="24">
         <f t="shared" ref="AQ53" si="69">AQ52+AQ51+AQ50+AQ49+AQ46</f>
-        <v>67235.76677001518</v>
+        <v>66736.168547578534</v>
       </c>
       <c r="AR53" s="24">
         <f t="shared" ref="AR53" si="70">AR52+AR51+AR50+AR49+AR46</f>
-        <v>67860.468684515319</v>
+        <v>67328.095864474075</v>
       </c>
       <c r="AS53" s="24">
         <f t="shared" ref="AS53" si="71">AS52+AS51+AS50+AS49+AS46</f>
-        <v>68503.911656450451</v>
+        <v>67937.781000876465</v>
       </c>
       <c r="AT53" s="24">
         <f t="shared" ref="AT53" si="72">AT52+AT51+AT50+AT49+AT46</f>
-        <v>69166.657917543649</v>
+        <v>68565.756691370931</v>
       </c>
       <c r="AU53" s="24">
         <f t="shared" ref="AU53" si="73">AU52+AU51+AU50+AU49+AU46</f>
-        <v>69849.286566469644</v>
+        <v>69212.571652580227</v>
       </c>
       <c r="AV53" s="24">
         <f t="shared" ref="AV53" si="74">AV52+AV51+AV50+AV49+AV46</f>
-        <v>70552.394074863405</v>
+        <v>69878.791062625794</v>
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1">
         <v>1771</v>
@@ -4904,7 +4905,7 @@
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" s="1">
         <v>1932</v>
@@ -5040,7 +5041,7 @@
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J57" s="1">
         <v>1544</v>
@@ -5178,7 +5179,7 @@
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1">
         <v>2182</v>
@@ -5316,7 +5317,7 @@
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" s="1">
         <v>1010</v>
@@ -5454,7 +5455,7 @@
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" s="1">
         <v>1312</v>
@@ -5741,7 +5742,7 @@
     </row>
     <row r="63" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" ref="J63:Y63" si="91">J53+J61</f>
@@ -5797,7 +5798,7 @@
       </c>
       <c r="W63" s="24">
         <f t="shared" si="91"/>
-        <v>22429.200000000001</v>
+        <v>22440.9</v>
       </c>
       <c r="X63" s="24">
         <f t="shared" si="91"/>
@@ -5891,7 +5892,7 @@
     <row r="64" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <f t="shared" ref="J65:S65" si="93">J42-J63</f>
@@ -5947,7 +5948,7 @@
       </c>
       <c r="W65" s="9">
         <f t="shared" si="94"/>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="X65" s="9">
         <f t="shared" si="94"/>
@@ -6103,7 +6104,7 @@
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O68" s="1">
         <v>-4357</v>
@@ -6353,7 +6354,7 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J72">
         <f>J65+J70</f>
@@ -6409,7 +6410,7 @@
       </c>
       <c r="W72">
         <f t="shared" si="117"/>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="X72">
         <f t="shared" si="117"/>
@@ -6505,7 +6506,7 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.2">
@@ -6515,7 +6516,7 @@
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J76" s="1">
         <v>-24179</v>
@@ -6627,7 +6628,7 @@
       </c>
       <c r="W77" s="24">
         <f t="shared" si="121"/>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="X77" s="24">
         <f t="shared" si="121"/>
@@ -6720,7 +6721,7 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J78" t="b">
         <f>J77=J76</f>
@@ -6809,7 +6810,7 @@
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J80" s="1">
         <v>24135735</v>
@@ -6858,22 +6859,22 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q91">
         <v>16657</v>
@@ -6884,7 +6885,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q92">
         <v>13923</v>
@@ -6892,7 +6893,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q93">
         <v>6728</v>
@@ -6903,7 +6904,7 @@
     </row>
     <row r="94" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q94" s="2">
         <f>Q93+Q91+Q92</f>
@@ -6916,7 +6917,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q96">
         <v>857</v>
@@ -6927,7 +6928,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q97">
         <v>198</v>
@@ -6938,7 +6939,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q98">
         <f>Q97+Q96</f>
@@ -6951,7 +6952,7 @@
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q99" s="2">
         <f>Q97+Q96+Q94</f>
@@ -6964,7 +6965,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q101">
         <v>477</v>
@@ -6975,7 +6976,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q102">
         <v>4534</v>
@@ -6986,7 +6987,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q103">
         <v>14756</v>
@@ -6997,7 +6998,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q104">
         <v>13657</v>
@@ -7008,7 +7009,7 @@
     </row>
     <row r="105" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q105" s="2">
         <f>Q101+Q102+Q103+Q104</f>
@@ -7021,7 +7022,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q107">
         <v>414</v>
@@ -7032,7 +7033,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q108">
         <v>464</v>
@@ -7043,7 +7044,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q109">
         <f>Q108+Q107</f>
@@ -7056,7 +7057,7 @@
     </row>
     <row r="110" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q110" s="2">
         <f>Q109+Q105</f>
@@ -7069,7 +7070,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -7080,12 +7081,12 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q114">
         <v>352828</v>
@@ -7096,7 +7097,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q115">
         <v>51</v>
@@ -7104,7 +7105,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q116">
         <v>-348823</v>
@@ -7115,7 +7116,7 @@
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q117" s="2">
         <f>Q116+Q115+Q114+Q113+Q112</f>
@@ -7128,7 +7129,7 @@
     </row>
     <row r="119" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q119" s="2">
         <f>Q117+Q110</f>
@@ -7141,7 +7142,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q120" t="b">
         <f>Q119=Q99</f>
@@ -7179,70 +7180,70 @@
   <sheetData>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="K10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="O10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="X10" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="33"/>
       <c r="E11" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="35">
         <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7323,13 +7324,13 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="28">
         <v>2.8</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="37">
         <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7410,7 +7411,7 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="30">
         <v>63.12</v>
@@ -7428,7 +7429,7 @@
       </c>
       <c r="H13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>16654.95</v>
+        <v>16666.650000000001</v>
       </c>
       <c r="I13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7440,64 +7441,64 @@
       </c>
       <c r="K13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>79576.369500000001</v>
+        <v>79520.500499999995</v>
       </c>
       <c r="L13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>76912.605584999998</v>
+        <v>76790.536515</v>
       </c>
       <c r="M13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>74421.481502549999</v>
+        <v>74234.452560449994</v>
       </c>
       <c r="N13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>72095.548810126493</v>
+        <v>71844.676089763496</v>
       </c>
       <c r="O13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69927.766993805286</v>
+        <v>69614.046827331389</v>
       </c>
       <c r="P13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67911.484137025705</v>
+        <v>67535.797164282587</v>
       </c>
       <c r="Q13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>66040.418587872409</v>
+        <v>65603.533564735757</v>
       </c>
       <c r="R13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>66629.260056908272</v>
+        <v>66161.48183214599</v>
       </c>
       <c r="S13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67235.76677001518</v>
+        <v>66736.168547578534</v>
       </c>
       <c r="T13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67860.468684515319</v>
+        <v>67328.095864474075</v>
       </c>
       <c r="U13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>68503.911656450451</v>
+        <v>67937.781000876465</v>
       </c>
       <c r="V13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69166.657917543649</v>
+        <v>68565.756691370931</v>
       </c>
       <c r="W13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69849.286566469644</v>
+        <v>69212.571652580227</v>
       </c>
       <c r="X13" s="37">
         <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>70552.394074863405</v>
+        <v>69878.791062625794</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="30">
         <f>C12*C13</f>
@@ -7585,11 +7586,11 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="29"/>
       <c r="E15" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="35">
         <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7601,7 +7602,7 @@
       </c>
       <c r="H15" s="35">
         <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="I15" s="35">
         <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7670,7 +7671,7 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="30">
         <f>Model!S104/1000</f>
@@ -7758,14 +7759,14 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="30">
         <f>Model!S91/1000</f>
         <v>35.616</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="35">
         <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7777,7 +7778,7 @@
       </c>
       <c r="H17" s="35">
         <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="I17" s="35">
         <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7846,7 +7847,7 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="30">
         <f>C14-C17+C16</f>
@@ -7865,7 +7866,7 @@
       </c>
       <c r="H18" s="37">
         <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20606.7</v>
+        <v>-20618.400000000001</v>
       </c>
       <c r="I18" s="37">
         <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
@@ -7938,7 +7939,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="31">
         <f>C21+C22</f>
@@ -7947,7 +7948,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="31">
         <v>0.04</v>
@@ -7955,7 +7956,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="31">
         <v>0.06</v>
@@ -7963,7 +7964,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="31">
         <v>-0.02</v>
@@ -7979,17 +7980,17 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="30">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
-        <v>146.38175226667505</v>
+        <v>146.3729618835045</v>
       </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="30">
         <f>C17</f>
@@ -8004,22 +8005,22 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="30">
         <f>C26+C27-C16</f>
-        <v>156.00575226667505</v>
+        <v>155.9969618835045</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="34">
         <f>C28/C13</f>
-        <v>2.4715740219688698</v>
+        <v>2.4714347573432272</v>
       </c>
       <c r="F29" s="13"/>
     </row>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB5043-A961-274F-9FC5-CD8D0DBA9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C12BE3-CC99-CE46-9FA0-92A37F04198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
@@ -835,7 +835,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,7 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2448,10 +2447,10 @@
   <dimension ref="A1:AV120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
+      <selection pane="bottomRight" activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3876,7 +3875,7 @@
       <c r="R46" s="1">
         <v>11816</v>
       </c>
-      <c r="S46" s="64">
+      <c r="S46">
         <f>S47+S48</f>
         <v>9310</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>15396</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" ref="P53:S53" si="51">P52+P51+P50+P49+P46</f>
+        <f t="shared" ref="P53:R53" si="51">P52+P51+P50+P49+P46</f>
         <v>13116</v>
       </c>
       <c r="Q53" s="2">

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C12BE3-CC99-CE46-9FA0-92A37F04198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C141C1-1E5F-8747-B202-FE29ECAF013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1230,12 +1230,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:AE54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AD78" sqref="AD78"/>
+      <selection pane="bottomRight" activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="52">
-        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
         <v>-8.8575006928024216</v>
       </c>
       <c r="AA17" s="52">
@@ -1756,7 +1756,7 @@
         <v>1000</v>
       </c>
       <c r="J26" s="53">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
         <v>0.27093928271630474</v>
       </c>
       <c r="K26" s="53">
@@ -2446,11 +2446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
   <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="AA46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T49" sqref="T49"/>
+      <selection pane="bottomRight" activeCell="AR84" sqref="AR84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7162,7 +7162,7 @@
   <dimension ref="B10:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/APLT Model.xlsx
+++ b/APLT Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C141C1-1E5F-8747-B202-FE29ECAF013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72224821-8E01-6F4E-AA1D-75913D647A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="31580" windowHeight="21100" activeTab="1" xr2:uid="{704F00E0-DE4F-E045-A0AE-86EE075BA335}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="191">
   <si>
     <t>Research &amp; Development</t>
   </si>
@@ -835,7 +835,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -906,6 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1230,12 +1231,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E58847-F4E3-2A4A-A975-92A199F8925A}">
   <dimension ref="B5:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A5" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AB28" sqref="AB28"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1390,7 @@
       <c r="S16" s="13"/>
       <c r="Y16" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="Z16" s="39">
         <f>AA16-0.1</f>
@@ -1425,20 +1426,20 @@
         <v>0</v>
       </c>
       <c r="Z17" s="52">
-        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9"/>
-        <v>-8.8575006928024216</v>
+        <f t="dataTable" ref="Z17:AD27" dt2D="1" dtr="1" r1="S44" r2="S9" ca="1"/>
+        <v>-7.5741705898938996</v>
       </c>
       <c r="AA17" s="52">
-        <v>-8.8575006928024216</v>
+        <v>-7.5741705898938996</v>
       </c>
       <c r="AB17" s="49">
-        <v>-8.8575006928024216</v>
+        <v>-7.5741705898938996</v>
       </c>
       <c r="AC17" s="52">
-        <v>-8.8575006928024216</v>
+        <v>-7.5741705898938996</v>
       </c>
       <c r="AD17" s="48">
-        <v>-8.8575006928024216</v>
+        <v>-7.5741705898938996</v>
       </c>
       <c r="AE17" s="48"/>
     </row>
@@ -1462,19 +1463,19 @@
         <v>0.1</v>
       </c>
       <c r="Z18" s="52">
-        <v>-8.2910539202951377</v>
+        <v>-7.0077238173866192</v>
       </c>
       <c r="AA18" s="52">
-        <v>-7.1581603752805743</v>
+        <v>-5.8748302723720514</v>
       </c>
       <c r="AB18" s="49">
-        <v>-6.0252668302660091</v>
+        <v>-4.7419367273574888</v>
       </c>
       <c r="AC18" s="52">
-        <v>-4.892373285251443</v>
+        <v>-3.6090431823429214</v>
       </c>
       <c r="AD18" s="48">
-        <v>-3.7594797402368791</v>
+        <v>-2.4761496373283567</v>
       </c>
       <c r="AE18" s="48"/>
     </row>
@@ -1493,19 +1494,19 @@
         <v>0.2</v>
       </c>
       <c r="Z19" s="52">
-        <v>-7.7246071477878573</v>
+        <v>-6.4412770448793362</v>
       </c>
       <c r="AA19" s="52">
-        <v>-5.4588200577587269</v>
+        <v>-4.1754899548502058</v>
       </c>
       <c r="AB19" s="49">
-        <v>-3.1930329677295965</v>
+        <v>-1.9097028648210752</v>
       </c>
       <c r="AC19" s="52">
-        <v>-0.92724587770046618</v>
+        <v>0.35608422520805622</v>
       </c>
       <c r="AD19" s="48">
-        <v>1.3385412123286629</v>
+        <v>2.6218713152371849</v>
       </c>
       <c r="AE19" s="48"/>
     </row>
@@ -1518,19 +1519,19 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Z20" s="52">
-        <v>-7.1581603752805743</v>
+        <v>-5.8748302723720514</v>
       </c>
       <c r="AA20" s="52">
-        <v>-3.7594797402368783</v>
+        <v>-2.4761496373283558</v>
       </c>
       <c r="AB20" s="49">
-        <v>-0.36079910519318387</v>
+        <v>0.92253099771533698</v>
       </c>
       <c r="AC20" s="52">
-        <v>3.0378815298505133</v>
+        <v>4.3212116327590344</v>
       </c>
       <c r="AD20" s="48">
-        <v>6.4365621648942062</v>
+        <v>7.7198922678027282</v>
       </c>
       <c r="AE20" s="48"/>
     </row>
@@ -1556,19 +1557,19 @@
         <v>0.4</v>
       </c>
       <c r="Z21" s="50">
-        <v>-6.5917136027732912</v>
+        <v>-5.308383499864771</v>
       </c>
       <c r="AA21" s="50">
-        <v>-2.0601394227150305</v>
+        <v>-0.7768093198065098</v>
       </c>
       <c r="AB21" s="51">
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="AC21" s="48">
-        <v>7.0030089374014883</v>
+        <v>8.2863390403100112</v>
       </c>
       <c r="AD21" s="48">
-        <v>11.534583117459746</v>
+        <v>12.817913220368268</v>
       </c>
       <c r="AE21" s="48"/>
     </row>
@@ -1591,19 +1592,19 @@
         <v>0.5</v>
       </c>
       <c r="Z22" s="48">
-        <v>-6.0252668302660091</v>
+        <v>-4.7419367273574888</v>
       </c>
       <c r="AA22" s="48">
-        <v>-0.36079910519318442</v>
+        <v>0.92253099771533675</v>
       </c>
       <c r="AB22" s="48">
-        <v>5.3036686198796383</v>
+        <v>6.5869987227881586</v>
       </c>
       <c r="AC22" s="48">
-        <v>10.968136344952464</v>
+        <v>12.251466447860986</v>
       </c>
       <c r="AD22" s="48">
-        <v>16.632604070025288</v>
+        <v>17.915934172933813</v>
       </c>
       <c r="AE22" s="48"/>
     </row>
@@ -1626,19 +1627,19 @@
         <v>0.6</v>
       </c>
       <c r="Z23" s="48">
-        <v>-5.4588200577587278</v>
+        <v>-4.1754899548502058</v>
       </c>
       <c r="AA23" s="48">
-        <v>1.3385412123286631</v>
+        <v>2.6218713152371858</v>
       </c>
       <c r="AB23" s="48">
-        <v>8.1359024824160517</v>
+        <v>9.4192325853245737</v>
       </c>
       <c r="AC23" s="48">
-        <v>14.933263752503441</v>
+        <v>16.216593855411961</v>
       </c>
       <c r="AD23" s="48">
-        <v>21.730625022590829</v>
+        <v>23.013955125499344</v>
       </c>
       <c r="AE23" s="48"/>
     </row>
@@ -1672,19 +1673,19 @@
         <v>0.7</v>
       </c>
       <c r="Z24" s="48">
-        <v>-4.8923732852514457</v>
+        <v>-3.6090431823429232</v>
       </c>
       <c r="AA24" s="48">
-        <v>3.0378815298505106</v>
+        <v>4.3212116327590318</v>
       </c>
       <c r="AB24" s="48">
-        <v>10.968136344952462</v>
+        <v>12.251466447860981</v>
       </c>
       <c r="AC24" s="48">
-        <v>18.898391160054413</v>
+        <v>20.181721262962942</v>
       </c>
       <c r="AD24" s="48">
-        <v>26.82864597515637</v>
+        <v>28.111976078064892</v>
       </c>
       <c r="AE24" s="48"/>
     </row>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="I25" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="J25" s="39">
         <f>K25-0.1</f>
@@ -1733,19 +1734,19 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="Z25" s="48">
-        <v>-4.3259265127441635</v>
+        <v>-3.0425964098356411</v>
       </c>
       <c r="AA25" s="48">
-        <v>4.7372218473723562</v>
+        <v>6.0205519502808791</v>
       </c>
       <c r="AB25" s="48">
-        <v>13.800370207488873</v>
+        <v>15.083700310397397</v>
       </c>
       <c r="AC25" s="48">
-        <v>22.863518567605404</v>
+        <v>24.146848670513915</v>
       </c>
       <c r="AD25" s="48">
-        <v>31.926666927721907</v>
+        <v>33.209997030630426</v>
       </c>
       <c r="AE25" s="48"/>
     </row>
@@ -1756,39 +1757,39 @@
         <v>1000</v>
       </c>
       <c r="J26" s="53">
-        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42" ca="1"/>
-        <v>0.27093928271630474</v>
+        <f t="dataTable" ref="J26:N30" dt2D="1" dtr="1" r1="D44" r2="D42"/>
+        <v>1.554269385624826</v>
       </c>
       <c r="K26" s="53">
-        <v>0.50997148994787533</v>
+        <v>1.7933015928563976</v>
       </c>
       <c r="L26" s="53">
-        <v>0.74900369717944637</v>
+        <v>2.0323338000879678</v>
       </c>
       <c r="M26" s="54">
-        <v>0.98803590441101796</v>
+        <v>2.2713660073195383</v>
       </c>
       <c r="N26" s="55">
-        <v>1.2270681116425886</v>
+        <v>2.5103982145511088</v>
       </c>
       <c r="Y26" s="13">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="Z26" s="48">
-        <v>-3.75947974023688</v>
+        <v>-2.4761496373283594</v>
       </c>
       <c r="AA26" s="48">
-        <v>6.4365621648942035</v>
+        <v>7.7198922678027246</v>
       </c>
       <c r="AB26" s="48">
-        <v>16.63260407002528</v>
+        <v>17.91593417293381</v>
       </c>
       <c r="AC26" s="48">
-        <v>26.82864597515637</v>
+        <v>28.111976078064895</v>
       </c>
       <c r="AD26" s="48">
-        <v>37.024687880287445</v>
+        <v>38.308017983195974</v>
       </c>
       <c r="AE26" s="48"/>
     </row>
@@ -1804,19 +1805,19 @@
         <v>1500</v>
       </c>
       <c r="J27" s="53">
-        <v>0.65409039833505345</v>
+        <v>1.9374205012435759</v>
       </c>
       <c r="K27" s="53">
-        <v>1.0126387091824107</v>
+        <v>2.295968812090933</v>
       </c>
       <c r="L27" s="53">
-        <v>1.3711870200297656</v>
+        <v>2.6545171229382869</v>
       </c>
       <c r="M27" s="54">
-        <v>1.7297353308771222</v>
+        <v>3.0130654337856422</v>
       </c>
       <c r="N27" s="55">
-        <v>2.0882836417244786</v>
+        <v>3.3716137446329997</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>74</v>
@@ -1828,19 +1829,19 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="Z27" s="48">
-        <v>-3.1930329677295983</v>
+        <v>-1.909702864821077</v>
       </c>
       <c r="AA27" s="48">
-        <v>8.1359024824160517</v>
+        <v>9.4192325853245737</v>
       </c>
       <c r="AB27" s="48">
-        <v>19.464837932561689</v>
+        <v>20.748168035470215</v>
       </c>
       <c r="AC27" s="48">
-        <v>30.79377338270735</v>
+        <v>32.077103485615865</v>
       </c>
       <c r="AD27" s="48">
-        <v>42.122708832852986</v>
+        <v>43.406038935761508</v>
       </c>
       <c r="AE27" s="48"/>
     </row>
@@ -1856,19 +1857,19 @@
         <v>2000</v>
       </c>
       <c r="J28" s="56">
-        <v>1.0372415139538023</v>
+        <v>2.320571616862324</v>
       </c>
       <c r="K28" s="56">
-        <v>1.5153059284169443</v>
+        <v>2.7986360313254659</v>
       </c>
       <c r="L28" s="56">
-        <v>1.9933703428800862</v>
+        <v>3.2767004457886082</v>
       </c>
       <c r="M28" s="57">
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="N28" s="55">
-        <v>2.9494991718063686</v>
+        <v>4.2328292747148906</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>75</v>
@@ -1887,19 +1888,19 @@
         <v>2500</v>
       </c>
       <c r="J29" s="53">
-        <v>1.4203926295725509</v>
+        <v>2.7037227324810718</v>
       </c>
       <c r="K29" s="53">
-        <v>2.0179731476514782</v>
+        <v>3.3013032505600002</v>
       </c>
       <c r="L29" s="53">
-        <v>2.6155536657304044</v>
+        <v>3.8988837686389277</v>
       </c>
       <c r="M29" s="53">
-        <v>3.2131341838093319</v>
+        <v>4.4964642867178517</v>
       </c>
       <c r="N29" s="55">
-        <v>3.8107147018882594</v>
+        <v>5.0940448047967806</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>80</v>
@@ -1918,19 +1919,19 @@
         <v>3000</v>
       </c>
       <c r="J30" s="55">
-        <v>1.8035437451913003</v>
+        <v>3.0868738480998217</v>
       </c>
       <c r="K30" s="55">
-        <v>2.5206403668860129</v>
+        <v>3.8039704697945353</v>
       </c>
       <c r="L30" s="55">
-        <v>3.2377369885807239</v>
+        <v>4.5210670914892459</v>
       </c>
       <c r="M30" s="55">
-        <v>3.9548336102754376</v>
+        <v>5.2381637131839573</v>
       </c>
       <c r="N30" s="55">
-        <v>4.6719302319701494</v>
+        <v>5.9552603348786715</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>81</v>
@@ -1973,7 +1974,7 @@
       </c>
       <c r="I33" s="40">
         <f>Valuation!$C$29</f>
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="J33" s="39">
         <f>K33-0.1</f>
@@ -2010,19 +2011,19 @@
       </c>
       <c r="J34" s="55">
         <f t="dataTable" ref="J34:N38" dt2D="1" dtr="1" r1="D44" r2="D46" ca="1"/>
-        <v>0.19155210989026403</v>
+        <v>1.4748822127987853</v>
       </c>
       <c r="K34" s="55">
-        <v>0.46601885298832801</v>
+        <v>1.7493489558968496</v>
       </c>
       <c r="L34" s="55">
-        <v>0.74048559608639242</v>
+        <v>2.0238156989949116</v>
       </c>
       <c r="M34" s="54">
-        <v>1.014952339184455</v>
+        <v>2.2982824420929773</v>
       </c>
       <c r="N34" s="55">
-        <v>1.2894190822825196</v>
+        <v>2.572749185191042</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>85</v>
@@ -2045,19 +2046,19 @@
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="J35" s="55">
-        <v>0.50920206047114325</v>
+        <v>1.7925321633796649</v>
       </c>
       <c r="K35" s="55">
-        <v>0.8678711949497927</v>
+        <v>2.1512012978583139</v>
       </c>
       <c r="L35" s="55">
-        <v>1.2265403294284425</v>
+        <v>2.5098704323369647</v>
       </c>
       <c r="M35" s="54">
-        <v>1.5852094639070937</v>
+        <v>2.8685395668156151</v>
       </c>
       <c r="N35" s="55">
-        <v>1.9438785983857441</v>
+        <v>3.2272087012942658</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>86</v>
@@ -2078,19 +2079,19 @@
         <v>0.03</v>
       </c>
       <c r="J36" s="56">
-        <v>1.0372415139538023</v>
+        <v>2.320571616862324</v>
       </c>
       <c r="K36" s="56">
-        <v>1.5153059284169443</v>
+        <v>2.7986360313254659</v>
       </c>
       <c r="L36" s="56">
-        <v>1.9933703428800862</v>
+        <v>3.2767004457886082</v>
       </c>
       <c r="M36" s="57">
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="N36" s="55">
-        <v>2.9494991718063686</v>
+        <v>4.2328292747148906</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>87</v>
@@ -2112,19 +2113,19 @@
         <v>0.08</v>
       </c>
       <c r="J37" s="55">
-        <v>1.9218800122378412</v>
+        <v>3.2052101151463623</v>
       </c>
       <c r="K37" s="55">
-        <v>2.5707923634411163</v>
+        <v>3.8541224663496387</v>
       </c>
       <c r="L37" s="55">
-        <v>3.2197047146443918</v>
+        <v>4.5030348175529129</v>
       </c>
       <c r="M37" s="55">
-        <v>3.8686170658476664</v>
+        <v>5.1519471687561875</v>
       </c>
       <c r="N37" s="55">
-        <v>4.5175294170509437</v>
+        <v>5.8008595199594648</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>88</v>
@@ -2146,19 +2147,19 @@
         <v>0.13</v>
       </c>
       <c r="J38" s="55">
-        <v>3.4037188181489815</v>
+        <v>4.6870489210575021</v>
       </c>
       <c r="K38" s="55">
-        <v>4.2985619442444953</v>
+        <v>5.5818920471530191</v>
       </c>
       <c r="L38" s="55">
-        <v>5.1934050703400114</v>
+        <v>6.4767351732485325</v>
       </c>
       <c r="M38" s="55">
-        <v>6.0882481964355266</v>
+        <v>7.3715782993440486</v>
       </c>
       <c r="N38" s="55">
-        <v>6.9830913225310418</v>
+        <v>8.266421425439562</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>89</v>
@@ -2444,13 +2445,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEA5CE-9ADD-764B-99D3-298DB73B0F47}">
-  <dimension ref="A1:AV120"/>
+  <dimension ref="A1:AW118"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="AA46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR84" sqref="AR84"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2458,24 +2459,24 @@
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10.83203125" collapsed="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5" customWidth="1"/>
-    <col min="36" max="36" width="13.1640625" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" customWidth="1"/>
+    <col min="37" max="37" width="13.1640625" customWidth="1"/>
+    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2533,228 +2534,225 @@
       <c r="T3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f>Main!D45*3/1000</f>
         <v>9000</v>
       </c>
-      <c r="V7" s="4">
-        <f>AH7/4</f>
+      <c r="W7" s="4">
+        <f>AI7/4</f>
         <v>9000</v>
       </c>
-      <c r="W7" s="4">
-        <f>AH7/4</f>
+      <c r="X7" s="4">
+        <f>AI7/4</f>
         <v>9000</v>
       </c>
-      <c r="X7" s="4">
-        <f>AH7/4</f>
+      <c r="Y7" s="4">
+        <f>AI7/4</f>
         <v>9000</v>
       </c>
-      <c r="Y7" s="4">
-        <f>AH7/4</f>
+      <c r="Z7" s="4">
+        <f>AI7/4</f>
         <v>9000</v>
       </c>
-      <c r="AG7" s="4">
-        <f>U7*4</f>
+      <c r="AH7" s="4">
+        <f>V7*4</f>
         <v>36000</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AI7" s="9">
         <f>Main!D45*12/1000</f>
         <v>36000</v>
       </c>
-      <c r="AI7" s="9">
-        <f>AH7*(1+Main!$D$46)</f>
-        <v>37080</v>
-      </c>
       <c r="AJ7" s="9">
         <f>AI7*(1+Main!$D$46)</f>
-        <v>38192.400000000001</v>
+        <v>37080</v>
       </c>
       <c r="AK7" s="9">
         <f>AJ7*(1+Main!$D$46)</f>
-        <v>39338.172000000006</v>
+        <v>38192.400000000001</v>
       </c>
       <c r="AL7" s="9">
         <f>AK7*(1+Main!$D$46)</f>
-        <v>40518.317160000006</v>
+        <v>39338.172000000006</v>
       </c>
       <c r="AM7" s="9">
         <f>AL7*(1+Main!$D$46)</f>
-        <v>41733.866674800011</v>
+        <v>40518.317160000006</v>
       </c>
       <c r="AN7" s="9">
         <f>AM7*(1+Main!$D$46)</f>
+        <v>41733.866674800011</v>
+      </c>
+      <c r="AO7" s="9">
+        <f>AN7*(1+Main!$D$46)</f>
         <v>42985.882675044013</v>
-      </c>
-      <c r="AO7" s="9">
-        <f>AN7*(1+Main!$D$46)*AO8</f>
-        <v>44275.459155295335</v>
       </c>
       <c r="AP7" s="9">
         <f>AO7*(1+Main!$D$46)*AP8</f>
-        <v>45603.722929954194</v>
+        <v>44275.459155295335</v>
       </c>
       <c r="AQ7" s="9">
         <f>AP7*(1+Main!$D$46)*AQ8</f>
-        <v>46971.834617852823</v>
+        <v>45603.722929954194</v>
       </c>
       <c r="AR7" s="9">
         <f>AQ7*(1+Main!$D$46)*AR8</f>
-        <v>48380.98965638841</v>
+        <v>46971.834617852823</v>
       </c>
       <c r="AS7" s="9">
         <f>AR7*(1+Main!$D$46)*AS8</f>
-        <v>49832.419346080067</v>
+        <v>48380.98965638841</v>
       </c>
       <c r="AT7" s="9">
         <f>AS7*(1+Main!$D$46)*AT8</f>
-        <v>51327.391926462471</v>
+        <v>49832.419346080067</v>
       </c>
       <c r="AU7" s="9">
         <f>AT7*(1+Main!$D$46)*AU8</f>
+        <v>51327.391926462471</v>
+      </c>
+      <c r="AV7" s="9">
+        <f>AU7*(1+Main!$D$46)*AV8</f>
         <v>52867.213684256349</v>
       </c>
-      <c r="AV7" s="9">
-        <f>AU7*(1+Main!$D$46)*AV8*Main!D52/Main!D44</f>
+      <c r="AW7" s="9">
+        <f>AV7*(1+Main!$D$46)*AW8*Main!D52/Main!D44</f>
         <v>27226.615047392021</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="7">
         <v>0.05</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>0.15</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>0.25</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>0.35</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>0.4</v>
-      </c>
-      <c r="AG8" s="3">
-        <f>AG9/AG7</f>
-        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AH8" s="3">
         <f>AH9/AH7</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>AI9/AI7</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <f>Main!D36</f>
         <v>0.6</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <f>Main!D37</f>
         <v>0.9</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <f>Main!D38</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="3">
-        <v>1</v>
-      </c>
       <c r="AM8" s="3">
         <v>1</v>
       </c>
@@ -2785,103 +2783,102 @@
       <c r="AV8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="4">
-        <f>U8*U7</f>
+      <c r="V9" s="4">
+        <f>V8*V7</f>
         <v>450</v>
       </c>
-      <c r="V9" s="4">
-        <f t="shared" ref="V9:Y9" si="0">V8*V7</f>
+      <c r="W9" s="4">
+        <f t="shared" ref="W9:Z9" si="0">W8*W7</f>
         <v>1350</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="AG9" s="4">
-        <f>U9</f>
+      <c r="AH9" s="4">
+        <f>V9</f>
         <v>450</v>
       </c>
-      <c r="AH9" s="9">
-        <f>SUM(V9:Y9)</f>
+      <c r="AI9" s="9">
+        <f>SUM(W9:Z9)</f>
         <v>10350</v>
       </c>
-      <c r="AI9" s="9">
-        <f>AI8*AI7</f>
+      <c r="AJ9" s="9">
+        <f>AJ8*AJ7</f>
         <v>22248</v>
       </c>
-      <c r="AJ9" s="9">
-        <f t="shared" ref="AJ9:AV9" si="1">AJ8*AJ7</f>
+      <c r="AK9" s="9">
+        <f t="shared" ref="AK9:AW9" si="1">AK8*AK7</f>
         <v>34373.160000000003</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AL9" s="9">
         <f t="shared" si="1"/>
         <v>39338.172000000006</v>
       </c>
-      <c r="AL9" s="9">
+      <c r="AM9" s="9">
         <f t="shared" si="1"/>
         <v>40518.317160000006</v>
       </c>
-      <c r="AM9" s="9">
+      <c r="AN9" s="9">
         <f t="shared" si="1"/>
         <v>41733.866674800011</v>
       </c>
-      <c r="AN9" s="9">
+      <c r="AO9" s="9">
         <f t="shared" si="1"/>
         <v>42985.882675044013</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AP9" s="9">
         <f t="shared" si="1"/>
         <v>44275.459155295335</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AQ9" s="9">
         <f t="shared" si="1"/>
         <v>45603.722929954194</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AR9" s="9">
         <f t="shared" si="1"/>
         <v>46971.834617852823</v>
       </c>
-      <c r="AR9" s="9">
+      <c r="AS9" s="9">
         <f t="shared" si="1"/>
         <v>48380.98965638841</v>
       </c>
-      <c r="AS9" s="9">
+      <c r="AT9" s="9">
         <f t="shared" si="1"/>
         <v>49832.419346080067</v>
       </c>
-      <c r="AT9" s="9">
+      <c r="AU9" s="9">
         <f t="shared" si="1"/>
         <v>51327.391926462471</v>
       </c>
-      <c r="AU9" s="9">
+      <c r="AV9" s="9">
         <f t="shared" si="1"/>
         <v>52867.213684256349</v>
       </c>
-      <c r="AV9" s="9">
+      <c r="AW9" s="9">
         <f t="shared" si="1"/>
         <v>27226.615047392021</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>100</v>
-      </c>
-      <c r="U11" s="3">
-        <f>Main!$D$9</f>
-        <v>0.9</v>
       </c>
       <c r="V11" s="3">
         <f>Main!$D$9</f>
@@ -2899,8 +2896,8 @@
         <f>Main!$D$9</f>
         <v>0.9</v>
       </c>
-      <c r="AG11" s="7">
-        <f>AG12/AG9</f>
+      <c r="Z11" s="3">
+        <f>Main!$D$9</f>
         <v>0.9</v>
       </c>
       <c r="AH11" s="7">
@@ -2908,7 +2905,7 @@
         <v>0.9</v>
       </c>
       <c r="AI11" s="7">
-        <f>Main!$D$9</f>
+        <f>AI12/AI9</f>
         <v>0.9</v>
       </c>
       <c r="AJ11" s="7">
@@ -2963,219 +2960,220 @@
         <f>Main!$D$9</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW11" s="7">
+        <f>Main!$D$9</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="4">
-        <f>U11*U9</f>
+      <c r="V12" s="4">
+        <f>V11*V9</f>
         <v>405</v>
       </c>
-      <c r="V12" s="4">
-        <f t="shared" ref="V12:Y12" si="2">V11*V9</f>
+      <c r="W12" s="4">
+        <f t="shared" ref="W12:Z12" si="2">W11*W9</f>
         <v>1215</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <f t="shared" si="2"/>
         <v>2835</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <f t="shared" si="2"/>
         <v>3240</v>
       </c>
-      <c r="AG12" s="4">
-        <f>U12</f>
+      <c r="AH12" s="4">
+        <f>V12</f>
         <v>405</v>
       </c>
-      <c r="AH12" s="9">
-        <f>SUM(V12:Y12)</f>
+      <c r="AI12" s="9">
+        <f>SUM(W12:Z12)</f>
         <v>9315</v>
       </c>
-      <c r="AI12" s="9">
-        <f t="shared" ref="AI12:AV12" si="3">AI11*AI9</f>
+      <c r="AJ12" s="9">
+        <f t="shared" ref="AJ12:AW12" si="3">AJ11*AJ9</f>
         <v>20023.2</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AK12" s="9">
         <f t="shared" si="3"/>
         <v>30935.844000000005</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AL12" s="9">
         <f t="shared" si="3"/>
         <v>35404.354800000008</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AM12" s="9">
         <f t="shared" si="3"/>
         <v>36466.485444000005</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AN12" s="9">
         <f t="shared" si="3"/>
         <v>37560.480007320009</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AO12" s="9">
         <f t="shared" si="3"/>
         <v>38687.294407539615</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AP12" s="9">
         <f t="shared" si="3"/>
         <v>39847.913239765803</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AQ12" s="9">
         <f t="shared" si="3"/>
         <v>41043.350636958778</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AR12" s="9">
         <f t="shared" si="3"/>
         <v>42274.651156067543</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AS12" s="9">
         <f t="shared" si="3"/>
         <v>43542.890690749569</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AT12" s="9">
         <f t="shared" si="3"/>
         <v>44849.177411472061</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AU12" s="9">
         <f t="shared" si="3"/>
         <v>46194.652733816227</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AV12" s="9">
         <f t="shared" si="3"/>
         <v>47580.492315830714</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AW12" s="9">
         <f t="shared" si="3"/>
         <v>24503.95354265282</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="U13" s="4"/>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>113</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AH21" s="9">
         <f>Main!$S$45/1000</f>
         <v>500000</v>
       </c>
-      <c r="AH21" s="9">
-        <f>AG21*(1+Main!$S$46)</f>
-        <v>515000</v>
-      </c>
       <c r="AI21" s="9">
         <f>AH21*(1+Main!$S$46)</f>
-        <v>530450</v>
+        <v>515000</v>
       </c>
       <c r="AJ21" s="9">
         <f>AI21*(1+Main!$S$46)</f>
-        <v>546363.5</v>
+        <v>530450</v>
       </c>
       <c r="AK21" s="9">
         <f>AJ21*(1+Main!$S$46)</f>
-        <v>562754.40500000003</v>
+        <v>546363.5</v>
       </c>
       <c r="AL21" s="9">
         <f>AK21*(1+Main!$S$46)</f>
-        <v>579637.03714999999</v>
+        <v>562754.40500000003</v>
       </c>
       <c r="AM21" s="9">
         <f>AL21*(1+Main!$S$46)</f>
-        <v>597026.14826449996</v>
+        <v>579637.03714999999</v>
       </c>
       <c r="AN21" s="9">
         <f>AM21*(1+Main!$S$46)</f>
-        <v>614936.93271243502</v>
+        <v>597026.14826449996</v>
       </c>
       <c r="AO21" s="9">
         <f>AN21*(1+Main!$S$46)</f>
+        <v>614936.93271243502</v>
+      </c>
+      <c r="AP21" s="9">
+        <f>AO21*(1+Main!$S$46)</f>
         <v>633385.04069380811</v>
-      </c>
-      <c r="AP21" s="9">
-        <f>AO21*(1+Main!$S$54)</f>
-        <v>570046.5366244273</v>
       </c>
       <c r="AQ21" s="9">
         <f>AP21*(1+Main!$S$54)</f>
-        <v>513041.88296198461</v>
+        <v>570046.5366244273</v>
       </c>
       <c r="AR21" s="9">
         <f>AQ21*(1+Main!$S$54)</f>
-        <v>461737.69466578617</v>
+        <v>513041.88296198461</v>
       </c>
       <c r="AS21" s="9">
         <f>AR21*(1+Main!$S$54)</f>
-        <v>415563.92519920756</v>
+        <v>461737.69466578617</v>
       </c>
       <c r="AT21" s="9">
         <f>AS21*(1+Main!$S$54)</f>
-        <v>374007.53267928679</v>
+        <v>415563.92519920756</v>
       </c>
       <c r="AU21" s="9">
         <f>AT21*(1+Main!$S$54)</f>
-        <v>336606.77941135812</v>
+        <v>374007.53267928679</v>
       </c>
       <c r="AV21" s="9">
         <f>AU21*(1+Main!$S$54)</f>
+        <v>336606.77941135812</v>
+      </c>
+      <c r="AW21" s="9">
+        <f>AV21*(1+Main!$S$54)</f>
         <v>302946.10147022229</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3">
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3">
         <f>Main!$S$35</f>
         <v>0.3</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <f>Main!$S$36</f>
         <v>0.6</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AN22" s="3">
         <f>Main!$S$37</f>
         <v>0.9</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AO22" s="3">
         <f>Main!$S$38</f>
         <v>1</v>
       </c>
-      <c r="AO22" s="3">
-        <v>1</v>
-      </c>
       <c r="AP22" s="3">
         <v>1</v>
       </c>
@@ -3197,73 +3195,72 @@
       <c r="AV22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-      <c r="AK23" s="9">
-        <f t="shared" ref="AK23:AV23" si="4">AK22*AK21</f>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9">
+        <f t="shared" ref="AL23:AW23" si="4">AL22*AL21</f>
         <v>168826.32149999999</v>
       </c>
-      <c r="AL23" s="9">
+      <c r="AM23" s="9">
         <f t="shared" si="4"/>
         <v>347782.22229000001</v>
       </c>
-      <c r="AM23" s="9">
+      <c r="AN23" s="9">
         <f t="shared" si="4"/>
         <v>537323.53343804996</v>
       </c>
-      <c r="AN23" s="9">
+      <c r="AO23" s="9">
         <f t="shared" si="4"/>
         <v>614936.93271243502</v>
       </c>
-      <c r="AO23" s="9">
+      <c r="AP23" s="9">
         <f t="shared" si="4"/>
         <v>633385.04069380811</v>
       </c>
-      <c r="AP23" s="9">
+      <c r="AQ23" s="9">
         <f t="shared" si="4"/>
         <v>570046.5366244273</v>
       </c>
-      <c r="AQ23" s="9">
+      <c r="AR23" s="9">
         <f t="shared" si="4"/>
         <v>513041.88296198461</v>
       </c>
-      <c r="AR23" s="9">
+      <c r="AS23" s="9">
         <f t="shared" si="4"/>
         <v>461737.69466578617</v>
       </c>
-      <c r="AS23" s="9">
+      <c r="AT23" s="9">
         <f t="shared" si="4"/>
         <v>415563.92519920756</v>
       </c>
-      <c r="AT23" s="9">
+      <c r="AU23" s="9">
         <f t="shared" si="4"/>
         <v>374007.53267928679</v>
       </c>
-      <c r="AU23" s="9">
+      <c r="AV23" s="9">
         <f t="shared" si="4"/>
         <v>336606.77941135812</v>
       </c>
-      <c r="AV23" s="9">
+      <c r="AW23" s="9">
         <f t="shared" si="4"/>
         <v>302946.10147022229</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" s="3"/>
-      <c r="AK25" s="3">
-        <f>Main!$S$9</f>
-        <v>0.4</v>
-      </c>
+      <c r="AH25" s="3"/>
       <c r="AL25" s="3">
         <f>Main!$S$9</f>
         <v>0.4</v>
@@ -3308,100 +3305,104 @@
         <f>Main!$S$9</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW25" s="3">
+        <f>Main!$S$9</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>101</v>
       </c>
-      <c r="AK26" s="9">
-        <f>AK25*AK23</f>
+      <c r="AL26" s="9">
+        <f>AL25*AL23</f>
         <v>67530.528600000005</v>
       </c>
-      <c r="AL26" s="9">
-        <f t="shared" ref="AL26:AV26" si="5">AL25*AL23</f>
+      <c r="AM26" s="9">
+        <f t="shared" ref="AM26:AW26" si="5">AM25*AM23</f>
         <v>139112.888916</v>
       </c>
-      <c r="AM26" s="9">
+      <c r="AN26" s="9">
         <f t="shared" si="5"/>
         <v>214929.41337522</v>
       </c>
-      <c r="AN26" s="9">
+      <c r="AO26" s="9">
         <f t="shared" si="5"/>
         <v>245974.77308497403</v>
       </c>
-      <c r="AO26" s="9">
+      <c r="AP26" s="9">
         <f t="shared" si="5"/>
         <v>253354.01627752325</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AQ26" s="9">
         <f t="shared" si="5"/>
         <v>228018.61464977093</v>
       </c>
-      <c r="AQ26" s="9">
+      <c r="AR26" s="9">
         <f t="shared" si="5"/>
         <v>205216.75318479387</v>
       </c>
-      <c r="AR26" s="9">
+      <c r="AS26" s="9">
         <f t="shared" si="5"/>
         <v>184695.07786631447</v>
       </c>
-      <c r="AS26" s="9">
+      <c r="AT26" s="9">
         <f t="shared" si="5"/>
         <v>166225.57007968304</v>
       </c>
-      <c r="AT26" s="9">
+      <c r="AU26" s="9">
         <f t="shared" si="5"/>
         <v>149603.01307171473</v>
       </c>
-      <c r="AU26" s="9">
+      <c r="AV26" s="9">
         <f t="shared" si="5"/>
         <v>134642.71176454326</v>
       </c>
-      <c r="AV26" s="9">
+      <c r="AW26" s="9">
         <f t="shared" si="5"/>
         <v>121178.44058808892</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="R34" s="1">
         <v>10660</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <f>R34</f>
         <v>10660</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>152</v>
       </c>
       <c r="R36" s="23"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>183</v>
       </c>
@@ -3449,192 +3450,189 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U38" s="24">
-        <f>U34+U12</f>
-        <v>405</v>
-      </c>
       <c r="V38" s="24">
         <f>V34+V12</f>
-        <v>1215</v>
+        <v>405</v>
       </c>
       <c r="W38" s="24">
         <f>W34+W12</f>
-        <v>2025</v>
+        <v>1215</v>
       </c>
       <c r="X38" s="24">
         <f>X34+X12</f>
-        <v>2835</v>
+        <v>2025</v>
       </c>
       <c r="Y38" s="24">
         <f>Y34+Y12</f>
+        <v>2835</v>
+      </c>
+      <c r="Z38" s="24">
+        <f>Z34+Z12</f>
         <v>3240</v>
       </c>
-      <c r="AG38" s="24">
-        <f>AG34+AG12+AG26</f>
+      <c r="AH38" s="24">
+        <f>AH34+AH12+AH26</f>
         <v>11065</v>
       </c>
-      <c r="AH38" s="24">
-        <f t="shared" ref="AH38:AV38" si="7">AH34+AH12+AH26</f>
+      <c r="AI38" s="24">
+        <f t="shared" ref="AI38:AW38" si="7">AI34+AI12+AI26</f>
         <v>9315</v>
       </c>
-      <c r="AI38" s="24">
+      <c r="AJ38" s="24">
         <f t="shared" si="7"/>
         <v>20023.2</v>
       </c>
-      <c r="AJ38" s="24">
+      <c r="AK38" s="24">
         <f t="shared" si="7"/>
         <v>30935.844000000005</v>
       </c>
-      <c r="AK38" s="24">
+      <c r="AL38" s="24">
         <f t="shared" si="7"/>
         <v>102934.88340000002</v>
       </c>
-      <c r="AL38" s="24">
+      <c r="AM38" s="24">
         <f t="shared" si="7"/>
         <v>175579.37436000002</v>
       </c>
-      <c r="AM38" s="24">
+      <c r="AN38" s="24">
         <f t="shared" si="7"/>
         <v>252489.89338254</v>
       </c>
-      <c r="AN38" s="24">
+      <c r="AO38" s="24">
         <f t="shared" si="7"/>
         <v>284662.06749251363</v>
       </c>
-      <c r="AO38" s="24">
+      <c r="AP38" s="24">
         <f t="shared" si="7"/>
         <v>293201.92951728904</v>
       </c>
-      <c r="AP38" s="24">
+      <c r="AQ38" s="24">
         <f t="shared" si="7"/>
         <v>269061.96528672968</v>
       </c>
-      <c r="AQ38" s="24">
+      <c r="AR38" s="24">
         <f t="shared" si="7"/>
         <v>247491.40434086142</v>
       </c>
-      <c r="AR38" s="24">
+      <c r="AS38" s="24">
         <f t="shared" si="7"/>
         <v>228237.96855706404</v>
       </c>
-      <c r="AS38" s="24">
+      <c r="AT38" s="24">
         <f t="shared" si="7"/>
         <v>211074.74749115511</v>
       </c>
-      <c r="AT38" s="24">
+      <c r="AU38" s="24">
         <f t="shared" si="7"/>
         <v>195797.66580553097</v>
       </c>
-      <c r="AU38" s="24">
+      <c r="AV38" s="24">
         <f t="shared" si="7"/>
         <v>182223.20408037398</v>
       </c>
-      <c r="AV38" s="24">
+      <c r="AW38" s="24">
         <f t="shared" si="7"/>
         <v>145682.39413074174</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>117</v>
       </c>
       <c r="R40" s="1"/>
-      <c r="U40" s="9">
-        <f>U38*(1-U41)</f>
+      <c r="V40" s="9">
+        <f>V38*(1-V41)</f>
         <v>40.499999999999993</v>
       </c>
-      <c r="V40" s="9">
-        <f t="shared" ref="V40:Y40" si="8">V38*(1-V41)</f>
+      <c r="W40" s="9">
+        <f t="shared" ref="W40:Z40" si="8">W38*(1-W41)</f>
         <v>121.49999999999997</v>
       </c>
-      <c r="W40" s="9">
+      <c r="X40" s="9">
         <f t="shared" si="8"/>
         <v>202.49999999999994</v>
       </c>
-      <c r="X40" s="9">
+      <c r="Y40" s="9">
         <f t="shared" si="8"/>
         <v>283.49999999999994</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Z40" s="9">
         <f t="shared" si="8"/>
         <v>323.99999999999994</v>
       </c>
-      <c r="AG40" s="9">
-        <f>SUM(R40:U40)</f>
+      <c r="AH40" s="9">
+        <f>SUM(R40:V40)</f>
         <v>40.499999999999993</v>
       </c>
-      <c r="AH40" s="9">
-        <f>SUM(V40:Y40)</f>
+      <c r="AI40" s="9">
+        <f>SUM(W40:Z40)</f>
         <v>931.49999999999977</v>
       </c>
-      <c r="AI40" s="9">
-        <f t="shared" ref="AI40" si="9">AI38*(1-AI41)</f>
+      <c r="AJ40" s="9">
+        <f t="shared" ref="AJ40" si="9">AJ38*(1-AJ41)</f>
         <v>2002.3199999999997</v>
       </c>
-      <c r="AJ40" s="9">
-        <f t="shared" ref="AJ40" si="10">AJ38*(1-AJ41)</f>
+      <c r="AK40" s="9">
+        <f t="shared" ref="AK40" si="10">AK38*(1-AK41)</f>
         <v>3093.5843999999997</v>
       </c>
-      <c r="AK40" s="9">
-        <f t="shared" ref="AK40" si="11">AK38*(1-AK41)</f>
+      <c r="AL40" s="9">
+        <f t="shared" ref="AL40" si="11">AL38*(1-AL41)</f>
         <v>10293.48834</v>
       </c>
-      <c r="AL40" s="9">
-        <f t="shared" ref="AL40" si="12">AL38*(1-AL41)</f>
+      <c r="AM40" s="9">
+        <f t="shared" ref="AM40" si="12">AM38*(1-AM41)</f>
         <v>17557.937435999997</v>
       </c>
-      <c r="AM40" s="9">
-        <f t="shared" ref="AM40" si="13">AM38*(1-AM41)</f>
+      <c r="AN40" s="9">
+        <f t="shared" ref="AN40" si="13">AN38*(1-AN41)</f>
         <v>25248.989338253996</v>
       </c>
-      <c r="AN40" s="9">
-        <f t="shared" ref="AN40" si="14">AN38*(1-AN41)</f>
+      <c r="AO40" s="9">
+        <f t="shared" ref="AO40" si="14">AO38*(1-AO41)</f>
         <v>28466.206749251356</v>
       </c>
-      <c r="AO40" s="9">
-        <f t="shared" ref="AO40" si="15">AO38*(1-AO41)</f>
+      <c r="AP40" s="9">
+        <f t="shared" ref="AP40" si="15">AP38*(1-AP41)</f>
         <v>29320.192951728899</v>
       </c>
-      <c r="AP40" s="9">
-        <f t="shared" ref="AP40" si="16">AP38*(1-AP41)</f>
+      <c r="AQ40" s="9">
+        <f t="shared" ref="AQ40" si="16">AQ38*(1-AQ41)</f>
         <v>26906.196528672961</v>
       </c>
-      <c r="AQ40" s="9">
-        <f t="shared" ref="AQ40" si="17">AQ38*(1-AQ41)</f>
+      <c r="AR40" s="9">
+        <f t="shared" ref="AR40" si="17">AR38*(1-AR41)</f>
         <v>24749.140434086137</v>
       </c>
-      <c r="AR40" s="9">
-        <f t="shared" ref="AR40" si="18">AR38*(1-AR41)</f>
+      <c r="AS40" s="9">
+        <f t="shared" ref="AS40" si="18">AS38*(1-AS41)</f>
         <v>22823.796855706398</v>
       </c>
-      <c r="AS40" s="9">
-        <f t="shared" ref="AS40" si="19">AS38*(1-AS41)</f>
+      <c r="AT40" s="9">
+        <f t="shared" ref="AT40" si="19">AT38*(1-AT41)</f>
         <v>21107.474749115507</v>
       </c>
-      <c r="AT40" s="9">
-        <f t="shared" ref="AT40" si="20">AT38*(1-AT41)</f>
+      <c r="AU40" s="9">
+        <f t="shared" ref="AU40" si="20">AU38*(1-AU41)</f>
         <v>19579.766580553092</v>
       </c>
-      <c r="AU40" s="9">
-        <f t="shared" ref="AU40" si="21">AU38*(1-AU41)</f>
+      <c r="AV40" s="9">
+        <f t="shared" ref="AV40" si="21">AV38*(1-AV41)</f>
         <v>18222.320408037394</v>
       </c>
-      <c r="AV40" s="9">
-        <f t="shared" ref="AV40" si="22">AV38*(1-AV41)</f>
+      <c r="AW40" s="9">
+        <f t="shared" ref="AW40" si="22">AW38*(1-AW41)</f>
         <v>14568.23941307417</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
       <c r="R41" s="1"/>
-      <c r="U41" s="3">
-        <v>0.9</v>
-      </c>
       <c r="V41" s="3">
         <v>0.9</v>
       </c>
@@ -3647,15 +3645,15 @@
       <c r="Y41" s="3">
         <v>0.9</v>
       </c>
-      <c r="AG41" s="7">
-        <f>AG42/AG38</f>
-        <v>0.99633981021238138</v>
+      <c r="Z41" s="3">
+        <v>0.9</v>
       </c>
       <c r="AH41" s="7">
         <f>AH42/AH38</f>
-        <v>0.9</v>
+        <v>0.99633981021238138</v>
       </c>
       <c r="AI41" s="7">
+        <f>AI42/AI38</f>
         <v>0.9</v>
       </c>
       <c r="AJ41" s="7">
@@ -3697,8 +3695,11 @@
       <c r="AV41" s="7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW41" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>153</v>
       </c>
@@ -3743,106 +3744,106 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:X42" si="24">T38-T40</f>
+        <f t="shared" ref="T42:Y42" si="24">T38-T40</f>
         <v>0</v>
       </c>
-      <c r="U42" s="9">
+      <c r="V42" s="9">
         <f t="shared" si="24"/>
         <v>364.5</v>
       </c>
-      <c r="V42" s="9">
+      <c r="W42" s="9">
         <f t="shared" si="24"/>
         <v>1093.5</v>
       </c>
-      <c r="W42" s="9">
+      <c r="X42" s="9">
         <f t="shared" si="24"/>
         <v>1822.5</v>
       </c>
-      <c r="X42" s="9">
+      <c r="Y42" s="9">
         <f t="shared" si="24"/>
         <v>2551.5</v>
       </c>
-      <c r="Y42" s="9">
-        <f>Y38-Y40</f>
+      <c r="Z42" s="9">
+        <f>Z38-Z40</f>
         <v>2916</v>
-      </c>
-      <c r="AG42" s="9">
-        <f>AG38-AG40</f>
-        <v>11024.5</v>
       </c>
       <c r="AH42" s="9">
         <f>AH38-AH40</f>
+        <v>11024.5</v>
+      </c>
+      <c r="AI42" s="9">
+        <f>AI38-AI40</f>
         <v>8383.5</v>
       </c>
-      <c r="AI42" s="9">
-        <f t="shared" ref="AI42:AV42" si="25">AI38-AI40</f>
+      <c r="AJ42" s="9">
+        <f t="shared" ref="AJ42:AW42" si="25">AJ38-AJ40</f>
         <v>18020.88</v>
       </c>
-      <c r="AJ42" s="9">
+      <c r="AK42" s="9">
         <f t="shared" si="25"/>
         <v>27842.259600000005</v>
       </c>
-      <c r="AK42" s="9">
+      <c r="AL42" s="9">
         <f t="shared" si="25"/>
         <v>92641.395060000024</v>
       </c>
-      <c r="AL42" s="9">
+      <c r="AM42" s="9">
         <f t="shared" si="25"/>
         <v>158021.43692400001</v>
       </c>
-      <c r="AM42" s="9">
+      <c r="AN42" s="9">
         <f t="shared" si="25"/>
         <v>227240.904044286</v>
       </c>
-      <c r="AN42" s="9">
+      <c r="AO42" s="9">
         <f t="shared" si="25"/>
         <v>256195.86074326228</v>
       </c>
-      <c r="AO42" s="9">
+      <c r="AP42" s="9">
         <f t="shared" si="25"/>
         <v>263881.73656556016</v>
       </c>
-      <c r="AP42" s="9">
+      <c r="AQ42" s="9">
         <f t="shared" si="25"/>
         <v>242155.76875805671</v>
       </c>
-      <c r="AQ42" s="9">
+      <c r="AR42" s="9">
         <f t="shared" si="25"/>
         <v>222742.26390677528</v>
       </c>
-      <c r="AR42" s="9">
+      <c r="AS42" s="9">
         <f t="shared" si="25"/>
         <v>205414.17170135764</v>
       </c>
-      <c r="AS42" s="9">
+      <c r="AT42" s="9">
         <f t="shared" si="25"/>
         <v>189967.27274203961</v>
       </c>
-      <c r="AT42" s="9">
+      <c r="AU42" s="9">
         <f t="shared" si="25"/>
         <v>176217.89922497788</v>
       </c>
-      <c r="AU42" s="9">
+      <c r="AV42" s="9">
         <f t="shared" si="25"/>
         <v>164000.88367233658</v>
       </c>
-      <c r="AV42" s="9">
+      <c r="AW42" s="9">
         <f t="shared" si="25"/>
         <v>131114.15471766758</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>11778</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M52" si="26">AE46-L46-K46-J46</f>
+        <f>AF46-L46-K46-J46</f>
         <v>11919</v>
       </c>
       <c r="N46" s="1">
@@ -3869,3286 +3870,3214 @@
         <v>10035</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46:Q52" si="27">AF46-P46-O46-N46</f>
+        <f>AG46-P46-O46-N46</f>
         <v>8963</v>
       </c>
       <c r="R46" s="1">
         <v>11816</v>
       </c>
-      <c r="S46">
-        <f>S47+S48</f>
-        <v>9310</v>
+      <c r="S46" s="1">
+        <v>8744</v>
       </c>
       <c r="T46" s="9">
-        <f>P46*1.5</f>
-        <v>15052.5</v>
-      </c>
-      <c r="U46" s="9">
-        <f t="shared" ref="U46:W46" si="28">Q46*1.5</f>
+        <v>8215</v>
+      </c>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9">
+        <f>Q46*1.5</f>
         <v>13444.5</v>
       </c>
-      <c r="V46" s="9">
-        <f t="shared" si="28"/>
+      <c r="W46" s="9">
+        <f>R46*1.5</f>
         <v>17724</v>
       </c>
-      <c r="W46" s="9">
-        <f t="shared" si="28"/>
-        <v>13965</v>
-      </c>
       <c r="X46" s="9">
+        <f>S46*1.5</f>
+        <v>13116</v>
+      </c>
+      <c r="Y46" s="9">
         <f>T46*1.25</f>
-        <v>18815.625</v>
-      </c>
-      <c r="Y46" s="9">
-        <f>U46*1.25</f>
+        <v>10268.75</v>
+      </c>
+      <c r="Z46" s="9">
+        <f>V46*1.25</f>
         <v>16805.625</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AC46" s="1">
+      <c r="AA46" s="1"/>
+      <c r="AD46" s="1">
         <v>17436</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>28736</v>
       </c>
-      <c r="AE46" s="1">
+      <c r="AF46" s="1">
         <v>40323</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AG46" s="1">
         <v>42928</v>
       </c>
-      <c r="AG46" s="9">
-        <f>SUM(R46:U46)</f>
-        <v>49623</v>
-      </c>
       <c r="AH46" s="9">
-        <f>SUM(V46:Y46)</f>
-        <v>67310.25</v>
+        <f>SUM(R46:V46)</f>
+        <v>42219.5</v>
       </c>
       <c r="AI46" s="9">
-        <f>AH46*0.95</f>
-        <v>63944.737499999996</v>
+        <f>SUM(W46:Z46)</f>
+        <v>57914.375</v>
       </c>
       <c r="AJ46" s="9">
-        <f t="shared" ref="AJ46:AO46" si="29">AI46*0.95</f>
-        <v>60747.500624999993</v>
+        <f>AI46*0.95</f>
+        <v>55018.65625</v>
       </c>
       <c r="AK46" s="9">
+        <f t="shared" ref="AK46:AP46" si="26">AJ46*0.95</f>
+        <v>52267.723437499997</v>
+      </c>
+      <c r="AL46" s="9">
+        <f t="shared" si="26"/>
+        <v>49654.337265624992</v>
+      </c>
+      <c r="AM46" s="9">
+        <f t="shared" si="26"/>
+        <v>47171.620402343739</v>
+      </c>
+      <c r="AN46" s="9">
+        <f t="shared" si="26"/>
+        <v>44813.039382226547</v>
+      </c>
+      <c r="AO46" s="9">
+        <f t="shared" si="26"/>
+        <v>42572.387413115219</v>
+      </c>
+      <c r="AP46" s="9">
+        <f t="shared" si="26"/>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AQ46" s="9">
+        <f>AP46</f>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AR46" s="9">
+        <f t="shared" ref="AR46:AW46" si="27">AQ46</f>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AS46" s="9">
+        <f t="shared" si="27"/>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AT46" s="9">
+        <f t="shared" si="27"/>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AU46" s="9">
+        <f t="shared" si="27"/>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AV46" s="9">
+        <f t="shared" si="27"/>
+        <v>40443.768042459458</v>
+      </c>
+      <c r="AW46" s="9">
+        <f t="shared" si="27"/>
+        <v>40443.768042459458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5820</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2316</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3172</v>
+      </c>
+      <c r="M47">
+        <f>AF47-L47-K47-J47</f>
+        <v>602</v>
+      </c>
+      <c r="N47" s="1">
+        <v>231</v>
+      </c>
+      <c r="O47" s="1">
+        <v>136</v>
+      </c>
+      <c r="P47" s="1">
+        <v>236</v>
+      </c>
+      <c r="Q47">
+        <f>AG47-P47-O47-N47</f>
+        <v>354</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1271</v>
+      </c>
+      <c r="S47" s="1">
+        <v>540</v>
+      </c>
+      <c r="T47" s="1">
+        <v>-228</v>
+      </c>
+      <c r="V47">
+        <f>Q47*1.5</f>
+        <v>531</v>
+      </c>
+      <c r="W47" s="9">
+        <f>R47*1.5</f>
+        <v>1906.5</v>
+      </c>
+      <c r="X47">
+        <f>S47*1.5</f>
+        <v>810</v>
+      </c>
+      <c r="Y47">
+        <f>T47*1.5</f>
+        <v>-342</v>
+      </c>
+      <c r="Z47" s="9">
+        <f t="shared" ref="Z47" si="28">V47*1.5</f>
+        <v>796.5</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AD47" s="1">
+        <v>9069</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>24424</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>11910</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>957</v>
+      </c>
+      <c r="AH47" s="9">
+        <f>SUM(R47:V47)</f>
+        <v>2114</v>
+      </c>
+      <c r="AI47" s="9">
+        <f t="shared" ref="AI47:AI50" si="29">SUM(W47:Z47)</f>
+        <v>3171</v>
+      </c>
+      <c r="AJ47" s="9">
+        <f t="shared" ref="AJ47:AV50" si="30">AI47*1.03</f>
+        <v>3266.13</v>
+      </c>
+      <c r="AK47" s="9">
+        <f t="shared" si="30"/>
+        <v>3364.1139000000003</v>
+      </c>
+      <c r="AL47" s="9">
+        <f t="shared" si="30"/>
+        <v>3465.0373170000003</v>
+      </c>
+      <c r="AM47" s="9">
+        <f t="shared" si="30"/>
+        <v>3568.9884365100002</v>
+      </c>
+      <c r="AN47" s="9">
+        <f t="shared" si="30"/>
+        <v>3676.0580896053002</v>
+      </c>
+      <c r="AO47" s="9">
+        <f t="shared" si="30"/>
+        <v>3786.3398322934595</v>
+      </c>
+      <c r="AP47" s="9">
+        <f t="shared" si="30"/>
+        <v>3899.9300272622636</v>
+      </c>
+      <c r="AQ47" s="9">
+        <f t="shared" si="30"/>
+        <v>4016.9279280801316</v>
+      </c>
+      <c r="AR47" s="9">
+        <f t="shared" si="30"/>
+        <v>4137.4357659225352</v>
+      </c>
+      <c r="AS47" s="9">
+        <f t="shared" si="30"/>
+        <v>4261.5588389002114</v>
+      </c>
+      <c r="AT47" s="9">
+        <f t="shared" si="30"/>
+        <v>4389.4056040672176</v>
+      </c>
+      <c r="AU47" s="9">
+        <f t="shared" si="30"/>
+        <v>4521.0877721892339</v>
+      </c>
+      <c r="AV47" s="9">
+        <f t="shared" si="30"/>
+        <v>4656.7204053549112</v>
+      </c>
+      <c r="AW47" s="9">
+        <f t="shared" ref="AW47" si="31">AV47*1.03</f>
+        <v>4796.4220175155588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1092</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1270</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1368</v>
+      </c>
+      <c r="M48">
+        <f>AF48-L48-K48-J48</f>
+        <v>1799</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1937</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1578</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1416</v>
+      </c>
+      <c r="Q48">
+        <f>AG48-P48-O48-N48</f>
+        <v>1717</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1700</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1408</v>
+      </c>
+      <c r="T48" s="9">
+        <v>1426</v>
+      </c>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9">
+        <f>Q48*1.05</f>
+        <v>1802.8500000000001</v>
+      </c>
+      <c r="W48" s="9">
+        <f>R48*1.05</f>
+        <v>1785</v>
+      </c>
+      <c r="X48" s="9">
+        <f>S48*1.05</f>
+        <v>1478.4</v>
+      </c>
+      <c r="Y48" s="9">
+        <f>T48*1.05</f>
+        <v>1497.3</v>
+      </c>
+      <c r="Z48" s="9">
+        <f t="shared" ref="Z48" si="32">V48*1.05</f>
+        <v>1892.9925000000003</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AD48" s="1">
+        <v>2728</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>3351</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>5529</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>6648</v>
+      </c>
+      <c r="AH48" s="9">
+        <f>SUM(R48:V48)</f>
+        <v>6336.85</v>
+      </c>
+      <c r="AI48" s="9">
         <f t="shared" si="29"/>
-        <v>57710.125593749988</v>
-      </c>
-      <c r="AL46" s="9">
+        <v>6653.6925000000001</v>
+      </c>
+      <c r="AJ48" s="9">
+        <f t="shared" si="30"/>
+        <v>6853.3032750000002</v>
+      </c>
+      <c r="AK48" s="9">
+        <f t="shared" si="30"/>
+        <v>7058.90237325</v>
+      </c>
+      <c r="AL48" s="9">
+        <f t="shared" si="30"/>
+        <v>7270.6694444475006</v>
+      </c>
+      <c r="AM48" s="9">
+        <f t="shared" si="30"/>
+        <v>7488.7895277809257</v>
+      </c>
+      <c r="AN48" s="9">
+        <f t="shared" si="30"/>
+        <v>7713.4532136143534</v>
+      </c>
+      <c r="AO48" s="9">
+        <f t="shared" si="30"/>
+        <v>7944.856810022784</v>
+      </c>
+      <c r="AP48" s="9">
+        <f t="shared" si="30"/>
+        <v>8183.2025143234678</v>
+      </c>
+      <c r="AQ48" s="9">
+        <f t="shared" si="30"/>
+        <v>8428.6985897531722</v>
+      </c>
+      <c r="AR48" s="9">
+        <f t="shared" si="30"/>
+        <v>8681.5595474457677</v>
+      </c>
+      <c r="AS48" s="9">
+        <f t="shared" si="30"/>
+        <v>8942.0063338691416</v>
+      </c>
+      <c r="AT48" s="9">
+        <f t="shared" si="30"/>
+        <v>9210.2665238852169</v>
+      </c>
+      <c r="AU48" s="9">
+        <f t="shared" si="30"/>
+        <v>9486.5745196017742</v>
+      </c>
+      <c r="AV48" s="9">
+        <f t="shared" si="30"/>
+        <v>9771.1717551898273</v>
+      </c>
+      <c r="AW48" s="9">
+        <f t="shared" ref="AW48" si="33">AV48*1.03</f>
+        <v>10064.306907845523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="1">
+        <v>799</v>
+      </c>
+      <c r="K49" s="1">
+        <v>533</v>
+      </c>
+      <c r="L49" s="1">
+        <v>642</v>
+      </c>
+      <c r="M49">
+        <f>AF49-L49-K49-J49</f>
+        <v>785</v>
+      </c>
+      <c r="N49" s="1">
+        <v>856</v>
+      </c>
+      <c r="O49" s="1">
+        <v>788</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1178</v>
+      </c>
+      <c r="Q49">
+        <f>AG49-P49-O49-N49</f>
+        <v>797</v>
+      </c>
+      <c r="R49" s="1">
+        <v>862</v>
+      </c>
+      <c r="S49" s="1">
+        <v>752</v>
+      </c>
+      <c r="T49" s="9">
+        <v>764</v>
+      </c>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9">
+        <f>Q49*1.05</f>
+        <v>836.85</v>
+      </c>
+      <c r="W49" s="9">
+        <f>R49*1.05</f>
+        <v>905.1</v>
+      </c>
+      <c r="X49" s="9">
+        <f>S49*1.05</f>
+        <v>789.6</v>
+      </c>
+      <c r="Y49" s="9">
+        <f>T49*1.05</f>
+        <v>802.2</v>
+      </c>
+      <c r="Z49" s="9">
+        <f t="shared" ref="Z49:Z50" si="34">V49*1.05</f>
+        <v>878.69250000000011</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AD49" s="1">
+        <v>2762</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>2580</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>2759</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>3619</v>
+      </c>
+      <c r="AH49" s="9">
+        <f>SUM(R49:V49)</f>
+        <v>3214.85</v>
+      </c>
+      <c r="AI49" s="9">
         <f t="shared" si="29"/>
-        <v>54824.619314062489</v>
-      </c>
-      <c r="AM46" s="9">
+        <v>3375.5925000000002</v>
+      </c>
+      <c r="AJ49" s="9">
+        <f t="shared" si="30"/>
+        <v>3476.8602750000005</v>
+      </c>
+      <c r="AK49" s="9">
+        <f t="shared" si="30"/>
+        <v>3581.1660832500006</v>
+      </c>
+      <c r="AL49" s="9">
+        <f t="shared" si="30"/>
+        <v>3688.6010657475008</v>
+      </c>
+      <c r="AM49" s="9">
+        <f t="shared" si="30"/>
+        <v>3799.2590977199261</v>
+      </c>
+      <c r="AN49" s="9">
+        <f t="shared" si="30"/>
+        <v>3913.236870651524</v>
+      </c>
+      <c r="AO49" s="9">
+        <f t="shared" si="30"/>
+        <v>4030.6339767710697</v>
+      </c>
+      <c r="AP49" s="9">
+        <f t="shared" si="30"/>
+        <v>4151.5529960742015</v>
+      </c>
+      <c r="AQ49" s="9">
+        <f t="shared" si="30"/>
+        <v>4276.0995859564273</v>
+      </c>
+      <c r="AR49" s="9">
+        <f t="shared" si="30"/>
+        <v>4404.3825735351202</v>
+      </c>
+      <c r="AS49" s="9">
+        <f t="shared" si="30"/>
+        <v>4536.5140507411743</v>
+      </c>
+      <c r="AT49" s="9">
+        <f t="shared" si="30"/>
+        <v>4672.6094722634098</v>
+      </c>
+      <c r="AU49" s="9">
+        <f t="shared" si="30"/>
+        <v>4812.7877564313121</v>
+      </c>
+      <c r="AV49" s="9">
+        <f t="shared" si="30"/>
+        <v>4957.1713891242516</v>
+      </c>
+      <c r="AW49" s="9">
+        <f t="shared" ref="AW49" si="35">AV49*1.03</f>
+        <v>5105.8865307979795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="1">
+        <v>283</v>
+      </c>
+      <c r="K50" s="1">
+        <v>511</v>
+      </c>
+      <c r="L50" s="1">
+        <v>637</v>
+      </c>
+      <c r="M50">
+        <f>AF50-L50-K50-J50</f>
+        <v>618</v>
+      </c>
+      <c r="N50" s="1">
+        <v>478</v>
+      </c>
+      <c r="O50" s="1">
+        <v>492</v>
+      </c>
+      <c r="P50" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q50">
+        <f>AG50-P50-O50-N50</f>
+        <v>261</v>
+      </c>
+      <c r="R50" s="1">
+        <v>286</v>
+      </c>
+      <c r="S50" s="1">
+        <v>439</v>
+      </c>
+      <c r="T50" s="9">
+        <v>608</v>
+      </c>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9">
+        <f>Q50*1.05</f>
+        <v>274.05</v>
+      </c>
+      <c r="W50" s="9">
+        <f>R50*1.05</f>
+        <v>300.3</v>
+      </c>
+      <c r="X50" s="9">
+        <f>S50*1.05</f>
+        <v>460.95000000000005</v>
+      </c>
+      <c r="Y50" s="9">
+        <f>T50*1.05</f>
+        <v>638.4</v>
+      </c>
+      <c r="Z50" s="9">
+        <f t="shared" si="34"/>
+        <v>287.7525</v>
+      </c>
+      <c r="AA50" s="1"/>
+      <c r="AD50" s="1">
+        <v>355</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>2697</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>1482</v>
+      </c>
+      <c r="AH50" s="9">
+        <f>SUM(R50:V50)</f>
+        <v>1607.05</v>
+      </c>
+      <c r="AI50" s="9">
         <f t="shared" si="29"/>
-        <v>52083.38834835936</v>
-      </c>
-      <c r="AN46" s="9">
-        <f t="shared" si="29"/>
-        <v>49479.218930941388</v>
-      </c>
-      <c r="AO46" s="9">
-        <f t="shared" si="29"/>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AP46" s="9">
-        <f>AO46</f>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AQ46" s="9">
-        <f t="shared" ref="AQ46:AV46" si="30">AP46</f>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AR46" s="9">
+        <v>1687.4025000000001</v>
+      </c>
+      <c r="AJ50" s="9">
         <f t="shared" si="30"/>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AS46" s="9">
+        <v>1738.0245750000001</v>
+      </c>
+      <c r="AK50" s="9">
         <f t="shared" si="30"/>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AT46" s="9">
+        <v>1790.1653122500002</v>
+      </c>
+      <c r="AL50" s="9">
         <f t="shared" si="30"/>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AU46" s="9">
+        <v>1843.8702716175003</v>
+      </c>
+      <c r="AM50" s="9">
         <f t="shared" si="30"/>
-        <v>47005.257984394317</v>
-      </c>
-      <c r="AV46" s="9">
+        <v>1899.1863797660253</v>
+      </c>
+      <c r="AN50" s="9">
         <f t="shared" si="30"/>
-        <v>47005.257984394317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1">
-        <v>3509</v>
-      </c>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9"/>
-      <c r="AO47" s="9"/>
-      <c r="AP47" s="9"/>
-      <c r="AQ47" s="9"/>
-      <c r="AR47" s="9"/>
-      <c r="AS47" s="9"/>
-      <c r="AT47" s="9"/>
-      <c r="AU47" s="9"/>
-      <c r="AV47" s="9"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1">
-        <v>5801</v>
-      </c>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="9"/>
-      <c r="AN48" s="9"/>
-      <c r="AO48" s="9"/>
-      <c r="AP48" s="9"/>
-      <c r="AQ48" s="9"/>
-      <c r="AR48" s="9"/>
-      <c r="AS48" s="9"/>
-      <c r="AT48" s="9"/>
-      <c r="AU48" s="9"/>
-      <c r="AV48" s="9"/>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1">
-        <v>5820</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2316</v>
-      </c>
-      <c r="L49" s="1">
-        <v>3172</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="26"/>
-        <v>602</v>
-      </c>
-      <c r="N49" s="1">
-        <v>231</v>
-      </c>
-      <c r="O49" s="1">
-        <v>136</v>
-      </c>
-      <c r="P49" s="1">
-        <v>236</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="27"/>
-        <v>354</v>
-      </c>
-      <c r="R49" s="1">
-        <v>1271</v>
-      </c>
-      <c r="S49" s="1"/>
-      <c r="T49">
-        <f>P49*1.5</f>
-        <v>354</v>
-      </c>
-      <c r="U49">
-        <f t="shared" ref="U49:Y49" si="31">Q49*1.5</f>
-        <v>531</v>
-      </c>
-      <c r="V49" s="9">
-        <f t="shared" si="31"/>
-        <v>1906.5</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="31"/>
+        <v>1956.161971159006</v>
+      </c>
+      <c r="AO50" s="9">
+        <f t="shared" si="30"/>
+        <v>2014.8468302937763</v>
+      </c>
+      <c r="AP50" s="9">
+        <f t="shared" si="30"/>
+        <v>2075.2922352025898</v>
+      </c>
+      <c r="AQ50" s="9">
+        <f t="shared" si="30"/>
+        <v>2137.5510022586677</v>
+      </c>
+      <c r="AR50" s="9">
+        <f t="shared" si="30"/>
+        <v>2201.6775323264278</v>
+      </c>
+      <c r="AS50" s="9">
+        <f t="shared" si="30"/>
+        <v>2267.7278582962208</v>
+      </c>
+      <c r="AT50" s="9">
+        <f t="shared" si="30"/>
+        <v>2335.7596940451076</v>
+      </c>
+      <c r="AU50" s="9">
+        <f t="shared" si="30"/>
+        <v>2405.8324848664611</v>
+      </c>
+      <c r="AV50" s="9">
+        <f t="shared" si="30"/>
+        <v>2478.0074594124549</v>
+      </c>
+      <c r="AW50" s="9">
+        <f t="shared" ref="AW50" si="36">AV50*1.03</f>
+        <v>2552.3476831948287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X49">
-        <f t="shared" si="31"/>
-        <v>531</v>
-      </c>
-      <c r="Y49" s="9">
-        <f t="shared" si="31"/>
-        <v>796.5</v>
-      </c>
-      <c r="Z49" s="1"/>
-      <c r="AC49" s="1">
-        <v>9069</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>24424</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>11910</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>957</v>
-      </c>
-      <c r="AG49" s="9">
-        <f t="shared" ref="AG49:AG52" si="32">SUM(R49:U49)</f>
-        <v>2156</v>
-      </c>
-      <c r="AH49" s="9">
-        <f t="shared" ref="AH49:AH52" si="33">SUM(V49:Y49)</f>
-        <v>3234</v>
-      </c>
-      <c r="AI49" s="9">
-        <f t="shared" ref="AI49:AU52" si="34">AH49*1.03</f>
-        <v>3331.02</v>
-      </c>
-      <c r="AJ49" s="9">
-        <f t="shared" si="34"/>
-        <v>3430.9506000000001</v>
-      </c>
-      <c r="AK49" s="9">
-        <f t="shared" si="34"/>
-        <v>3533.8791180000003</v>
-      </c>
-      <c r="AL49" s="9">
-        <f t="shared" si="34"/>
-        <v>3639.8954915400004</v>
-      </c>
-      <c r="AM49" s="9">
-        <f t="shared" si="34"/>
-        <v>3749.0923562862004</v>
-      </c>
-      <c r="AN49" s="9">
-        <f t="shared" si="34"/>
-        <v>3861.5651269747864</v>
-      </c>
-      <c r="AO49" s="9">
-        <f t="shared" si="34"/>
-        <v>3977.41208078403</v>
-      </c>
-      <c r="AP49" s="9">
-        <f t="shared" si="34"/>
-        <v>4096.7344432075506</v>
-      </c>
-      <c r="AQ49" s="9">
-        <f t="shared" si="34"/>
-        <v>4219.636476503777</v>
-      </c>
-      <c r="AR49" s="9">
-        <f t="shared" si="34"/>
-        <v>4346.2255707988907</v>
-      </c>
-      <c r="AS49" s="9">
-        <f t="shared" si="34"/>
-        <v>4476.6123379228575</v>
-      </c>
-      <c r="AT49" s="9">
-        <f t="shared" si="34"/>
-        <v>4610.9107080605436</v>
-      </c>
-      <c r="AU49" s="9">
-        <f t="shared" si="34"/>
-        <v>4749.2380293023598</v>
-      </c>
-      <c r="AV49" s="9">
-        <f t="shared" ref="AV49" si="35">AU49*1.03</f>
-        <v>4891.7151701814309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="J51" s="2">
+        <f>J50+J49+J48+J47+J46</f>
+        <v>14448</v>
+      </c>
+      <c r="K51" s="2">
+        <f>K50+K49+K48+K47+K46</f>
+        <v>14802</v>
+      </c>
+      <c r="L51" s="2">
+        <f>L50+L49+L48+L47+L46</f>
+        <v>17597</v>
+      </c>
+      <c r="M51" s="2">
+        <f>M50+M49+M48+M47+M46</f>
+        <v>15723</v>
+      </c>
+      <c r="N51" s="2">
+        <f>N50+N49+N48+N47+N46</f>
+        <v>15030</v>
+      </c>
+      <c r="O51" s="2">
+        <f>O50+O49+O48+O47+O46</f>
+        <v>15396</v>
+      </c>
+      <c r="P51" s="2">
+        <f>P50+P49+P48+P47+P46</f>
+        <v>13116</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>Q50+Q49+Q48+Q47+Q46</f>
+        <v>12092</v>
+      </c>
+      <c r="R51" s="2">
+        <f>R50+R49+R48+R47+R46</f>
+        <v>15935</v>
+      </c>
+      <c r="S51" s="2">
+        <f>S50+S49+S48+S47+S46</f>
+        <v>11883</v>
+      </c>
+      <c r="T51" s="2">
+        <f>T50+T49+T48+T47+T46</f>
+        <v>10785</v>
+      </c>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24">
+        <f>V50+V49+V48+V47+V46</f>
+        <v>16889.25</v>
+      </c>
+      <c r="W51" s="24">
+        <f>W50+W49+W48+W47+W46</f>
+        <v>22620.9</v>
+      </c>
+      <c r="X51" s="24">
+        <f>X50+X49+X48+X47+X46</f>
+        <v>16654.95</v>
+      </c>
+      <c r="Y51" s="24">
+        <f>Y50+Y49+Y48+Y47+Y46</f>
+        <v>12864.65</v>
+      </c>
+      <c r="Z51" s="24">
+        <f>Z50+Z49+Z48+Z47+Z46</f>
+        <v>20661.5625</v>
+      </c>
+      <c r="AD51" s="2">
+        <f>AD50+AD49+AD48+AD47+AD46</f>
+        <v>32350</v>
+      </c>
+      <c r="AE51" s="2">
+        <f>AE50+AE49+AE48+AE47+AE46</f>
+        <v>61788</v>
+      </c>
+      <c r="AF51" s="2">
+        <f>AF50+AF49+AF48+AF47+AF46</f>
+        <v>62570</v>
+      </c>
+      <c r="AG51" s="2">
+        <f>AG50+AG49+AG48+AG47+AG46</f>
+        <v>55634</v>
+      </c>
+      <c r="AH51" s="2">
+        <f>AH50+AH49+AH48+AH47+AH46</f>
+        <v>55492.25</v>
+      </c>
+      <c r="AI51" s="24">
+        <f>AI50+AI49+AI48+AI47+AI46</f>
+        <v>72802.0625</v>
+      </c>
+      <c r="AJ51" s="24">
+        <f>AJ50+AJ49+AJ48+AJ47+AJ46</f>
+        <v>70352.974375000005</v>
+      </c>
+      <c r="AK51" s="24">
+        <f>AK50+AK49+AK48+AK47+AK46</f>
+        <v>68062.07110624999</v>
+      </c>
+      <c r="AL51" s="24">
+        <f>AL50+AL49+AL48+AL47+AL46</f>
+        <v>65922.515364437495</v>
+      </c>
+      <c r="AM51" s="24">
+        <f>AM50+AM49+AM48+AM47+AM46</f>
+        <v>63927.843844120616</v>
+      </c>
+      <c r="AN51" s="24">
+        <f>AN50+AN49+AN48+AN47+AN46</f>
+        <v>62071.949527256729</v>
+      </c>
+      <c r="AO51" s="24">
+        <f>AO50+AO49+AO48+AO47+AO46</f>
+        <v>60349.064862496307</v>
+      </c>
+      <c r="AP51" s="24">
+        <f>AP50+AP49+AP48+AP47+AP46</f>
+        <v>58753.745815321978</v>
+      </c>
+      <c r="AQ51" s="24">
+        <f>AQ50+AQ49+AQ48+AQ47+AQ46</f>
+        <v>59303.045148507852</v>
+      </c>
+      <c r="AR51" s="24">
+        <f>AR50+AR49+AR48+AR47+AR46</f>
+        <v>59868.82346168931</v>
+      </c>
+      <c r="AS51" s="24">
+        <f>AS50+AS49+AS48+AS47+AS46</f>
+        <v>60451.575124266208</v>
+      </c>
+      <c r="AT51" s="24">
+        <f>AT50+AT49+AT48+AT47+AT46</f>
+        <v>61051.809336720413</v>
+      </c>
+      <c r="AU51" s="24">
+        <f>AU50+AU49+AU48+AU47+AU46</f>
+        <v>61670.050575548237</v>
+      </c>
+      <c r="AV51" s="24">
+        <f>AV50+AV49+AV48+AV47+AV46</f>
+        <v>62306.839051540897</v>
+      </c>
+      <c r="AW51" s="24">
+        <f>AW50+AW49+AW48+AW47+AW46</f>
+        <v>62962.731181813346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1771</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1826</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1511</v>
+      </c>
+      <c r="M53">
+        <f>AF53-L53-K53-J53</f>
+        <v>1232</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1619</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1359</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1341</v>
+      </c>
+      <c r="Q53">
+        <f>AG53-P53-O53-N53</f>
+        <v>2535</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1487</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1605</v>
+      </c>
+      <c r="T53" s="64">
+        <v>2062</v>
+      </c>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9">
+        <f>Q53*1.05</f>
+        <v>2661.75</v>
+      </c>
+      <c r="W53" s="9">
+        <f>R53*1.05</f>
+        <v>1561.3500000000001</v>
+      </c>
+      <c r="X53" s="9">
+        <f>S53*1.05</f>
+        <v>1685.25</v>
+      </c>
+      <c r="Y53" s="9">
+        <f>T53*1.05</f>
+        <v>2165.1</v>
+      </c>
+      <c r="Z53" s="9">
+        <f t="shared" ref="Z53" si="37">V53*1.05</f>
+        <v>2794.8375000000001</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AD53" s="1">
+        <v>4397</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>8451</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>6854</v>
+      </c>
+      <c r="AH53" s="9">
+        <f>SUM(R53:V53)</f>
+        <v>7815.75</v>
+      </c>
+      <c r="AI53" s="9">
+        <f>SUM(W53:Z53)</f>
+        <v>8206.5375000000004</v>
+      </c>
+      <c r="AJ53" s="9">
+        <f>AI53*1.03</f>
+        <v>8452.7336250000008</v>
+      </c>
+      <c r="AK53" s="9">
+        <f t="shared" ref="AK53:AW53" si="38">AJ53*1.03</f>
+        <v>8706.3156337500004</v>
+      </c>
+      <c r="AL53" s="9">
+        <f t="shared" si="38"/>
+        <v>8967.5051027625013</v>
+      </c>
+      <c r="AM53" s="9">
+        <f t="shared" si="38"/>
+        <v>9236.5302558453768</v>
+      </c>
+      <c r="AN53" s="9">
+        <f t="shared" si="38"/>
+        <v>9513.6261635207375</v>
+      </c>
+      <c r="AO53" s="9">
+        <f t="shared" si="38"/>
+        <v>9799.0349484263606</v>
+      </c>
+      <c r="AP53" s="9">
+        <f t="shared" si="38"/>
+        <v>10093.005996879152</v>
+      </c>
+      <c r="AQ53" s="9">
+        <f t="shared" si="38"/>
+        <v>10395.796176785527</v>
+      </c>
+      <c r="AR53" s="9">
+        <f t="shared" si="38"/>
+        <v>10707.670062089093</v>
+      </c>
+      <c r="AS53" s="9">
+        <f t="shared" si="38"/>
+        <v>11028.900163951766</v>
+      </c>
+      <c r="AT53" s="9">
+        <f t="shared" si="38"/>
+        <v>11359.767168870319</v>
+      </c>
+      <c r="AU53" s="9">
+        <f t="shared" si="38"/>
+        <v>11700.56018393643</v>
+      </c>
+      <c r="AV53" s="9">
+        <f t="shared" si="38"/>
+        <v>12051.576989454523</v>
+      </c>
+      <c r="AW53" s="9">
+        <f t="shared" si="38"/>
+        <v>12413.124299138159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1932</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2695</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3111</v>
+      </c>
+      <c r="M54">
+        <f>AF54-L54-K54-J54</f>
+        <v>3603</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1288</v>
+      </c>
+      <c r="O54" s="1">
+        <v>241</v>
+      </c>
+      <c r="P54" s="1">
+        <v>315</v>
+      </c>
+      <c r="Q54">
+        <f>AG54-P54-O54-N54</f>
+        <v>349</v>
+      </c>
+      <c r="R54" s="1">
+        <v>143</v>
+      </c>
+      <c r="S54" s="1">
+        <v>228</v>
+      </c>
+      <c r="T54" s="1">
+        <v>-450</v>
+      </c>
+      <c r="V54">
+        <f>Q54*2</f>
+        <v>698</v>
+      </c>
+      <c r="W54">
+        <f>R54*2</f>
+        <v>286</v>
+      </c>
+      <c r="X54">
+        <f>S54*2</f>
+        <v>456</v>
+      </c>
+      <c r="Y54">
+        <f>T54*2</f>
+        <v>-900</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" ref="Z54" si="39">V54*2</f>
+        <v>1396</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1">
+        <v>5746</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>11341</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>2193</v>
+      </c>
+      <c r="AH54" s="9">
+        <f>SUM(R54:V54)</f>
+        <v>619</v>
+      </c>
+      <c r="AI54" s="9">
+        <f t="shared" ref="AI54:AI58" si="40">SUM(W54:Z54)</f>
+        <v>1238</v>
+      </c>
+      <c r="AJ54" s="9">
+        <f t="shared" ref="AJ54:AW54" si="41">AI54*1.03</f>
+        <v>1275.1400000000001</v>
+      </c>
+      <c r="AK54" s="9">
+        <f t="shared" si="41"/>
+        <v>1313.3942000000002</v>
+      </c>
+      <c r="AL54" s="9">
+        <f t="shared" si="41"/>
+        <v>1352.7960260000002</v>
+      </c>
+      <c r="AM54" s="9">
+        <f t="shared" si="41"/>
+        <v>1393.3799067800003</v>
+      </c>
+      <c r="AN54" s="9">
+        <f t="shared" si="41"/>
+        <v>1435.1813039834003</v>
+      </c>
+      <c r="AO54" s="9">
+        <f t="shared" si="41"/>
+        <v>1478.2367431029024</v>
+      </c>
+      <c r="AP54" s="9">
+        <f t="shared" si="41"/>
+        <v>1522.5838453959896</v>
+      </c>
+      <c r="AQ54" s="9">
+        <f t="shared" si="41"/>
+        <v>1568.2613607578692</v>
+      </c>
+      <c r="AR54" s="9">
+        <f t="shared" si="41"/>
+        <v>1615.3092015806053</v>
+      </c>
+      <c r="AS54" s="9">
+        <f t="shared" si="41"/>
+        <v>1663.7684776280234</v>
+      </c>
+      <c r="AT54" s="9">
+        <f t="shared" si="41"/>
+        <v>1713.6815319568641</v>
+      </c>
+      <c r="AU54" s="9">
+        <f t="shared" si="41"/>
+        <v>1765.0919779155702</v>
+      </c>
+      <c r="AV54" s="9">
+        <f t="shared" si="41"/>
+        <v>1818.0447372530373</v>
+      </c>
+      <c r="AW54" s="9">
+        <f t="shared" si="41"/>
+        <v>1872.5860793706283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="J50" s="1">
-        <v>1092</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1270</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1368</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="26"/>
-        <v>1799</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1937</v>
-      </c>
-      <c r="O50" s="1">
-        <v>1578</v>
-      </c>
-      <c r="P50" s="1">
-        <v>1416</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="27"/>
-        <v>1717</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1700</v>
-      </c>
-      <c r="S50" s="1">
-        <v>1408</v>
-      </c>
-      <c r="T50" s="9">
-        <f>P50*1.05</f>
-        <v>1486.8</v>
-      </c>
-      <c r="U50" s="9">
-        <f t="shared" ref="U50" si="36">Q50*1.05</f>
-        <v>1802.8500000000001</v>
-      </c>
-      <c r="V50" s="9">
-        <f t="shared" ref="V50" si="37">R50*1.05</f>
-        <v>1785</v>
-      </c>
-      <c r="W50" s="9">
-        <f t="shared" ref="W50" si="38">S50*1.05</f>
-        <v>1478.4</v>
-      </c>
-      <c r="X50" s="9">
-        <f t="shared" ref="X50" si="39">T50*1.05</f>
-        <v>1561.14</v>
-      </c>
-      <c r="Y50" s="9">
-        <f t="shared" ref="Y50" si="40">U50*1.05</f>
-        <v>1892.9925000000003</v>
-      </c>
-      <c r="Z50" s="1"/>
-      <c r="AC50" s="1">
-        <v>2728</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>3351</v>
-      </c>
-      <c r="AE50" s="1">
-        <v>5529</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>6648</v>
-      </c>
-      <c r="AG50" s="9">
-        <f t="shared" si="32"/>
-        <v>6397.6500000000005</v>
-      </c>
-      <c r="AH50" s="9">
-        <f t="shared" si="33"/>
-        <v>6717.5325000000003</v>
-      </c>
-      <c r="AI50" s="9">
-        <f t="shared" si="34"/>
-        <v>6919.0584750000007</v>
-      </c>
-      <c r="AJ50" s="9">
-        <f t="shared" si="34"/>
-        <v>7126.6302292500013</v>
-      </c>
-      <c r="AK50" s="9">
-        <f t="shared" si="34"/>
-        <v>7340.4291361275018</v>
-      </c>
-      <c r="AL50" s="9">
-        <f t="shared" si="34"/>
-        <v>7560.642010211327</v>
-      </c>
-      <c r="AM50" s="9">
-        <f t="shared" si="34"/>
-        <v>7787.4612705176669</v>
-      </c>
-      <c r="AN50" s="9">
-        <f t="shared" si="34"/>
-        <v>8021.0851086331968</v>
-      </c>
-      <c r="AO50" s="9">
-        <f t="shared" si="34"/>
-        <v>8261.7176618921931</v>
-      </c>
-      <c r="AP50" s="9">
-        <f t="shared" si="34"/>
-        <v>8509.5691917489585</v>
-      </c>
-      <c r="AQ50" s="9">
-        <f t="shared" si="34"/>
-        <v>8764.8562675014273</v>
-      </c>
-      <c r="AR50" s="9">
-        <f t="shared" si="34"/>
-        <v>9027.8019555264709</v>
-      </c>
-      <c r="AS50" s="9">
-        <f t="shared" si="34"/>
-        <v>9298.6360141922651</v>
-      </c>
-      <c r="AT50" s="9">
-        <f t="shared" si="34"/>
-        <v>9577.5950946180328</v>
-      </c>
-      <c r="AU50" s="9">
-        <f t="shared" si="34"/>
-        <v>9864.9229474565745</v>
-      </c>
-      <c r="AV50" s="9">
-        <f t="shared" ref="AV50" si="41">AU50*1.03</f>
-        <v>10160.870635880272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="J55" s="1">
+        <v>1544</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1725</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1653</v>
+      </c>
+      <c r="M55">
+        <f>AF55-L55-K55-J55</f>
+        <v>1695</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1768</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1294</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1157</v>
+      </c>
+      <c r="Q55">
+        <f>AG55-P55-O55-N55</f>
+        <v>1318</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1227</v>
+      </c>
+      <c r="S55" s="1">
+        <v>889</v>
+      </c>
+      <c r="T55" s="64">
+        <v>736</v>
+      </c>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9">
+        <f>Q55*1.05</f>
+        <v>1383.9</v>
+      </c>
+      <c r="W55" s="9">
+        <f>R55*1.05</f>
+        <v>1288.3500000000001</v>
+      </c>
+      <c r="X55" s="9">
+        <f>S55*1.05</f>
+        <v>933.45</v>
+      </c>
+      <c r="Y55" s="9">
+        <f>T55*1.05</f>
+        <v>772.80000000000007</v>
+      </c>
+      <c r="Z55" s="9">
+        <f t="shared" ref="Z55:Z58" si="42">V55*1.05</f>
+        <v>1453.0950000000003</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AD55" s="1">
+        <v>1462</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>5651</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>6617</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>5537</v>
+      </c>
+      <c r="AH55" s="9">
+        <f>SUM(R55:V55)</f>
+        <v>4235.8999999999996</v>
+      </c>
+      <c r="AI55" s="9">
+        <f t="shared" si="40"/>
+        <v>4447.6950000000006</v>
+      </c>
+      <c r="AJ55" s="9">
+        <f t="shared" ref="AJ55:AW55" si="43">AI55*1.03</f>
+        <v>4581.1258500000004</v>
+      </c>
+      <c r="AK55" s="9">
+        <f t="shared" si="43"/>
+        <v>4718.5596255</v>
+      </c>
+      <c r="AL55" s="9">
+        <f t="shared" si="43"/>
+        <v>4860.1164142650005</v>
+      </c>
+      <c r="AM55" s="9">
+        <f t="shared" si="43"/>
+        <v>5005.9199066929505</v>
+      </c>
+      <c r="AN55" s="9">
+        <f t="shared" si="43"/>
+        <v>5156.0975038937395</v>
+      </c>
+      <c r="AO55" s="9">
+        <f t="shared" si="43"/>
+        <v>5310.7804290105514</v>
+      </c>
+      <c r="AP55" s="9">
+        <f t="shared" si="43"/>
+        <v>5470.1038418808685</v>
+      </c>
+      <c r="AQ55" s="9">
+        <f t="shared" si="43"/>
+        <v>5634.2069571372949</v>
+      </c>
+      <c r="AR55" s="9">
+        <f t="shared" si="43"/>
+        <v>5803.233165851414</v>
+      </c>
+      <c r="AS55" s="9">
+        <f t="shared" si="43"/>
+        <v>5977.3301608269567</v>
+      </c>
+      <c r="AT55" s="9">
+        <f t="shared" si="43"/>
+        <v>6156.6500656517655</v>
+      </c>
+      <c r="AU55" s="9">
+        <f t="shared" si="43"/>
+        <v>6341.3495676213188</v>
+      </c>
+      <c r="AV55" s="9">
+        <f t="shared" si="43"/>
+        <v>6531.5900546499588</v>
+      </c>
+      <c r="AW55" s="9">
+        <f t="shared" si="43"/>
+        <v>6727.5377562894573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="1">
-        <v>799</v>
-      </c>
-      <c r="K51" s="1">
-        <v>533</v>
-      </c>
-      <c r="L51" s="1">
-        <v>642</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="26"/>
-        <v>785</v>
-      </c>
-      <c r="N51" s="1">
-        <v>856</v>
-      </c>
-      <c r="O51" s="1">
-        <v>788</v>
-      </c>
-      <c r="P51" s="1">
-        <v>1178</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="27"/>
-        <v>797</v>
-      </c>
-      <c r="R51" s="1">
-        <v>862</v>
-      </c>
-      <c r="S51" s="1">
-        <v>752</v>
-      </c>
-      <c r="T51" s="9">
-        <f t="shared" ref="T51" si="42">P51*1.05</f>
-        <v>1236.9000000000001</v>
-      </c>
-      <c r="U51" s="9">
-        <f t="shared" ref="U51:U52" si="43">Q51*1.05</f>
-        <v>836.85</v>
-      </c>
-      <c r="V51" s="9">
-        <f t="shared" ref="V51:V52" si="44">R51*1.05</f>
-        <v>905.1</v>
-      </c>
-      <c r="W51" s="9">
-        <f t="shared" ref="W51:W52" si="45">S51*1.05</f>
-        <v>789.6</v>
-      </c>
-      <c r="X51" s="9">
-        <f t="shared" ref="X51:X52" si="46">T51*1.05</f>
-        <v>1298.7450000000001</v>
-      </c>
-      <c r="Y51" s="9">
-        <f t="shared" ref="Y51:Y52" si="47">U51*1.05</f>
-        <v>878.69250000000011</v>
-      </c>
-      <c r="Z51" s="1"/>
-      <c r="AC51" s="1">
-        <v>2762</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>2580</v>
-      </c>
-      <c r="AE51" s="1">
-        <v>2759</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>3619</v>
-      </c>
-      <c r="AG51" s="9">
-        <f t="shared" si="32"/>
-        <v>3687.75</v>
-      </c>
-      <c r="AH51" s="9">
-        <f t="shared" si="33"/>
-        <v>3872.1375000000003</v>
-      </c>
-      <c r="AI51" s="9">
-        <f t="shared" si="34"/>
-        <v>3988.3016250000005</v>
-      </c>
-      <c r="AJ51" s="9">
-        <f t="shared" si="34"/>
-        <v>4107.9506737500005</v>
-      </c>
-      <c r="AK51" s="9">
-        <f t="shared" si="34"/>
-        <v>4231.1891939625002</v>
-      </c>
-      <c r="AL51" s="9">
-        <f t="shared" si="34"/>
-        <v>4358.1248697813753</v>
-      </c>
-      <c r="AM51" s="9">
-        <f t="shared" si="34"/>
-        <v>4488.8686158748169</v>
-      </c>
-      <c r="AN51" s="9">
-        <f t="shared" si="34"/>
-        <v>4623.5346743510618</v>
-      </c>
-      <c r="AO51" s="9">
-        <f t="shared" si="34"/>
-        <v>4762.2407145815941</v>
-      </c>
-      <c r="AP51" s="9">
-        <f t="shared" si="34"/>
-        <v>4905.1079360190424</v>
-      </c>
-      <c r="AQ51" s="9">
-        <f t="shared" si="34"/>
-        <v>5052.2611740996135</v>
-      </c>
-      <c r="AR51" s="9">
-        <f t="shared" si="34"/>
-        <v>5203.8290093226024</v>
-      </c>
-      <c r="AS51" s="9">
-        <f t="shared" si="34"/>
-        <v>5359.9438796022805</v>
-      </c>
-      <c r="AT51" s="9">
-        <f t="shared" si="34"/>
-        <v>5520.7421959903495</v>
-      </c>
-      <c r="AU51" s="9">
-        <f t="shared" si="34"/>
-        <v>5686.36446187006</v>
-      </c>
-      <c r="AV51" s="9">
-        <f t="shared" ref="AV51" si="48">AU51*1.03</f>
-        <v>5856.9553957261624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="1">
-        <v>283</v>
-      </c>
-      <c r="K52" s="1">
-        <v>511</v>
-      </c>
-      <c r="L52" s="1">
-        <v>637</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="26"/>
-        <v>618</v>
-      </c>
-      <c r="N52" s="1">
-        <v>478</v>
-      </c>
-      <c r="O52" s="1">
-        <v>492</v>
-      </c>
-      <c r="P52" s="1">
-        <v>251</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="27"/>
-        <v>261</v>
-      </c>
-      <c r="R52" s="1">
-        <v>286</v>
-      </c>
-      <c r="S52" s="1">
-        <v>413</v>
-      </c>
-      <c r="T52" s="9">
-        <f>P52*1.05</f>
-        <v>263.55</v>
-      </c>
-      <c r="U52" s="9">
-        <f t="shared" si="43"/>
-        <v>274.05</v>
-      </c>
-      <c r="V52" s="9">
+      <c r="J56" s="1">
+        <v>2182</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2169</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2003</v>
+      </c>
+      <c r="M56">
+        <f>AF56-L56-K56-J56</f>
+        <v>2064</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1221</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1443</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1678</v>
+      </c>
+      <c r="Q56">
+        <f>AG56-P56-O56-N56</f>
+        <v>1201</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1192</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1091</v>
+      </c>
+      <c r="T56" s="64">
+        <v>1072</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9">
+        <f>Q56*1.05</f>
+        <v>1261.05</v>
+      </c>
+      <c r="W56" s="9">
+        <f>R56*1.05</f>
+        <v>1251.6000000000001</v>
+      </c>
+      <c r="X56" s="9">
+        <f>S56*1.05</f>
+        <v>1145.55</v>
+      </c>
+      <c r="Y56" s="9">
+        <f>T56*1.05</f>
+        <v>1125.6000000000001</v>
+      </c>
+      <c r="Z56" s="9">
+        <f t="shared" si="42"/>
+        <v>1324.1025</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AD56" s="1">
+        <v>3409</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>5446</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>8418</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>5543</v>
+      </c>
+      <c r="AH56" s="9">
+        <f>SUM(R56:V56)</f>
+        <v>4616.05</v>
+      </c>
+      <c r="AI56" s="9">
+        <f t="shared" si="40"/>
+        <v>4846.8525</v>
+      </c>
+      <c r="AJ56" s="9">
+        <f t="shared" ref="AJ56:AW56" si="44">AI56*1.03</f>
+        <v>4992.2580749999997</v>
+      </c>
+      <c r="AK56" s="9">
         <f t="shared" si="44"/>
-        <v>300.3</v>
-      </c>
-      <c r="W52" s="9">
+        <v>5142.0258172499998</v>
+      </c>
+      <c r="AL56" s="9">
+        <f t="shared" si="44"/>
+        <v>5296.2865917674999</v>
+      </c>
+      <c r="AM56" s="9">
+        <f t="shared" si="44"/>
+        <v>5455.1751895205252</v>
+      </c>
+      <c r="AN56" s="9">
+        <f t="shared" si="44"/>
+        <v>5618.8304452061411</v>
+      </c>
+      <c r="AO56" s="9">
+        <f t="shared" si="44"/>
+        <v>5787.3953585623258</v>
+      </c>
+      <c r="AP56" s="9">
+        <f t="shared" si="44"/>
+        <v>5961.0172193191956</v>
+      </c>
+      <c r="AQ56" s="9">
+        <f t="shared" si="44"/>
+        <v>6139.847735898772</v>
+      </c>
+      <c r="AR56" s="9">
+        <f t="shared" si="44"/>
+        <v>6324.0431679757357</v>
+      </c>
+      <c r="AS56" s="9">
+        <f t="shared" si="44"/>
+        <v>6513.764463015008</v>
+      </c>
+      <c r="AT56" s="9">
+        <f t="shared" si="44"/>
+        <v>6709.1773969054584</v>
+      </c>
+      <c r="AU56" s="9">
+        <f t="shared" si="44"/>
+        <v>6910.4527188126222</v>
+      </c>
+      <c r="AV56" s="9">
+        <f t="shared" si="44"/>
+        <v>7117.7663003770012</v>
+      </c>
+      <c r="AW56" s="9">
+        <f t="shared" si="44"/>
+        <v>7331.2992893883111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1010</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1084</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1152</v>
+      </c>
+      <c r="M57">
+        <f>AF57-L57-K57-J57</f>
+        <v>1153</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1125</v>
+      </c>
+      <c r="O57" s="1">
+        <v>945</v>
+      </c>
+      <c r="P57" s="1">
+        <v>810</v>
+      </c>
+      <c r="Q57">
+        <f>AG57-P57-O57-N57</f>
+        <v>802</v>
+      </c>
+      <c r="R57" s="1">
+        <v>798</v>
+      </c>
+      <c r="S57" s="1">
+        <v>607</v>
+      </c>
+      <c r="T57" s="64">
+        <v>441</v>
+      </c>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9">
+        <f>Q57*1.05</f>
+        <v>842.1</v>
+      </c>
+      <c r="W57" s="9">
+        <f>R57*1.05</f>
+        <v>837.90000000000009</v>
+      </c>
+      <c r="X57" s="9">
+        <f>S57*1.05</f>
+        <v>637.35</v>
+      </c>
+      <c r="Y57" s="9">
+        <f>T57*1.05</f>
+        <v>463.05</v>
+      </c>
+      <c r="Z57" s="9">
+        <f t="shared" si="42"/>
+        <v>884.20500000000004</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AD57" s="1">
+        <v>1993</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>3764</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>4399</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>3682</v>
+      </c>
+      <c r="AH57" s="9">
+        <f>SUM(R57:V57)</f>
+        <v>2688.1</v>
+      </c>
+      <c r="AI57" s="9">
+        <f t="shared" si="40"/>
+        <v>2822.5050000000001</v>
+      </c>
+      <c r="AJ57" s="9">
+        <f t="shared" ref="AJ57:AW57" si="45">AI57*1.03</f>
+        <v>2907.1801500000001</v>
+      </c>
+      <c r="AK57" s="9">
         <f t="shared" si="45"/>
-        <v>433.65000000000003</v>
-      </c>
-      <c r="X52" s="9">
+        <v>2994.3955545000003</v>
+      </c>
+      <c r="AL57" s="9">
+        <f t="shared" si="45"/>
+        <v>3084.2274211350004</v>
+      </c>
+      <c r="AM57" s="9">
+        <f t="shared" si="45"/>
+        <v>3176.7542437690504</v>
+      </c>
+      <c r="AN57" s="9">
+        <f t="shared" si="45"/>
+        <v>3272.0568710821221</v>
+      </c>
+      <c r="AO57" s="9">
+        <f t="shared" si="45"/>
+        <v>3370.2185772145858</v>
+      </c>
+      <c r="AP57" s="9">
+        <f t="shared" si="45"/>
+        <v>3471.3251345310237</v>
+      </c>
+      <c r="AQ57" s="9">
+        <f t="shared" si="45"/>
+        <v>3575.4648885669544</v>
+      </c>
+      <c r="AR57" s="9">
+        <f t="shared" si="45"/>
+        <v>3682.728835223963</v>
+      </c>
+      <c r="AS57" s="9">
+        <f t="shared" si="45"/>
+        <v>3793.210700280682</v>
+      </c>
+      <c r="AT57" s="9">
+        <f t="shared" si="45"/>
+        <v>3907.0070212891023</v>
+      </c>
+      <c r="AU57" s="9">
+        <f t="shared" si="45"/>
+        <v>4024.2172319277756</v>
+      </c>
+      <c r="AV57" s="9">
+        <f t="shared" si="45"/>
+        <v>4144.9437488856092</v>
+      </c>
+      <c r="AW57" s="9">
+        <f t="shared" si="45"/>
+        <v>4269.2920613521774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1312</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1574</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1403</v>
+      </c>
+      <c r="M58">
+        <f>AF58-L58-K58-J58</f>
+        <v>1644</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1050</v>
+      </c>
+      <c r="O58" s="1">
+        <v>843</v>
+      </c>
+      <c r="P58" s="1">
+        <v>939</v>
+      </c>
+      <c r="Q58">
+        <f>AG58-P58-O58-N58</f>
+        <v>675</v>
+      </c>
+      <c r="R58" s="1">
+        <v>736</v>
+      </c>
+      <c r="S58" s="1">
+        <v>873</v>
+      </c>
+      <c r="T58" s="64">
+        <v>849</v>
+      </c>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9">
+        <f>Q58*1.05</f>
+        <v>708.75</v>
+      </c>
+      <c r="W58" s="9">
+        <f>R58*1.05</f>
+        <v>772.80000000000007</v>
+      </c>
+      <c r="X58" s="9">
+        <f>S58*1.05</f>
+        <v>916.65000000000009</v>
+      </c>
+      <c r="Y58" s="9">
+        <f>T58*1.05</f>
+        <v>891.45</v>
+      </c>
+      <c r="Z58" s="9">
+        <f t="shared" si="42"/>
+        <v>744.1875</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AD58" s="1">
+        <v>1971</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>3620</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>5933</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>3507</v>
+      </c>
+      <c r="AH58" s="9">
+        <f>SUM(R58:V58)</f>
+        <v>3166.75</v>
+      </c>
+      <c r="AI58" s="9">
+        <f t="shared" si="40"/>
+        <v>3325.0875000000005</v>
+      </c>
+      <c r="AJ58" s="9">
+        <f t="shared" ref="AJ58:AW58" si="46">AI58*1.03</f>
+        <v>3424.8401250000006</v>
+      </c>
+      <c r="AK58" s="9">
         <f t="shared" si="46"/>
-        <v>276.72750000000002</v>
-      </c>
-      <c r="Y52" s="9">
+        <v>3527.5853287500008</v>
+      </c>
+      <c r="AL58" s="9">
+        <f t="shared" si="46"/>
+        <v>3633.4128886125009</v>
+      </c>
+      <c r="AM58" s="9">
+        <f t="shared" si="46"/>
+        <v>3742.415275270876</v>
+      </c>
+      <c r="AN58" s="9">
+        <f t="shared" si="46"/>
+        <v>3854.6877335290023</v>
+      </c>
+      <c r="AO58" s="9">
+        <f t="shared" si="46"/>
+        <v>3970.3283655348723</v>
+      </c>
+      <c r="AP58" s="9">
+        <f t="shared" si="46"/>
+        <v>4089.4382165009188</v>
+      </c>
+      <c r="AQ58" s="9">
+        <f t="shared" si="46"/>
+        <v>4212.1213629959466</v>
+      </c>
+      <c r="AR58" s="9">
+        <f t="shared" si="46"/>
+        <v>4338.4850038858249</v>
+      </c>
+      <c r="AS58" s="9">
+        <f t="shared" si="46"/>
+        <v>4468.6395540023996</v>
+      </c>
+      <c r="AT58" s="9">
+        <f t="shared" si="46"/>
+        <v>4602.6987406224716</v>
+      </c>
+      <c r="AU58" s="9">
+        <f t="shared" si="46"/>
+        <v>4740.779702841146</v>
+      </c>
+      <c r="AV58" s="9">
+        <f t="shared" si="46"/>
+        <v>4883.0030939263806</v>
+      </c>
+      <c r="AW58" s="9">
+        <f t="shared" si="46"/>
+        <v>5029.4931867441719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" ref="J59:Z59" si="47">J58+J57+J56+J55+J54+J53</f>
+        <v>9751</v>
+      </c>
+      <c r="K59" s="2">
         <f t="shared" si="47"/>
-        <v>287.7525</v>
-      </c>
-      <c r="Z52" s="1"/>
-      <c r="AC52" s="1">
-        <v>355</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>2697</v>
-      </c>
-      <c r="AE52" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>1482</v>
-      </c>
-      <c r="AG52" s="9">
-        <f t="shared" si="32"/>
-        <v>1236.5999999999999</v>
-      </c>
-      <c r="AH52" s="9">
-        <f t="shared" si="33"/>
-        <v>1298.43</v>
-      </c>
-      <c r="AI52" s="9">
-        <f t="shared" si="34"/>
-        <v>1337.3829000000001</v>
-      </c>
-      <c r="AJ52" s="9">
-        <f t="shared" si="34"/>
-        <v>1377.5043870000002</v>
-      </c>
-      <c r="AK52" s="9">
-        <f t="shared" si="34"/>
-        <v>1418.8295186100002</v>
-      </c>
-      <c r="AL52" s="9">
-        <f t="shared" si="34"/>
-        <v>1461.3944041683003</v>
-      </c>
-      <c r="AM52" s="9">
-        <f t="shared" si="34"/>
-        <v>1505.2362362933493</v>
-      </c>
-      <c r="AN52" s="9">
-        <f t="shared" si="34"/>
-        <v>1550.3933233821499</v>
-      </c>
-      <c r="AO52" s="9">
-        <f t="shared" si="34"/>
-        <v>1596.9051230836144</v>
-      </c>
-      <c r="AP52" s="9">
-        <f t="shared" si="34"/>
-        <v>1644.8122767761229</v>
-      </c>
-      <c r="AQ52" s="9">
-        <f t="shared" si="34"/>
-        <v>1694.1566450794066</v>
-      </c>
-      <c r="AR52" s="9">
-        <f t="shared" si="34"/>
-        <v>1744.9813444317888</v>
-      </c>
-      <c r="AS52" s="9">
-        <f t="shared" si="34"/>
-        <v>1797.3307847647425</v>
-      </c>
-      <c r="AT52" s="9">
-        <f t="shared" si="34"/>
-        <v>1851.2507083076848</v>
-      </c>
-      <c r="AU52" s="9">
-        <f t="shared" si="34"/>
-        <v>1906.7882295569154</v>
-      </c>
-      <c r="AV52" s="9">
-        <f t="shared" ref="AV52" si="49">AU52*1.03</f>
-        <v>1963.9918764436229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+        <v>11073</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="47"/>
+        <v>10833</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="47"/>
+        <v>11391</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="47"/>
+        <v>8071</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="47"/>
+        <v>6125</v>
+      </c>
+      <c r="P59" s="2">
+        <f t="shared" si="47"/>
+        <v>6240</v>
+      </c>
+      <c r="Q59" s="2">
+        <f t="shared" si="47"/>
+        <v>6880</v>
+      </c>
+      <c r="R59" s="2">
+        <f t="shared" si="47"/>
+        <v>5583</v>
+      </c>
+      <c r="S59" s="24">
+        <f t="shared" si="47"/>
+        <v>5293</v>
+      </c>
+      <c r="T59" s="24">
+        <f t="shared" si="47"/>
+        <v>4710</v>
+      </c>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24">
+        <f t="shared" si="47"/>
+        <v>7555.5499999999993</v>
+      </c>
+      <c r="W59" s="24">
+        <f t="shared" si="47"/>
+        <v>5998.0000000000009</v>
+      </c>
+      <c r="X59" s="24">
+        <f t="shared" si="47"/>
+        <v>5774.25</v>
+      </c>
+      <c r="Y59" s="24">
+        <f t="shared" si="47"/>
+        <v>4518</v>
+      </c>
+      <c r="Z59" s="24">
+        <f t="shared" si="47"/>
+        <v>8596.4274999999998</v>
+      </c>
+      <c r="AD59" s="2">
+        <f t="shared" ref="AD59:AW59" si="48">AD58+AD57+AD56+AD55+AD54+AD53</f>
+        <v>13232</v>
+      </c>
+      <c r="AE59" s="2">
+        <f t="shared" si="48"/>
+        <v>32678</v>
+      </c>
+      <c r="AF59" s="2">
+        <f t="shared" si="48"/>
+        <v>43048</v>
+      </c>
+      <c r="AG59" s="2">
+        <f t="shared" si="48"/>
+        <v>27316</v>
+      </c>
+      <c r="AH59" s="24">
+        <f t="shared" si="48"/>
+        <v>23141.550000000003</v>
+      </c>
+      <c r="AI59" s="24">
+        <f t="shared" si="48"/>
+        <v>24886.677499999998</v>
+      </c>
+      <c r="AJ59" s="24">
+        <f t="shared" si="48"/>
+        <v>25633.277825000001</v>
+      </c>
+      <c r="AK59" s="24">
+        <f t="shared" si="48"/>
+        <v>26402.276159750003</v>
+      </c>
+      <c r="AL59" s="24">
+        <f t="shared" si="48"/>
+        <v>27194.344444542505</v>
+      </c>
+      <c r="AM59" s="24">
+        <f t="shared" si="48"/>
+        <v>28010.174777878776</v>
+      </c>
+      <c r="AN59" s="24">
+        <f t="shared" si="48"/>
+        <v>28850.480021215142</v>
+      </c>
+      <c r="AO59" s="24">
+        <f t="shared" si="48"/>
+        <v>29715.994421851599</v>
+      </c>
+      <c r="AP59" s="24">
+        <f t="shared" si="48"/>
+        <v>30607.474254507149</v>
+      </c>
+      <c r="AQ59" s="24">
+        <f t="shared" si="48"/>
+        <v>31525.698482142365</v>
+      </c>
+      <c r="AR59" s="24">
+        <f t="shared" si="48"/>
+        <v>32471.46943660664</v>
+      </c>
+      <c r="AS59" s="24">
+        <f t="shared" si="48"/>
+        <v>33445.613519704835</v>
+      </c>
+      <c r="AT59" s="24">
+        <f t="shared" si="48"/>
+        <v>34448.981925295979</v>
+      </c>
+      <c r="AU59" s="24">
+        <f t="shared" si="48"/>
+        <v>35482.45138305486</v>
+      </c>
+      <c r="AV59" s="24">
+        <f t="shared" si="48"/>
+        <v>36546.924924546511</v>
+      </c>
+      <c r="AW59" s="24">
+        <f t="shared" si="48"/>
+        <v>37643.332672282908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" ref="J61:Z61" si="49">J51+J59</f>
+        <v>24199</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="49"/>
+        <v>25875</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="49"/>
+        <v>28430</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="49"/>
+        <v>27114</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="49"/>
+        <v>23101</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="49"/>
+        <v>21521</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="49"/>
+        <v>19356</v>
+      </c>
+      <c r="Q61" s="2">
+        <f t="shared" si="49"/>
+        <v>18972</v>
+      </c>
+      <c r="R61" s="2">
+        <f t="shared" si="49"/>
+        <v>21518</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="49"/>
+        <v>17176</v>
+      </c>
+      <c r="T61" s="24">
+        <f t="shared" si="49"/>
+        <v>15495</v>
+      </c>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24">
+        <f t="shared" si="49"/>
+        <v>24444.799999999999</v>
+      </c>
+      <c r="W61" s="24">
+        <f t="shared" si="49"/>
+        <v>28618.9</v>
+      </c>
+      <c r="X61" s="24">
+        <f t="shared" si="49"/>
+        <v>22429.200000000001</v>
+      </c>
+      <c r="Y61" s="24">
+        <f t="shared" si="49"/>
+        <v>17382.650000000001</v>
+      </c>
+      <c r="Z61" s="24">
+        <f t="shared" si="49"/>
+        <v>29257.989999999998</v>
+      </c>
+      <c r="AD61" s="2">
+        <f>AD51+AD59</f>
+        <v>45582</v>
+      </c>
+      <c r="AE61" s="2">
+        <f>AE51+AE59</f>
+        <v>94466</v>
+      </c>
+      <c r="AF61" s="2">
+        <f>AF51+AF59</f>
+        <v>105618</v>
+      </c>
+      <c r="AG61" s="2">
+        <f>AG51+AG59</f>
+        <v>82950</v>
+      </c>
+      <c r="AH61" s="24">
+        <f>AH51+AH59</f>
+        <v>78633.8</v>
+      </c>
+      <c r="AI61" s="24">
+        <f>AH61*1.03</f>
+        <v>80992.813999999998</v>
+      </c>
+      <c r="AJ61" s="24">
+        <f t="shared" ref="AJ61:AV61" si="50">AI61*1.03</f>
+        <v>83422.598419999995</v>
+      </c>
+      <c r="AK61" s="24">
+        <f t="shared" si="50"/>
+        <v>85925.276372599998</v>
+      </c>
+      <c r="AL61" s="24">
+        <f t="shared" si="50"/>
+        <v>88503.034663778002</v>
+      </c>
+      <c r="AM61" s="24">
+        <f t="shared" si="50"/>
+        <v>91158.125703691345</v>
+      </c>
+      <c r="AN61" s="24">
+        <f t="shared" si="50"/>
+        <v>93892.869474802093</v>
+      </c>
+      <c r="AO61" s="24">
+        <f t="shared" si="50"/>
+        <v>96709.655559046165</v>
+      </c>
+      <c r="AP61" s="24">
+        <f t="shared" si="50"/>
+        <v>99610.945225817559</v>
+      </c>
+      <c r="AQ61" s="24">
+        <f t="shared" si="50"/>
+        <v>102599.27358259208</v>
+      </c>
+      <c r="AR61" s="24">
+        <f t="shared" si="50"/>
+        <v>105677.25179006984</v>
+      </c>
+      <c r="AS61" s="24">
+        <f t="shared" si="50"/>
+        <v>108847.56934377195</v>
+      </c>
+      <c r="AT61" s="24">
+        <f t="shared" si="50"/>
+        <v>112112.99642408511</v>
+      </c>
+      <c r="AU61" s="24">
+        <f t="shared" si="50"/>
+        <v>115476.38631680766</v>
+      </c>
+      <c r="AV61" s="24">
+        <f t="shared" si="50"/>
+        <v>118940.6779063119</v>
+      </c>
+      <c r="AW61" s="24">
+        <f>AV61*0.8</f>
+        <v>95152.542325049522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63">
+        <f>J42-J61</f>
+        <v>-24199</v>
+      </c>
+      <c r="K63">
+        <f>K42-K61</f>
+        <v>-25875</v>
+      </c>
+      <c r="L63">
+        <f>L42-L61</f>
+        <v>-28430</v>
+      </c>
+      <c r="M63">
+        <f>M42-M61</f>
+        <v>-27114</v>
+      </c>
+      <c r="N63">
+        <f>N42-N61</f>
+        <v>-23101</v>
+      </c>
+      <c r="O63">
+        <f>O42-O61</f>
+        <v>-21521</v>
+      </c>
+      <c r="P63">
+        <f>P42-P61</f>
+        <v>-19356</v>
+      </c>
+      <c r="Q63">
+        <f>Q42-Q61</f>
+        <v>-18972</v>
+      </c>
+      <c r="R63">
+        <f>R42-R61</f>
+        <v>-10858</v>
+      </c>
+      <c r="S63">
+        <f>S42-S61</f>
+        <v>-17176</v>
+      </c>
+      <c r="T63">
+        <f>T42-T61</f>
+        <v>-15495</v>
+      </c>
+      <c r="V63" s="9">
+        <f>V42-V61</f>
+        <v>-24080.3</v>
+      </c>
+      <c r="W63" s="9">
+        <f>W42-W61</f>
+        <v>-27525.4</v>
+      </c>
+      <c r="X63" s="9">
+        <f>X42-X61</f>
+        <v>-20606.7</v>
+      </c>
+      <c r="Y63" s="9">
+        <f>Y42-Y61</f>
+        <v>-14831.150000000001</v>
+      </c>
+      <c r="Z63">
+        <f>Z42-Z61</f>
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="AD63">
+        <f>AD42-AD61</f>
+        <v>-45582</v>
+      </c>
+      <c r="AE63">
+        <f>AE42-AE61</f>
+        <v>-94466</v>
+      </c>
+      <c r="AF63">
+        <f>AF42-AF61</f>
+        <v>-105618</v>
+      </c>
+      <c r="AG63">
+        <f>AG42-AG61</f>
+        <v>-82950</v>
+      </c>
+      <c r="AH63" s="9">
+        <f>AH42-AH61</f>
+        <v>-67609.3</v>
+      </c>
+      <c r="AI63" s="9">
+        <f>AI42-AI61</f>
+        <v>-72609.313999999998</v>
+      </c>
+      <c r="AJ63" s="9">
+        <f>AJ42-AJ61</f>
+        <v>-65401.71841999999</v>
+      </c>
+      <c r="AK63" s="9">
+        <f>AK42-AK61</f>
+        <v>-58083.016772599993</v>
+      </c>
+      <c r="AL63" s="9">
+        <f>AL42-AL61</f>
+        <v>4138.3603962220222</v>
+      </c>
+      <c r="AM63" s="9">
+        <f>AM42-AM61</f>
+        <v>66863.311220308664</v>
+      </c>
+      <c r="AN63" s="9">
+        <f>AN42-AN61</f>
+        <v>133348.03456948389</v>
+      </c>
+      <c r="AO63" s="9">
+        <f>AO42-AO61</f>
+        <v>159486.20518421612</v>
+      </c>
+      <c r="AP63" s="9">
+        <f>AP42-AP61</f>
+        <v>164270.7913397426</v>
+      </c>
+      <c r="AQ63" s="9">
+        <f>AQ42-AQ61</f>
+        <v>139556.49517546463</v>
+      </c>
+      <c r="AR63" s="9">
+        <f>AR42-AR61</f>
+        <v>117065.01211670543</v>
+      </c>
+      <c r="AS63" s="9">
+        <f>AS42-AS61</f>
+        <v>96566.602357585696</v>
+      </c>
+      <c r="AT63" s="9">
+        <f>AT42-AT61</f>
+        <v>77854.2763179545</v>
+      </c>
+      <c r="AU63" s="9">
+        <f>AU42-AU61</f>
+        <v>60741.512908170218</v>
+      </c>
+      <c r="AV63" s="9">
+        <f>AV42-AV61</f>
+        <v>45060.205766024679</v>
+      </c>
+      <c r="AW63" s="9">
+        <f>AW42-AW61</f>
+        <v>35961.612392618059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>76</v>
+      </c>
+      <c r="K65" s="1">
+        <v>169</v>
+      </c>
+      <c r="L65" s="1">
+        <v>76</v>
+      </c>
+      <c r="M65">
+        <f>AF65-L65-K65-J65</f>
+        <v>234</v>
+      </c>
+      <c r="N65" s="1">
+        <v>76</v>
+      </c>
+      <c r="O65" s="1">
+        <v>111</v>
+      </c>
+      <c r="P65" s="1">
+        <v>227</v>
+      </c>
+      <c r="Q65">
+        <f>AG65-P65-O65-N65</f>
+        <v>271</v>
+      </c>
+      <c r="R65" s="1">
+        <v>221</v>
+      </c>
+      <c r="S65" s="1">
+        <v>408</v>
+      </c>
+      <c r="T65" s="1">
+        <v>392</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AD65" s="1">
+        <v>93</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>559</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>555</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>685</v>
+      </c>
+      <c r="AH65" s="9">
+        <f>SUM(R65:V65)</f>
+        <v>1021</v>
+      </c>
+      <c r="AI65" s="9">
+        <f t="shared" ref="AI65" si="51">SUM(W65:Z65)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="2">
-        <f t="shared" ref="J53:O53" si="50">J52+J51+J50+J49+J46</f>
-        <v>14448</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="50"/>
-        <v>14802</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="50"/>
-        <v>17597</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="50"/>
-        <v>15723</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="50"/>
-        <v>15030</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" si="50"/>
-        <v>15396</v>
-      </c>
-      <c r="P53" s="2">
-        <f t="shared" ref="P53:R53" si="51">P52+P51+P50+P49+P46</f>
-        <v>13116</v>
-      </c>
-      <c r="Q53" s="2">
-        <f t="shared" si="51"/>
-        <v>12092</v>
-      </c>
-      <c r="R53" s="2">
-        <f t="shared" si="51"/>
-        <v>15935</v>
-      </c>
-      <c r="S53" s="2">
-        <f>S52+S51+S50+S47+S48</f>
-        <v>11883</v>
-      </c>
-      <c r="T53" s="24">
-        <f t="shared" ref="T53" si="52">T52+T51+T50+T49+T46</f>
-        <v>18393.75</v>
-      </c>
-      <c r="U53" s="24">
-        <f t="shared" ref="U53" si="53">U52+U51+U50+U49+U46</f>
-        <v>16889.25</v>
-      </c>
-      <c r="V53" s="24">
-        <f t="shared" ref="V53" si="54">V52+V51+V50+V49+V46</f>
-        <v>22620.9</v>
-      </c>
-      <c r="W53" s="24">
-        <f t="shared" ref="W53" si="55">W52+W51+W50+W49+W46</f>
-        <v>16666.650000000001</v>
-      </c>
-      <c r="X53" s="24">
-        <f t="shared" ref="X53" si="56">X52+X51+X50+X49+X46</f>
-        <v>22483.237499999999</v>
-      </c>
-      <c r="Y53" s="24">
-        <f t="shared" ref="Y53" si="57">Y52+Y51+Y50+Y49+Y46</f>
-        <v>20661.5625</v>
-      </c>
-      <c r="AC53" s="2">
-        <f>AC52+AC51+AC50+AC49+AC46</f>
-        <v>32350</v>
-      </c>
-      <c r="AD53" s="2">
-        <f t="shared" ref="AD53:AF53" si="58">AD52+AD51+AD50+AD49+AD46</f>
-        <v>61788</v>
-      </c>
-      <c r="AE53" s="2">
-        <f t="shared" si="58"/>
-        <v>62570</v>
-      </c>
-      <c r="AF53" s="2">
-        <f t="shared" si="58"/>
-        <v>55634</v>
-      </c>
-      <c r="AG53" s="2">
-        <f t="shared" ref="AG53" si="59">AG52+AG51+AG50+AG49+AG46</f>
-        <v>63101</v>
-      </c>
-      <c r="AH53" s="24">
-        <f t="shared" ref="AH53" si="60">AH52+AH51+AH50+AH49+AH46</f>
-        <v>82432.350000000006</v>
-      </c>
-      <c r="AI53" s="24">
-        <f t="shared" ref="AI53" si="61">AI52+AI51+AI50+AI49+AI46</f>
-        <v>79520.500499999995</v>
-      </c>
-      <c r="AJ53" s="24">
-        <f t="shared" ref="AJ53" si="62">AJ52+AJ51+AJ50+AJ49+AJ46</f>
-        <v>76790.536515</v>
-      </c>
-      <c r="AK53" s="24">
-        <f t="shared" ref="AK53" si="63">AK52+AK51+AK50+AK49+AK46</f>
-        <v>74234.452560449994</v>
-      </c>
-      <c r="AL53" s="24">
-        <f t="shared" ref="AL53" si="64">AL52+AL51+AL50+AL49+AL46</f>
-        <v>71844.676089763496</v>
-      </c>
-      <c r="AM53" s="24">
-        <f t="shared" ref="AM53" si="65">AM52+AM51+AM50+AM49+AM46</f>
-        <v>69614.046827331389</v>
-      </c>
-      <c r="AN53" s="24">
-        <f t="shared" ref="AN53" si="66">AN52+AN51+AN50+AN49+AN46</f>
-        <v>67535.797164282587</v>
-      </c>
-      <c r="AO53" s="24">
-        <f t="shared" ref="AO53" si="67">AO52+AO51+AO50+AO49+AO46</f>
-        <v>65603.533564735757</v>
-      </c>
-      <c r="AP53" s="24">
-        <f t="shared" ref="AP53" si="68">AP52+AP51+AP50+AP49+AP46</f>
-        <v>66161.48183214599</v>
-      </c>
-      <c r="AQ53" s="24">
-        <f t="shared" ref="AQ53" si="69">AQ52+AQ51+AQ50+AQ49+AQ46</f>
-        <v>66736.168547578534</v>
-      </c>
-      <c r="AR53" s="24">
-        <f t="shared" ref="AR53" si="70">AR52+AR51+AR50+AR49+AR46</f>
-        <v>67328.095864474075</v>
-      </c>
-      <c r="AS53" s="24">
-        <f t="shared" ref="AS53" si="71">AS52+AS51+AS50+AS49+AS46</f>
-        <v>67937.781000876465</v>
-      </c>
-      <c r="AT53" s="24">
-        <f t="shared" ref="AT53" si="72">AT52+AT51+AT50+AT49+AT46</f>
-        <v>68565.756691370931</v>
-      </c>
-      <c r="AU53" s="24">
-        <f t="shared" ref="AU53" si="73">AU52+AU51+AU50+AU49+AU46</f>
-        <v>69212.571652580227</v>
-      </c>
-      <c r="AV53" s="24">
-        <f t="shared" ref="AV53" si="74">AV52+AV51+AV50+AV49+AV46</f>
-        <v>69878.791062625794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1771</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1826</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1511</v>
-      </c>
-      <c r="M55">
-        <f t="shared" ref="M55:M60" si="75">AE55-L55-K55-J55</f>
-        <v>1232</v>
-      </c>
-      <c r="N55" s="1">
-        <v>1619</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1359</v>
-      </c>
-      <c r="P55" s="1">
-        <v>1341</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" ref="Q55:Q60" si="76">AF55-P55-O55-N55</f>
-        <v>2535</v>
-      </c>
-      <c r="R55" s="1">
-        <v>1487</v>
-      </c>
-      <c r="S55" s="1">
-        <v>1605</v>
-      </c>
-      <c r="T55" s="9">
-        <f>P55*1.05</f>
-        <v>1408.05</v>
-      </c>
-      <c r="U55" s="9">
-        <f t="shared" ref="U55:Y55" si="77">Q55*1.05</f>
-        <v>2661.75</v>
-      </c>
-      <c r="V55" s="9">
-        <f t="shared" si="77"/>
-        <v>1561.3500000000001</v>
-      </c>
-      <c r="W55" s="9">
-        <f t="shared" si="77"/>
-        <v>1685.25</v>
-      </c>
-      <c r="X55" s="9">
-        <f t="shared" si="77"/>
-        <v>1478.4525000000001</v>
-      </c>
-      <c r="Y55" s="9">
-        <f t="shared" si="77"/>
-        <v>2794.8375000000001</v>
-      </c>
-      <c r="Z55" s="1"/>
-      <c r="AC55" s="1">
-        <v>4397</v>
-      </c>
-      <c r="AD55" s="1">
-        <v>8451</v>
-      </c>
-      <c r="AE55" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>6854</v>
-      </c>
-      <c r="AG55" s="9">
-        <f>SUM(R55:U55)</f>
-        <v>7161.8</v>
-      </c>
-      <c r="AH55" s="9">
-        <f>SUM(V55:Y55)</f>
-        <v>7519.8900000000012</v>
-      </c>
-      <c r="AI55" s="9">
-        <f>AH55*1.03</f>
-        <v>7745.4867000000013</v>
-      </c>
-      <c r="AJ55" s="9">
-        <f t="shared" ref="AJ55:AV55" si="78">AI55*1.03</f>
-        <v>7977.8513010000015</v>
-      </c>
-      <c r="AK55" s="9">
-        <f t="shared" si="78"/>
-        <v>8217.1868400300009</v>
-      </c>
-      <c r="AL55" s="9">
-        <f t="shared" si="78"/>
-        <v>8463.7024452309015</v>
-      </c>
-      <c r="AM55" s="9">
-        <f t="shared" si="78"/>
-        <v>8717.6135185878284</v>
-      </c>
-      <c r="AN55" s="9">
-        <f t="shared" si="78"/>
-        <v>8979.1419241454641</v>
-      </c>
-      <c r="AO55" s="9">
-        <f t="shared" si="78"/>
-        <v>9248.5161818698289</v>
-      </c>
-      <c r="AP55" s="9">
-        <f t="shared" si="78"/>
-        <v>9525.9716673259245</v>
-      </c>
-      <c r="AQ55" s="9">
-        <f t="shared" si="78"/>
-        <v>9811.7508173457027</v>
-      </c>
-      <c r="AR55" s="9">
-        <f t="shared" si="78"/>
-        <v>10106.103341866074</v>
-      </c>
-      <c r="AS55" s="9">
-        <f t="shared" si="78"/>
-        <v>10409.286442122057</v>
-      </c>
-      <c r="AT55" s="9">
-        <f t="shared" si="78"/>
-        <v>10721.565035385718</v>
-      </c>
-      <c r="AU55" s="9">
-        <f t="shared" si="78"/>
-        <v>11043.21198644729</v>
-      </c>
-      <c r="AV55" s="9">
-        <f t="shared" si="78"/>
-        <v>11374.50834604071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1932</v>
-      </c>
-      <c r="K56" s="1">
-        <v>2695</v>
-      </c>
-      <c r="L56" s="1">
-        <v>3111</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="75"/>
-        <v>3603</v>
-      </c>
-      <c r="N56" s="1">
-        <v>1288</v>
-      </c>
-      <c r="O56" s="1">
-        <v>241</v>
-      </c>
-      <c r="P56" s="1">
-        <v>315</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="76"/>
-        <v>349</v>
-      </c>
-      <c r="R56" s="1">
-        <v>143</v>
-      </c>
-      <c r="S56" s="1">
-        <v>228</v>
-      </c>
-      <c r="T56">
-        <f>P56*2</f>
-        <v>630</v>
-      </c>
-      <c r="U56">
-        <f>Q56*2</f>
-        <v>698</v>
-      </c>
-      <c r="V56">
-        <f t="shared" ref="V56:Y56" si="79">R56*2</f>
-        <v>286</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="79"/>
-        <v>456</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="79"/>
-        <v>1260</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="79"/>
-        <v>1396</v>
-      </c>
-      <c r="Z56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1">
-        <v>5746</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>11341</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>2193</v>
-      </c>
-      <c r="AG56" s="9">
-        <f t="shared" ref="AG56:AG60" si="80">SUM(R56:U56)</f>
-        <v>1699</v>
-      </c>
-      <c r="AH56" s="9">
-        <f t="shared" ref="AH56:AH60" si="81">SUM(V56:Y56)</f>
-        <v>3398</v>
-      </c>
-      <c r="AI56" s="9">
-        <f t="shared" ref="AI56:AV56" si="82">AH56*1.03</f>
-        <v>3499.94</v>
-      </c>
-      <c r="AJ56" s="9">
-        <f t="shared" si="82"/>
-        <v>3604.9382000000001</v>
-      </c>
-      <c r="AK56" s="9">
-        <f t="shared" si="82"/>
-        <v>3713.086346</v>
-      </c>
-      <c r="AL56" s="9">
-        <f t="shared" si="82"/>
-        <v>3824.4789363800001</v>
-      </c>
-      <c r="AM56" s="9">
-        <f t="shared" si="82"/>
-        <v>3939.2133044714001</v>
-      </c>
-      <c r="AN56" s="9">
-        <f t="shared" si="82"/>
-        <v>4057.3897036055423</v>
-      </c>
-      <c r="AO56" s="9">
-        <f t="shared" si="82"/>
-        <v>4179.1113947137083</v>
-      </c>
-      <c r="AP56" s="9">
-        <f t="shared" si="82"/>
-        <v>4304.4847365551195</v>
-      </c>
-      <c r="AQ56" s="9">
-        <f t="shared" si="82"/>
-        <v>4433.6192786517731</v>
-      </c>
-      <c r="AR56" s="9">
-        <f t="shared" si="82"/>
-        <v>4566.6278570113263</v>
-      </c>
-      <c r="AS56" s="9">
-        <f t="shared" si="82"/>
-        <v>4703.6266927216666</v>
-      </c>
-      <c r="AT56" s="9">
-        <f t="shared" si="82"/>
-        <v>4844.7354935033163</v>
-      </c>
-      <c r="AU56" s="9">
-        <f t="shared" si="82"/>
-        <v>4990.077558308416</v>
-      </c>
-      <c r="AV56" s="9">
-        <f t="shared" si="82"/>
-        <v>5139.7798850576683</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1544</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1725</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1653</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="75"/>
-        <v>1695</v>
-      </c>
-      <c r="N57" s="1">
-        <v>1768</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1294</v>
-      </c>
-      <c r="P57" s="1">
-        <v>1157</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="76"/>
-        <v>1318</v>
-      </c>
-      <c r="R57" s="1">
-        <v>1227</v>
-      </c>
-      <c r="S57" s="1">
-        <v>889</v>
-      </c>
-      <c r="T57" s="9">
-        <f>P57*1.05</f>
-        <v>1214.8500000000001</v>
-      </c>
-      <c r="U57" s="9">
-        <f t="shared" ref="U57:Y60" si="83">Q57*1.05</f>
-        <v>1383.9</v>
-      </c>
-      <c r="V57" s="9">
-        <f t="shared" si="83"/>
-        <v>1288.3500000000001</v>
-      </c>
-      <c r="W57" s="9">
-        <f t="shared" si="83"/>
-        <v>933.45</v>
-      </c>
-      <c r="X57" s="9">
-        <f t="shared" si="83"/>
-        <v>1275.5925000000002</v>
-      </c>
-      <c r="Y57" s="9">
-        <f t="shared" si="83"/>
-        <v>1453.0950000000003</v>
-      </c>
-      <c r="Z57" s="1"/>
-      <c r="AC57" s="1">
-        <v>1462</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>5651</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>6617</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>5537</v>
-      </c>
-      <c r="AG57" s="9">
-        <f t="shared" si="80"/>
-        <v>4714.75</v>
-      </c>
-      <c r="AH57" s="9">
-        <f t="shared" si="81"/>
-        <v>4950.4875000000011</v>
-      </c>
-      <c r="AI57" s="9">
-        <f t="shared" ref="AI57:AV57" si="84">AH57*1.03</f>
-        <v>5099.0021250000009</v>
-      </c>
-      <c r="AJ57" s="9">
-        <f t="shared" si="84"/>
-        <v>5251.9721887500009</v>
-      </c>
-      <c r="AK57" s="9">
-        <f t="shared" si="84"/>
-        <v>5409.5313544125011</v>
-      </c>
-      <c r="AL57" s="9">
-        <f t="shared" si="84"/>
-        <v>5571.8172950448761</v>
-      </c>
-      <c r="AM57" s="9">
-        <f t="shared" si="84"/>
-        <v>5738.9718138962226</v>
-      </c>
-      <c r="AN57" s="9">
-        <f t="shared" si="84"/>
-        <v>5911.1409683131096</v>
-      </c>
-      <c r="AO57" s="9">
-        <f t="shared" si="84"/>
-        <v>6088.4751973625034</v>
-      </c>
-      <c r="AP57" s="9">
-        <f t="shared" si="84"/>
-        <v>6271.129453283379</v>
-      </c>
-      <c r="AQ57" s="9">
-        <f t="shared" si="84"/>
-        <v>6459.2633368818806</v>
-      </c>
-      <c r="AR57" s="9">
-        <f t="shared" si="84"/>
-        <v>6653.041236988337</v>
-      </c>
-      <c r="AS57" s="9">
-        <f t="shared" si="84"/>
-        <v>6852.6324740979871</v>
-      </c>
-      <c r="AT57" s="9">
-        <f t="shared" si="84"/>
-        <v>7058.211448320927</v>
-      </c>
-      <c r="AU57" s="9">
-        <f t="shared" si="84"/>
-        <v>7269.9577917705546</v>
-      </c>
-      <c r="AV57" s="9">
-        <f t="shared" si="84"/>
-        <v>7488.0565255236716</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1">
-        <v>2182</v>
-      </c>
-      <c r="K58" s="1">
-        <v>2169</v>
-      </c>
-      <c r="L58" s="1">
-        <v>2003</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="75"/>
-        <v>2064</v>
-      </c>
-      <c r="N58" s="1">
-        <v>1221</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1443</v>
-      </c>
-      <c r="P58" s="1">
-        <v>1678</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="76"/>
-        <v>1201</v>
-      </c>
-      <c r="R58" s="1">
-        <v>1192</v>
-      </c>
-      <c r="S58" s="1">
-        <v>1091</v>
-      </c>
-      <c r="T58" s="9">
-        <f t="shared" ref="T58:T60" si="85">P58*1.05</f>
-        <v>1761.9</v>
-      </c>
-      <c r="U58" s="9">
-        <f t="shared" si="83"/>
-        <v>1261.05</v>
-      </c>
-      <c r="V58" s="9">
-        <f t="shared" si="83"/>
-        <v>1251.6000000000001</v>
-      </c>
-      <c r="W58" s="9">
-        <f t="shared" si="83"/>
-        <v>1145.55</v>
-      </c>
-      <c r="X58" s="9">
-        <f t="shared" si="83"/>
-        <v>1849.9950000000001</v>
-      </c>
-      <c r="Y58" s="9">
-        <f t="shared" si="83"/>
-        <v>1324.1025</v>
-      </c>
-      <c r="Z58" s="1"/>
-      <c r="AC58" s="1">
-        <v>3409</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>5446</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>8418</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>5543</v>
-      </c>
-      <c r="AG58" s="9">
-        <f t="shared" si="80"/>
-        <v>5305.95</v>
-      </c>
-      <c r="AH58" s="9">
-        <f t="shared" si="81"/>
-        <v>5571.2475000000004</v>
-      </c>
-      <c r="AI58" s="9">
-        <f t="shared" ref="AI58:AV58" si="86">AH58*1.03</f>
-        <v>5738.3849250000003</v>
-      </c>
-      <c r="AJ58" s="9">
-        <f t="shared" si="86"/>
-        <v>5910.53647275</v>
-      </c>
-      <c r="AK58" s="9">
-        <f t="shared" si="86"/>
-        <v>6087.8525669324999</v>
-      </c>
-      <c r="AL58" s="9">
-        <f t="shared" si="86"/>
-        <v>6270.4881439404753</v>
-      </c>
-      <c r="AM58" s="9">
-        <f t="shared" si="86"/>
-        <v>6458.6027882586895</v>
-      </c>
-      <c r="AN58" s="9">
-        <f t="shared" si="86"/>
-        <v>6652.3608719064505</v>
-      </c>
-      <c r="AO58" s="9">
-        <f t="shared" si="86"/>
-        <v>6851.931698063644</v>
-      </c>
-      <c r="AP58" s="9">
-        <f t="shared" si="86"/>
-        <v>7057.4896490055535</v>
-      </c>
-      <c r="AQ58" s="9">
-        <f t="shared" si="86"/>
-        <v>7269.2143384757201</v>
-      </c>
-      <c r="AR58" s="9">
-        <f t="shared" si="86"/>
-        <v>7487.2907686299923</v>
-      </c>
-      <c r="AS58" s="9">
-        <f t="shared" si="86"/>
-        <v>7711.9094916888926</v>
-      </c>
-      <c r="AT58" s="9">
-        <f t="shared" si="86"/>
-        <v>7943.2667764395592</v>
-      </c>
-      <c r="AU58" s="9">
-        <f t="shared" si="86"/>
-        <v>8181.5647797327465</v>
-      </c>
-      <c r="AV58" s="9">
-        <f t="shared" si="86"/>
-        <v>8427.0117231247295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1010</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1084</v>
-      </c>
-      <c r="L59" s="1">
-        <v>1152</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="75"/>
-        <v>1153</v>
-      </c>
-      <c r="N59" s="1">
-        <v>1125</v>
-      </c>
-      <c r="O59" s="1">
-        <v>945</v>
-      </c>
-      <c r="P59" s="1">
-        <v>810</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="76"/>
-        <v>802</v>
-      </c>
-      <c r="R59" s="1">
-        <v>798</v>
-      </c>
-      <c r="S59" s="1">
-        <v>607</v>
-      </c>
-      <c r="T59" s="9">
-        <f t="shared" si="85"/>
-        <v>850.5</v>
-      </c>
-      <c r="U59" s="9">
-        <f t="shared" si="83"/>
-        <v>842.1</v>
-      </c>
-      <c r="V59" s="9">
-        <f t="shared" si="83"/>
-        <v>837.90000000000009</v>
-      </c>
-      <c r="W59" s="9">
-        <f t="shared" si="83"/>
-        <v>637.35</v>
-      </c>
-      <c r="X59" s="9">
-        <f t="shared" si="83"/>
-        <v>893.02500000000009</v>
-      </c>
-      <c r="Y59" s="9">
-        <f t="shared" si="83"/>
-        <v>884.20500000000004</v>
-      </c>
-      <c r="Z59" s="1"/>
-      <c r="AC59" s="1">
-        <v>1993</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>3764</v>
-      </c>
-      <c r="AE59" s="1">
-        <v>4399</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>3682</v>
-      </c>
-      <c r="AG59" s="9">
-        <f t="shared" si="80"/>
-        <v>3097.6</v>
-      </c>
-      <c r="AH59" s="9">
-        <f t="shared" si="81"/>
-        <v>3252.48</v>
-      </c>
-      <c r="AI59" s="9">
-        <f t="shared" ref="AI59:AV59" si="87">AH59*1.03</f>
-        <v>3350.0544</v>
-      </c>
-      <c r="AJ59" s="9">
-        <f t="shared" si="87"/>
-        <v>3450.556032</v>
-      </c>
-      <c r="AK59" s="9">
-        <f t="shared" si="87"/>
-        <v>3554.07271296</v>
-      </c>
-      <c r="AL59" s="9">
-        <f t="shared" si="87"/>
-        <v>3660.6948943488001</v>
-      </c>
-      <c r="AM59" s="9">
-        <f t="shared" si="87"/>
-        <v>3770.5157411792643</v>
-      </c>
-      <c r="AN59" s="9">
-        <f t="shared" si="87"/>
-        <v>3883.6312134146424</v>
-      </c>
-      <c r="AO59" s="9">
-        <f t="shared" si="87"/>
-        <v>4000.1401498170817</v>
-      </c>
-      <c r="AP59" s="9">
-        <f t="shared" si="87"/>
-        <v>4120.1443543115938</v>
-      </c>
-      <c r="AQ59" s="9">
-        <f t="shared" si="87"/>
-        <v>4243.7486849409415</v>
-      </c>
-      <c r="AR59" s="9">
-        <f t="shared" si="87"/>
-        <v>4371.0611454891696</v>
-      </c>
-      <c r="AS59" s="9">
-        <f t="shared" si="87"/>
-        <v>4502.1929798538449</v>
-      </c>
-      <c r="AT59" s="9">
-        <f t="shared" si="87"/>
-        <v>4637.2587692494608</v>
-      </c>
-      <c r="AU59" s="9">
-        <f t="shared" si="87"/>
-        <v>4776.3765323269445</v>
-      </c>
-      <c r="AV59" s="9">
-        <f t="shared" si="87"/>
-        <v>4919.6678282967532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1312</v>
-      </c>
-      <c r="K60" s="1">
-        <v>1574</v>
-      </c>
-      <c r="L60" s="1">
-        <v>1403</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="75"/>
-        <v>1644</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1050</v>
-      </c>
-      <c r="O60" s="1">
-        <v>843</v>
-      </c>
-      <c r="P60" s="1">
-        <v>939</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="76"/>
-        <v>675</v>
-      </c>
-      <c r="R60" s="1">
-        <v>736</v>
-      </c>
-      <c r="S60" s="1">
-        <v>873</v>
-      </c>
-      <c r="T60" s="9">
-        <f t="shared" si="85"/>
-        <v>985.95</v>
-      </c>
-      <c r="U60" s="9">
-        <f t="shared" si="83"/>
-        <v>708.75</v>
-      </c>
-      <c r="V60" s="9">
-        <f t="shared" si="83"/>
-        <v>772.80000000000007</v>
-      </c>
-      <c r="W60" s="9">
-        <f t="shared" si="83"/>
-        <v>916.65000000000009</v>
-      </c>
-      <c r="X60" s="9">
-        <f t="shared" si="83"/>
-        <v>1035.2475000000002</v>
-      </c>
-      <c r="Y60" s="9">
-        <f t="shared" si="83"/>
-        <v>744.1875</v>
-      </c>
-      <c r="Z60" s="1"/>
-      <c r="AC60" s="1">
-        <v>1971</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>3620</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>5933</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>3507</v>
-      </c>
-      <c r="AG60" s="9">
-        <f t="shared" si="80"/>
-        <v>3303.7</v>
-      </c>
-      <c r="AH60" s="9">
-        <f t="shared" si="81"/>
-        <v>3468.8850000000002</v>
-      </c>
-      <c r="AI60" s="9">
-        <f t="shared" ref="AI60:AV60" si="88">AH60*1.03</f>
-        <v>3572.9515500000002</v>
-      </c>
-      <c r="AJ60" s="9">
-        <f t="shared" si="88"/>
-        <v>3680.1400965000003</v>
-      </c>
-      <c r="AK60" s="9">
-        <f t="shared" si="88"/>
-        <v>3790.5442993950005</v>
-      </c>
-      <c r="AL60" s="9">
-        <f t="shared" si="88"/>
-        <v>3904.2606283768505</v>
-      </c>
-      <c r="AM60" s="9">
-        <f t="shared" si="88"/>
-        <v>4021.3884472281561</v>
-      </c>
-      <c r="AN60" s="9">
-        <f t="shared" si="88"/>
-        <v>4142.0301006450009</v>
-      </c>
-      <c r="AO60" s="9">
-        <f t="shared" si="88"/>
-        <v>4266.2910036643507</v>
-      </c>
-      <c r="AP60" s="9">
-        <f t="shared" si="88"/>
-        <v>4394.2797337742813</v>
-      </c>
-      <c r="AQ60" s="9">
-        <f t="shared" si="88"/>
-        <v>4526.1081257875103</v>
-      </c>
-      <c r="AR60" s="9">
-        <f t="shared" si="88"/>
-        <v>4661.8913695611354</v>
-      </c>
-      <c r="AS60" s="9">
-        <f t="shared" si="88"/>
-        <v>4801.74811064797</v>
-      </c>
-      <c r="AT60" s="9">
-        <f t="shared" si="88"/>
-        <v>4945.8005539674095</v>
-      </c>
-      <c r="AU60" s="9">
-        <f t="shared" si="88"/>
-        <v>5094.1745705864323</v>
-      </c>
-      <c r="AV60" s="9">
-        <f t="shared" si="88"/>
-        <v>5246.9998077040254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" ref="J61:Y61" si="89">J60+J59+J58+J57+J56+J55</f>
-        <v>9751</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="89"/>
-        <v>11073</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="89"/>
-        <v>10833</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="89"/>
-        <v>11391</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="89"/>
-        <v>8071</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="89"/>
-        <v>6125</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="89"/>
-        <v>6240</v>
-      </c>
-      <c r="Q61" s="2">
-        <f t="shared" si="89"/>
-        <v>6880</v>
-      </c>
-      <c r="R61" s="2">
-        <f t="shared" si="89"/>
-        <v>5583</v>
-      </c>
-      <c r="S61" s="24">
-        <f t="shared" si="89"/>
-        <v>5293</v>
-      </c>
-      <c r="T61" s="24">
-        <f t="shared" si="89"/>
-        <v>6851.2500000000009</v>
-      </c>
-      <c r="U61" s="24">
-        <f t="shared" si="89"/>
-        <v>7555.5499999999993</v>
-      </c>
-      <c r="V61" s="24">
-        <f t="shared" si="89"/>
-        <v>5998.0000000000009</v>
-      </c>
-      <c r="W61" s="24">
-        <f t="shared" si="89"/>
-        <v>5774.25</v>
-      </c>
-      <c r="X61" s="24">
-        <f t="shared" si="89"/>
-        <v>7792.3125000000009</v>
-      </c>
-      <c r="Y61" s="24">
-        <f t="shared" si="89"/>
-        <v>8596.4274999999998</v>
-      </c>
-      <c r="AC61" s="2">
-        <f t="shared" ref="AC61:AV61" si="90">AC60+AC59+AC58+AC57+AC56+AC55</f>
-        <v>13232</v>
-      </c>
-      <c r="AD61" s="2">
-        <f t="shared" si="90"/>
-        <v>32678</v>
-      </c>
-      <c r="AE61" s="2">
-        <f t="shared" si="90"/>
-        <v>43048</v>
-      </c>
-      <c r="AF61" s="2">
-        <f t="shared" si="90"/>
-        <v>27316</v>
-      </c>
-      <c r="AG61" s="24">
-        <f t="shared" si="90"/>
-        <v>25282.799999999999</v>
-      </c>
-      <c r="AH61" s="24">
-        <f t="shared" si="90"/>
-        <v>28160.989999999998</v>
-      </c>
-      <c r="AI61" s="24">
-        <f t="shared" si="90"/>
-        <v>29005.819700000004</v>
-      </c>
-      <c r="AJ61" s="24">
-        <f t="shared" si="90"/>
-        <v>29875.994291000003</v>
-      </c>
-      <c r="AK61" s="24">
-        <f t="shared" si="90"/>
-        <v>30772.274119730002</v>
-      </c>
-      <c r="AL61" s="24">
-        <f t="shared" si="90"/>
-        <v>31695.442343321905</v>
-      </c>
-      <c r="AM61" s="24">
-        <f t="shared" si="90"/>
-        <v>32646.30561362156</v>
-      </c>
-      <c r="AN61" s="24">
-        <f t="shared" si="90"/>
-        <v>33625.694782030208</v>
-      </c>
-      <c r="AO61" s="24">
-        <f t="shared" si="90"/>
-        <v>34634.465625491117</v>
-      </c>
-      <c r="AP61" s="24">
-        <f t="shared" si="90"/>
-        <v>35673.499594255853</v>
-      </c>
-      <c r="AQ61" s="24">
-        <f t="shared" si="90"/>
-        <v>36743.704582083526</v>
-      </c>
-      <c r="AR61" s="24">
-        <f t="shared" si="90"/>
-        <v>37846.015719546034</v>
-      </c>
-      <c r="AS61" s="24">
-        <f t="shared" si="90"/>
-        <v>38981.396191132422</v>
-      </c>
-      <c r="AT61" s="24">
-        <f t="shared" si="90"/>
-        <v>40150.838076866392</v>
-      </c>
-      <c r="AU61" s="24">
-        <f t="shared" si="90"/>
-        <v>41355.363219172388</v>
-      </c>
-      <c r="AV61" s="24">
-        <f t="shared" si="90"/>
-        <v>42596.024115747561</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" ref="J63:Y63" si="91">J53+J61</f>
-        <v>24199</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="91"/>
-        <v>25875</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="91"/>
-        <v>28430</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="91"/>
-        <v>27114</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="91"/>
-        <v>23101</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" si="91"/>
-        <v>21521</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" si="91"/>
-        <v>19356</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="91"/>
-        <v>18972</v>
-      </c>
-      <c r="R63" s="2">
-        <f t="shared" si="91"/>
-        <v>21518</v>
-      </c>
-      <c r="S63" s="2">
-        <f t="shared" si="91"/>
-        <v>17176</v>
-      </c>
-      <c r="T63" s="24">
-        <f t="shared" si="91"/>
-        <v>25245</v>
-      </c>
-      <c r="U63" s="24">
-        <f t="shared" si="91"/>
-        <v>24444.799999999999</v>
-      </c>
-      <c r="V63" s="24">
-        <f t="shared" si="91"/>
-        <v>28618.9</v>
-      </c>
-      <c r="W63" s="24">
-        <f t="shared" si="91"/>
-        <v>22440.9</v>
-      </c>
-      <c r="X63" s="24">
-        <f t="shared" si="91"/>
-        <v>30275.55</v>
-      </c>
-      <c r="Y63" s="24">
-        <f t="shared" si="91"/>
-        <v>29257.989999999998</v>
-      </c>
-      <c r="AC63" s="2">
-        <f>AC53+AC61</f>
-        <v>45582</v>
-      </c>
-      <c r="AD63" s="2">
-        <f>AD53+AD61</f>
-        <v>94466</v>
-      </c>
-      <c r="AE63" s="2">
-        <f>AE53+AE61</f>
-        <v>105618</v>
-      </c>
-      <c r="AF63" s="2">
-        <f>AF53+AF61</f>
-        <v>82950</v>
-      </c>
-      <c r="AG63" s="24">
-        <f>AG53+AG61</f>
-        <v>88383.8</v>
-      </c>
-      <c r="AH63" s="24">
-        <f>AG63*1.03</f>
-        <v>91035.313999999998</v>
-      </c>
-      <c r="AI63" s="24">
-        <f t="shared" ref="AI63:AU63" si="92">AH63*1.03</f>
-        <v>93766.373420000004</v>
-      </c>
-      <c r="AJ63" s="24">
-        <f t="shared" si="92"/>
-        <v>96579.364622600013</v>
-      </c>
-      <c r="AK63" s="24">
-        <f t="shared" si="92"/>
-        <v>99476.745561278018</v>
-      </c>
-      <c r="AL63" s="24">
-        <f t="shared" si="92"/>
-        <v>102461.04792811636</v>
-      </c>
-      <c r="AM63" s="24">
-        <f t="shared" si="92"/>
-        <v>105534.87936595985</v>
-      </c>
-      <c r="AN63" s="24">
-        <f t="shared" si="92"/>
-        <v>108700.92574693865</v>
-      </c>
-      <c r="AO63" s="24">
-        <f t="shared" si="92"/>
-        <v>111961.95351934682</v>
-      </c>
-      <c r="AP63" s="24">
-        <f t="shared" si="92"/>
-        <v>115320.81212492722</v>
-      </c>
-      <c r="AQ63" s="24">
-        <f t="shared" si="92"/>
-        <v>118780.43648867504</v>
-      </c>
-      <c r="AR63" s="24">
-        <f t="shared" si="92"/>
-        <v>122343.84958333529</v>
-      </c>
-      <c r="AS63" s="24">
-        <f t="shared" si="92"/>
-        <v>126014.16507083536</v>
-      </c>
-      <c r="AT63" s="24">
-        <f t="shared" si="92"/>
-        <v>129794.59002296042</v>
-      </c>
-      <c r="AU63" s="24">
-        <f t="shared" si="92"/>
-        <v>133688.42772364922</v>
-      </c>
-      <c r="AV63" s="24">
-        <f>AU63*0.8</f>
-        <v>106950.74217891938</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65">
-        <f t="shared" ref="J65:S65" si="93">J42-J63</f>
-        <v>-24199</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="93"/>
-        <v>-25875</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="93"/>
-        <v>-28430</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="93"/>
-        <v>-27114</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="93"/>
-        <v>-23101</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="93"/>
-        <v>-21521</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="93"/>
-        <v>-19356</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="93"/>
-        <v>-18972</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="93"/>
-        <v>-10858</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="93"/>
-        <v>-17176</v>
-      </c>
-      <c r="T65">
-        <f t="shared" ref="T65:Y65" si="94">T42-T63</f>
-        <v>-25245</v>
-      </c>
-      <c r="U65" s="9">
-        <f t="shared" si="94"/>
-        <v>-24080.3</v>
-      </c>
-      <c r="V65" s="9">
-        <f t="shared" si="94"/>
-        <v>-27525.4</v>
-      </c>
-      <c r="W65" s="9">
-        <f t="shared" si="94"/>
-        <v>-20618.400000000001</v>
-      </c>
-      <c r="X65" s="9">
-        <f t="shared" si="94"/>
-        <v>-27724.05</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="94"/>
-        <v>-26341.989999999998</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" ref="AC65:AV65" si="95">AC42-AC63</f>
-        <v>-45582</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="95"/>
-        <v>-94466</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="95"/>
-        <v>-105618</v>
-      </c>
-      <c r="AF65">
-        <f t="shared" si="95"/>
-        <v>-82950</v>
-      </c>
-      <c r="AG65" s="9">
-        <f t="shared" si="95"/>
-        <v>-77359.3</v>
-      </c>
-      <c r="AH65" s="9">
-        <f t="shared" si="95"/>
-        <v>-82651.813999999998</v>
-      </c>
-      <c r="AI65" s="9">
-        <f t="shared" si="95"/>
-        <v>-75745.493419999999</v>
-      </c>
-      <c r="AJ65" s="9">
-        <f t="shared" si="95"/>
-        <v>-68737.105022600008</v>
-      </c>
-      <c r="AK65" s="9">
-        <f t="shared" si="95"/>
-        <v>-6835.3505012779933</v>
-      </c>
-      <c r="AL65" s="9">
-        <f t="shared" si="95"/>
-        <v>55560.388995883652</v>
-      </c>
-      <c r="AM65" s="9">
-        <f t="shared" si="95"/>
-        <v>121706.02467832615</v>
-      </c>
-      <c r="AN65" s="9">
-        <f t="shared" si="95"/>
-        <v>147494.93499632363</v>
-      </c>
-      <c r="AO65" s="9">
-        <f t="shared" si="95"/>
-        <v>151919.78304621333</v>
-      </c>
-      <c r="AP65" s="9">
-        <f t="shared" si="95"/>
-        <v>126834.95663312949</v>
-      </c>
-      <c r="AQ65" s="9">
-        <f t="shared" si="95"/>
-        <v>103961.82741810023</v>
-      </c>
-      <c r="AR65" s="9">
-        <f t="shared" si="95"/>
-        <v>83070.322118022348</v>
-      </c>
-      <c r="AS65" s="9">
-        <f t="shared" si="95"/>
-        <v>63953.107671204256</v>
-      </c>
-      <c r="AT65" s="9">
-        <f t="shared" si="95"/>
-        <v>46423.309202017466</v>
-      </c>
-      <c r="AU65" s="9">
-        <f t="shared" si="95"/>
-        <v>30312.455948687362</v>
-      </c>
-      <c r="AV65" s="9">
-        <f t="shared" si="95"/>
-        <v>24163.412538748205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="1">
+        <v>-4357</v>
+      </c>
+      <c r="P66" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q66">
+        <f>AG66-P66-O66-N66</f>
+        <v>4255</v>
+      </c>
+      <c r="R66" s="1">
+        <v>469</v>
+      </c>
+      <c r="S66" s="1">
+        <v>-12804</v>
+      </c>
+      <c r="T66" s="1">
+        <v>-27277</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AG66" s="1">
+        <v>-66</v>
+      </c>
+      <c r="AH66" s="9">
+        <f>SUM(R66:V66)</f>
+        <v>-39612</v>
+      </c>
+      <c r="AI66" s="9">
+        <f t="shared" ref="AI66:AI67" si="52">SUM(W66:Z66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" s="1">
-        <v>76</v>
+        <v>-56</v>
       </c>
       <c r="K67" s="1">
-        <v>169</v>
+        <v>-122</v>
       </c>
       <c r="L67" s="1">
-        <v>76</v>
+        <v>-64</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M69" si="96">AE67-L67-K67-J67</f>
-        <v>234</v>
+        <f>AF67-L67-K67-J67</f>
+        <v>-279</v>
       </c>
       <c r="N67" s="1">
-        <v>76</v>
+        <v>-96</v>
       </c>
       <c r="O67" s="1">
-        <v>111</v>
+        <v>-90</v>
       </c>
       <c r="P67" s="1">
-        <v>227</v>
+        <v>-8</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q69" si="97">AF67-P67-O67-N67</f>
-        <v>271</v>
+        <f>AG67-P67-O67-N67</f>
+        <v>17</v>
       </c>
       <c r="R67" s="1">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="S67" s="1">
-        <v>408</v>
-      </c>
-      <c r="U67" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="T67" s="1">
+        <v>10</v>
+      </c>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AC67" s="1">
-        <v>93</v>
-      </c>
+      <c r="AA67" s="1"/>
       <c r="AD67" s="1">
-        <v>559</v>
+        <v>-24</v>
       </c>
       <c r="AE67" s="1">
-        <v>555</v>
+        <v>-54</v>
       </c>
       <c r="AF67" s="1">
-        <v>685</v>
-      </c>
-      <c r="AG67" s="9">
-        <f t="shared" ref="AG67" si="98">SUM(R67:U67)</f>
-        <v>629</v>
+        <v>-521</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>-177</v>
       </c>
       <c r="AH67" s="9">
-        <f t="shared" ref="AH67" si="99">SUM(V67:Y67)</f>
+        <f>SUM(R67:V67)</f>
+        <v>36</v>
+      </c>
+      <c r="AI67" s="9">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="O68" s="1">
-        <v>-4357</v>
-      </c>
-      <c r="P68" s="1">
+    <row r="68" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="2">
+        <f>J65+J66+J67</f>
+        <v>20</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" ref="K68:Z68" si="53">K65+K66+K67</f>
+        <v>47</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="53"/>
+        <v>12</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="53"/>
+        <v>-45</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="53"/>
+        <v>-20</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="53"/>
+        <v>-4336</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="53"/>
+        <v>255</v>
+      </c>
+      <c r="Q68" s="2">
+        <f t="shared" si="53"/>
+        <v>4543</v>
+      </c>
+      <c r="R68" s="2">
+        <f t="shared" si="53"/>
+        <v>721</v>
+      </c>
+      <c r="S68" s="2">
+        <f t="shared" si="53"/>
+        <v>-12401</v>
+      </c>
+      <c r="T68" s="2">
+        <f t="shared" si="53"/>
+        <v>-26875</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="2">
+        <f>AD67+AD66+AD65</f>
+        <v>69</v>
+      </c>
+      <c r="AE68" s="2">
+        <f t="shared" ref="AE68:AI68" si="54">AE67+AE66+AE65</f>
+        <v>505</v>
+      </c>
+      <c r="AF68" s="2">
+        <f t="shared" si="54"/>
+        <v>34</v>
+      </c>
+      <c r="AG68" s="2">
+        <f t="shared" si="54"/>
+        <v>442</v>
+      </c>
+      <c r="AH68" s="2">
+        <f t="shared" si="54"/>
+        <v>-38555</v>
+      </c>
+      <c r="AI68" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="2">
+        <f>AJ67+AJ66+AJ65</f>
+        <v>0</v>
+      </c>
+      <c r="AK68" s="2">
+        <f t="shared" ref="AK68" si="55">AK67+AK66+AK65</f>
+        <v>0</v>
+      </c>
+      <c r="AL68" s="2">
+        <f t="shared" ref="AL68" si="56">AL67+AL66+AL65</f>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="2">
+        <f t="shared" ref="AM68" si="57">AM67+AM66+AM65</f>
+        <v>0</v>
+      </c>
+      <c r="AN68" s="2">
+        <f t="shared" ref="AN68" si="58">AN67+AN66+AN65</f>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="2">
+        <f t="shared" ref="AO68" si="59">AO67+AO66+AO65</f>
+        <v>0</v>
+      </c>
+      <c r="AP68" s="2">
+        <f t="shared" ref="AP68" si="60">AP67+AP66+AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="2">
+        <f t="shared" ref="AQ68" si="61">AQ67+AQ66+AQ65</f>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="2">
+        <f t="shared" ref="AR68" si="62">AR67+AR66+AR65</f>
+        <v>0</v>
+      </c>
+      <c r="AS68" s="2">
+        <f t="shared" ref="AS68" si="63">AS67+AS66+AS65</f>
+        <v>0</v>
+      </c>
+      <c r="AT68" s="2">
+        <f t="shared" ref="AT68" si="64">AT67+AT66+AT65</f>
+        <v>0</v>
+      </c>
+      <c r="AU68" s="2">
+        <f t="shared" ref="AU68" si="65">AU67+AU66+AU65</f>
+        <v>0</v>
+      </c>
+      <c r="AV68" s="2">
+        <f t="shared" ref="AV68" si="66">AV67+AV66+AV65</f>
+        <v>0</v>
+      </c>
+      <c r="AW68" s="2">
+        <f t="shared" ref="AW68" si="67">AW67+AW66+AW65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70">
+        <f>J63+J68</f>
+        <v>-24179</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70:Z70" si="68">K63+K68</f>
+        <v>-25828</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="68"/>
+        <v>-28418</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="68"/>
+        <v>-27159</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="68"/>
+        <v>-23121</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="68"/>
+        <v>-25857</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="68"/>
+        <v>-19101</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="68"/>
+        <v>-14429</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="68"/>
+        <v>-10137</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="68"/>
+        <v>-29577</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="68"/>
+        <v>-42370</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="68"/>
+        <v>-24080.3</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="68"/>
+        <v>-27525.4</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="68"/>
+        <v>-20606.7</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="68"/>
+        <v>-14831.150000000001</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="68"/>
+        <v>-26341.989999999998</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" ref="AD70:AW70" si="69">AD63+AD68</f>
+        <v>-45513</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="69"/>
+        <v>-93961</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="69"/>
+        <v>-105584</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="69"/>
+        <v>-82508</v>
+      </c>
+      <c r="AH70" s="9">
+        <f t="shared" si="69"/>
+        <v>-106164.3</v>
+      </c>
+      <c r="AI70" s="9">
+        <f t="shared" si="69"/>
+        <v>-72609.313999999998</v>
+      </c>
+      <c r="AJ70" s="9">
+        <f t="shared" si="69"/>
+        <v>-65401.71841999999</v>
+      </c>
+      <c r="AK70" s="9">
+        <f t="shared" si="69"/>
+        <v>-58083.016772599993</v>
+      </c>
+      <c r="AL70" s="9">
+        <f t="shared" si="69"/>
+        <v>4138.3603962220222</v>
+      </c>
+      <c r="AM70" s="9">
+        <f t="shared" si="69"/>
+        <v>66863.311220308664</v>
+      </c>
+      <c r="AN70" s="9">
+        <f t="shared" si="69"/>
+        <v>133348.03456948389</v>
+      </c>
+      <c r="AO70" s="9">
+        <f t="shared" si="69"/>
+        <v>159486.20518421612</v>
+      </c>
+      <c r="AP70" s="9">
+        <f t="shared" si="69"/>
+        <v>164270.7913397426</v>
+      </c>
+      <c r="AQ70" s="9">
+        <f t="shared" si="69"/>
+        <v>139556.49517546463</v>
+      </c>
+      <c r="AR70" s="9">
+        <f t="shared" si="69"/>
+        <v>117065.01211670543</v>
+      </c>
+      <c r="AS70" s="9">
+        <f t="shared" si="69"/>
+        <v>96566.602357585696</v>
+      </c>
+      <c r="AT70" s="9">
+        <f t="shared" si="69"/>
+        <v>77854.2763179545</v>
+      </c>
+      <c r="AU70" s="9">
+        <f t="shared" si="69"/>
+        <v>60741.512908170218</v>
+      </c>
+      <c r="AV70" s="9">
+        <f t="shared" si="69"/>
+        <v>45060.205766024679</v>
+      </c>
+      <c r="AW70" s="9">
+        <f t="shared" si="69"/>
+        <v>35961.612392618059</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="Q68">
-        <f t="shared" si="97"/>
-        <v>4255</v>
-      </c>
-      <c r="R68" s="1">
-        <v>469</v>
-      </c>
-      <c r="S68" s="1">
-        <v>-12804</v>
-      </c>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AF68" s="1">
-        <v>-66</v>
-      </c>
-      <c r="AG68" s="9">
-        <f t="shared" ref="AG68:AG69" si="100">SUM(R68:U68)</f>
-        <v>-12335</v>
-      </c>
-      <c r="AH68" s="9">
-        <f t="shared" ref="AH68:AH69" si="101">SUM(V68:Y68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="1">
-        <v>-56</v>
-      </c>
-      <c r="K69" s="1">
-        <v>-122</v>
-      </c>
-      <c r="L69" s="1">
-        <v>-64</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="96"/>
-        <v>-279</v>
-      </c>
-      <c r="N69" s="1">
-        <v>-96</v>
-      </c>
-      <c r="O69" s="1">
-        <v>-90</v>
-      </c>
-      <c r="P69" s="1">
-        <v>-8</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="97"/>
-        <v>17</v>
-      </c>
-      <c r="R69" s="1">
-        <v>31</v>
-      </c>
-      <c r="S69" s="1">
-        <v>-5</v>
-      </c>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AC69" s="1">
-        <v>-24</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>-54</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>-521</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>-177</v>
-      </c>
-      <c r="AG69" s="9">
-        <f t="shared" si="100"/>
-        <v>26</v>
-      </c>
-      <c r="AH69" s="9">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="2">
-        <f>J67+J68+J69</f>
-        <v>20</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" ref="K70:Y70" si="102">K67+K68+K69</f>
-        <v>47</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="102"/>
-        <v>12</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="102"/>
-        <v>-45</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="102"/>
-        <v>-20</v>
-      </c>
-      <c r="O70" s="2">
-        <f t="shared" si="102"/>
-        <v>-4336</v>
-      </c>
-      <c r="P70" s="2">
-        <f t="shared" si="102"/>
-        <v>255</v>
-      </c>
-      <c r="Q70" s="2">
-        <f t="shared" si="102"/>
-        <v>4543</v>
-      </c>
-      <c r="R70" s="2">
-        <f t="shared" si="102"/>
-        <v>721</v>
-      </c>
-      <c r="S70" s="2">
-        <f t="shared" si="102"/>
-        <v>-12401</v>
-      </c>
-      <c r="T70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="2">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="2">
-        <f>AC69+AC68+AC67</f>
-        <v>69</v>
-      </c>
-      <c r="AD70" s="2">
-        <f t="shared" ref="AD70:AH70" si="103">AD69+AD68+AD67</f>
-        <v>505</v>
-      </c>
-      <c r="AE70" s="2">
-        <f t="shared" si="103"/>
-        <v>34</v>
-      </c>
-      <c r="AF70" s="2">
-        <f t="shared" si="103"/>
-        <v>442</v>
-      </c>
-      <c r="AG70" s="2">
-        <f t="shared" si="103"/>
-        <v>-11680</v>
-      </c>
-      <c r="AH70" s="2">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AI70" s="2">
-        <f>AI69+AI68+AI67</f>
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="2">
-        <f t="shared" ref="AJ70" si="104">AJ69+AJ68+AJ67</f>
-        <v>0</v>
-      </c>
-      <c r="AK70" s="2">
-        <f t="shared" ref="AK70" si="105">AK69+AK68+AK67</f>
-        <v>0</v>
-      </c>
-      <c r="AL70" s="2">
-        <f t="shared" ref="AL70" si="106">AL69+AL68+AL67</f>
-        <v>0</v>
-      </c>
-      <c r="AM70" s="2">
-        <f t="shared" ref="AM70" si="107">AM69+AM68+AM67</f>
-        <v>0</v>
-      </c>
-      <c r="AN70" s="2">
-        <f t="shared" ref="AN70" si="108">AN69+AN68+AN67</f>
-        <v>0</v>
-      </c>
-      <c r="AO70" s="2">
-        <f t="shared" ref="AO70" si="109">AO69+AO68+AO67</f>
-        <v>0</v>
-      </c>
-      <c r="AP70" s="2">
-        <f t="shared" ref="AP70" si="110">AP69+AP68+AP67</f>
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="2">
-        <f t="shared" ref="AQ70" si="111">AQ69+AQ68+AQ67</f>
-        <v>0</v>
-      </c>
-      <c r="AR70" s="2">
-        <f t="shared" ref="AR70" si="112">AR69+AR68+AR67</f>
-        <v>0</v>
-      </c>
-      <c r="AS70" s="2">
-        <f t="shared" ref="AS70" si="113">AS69+AS68+AS67</f>
-        <v>0</v>
-      </c>
-      <c r="AT70" s="2">
-        <f t="shared" ref="AT70" si="114">AT69+AT68+AT67</f>
-        <v>0</v>
-      </c>
-      <c r="AU70" s="2">
-        <f t="shared" ref="AU70" si="115">AU69+AU68+AU67</f>
-        <v>0</v>
-      </c>
-      <c r="AV70" s="2">
-        <f t="shared" ref="AV70" si="116">AV69+AV68+AV67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72">
-        <f>J65+J70</f>
+      <c r="J74" s="1">
         <v>-24179</v>
       </c>
-      <c r="K72">
-        <f t="shared" ref="K72:Y72" si="117">K65+K70</f>
+      <c r="K74" s="1">
         <v>-25828</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="117"/>
+      <c r="L74" s="1">
         <v>-28418</v>
       </c>
-      <c r="M72">
-        <f t="shared" si="117"/>
+      <c r="M74">
+        <f>AF74-L74-K74-J74</f>
         <v>-27159</v>
       </c>
-      <c r="N72">
-        <f t="shared" si="117"/>
+      <c r="N74" s="1">
         <v>-23121</v>
       </c>
-      <c r="O72">
-        <f t="shared" si="117"/>
+      <c r="O74" s="1">
         <v>-25857</v>
       </c>
-      <c r="P72">
-        <f t="shared" si="117"/>
+      <c r="P74" s="1">
         <v>-19101</v>
       </c>
-      <c r="Q72">
-        <f t="shared" si="117"/>
+      <c r="Q74">
+        <f>AG74-P74-O74-N74</f>
         <v>-14429</v>
       </c>
-      <c r="R72">
-        <f t="shared" si="117"/>
+      <c r="R74" s="1">
         <v>-10137</v>
       </c>
-      <c r="S72">
-        <f t="shared" si="117"/>
+      <c r="S74" s="1">
         <v>-29577</v>
       </c>
-      <c r="T72">
-        <f t="shared" si="117"/>
-        <v>-25245</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="117"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AD74">
+        <v>-45513</v>
+      </c>
+      <c r="AE74">
+        <v>-93961</v>
+      </c>
+      <c r="AF74">
+        <v>-105584</v>
+      </c>
+      <c r="AG74">
+        <v>-82508</v>
+      </c>
+      <c r="AI74" s="8"/>
+    </row>
+    <row r="75" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2">
+        <f>J70-J72</f>
+        <v>-24179</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" ref="K75:Z75" si="70">K70-K72</f>
+        <v>-25828</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="70"/>
+        <v>-28418</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="70"/>
+        <v>-27159</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="70"/>
+        <v>-23121</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="70"/>
+        <v>-25857</v>
+      </c>
+      <c r="P75" s="2">
+        <f t="shared" si="70"/>
+        <v>-19101</v>
+      </c>
+      <c r="Q75" s="2">
+        <f t="shared" si="70"/>
+        <v>-14429</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="70"/>
+        <v>-10137</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="70"/>
+        <v>-29577</v>
+      </c>
+      <c r="T75" s="24">
+        <f t="shared" si="70"/>
+        <v>-42370</v>
+      </c>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24">
+        <f t="shared" si="70"/>
         <v>-24080.3</v>
       </c>
-      <c r="V72">
-        <f t="shared" si="117"/>
+      <c r="W75" s="24">
+        <f t="shared" si="70"/>
         <v>-27525.4</v>
       </c>
-      <c r="W72">
-        <f t="shared" si="117"/>
-        <v>-20618.400000000001</v>
-      </c>
-      <c r="X72">
-        <f t="shared" si="117"/>
-        <v>-27724.05</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="117"/>
+      <c r="X75" s="24">
+        <f t="shared" si="70"/>
+        <v>-20606.7</v>
+      </c>
+      <c r="Y75" s="24">
+        <f t="shared" si="70"/>
+        <v>-14831.150000000001</v>
+      </c>
+      <c r="Z75" s="24">
+        <f t="shared" si="70"/>
         <v>-26341.989999999998</v>
       </c>
-      <c r="AC72">
-        <f t="shared" ref="AC72:AV72" si="118">AC65+AC70</f>
+      <c r="AD75" s="2">
+        <f t="shared" ref="AD75:AW75" si="71">AD70-AD72</f>
         <v>-45513</v>
       </c>
-      <c r="AD72">
-        <f t="shared" si="118"/>
+      <c r="AE75" s="2">
+        <f t="shared" si="71"/>
         <v>-93961</v>
       </c>
-      <c r="AE72">
-        <f t="shared" si="118"/>
+      <c r="AF75" s="2">
+        <f t="shared" si="71"/>
         <v>-105584</v>
       </c>
-      <c r="AF72">
-        <f t="shared" si="118"/>
+      <c r="AG75" s="2">
+        <f t="shared" si="71"/>
         <v>-82508</v>
       </c>
-      <c r="AG72" s="9">
-        <f t="shared" si="118"/>
-        <v>-89039.3</v>
-      </c>
-      <c r="AH72" s="9">
-        <f t="shared" si="118"/>
-        <v>-82651.813999999998</v>
-      </c>
-      <c r="AI72" s="9">
-        <f t="shared" si="118"/>
-        <v>-75745.493419999999</v>
-      </c>
-      <c r="AJ72" s="9">
-        <f t="shared" si="118"/>
-        <v>-68737.105022600008</v>
-      </c>
-      <c r="AK72" s="9">
-        <f t="shared" si="118"/>
-        <v>-6835.3505012779933</v>
-      </c>
-      <c r="AL72" s="9">
-        <f t="shared" si="118"/>
-        <v>55560.388995883652</v>
-      </c>
-      <c r="AM72" s="9">
-        <f t="shared" si="118"/>
-        <v>121706.02467832615</v>
-      </c>
-      <c r="AN72" s="9">
-        <f t="shared" si="118"/>
-        <v>147494.93499632363</v>
-      </c>
-      <c r="AO72" s="9">
-        <f t="shared" si="118"/>
-        <v>151919.78304621333</v>
-      </c>
-      <c r="AP72" s="9">
-        <f t="shared" si="118"/>
-        <v>126834.95663312949</v>
-      </c>
-      <c r="AQ72" s="9">
-        <f t="shared" si="118"/>
-        <v>103961.82741810023</v>
-      </c>
-      <c r="AR72" s="9">
-        <f t="shared" si="118"/>
-        <v>83070.322118022348</v>
-      </c>
-      <c r="AS72" s="9">
-        <f t="shared" si="118"/>
-        <v>63953.107671204256</v>
-      </c>
-      <c r="AT72" s="9">
-        <f t="shared" si="118"/>
-        <v>46423.309202017466</v>
-      </c>
-      <c r="AU72" s="9">
-        <f t="shared" si="118"/>
-        <v>30312.455948687362</v>
-      </c>
-      <c r="AV72" s="9">
-        <f t="shared" si="118"/>
-        <v>24163.412538748205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AH75" s="24">
+        <f t="shared" si="71"/>
+        <v>-106164.3</v>
+      </c>
+      <c r="AI75" s="24">
+        <f t="shared" si="71"/>
+        <v>-72609.313999999998</v>
+      </c>
+      <c r="AJ75" s="24">
+        <f t="shared" si="71"/>
+        <v>-65401.71841999999</v>
+      </c>
+      <c r="AK75" s="24">
+        <f t="shared" si="71"/>
+        <v>-58083.016772599993</v>
+      </c>
+      <c r="AL75" s="24">
+        <f t="shared" si="71"/>
+        <v>4138.3603962220222</v>
+      </c>
+      <c r="AM75" s="24">
+        <f t="shared" si="71"/>
+        <v>66863.311220308664</v>
+      </c>
+      <c r="AN75" s="24">
+        <f t="shared" si="71"/>
+        <v>133348.03456948389</v>
+      </c>
+      <c r="AO75" s="24">
+        <f t="shared" si="71"/>
+        <v>159486.20518421612</v>
+      </c>
+      <c r="AP75" s="24">
+        <f t="shared" si="71"/>
+        <v>164270.7913397426</v>
+      </c>
+      <c r="AQ75" s="24">
+        <f t="shared" si="71"/>
+        <v>139556.49517546463</v>
+      </c>
+      <c r="AR75" s="24">
+        <f t="shared" si="71"/>
+        <v>117065.01211670543</v>
+      </c>
+      <c r="AS75" s="24">
+        <f t="shared" si="71"/>
+        <v>96566.602357585696</v>
+      </c>
+      <c r="AT75" s="24">
+        <f t="shared" si="71"/>
+        <v>77854.2763179545</v>
+      </c>
+      <c r="AU75" s="24">
+        <f t="shared" si="71"/>
+        <v>60741.512908170218</v>
+      </c>
+      <c r="AV75" s="24">
+        <f t="shared" si="71"/>
+        <v>45060.205766024679</v>
+      </c>
+      <c r="AW75" s="24">
+        <f t="shared" si="71"/>
+        <v>35961.612392618059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="1">
-        <v>-24179</v>
-      </c>
-      <c r="K76" s="1">
-        <v>-25828</v>
-      </c>
-      <c r="L76" s="1">
-        <v>-28418</v>
-      </c>
-      <c r="M76">
-        <f t="shared" ref="M76" si="119">AE76-L76-K76-J76</f>
-        <v>-27159</v>
-      </c>
-      <c r="N76" s="1">
-        <v>-23121</v>
-      </c>
-      <c r="O76" s="1">
-        <v>-25857</v>
-      </c>
-      <c r="P76" s="1">
-        <v>-19101</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" ref="Q76" si="120">AF76-P76-O76-N76</f>
-        <v>-14429</v>
-      </c>
-      <c r="R76" s="1">
-        <v>-10137</v>
-      </c>
-      <c r="S76" s="1">
-        <v>-29577</v>
-      </c>
-      <c r="U76" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="J76" t="b">
+        <f>J75=J74</f>
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <f t="shared" ref="K76:S76" si="72">K75=K74</f>
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="P76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="Q76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="R76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="S76" t="b">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76">
-        <v>-45513</v>
-      </c>
-      <c r="AD76">
-        <v>-93961</v>
-      </c>
-      <c r="AE76">
-        <v>-105584</v>
-      </c>
-      <c r="AF76">
-        <v>-82508</v>
-      </c>
-      <c r="AH76" s="8"/>
-    </row>
-    <row r="77" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="2">
-        <f>J72-J74</f>
-        <v>-24179</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" ref="K77:Y77" si="121">K72-K74</f>
-        <v>-25828</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="121"/>
-        <v>-28418</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="121"/>
-        <v>-27159</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="121"/>
-        <v>-23121</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="121"/>
-        <v>-25857</v>
-      </c>
-      <c r="P77" s="2">
-        <f t="shared" si="121"/>
-        <v>-19101</v>
-      </c>
-      <c r="Q77" s="2">
-        <f t="shared" si="121"/>
-        <v>-14429</v>
-      </c>
-      <c r="R77" s="2">
-        <f t="shared" si="121"/>
-        <v>-10137</v>
-      </c>
-      <c r="S77" s="2">
-        <f t="shared" si="121"/>
-        <v>-29577</v>
-      </c>
-      <c r="T77" s="24">
-        <f t="shared" si="121"/>
-        <v>-25245</v>
-      </c>
-      <c r="U77" s="24">
-        <f t="shared" si="121"/>
-        <v>-24080.3</v>
-      </c>
-      <c r="V77" s="24">
-        <f t="shared" si="121"/>
-        <v>-27525.4</v>
-      </c>
-      <c r="W77" s="24">
-        <f t="shared" si="121"/>
-        <v>-20618.400000000001</v>
-      </c>
-      <c r="X77" s="24">
-        <f t="shared" si="121"/>
-        <v>-27724.05</v>
-      </c>
-      <c r="Y77" s="24">
-        <f t="shared" si="121"/>
-        <v>-26341.989999999998</v>
-      </c>
-      <c r="AC77" s="2">
-        <f t="shared" ref="AC77:AV77" si="122">AC72-AC74</f>
-        <v>-45513</v>
-      </c>
-      <c r="AD77" s="2">
-        <f t="shared" si="122"/>
-        <v>-93961</v>
-      </c>
-      <c r="AE77" s="2">
-        <f t="shared" si="122"/>
-        <v>-105584</v>
-      </c>
-      <c r="AF77" s="2">
-        <f t="shared" si="122"/>
-        <v>-82508</v>
-      </c>
-      <c r="AG77" s="24">
-        <f t="shared" si="122"/>
-        <v>-89039.3</v>
-      </c>
-      <c r="AH77" s="24">
-        <f t="shared" si="122"/>
-        <v>-82651.813999999998</v>
-      </c>
-      <c r="AI77" s="24">
-        <f t="shared" si="122"/>
-        <v>-75745.493419999999</v>
-      </c>
-      <c r="AJ77" s="24">
-        <f t="shared" si="122"/>
-        <v>-68737.105022600008</v>
-      </c>
-      <c r="AK77" s="24">
-        <f t="shared" si="122"/>
-        <v>-6835.3505012779933</v>
-      </c>
-      <c r="AL77" s="24">
-        <f t="shared" si="122"/>
-        <v>55560.388995883652</v>
-      </c>
-      <c r="AM77" s="24">
-        <f t="shared" si="122"/>
-        <v>121706.02467832615</v>
-      </c>
-      <c r="AN77" s="24">
-        <f t="shared" si="122"/>
-        <v>147494.93499632363</v>
-      </c>
-      <c r="AO77" s="24">
-        <f t="shared" si="122"/>
-        <v>151919.78304621333</v>
-      </c>
-      <c r="AP77" s="24">
-        <f t="shared" si="122"/>
-        <v>126834.95663312949</v>
-      </c>
-      <c r="AQ77" s="24">
-        <f t="shared" si="122"/>
-        <v>103961.82741810023</v>
-      </c>
-      <c r="AR77" s="24">
-        <f t="shared" si="122"/>
-        <v>83070.322118022348</v>
-      </c>
-      <c r="AS77" s="24">
-        <f t="shared" si="122"/>
-        <v>63953.107671204256</v>
-      </c>
-      <c r="AT77" s="24">
-        <f t="shared" si="122"/>
-        <v>46423.309202017466</v>
-      </c>
-      <c r="AU77" s="24">
-        <f t="shared" si="122"/>
-        <v>30312.455948687362</v>
-      </c>
-      <c r="AV77" s="24">
-        <f t="shared" si="122"/>
-        <v>24163.412538748205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AA76" s="1"/>
+      <c r="AD76" t="b">
+        <f t="shared" ref="AD76" si="73">AD75=AD74</f>
+        <v>1</v>
+      </c>
+      <c r="AE76" t="b">
+        <f t="shared" ref="AE76" si="74">AE75=AE74</f>
+        <v>1</v>
+      </c>
+      <c r="AF76" t="b">
+        <f t="shared" ref="AF76" si="75">AF75=AF74</f>
+        <v>1</v>
+      </c>
+      <c r="AG76" t="b">
+        <f t="shared" ref="AG76" si="76">AG75=AG74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="J78" t="b">
-        <f>J77=J76</f>
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
-        <f t="shared" ref="K78:S78" si="123">K77=K76</f>
-        <v>1</v>
-      </c>
-      <c r="L78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="M78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="N78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="O78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="P78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="Q78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="R78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="S78" t="b">
-        <f t="shared" si="123"/>
-        <v>1</v>
-      </c>
-      <c r="U78" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="J78" s="1">
+        <v>24135735</v>
+      </c>
+      <c r="K78" s="1">
+        <v>26082525</v>
+      </c>
+      <c r="L78" s="1">
+        <v>26177079</v>
+      </c>
+      <c r="M78" s="1">
+        <f>AF78*4-L78-K78-J78</f>
+        <v>-76395236.607275993</v>
+      </c>
+      <c r="N78" s="1">
+        <v>26215514</v>
+      </c>
+      <c r="O78" s="1">
+        <v>26901069</v>
+      </c>
+      <c r="P78" s="1">
+        <v>48000183</v>
+      </c>
+      <c r="Q78" s="1">
+        <f>AG78*4-P78-O78-N78</f>
+        <v>-101116614.698276</v>
+      </c>
+      <c r="R78" s="1">
+        <v>56357983</v>
+      </c>
+      <c r="S78" s="1">
+        <v>79041695</v>
+      </c>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" t="b">
-        <f t="shared" ref="AC78" si="124">AC77=AC76</f>
-        <v>1</v>
-      </c>
-      <c r="AD78" t="b">
-        <f t="shared" ref="AD78" si="125">AD77=AD76</f>
-        <v>1</v>
-      </c>
-      <c r="AE78" t="b">
-        <f t="shared" ref="AE78" si="126">AE77=AE76</f>
-        <v>1</v>
-      </c>
-      <c r="AF78" t="b">
-        <f t="shared" ref="AF78" si="127">AF77=AF76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="J80" s="1">
-        <v>24135735</v>
-      </c>
-      <c r="K80" s="1">
-        <v>26082525</v>
-      </c>
-      <c r="L80" s="1">
-        <v>26177079</v>
-      </c>
-      <c r="M80" s="1">
-        <f>AE80*4-L80-K80-J80</f>
-        <v>-76395236.607275993</v>
-      </c>
-      <c r="N80" s="1">
-        <v>26215514</v>
-      </c>
-      <c r="O80" s="1">
-        <v>26901069</v>
-      </c>
-      <c r="P80" s="1">
-        <v>48000183</v>
-      </c>
-      <c r="Q80" s="1">
-        <f>AF80*4-P80-O80-N80</f>
-        <v>-101116614.698276</v>
-      </c>
-      <c r="R80" s="1">
-        <v>56357983</v>
-      </c>
-      <c r="S80" s="1">
-        <v>79041695</v>
-      </c>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AE80" s="25">
+      <c r="AA78" s="1"/>
+      <c r="AF78" s="25">
         <v>25.598181</v>
       </c>
-      <c r="AF80" s="25">
+      <c r="AG78" s="25">
         <v>37.825431000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="87" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q89">
+        <v>16657</v>
+      </c>
+      <c r="S89">
+        <v>35616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q90">
+        <v>13923</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q91">
-        <v>16657</v>
+        <v>6728</v>
       </c>
       <c r="S91">
-        <v>35616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q92">
-        <v>13923</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q93">
-        <v>6728</v>
-      </c>
-      <c r="S93">
         <v>7205</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Q94" s="2">
-        <f>Q93+Q91+Q92</f>
+      <c r="Q92" s="2">
+        <f>Q91+Q89+Q90</f>
         <v>37308</v>
       </c>
-      <c r="S94" s="2">
-        <f>S93+S91+S92</f>
+      <c r="S92" s="2">
+        <f>S91+S89+S90</f>
         <v>42821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q94">
+        <v>857</v>
+      </c>
+      <c r="S94">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q95">
+        <v>198</v>
+      </c>
+      <c r="S95">
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="Q96">
-        <v>857</v>
+        <f>Q95+Q94</f>
+        <v>1055</v>
       </c>
       <c r="S96">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q97">
-        <v>198</v>
-      </c>
-      <c r="S97">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q98">
-        <f>Q97+Q96</f>
-        <v>1055</v>
-      </c>
-      <c r="S98">
-        <f>S97+S96</f>
+        <f>S95+S94</f>
         <v>825</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q99" s="2">
-        <f>Q97+Q96+Q94</f>
+      <c r="Q97" s="2">
+        <f>Q95+Q94+Q92</f>
         <v>38363</v>
       </c>
-      <c r="S99" s="2">
-        <f>S97+S96+S94</f>
+      <c r="S97" s="2">
+        <f>S95+S94+S92</f>
         <v>43646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q99">
+        <v>477</v>
+      </c>
+      <c r="S99">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q100">
+        <v>4534</v>
+      </c>
+      <c r="S100">
+        <v>4687</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q101">
-        <v>477</v>
+        <v>14756</v>
       </c>
       <c r="S101">
-        <v>486</v>
+        <v>16023</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q102">
-        <v>4534</v>
+        <v>13657</v>
       </c>
       <c r="S102">
-        <v>4687</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q103">
-        <v>14756</v>
-      </c>
-      <c r="S103">
-        <v>16023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q104">
-        <v>13657</v>
-      </c>
-      <c r="S104">
         <v>25992</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="103" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q105" s="2">
-        <f>Q101+Q102+Q103+Q104</f>
+      <c r="Q103" s="2">
+        <f>Q99+Q100+Q101+Q102</f>
         <v>33424</v>
       </c>
-      <c r="S105" s="2">
-        <f>S101+S102+S103+S104</f>
+      <c r="S103" s="2">
+        <f>S99+S100+S101+S102</f>
         <v>47188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q105">
+        <v>414</v>
+      </c>
+      <c r="S105">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q106">
+        <v>464</v>
+      </c>
+      <c r="S106">
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q107">
-        <v>414</v>
+        <f>Q106+Q105</f>
+        <v>878</v>
       </c>
       <c r="S107">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q108">
-        <v>464</v>
-      </c>
-      <c r="S108">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q109">
-        <f>Q108+Q107</f>
-        <v>878</v>
-      </c>
-      <c r="S109">
-        <f>S108+S107</f>
+        <f>S106+S105</f>
         <v>792</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="108" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q110" s="2">
-        <f>Q109+Q105</f>
+      <c r="Q108" s="2">
+        <f>Q107+Q103</f>
         <v>34302</v>
       </c>
-      <c r="S110" s="2">
-        <f>S109+S105</f>
+      <c r="S108" s="2">
+        <f>S107+S103</f>
         <v>47980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q112">
-        <v>5</v>
+        <v>352828</v>
       </c>
       <c r="S112">
-        <v>6</v>
+        <v>384197</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="Q113">
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q114">
-        <v>352828</v>
+        <v>-348823</v>
       </c>
       <c r="S114">
-        <v>384197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q115">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q116">
-        <v>-348823</v>
-      </c>
-      <c r="S116">
         <v>-388537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q115" s="2">
+        <f>Q114+Q113+Q112+Q111+Q110</f>
+        <v>4061</v>
+      </c>
+      <c r="S115" s="2">
+        <f>S114+S113+S112+S111+S110</f>
+        <v>-4334</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q117" s="2">
-        <f>Q116+Q115+Q114+Q113+Q112</f>
-        <v>4061</v>
+        <f>Q115+Q108</f>
+        <v>38363</v>
       </c>
       <c r="S117" s="2">
-        <f>S116+S115+S114+S113+S112</f>
-        <v>-4334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q119" s="2">
-        <f>Q117+Q110</f>
-        <v>38363</v>
-      </c>
-      <c r="S119" s="2">
-        <f>S117+S110</f>
+        <f>S115+S108</f>
         <v>43646</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" t="b">
-        <f>Q119=Q99</f>
+      <c r="Q118" t="b">
+        <f>Q117=Q97</f>
         <v>1</v>
       </c>
-      <c r="S120" t="b">
-        <f>S119=S99</f>
+      <c r="S118" t="b">
+        <f>S117=S97</f>
         <v>1</v>
       </c>
     </row>
@@ -7245,79 +7174,79 @@
         <v>183</v>
       </c>
       <c r="F11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>405</v>
       </c>
       <c r="G11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>1215</v>
       </c>
       <c r="H11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>2025</v>
       </c>
       <c r="I11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>2835</v>
       </c>
       <c r="J11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>3240</v>
       </c>
       <c r="K11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>20023.2</v>
       </c>
       <c r="L11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>30935.844000000005</v>
       </c>
       <c r="M11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>102934.88340000002</v>
       </c>
       <c r="N11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>175579.37436000002</v>
       </c>
       <c r="O11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>252489.89338254</v>
       </c>
       <c r="P11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>284662.06749251363</v>
       </c>
       <c r="Q11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>293201.92951728904</v>
       </c>
       <c r="R11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>269061.96528672968</v>
       </c>
       <c r="S11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>247491.40434086142</v>
       </c>
       <c r="T11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>228237.96855706404</v>
       </c>
       <c r="U11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>211074.74749115511</v>
       </c>
       <c r="V11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>195797.66580553097</v>
       </c>
       <c r="W11" s="35">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>182223.20408037398</v>
       </c>
       <c r="X11" s="36">
-        <f>VLOOKUP($E11,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E11,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>145682.39413074174</v>
       </c>
     </row>
@@ -7332,79 +7261,79 @@
         <v>153</v>
       </c>
       <c r="F12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>364.5</v>
       </c>
       <c r="G12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>1093.5</v>
       </c>
       <c r="H12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>1822.5</v>
       </c>
       <c r="I12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>2551.5</v>
       </c>
       <c r="J12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>2916</v>
       </c>
       <c r="K12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>18020.88</v>
       </c>
       <c r="L12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>27842.259600000005</v>
       </c>
       <c r="M12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>92641.395060000024</v>
       </c>
       <c r="N12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>158021.43692400001</v>
       </c>
       <c r="O12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>227240.904044286</v>
       </c>
       <c r="P12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>256195.86074326228</v>
       </c>
       <c r="Q12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>263881.73656556016</v>
       </c>
       <c r="R12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>242155.76875805671</v>
       </c>
       <c r="S12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>222742.26390677528</v>
       </c>
       <c r="T12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>205414.17170135764</v>
       </c>
       <c r="U12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>189967.27274203961</v>
       </c>
       <c r="V12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>176217.89922497788</v>
       </c>
       <c r="W12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>164000.88367233658</v>
       </c>
       <c r="X12" s="37">
-        <f>VLOOKUP($E12,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E12,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>131114.15471766758</v>
       </c>
     </row>
@@ -7419,80 +7348,80 @@
         <v>0</v>
       </c>
       <c r="F13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>16889.25</v>
       </c>
       <c r="G13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>22620.9</v>
       </c>
       <c r="H13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>16666.650000000001</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>16654.95</v>
       </c>
       <c r="I13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>22483.237499999999</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>12864.65</v>
       </c>
       <c r="J13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>20661.5625</v>
       </c>
       <c r="K13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>79520.500499999995</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>70352.974375000005</v>
       </c>
       <c r="L13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>76790.536515</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>68062.07110624999</v>
       </c>
       <c r="M13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>74234.452560449994</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>65922.515364437495</v>
       </c>
       <c r="N13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>71844.676089763496</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>63927.843844120616</v>
       </c>
       <c r="O13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69614.046827331389</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>62071.949527256729</v>
       </c>
       <c r="P13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67535.797164282587</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>60349.064862496307</v>
       </c>
       <c r="Q13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>65603.533564735757</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>58753.745815321978</v>
       </c>
       <c r="R13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>66161.48183214599</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>59303.045148507852</v>
       </c>
       <c r="S13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>66736.168547578534</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>59868.82346168931</v>
       </c>
       <c r="T13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67328.095864474075</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>60451.575124266208</v>
       </c>
       <c r="U13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>67937.781000876465</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>61051.809336720413</v>
       </c>
       <c r="V13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>68565.756691370931</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>61670.050575548237</v>
       </c>
       <c r="W13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69212.571652580227</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>62306.839051540897</v>
       </c>
       <c r="X13" s="37">
-        <f>VLOOKUP($E13,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>69878.791062625794</v>
+        <f>VLOOKUP($E13,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>62962.731181813346</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
@@ -7507,80 +7436,80 @@
         <v>1</v>
       </c>
       <c r="F14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>7555.5499999999993</v>
       </c>
       <c r="G14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>5998.0000000000009</v>
       </c>
       <c r="H14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>5774.25</v>
       </c>
       <c r="I14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>7792.3125000000009</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>4518</v>
       </c>
       <c r="J14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>8596.4274999999998</v>
       </c>
       <c r="K14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>29005.819700000004</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>25633.277825000001</v>
       </c>
       <c r="L14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>29875.994291000003</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>26402.276159750003</v>
       </c>
       <c r="M14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>30772.274119730002</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>27194.344444542505</v>
       </c>
       <c r="N14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>31695.442343321905</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>28010.174777878776</v>
       </c>
       <c r="O14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>32646.30561362156</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>28850.480021215142</v>
       </c>
       <c r="P14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>33625.694782030208</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>29715.994421851599</v>
       </c>
       <c r="Q14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>34634.465625491117</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>30607.474254507149</v>
       </c>
       <c r="R14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>35673.499594255853</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>31525.698482142365</v>
       </c>
       <c r="S14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>36743.704582083526</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>32471.46943660664</v>
       </c>
       <c r="T14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>37846.015719546034</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>33445.613519704835</v>
       </c>
       <c r="U14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>38981.396191132422</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>34448.981925295979</v>
       </c>
       <c r="V14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>40150.838076866392</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>35482.45138305486</v>
       </c>
       <c r="W14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>41355.363219172388</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>36546.924924546511</v>
       </c>
       <c r="X14" s="37">
-        <f>VLOOKUP($E14,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>42596.024115747561</v>
+        <f>VLOOKUP($E14,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>37643.332672282908</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
@@ -7592,80 +7521,80 @@
         <v>40</v>
       </c>
       <c r="F15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
       <c r="G15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
       <c r="H15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20618.400000000001</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-20606.7</v>
       </c>
       <c r="I15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-27724.05</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-14831.150000000001</v>
       </c>
       <c r="J15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
       <c r="K15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-75745.493419999999</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-65401.71841999999</v>
       </c>
       <c r="L15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-68737.105022600008</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-58083.016772599993</v>
       </c>
       <c r="M15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-6835.3505012779933</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>4138.3603962220222</v>
       </c>
       <c r="N15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55560.388995883652</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>66863.311220308664</v>
       </c>
       <c r="O15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>121706.02467832615</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>133348.03456948389</v>
       </c>
       <c r="P15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>147494.93499632363</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>159486.20518421612</v>
       </c>
       <c r="Q15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>151919.78304621333</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>164270.7913397426</v>
       </c>
       <c r="R15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>126834.95663312949</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>139556.49517546463</v>
       </c>
       <c r="S15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>103961.82741810023</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>117065.01211670543</v>
       </c>
       <c r="T15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>83070.322118022348</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>96566.602357585696</v>
       </c>
       <c r="U15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>63953.107671204256</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>77854.2763179545</v>
       </c>
       <c r="V15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46423.309202017466</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>60741.512908170218</v>
       </c>
       <c r="W15" s="35">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>30312.455948687362</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>45060.205766024679</v>
       </c>
       <c r="X15" s="36">
-        <f>VLOOKUP($E15,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>24163.412538748205</v>
+        <f>VLOOKUP($E15,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>35961.612392618059</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
@@ -7673,86 +7602,86 @@
         <v>159</v>
       </c>
       <c r="C16" s="30">
-        <f>Model!S104/1000</f>
+        <f>Model!S102/1000</f>
         <v>25.992000000000001</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="G16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X16" s="37">
-        <f>VLOOKUP($E16,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E16,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7761,87 +7690,87 @@
         <v>160</v>
       </c>
       <c r="C17" s="30">
-        <f>Model!S91/1000</f>
+        <f>Model!S89/1000</f>
         <v>35.616</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
       <c r="G17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
       <c r="H17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20618.400000000001</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-20606.7</v>
       </c>
       <c r="I17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-27724.05</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-14831.150000000001</v>
       </c>
       <c r="J17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
       <c r="K17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-75745.493419999999</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-65401.71841999999</v>
       </c>
       <c r="L17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-68737.105022600008</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-58083.016772599993</v>
       </c>
       <c r="M17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-6835.3505012779933</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>4138.3603962220222</v>
       </c>
       <c r="N17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55560.388995883652</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>66863.311220308664</v>
       </c>
       <c r="O17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>121706.02467832615</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>133348.03456948389</v>
       </c>
       <c r="P17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>147494.93499632363</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>159486.20518421612</v>
       </c>
       <c r="Q17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>151919.78304621333</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>164270.7913397426</v>
       </c>
       <c r="R17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>126834.95663312949</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>139556.49517546463</v>
       </c>
       <c r="S17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>103961.82741810023</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>117065.01211670543</v>
       </c>
       <c r="T17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>83070.322118022348</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>96566.602357585696</v>
       </c>
       <c r="U17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>63953.107671204256</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>77854.2763179545</v>
       </c>
       <c r="V17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46423.309202017466</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>60741.512908170218</v>
       </c>
       <c r="W17" s="35">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>30312.455948687362</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>45060.205766024679</v>
       </c>
       <c r="X17" s="36">
-        <f>VLOOKUP($E17,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>24163.412538748205</v>
+        <f>VLOOKUP($E17,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>35961.612392618059</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
@@ -7856,80 +7785,80 @@
         <v>6</v>
       </c>
       <c r="F18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!F$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!F$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-24080.3</v>
       </c>
       <c r="G18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!G$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!G$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-27525.4</v>
       </c>
       <c r="H18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!H$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-20618.400000000001</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!H$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-20606.7</v>
       </c>
       <c r="I18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!I$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-27724.05</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!I$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-14831.150000000001</v>
       </c>
       <c r="J18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!J$10,Model!$A$3:$BR$3,0),FALSE)</f>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!J$10,Model!$A$3:$BS$3,0),FALSE)</f>
         <v>-26341.989999999998</v>
       </c>
       <c r="K18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!K$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-75745.493419999999</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!K$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-65401.71841999999</v>
       </c>
       <c r="L18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!L$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-68737.105022600008</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!L$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>-58083.016772599993</v>
       </c>
       <c r="M18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!M$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>-6835.3505012779933</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!M$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>4138.3603962220222</v>
       </c>
       <c r="N18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!N$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>55560.388995883652</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!N$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>66863.311220308664</v>
       </c>
       <c r="O18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!O$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>121706.02467832615</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!O$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>133348.03456948389</v>
       </c>
       <c r="P18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!P$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>147494.93499632363</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!P$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>159486.20518421612</v>
       </c>
       <c r="Q18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!Q$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>151919.78304621333</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!Q$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>164270.7913397426</v>
       </c>
       <c r="R18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!R$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>126834.95663312949</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!R$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>139556.49517546463</v>
       </c>
       <c r="S18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!S$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>103961.82741810023</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!S$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>117065.01211670543</v>
       </c>
       <c r="T18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!T$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>83070.322118022348</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!T$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>96566.602357585696</v>
       </c>
       <c r="U18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!U$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>63953.107671204256</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!U$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>77854.2763179545</v>
       </c>
       <c r="V18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!V$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>46423.309202017466</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!V$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>60741.512908170218</v>
       </c>
       <c r="W18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!W$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>30312.455948687362</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!W$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>45060.205766024679</v>
       </c>
       <c r="X18" s="37">
-        <f>VLOOKUP($E18,Model!$A$1:$BR$159,MATCH(Valuation!X$10,Model!$A$3:$BR$3,0),FALSE)</f>
-        <v>24163.412538748205</v>
+        <f>VLOOKUP($E18,Model!$A$1:$BS$157,MATCH(Valuation!X$10,Model!$A$3:$BS$3,0),FALSE)</f>
+        <v>35961.612392618059</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
@@ -7983,7 +7912,7 @@
       </c>
       <c r="C26" s="30">
         <f>NPV(C20,F18:X18,X18/0.1)/1000</f>
-        <v>146.3729618835045</v>
+        <v>227.37675797909048</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -8008,7 +7937,7 @@
       </c>
       <c r="C28" s="30">
         <f>C26+C27-C16</f>
-        <v>155.9969618835045</v>
+        <v>237.00075797909048</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -8019,7 +7948,7 @@
       </c>
       <c r="C29" s="34">
         <f>C28/C13</f>
-        <v>2.4714347573432272</v>
+        <v>3.7547648602517505</v>
       </c>
       <c r="F29" s="13"/>
     </row>
